--- a/Shape-matching-using-a-dynamic-time-warping-algorithm/binary_data Sundar Pichai.xlsx
+++ b/Shape-matching-using-a-dynamic-time-warping-algorithm/binary_data Sundar Pichai.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfcJ\xf1\xcd\xf7\x89|U\xe3\xb9&lt;&lt;\x81\x9eV\xbc\xf2`\x8c\xaeF\xd2z\xd7\xd7?\xb3\x17\xec\x8d\xe0\r\x16\xce\xdb\xc4\xde*\x81\xafo\xe1PZ\xdev\xdc\x8aO\xfb\'\x8a\xfa\x7fB\xb1\xb2\xb4\xb1E\x1bR\x15\x1bcU\xfe\x11\xe9\xf4\xe9I\xe2khml\x05\xdcm\xb8\xaa\x9c\xbf\xf1m\xf4\xcf\xa5x\xe7\xc4\x0b\xa9o\xac\xeemf\x8c4N\xc1\x94H\xbb\xb6\xfe}+\xc1\xbe#\xb2?\x9bn\xaf\x96Q\xcf\x18\xcdy\x0e\xads4\xd7[^\x0c\xeep\x03c\x9e+\xa7\xf0\xed\xbd\xd4\xfab\xbcp1\x1b\x88\x06\xb5u\xcf\x87\xb7~\x15\xf8\xe7o\xa9\xdf\xe9M\x12\xad\xf8\x0c\xc7\x80Fz\xff\x00\x9fZ\xfa\xef\xe0\x95\xed\xa5\xcc\xd7\x17R\xcc\x88y\x01\x10\x8f\x98\x01\xc15\xe9\xf6H/\xb4\xed\xb2\xf9B \xa4\x8d\xf8\xc9&gt;\xd8\xac\xfdb\xf6$\xb2h\xa4\xb7\x0c\xde^#@N\x00\xef\x9f\xd2\xbcc\xc6\xf7\x97\x11\xcfq\x02\xc4\xff\x00?\n\xc1\xb8\xaf\x11\xf8\x84wK,\x91\xd9\x96f\x05\x18\xf6\xcdyW\x89.\xa3D\x8e8\xad|\xb7\x0f\x82W\xf5\xad\xaf\x0ejz\x89\xd3\x17\xec\xf7\x05\x17q\xf9U\xb1\xfdk\xea/\xdao\xe1\x16\xa9\xab\xdc\x9f\x15\xe9V\xa2EI7&lt;P6Ys\x8cs\xdf\xa1\xae\x0f\xe1\xd7\x8b\xf5\x1f\r\xeb--\xc8\x95U\x80\x8c\xc37c_D|2\xf1\xde\x97\x7fi\x0c\xb7l3\x13\x0f8+\xe11\xf4\xe8zU\x9f\x13\xf8\x86\x06\xd4%\xbcY\xbc\xcbg,6\xc6y\x03\xb0\xfau\xaf8\xd7\xe2\x92i\\y\x9b#bH8\xaf3\xf1\xfe\x83s}\x03Ai\n2\xa1g-\x1a\x00\xc7\xa7z\xf0\xaf\x1b\xe97q\xc8U h\xd4I\x96l`\xd5}\x1cH\xd6_\xb9\xbcu\x1b\x8f\x01\xc8\xaf\xd1-\x07\xc4\xbe\x12\xf1.\x93\x1d\x95\xe9\x13\xb9P|\xa5\x84~\xa4\xf4\xaes\xc4\xdf\xb3o\x86\xb5I\xdbV\xd3\xe1\x11Op\xc5\xccHs\xb4v\xfaw\xa8t\x8f\x85\xd2\xf8n!`9\xca\xb1\x00\xf4\x04z\xd5\xb9\xec&amp;\xb3\xb5h\xbeS"\xc7\xc0^\x86\xb9m^\xfc\xb5\xc0\xb2\xbf\xf2\xd08\n\xa8\x067g\xa9\xcfn\xdf\x9dZ\xd0|/a\xe2{7\x82\x1b\x08\xa2\x9a\x16(2rq\xd8\xfb\x83\xdf\xf0\xaf"\xf8\xfd\xf0+T\xd2\xfe\xd3}g\xa7\xca\x91\x95\x0c\x1d\xcf\xca\xe7\xf8\xb0;\x0e\x9f\x9d|\xfds\x0c\xda|\xedk\x0b\xb4!O(N9\xaf\xb0|\x0b\xae\xdc\xe9\xd7^L\x8f\xbfk\r\xe4\x80~\x9dk\xda\xbc\'\xe2\x03{\x14S=\xd3\xb7#\x08\x1f\x1cw\xe9[\xda\xa6\x95\xbe_8[+\xc6\xcb\xbbk\x1f\x99\xb3\xdb&gt;\xdf\xd6\xb9-oK\x84\xbc\x864\xf2\x98\x03\xe5\xa3\x8cc\xd7\x91\xd7\xf1\xaf\x11\xf8\x97s6\x93\xa8\x1b\x8b\x86\x92F\x0eq\x13\x9c+\x01\xe9]\x7f\xec\xf3\xaeK\xaaL\xd7\xd6\xd0+\x17FY-\x84\x9f&gt;\xdf\xf6\x0f\x7f\xa5zW\x89|\x17\xa5\xf8\xd7K{;\x98\xc3\xca\xd0\x1d\xec\x00\xe1\x07Ee\xe8\x18v#\xaf5\xf0\xf7\xc5\xcf\x85o\xa5x\xf2\xf6\xca\x0b\x1d\xd1\xab\xfe\xec\xb4\xad\x909\xeb\xef^\xc3\xe7\xc5mr7Z\xacX\x98\x87\xc1\xea;Wg\xe0\x1f\x17,w\xb1\xac\x13\x90U\x8e\xc8\xc0\xfb\xc3\xb8\xcfj\xf6\xed\x13\xc6-\xaaiq\xdb\xfd\x81w0\xc3\xa9}\x98\x03\xbe\xe1\xd7\x1f\xd6\xb3\xfcp\xf0\xdc|\xd6\xd6I\x1b\x14\x004)\xb5\\\x0e\xf8\x1d\xfd\xfb\xd7\xcc\x9f\x1f\x1ax\xef\x1aO)\x98\x06a\xe5\xa7O\xbaz\x8f\xc2\xb4\x7fe\xddR\xcdne\x82\xf6\'XB\xe6 \xed\xb5L\x84\x0c(#\x95\'\xb1\xafX\xd2\xbca&amp;\x8f\xe2\x89\xed/\x90\xa93c\xc9\x98\xf2\xbe\x99\xecH\xec\xddNj\xb7\xc4O\x84o\xe2\x7f\x12\xbe\xb3\xa1\xe9V\xfeL\xd1)&amp;F\x19-\xdc\x9a\xf3\xcf\x11hs\xcbrf\xb9\x94B\xaa\x0eP\xa6r~\xb5\x93\xa5_\xc1\xa7O\xe6+\xeeTn\x89\xde\xbdo\xe1\xdf\x8b|\xd8\x85\xba\xaci\x1b\xa6v;\x03\xd3\xf9W\xa1k\xb7\x17z\xe6\x8e\x97\x16\xb3+&lt;v\xf8\xf92\xd8\x1e\xe4\xf2\xbe\xd8\xaf\x9a&gt;9i\x17V\xf3Mu4\r$g\x9d\xcf\xd0u\xce\x0fS\xd7\xbds_\x00\xf5\xcb=;Z\x1az\xddl\xf3\xa4%\x96A\xf2\xed\xfe\xef\xe3\xfd+\xd1\xfe)\xcfyo\xabE}g\x07\x93\x19U*\xbb\xf7\x15#\xbe\xefC\x9e\x9e\xd5\xd2x;\xe2\xad\xbc\xba\x14gZ\xb0Y\'RT\xba\xc9\xc1\x03\xa5V\xf1u\x9d\xbe\xa3\xa1\xe2D\xf2\xca\x12s\x0f\xcb\x9e\x9d{W\x95\xda\xa0K\xf7\x80\x1f\x94\xb9&lt;\x00?\x95w\x1f\x0e\xc0\x13\tUT2\x10\x01\xda\t9=\xc9\xeb^\xed\xe1mb\xea\xd3\xc3\xd2D\x89\x1bbg\xda\xec\x9f2\x80\x07\x01\x86\x08\x1c\xf4\xce:W\x88|\x7f\xd3\xed\xae\xc4\xe2e;\x980gS\x82\xd8\xc1\x19\xc7\xd4\xd7\x84\xf8NI-\xb5\xb6\x8a\'`\x13\xe6S\xb8\xe7\x83\xd3\xe9\xed_I\xf8\xdf@\xd3\x1b\xe1\x9d\x86\xaf\x1c\x029M\x96J\xa0\x1b\t`2v\x90Gj\xf1]9\xe5\x102\xa5\xc4\xa8\x04\x84b9YG\xe4\x08\x15\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00x\x00x\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc2\x05\xdeV\xdc8\x00`T\xb0)\x95\xf0\xbdTg\x07\xa1\xff\x00\xeb\xe35\xfa\xdf\xff\x00\x04\x0f\xff\x00\x82\x7f\xc9\xa9\xe9\x12\xfe\xd2?\x14c\x98Y\xdf\xe5&lt;?\xa5\xcb\x1eU\x97\'\xf7\xa5O\x04\xf4\xc1\xfa\xd7\xecf\x85\xe1\r6\xca\xc06\x9d\x01\x85\x08\x1eX\xcf@\x00\x18\x1e\x83\xadgk\x17\x16\xba|\xe4\xcaK\xed\xeb\x96\xaecT\xf0\x9e\x87\xe2\xe7\x96k\xcd9YJ\x1f\x9c\xe3#\xe9\\\x1f\x89\x7fe\xdc\xce\xba\x97\x86\xaf\x8c\';\xf6\x0e7}q\\\'\x88c\xf8\xcb\xf0\xde\xe7\xed\x12Z\xc9s\x04n\xdbDjO\x1cV\x97\x83\xfe&gt;^^\xdc$\x1a\xeb\xc9hI\x1eb\xcb\xb8\x1a\xedn\xbe\'i\xefnc\xb4\xbeR\xac2\xac\xf8\xc1\xff\x00\xeb\xd7\x9f\xf8\xfb\xe3\x1cP\xd9\\]\xf9\xea\x91$L\x84\x992\xcc\xc3\xbf\xf9\xf5\xaf\x96&gt;$|Y}^\xfd\xd6\xd0.\xcc\xe4\x13\xea:\x9f\xadyg\x88\xbcUu\xad\xdf\x00\x92\x85P\xf8P\xc7\x92O\\W\xdb\x9f\xb3\x07\x83t\x7f\x03|\x13\xb7\x9e8\xc0\x9e\xe9\x0c\x8d\xe6/ \x9f_\xce\xb6\xdbS\x0b&amp;\xe6\xc0e\x00\x81\xb7\x86\xaf\xe6\xb1\xc1(\x02\x9e\x9d[\xd6\xba_\x84\x1e\x08\xba\xf8\x8b\xf1#B\xf0-\xa2\xe5\xf5]V\x18\x06\x0e\x0f\xccq\xc1\xed\xd6\xbf\xa8_\xd9\x13\xe1\xde\x95\xe0/\x85\xfe\x1d\xf0~\x85k\r\xbd\xad\x96\x9b\x0cq[\xa2\x00"\xc0\xce\x06:\x0e\x7f\x9d{\xd4\xbajZ\xe9\xe0FTq\xce\xd1\x8cW\x9cx\xdex-.Yp\x1d\xa4;@+\x9f\xc6\xb1m/\x9a;\x95\x86\xd9\x88U\x188\xe3\x9e\xf5\xdahb[\xe5@\xe0\x10\xa0d\xb1\xe9V\xf5\x1f\x0cX\xdff9\xed#\x91?\x8b \x1c\xd7\x01\xe3\x9f\xd9\xeb\xc1\xfe i\x9a+\x05\x82F\x1c&lt;j\x17\xf9W\x87|F\xfd\x96~!\xe9\xd0\xcc|\x17\xae\\\xb6\xd3\xb8F\x84\x95\xe3\xa6\x7fZ\xf9\xa3\xe2\xd7\x84\xbfh\x0f\x0e\xc7,\x1a\xe6\x81q&lt;K&amp;Y\xad\xc3\x03\x8f|W\xcf\xde.\xf8\x9a\xfa5\xd4\x96:\x86\x91=\xb3o \xfd\xa2"\x05g\xf8k\xc4\xdan\xb5\xafZ&lt;\xf3\xc2\xe0\xcc\x0f\xca\xdd9\xaf\xbb&gt;\x1d\xfc[\xd3/|/m\xa0Cz\x9e\\0"\xb9/\x92\xfct\xfc1\xfa\xd7Eg\xae\xc5z\xac\xd1\x9d\xb1\xaf\nOz\xfeqRF`\xd1\xb8(\xcb\x80\xa0\xaf\xde\xafh\xfd\x874\x85\x9f\xf6\x96\xf0t\xb3\xeco\xf8\x9dBq\xbb\xee\xe0\x9f\x98z\x11\xeb_\xd1\x9f\xc1\x9f\x1bK\xa5YZ[$\xc0\x88\x90*\x8e\x9f(\x1cg\xfc\xf6\xafb_\x89\x16\xd7\xb6\r,R\x05m\xb8l\x9f\x94\x9a\xe0\xb5_\x12\xad\xed\xe3L\xf9b\x1f\xefn\xe3\x9fJ\xb9\xa6\xa5\xbc\xd2\xaa\xe0\x0e\xecs\x9e\xb5\xd7\xf8z\x18\xf0\x15\xa4\xc8\xc7\x19=kV\xd9\x965\xce\xfcd\x9e\xd9\xcdT\xbe\xbeS#.\x03}W\xa5e\xce\x1a\xe1\x88\xda\xa3&lt;\x12Eck\xde\x07\xd2\xb5{wMB\xce\x19\x95\x90\x8c8\x1cW\xcd_\xb4\x97\xec[\xf0\xdf\xc7\xf6\x17\x13\xc7\xa1C\x03\xec\xc1h\xa3\\\x92{\xf4\xf6\xaf\xcf\x8f\x8c\x7f\xb2\xf6\xbb\xf0_\xc4\xd3j\x9a7\x9b\xf6hX\xec\x8c\xe4\xf1\xf4\xad\xcf\x83\xdf\x12oM\xcc\x16q\xeb\xb1,\xb1\x90|\xb3\x80G\xa8\xaf\xa0t\xbf\x8a\xf2\xe8\xfax\x97]\xd4!\x8e5\x1b\xd4\xcb:\xedonO\x15\xf8M#\xce\xea\xb2\x17\xc9\xc6\x08\xcdz_\xec\xa3\xe2\xab_\x06\xfcm\xf0\xd7\x88$(\xb2&amp;\xa7\x1a\xefq\xc2\xe4\xd7\xef\xc7\x80~(h\xd0hV:\x9c\xd7\xc3l\xd6\xe8[s{\x7f\xf5\xeb\xb6\x8f\xe3\xb7\x86\xa3\xb7U\x8eO1q\x85\x81$\xce\xf3\xfd?\xfa\xf5B\xcb\xe2%\xce\xb1~R;i\x124`\xcb\x16z\x0f\x7f^\x95\xe9\x1e\r\xd57\xa2\xcfw&amp;\xd2\xdc\xe0\x91\xcek\xbc\xd0o\xe1\n\xa8nT\x11\xd0c\xadk\x9b\xdc\x9f-~\\\xf4*j\xae\xa7umo\x08l\xeen\xe75FY\xa1\x91w\x8d\xc0\x91\xc6\x1a\x88\xec\xee.@\xdb!+\xd5\x88\xc1#\xf3\xae;\xe2\xa5\xe5\x86\x9d\xa7y\xc1C`0\xdb!\xc6O\x1d\x00\xeb_\x16\xfcz\x10x\x93T\xba[\x88\x08\x8d\xc1M\xad\x8c\x13\xed_\x1e\xfcX\xfd\x9d\xf5k\xcf\x10\x8b\xbf\x87\x97\xf7VwL\xf8co(S\x9e:~\xbd+\xc8&gt;%\xfc8\xfd\xa84\x1b\xbf\xb0x\xbbY\xd5\xef\xb4\xe8d\xea%fR=+\xe31.\xd8\xcbm\xdaI\x19\xe6\xb5\xbc#$\xff\x00\xf0\x94i\x91Z6$\x92\xfe\x15A\x8e\x8c\\a\x87\xa1\x1e\xbe\xf5\xfb9\xac^k\x9e\x1e\xf8m\xa3%\xbe\xa5))\xa6B%U&lt;\xb1\xd8+\x93\xd0\xbfi\x85\xf0&lt;\x85\xb5\xc4i\x02\xbe\x029\xc95\xe8\xde\x1a\xfd\xb7\xbc%\xab\xacp\xc6\xbeS\x80\x03nl\x11\xf4\xafX\xf0g\xeda\xe1\x89\x99\x07\xf6\xe4\n\xa2&lt;\x85\x0e\t\xc8\xe8\x0ek\xd6\xbc\'\xfbDi7\xf1"\xd9jh\xc6DS\xbd\x88\xe0\xf3\x91]\xa6\x8d\xf1\xa6\xc0\x81\x1b\xdf\xc4\xf2`\xe4\xef\x1c\xd6\x82\xf8\xfe\xcfT\x80\\4\xf1\xb0b~]\xf9\xc5^\xb0\xf14\x12G\xb50s\x8f\xbaA\xab\x13x\xa0Enm\xe1\x0c\xac\xfdX\x10\x0f\x15\xe3\xdf\x1d&gt;$-\x85\x8d\xc3L\xea#\x89p\x07\x18\xc9\xeak\xe4?\x1d\xf8\xcf\xfbZ\xf6E\xb2*\xe8K;K\xdc\x1e\xdc\xd6\x87\xec\xf9\xa4\xda\xf8\xb7\xc5\xb2O\xab[!X!-\xb8\xf1\xcf\xaf\xe9^\xb1\xae\xfc/\xf0\x8f\x8e,\x12\xc3S\xd2\xa0\x92&lt;\x1d\xaa\xb8\xeb\xeb_\xce\xc81\x10\xec\xa0\x1d\xcd\xe9[&gt;\x00\xbb\x1aw\x8dt}B|\x98\xa2\xd4\xa0g\x00\x02q\xe6\x0f^\x95\xfb[\xe3\xfd\x06\xe7W\xf8}a\x7f\xa5\x13\xb2M&gt;)\x11\xc7#\x065\xe0c\xa5|\xbd\xe3]\x16I5\tM\xc5\xa9\x8d\xf7\xfc\xc4\xc7\xf3\x13\xeb\\\'\x8b\xb5\x8b\xff\x00\x0c\x924\x9b\x16\x92\xe8\x0cF\xef\x9e\t\xfeu\x83\xa6x\xaf\xe2u\x95\xe4R\xcf\xae\xca\x972J&lt;\xbbhb\'s\x1e\x83\x0b\xc9&gt;\x95\xf4\xaf\xc2?\x84\xff\x00\xf0Q}sH\x8bX\xd1\xfc\x0b\x7f\xf6GR\xf0\xbd\xf3}\x9d\x99}vt\xc5u\x9a\xaf\x8f?l\xbf\x82\xf6\xe2\xe7\xc6\x9f\x0e\xa7\x91\x11wJ\xf1J\\\x81\xed\xb6\xaex\'\xfe\nW\x1e\x9f"Yx\xb9n4\xf3\x9c\x18\xe7\x84\xaf=\xf9#\x9c\x7fZ\xf7o\x86_\xb7o\xc3\x8f\x14\xed\xfb7\x88\xad\xdc\x85\x00\x818\xeb\xef]\xc5\xdf\xed-\xe1\xc4\xb2\xfbR\xeb\x16\xee\x1f8&gt;x\x04W\x89|^\xf8\xddi\xe2O&gt;\xd6\xd7PQ\x1c\x87\xe6\xd8\xc0\xee\xaf(\x93\\\xb3\xb6\x8aU\x89rJ\xe7\x05\x86\x1b\x9a\xef\xfe\x08x\xae=\x02\xda\xe0@TOs)\xc9\x07\x90\xa0p&gt;\x9c\x9a\xf5\xeb\x0f\x12\xc1)\x80J\xc4\x10\x99*\x87\x8f\xc6\xbf\x9e\x06T]\xaa\xb1\x05\xe7\x9cw\xa9\xa0\x9a[|\xcf\x00\x05\xe3!\xd0\x1fb\r~\xd9~\xc8^2\xd3\xbe)~\xce\xfe\x17\xd4\x85\xc2L\xa7N\x8a\x1b\x95\x07?\xbcQ\x83\x9fZ\xe9\xbe&amp;\xfe\xc92\xf8\xbd\x7f\xb5&lt;;d\xc2w\xe5A\x1c7\xe5^=\xe2\x0f\xd8;\xe3\xae\xbd#\xc3\xa2\xf8_\xcd\x93\xcc&gt;d\xb31X\xd1\x07r}}1\xe8k\xe9\xef\xd8\x07\xfe\t{\xe0\x9f\x87\x1a\xd5\xb7\xc4o\x8a\x96\xf6\xfe \xd7\xca\x92\x8f4a\xad\xad\x07m\xa1\x81\xcb\x0f^\xa3\x15\xf7\xc5\xaf\x864\xcbm-!\x82\xc9\x15"\x8c&amp;\xefQ\\/\xc4\x0f\x87~\x14\xf1#\x1b][L\x82T#\x00\xba\x8e\x95\xe5^"\xfd\x82\xbe\x02\xf8\xea\xed\x9fT\xf0F\x9e\xea\xdd\x0f\x92\xa3\xaf^\xd5\xc7k_\xf0H?\xd9\xe9\xf7]h\xdaK[\xbes\x9bg\xc6\xdc\xff\x00*\xe7/\xff\x00\xe0\x93\xde\x13\xb7\x7f/O\xf1&amp;\xa6\x14\xf4\x8f\xcef\x03\xf35\xcf\xf8\xaf\xfe\ts\x1d\xbe\x9eZ\xc3\xc4\xb7\x85\xd0\x12Q\xd8\xf3\xf4\xaf\x9d\xfe(\xfe\xc9?\x13\xfe\x10\xddI*4\xd7V\xfb\xf2\xac\xeaX\xed\xf49\xa8\xfe\x19\xdfO\xa6\xdf\xa0\xbd\x88\xf9\xe1\xb0\xc9\xb3\x15\xeb\xbaF\xb6\xf19\x91\xe5p\xe4\x7f\xab-\x8c\xfarzw\xaf\xc1\xd9\x00\x11\xe4\x0c\x1fZ|r\x04g%I \x06S\xe9\x8e\xdf\xad~\x92\xff\x00\xc1\r|o\xe2\xcf\x1aj:\xdf\xc1\xab\xbcO\xa7\xe9\xd1\xad\xe5\xac\xac\x99\xd8\xcc\xc7*3\xd0|\xbd+\xf5\xe3\xc1\x8d\xa5xSK\x85\xb5\xa5\xcb\x84/\xb5\xf6\x8crx\x18\xa8u\x8f\x1b\xbe\xba6[\xdb*D$\xf9QF?\x1a\xf5\x0f\x82\x1aL\x13\xe9\xf1\xcbqr2\xf2\x1e\x00\x04\xfb\xe6\xbdC\xc5\x89kc\xa2\x8d\x81[\x00\x02H\x03\x8e\xd5\xe4\x9a\xa6\xa9k\r\xd4\xd3\xdc\xcb\x85\r\x85]\xd9\x15gB\xf1\x14LV8\xfa\x03\x9c\xd7Sk{m*e\xd7q#\xa5Y\x80YyBQ\x18g=\x01\xedY\xda\x8e\x9fk#4\xd2[\x82\xc7\x8e\xbd+\xc6\xbe=x_H\xb8\xd1\xee\x1e\xfa\xdcma\x80\xa4g?\xfe\xaa\xfc\xfb\xf8\xdda\xac\xf8\x0f\xc4\xf3j\xde\x17\xd2\x1e\xf5crB\xaa\x83\xb0\xf6-\xed\xd6\xb2&gt;\x12h\x7f\xb4\xc7\xedq\xa9\xcb\xe1\xbf\x87\xbe\x0c\x96\xc2\xdb~\xcb\x8dI\xd0\x80\xb8\xc8$1\xe9\x8fj\xfcr2\xb1]\xa1NA\xe8jtm\x8cYy,\x06W\xd4\xf4\x03\xf5\xcf\xe1_\xae\x1f\xf0@/\x85\xbav\x81\xf0\x87\xc4\x1f\x16\xefet\xb9\xd6/\x1a;R\xcd\x8f\xddE\x95\x04{\x16-\xf9W\xdd\x1a\x8c\x82\xefUi\xc5\xc3J\xf9\xc3nc\xb5q\xff\x00\xeb\xae\x9fH\xb73\xda\xa3\xc7\x84\\d\x1c\xf3]_\x85\xbcm&amp;\x80\xa9\x1c3\x1c#|\xe5&gt;\xf1\xfck\xb5\xd4\xbe$\x1dKGU\xf3\xe6!\x94\xe4\xc8\xdc\xd7\x98\xeb~*\xf3\xf5/\xb2\x9b\x9c\x83\'\x007_\xadt\xfe\x0b\xbf+\x16$$\x96l)5\xdfiw\xb0\x98\xf7\t0\xca\x98o\x9b\x185d\xea\xf6\xa9(cr\xad\xb5FF:TS\xeb\xb6R\xab\x0f=@$d\xfa\x0e\xe6\xbco\xf6\x87\xf1\xbe\x9bg\xa4\xcd&lt;s\xa3\x18\xc9X\xd3\xfb\xc3\x8ek\xe3io\xec&lt;S\xe2{\xa5\xb9\x91\\\x07-p3\x85e\xe9\xb7\xf5\xaf\xb5\x7famg\xc0\xba_\x82\xa2\xf0\xa6\x89\xa7Ao*\xa9S\n\xaa\xa9\r\xc9$\xe3\xaer?*\xfeV\xd5\x1fhl\x8f|\xd4\xb6\x8d\x08\xb8]\xc8rYr\xc7\xb75\xfb#\xff\x00\x04r\x12\xcd\xfb(iv\xe2`\xb1\t&amp;\x00\x81\xd0oc\x8fj\xfa\xceWm)\xcb\xbc\xa6d*0;g\xd4\xd6\xee\x91\xe2\x08\x86\x9b\xe4B\xccY\xc7\r\x9eG\xe3\xe9T\x8e\xbfua~"\xba\x91Y\xb3\x92U\xb01W\xf5_\x8aW\xba~\x9a\xc9n\xab\xb7i\x1c\xbfZ\xe1\xec\xbe&amp;[\xc7~.\xb59\xd46\xf2~\xfdw\xde\x18\xf8\xcb\xa6\xa3\x89&gt;\xdb\x1e\xd1\x82\xa0H8?\x8duZw\xc6\xdd\x18\x92\xe6\xf5F\xe1\xce\xf6\x075;\xfc\\\xb1\x997,\xca\xdb\xb3\x8cK\x9a\xc8\xd7\xbe-Cgh\xfeE\xe0R\xcaw\x82\xdd\xbe\xbd\xab\xe6\xff\x00\xda3\xe3\xf6\x95\xa9\\6\x97ax]a@\x18F\xd89=\x81\x1dzs^\'\xa0\xf8\x9e-9&amp;7\xed\xb1\xee\xa6\xca(a\xb4s\x90\x08\xf7\xfe\x95\xf4\x17\xecO\xf1\x9a\x0b\xbf\x8b\xbf\xd9v7\x02X\xe1\x83\x0c\xdb\xba&gt;y\xc7\xe5_\xcf{\xc9\xb4\xaa\xba\x9fj\x96)$i\x122F\xc2\xd9b\xbdx\xed\x9f\xc7\xf4\xaf\xd7\xef\xf8"o\x88\xedo?fhtR\xcb\xe6\xd9\xdeK\x13\xa1|\x93\xc99?\x9d}\xb7\x7f\xa5#\xd8,\xca\x14\xc6\xca@f\xf5\xaebi\xb5\x1d\x11\x88\x17\x83\xcb\x04\x9c#\x1c\xe2\xbc\xa3\xe3\x1f\xc7\xe8\xbc\x14\x92^#J\xeb\x0eK(\xed\xd2\xbej\xf8\x87\xfb{|F\xf1E\xf8\xb3\xf0\xb8\xfb5\xa8$"\x96\xda\xe7\xa6}\x8f\xe3\\G\x89?m\xddw@\xb71\xeb\x1a\xe03\x8f\xbd\x18\xc9|\xfb\x9a\xe7\xad\x7f\xe0\xa4\xba\xed\xb5\xe7\x95$r\xc8\x17\x1c\xab\x1cb\xba=;\xfe\n\x8f\xa8\xd9\xc8\xb7\x0fe/\x95\xb7\x05\x00&lt;\x9a\xde\xd1?\xe0\xac\x16\xd6\xaa\x1a\xfe\xd6\xf0\x10w7\x90\x08\x1e\xc2\xa4\xd6\xff\x00\xe0\xa9\x16\x9e9\xb7{8\xa56\x91\xc9\xf2\xb0\\\xee#\xde\xb9\xc6\xfd\xa9~\x1f]Jn\xe5\xd4\xdaW\x03\xe5]\x9d\xcdr\xde)\xf8\xf7\xac\xf8\xc2\xeb\xcb\xf0|R\xa8\xde\x01\x92D;W\x1d\xc0\xf5\xaf\xb7\x7f\xe0\x92_\x06&lt;L/S\xc6:\xc4r\xca%\x98\xbb\xcf*\x9c\xbes\xd7?J\xfc8-\x1b\x0f\x99\xb1\xe8=h\x8d\xc26c`\xbbpy\x1f{\x1d\xab\xea\x7f\xf8&amp;\xff\x00\xed\xa1s\xfb5\xf8\xb1\xfc7\xa9\xce\xc3G\xd5\x183\xb0lyrd\x82O\xfd\xf5\xfaW\xedW\xc1\x0f\x8a\x9e\x11\xf8\x9f\xe0\xa8\xf5K\x0b\x98n\xa0\x96\x11\xe5\x94\x99H\x07\x1dq\xebY?\x12\xb4\rn\xda\xd5\xaf&lt;;y\tfn#\x95\xc7\xcb\xc1\xff\x00?\x85|C\xfbV]|]-\xfd\x8e|=h\xf2\xccN\xd2\x9b\x99\xa5\xe7\xfd\x9f\xeb\xeb_?\xdd\xfc\x0b\xf8\xc9=\x84\x97\xd7\x9e\x0c\xd4H\x94\xf2\x90Z\xb2\xae{n$\x7f\x9ek\x80\xd6\xbe\n|H\xd5\xf5S\xa7K\xa0\\=\xc2\xa1Qk\x0c.\xfb=\xf8\xe8\x7f\xc2\xaci\xff\x00\xb2\'\xc55\n#\xf0^\xa4\xc3h-\x8bW\x07\x9f\xc2\xbam\x0f\xf6\x17\xf8\xdf\xac\x94\xfe\xcc\xf0.\xa4\xec~\xe4kn\xdd\xfa\xe7\x8a\x9f\\\xfd\x82&gt;;hK\xff\x00\x13\x0f\x87\xfa\x8a\xafa\xe4\x12I&gt;\x9e\x94\xed\x17\xfe\t\xf9\xf1\xf2\xf5\x16T\xf8w\xa9)&lt;\xb6\xebb\x0e;v\xae\xef\xc1_\xf0M_\x8d:\x85\xf4Q\\\xf8\x12\xf8\x12A\x05\xa2 \x03_U~\xcf\xbf\xf0H\xbf\x15Owm\xa9\xf8\xca&amp;\xb4\x81p\xcf\x01\xc8\xfd+\xf4S\xe0g\xc0\xcf\x0c\xfc\x1e\xf0\xcd\xb7\x874=1T,*\xa6@2X\xd7\xf2Z\xe8\x1ct\xe9N\xd8\xe8\x8a\xe8:\x1c\xe3\xd6\x94L\xc2E{\x85-\xb9\xf3\xb7&gt;\x9f\xca\xbe\x93\xfd\x8e?\xe0\xa0\x1f\x11\xbfg\x8dR\x1f\x0f\xeaZ\xa4\x97z.\xf3\x88^f&amp;,\xfad\xe0\xff\x00\xf5\xab\xf4_\xe0w\xed\xf3\xfb?|C\xb2\x80\xf8\xc7\xfbv\xea\xe6r\n\xdbZ\x86a#\x0c\xfc\xa3i\xf7\xef_Z\xfc\x1e\xb2\xf8i\xe2\xd8a\xd7\xfc\x1d\xfb?0\xf3\x82\x91y\xad\xa8\xf9O8\xc9l\x9e=\xbdk\xbf\xd5\xfe\x11\xc5\xf1\n\xfa\x1f\x0b\xcb\xa7Y\x99\xa7l-\xb5\xa4K\xe5\xc68\xcb\x16\xc7A\xef^\x9b\xf0\xff\x00\xf6-\xfd\x9b\xfe\x14i\xc2\xe6\xd7\xc0\xfa~\xa3\xaa7\xcds\xa8\\[)%\xfd\x17\x038\x19\xad\xcb\xaf\x84\x1f\n\xe5S,\x9e\n\xd3\xc3\xe0\xe3l8\xdb\xf9\xd5\xff\x00\x06|"\xf06\x9a^h\xb4\xbbTr\xbf)HW#\xf1\xc5i\xdd\xfc\x07\xf0F\xb9\x7f\x1d\xc5\xef\x86\xed\xa5\n\x03~\xf1W\x93\xeb\x8cs\xd2\xba\x0bO\x82\x7f\x0f\xa2\xc0\x8fE\xb7i0\x06\xdf)H\x03\xf1\x15\r\xdf\xc2\x0f\x0b[\\l\xb6\xd1c\xc0\xe7x\x8dp&gt;\x9cU\x1b\xcf\x04[\xda\xc8"\x86\x10\xaaN\x0f\x1dkcN\xf0e\x9c\x05fX7\xb6\x07\xdf\x1c-\x7f\x16&gt;R.U\xae\x08-\xd0\x1e\xf4\xe17\x90\xbbz\x1e\xd9\xe7?\xe1K2\x83\x00fb7u\x1b\xaa\x15\x7f-T\t[\x8f\xba3\xc0\xae\xbf\xe1\x9f\xc6\xdf\x89\x1f\x0b5h\xb5o\x06\xf8\x8a[W\x8aEe \x96T\xc6y\xc6k\xee\x8f\xd9O\xfe\x0bo\xf1C\xc2Z\x1axs\xe2\x17\x88Rk\xff\x000\xa4\x17W;\xa3\xb7Px\x0c\xdby?N\xf8\xaf\xb6?f\x9f\xf8+w\x83\xefu\xdb?\x01\xfc?\xd5\'\xf1_\x8a\xb5v\xff\x00N\xbbu\x11\xc5\x18?{\x04\xff\x00\n\xe7\x8a\xfb\x87\xc3\x9f\x1c\xd3P\xd3#\x83U\xbe\x86\xe2\xe5\x94y\x8e\x8c\xbbW\xfd\x91\x8fNk\xa9\xf0\xff\x00\x8d[T\x9d`R6\xe3\xa9l\xe6\xbb=#P"\xd83\\c\x07\xe6\xf9\xbbV\xed\x87\x89\x1ak\xa0\xd6\xe4""\xe0\xb7\xad_\xb0\xf1\x0c\xbfhc\xe71S\xd5\xb7\x1a\xd2O\x12\t\xa0\x11"\xae\x01\xe4\x91\xd6\x92{[k\xe4I\xa38e==kON\xd3\x85\xcc\x0b\x14\xae\x00#\x9d\xd5\xfcC\xb4r\x1c*`\xfb\x9e\xd4\xc7C\n\xe48-\xedH\xa4|\xb28\xff\x00xS^!\xca`dSb\x85\x17q g\x18\xe9\xda\xa4Y\x0cd\x106\xf1\x8c\x8fJ\xe8\xbe\x1d\xfcO\xf1\x87\xc2\xfd}&lt;K\xe0\xcdzk\x0b\xb8\xc6\x04\xb1\x13\xf9\x1c\x1a\xfbW\xf6+\xff\x00\x82\xa2\xfcV\xff\x00\x85\x8d\xa5xg\xe2\xd7\x8e\xe0\xb2\xd1\x8b\x83=\xca\xae\xd36;\x12\x0f\xbf\x7fZ\xfd\x9b\xfd\x9f~=\xf8/\xe2\x1e\x8bm\x7f\xe1k\xa8.Rh\xc1\xf3\x96Q\x9cv?\xce\xbdtx\xca\x18\x99a\x8ea\xb1Tg\r\xcb\x13[6&gt;+\x9ah#\xb5\x8c\xe4\xe7#\x9e@\xef[\xab\xe2h\xa2\x81b\xb6\x94\x93\xdf\rVl&lt;G\xfb\xd1n\xaeH\xeb\x9c\xd7Am\xe2H\xed\xc2\x97\x94\x90\xa3\x90M_\x8f\xc5\x12\x15\x17))\x05\xbf\x83&lt;\n\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00\x1e\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfcJ\xf1\xcd\xf7\x89|U\xe3\xb9&lt;&lt;\x81\x9eV\xbc\xf2`\x8c\xaeF\xd2z\xd7\xd7?\xb3\x17\xec\x8d\xe0\r\x16\xce\xdb\xc4\xde*\x81\xafo\xe1PZ\xdev\xdc\x8aO\xfb\'\x8a\xfa\x7fB\xb1\xb2\xb4\xb1E\x1bR\x15\x1bcU\xfe\x11\xe9\xf4\xe9Rk:t^\\R@\xca\xccx\xdeFN;\x0c\xfaW\xe7\xe6\xb9\xf0\xf6\xef\xc2\xbf\x1c\xed\xf5;\xfd)\xa2U\xbf\x01\x98\xf0\x08\xcf_\xf3\xeb_]\xfc\x12\xbd\xb4\xb9\x9a\xe2\xeaY\x91\x0f "\x11\xf3\x008&amp;\xbd&gt;\xc9\x05\xf6\x9d\xb6_(D\x14\x91\xbf\x19\'\xdb\x15V\xea\xfe\xda\x10\xa9q\x01b\x00\x08\xa8\xc7\x81\xdf?\xa5x_\xed7\xf0\x8bT\xd5\xeeO\x8a\xf4\xabQ"\xa4\x9b\x9e(\x1b,\xb9\xc69\xef\xd0\xd7\x07\xf0\xeb\xc5\xfa\x8f\x86\xf5\x96\x96\xe4J\xaa\xc0Fa\x9b\xb1\xaf\xa2&gt;\x19x\xefK\xbf\xb4\x86[\xb6\x19\x89\x87\x9c\x15\xf0\x98\xfat=*\xdf\x89&lt;A\xe6jowkp\x1e\x17c\xb4+}\xde\x98\x1fN\xb5oI\xb9\xd25\xbd\x065\xd5\xac\xcc\x81\x97!DK\xfc\xcf"\xb8\xef\x15\xfe\xce\xbe\x14\xbd_\xf8H-Q`{\xa7f\n\t;q\x8f\xf1\xaa\xfa\'\xc3\xe84\x18\x05\x9cW\x01\x83+\x10\x08\xe0\x11\xedZpX4\x08#v\\\x85\x1ft`W\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc2\x05\xdeV\xdc8\x00`T\xb0)\x95\xf0\xbdTg\x07\xa1\xff\x00\xeb\xe35\xfa\xdf\xff\x00\x04\x0f\xff\x00\x82\x7f\xc9\xa9\xe9\x12\xfe\xd2?\x14c\x98Y\xdf\xe5&lt;?\xa5\xcb\x1eU\x97\'\xf7\xa5O\x04\xf4\xc1\xfa\xd7\xecf\x85\xe1\r6\xca\xc06\x9d\x01\x85\x08\x1eX\xcf@\x00\x18\x1e\x83\xadgk\x17\x16\xba|\xe4\xcaK\xed\xeb\x96\xaecT\xf0\x9e\x87\xe2\xe7\x96k\xcd9YJ\x1f\x9c\xe3#\xe9\\\x1f\x89\x7fe\xdc\xce\xba\x97\x86\xaf\x8c\';\xf6\x0e7}q\\\x8d\xcf\x83\xbe8i72X\xdb\x10\xf1\xab\x9d\x84\x82x\xaf\xe6\x8d\xc1(\x02\x9e\x9d[\xd6\xba_\x84\x1e\x08\xba\xf8\x8b\xf1#B\xf0-\xa2\xe5\xf5]V\x18\x06\x0e\x0f\xccq\xc1\xed\xd6\xbf\xa8_\xd9\x13\xe1\xde\x95\xe0/\x85\xfe\x1d\xf0~\x85k\r\xbd\xad\x96\x9b\x0cq[\xa2\x00"\xc0\xce\x06:\x0e\x7f\x9d{\xd4\xbajZ\xe9\xe0FTq\xce\xd1\x8cW\x9cx\xdex-.Yp\x1d\xa4;@+\x9f\xc6\xb1m/\x9a;\x95\x86\xd9\x88U\x188\xe3\x9e\xf5\xdahb[\xe5@\xe0\x10\xa0d\xb1\xe9Z\x13\xe8\x96\xc6L\x9bh\xdb\xdc\x80k\xf8\xf6I\x19\x83F\xe0\xa3.\x02\x82\xbfz\xbd\xa3\xf6\x1c\xd2\x16\x7f\xda[\xc1\xd2\xcf\xb1\xbf\xe2u\t\xc6\xef\xbb\x82~a\xe8G\xad\x7fF\x7f\x06|m.\x95eil\x93\x02"@\xaa:|\xa0q\x9f\xf3\xda\xbd\x89~$[^\xd84\xb1H\x15\xb6\xe1\xb2~Rk\x82\xd5|J\xb7\xb7\x8d3\xe5\x88\x7f\xbd\xbb\x8e}*\xe6\x9a\x96\xf3J\xab\x80;\xb1\xcez\xd7_\xe1\xe8c\xc0V\x93#\x1cd\xf5\xad[tC\x1eJ\x83\xc9\xe4\x8a\xfe;\xe4y\xddVB\xf98\xc1\x19\xafK\xfd\x94|Uk\xe0\xdf\x8d\xbe\x1a\xf1\x04\x85\x16D\xd4\xe3]\xee8\\\x9a\xfd\xf8\xf0\x0f\xc5\r\x1a\r\n\xc7S\x9a\xf8m\x9a\xdd\x0bnoo\xfe\xbdv\xd1\xfcv\xf0\xd4v\xea\xb1\xc9\xe6.0\xb0$\x99\xde\x7f\xa7\xff\x00^\xa8Y|D\xb9\xd6/\xcaGm"F\x8c\x19b\xcfA\xef\xeb\xd2\xbd#\xc1\xba\xa6\xf4Y\xee\xe4\xda[\x9c\x129\xcdw\x9a\r\xfc!U\r\xca\x82:\x0cu\xads\xa82\x9c$c\x1e\xcf\x8a\xfe=\xc4\xbbc-\xb7i$g\x9a\xd6\xf0\x8c\x93\xff\x00\xc2Q\xa6Eh\xd8\x92K\xf8U\x06:1q\x86\x1e\x84z\xfb\xd7\xec\xe6\xb1y\xaex{\xe1\xb6\x8c\x96\xfa\x94\xa4\xa6\x99\x08\x95T\xf2\xc7`\xaeOB\xfd\xa6\x17\xc0\xf2\x16\xd7\x11\xa4\n\xf8\x08\xe7$\xd7\xa3xk\xf6\xde\xf0\x96\xae\xb1\xc3\x1a\xf9N\x00\r\xb9\xb0G\xd2\xbdc\xc1\x9f\xb5\x87\x86&amp;d\x1f\xdb\x90*\x88\xf2\x148\'#\xa09\xafZ\xf0\x9f\xed\x11\xa4\xdf\xc4\x8be\xa9\xa3\x19\x11N\xf6#\x83\xceEu\xd6\x7f\x1a\xb4\xb5\x80\x0b\x9dB6~\xe4\x155\xfc\xa8\x03\x11\x0e\xca\x01\xdc\xde\x95\xb3\xe0\x0b\xb1\xa7x\xd7G\xd4\'\xc9\x8a-J\x06p\x00\'\x1e`\xf5\xe9_\xb5\xbe?\xd0nu\x7f\x87\xd6\x17\xfaQ;$\xd3\xe2\x91\x1cr0c^\x06:W\xcb\xde5\xd1d\x93P\x94\xdcZ\x98\xdf\x7f\xccL\x7f1&gt;\xb5\xc2x\xbbX\xbf\xf0\xc9#I\xb1i.\x80\xc4n\xf9\xe0\x9f\xe7X:g\x8a\xfe\'Y^E,\xfa\xec\xa9s$\xa3\xcb\xb6\x86"w1\xe80\xbc\x93\xe9_J\xfc#\xf8O\xff\x00\x05\x17\xd74\x88\xb5\x8d\x1f\xc0\xb7\xff\x00du/\x0b\xdf7\xd9\xd9\x97\xd7gLWj\xd1\xfe\xdc\xde\x1c\xc6\x99\xaa\xfc?v\x99FX\xfd\xa0\x1e\xbf\x85~52\xa2\xedU\x88/&lt;\xe3\xbdM\x04\xd2\xdb\xe6x\x00/\x19\x0e\x80\xfb\x10k\xf6\xcb\xf6B\xf1\x96\x9d\xf1K\xf6w\xf0\xbe\xa4.\x12e:tP\xdc\xa89\xfd\xe2\x8c\x1c\xfa\xd7M\xf17\xf6I\x97\xc5\xeb\xfd\xa9\xe1\xdb&amp;\x13\xbf*\x08\xe1\xbf*\xf1\xef\x10~\xc1\xdf\x1du\xe9\x1e\x1d\x17\xc2\xfel\x9ea\xf3%\x99\x8a\xc6\x88;\x93\xeb\xe9\x8fC_O~\xc0?\xf0K\xdf\x04\xfc8\xd6\xad\xbe#|T\xb7\xb7\xf1\x06\xbeT\x94y\xa3\rmh;m\x0c\x0eXz\xf5\x18\xaf\xbe-|1\xa6[ii\x0c\x16H\xa9\x14a7z\x8a\xe5\xf5\xaf\n\xe8\xd3\xdf\xb3\xbe\x9f\x0b\xf0\x00-\x185\xfc\x89\xc8\x00\x8f `\xfa\xd4\xd0\x01\x89\x1f\xbam#\xf5\xaf\xd2/\xf8"?\x8f&lt;E\xaf\xe8\xda\xc7\x80u[\x95\x9bN\xb0\x9cMj\x8e\x99h\xd9\x98\xe4\x02z\x0e\x07\x18\xaf\xd8\x1f\x84\x1ae\xa4\x9aL2L\x9b\xce\t\x19\x03\x8eO\xa7j_\x17\xea\xf7R\xdc\x9b-\xb1\xaci!\xc2\xa2c\xf1\xae\xeb\xe0\x85\xa4W6\x99\x90\x9c\x891\x9e9\xce\x7f\xc2\xbdg\xc4v\xd0\xc3\xa2)X\xc7a\xca\x8e\x83\xb5y6\xa9,\x9f\xda\x12\x81#\x00\x1c\x80\x03\x1a\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00\x1e\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf9s\xc6\xda\x9c\xe2\xe1\xd2 J\xedd\x91_\x90\xdc\x1e\xdd\xeb\xc1\xbe \x88-Q\xad\xc6\xd5\xdcN\xd5T\xc0_\xa7\xa5x\x8f\x8a\xee&amp;\x86\xe5\xe1\xf2w*\x13\x9e3\xd6\xac\xf8.)\xe6V\x8e(X\xe1\x015\xf6\xaf\xc4{\xd9a\xbf\xfbB[0^IX\xcfOz\xf1\x1f\x88\xce\xd2\xb12Z\xb3\xba\x92\xe3\xe9\xef^=\xe2i\xe2\x85n\x04\xd68f\xe47|f\xa0\xf0^\xa3z\x8a\xe9o)F\x087\x1d\xd8&amp;\xbe\xd2\xf1u\xc8\xbf\xb9{\xbb \xca\x8c0Ku\x07\xbek\xce\xbci\xa5&lt;\xd0\xc9\r\xa8\x8eG\x91v\x96(\t\x1c\xfa\xd7\x86|A\xd0ol\xe5\x9a\x11j\xfb\xc2\x95,\xc3\xf9W\'\xa0E,R&lt;"\xe9\xd5\xc2|\xc41\xcd}\xbf\xab_]\tM\xb8\x11\x80]\xb2\xdb2H\x00\x9c~\x95WA\xd3\xb4\xbd[P\x93I\x93NBZ!.\xf79\xfc3\xdb\xdb\xde\xb8\xcf\x8e_\x0b\xf4\xd8\xa1\x86A.&amp;\x946\x19N\x14.\t\x19\xf5&gt;\xf5\xf3&amp;\xb5`\xdaV\xa1,1I\x89C\x90\xee\x9cdW\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf7\xab\x0f\x8c?\x10\xbc)8\xd2\xbcG\xa4\xdc*\xa7\xde\x97\xcb85\xe8~\x17\xf8\xc1\xa6\xeaV&gt;|\xfa\xa0k\x8c\xe7`9\xe7\xfe\x05Px\x97\xe2\xb4\x10\xc2Z9RC0\xdb\x1a\xef\xc6\x0f\xbdx\'\xc7\x8f\x8dQ\xc7\x8b/\xb4\xac\x93\x88\xb0\x08n\x03z\xfdk\xe7o\x14\xfcE\xba\x929$U\x01\xa59\x8c\x0e\xc7\xde\xba?\xd9\x03\xc26\xbe:\xf8\xbdk.\xab x\xac_\xcc\x0c9Q\xeek\xec\x8f\x17^\xdb\xda\xdd\x88-b_.8\xb9P\xbc\xd6Z\xeb\x1e@\xf2\xe3\xc3\x8e\xbb\xb6\xf5\xaf\xa5\xfcM\xf0\xc7\xc3z\xed\x93\xc7\xa9i\x119=\xcc`\xff\x001^E\xf1\x0f\xf6T\xb3\xba\x0fu\xe1\xcb\xf9-\x98t\xda\xc7\xfaW\xcf\x9f\x17~\x07\xfe\xd0\xde\x14g\xb9\xd2\x9ek\xc8wo\xff\x00H\x195\xf3/\xc5\rO\xc7\x9e\x18\xb9\x96o\x17\xf8R\xfc8\x93\x86(\xcc\x07\xe7^_u\xf1F\xd3V\x9c\xc3\xe6E\x11=V\\\xabW\xbb\xfe\xc6&gt;=\xd1|\x1fsu\xab\x99St\x83\x017\xfd\xff\x00\xaf\xad}5\xff\x00\t\xdd\xbe\xaa\xc2\xed\'\x13M \xc6\xe49\x15p\xdf\xc5\xfcS\xa8\xfck\xec\xfb\xbb\xb5\x8a\xdc\x93(\xf7\xf9k*\xfa\xe8I\xc0\x88s\xd7\x8a\xcf\xba\xd2\x13P]\xb2\xec \x8c`\x81\xd3\xd2\xbc\xf3\xe2\x97\xc0\xdf\x04x\xb3M\x92\xdfV\xf0\xf5\xb4\xac\xf1\xe0\x1d\xa0\x9d\xde\xbd:\xd7\xc1\xbf\xb5\x97\xfc\x13\xefA\xb57\x1a\xcf\x84\xed\xda9\xc7O(\x05\x03\xf2\xaf\x9a|=&amp;\xbd\xf0\xabY\x1a&amp;\xa9z!\x10\xfd\xd9eN\x1a\xbe\x8a\xf8M\xf1\x13X:|s\xda\xeaq\xcc\x80\xee\x05%\x03\x03\xf3\xae\xd6\x7f\x8f\xbe\x1d\xd3\x1f\xec\xd7\xda\xb5\x89\x97\x19o6u\x04{W\xe99\xb8\x8e_\x9ei\x0e\xdfBx\xac\xb9o`\x92g\x85W\x18\xff\x00j\xa1\x18\x92LC)Q\xfe\xd1\xa6\xdeZ%\xbd\xbf\x99|_s}\xd0\xaa8\xaf\x9c?h}r\x01\xa5\xcd\xa7A\x00$\x8d\xa5\xe2m\xc7?\x8d|Q\xf1\xd3\xe1\x86\x87\xe3KYM\xf4\'\xcc\x03hx\xcf \xfdk\xe7\x1dk\xe0?\xed\x1f\xe1\xfd*}G\xe1\xf7\x8a\xf54\x82)0 \x8a\xe7\x86\x1e\x80\n\xf2\xeb\xaf\n|T\x86\xeeX\xfcWo\xaa\xcb{\xbc\xf9\xae\xfb\xb2k\xfa\x18\xb6\xf8\xb9c\xa8\x88\xad\xe3\xbb\x8b\x12t"J\x9a\x1f\x16ZI6\xf0\xd1\xe4\xf5;\xabN?\x11DO\x9aP\xe3\xdc\n\xc6\xf1\xa7\x8e%\xb7\xd3\xa5\xbeS\x82\x7f\xd5\xab\x11\xf2\xfd=+\xe4\xdf\x8f\xdf\x13,\xdfQ{\x17\x99K\xc6r\x01\xfe3\xef\xeb^\x13\xa9\xeb\x97\x97\x17+\xe6B\xbf\xbe9d#\x80k\xe8_\x02x;C\xd3\xbc)\xa7E\xf68D\x93[\xee}\xe7\x90}~\xb5GP\xfd\x99\xbe\x1c\xeb\x97M\xa9\xcf\xe1\xd4w\x97\x96`\xca9\xaf\x9c?\xe1\xb6\xfe1\xfc3\xd5\x17M\xf8\x87\xe0{\xcb)"\xfe5\x85\xddEzg\xc3\xaf\xf8)7\xc3\xfdT\xa4:\x9f\x88\xa3I\x08\xdb\xfb\xf7\xdb\xcf\xe2+\xdc|=\xfbVx;^\xb4\x84\xd9k\xd0s\xd72\xaf5\x85\xf1\x1f\xf6\x94\xd1.4\xe6\xb6\x82\xfa\x12\xc3\xa2\x89\xb7W\xce\xfe6\xf1\x95\xb7\x88\xb5g\xd4\xaen\x0c\xcf\xf5\x02\xb3\xac5k[\xfd~\xd9d\xdb\xe5,\xb1\xb3\xb1n\xa0\xf6&gt;\xd5\xf4\x07\x85|zu(\x96F*#Hp\x9e\x8b\xf4\xf4\xae\x8a\xc3\xc4\x16B\xd8e\xe4?Rs^\xfb\xe3\x1f\xd9\xb7\xe1g\x8d\x84\x9f\xda\xbe\x18\xb3\x99\xdf\xa0x\x95\xbf\x98\xae\x0bY\xff\x00\x82W~\xcd^+O:\x7f\x08Z@\xe0\xe4&lt; )\xcf\xd4\n\xe55O\xf8$W\xc2\xbb&amp;e\xd0oo\xac\x82\xf4\x10\xceW\x1f\x95cK\xff\x00\x04\xad\xd1\xe0\xfd\xe4&gt;%\xd4pz\xb31\xaf-\xf8\xb7\xff\x00\x04\xd9\xf1o\x87\xa0{\xcf\x0c\xeb\x97\x13&lt;Gp\xcb\x92\xac=\xfdk\xc3\xdf\xc1\xde1\xf0N\xb2\xdaw\x88\xad]R91\xbd\xa1\xed\xda\xbdk\xc0\xfa\xce\xfd!!Uq\x1a\x8c3\x83\xd6\xbb\x18&lt;G4q*\xc6\xfef\x07.\xd2\x81\x93\xf4\xaf\xbd\xad\x98\xc1&lt;e\x0f&gt;\xa6\xba-"g\x96&lt;7Oj\xd56\xb0\xc9"\xab\'^\xa4w\xa6j\xb6v\xdeO\x92"\x01}\x05r^6\xd2,\x0e\x98\xe9\xe4\x0cc\x18\x1e\x9e\x95\xf1O\xed\x8b\xe1\x8d\x1e\xda\xd2}B\x1bm\xb2\xaf;\x869\xfa\xfa\xd7\xcc\x91|B\xd7\xf4\x1d:k+\x11\x06\xc5\x83\xcc\x1b\xe39\xcf\xe0G\x1e\xd5\xe5\xfe!\xf8\x8d\xe3]oV\x96\xfao\x11\\BI\xc7\x97j\xdb\x13\xf2\xaf\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x0f\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8\xef\xe1\xe7\x8a\xe4\xb7\x9d\x12\xe9\xd8\x1c\xe0\r\xff\x00w\xf3\xcd{&gt;\x87\xad\x8dR8\x9ed\x88\xa0\xc2\xe5\xb2x\xf5\xebSj\xda%\xb1\xbb,U\x86\x01\xfd\xea\xa6UA\xc6?\x95r\xda\xce\x94\xead\x92\x172\xa2\xae\t\x1c\xee\xfc;W\x90\xf8\xe7Y\xb9\xd3\xf51u4\xa9\x04q\xbf\xdeC\x96_\xa8\xae\xc3\xe0\x86\xb9i\xa8\xdcIs4\xc5\xad\xa6S\x89J\x9d\x81\xfb3c\xa5u\x1f\x14&gt;\x19[x\xdfCq\x14Q\xab\xbc$\x08\xc2\x8c\xff\x00\xd7@\xd8\xf9\x94\xfe\x98\x1e\xb5\xf0\xcf\xc4\x7f\x00^x\x7f\xc6\x17\x9aW\x98\xc9\xe5&gt;&gt;H\x0e\x0f\xb8\xe6\xbe\x83\xb0\x9d-.\xc3\xda\xdd3\x19$*\xe4\xa61\x8fO\xce\xbd#\xc0&gt;-\xbcIR\'b\xf1F\xd8\x90\x9e\x80};\xd7\xb0\xc1\xac\xe8\x97\xbaLS\xbb\xb2\xb3\x80\x88\xec\x84\x8c\xfd\x06?\\\xd6\x07\x8dlt\xfb2\xd3\xe9\xf2I\xf7\x06\xf5\x93\x19\x07\xbf#\x00\x8fOJ\xf9\xab\xe3\xa5\xebE|Ld*\x86`[\x1c\x92F{}+w\xf6Z\xd4\xae\x8c\xb3[\xfd\xbb\xcb\x10\xc6]\xe4)\xb8`\x80N\xe5\xe8\xc3\x9f\xad{\x07\x87\xbcf\xc3\\\x9bN\xbb\x94\xec\x1f"as\xf2\x9fOE&gt;\x98\xc8\xc7Z\xf2\xbf\x8d?\x08\xb4\x0f\xf8O.&amp;m\xd2\x19cW\xc88\x039\xe0\n\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00x\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc+v\r\x18\xed\xce9\xa7\xa2\xeew\x1b\xc8\xca\xe0\x1e\xc7\xbf\xf4\xfdk\xf4\xb7\xfe\r\xf9\xf8u\x7f\xaax\xcb\xc5\xff\x00\x11/-\xa6\xfb\x046\xf1Z\xfd\xc1\xb4\xb8\xde\xc4\x8f\xa0#\xf3\xaf\xd4\xf9\xbe!\xcf\xa5:\xe9\x1a%\x83\xa4q\xc7\xb3\xceyx\xe4\x93\xc5-\xbc\x97\x13\xc6$\xbb\x95\x98\xb3n&lt;\xe5\xab\xd7\xbe\x11x\xd2\xcbC\xb2\x86\xded\x00o\xc8\x00\xfc\xcd\xf5\xafB\xf1o\x8f\xac\xafto\xdd\xc4\xe3\x8c\x80\xc7\x9a\xf1\xeds\xc6\xc2\x19dK^\x1eG\xe7\x07\xa5_\xf0\xae\xb55\xe0\xf3\x8c\x84\x05\xeck\xb8\xd3\xef\xe6x\xf0\xc5\xb6\xec\xceE]\x8fQ$-\xb6\xed\xc3\x199\xedP\xde\xcb\x19F\x00\x0e:`\xf5\xf6\xaf&amp;\xf8\xef4PiRB\x92\x84,\xa4\xbb\x93\xd3\x1d\xab\xe0\x9f\x8d^\x05\xd2\xbe%\xeb\x97\x16\xec$\xf3\x0c\x85`\x92\t6\xefn\xf9\xf6\xe0W\xb2\x7f\xc1?\xbf\xe0\x97\x9f\x0e$\xb1\x1f\x11\xfe)\xdc&gt;\xafx\xed\xe6\xc7c+\x93\x1cC-\xb4\x1c\xf5\xc6+\xf9\xdb\x10\xabpd88\xe0\xd5\x88b\x92i\x02m\xf9r\xa3=\xf1\x91\x9f\xe5_\xb2_\xf0D\xb6\xb3\xf0w\xec\x97\x14\xd61+\\jWs\xcdv\xc4r\\\xb9\x1cz\x8c\x01_]\xa6\xa4u\x1b\xa2\xd2\xe7#\xe6Ta\x85\x00\xfa\xfb\xf1]^\x87\xa8A\x1e\x99\xf6\x87\x87\xee\x0ewu?\xfdju\x97\x8c\xc1\x9fd\x12\x90\x03|\xac\x8d\x8cWS\'\x8f\xe2\x8fJ\x02\xf3R;\x91\t\x1b\xe4\xcek\x81\x7f\x1a\xae\xad\xac\x86\x86Q\xb0\xc9\xc9\x06\xbb\xef\x08\xeb\xf6Q0\x81n\x06w\x02\xfc\xf6\xae\xdbM\xf1\x8d\xba\x86\x8c\xba\xe3\x04G\xbc\xe2\x9f7\x8d\xb1\x96\x12)\x00\x009\x1f\xe3Y\xf7\x9f\x12b\xb3\x89\xe5\xb8\x99T\x8eP\x1f\xe2#\xff\x00\xd7^\x0f\xfbK\xfc[x\xf4\xc7\xb2i\x81y\xc9wD?0&lt;z\xf6\xaf\x96\xbc5\xe2\xf9n\xb5;\xddRUW\n\xe5\x11\x7f\x84\x1c\xf5\xcfZ\xfa\xdb\xf6*\xf8\xcf:k\x91\xf8.[\x90\xd0\x88\xcc\x81]\xf9\nz\x0f~s_\xcc\xb8 (\n\xb9\xf5\xf6\xa7\xc0BJ\x92,\xc4\xb6\xf0\x15\x07~\xff\x00\xd3\xf5\xaf\xd9\x0f\xf8#\x0c\xcbs\xfb*i\xb2 P\xe2Yr\x0e8\xf9\x98\xe0\xd7\xd7Z\xb5\xa5\xc4\xb0\xf9\xab\x84m\xb98\xe3\xa5A\xa6x\xa24\x8c[\xdd\xce\xe0\x8e\n\x0cs\xfa\xd6O\x88|w\xa4\xe97\xe2I\x1cD3\x8d\xb9\xc0\x15\xc5\xfcH\xfd\xa8\xfe\x19\xf8^/\xb0\xea^#\x88\xdc\x15;\xa2\x8d\xc1+\xd3\xb6EpK\xfbZ\xf86\xd8\x0b\x8d;W@\xb9\xc8R\xdc\xfe#5\xb9\xa1\xfe\xdc\xbe\x17\x81\x82&amp;\xa7\x0b\x13\xc1o8\x0f\xeb]n\x91\xfbmx}\xe5\x16\xdf\xdb\xf0\x07e\xcf3\xe4b\xb6\xf4\xcf\xda\xef\xc3:\x9a(]V6\xcb\x10Z)\x01\x07\xf35C\xc7\xff\x00\xb5w\x864\x9d&gt;@5\xb8f`\xbf\xbb\x86)\x81\xc9\xf7\xe7\x8a\xf9\xdf\xe2\x1f\xc7-\x7f\xc7\xfa\xac\x92Ms\xb66Q\x8cHq\x18\xf6&gt;\xff\x00\xd2\xb8\x0f\x11|d\xd1|\x08\x04ov\xb1\xa0pd%\xf8|\xf5\x1e\xe6\xbd\xbf\xfe\t\xaf\xf13_\xf8\x9f\xf1I\xfcG\x1d\xbb\xa4\x0e\xc6\x187\x13\xc2)\xe0\x9fJ\xfc?\x990T\x86#\xda\xa6\xb5B\xd3!\xe06@R=M~\xa4\xff\x00\xc1\x0f\xfe(/\xfc*\xcdG\xc1s\xdaH\x12\xca\xf9\xe4GL\x1c\xa9\xcf\x1c\x9e\xb9\x15\xfaC\x1e\x9c5-\x15g]\x82U\x8bq\xde\xbc\x15?\xd6\xb8o\x10y1\xc8\xe2(\xd5\x19N\x0b*w9\xff\x00\n\xf9\x87\xf6\xa5\xf1&gt;\xbf\xa6\xe9\x93M\x0e\xa5"\xef\r\xe526\x08\xfa\xd7\xc6&gt;!\xf1=\xf7\xda\xa4\xbf\xd6\xe6\x96\xf1\xd5\xcf\xcc\xf2\x1d\xcd\xf8\xf6\xae\'\xc7\xbf\x13\xfcP\x926\x9b\xa6_\xb5\xba,[\xca\xa8\xc9\x03\xb0\xdd\xd4\xfeU\xc3\xdbx\xc7\xc5\x97\x12}\xbb\xfe\x12\x1b\x84\r\xd1Q\xabV\xdf\xc6^7\xc2"x\xb2\xed\x1d\x81\xf9\xc3t\x03\x1e\xf5f\xdb\xe2W\xc4\xbbH\x89\xb4\xf1\xcd\xf2l\xc8\xc2\xc8@\xff\x00\xeb\xd5\x8d#\xe2\xe7\xc4\xe8\x18\xbc\xbe+\x96^s\xb9\xfa\x9f\xadtv\x1f\x19\xfe(^2\xdb\xb7\x88\x88\x12\x102\x07A]?\x85&lt;)\xa9\xf8\xc3V\x8a\x1f\x10k\xd2\\J\xee\x19w\xf2\xab_\xad\xff\x00\xf0L\xbf\xd9\xb7F\xf0G\x81\xed\xfcG\xe7\xc7$\xef\x1a\xb9e\x07\xbe}\xab\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x14\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8K\xcf\x8a\xda\xe4n\xb5X\xb11\x0f\x83\xd4v\xae\xcf\xc0&gt;.X\xefcX\' \xab\x1d\x91\x81\xf7\x87q\x9e\xd5\xed\xda\'\x8c[T\xd2\xe3\xb7\xfb\x02\xeea\x87R\xfb0\x07}\xc3\xae?\xadg\xf8\xe1\xe1\xb8\xf9\xad\xac\x926(\x00hSj\xb8\x1d\xf0;\xfb\xf7\xaf\x99&gt;&gt;4\xf1\xde4\x9eS0\x0c\xc3\xcbN\x9ft\xf5\x1f\x85h\xfe\xcb\xba\xa5\x9a\xdc\xcb\x05\xecN\xb0\x85\xccA\xdbj\x99\x08\x18PG*Oc^\xb1\xa5x\xc2M\x1f\xc5\x13\xda_!Rf\xc7\x931\xe5}3\xd8\x91\xd9\xba\x9c\xd5o\x88\x9f\x08\xdf\xc4\xfe%}gC\xd2\xad\xfc\x99\xa2RL\x8c2[\xb95\xe7\x9e"\xd0\xe7\x96\xe4\xcds(\x85T\x1c\xa1L\xe4\xfdk\'J\xbf\x83N\x9f\xccW\xdc\xa8\xdd\x13\xbdz\xdf\xc3\xbf\x16\xf9\xb1\x0buX\xd27L\xecv\x07\xa7\xf2\xafB\xd7n.\xf5\xcd\x1d.-fVx\xed\xf1\xf2e\xb0=\xc9\xe5}\xb1_4|r\xd2.\xad\xe6\x9a\xeah\x1aH\xcf;\x9f\xa0\xeb\x9c\x1e\xa7\xafz\xe6\xbe\x01\xeb\x96zv\xb44\xf5\xba\xd9\xe7HK,\x83\xe5\xdb\xfd\xdf\xc7\xfaW\xa3\xfcS\x9e\xf2\xdfV\x8a\xfa\xce\x0f&amp;2\xaaUw\xee*G}\xde\x87==\xab\xa4\xf0w\xc5[yt(\xce\xb5`\xb2N\xa4\xa9u\x93\x82\x07J\xad\xe2\xeb;}GC\xc4\x89\xe5\x94$\xe6\x1f\x97=:\xf6\xaf+\xb5@\x97\xef\x00?)rx\x00\x7f*\xee&gt;\x1d\x80&amp;\x12\xaa\xa8d \x03\xb4\x12r{\x93\xd6\xbd\xdb\xc2\xda\xc5\xd5\xa7\x87\xa4\x89\x126\xc4\xcf\xb5\xd9&gt;e\x00\x0e\x03\x0c\x109\xe9\x9ct\xaf\x10\xf8\xff\x00\xa7\xdb]\x89\xc4\xcaw0`\xce\xa7\x05\xb1\x823\x8f\xa9\xaf\t\xf0\x9c\x92[km\x14N\xc0\'\xcc\xa7q\xcf\x07\xa7\xd3\xda\xbe\x93\xf1\xbe\x81\xa67\xc3;\r^8\x04r\x9b,\x95@6\x12\xc0d\xed \x8e\xd5\xe2\xbas\xca eK\x89P\t\x08\xc4r\xb2\x8f\xc8\x10+\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00(\x00x\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc+y6\x95WS\xedR\xc5$\x8d"FH\xd8[,W\xaf\x1d\xb3\xf8\xfe\x95\xfa\xfd\xff\x00\x04M\xf1\x1d\xad\xe7\xec\xcd\x0e\x8aY|\xdb;\xc9bt/\x92y\'\'\xf3\xaf\xb6\xef\xf4\xa4{\x05\x99B\x98\xd9H\x0c\xde\xb5\xccM6\xa3\xa21\x02\xf0y`\x93\x84c\x9cW\x94|c\xf8\xfd\x17\x82\x92K\xc4i]a\xc9e\x1d\xbaW\xcd_\x10\xff\x00oo\x88\xde(\xbf\x16~\x17\x1ff\xb5\x04\x84R\xdb\\\xf4\xcf\xb1\xfck\x88\xf1\'\xed\xbb\xae\xe8\x16\xe6=c\\\x06q\xf7\xa3\x19/\x9fs\\\xf5\xaf\xfc\x14\x97]\xb6\xbc\xf2\xa4\x8eY\x02\xe3\x95c\x8cWG\xa7\x7f\xc1Q\xf5\x1b9\x16\xe1\xec\xa5\xf2\xb6\xe0\xa0\x07\x93[\xda\'\xfc\x15\x82\xda\xd5C_\xda\xde\x02\x0e\xe6\xf2\x01\x03\xd8T\x9a\xdf\xfc\x15"\xd3\xc76\xefg\x14\xa6\xd29&gt;V\x0b\x9d\xc4{\xd78\xdf\xb5/\xc3\xeb\xa9M\xdc\xba\x9bJ\xe0|\xab\xb3\xb9\xae[\xc5?\x1e\xf5\x9f\x18]y~\x0f\x8aU\x1b\xc02H\x87j\xe3\xb8\x1e\xb5\xf6\xef\xfc\x12K\xe0\xc7\x89\x85\xeax\xc7X\x8eYD\xb3\x17y\xe5S\x97\xcez\xe7\xe9_\x87\x05\xa3a\xf36=\x07\xad\x11\xb8F\xccl\x17n\x0f#\xefc\xb5}O\xff\x00\x04\xdf\xfd\xb4.\x7ff\xbf\x16?\x86\xf59\xd8h\xfa\xa3\x06v\r\x8f.L\x90I\xff\x00\xbe\xbfJ\xfd\xaa\xf8!\xf1S\xc2?\x13\xfc\x15\x1e\xa9as\r\xd4\x12\xc2&lt;\xb2\x93)\x00\xe3\xae=k\'\xe2V\x81\xad\xdbZ\xb5\xe7\x87o!,\xcd\xc4r\xb8\xf9x?\xe7\xf0\xaf\x88\x7fj\xcb\xaf\x8b\xa5\xbf\xb1\xcf\x87\xad\x1eY\x89\xdaSs4\xbc\xff\x00\xb3\xfd}k\xe7\xfb\xbf\x81\x7f\x19\'\xb0\x92\xfa\xf3\xc1\x9a\x89\x12\x9eR\x0bVU\xcfm\xc4\x8f\xf3\xcdp\x1a\xd7\xc1O\x89\x1a\xbe\xaat\xe9t\x0b\x87\xb8T*-a\x85\xdfg\xbf\x1d\x0f\xf8U\x8d?\xf6D\xf8\xa6\xa1D~\x0b\xd4\x98m\x05\xb1j\xe0\xf3\xf8WM\xa1\xfe\xc2\xff\x00\x1b\xf5\x92\x9f\xd9\x9e\x05\xd4\x9d\x8f\xdc\x8dm\xdb\xbf\\\xf1S\xeb\x9f\xb0G\xc7m\t\x7f\xe2a\xf0\xff\x00QU\xec&lt;\x82I\'\xd3\xd2\x9d\xa2\xff\x00\xc1?&gt;&gt;^\xa2\xca\x9f\x0e\xf5%\'\x96\xddlA\xc7n\xd5\xdd\xf8+\xfe\t\xab\xf1\xa7P\xbe\x8a+\x9f\x02_\x02H \xb4D\x00k\xea\xaf\xd9\xf7\xfe\t\x17\xe2\xa9\xee\xed\xb5?\x19D\xd6\x90.\x19\xe09\x1f\xa5~\x8a|\x0c\xf8\x19\xe1\x9f\x83\xde\x19\xb6\xf0\xe6\x87\xa6*\x85\x85T\xc8\x06K\x1a\xfeK]\x03\x8e\x9d)\xdb\x1d\x11]\x07C\x9cz\xd2\x89\x98H\xafp\xa5\xb7&gt;v\xe7\xd3\xf9W\xd2\x7f\xb1\xc7\xfc\x14\x03\xe27\xec\xf1\xaaC\xe1\xfdKT\x92\xefE\xdeq\x0b\xcc\xc4\xc5\x9fL\x9c\x1f\xfe\xb5~\x8b\xfc\x0e\xfd\xbe\x7fg\xef\x88vP\x1f\x18\xff\x00n\xdd\\\xceA[kP\xcc$a\x9f\x94m&gt;\xfd\xeb\xeb_\x83\xd6_\r&lt;[\x0c:\xff\x00\x83\xbfg\xe6\x1epR/5\xb5\x1f)\xe7\x19-\x93\xc7\xb7\xadw\xfa\xbf\xc28\xbe!_C\xe1yt\xeb34\xed\x85\xb6\xb4\x89|\xb8\xc7\x19b\xd8\xe8=\xeb\xd3~\x1f\xfe\xc5\xbf\xb3\x7f\xc2\x8d8\\\xda\xf8\x1fO\xd4uF\xf9\xaeu\x0b\x8be$\xbf\xa2\xe0g\x035\xb9u\xf0\x83\xe1\\\xaae\x93\xc1Zx|\x1cm\x87\x1b\x7f:\xbf\xe0\xcf\x84^\x06\xd3K\xcd\x16\x97j\x8eW\xe5)\n\xe4~8\xad;\xbf\x80\xfe\x08\xd7/\xe3\xb8\xbd\xf0\xdd\xb4\xa1@o\xde*\xf2}q\x8ezWAi\xf0O\xe1\xf4X\x11\xe8\xb6\xed&amp;\x00\xdb\xe5)\x00~"\xa1\xbb\xf8A\xe1kk\x8d\x96\xda,x\x1c\xef\x11\xae\x07\xd3\x8a\xa3y\xe0\x8b{Y\x04P\xc2\x15I\xc1\xe3\xadli\xde\x0c\xb3\x80\xac\xcb\x06\xf6\xc0\xfb\xe3\x85\xaf\xe2\xc7\xcaE\xca\xb5\xc1\x05\xba\x03\xde\x9c&amp;\xf2\x17oC\xdb&lt;\xe7\xfc)fP`\x0c\xccF\xee\xa3uB\xaf\xe5\xaa\x81+q\xf7Fx\x15\xd7\xfc3\xf8\xdb\xf1#\xe1f\xad\x16\xad\xe0\xdf\x11Kj\xf1H\xac\xa4\x12\xca\x98\xcf8\xcd}\xd1\xfb)\xff\x00\xc1m\xfe(xKCO\x0e|B\xf1\nM\x7f\xe6\x14\x82\xea\xe7tv\xea\x0f\x01\x9bo\'\xe9\xdf\x15\xf6\xc7\xec\xd3\xff\x00\x05n\xf0}\xee\xbbg\xe0?\x87\xfa\xa4\xfe+\xf1V\xae\xdf\xe9\xd7n\xa28\xa3\x07\xef`\x9f\xe1\\\xf1_p\xf8s\xe3\x9aj\x1adpj\xb7\xd0\xdc\\\xb2\x8f1\xd1\x97j\xff\x00\xb21\xe9\xcdu&gt;\x1f\xf1\xabj\x93\xac\nF\xdcu-\x9c\xd7g\xa4j\x04[\x06k\x8c`\xfc\xdf7j\xdd\xb0\xf1#Mt\x1a\xdc\x84D\\\x16\xf5\xab\xf6\x1e!\x97\xed\x0c|\xe6*z\xb6\xe3ZI\xe2A4\x02$U\xc0&lt;\x92:\xd2Okm|\x894g\x0c\xa7\xa7\xadi\xe9\xdap\xb9\x81b\x95\xc0\x04s\xba\xbf\x88v\x8eC\x85L\x1fs\xda\x98\xe8a\\\x87\x05\xbd\xa9\x14\x8f\x96G\x1f\xef\nk\xc49L\x0c\x8alP\xa2\xee$\x0c\xe3\x1d;T\x8b!\x8c\x82\x06\xde1\x91\xe9]\x17\xc3\xbf\x89\xfe0\xf8_\xaf\xa7\x89|\x19\xafMaw\x18\xc0\x96"\x7f#\x83_j\xfe\xc5\x7f\xf0T_\x8a\xdf\xf0\xb1\xb4\xaf\x0c\xfcZ\xf1\xdc\x16Z1pg\xb9U\xdaf\xc7bA\xf7\xef\xeb_\xb3\x7f\xb3\xef\xc7\xbf\x05\xfcC\xd1m\xaf\xfc-u\x05\xcaM\x18&gt;r\xca3\x8e\xc7\xf9\xd7\xae\x8f\x19C\x13,1\xcc6*\x8c\xe1\xb9bkf\xc7\xc5sM\x04v\xb1\x9c\x9c\xe4s\xc8\x1d\xebu|M\x14P,V\xd2\x92{\xe1\xaa\xcd\x87\x88\xff\x00z-\xd5\xc9\x1ds\x9a\xe8-\xbcI\x1d\xb8R\xf2\x92\x14r\t\xab\xf1\xf8\xa2B\xa2\xe5% \xb7\xf0g\x81_\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00x\x00x\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc2\x05\xdeV\xdc8\x00`T\xb0)\x95\xf0\xbdTg\x07\xa1\xff\x00\xeb\xe35\xfa\xdf\xff\x00\x04\x0f\xff\x00\x82\x7f\xc9\xa9\xe9\x12\xfe\xd2?\x14c\x98Y\xdf\xe5&lt;?\xa5\xcb\x1eU\x97\'\xf7\xa5O\x04\xf4\xc1\xfa\xd7\xecf\x85\xe1\r6\xca\xc06\x9d\x01\x85\x08\x1eX\xcf@\x00\x18\x1e\x83\xadgk\x17\x16\xba|\xe4\xcaK\xed\xeb\x96\xaecT\xf0\x9e\x87\xe2\xe7\x96k\xcd9YJ\x1f\x9c\xe3#\xe9\\\x1f\x89\x7fe\xdc\xce\xba\x97\x86\xaf\x8c\';\xf6\x0e7}q\\\'\x88c\xf8\xcb\xf0\xde\xe7\xed\x12Z\xc9s\x04n\xdbDjO\x1cV\x97\x83\xfe&gt;^^\xdc$\x1a\xeb\xc9hI\x1eb\xcb\xb8\x1a\xedn\xbe\'i\xefnc\xb4\xbeR\xac2\xac\xf8\xc1\xff\x00\xeb\xd7\x9f\xf8\xfb\xe3\x1cP\xd9\\]\xf9\xea\x91$L\x84\x992\xcc\xc3\xbf\xf9\xf5\xaf\x96&gt;$|Y}^\xfd\xd6\xd0.\xcc\xe4\x13\xea:\x9f\xadyg\x88\xbcUu\xad\xdf\x00\x92\x85P\xf8P\xc7\x92O\\W\xdb\x9f\xb3\x07\x83t\x7f\x03|\x13\xb7\x9e8\xc0\x9e\xe9\x0c\x8d\xe6/ \x9f_\xce\xb6\xdbS\x0b&amp;\xe6\xc0e\x00\x81\xb7\x86\xaf\xe6\xb1\xc1(\x02\x9e\x9d[\xd6\xba_\x84\x1e\x08\xba\xf8\x8b\xf1#B\xf0-\xa2\xe5\xf5]V\x18\x06\x0e\x0f\xccq\xc1\xed\xd6\xbf\xa8_\xd9\x13\xe1\xde\x95\xe0/\x85\xfe\x1d\xf0~\x85k\r\xbd\xad\x96\x9b\x0cq[\xa2\x00"\xc0\xce\x06:\x0e\x7f\x9d{\xd4\xbajZ\xe9\xe0FTq\xce\xd1\x8cW\x9cx\xdex-.Yp\x1d\xa4;@+\x9f\xc6\xb1m/\x9a;\x95\x86\xd9\x88U\x188\xe3\x9e\xf5\xdahb[\xe5@\xe0\x10\xa0d\xb1\xe9V\xf5\x1f\x0cX\xdff9\xed#\x91?\x8b \x1c\xd7\x01\xe3\x9f\xd9\xeb\xc1\xfe i\x9a+\x05\x82F\x1c&lt;j\x17\xf9W\x87|F\xfd\x96~!\xe9\xd0\xcc|\x17\xae\\\xb6\xd3\xb8F\x84\x95\xe3\xa6\x7fZ\xf9\xa3\xe2\xd7\x84\xbfh\x0f\x0e\xc7,\x1a\xe6\x81q&lt;K&amp;Y\xad\xc3\x03\x8f|W\xcf\xde.\xf8\x9a\xfa5\xd4\x96:\x86\x91=\xb3o \xfd\xa2"\x05g\xf8k\xc4\xdan\xb5\xafZ&lt;\xf3\xc2\xe0\xcc\x0f\xca\xdd9\xaf\xbb&gt;\x1d\xfc[\xd3/|/m\xa0Cz\x9e\\0"\xb9/\x92\xfct\xfc1\xfa\xd7Eg\xae\xc5z\xac\xd1\x9d\xb1\xaf\nOz\xfeqRF`\xd1\xb8(\xcb\x80\xa0\xaf\xde\xafh\xfd\x874\x85\x9f\xf6\x96\xf0t\xb3\xeco\xf8\x9dBq\xbb\xee\xe0\x9f\x98z\x11\xeb_\xd1\x9f\xc1\x9f\x1bK\xa5YZ[$\xc0\x88\x90*\x8e\x9f(\x1cg\xfc\xf6\xafb_\x89\x16\xd7\xb6\r,R\x05m\xb8l\x9f\x94\x9a\xe0\xb5_\x12\xad\xed\xe3L\xf9b\x1f\xefn\xe3\x9fJ\xb9\xa6\xa5\xbc\xd2\xaa\xe0\x0e\xecs\x9e\xb5\xd7\xf8z\x18\xf0\x15\xa4\xc8\xc7\x19=kV\xd9\x965\xce\xfcd\x9e\xd9\xcdT\xbe\xbeS#.\x03}W\xa5e\xce\x1a\xe1\x88\xda\xa3&lt;\x12Eck\xde\x07\xd2\xb5{wMB\xce\x19\x95\x90\x8c8\x1cW\xcd_\xb4\x97\xec[\xf0\xdf\xc7\xf6\x17\x13\xc7\xa1C\x03\xec\xc1h\xa3\\\x92{\xf4\xf6\xaf\xcf\x8f\x8c\x7f\xb2\xf6\xbb\xf0_\xc4\xd3j\x9a7\x9b\xf6hX\xec\x8c\xe4\xf1\xf4\xad\xcf\x83\xdf\x12oM\xcc\x16q\xeb\xb1,\xb1\x90|\xb3\x80G\xa8\xaf\xa0t\xbf\x8a\xf2\xe8\xfax\x97]\xd4!\x8e5\x1b\xd4\xcb:\xedonO\x15\xf8M#\xce\xea\xb2\x17\xc9\xc6\x08\xcdz_\xec\xa3\xe2\xab_\x06\xfcm\xf0\xd7\x88$(\xb2&amp;\xa7\x1a\xefq\xc2\xe4\xd7\xef\xc7\x80~(h\xd0hV:\x9c\xd7\xc3l\xd6\xe8[s{\x7f\xf5\xeb\xb6\x8f\xe3\xb7\x86\xa3\xb7U\x8eO1q\x85\x81$\xce\xf3\xfd?\xfa\xf5B\xcb\xe2%\xce\xb1~R;i\x124`\xcb\x16z\x0f\x7f^\x95\xe9\x1e\r\xd57\xa2\xcfw&amp;\xd2\xdc\xe0\x91\xcek\xbc\xd0o\xe1\n\xa8nT\x11\xd0c\xadk\x9b\xdc\x9f-~\\\xf4*j\xae\xa7umo\x08l\xeen\xe75FY\xa1\x91w\x8d\xc0\x91\xc6\x1a\x88\xec\xee.@\xdb!+\xd5\x88\xc1#\xf3\xae;\xe2\xa5\xe5\x86\x9d\xa7y\xc1C`0\xdb!\xc6O\x1d\x00\xeb_\x16\xfcz\x10x\x93T\xba[\x88\x08\x8d\xc1M\xad\x8c\x13\xed_\x1e\xfcX\xfd\x9d\xf5k\xcf\x10\x8b\xbf\x87\x97\xf7VwL\xf8co(S\x9e:~\xbd+\xc8&gt;%\xfc8\xfd\xa84\x1b\xbf\xb0x\xbbY\xd5\xef\xb4\xe8d\xea%fR=+\xe31.\xd8\xcbm\xdaI\x19\xe6\xb5\xbc#$\xff\x00\xf0\x94i\x91Z6$\x92\xfe\x15A\x8e\x8c\\a\x87\xa1\x1e\xbe\xf5\xfb9\xac^k\x9e\x1e\xf8m\xa3%\xbe\xa5))\xa6B%U&lt;\xb1\xd8+\x93\xd0\xbfi\x85\xf0&lt;\x85\xb5\xc4i\x02\xbe\x029\xc95\xe8\xde\x1a\xfd\xb7\xbc%\xab\xacp\xc6\xbeS\x80\x03nl\x11\xf4\xafX\xf0g\xeda\xe1\x89\x99\x07\xf6\xe4\n\xa2&lt;\x85\x0e\t\xc8\xe8\x0ek\xd6\xbc\'\xfbDi7\xf1"\xd9jh\xc6DS\xbd\x88\xe0\xf3\x91]\xa6\x8d\xf1\xa6\xc0\x81\x1b\xdf\xc4\xf2`\xe4\xef\x1c\xd6\x82\xf8\xfe\xcfT\x80\\4\xf1\xb0b~]\xf9\xc5^\xb0\xf14\x12G\xb50s\x8f\xbaA\xab\x13x\xa0Enm\xe1\x0c\xac\xfdX\x10\x0f\x15\xe3\xdf\x1d&gt;$-\x85\x8d\xc3L\xea#\x89p\x07\x18\xc9\xeak\xe4?\x1d\xf8\xcf\xfbZ\xf6E\xb2*\xe8K;K\xdc\x1e\xdc\xd6\x87\xec\xf9\xa4\xda\xf8\xb7\xc5\xb2O\xab[!X!-\xb8\xf1\xcf\xaf\xe9^\xb1\xae\xfc/\xf0\x8f\x8e,\x12\xc3S\xd2\xa0\x92&lt;\x1d\xaa\xb8\xeb\xeb_\xce\xc81\x10\xec\xa0\x1d\xcd\xe9[&gt;\x00\xbb\x1aw\x8dt}B|\x98\xa2\xd4\xa0g\x00\x02q\xe6\x0f^\x95\xfb[\xe3\xfd\x06\xe7W\xf8}a\x7f\xa5\x13\xb2M&gt;)\x11\xc7#\x065\xe0c\xa5|\xbd\xe3]\x16I5\tM\xc5\xa9\x8d\xf7\xfc\xc4\xc7\xf3\x13\xeb\\\'\x8b\xb5\x8b\xff\x00\x0c\x924\x9b\x16\x92\xe8\x0cF\xef\x9e\t\xfeu\x83\xa6x\xaf\xe2u\x95\xe4R\xcf\xae\xca\x972J&lt;\xbbhb\'s\x1e\x83\x0b\xc9&gt;\x95\xf4\xaf\xc2?\x84\xff\x00\xf0Q}sH\x8bX\xd1\xfc\x0b\x7f\xf6GR\xf0\xbd\xf3}\x9d\x99}vt\xc5u\x9a\xaf\x8f?l\xbf\x82\xf6\xe2\xe7\xc6\x9f\x0e\xa7\x91\x11wJ\xf1J\\\x81\xed\xb6\xaex\'\xfe\nW\x1e\x9f"Yx\xb9n4\xf3\x9c\x18\xe7\x84\xaf=\xf9#\x9c\x7fZ\xf7o\x86_\xb7o\xc3\x8f\x14\xed\xfb7\x88\xad\xdc\x85\x00\x818\xeb\xef]\xc5\xdf\xed-\xe1\xc4\xb2\xfbR\xeb\x16\xee\x1f8&gt;x\x04W\x89|^\xf8\xddi\xe2O&gt;\xd6\xd7PQ\x1c\x87\xe6\xd8\xc0\xee\xaf(\x93\\\xb3\xb6\x8aU\x89rJ\xe7\x05\x86\x1b\x9a\xef\xfe\x08x\xae=\x02\xda\xe0@TOs)\xc9\x07\x90\xa0p&gt;\x9c\x9a\xf5\xeb\x0f\x12\xc1)\x80J\xc4\x10\x99*\x87\x8f\xc6\xbf\x9e\x06T]\xaa\xb1\x05\xe7\x9cw\xa9\xa0\x9a[|\xcf\x00\x05\xe3!\xd0\x1fb\r~\xd9~\xc8^2\xd3\xbe)~\xce\xfe\x17\xd4\x85\xc2L\xa7N\x8a\x1b\x95\x07?\xbcQ\x83\x9fZ\xe9\xbe&amp;\xfe\xc92\xf8\xbd\x7f\xb5&lt;;d\xc2w\xe5A\x1c7\xe5^=\xe2\x0f\xd8;\xe3\xae\xbd#\xc3\xa2\xf8_\xcd\x93\xcc&gt;d\xb31X\xd1\x07r}}1\xe8k\xe9\xef\xd8\x07\xfe\t{\xe0\x9f\x87\x1a\xd5\xb7\xc4o\x8a\x96\xf6\xfe \xd7\xca\x92\x8f4a\xad\xad\x07m\xa1\x81\xcb\x0f^\xa3\x15\xf7\xc5\xaf\x864\xcbm-!\x82\xc9\x15"\x8c&amp;\xefQ\\/\xc4\x0f\x87~\x14\xf1#\x1b][L\x82T#\x00\xba\x8e\x95\xe5^"\xfd\x82\xbe\x02\xf8\xea\xed\x9fT\xf0F\x9e\xea\xdd\x0f\x92\xa3\xaf^\xd5\xc7k_\xf0H?\xd9\xe9\xf7]h\xdaK[\xbes\x9bg\xc6\xdc\xff\x00*\xe7/\xff\x00\xe0\x93\xde\x13\xb7\x7f/O\xf1&amp;\xa6\x14\xf4\x8f\xcef\x03\xf35\xcf\xf8\xaf\xfe\ts\x1d\xbe\x9eZ\xc3\xc4\xb7\x85\xd0\x12Q\xd8\xf3\xf4\xaf\x9d\xfe(\xfe\xc9?\x13\xfe\x10\xddI*4\xd7V\xfb\xf2\xac\xeaX\xed\xf49\xa8\xfe\x19\xdfO\xa6\xdf\xa0\xbd\x88\xf9\xe1\xb0\xc9\xb3\x15\xeb\xbaF\xb6\xf19\x91\xe5p\xe4\x7f\xab-\x8c\xfarzw\xaf\xc1\xd9\x00\x11\xe4\x0c\x1fZ|r\x04g%I \x06S\xe9\x8e\xdf\xad~\x92\xff\x00\xc1\r|o\xe2\xcf\x1aj:\xdf\xc1\xab\xbcO\xa7\xe9\xd1\xad\xe5\xac\xac\x99\xd8\xcc\xc7*3\xd0|\xbd+\xf5\xe3\xc1\x8d\xa5xSK\x85\xb5\xa5\xcb\x84/\xb5\xf6\x8crx\x18\xa8u\x8f\x1b\xbe\xba6[\xdb*D$\xf9QF?\x1a\xf5\x0f\x82\x1aL\x13\xe9\xf1\xcbqr2\xf2\x1e\x00\x04\xfb\xe6\xbdC\xc5\x89kc\xa2\x8d\x81[\x00\x02H\x03\x8e\xd5\xe4\x9a\xa6\xa9k\r\xd4\xd3\xdc\xcb\x85\r\x85]\xd9\x15gB\xf1\x14LV8\xfa\x03\x9c\xd7Sk{m*e\xd7q#\xa5Y\x80YyBQ\x18g=\x01\xedY\xda\x8e\x9fk#4\xd2[\x82\xc7\x8e\xbd+\xc6\xbe=x_H\xb8\xd1\xee\x1e\xfa\xdcma\x80\xa4g?\xfe\xaa\xfc\xfb\xf8\xdda\xac\xf8\x0f\xc4\xf3j\xde\x17\xd2\x1e\xf5crB\xaa\x83\xb0\xf6-\xed\xd6\xb2&gt;\x12h\x7f\xb4\xc7\xedq\xa9\xcb\xe1\xbf\x87\xbe\x0c\x96\xc2\xdb~\xcb\x8dI\xd0\x80\xb8\xc8$1\xe9\x8fj\xfcr2\xb1]\xa1NA\xe8jtm\x8cYy,\x06W\xd4\xf4\x03\xf5\xcf\xe1_\xae\x1f\xf0@/\x85\xbav\x81\xf0\x87\xc4\x1f\x16\xefet\xb9\xd6/\x1a;R\xcd\x8f\xddE\x95\x04{\x16-\xf9W\xdd\x1a\x8c\x82\xefUi\xc5\xc3J\xf9\xc3nc\xb5q\xff\x00\xeb\xae\x9fH\xb73\xda\xa3\xc7\x84\\d\x1c\xf3]_\x85\xbcm&amp;\x80\xa9\x1c3\x1c#|\xe5&gt;\xf1\xfck\xb5\xd4\xbe$\x1dKGU\xf3\xe6!\x94\xe4\xc8\xdc\xd7\x98\xeb~*\xf3\xf5/\xb2\x9b\x9c\x83\'\x007_\xadt\xfe\x0b\xbf+\x16$$\x96l)5\xdfiw\xb0\x98\xf7\t0\xca\x98o\x9b\x185d\xea\xf6\xa9(cr\xad\xb5FF:TS\xeb\xb6R\xab\x0f=@$d\xfa\x0e\xe6\xbco\xf6\x87\xf1\xbe\x9bg\xa4\xcd&lt;s\xa3\x18\xc9X\xd3\xfb\xc3\x8ek\xe3io\xec&lt;S\xe2{\xa5\xb9\x91\\\x07-p3\x85e\xe9\xb7\xf5\xaf\xb5\x7famg\xc0\xba_\x82\xa2\xf0\xa6\x89\xa7Ao*\xa9S\n\xaa\xa9\r\xc9$\xe3\xaer?*\xfeV\xd5\x1fhl\x8f|\xd4\xb6\x8d\x08\xb8]\xc8rYr\xc7\xb75\xfb#\xff\x00\x04r\x12\xcd\xfb(iv\xe2`\xb1\t&amp;\x00\x81\xd0oc\x8fj\xfa\xceWm)\xcb\xbc\xa6d*0;g\xd4\xd6\xee\x91\xe2\x08\x86\x9b\xe4B\xccY\xc7\r\x9eG\xe3\xe9T\x8e\xbfua~"\xba\x91Y\xb3\x92U\xb01W\xf5_\x8aW\xba~\x9a\xc9n\xab\xb7i\x1c\xbfZ\xe1\xec\xbe&amp;[\xc7~.\xb59\xd46\xf2~\xfdw\xde\x18\xf8\xcb\xa6\xa3\x89&gt;\xdb\x1e\xd1\x82\xa0H8?\x8duZw\xc6\xdd\x18\x92\xe6\xf5F\xe1\xce\xf6\x075;\xfc\\\xb1\x997,\xca\xdb\xb3\x8cK\x9a\xc8\xd7\xbe-Cgh\xfeE\xe0R\xcaw\x82\xdd\xbe\xbd\xab\xe6\xff\x00\xda3\xe3\xf6\x95\xa9\\6\x97ax]a@\x18F\xd89=\x81\x1dzs^\'\xa0\xf8\x9e-9&amp;7\xed\xb1\xee\xa6\xca(a\xb4s\x90\x08\xf7\xfe\x95\xf4\x17\xecO\xf1\x9a\x0b\xbf\x8b\xbf\xd9v7\x02X\xe1\x83\x0c\xdb\xba&gt;y\xc7\xe5_\xcf{\xc9\xb4\xaa\xba\x9fj\x96)$i\x122F\xc2\xd9b\xbdx\xed\x9f\xc7\xf4\xaf\xd7\xef\xf8"o\x88\xedo?fhtR\xcb\xe6\xd9\xdeK\x13\xa1|\x93\xc99?\x9d}\xb7\x7f\xa5#\xd8,\xca\x14\xc6\xca@f\xf5\xaebi\xb5\x1d\x11\x88\x17\x83\xcb\x04\x9c#\x1c\xe2\xbc\xa3\xe3\x1f\xc7\xe8\xbc\x14\x92^#J\xeb\x0eK(\xed\xd2\xbej\xf8\x87\xfb{|F\xf1E\xf8\xb3\xf0\xb8\xfb5\xa8$"\x96\xda\xe7\xa6}\x8f\xe3\\G\x89?m\xddw@\xb71\xeb\x1a\xe03\x8f\xbd\x18\xc9|\xfb\x9a\xe7\xad\x7f\xe0\xa4\xba\xed\xb5\xe7\x95$r\xc8\x17\x1c\xab\x1cb\xba=;\xfe\n\x8f\xa8\xd9\xc8\xb7\x0fe/\x95\xb7\x05\x00&lt;\x9a\xde\xd1?\xe0\xac\x16\xd6\xaa\x1a\xfe\xd6\xf0\x10w7\x90\x08\x1e\xc2\xa4\xd6\xff\x00\xe0\xa9\x16\x9e9\xb7{8\xa56\x91\xc9\xf2\xb0\\\xee#\xde\xb9\xc6\xfd\xa9~\x1f]Jn\xe5\xd4\xdaW\x03\xe5]\x9d\xcdr\xde)\xf8\xf7\xac\xf8\xc2\xeb\xcb\xf0|R\xa8\xde\x01\x92D;W\x1d\xc0\xf5\xaf\xb7\x7f\xe0\x92_\x06&lt;L/S\xc6:\xc4r\xca%\x98\xbb\xcf*\x9c\xbes\xd7?J\xfc8-\x1b\x0f\x99\xb1\xe8=h\x8d\xc26c`\xbbpy\x1f{\x1d\xab\xea\x7f\xf8&amp;\xff\x00\xed\xa1s\xfb5\xf8\xb1\xfc7\xa9\xce\xc3G\xd5\x183\xb0lyrd\x82O\xfd\xf5\xfaW\xedW\xc1\x0f\x8a\x9e\x11\xf8\x9f\xe0\xa8\xf5K\x0b\x98n\xa0\x96\x11\xe5\x94\x99H\x07\x1dq\xebY?\x12\xb4\rn\xda\xd5\xaf&lt;;y\tfn#\x95\xc7\xcb\xc1\xff\x00?\x85|C\xfbV]|]-\xfd\x8e|=h\xf2\xccN\xd2\x9b\x99\xa5\xe7\xfd\x9f\xeb\xeb_?\xdd\xfc\x0b\xf8\xc9=\x84\x97\xd7\x9e\x0c\xd4H\x94\xf2\x90Z\xb2\xae{n$\x7f\x9ek\x80\xd6\xbe\n|H\xd5\xf5S\xa7K\xa0\\=\xc2\xa1Qk\x0c.\xfb=\xf8\xe8\x7f\xc2\xaci\xff\x00\xb2\'\xc55\n#\xf0^\xa4\xc3h-\x8bW\x07\x9f\xc2\xbam\x0f\xf6\x17\xf8\xdf\xac\x94\xfe\xcc\xf0.\xa4\xec~\xe4kn\xdd\xfa\xe7\x8a\x9f\\\xfd\x82&gt;;hK\xff\x00\x13\x0f\x87\xfa\x8a\xafa\xe4\x12I&gt;\x9e\x94\xed\x17\xfe\t\xf9\xf1\xf2\xf5\x16T\xf8w\xa9)&lt;\xb6\xebb\x0e;v\xae\xef\xc1_\xf0M_\x8d:\x85\xf4Q\\\xf8\x12\xf8\x12A\x05\xa2 \x03_U~\xcf\xbf\xf0H\xbf\x15Owm\xa9\xf8\xca&amp;\xb4\x81p\xcf\x01\xc8\xfd+\xf4S\xe0g\xc0\xcf\x0c\xfc\x1e\xf0\xcd\xb7\x874=1T,*\xa6@2X\xd7\xf2Z\xe8\x1ct\xe9N\xd8\xe8\x8a\xe8:\x1c\xe3\xd6\x94L\xc2E{\x85-\xb9\xf3\xb7&gt;\x9f\xca\xbe\x93\xfd\x8e?\xe0\xa0\x1f\x11\xbfg\x8dR\x1f\x0f\xeaZ\xa4\x97z.\xf3\x88^f&amp;,\xfad\xe0\xff\x00\xf5\xab\xf4_\xe0w\xed\xf3\xfb?|C\xb2\x80\xf8\xc7\xfbv\xea\xe6r\n\xdbZ\x86a#\x0c\xfc\xa3i\xf7\xef_Z\xfc\x1e\xb2\xf8i\xe2\xd8a\xd7\xfc\x1d\xfb?0\xf3\x82\x91y\xad\xa8\xf9O8\xc9l\x9e=\xbdk\xbf\xd5\xfe\x11\xc5\xf1\n\xfa\x1f\x0b\xcb\xa7Y\x99\xa7l-\xb5\xa4K\xe5\xc68\xcb\x16\xc7A\xef^\x9b\xf0\xff\x00\xf6-\xfd\x9b\xfe\x14i\xc2\xe6\xd7\xc0\xfa~\xa3\xaa7\xcds\xa8\\[)%\xfd\x17\x038\x19\xad\xcb\xaf\x84\x1f\n\xe5S,\x9e\n\xd3\xc3\xe0\xe3l8\xdb\xf9\xd5\xff\x00\x06|"\xf06\x9a^h\xb4\xbbTr\xbf)HW#\xf1\xc5i\xdd\xfc\x07\xf0F\xb9\x7f\x1d\xc5\xef\x86\xed\xa5\n\x03~\xf1W\x93\xeb\x8cs\xd2\xba\x0bO\x82\x7f\x0f\xa2\xc0\x8fE\xb7i0\x06\xdf)H\x03\xf1\x15\r\xdf\xc2\x0f\x0b[\\l\xb6\xd1c\xc0\xe7x\x8dp&gt;\x9cU\x1b\xcf\x04[\xda\xc8"\x86\x10\xaaN\x0f\x1dkcN\xf0e\x9c\x05fX7\xb6\x07\xdf\x1c-\x7f\x16&gt;R.U\xae\x08-\xd0\x1e\xf4\xe17\x90\xbbz\x1e\xd9\xe7?\xe1K2\x83\x00fb7u\x1b\xaa\x15\x7f-T\t[\x8f\xba3\xc0\xae\xbf\xe1\x9f\xc6\xdf\x89\x1f\x0b5h\xb5o\x06\xf8\x8a[W\x8aEe \x96T\xc6y\xc6k\xee\x8f\xd9O\xfe\x0bo\xf1C\xc2Z\x1axs\xe2\x17\x88Rk\xff\x000\xa4\x17W;\xa3\xb7Px\x0c\xdby?N\xf8\xaf\xb6?f\x9f\xf8+w\x83\xefu\xdb?\x01\xfc?\xd5\'\xf1_\x8a\xb5v\xff\x00N\xbbu\x11\xc5\x18?{\x04\xff\x00\n\xe7\x8a\xfb\x87\xc3\x9f\x1c\xd3P\xd3#\x83U\xbe\x86\xe2\xe5\x94y\x8e\x8c\xbbW\xfd\x91\x8fNk\xa9\xf0\xff\x00\x8d[T\x9d`R6\xe3\xa9l\xe6\xbb=#P"\xd83\\c\x07\xe6\xf9\xbbV\xed\x87\x89\x1ak\xa0\xd6\xe4""\xe0\xb7\xad_\xb0\xf1\x0c\xbfhc\xe71S\xd5\xb7\x1a\xd2O\x12\t\xa0\x11"\xae\x01\xe4\x91\xd6\x92{[k\xe4I\xa38e==kON\xd3\x85\xcc\x0b\x14\xae\x00#\x9d\xd5\xfcC\xb4r\x1c*`\xfb\x9e\xd4\xc7C\n\xe48-\xedH\xa4|\xb28\xff\x00xS^!\xca`dSb\x85\x17q g\x18\xe9\xda\xa4Y\x0cd\x106\xf1\x8c\x8fJ\xe8\xbe\x1d\xfcO\xf1\x87\xc2\xfd}&lt;K\xe0\xcdzk\x0b\xb8\xc6\x04\xb1\x13\xf9\x1c\x1a\xfbW\xf6+\xff\x00\x82\xa2\xfcV\xff\x00\x85\x8d\xa5xg\xe2\xd7\x8e\xe0\xb2\xd1\x8b\x83=\xca\xae\xd36;\x12\x0f\xbf\x7fZ\xfd\x9b\xfd\x9f~=\xf8/\xe2\x1e\x8bm\x7f\xe1k\xa8.Rh\xc1\xf3\x96Q\x9cv?\xce\xbdtx\xca\x18\x99a\x8ea\xb1Tg\r\xcb\x13[6&gt;+\x9ah#\xb5\x8c\xe4\xe7#\x9e@\xef[\xab\xe2h\xa2\x81b\xb6\x94\x93\xdf\rVl&lt;G\xfb\xd1n\xaeH\xeb\x9c\xd7Am\xe2H\xed\xc2\x97\x94\x90\xa3\x90M_\x8f\xc5\x12\x15\x17))\x05\xbf\x83&lt;\n\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfcJ\xf1\xcd\xf7\x89|U\xe3\xb9&lt;&lt;\x81\x9eV\xbc\xf2`\x8c\xaeF\xd2z\xd7\xd7?\xb3\x17\xec\x8d\xe0\r\x16\xce\xdb\xc4\xde*\x81\xafo\xe1PZ\xdev\xdc\x8aO\xfb\'\x8a\xfa\x7fB\xb1\xb2\xb4\xb1E\x1bR\x15\x1bcU\xfe\x11\xe9\xf4\xe9I\xe2khml\x05\xdcm\xb8\xaa\x9c\xbf\xf1m\xf4\xcf\xa5x\xe7\xc4\x0b\xa9o\xac\xeemf\x8c4N\xc1\x94H\xbb\xb6\xfe}+\xc1\xbe#\xb2?\x9bn\xaf\x96Q\xcf\x18\xcdy\x0e\xads4\xd7[^\x0c\xeep\x03c\x9e+\xa7\xf0\xed\xbd\xd4\xfab\xbcp1\x1b\x88\x06\xb5u\xcf\x87\xb7~\x15\xf8\xe7o\xa9\xdf\xe9M\x12\xad\xf8\x0c\xc7\x80Fz\xff\x00\x9fZ\xfa\xef\xe0\x95\xed\xa5\xcc\xd7\x17R\xcc\x88y\x01\x10\x8f\x98\x01\xc15\xe9\xf6H/\xb4\xed\xb2\xf9B \xa4\x8d\xf8\xc9&gt;\xd8\xac\xfdb\xf6$\xb2h\xa4\xb7\x0c\xde^#@N\x00\xef\x9f\xd2\xbcc\xc6\xf7\x97\x11\xcfq\x02\xc4\xff\x00?\n\xc1\xb8\xaf\x11\xf8\x84wK,\x91\xd9\x96f\x05\x18\xf6\xcdyW\x89.\xa3D\x8e8\xad|\xb7\x0f\x82W\xf5\xad\xaf\x0ejz\x89\xd3\x17\xec\xf7\x05\x17q\xf9U\xb1\xfdk\xea/\xdao\xe1\x16\xa9\xab\xdc\x9f\x15\xe9V\xa2EI7&lt;P6Ys\x8cs\xdf\xa1\xae\x0f\xe1\xd7\x8b\xf5\x1f\r\xeb--\xc8\x95U\x80\x8c\xc37c_D|2\xf1\xde\x97\x7fi\x0c\xb7l3\x13\x0f8+\xe11\xf4\xe8zU\x9f\x13\xf8\x86\x06\xd4%\xbcY\xbc\xcbg,6\xc6y\x03\xb0\xfau\xaf8\xd7\xe2\x92i\\y\x9b#bH8\xaf3\xf1\xfe\x83s}\x03Ai\n2\xa1g-\x1a\x00\xc7\xa7z\xf0\xaf\x1b\xe97q\xc8U h\xd4I\x96l`\xd5}\x1cH\xd6_\xb9\xbcu\x1b\x8f\x01\xc8\xaf\xd1-\x07\xc4\xbe\x12\xf1.\x93\x1d\x95\xe9\x13\xb9P|\xa5\x84~\xa4\xf4\xaes\xc4\xdf\xb3o\x86\xb5I\xdbV\xd3\xe1\x11Op\xc5\xccHs\xb4v\xfaw\xa8t\x8f\x85\xd2\xf8n!`9\xca\xb1\x00\xf4\x04z\xd5\xb9\xec&amp;\xb3\xb5h\xbeS"\xc7\xc0^\x86\xb9m^\xfc\xb5\xc0\xb2\xbf\xf2\xd08\n\xa8\x067g\xa9\xcfn\xdf\x9dZ\xd0|/a\xe2{7\x82\x1b\x08\xa2\x9a\x16(2rq\xd8\xfb\x83\xdf\xf0\xaf"\xf8\xfd\xf0+T\xd2\xfe\xd3}g\xa7\xca\x91\x95\x0c\x1d\xcf\xca\xe7\xf8\xb0;\x0e\x9f\x9d|\xfds\x0c\xda|\xedk\x0b\xb4!O(N9\xaf\xb0|\x0b\xae\xdc\xe9\xd7^L\x8f\xbfk\r\xe4\x80~\x9dk\xda\xbc\'\xe2\x03{\x14S=\xd3\xb7#\x08\x1f\x1cw\xe9[\xda\xa6\x95\xbe_8[+\xc6\xcb\xbbk\x1f\x99\xb3\xdb&gt;\xdf\xd6\xb9-oK\x84\xbc\x864\xf2\x98\x03\xe5\xa3\x8cc\xd7\x91\xd7\xf1\xaf\x11\xf8\x97s6\x93\xa8\x1b\x8b\x86\x92F\x0eq\x13\x9c+\x01\xe9]\x7f\xec\xf3\xaeK\xaaL\xd7\xd6\xd0+\x17FY-\x84\x9f&gt;\xdf\xf6\x0f\x7f\xa5zW\x89|\x17\xa5\xf8\xd7K{;\x98\xc3\xca\xd0\x1d\xec\x00\xe1\x07Ee\xe8\x18v#\xaf5\xf0\xf7\xc5\xcf\x85o\xa5x\xf2\xf6\xca\x0b\x1d\xd1\xab\xfe\xec\xb4\xad\x909\xeb\xef^\xc3\xe7\xc5mr7Z\xacX\x98\x87\xc1\xea;Wg\xe0\x1f\x17,w\xb1\xac\x13\x90U\x8e\xc8\xc0\xfb\xc3\xb8\xcfj\xf6\xed\x13\xc6-\xaaiq\xdb\xfd\x81w0\xc3\xa9}\x98\x03\xbe\xe1\xd7\x1f\xd6\xb3\xfcp\xf0\xdc|\xd6\xd6I\x1b\x14\x004)\xb5\\\x0e\xf8\x1d\xfd\xfb\xd7\xcc\x9f\x1f\x1ax\xef\x1aO)\x98\x06a\xe5\xa7O\xbaz\x8f\xc2\xb4\x7fe\xddR\xcdne\x82\xf6\'XB\xe6 \xed\xb5L\x84\x0c(#\x95\'\xb1\xafX\xd2\xbca&amp;\x8f\xe2\x89\xed/\x90\xa93c\xc9\x98\xf2\xbe\x99\xecH\xec\xddNj\xb7\xc4O\x84o\xe2\x7f\x12\xbe\xb3\xa1\xe9V\xfeL\xd1)&amp;F\x19-\xdc\x9a\xf3\xcf\x11hs\xcbrf\xb9\x94B\xaa\x0eP\xa6r~\xb5\x93\xa5_\xc1\xa7O\xe6+\xeeTn\x89\xde\xbdo\xe1\xdf\x8b|\xd8\x85\xba\xaci\x1b\xa6v;\x03\xd3\xf9W\xa1k\xb7\x17z\xe6\x8e\x97\x16\xb3+&lt;v\xf8\xf92\xd8\x1e\xe4\xf2\xbe\xd8\xaf\x9a&gt;9i\x17V\xf3Mu4\r$g\x9d\xcf\xd0u\xce\x0fS\xd7\xbds_\x00\xf5\xcb=;Z\x1az\xddl\xf3\xa4%\x96A\xf2\xed\xfe\xef\xe3\xfd+\xd1\xfe)\xcfyo\xabE}g\x07\x93\x19U*\xbb\xf7\x15#\xbe\xefC\x9e\x9e\xd5\xd2x;\xe2\xad\xbc\xba\x14gZ\xb0Y\'RT\xba\xc9\xc1\x03\xa5V\xf1u\x9d\xbe\xa3\xa1\xe2D\xf2\xca\x12s\x0f\xcb\x9e\x9d{W\x95\xda\xa0K\xf7\x80\x1f\x94\xb9&lt;\x00?\x95w\x1f\x0e\xc0\x13\tUT2\x10\x01\xda\t9=\xc9\xeb^\xed\xe1mb\xea\xd3\xc3\xd2D\x89\x1bbg\xda\xec\x9f2\x80\x07\x01\x86\x08\x1c\xf4\xce:W\x88|\x7f\xd3\xed\xae\xc4\xe2e;\x980gS\x82\xd8\xc1\x19\xc7\xd4\xd7\x84\xf8NI-\xb5\xb6\x8a\'`\x13\xe6S\xb8\xe7\x83\xd3\xe9\xed_I\xf8\xdf@\xd3\x1b\xe1\x9d\x86\xaf\x1c\x029M\x96J\xa0\x1b\t`2v\x90Gj\xf1]9\xe5\x102\xa5\xc4\xa8\x04\x84b9YG\xe4\x08\x15\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc2\x05\xdeV\xdc8\x00`T\xb0)\x95\xf0\xbdTg\x07\xa1\xff\x00\xeb\xe35\xfa\xdf\xff\x00\x04\x0f\xff\x00\x82\x7f\xc9\xa9\xe9\x12\xfe\xd2?\x14c\x98Y\xdf\xe5&lt;?\xa5\xcb\x1eU\x97\'\xf7\xa5O\x04\xf4\xc1\xfa\xd7\xecf\x85\xe1\r6\xca\xc06\x9d\x01\x85\x08\x1eX\xcf@\x00\x18\x1e\x83\xadgk\x17\x16\xba|\xe4\xcaK\xed\xeb\x96\xaecT\xf0\x9e\x87\xe2\xe7\x96k\xcd9YJ\x1f\x9c\xe3#\xe9\\\x1f\x89\x7fe\xdc\xce\xba\x97\x86\xaf\x8c\';\xf6\x0e7}q\\\x8d\xcf\x83\xbe8i72X\xdb\x10\xf1\xab\x9d\x84\x82x\xaf\xe6\x8d\xc1(\x02\x9e\x9d[\xd6\xba_\x84\x1e\x08\xba\xf8\x8b\xf1#B\xf0-\xa2\xe5\xf5]V\x18\x06\x0e\x0f\xccq\xc1\xed\xd6\xbf\xa8_\xd9\x13\xe1\xde\x95\xe0/\x85\xfe\x1d\xf0~\x85k\r\xbd\xad\x96\x9b\x0cq[\xa2\x00"\xc0\xce\x06:\x0e\x7f\x9d{\xd4\xbajZ\xe9\xe0FTq\xce\xd1\x8cW\x9cx\xdex-.Yp\x1d\xa4;@+\x9f\xc6\xb1m/\x9a;\x95\x86\xd9\x88U\x188\xe3\x9e\xf5\xdahb[\xe5@\xe0\x10\xa0d\xb1\xe9Z\x13\xe8\x96\xc6L\x9bh\xdb\xdc\x80k\xf8\xf6I\x19\x83F\xe0\xa3.\x02\x82\xbfz\xbd\xa3\xf6\x1c\xd2\x16\x7f\xda[\xc1\xd2\xcf\xb1\xbf\xe2u\t\xc6\xef\xbb\x82~a\xe8G\xad\x7fF\x7f\x06|m.\x95eil\x93\x02"@\xaa:|\xa0q\x9f\xf3\xda\xbd\x89~$[^\xd84\xb1H\x15\xb6\xe1\xb2~Rk\x82\xd5|J\xb7\xb7\x8d3\xe5\x88\x7f\xbd\xbb\x8e}*\xe6\x9a\x96\xf3J\xab\x80;\xb1\xcez\xd7_\xe1\xe8c\xc0V\x93#\x1cd\xf5\xad[tC\x1eJ\x83\xc9\xe4\x8a\xfe;\xe4y\xddVB\xf98\xc1\x19\xafK\xfd\x94|Uk\xe0\xdf\x8d\xbe\x1a\xf1\x04\x85\x16D\xd4\xe3]\xee8\\\x9a\xfd\xf8\xf0\x0f\xc5\r\x1a\r\n\xc7S\x9a\xf8m\x9a\xdd\x0bnoo\xfe\xbdv\xd1\xfcv\xf0\xd4v\xea\xb1\xc9\xe6.0\xb0$\x99\xde\x7f\xa7\xff\x00^\xa8Y|D\xb9\xd6/\xcaGm"F\x8c\x19b\xcfA\xef\xeb\xd2\xbd#\xc1\xba\xa6\xf4Y\xee\xe4\xda[\x9c\x129\xcdw\x9a\r\xfc!U\r\xca\x82:\x0cu\xads\xa82\x9c$c\x1e\xcf\x8a\xfe=\xc4\xbbc-\xb7i$g\x9a\xd6\xf0\x8c\x93\xff\x00\xc2Q\xa6Eh\xd8\x92K\xf8U\x06:1q\x86\x1e\x84z\xfb\xd7\xec\xe6\xb1y\xaex{\xe1\xb6\x8c\x96\xfa\x94\xa4\xa6\x99\x08\x95T\xf2\xc7`\xaeOB\xfd\xa6\x17\xc0\xf2\x16\xd7\x11\xa4\n\xf8\x08\xe7$\xd7\xa3xk\xf6\xde\xf0\x96\xae\xb1\xc3\x1a\xf9N\x00\r\xb9\xb0G\xd2\xbdc\xc1\x9f\xb5\x87\x86&amp;d\x1f\xdb\x90*\x88\xf2\x148\'#\xa09\xafZ\xf0\x9f\xed\x11\xa4\xdf\xc4\x8be\xa9\xa3\x19\x11N\xf6#\x83\xceEu\xd6\x7f\x1a\xb4\xb5\x80\x0b\x9dB6~\xe4\x155\xfc\xa8\x03\x11\x0e\xca\x01\xdc\xde\x95\xb3\xe0\x0b\xb1\xa7x\xd7G\xd4\'\xc9\x8a-J\x06p\x00\'\x1e`\xf5\xe9_\xb5\xbe?\xd0nu\x7f\x87\xd6\x17\xfaQ;$\xd3\xe2\x91\x1cr0c^\x06:W\xcb\xde5\xd1d\x93P\x94\xdcZ\x98\xdf\x7f\xccL\x7f1&gt;\xb5\xc2x\xbbX\xbf\xf0\xc9#I\xb1i.\x80\xc4n\xf9\xe0\x9f\xe7X:g\x8a\xfe\'Y^E,\xfa\xec\xa9s$\xa3\xcb\xb6\x86"w1\xe80\xbc\x93\xe9_J\xfc#\xf8O\xff\x00\x05\x17\xd74\x88\xb5\x8d\x1f\xc0\xb7\xff\x00du/\x0b\xdf7\xd9\xd9\x97\xd7gLWj\xd1\xfe\xdc\xde\x1c\xc6\x99\xaa\xfc?v\x99FX\xfd\xa0\x1e\xbf\x85~52\xa2\xedU\x88/&lt;\xe3\xbdM\x04\xd2\xdb\xe6x\x00/\x19\x0e\x80\xfb\x10k\xf6\xcb\xf6B\xf1\x96\x9d\xf1K\xf6w\xf0\xbe\xa4.\x12e:tP\xdc\xa89\xfd\xe2\x8c\x1c\xfa\xd7M\xf17\xf6I\x97\xc5\xeb\xfd\xa9\xe1\xdb&amp;\x13\xbf*\x08\xe1\xbf*\xf1\xef\x10~\xc1\xdf\x1du\xe9\x1e\x1d\x17\xc2\xfel\x9ea\xf3%\x99\x8a\xc6\x88;\x93\xeb\xe9\x8fC_O~\xc0?\xf0K\xdf\x04\xfc8\xd6\xad\xbe#|T\xb7\xb7\xf1\x06\xbeT\x94y\xa3\rmh;m\x0c\x0eXz\xf5\x18\xaf\xbe-|1\xa6[ii\x0c\x16H\xa9\x14a7z\x8a\xe5\xf5\xaf\n\xe8\xd3\xdf\xb3\xbe\x9f\x0b\xf0\x00-\x185\xfc\x89\xc8\x00\x8f `\xfa\xd4\xd0\x01\x89\x1f\xbam#\xf5\xaf\xd2/\xf8"?\x8f&lt;E\xaf\xe8\xda\xc7\x80u[\x95\x9bN\xb0\x9cMj\x8e\x99h\xd9\x98\xe4\x02z\x0e\x07\x18\xaf\xd8\x1f\x84\x1ae\xa4\x9aL2L\x9b\xce\t\x19\x03\x8eO\xa7j_\x17\xea\xf7R\xdc\x9b-\xb1\xaci!\xc2\xa2c\xf1\xae\xeb\xe0\x85\xa4W6\x99\x90\x9c\x891\x9e9\xce\x7f\xc2\xbdg\xc4v\xd0\xc3\xa2)X\xc7a\xca\x8e\x83\xb5y6\xa9,\x9f\xda\x12\x81#\x00\x1c\x80\x03\x1a\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00\x1e\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfcJ\xf1\xcd\xf7\x89|U\xe3\xb9&lt;&lt;\x81\x9eV\xbc\xf2`\x8c\xaeF\xd2z\xd7\xd7?\xb3\x17\xec\x8d\xe0\r\x16\xce\xdb\xc4\xde*\x81\xafo\xe1PZ\xdev\xdc\x8aO\xfb\'\x8a\xfa\x7fB\xb1\xb2\xb4\xb1E\x1bR\x15\x1bcU\xfe\x11\xe9\xf4\xe9Rk:t^\\R@\xca\xccx\xdeFN;\x0c\xfaW\xe7\xe6\xb9\xf0\xf6\xef\xc2\xbf\x1c\xed\xf5;\xfd)\xa2U\xbf\x01\x98\xf0\x08\xcf_\xf3\xeb_]\xfc\x12\xbd\xb4\xb9\x9a\xe2\xeaY\x91\x0f "\x11\xf3\x008&amp;\xbd&gt;\xc9\x05\xf6\x9d\xb6_(D\x14\x91\xbf\x19\'\xdb\x15V\xea\xfe\xda\x10\xa9q\x01b\x00\x08\xa8\xc7\x81\xdf?\xa5x_\xed7\xf0\x8bT\xd5\xeeO\x8a\xf4\xabQ"\xa4\x9b\x9e(\x1b,\xb9\xc69\xef\xd0\xd7\x07\xf0\xeb\xc5\xfa\x8f\x86\xf5\x96\x96\xe4J\xaa\xc0Fa\x9b\xb1\xaf\xa2&gt;\x19x\xefK\xbf\xb4\x86[\xb6\x19\x89\x87\x9c\x15\xf0\x98\xfat=*\xdf\x89&lt;A\xe6jowkp\x1e\x17c\xb4+}\xde\x98\x1fN\xb5oI\xb9\xd25\xbd\x065\xd5\xac\xcc\x81\x97!DK\xfc\xcf"\xb8\xef\x15\xfe\xce\xbe\x14\xbd_\xf8H-Q`{\xa7f\n\t;q\x8f\xf1\xaa\xfa\'\xc3\xe84\x18\x05\x9cW\x01\x83+\x10\x08\xe0\x11\xedZpX4\x08#v\\\x85\x1ft`W\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf7\xab\x0f\x8c?\x10\xbc)8\xd2\xbcG\xa4\xdc*\xa7\xde\x97\xcb85\xe8~\x17\xf8\xc1\xa6\xeaV&gt;|\xfa\xa0k\x8c\xe7`9\xe7\xfe\x05Px\x97\xe2\xb4\x10\xc2Z9RC0\xdb\x1a\xef\xc6\x0f\xbdx\'\xc7\x8f\x8dQ\xc7\x8b/\xb4\xac\x93\x88\xb0\x08n\x03z\xfdk\xe7o\x14\xfcE\xba\x929$U\x01\xa59\x8c\x0e\xc7\xde\xba?\xd9\x03\xc26\xbe:\xf8\xbdk.\xab x\xac_\xcc\x0c9Q\xeek\xec\x8f\x17^\xdb\xda\xdd\x88-b_.8\xb9P\xbc\xd6Z\xeb\x1e@\xf2\xe3\xc3\x8e\xbb\xb6\xf5\xaf\xa5\xfcM\xf0\xc7\xc3z\xed\x93\xc7\xa9i\x119=\xcc`\xff\x001^E\xf1\x0f\xf6T\xb3\xba\x0fu\xe1\xcb\xf9-\x98t\xda\xc7\xfaW\xcf\x9f\x17~\x07\xfe\xd0\xde\x14g\xb9\xd2\x9ek\xc8wo\xff\x00H\x195\xf3/\xc5\rO\xc7\x9e\x18\xb9\x96o\x17\xf8R\xfc8\x93\x86(\xcc\x07\xe7^_u\xf1F\xd3V\x9c\xc3\xe6E\x11=V\\\xabW\xbb\xfe\xc6&gt;=\xd1|\x1fsu\xab\x99St\x83\x017\xfd\xff\x00\xaf\xad}5\xff\x00\t\xdd\xbe\xaa\xc2\xed\'\x13M \xc6\xe49\x15p\xdf\xc5\xfcS\xa8\xfck\xec\xfb\xbb\xb5\x8a\xdc\x93(\xf7\xf9k*\xfa\xe8I\xc0\x88s\xd7\x8a\xcf\xba\xd2\x13P]\xb2\xec \x8c`\x81\xd3\xd2\xbc\xf3\xe2\x97\xc0\xdf\x04x\xb3M\x92\xdfV\xf0\xf5\xb4\xac\xf1\xe0\x1d\xa0\x9d\xde\xbd:\xd7\xc1\xbf\xb5\x97\xfc\x13\xefA\xb57\x1a\xcf\x84\xed\xda9\xc7O(\x05\x03\xf2\xaf\x9a|=&amp;\xbd\xf0\xabY\x1a&amp;\xa9z!\x10\xfd\xd9eN\x1a\xbe\x8a\xf8M\xf1\x13X:|s\xda\xeaq\xcc\x80\xee\x05%\x03\x03\xf3\xae\xd6\x7f\x8f\xbe\x1d\xd3\x1f\xec\xd7\xda\xb5\x89\x97\x19o6u\x04{W\xe99\xb8\x8e_\x9ei\x0e\xdfBx\xac\xb9o`\x92g\x85W\x18\xff\x00j\xa1\x18\x92LC)Q\xfe\xd1\xa6\xdeZ%\xbd\xbf\x99|_s}\xd0\xaa8\xaf\x9c?h}r\x01\xa5\xcd\xa7A\x00$\x8d\xa5\xe2m\xc7?\x8d|Q\xf1\xd3\xe1\x86\x87\xe3KYM\xf4\'\xcc\x03hx\xcf \xfdk\xe7\x1dk\xe0?\xed\x1f\xe1\xfd*}G\xe1\xf7\x8a\xf54\x82)0 \x8a\xe7\x86\x1e\x80\n\xf2\xeb\xaf\n|T\x86\xeeX\xfcWo\xaa\xcb{\xbc\xf9\xae\xfb\xb2k\xfa\x18\xb6\xf8\xb9c\xa8\x88\xad\xe3\xbb\x8b\x12t"J\x9a\x1f\x16ZI6\xf0\xd1\xe4\xf5;\xabN?\x11DO\x9aP\xe3\xdc\n\xc6\xf1\xa7\x8e%\xb7\xd3\xa5\xbeS\x82\x7f\xd5\xab\x11\xf2\xfd=+\xe4\xdf\x8f\xdf\x13,\xdfQ{\x17\x99K\xc6r\x01\xfe3\xef\xeb^\x13\xa9\xeb\x97\x97\x17+\xe6B\xbf\xbe9d#\x80k\xe8_\x02x;C\xd3\xbc)\xa7E\xf68D\x93[\xee}\xe7\x90}~\xb5GP\xfd\x99\xbe\x1c\xeb\x97M\xa9\xcf\xe1\xd4w\x97\x96`\xca9\xaf\x9c?\xe1\xb6\xfe1\xfc3\xd5\x17M\xf8\x87\xe0{\xcb)"\xfe5\x85\xddEzg\xc3\xaf\xf8)7\xc3\xfdT\xa4:\x9f\x88\xa3I\x08\xdb\xfb\xf7\xdb\xcf\xe2+\xdc|=\xfbVx;^\xb4\x84\xd9k\xd0s\xd72\xaf5\x85\xf1\x1f\xf6\x94\xd1.4\xe6\xb6\x82\xfa\x12\xc3\xa2\x89\xb7W\xce\xfe6\xf1\x95\xb7\x88\xb5g\xd4\xaen\x0c\xcf\xf5\x02\xb3\xac5k[\xfd~\xd9d\xdb\xe5,\xb1\xb3\xb1n\xa0\xf6&gt;\xd5\xf4\x07\x85|zu(\x96F*#Hp\x9e\x8b\xf4\xf4\xae\x8a\xc3\xc4\x16B\xd8e\xe4?Rs^\xfb\xe3\x1f\xd9\xb7\xe1g\x8d\x84\x9f\xda\xbe\x18\xb3\x99\xdf\xa0x\x95\xbf\x98\xae\x0bY\xff\x00\x82W~\xcd^+O:\x7f\x08Z@\xe0\xe4&lt; )\xcf\xd4\n\xe55O\xf8$W\xc2\xbb&amp;e\xd0oo\xac\x82\xf4\x10\xceW\x1f\x95cK\xff\x00\x04\xad\xd1\xe0\xfd\xe4&gt;%\xd4pz\xb31\xaf-\xf8\xb7\xff\x00\x04\xd9\xf1o\x87\xa0{\xcf\x0c\xeb\x97\x13&lt;Gp\xcb\x92\xac=\xfdk\xc3\xdf\xc1\xde1\xf0N\xb2\xdaw\x88\xad]R91\xbd\xa1\xed\xda\xbdk\xc0\xfa\xce\xfd!!Uq\x1a\x8c3\x83\xd6\xbb\x18&lt;G4q*\xc6\xfef\x07.\xd2\x81\x93\xf4\xaf\xbd\xad\x98\xc1&lt;e\x0f&gt;\xa6\xba-"g\x96&lt;7Oj\xd56\xb0\xc9"\xab\'^\xa4w\xa6j\xb6v\xdeO\x92"\x01}\x05r^6\xd2,\x0e\x98\xe9\xe4\x0cc\x18\x1e\x9e\x95\xf1O\xed\x8b\xe1\x8d\x1e\xda\xd2}B\x1bm\xb2\xaf;\x869\xfa\xfa\xd7\xcc\x91|B\xd7\xf4\x1d:k+\x11\x06\xc5\x83\xcc\x1b\xe39\xcf\xe0G\x1e\xd5\xe5\xfe!\xf8\x8d\xe3]oV\x96\xfao\x11\\BI\xc7\x97j\xdb\x13\xf2\xaf\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00\x1e\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf9s\xc6\xda\x9c\xe2\xe1\xd2 J\xedd\x91_\x90\xdc\x1e\xdd\xeb\xc1\xbe \x88-Q\xad\xc6\xd5\xdcN\xd5T\xc0_\xa7\xa5x\x8f\x8a\xee&amp;\x86\xe5\xe1\xf2w*\x13\x9e3\xd6\xac\xf8.)\xe6V\x8e(X\xe1\x015\xf6\xaf\xc4{\xd9a\xbf\xfbB[0^IX\xcfOz\xf1\x1f\x88\xce\xd2\xb12Z\xb3\xba\x92\xe3\xe9\xef^=\xe2i\xe2\x85n\x04\xd68f\xe47|f\xa0\xf0^\xa3z\x8a\xe9o)F\x087\x1d\xd8&amp;\xbe\xd2\xf1u\xc8\xbf\xb9{\xbb \xca\x8c0Ku\x07\xbek\xce\xbci\xa5&lt;\xd0\xc9\r\xa8\x8eG\x91v\x96(\t\x1c\xfa\xd7\x86|A\xd0ol\xe5\x9a\x11j\xfb\xc2\x95,\xc3\xf9W\'\xa0E,R&lt;"\xe9\xd5\xc2|\xc41\xcd}\xbf\xab_]\tM\xb8\x11\x80]\xb2\xdb2H\x00\x9c~\x95WA\xd3\xb4\xbd[P\x93I\x93NBZ!.\xf79\xfc3\xdb\xdb\xde\xb8\xcf\x8e_\x0b\xf4\xd8\xa1\x86A.&amp;\x946\x19N\x14.\t\x19\xf5&gt;\xf5\xf3&amp;\xb5`\xdaV\xa1,1I\x89C\x90\xee\x9cdW\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00x\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc+v\r\x18\xed\xce9\xa7\xa2\xeew\x1b\xc8\xca\xe0\x1e\xc7\xbf\xf4\xfdk\xf4\xb7\xfe\r\xf9\xf8u\x7f\xaax\xcb\xc5\xff\x00\x11/-\xa6\xfb\x046\xf1Z\xfd\xc1\xb4\xb8\xde\xc4\x8f\xa0#\xf3\xaf\xd4\xf9\xbe!\xcf\xa5:\xe9\x1a%\x83\xa4q\xc7\xb3\xceyx\xe4\x93\xc5-\xbc\x97\x13\xc6$\xbb\x95\x98\xb3n&lt;\xe5\xab\xd7\xbe\x11x\xd2\xcbC\xb2\x86\xded\x00o\xc8\x00\xfc\xcd\xf5\xafB\xf1o\x8f\xac\xafto\xdd\xc4\xe3\x8c\x80\xc7\x9a\xf1\xeds\xc6\xc2\x19dK^\x1eG\xe7\x07\xa5_\xf0\xae\xb55\xe0\xf3\x8c\x84\x05\xeck\xb8\xd3\xef\xe6x\xf0\xc5\xb6\xec\xceE]\x8fQ$-\xb6\xed\xc3\x199\xedP\xde\xcb\x19F\x00\x0e:`\xf5\xf6\xaf&amp;\xf8\xef4PiRB\x92\x84,\xa4\xbb\x93\xd3\x1d\xab\xe0\x9f\x8d^\x05\xd2\xbe%\xeb\x97\x16\xec$\xf3\x0c\x85`\x92\t6\xefn\xf9\xf6\xe0W\xb2\x7f\xc1?\xbf\xe0\x97\x9f\x0e$\xb1\x1f\x11\xfe)\xdc&gt;\xafx\xed\xe6\xc7c+\x93\x1cC-\xb4\x1c\xf5\xc6+\xf9\xdb\x10\xabpd88\xe0\xd5\x88b\x92i\x02m\xf9r\xa3=\xf1\x91\x9f\xe5_\xb2_\xf0D\xb6\xb3\xf0w\xec\x97\x14\xd61+\\jWs\xcdv\xc4r\\\xb9\x1cz\x8c\x01_]\xa6\xa4u\x1b\xa2\xd2\xe7#\xe6Ta\x85\x00\xfa\xfb\xf1]^\x87\xa8A\x1e\x99\xf6\x87\x87\xee\x0ewu?\xfdju\x97\x8c\xc1\x9fd\x12\x90\x03|\xac\x8d\x8cWS\'\x8f\xe2\x8fJ\x02\xf3R;\x91\t\x1b\xe4\xcek\x81\x7f\x1a\xae\xad\xac\x86\x86Q\xb0\xc9\xc9\x06\xbb\xef\x08\xeb\xf6Q0\x81n\x06w\x02\xfc\xf6\xae\xdbM\xf1\x8d\xba\x86\x8c\xba\xe3\x04G\xbc\xe2\x9f7\x8d\xb1\x96\x12)\x00\x009\x1f\xe3Y\xf7\x9f\x12b\xb3\x89\xe5\xb8\x99T\x8eP\x1f\xe2#\xff\x00\xd7^\x0f\xfbK\xfc[x\xf4\xc7\xb2i\x81y\xc9wD?0&lt;z\xf6\xaf\x96\xbc5\xe2\xf9n\xb5;\xddRUW\n\xe5\x11\x7f\x84\x1c\xf5\xcfZ\xfa\xdb\xf6*\xf8\xcf:k\x91\xf8.[\x90\xd0\x88\xcc\x81]\xf9\nz\x0f~s_\xcc\xb8 (\n\xb9\xf5\xf6\xa7\xc0BJ\x92,\xc4\xb6\xf0\x15\x07~\xff\x00\xd3\xf5\xaf\xd9\x0f\xf8#\x0c\xcbs\xfb*i\xb2 P\xe2Yr\x0e8\xf9\x98\xe0\xd7\xd7Z\xb5\xa5\xc4\xb0\xf9\xab\x84m\xb98\xe3\xa5A\xa6x\xa24\x8c[\xdd\xce\xe0\x8e\n\x0cs\xfa\xd6O\x88|w\xa4\xe97\xe2I\x1cD3\x8d\xb9\xc0\x15\xc5\xfcH\xfd\xa8\xfe\x19\xf8^/\xb0\xea^#\x88\xdc\x15;\xa2\x8d\xc1+\xd3\xb6EpK\xfbZ\xf86\xd8\x0b\x8d;W@\xb9\xc8R\xdc\xfe#5\xb9\xa1\xfe\xdc\xbe\x17\x81\x82&amp;\xa7\x0b\x13\xc1o8\x0f\xeb]n\x91\xfbmx}\xe5\x16\xdf\xdb\xf0\x07e\xcf3\xe4b\xb6\xf4\xcf\xda\xef\xc3:\x9a(]V6\xcb\x10Z)\x01\x07\xf35C\xc7\xff\x00\xb5w\x864\x9d&gt;@5\xb8f`\xbf\xbb\x86)\x81\xc9\xf7\xe7\x8a\xf9\xdf\xe2\x1f\xc7-\x7f\xc7\xfa\xac\x92Ms\xb66Q\x8cHq\x18\xf6&gt;\xff\x00\xd2\xb8\x0f\x11|d\xd1|\x08\x04ov\xb1\xa0pd%\xf8|\xf5\x1e\xe6\xbd\xbf\xfe\t\xaf\xf13_\xf8\x9f\xf1I\xfcG\x1d\xbb\xa4\x0e\xc6\x187\x13\xc2)\xe0\x9fJ\xfc?\x990T\x86#\xda\xa6\xb5B\xd3!\xe06@R=M~\xa4\xff\x00\xc1\x0f\xfe(/\xfc*\xcdG\xc1s\xdaH\x12\xca\xf9\xe4GL\x1c\xa9\xcf\x1c\x9e\xb9\x15\xfaC\x1e\x9c5-\x15g]\x82U\x8bq\xde\xbc\x15?\xd6\xb8o\x10y1\xc8\xe2(\xd5\x19N\x0b*w9\xff\x00\n\xf9\x87\xf6\xa5\xf1&gt;\xbf\xa6\xe9\x93M\x0e\xa5"\xef\r\xe526\x08\xfa\xd7\xc6&gt;!\xf1=\xf7\xda\xa4\xbf\xd6\xe6\x96\xf1\xd5\xcf\xcc\xf2\x1d\xcd\xf8\xf6\xae\'\xc7\xbf\x13\xfcP\x926\x9b\xa6_\xb5\xba,[\xca\xa8\xc9\x03\xb0\xdd\xd4\xfeU\xc3\xdbx\xc7\xc5\x97\x12}\xbb\xfe\x12\x1b\x84\r\xd1Q\xabV\xdf\xc6^7\xc2"x\xb2\xed\x1d\x81\xf9\xc3t\x03\x1e\xf5f\xdb\xe2W\xc4\xbbH\x89\xb4\xf1\xcd\xf2l\xc8\xc2\xc8@\xff\x00\xeb\xd5\x8d#\xe2\xe7\xc4\xe8\x18\xbc\xbe+\x96^s\xb9\xfa\x9f\xadtv\x1f\x19\xfe(^2\xdb\xb7\x88\x88\x12\x102\x07A]?\x85&lt;)\xa9\xf8\xc3V\x8a\x1f\x10k\xd2\\J\xee\x19w\xf2\xab_\xad\xff\x00\xf0L\xbf\xd9\xb7F\xf0G\x81\xed\xfcG\xe7\xc7$\xef\x1a\xb9e\x07\xbe}\xab\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x0f\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8\xef\xe1\xe7\x8a\xe4\xb7\x9d\x12\xe9\xd8\x1c\xe0\r\xff\x00w\xf3\xcd{&gt;\x87\xad\x8dR8\x9ed\x88\xa0\xc2\xe5\xb2x\xf5\xebSj\xda%\xb1\xbb,U\x86\x01\xfd\xea\xa6UA\xc6?\x95r\xda\xce\x94\xead\x92\x172\xa2\xae\t\x1c\xee\xfc;W\x90\xf8\xe7Y\xb9\xd3\xf51u4\xa9\x04q\xbf\xdeC\x96_\xa8\xae\xc3\xe0\x86\xb9i\xa8\xdcIs4\xc5\xad\xa6S\x89J\x9d\x81\xfb3c\xa5u\x1f\x14&gt;\x19[x\xdfCq\x14Q\xab\xbc$\x08\xc2\x8c\xff\x00\xd7@\xd8\xf9\x94\xfe\x98\x1e\xb5\xf0\xcf\xc4\x7f\x00^x\x7f\xc6\x17\x9aW\x98\xc9\xe5&gt;&gt;H\x0e\x0f\xb8\xe6\xbe\x83\xb0\x9d-.\xc3\xda\xdd3\x19$*\xe4\xa61\x8fO\xce\xbd#\xc0&gt;-\xbcIR\'b\xf1F\xd8\x90\x9e\x80};\xd7\xb0\xc1\xac\xe8\x97\xbaLS\xbb\xb2\xb3\x80\x88\xec\x84\x8c\xfd\x06?\\\xd6\x07\x8dlt\xfb2\xd3\xe9\xf2I\xf7\x06\xf5\x93\x19\x07\xbf#\x00\x8fOJ\xf9\xab\xe3\xa5\xebE|Ld*\x86`[\x1c\x92F{}+w\xf6Z\xd4\xae\x8c\xb3[\xfd\xbb\xcb\x10\xc6]\xe4)\xb8`\x80N\xe5\xe8\xc3\x9f\xad{\x07\x87\xbcf\xc3\\\x9bN\xbb\x94\xec\x1f"as\xf2\x9fOE&gt;\x98\xc8\xc7Z\xf2\xbf\x8d?\x08\xb4\x0f\xf8O.&amp;m\xd2\x19cW\xc88\x039\xe0\n\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00(\x00x\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc+y6\x95WS\xedR\xc5$\x8d"FH\xd8[,W\xaf\x1d\xb3\xf8\xfe\x95\xfa\xfd\xff\x00\x04M\xf1\x1d\xad\xe7\xec\xcd\x0e\x8aY|\xdb;\xc9bt/\x92y\'\'\xf3\xaf\xb6\xef\xf4\xa4{\x05\x99B\x98\xd9H\x0c\xde\xb5\xccM6\xa3\xa21\x02\xf0y`\x93\x84c\x9cW\x94|c\xf8\xfd\x17\x82\x92K\xc4i]a\xc9e\x1d\xbaW\xcd_\x10\xff\x00oo\x88\xde(\xbf\x16~\x17\x1ff\xb5\x04\x84R\xdb\\\xf4\xcf\xb1\xfck\x88\xf1\'\xed\xbb\xae\xe8\x16\xe6=c\\\x06q\xf7\xa3\x19/\x9fs\\\xf5\xaf\xfc\x14\x97]\xb6\xbc\xf2\xa4\x8eY\x02\xe3\x95c\x8cWG\xa7\x7f\xc1Q\xf5\x1b9\x16\xe1\xec\xa5\xf2\xb6\xe0\xa0\x07\x93[\xda\'\xfc\x15\x82\xda\xd5C_\xda\xde\x02\x0e\xe6\xf2\x01\x03\xd8T\x9a\xdf\xfc\x15"\xd3\xc76\xefg\x14\xa6\xd29&gt;V\x0b\x9d\xc4{\xd78\xdf\xb5/\xc3\xeb\xa9M\xdc\xba\x9bJ\xe0|\xab\xb3\xb9\xae[\xc5?\x1e\xf5\x9f\x18]y~\x0f\x8aU\x1b\xc02H\x87j\xe3\xb8\x1e\xb5\xf6\xef\xfc\x12K\xe0\xc7\x89\x85\xeax\xc7X\x8eYD\xb3\x17y\xe5S\x97\xcez\xe7\xe9_\x87\x05\xa3a\xf36=\x07\xad\x11\xb8F\xccl\x17n\x0f#\xefc\xb5}O\xff\x00\x04\xdf\xfd\xb4.\x7ff\xbf\x16?\x86\xf59\xd8h\xfa\xa3\x06v\r\x8f.L\x90I\xff\x00\xbe\xbfJ\xfd\xaa\xf8!\xf1S\xc2?\x13\xfc\x15\x1e\xa9as\r\xd4\x12\xc2&lt;\xb2\x93)\x00\xe3\xae=k\'\xe2V\x81\xad\xdbZ\xb5\xe7\x87o!,\xcd\xc4r\xb8\xf9x?\xe7\xf0\xaf\x88\x7fj\xcb\xaf\x8b\xa5\xbf\xb1\xcf\x87\xad\x1eY\x89\xdaSs4\xbc\xff\x00\xb3\xfd}k\xe7\xfb\xbf\x81\x7f\x19\'\xb0\x92\xfa\xf3\xc1\x9a\x89\x12\x9eR\x0bVU\xcfm\xc4\x8f\xf3\xcdp\x1a\xd7\xc1O\x89\x1a\xbe\xaat\xe9t\x0b\x87\xb8T*-a\x85\xdfg\xbf\x1d\x0f\xf8U\x8d?\xf6D\xf8\xa6\xa1D~\x0b\xd4\x98m\x05\xb1j\xe0\xf3\xf8WM\xa1\xfe\xc2\xff\x00\x1b\xf5\x92\x9f\xd9\x9e\x05\xd4\x9d\x8f\xdc\x8dm\xdb\xbf\\\xf1S\xeb\x9f\xb0G\xc7m\t\x7f\xe2a\xf0\xff\x00QU\xec&lt;\x82I\'\xd3\xd2\x9d\xa2\xff\x00\xc1?&gt;&gt;^\xa2\xca\x9f\x0e\xf5%\'\x96\xddlA\xc7n\xd5\xdd\xf8+\xfe\t\xab\xf1\xa7P\xbe\x8a+\x9f\x02_\x02H \xb4D\x00k\xea\xaf\xd9\xf7\xfe\t\x17\xe2\xa9\xee\xed\xb5?\x19D\xd6\x90.\x19\xe09\x1f\xa5~\x8a|\x0c\xf8\x19\xe1\x9f\x83\xde\x19\xb6\xf0\xe6\x87\xa6*\x85\x85T\xc8\x06K\x1a\xfeK]\x03\x8e\x9d)\xdb\x1d\x11]\x07C\x9cz\xd2\x89\x98H\xafp\xa5\xb7&gt;v\xe7\xd3\xf9W\xd2\x7f\xb1\xc7\xfc\x14\x03\xe27\xec\xf1\xaaC\xe1\xfdKT\x92\xefE\xdeq\x0b\xcc\xc4\xc5\x9fL\x9c\x1f\xfe\xb5~\x8b\xfc\x0e\xfd\xbe\x7fg\xef\x88vP\x1f\x18\xff\x00n\xdd\\\xceA[kP\xcc$a\x9f\x94m&gt;\xfd\xeb\xeb_\x83\xd6_\r&lt;[\x0c:\xff\x00\x83\xbfg\xe6\x1epR/5\xb5\x1f)\xe7\x19-\x93\xc7\xb7\xadw\xfa\xbf\xc28\xbe!_C\xe1yt\xeb34\xed\x85\xb6\xb4\x89|\xb8\xc7\x19b\xd8\xe8=\xeb\xd3~\x1f\xfe\xc5\xbf\xb3\x7f\xc2\x8d8\\\xda\xf8\x1fO\xd4uF\xf9\xaeu\x0b\x8be$\xbf\xa2\xe0g\x035\xb9u\xf0\x83\xe1\\\xaae\x93\xc1Zx|\x1cm\x87\x1b\x7f:\xbf\xe0\xcf\x84^\x06\xd3K\xcd\x16\x97j\x8eW\xe5)\n\xe4~8\xad;\xbf\x80\xfe\x08\xd7/\xe3\xb8\xbd\xf0\xdd\xb4\xa1@o\xde*\xf2}q\x8ezWAi\xf0O\xe1\xf4X\x11\xe8\xb6\xed&amp;\x00\xdb\xe5)\x00~"\xa1\xbb\xf8A\xe1kk\x8d\x96\xda,x\x1c\xef\x11\xae\x07\xd3\x8a\xa3y\xe0\x8b{Y\x04P\xc2\x15I\xc1\xe3\xadli\xde\x0c\xb3\x80\xac\xcb\x06\xf6\xc0\xfb\xe3\x85\xaf\xe2\xc7\xcaE\xca\xb5\xc1\x05\xba\x03\xde\x9c&amp;\xf2\x17oC\xdb&lt;\xe7\xfc)fP`\x0c\xccF\xee\xa3uB\xaf\xe5\xaa\x81+q\xf7Fx\x15\xd7\xfc3\xf8\xdb\xf1#\xe1f\xad\x16\xad\xe0\xdf\x11Kj\xf1H\xac\xa4\x12\xca\x98\xcf8\xcd}\xd1\xfb)\xff\x00\xc1m\xfe(xKCO\x0e|B\xf1\nM\x7f\xe6\x14\x82\xea\xe7tv\xea\x0f\x01\x9bo\'\xe9\xdf\x15\xf6\xc7\xec\xd3\xff\x00\x05n\xf0}\xee\xbbg\xe0?\x87\xfa\xa4\xfe+\xf1V\xae\xdf\xe9\xd7n\xa28\xa3\x07\xef`\x9f\xe1\\\xf1_p\xf8s\xe3\x9aj\x1adpj\xb7\xd0\xdc\\\xb2\x8f1\xd1\x97j\xff\x00\xb21\xe9\xcdu&gt;\x1f\xf1\xabj\x93\xac\nF\xdcu-\x9c\xd7g\xa4j\x04[\x06k\x8c`\xfc\xdf7j\xdd\xb0\xf1#Mt\x1a\xdc\x84D\\\x16\xf5\xab\xf6\x1e!\x97\xed\x0c|\xe6*z\xb6\xe3ZI\xe2A4\x02$U\xc0&lt;\x92:\xd2Okm|\x894g\x0c\xa7\xa7\xadi\xe9\xdap\xb9\x81b\x95\xc0\x04s\xba\xbf\x88v\x8eC\x85L\x1fs\xda\x98\xe8a\\\x87\x05\xbd\xa9\x14\x8f\x96G\x1f\xef\nk\xc49L\x0c\x8alP\xa2\xee$\x0c\xe3\x1d;T\x8b!\x8c\x82\x06\xde1\x91\xe9]\x17\xc3\xbf\x89\xfe0\xf8_\xaf\xa7\x89|\x19\xafMaw\x18\xc0\x96"\x7f#\x83_j\xfe\xc5\x7f\xf0T_\x8a\xdf\xf0\xb1\xb4\xaf\x0c\xfcZ\xf1\xdc\x16Z1pg\xb9U\xdaf\xc7bA\xf7\xef\xeb_\xb3\x7f\xb3\xef\xc7\xbf\x05\xfcC\xd1m\xaf\xfc-u\x05\xcaM\x18&gt;r\xca3\x8e\xc7\xf9\xd7\xae\x8f\x19C\x13,1\xcc6*\x8c\xe1\xb9bkf\xc7\xc5sM\x04v\xb1\x9c\x9c\xe4s\xc8\x1d\xebu|M\x14P,V\xd2\x92{\xe1\xaa\xcd\x87\x88\xff\x00z-\xd5\xc9\x1ds\x9a\xe8-\xbcI\x1d\xb8R\xf2\x92\x14r\t\xab\xf1\xf8\xa2B\xa2\xe5% \xb7\xf0g\x81_\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x14\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8K\xcf\x8a\xda\xe4n\xb5X\xb11\x0f\x83\xd4v\xae\xcf\xc0&gt;.X\xefcX\' \xab\x1d\x91\x81\xf7\x87q\x9e\xd5\xed\xda\'\x8c[T\xd2\xe3\xb7\xfb\x02\xeea\x87R\xfb0\x07}\xc3\xae?\xadg\xf8\xe1\xe1\xb8\xf9\xad\xac\x926(\x00hSj\xb8\x1d\xf0;\xfb\xf7\xaf\x99&gt;&gt;4\xf1\xde4\x9eS0\x0c\xc3\xcbN\x9ft\xf5\x1f\x85h\xfe\xcb\xba\xa5\x9a\xdc\xcb\x05\xecN\xb0\x85\xccA\xdbj\x99\x08\x18PG*Oc^\xb1\xa5x\xc2M\x1f\xc5\x13\xda_!Rf\xc7\x931\xe5}3\xd8\x91\xd9\xba\x9c\xd5o\x88\x9f\x08\xdf\xc4\xfe%}gC\xd2\xad\xfc\x99\xa2RL\x8c2[\xb95\xe7\x9e"\xd0\xe7\x96\xe4\xcds(\x85T\x1c\xa1L\xe4\xfdk\'J\xbf\x83N\x9f\xccW\xdc\xa8\xdd\x13\xbdz\xdf\xc3\xbf\x16\xf9\xb1\x0buX\xd27L\xecv\x07\xa7\xf2\xafB\xd7n.\xf5\xcd\x1d.-fVx\xed\xf1\xf2e\xb0=\xc9\xe5}\xb1_4|r\xd2.\xad\xe6\x9a\xeah\x1aH\xcf;\x9f\xa0\xeb\x9c\x1e\xa7\xafz\xe6\xbe\x01\xeb\x96zv\xb44\xf5\xba\xd9\xe7HK,\x83\xe5\xdb\xfd\xdf\xc7\xfaW\xa3\xfcS\x9e\xf2\xdfV\x8a\xfa\xce\x0f&amp;2\xaaUw\xee*G}\xde\x87==\xab\xa4\xf0w\xc5[yt(\xce\xb5`\xb2N\xa4\xa9u\x93\x82\x07J\xad\xe2\xeb;}GC\xc4\x89\xe5\x94$\xe6\x1f\x97=:\xf6\xaf+\xb5@\x97\xef\x00?)rx\x00\x7f*\xee&gt;\x1d\x80&amp;\x12\xaa\xa8d \x03\xb4\x12r{\x93\xd6\xbd\xdb\xc2\xda\xc5\xd5\xa7\x87\xa4\x89\x126\xc4\xcf\xb5\xd9&gt;e\x00\x0e\x03\x0c\x109\xe9\x9ct\xaf\x10\xf8\xff\x00\xa7\xdb]\x89\xc4\xcaw0`\xce\xa7\x05\xb1\x823\x8f\xa9\xaf\t\xf0\x9c\x92[km\x14N\xc0\'\xcc\xa7q\xcf\x07\xa7\xd3\xda\xbe\x93\xf1\xbe\x81\xa67\xc3;\r^8\x04r\x9b,\x95@6\x12\xc0d\xed \x8e\xd5\xe2\xbas\xca eK\x89P\t\x08\xc4r\xb2\x8f\xc8\x10+\xff\xd9'</t>
         </is>
       </c>
     </row>

--- a/Shape-matching-using-a-dynamic-time-warping-algorithm/binary_data Sundar Pichai.xlsx
+++ b/Shape-matching-using-a-dynamic-time-warping-algorithm/binary_data Sundar Pichai.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x01}\x01}\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc6.\x8c6+\r\xc3\xaf=i\xb3\x06 \x05\xf5\xa1HU!\x86O\xad \xea)r2~\x86\x98\xd1\xa39rq\x85\xe8O_jP\x8a\x88\x1aB0z\x02j9c\x11|\xca\xc0\x97\x1d\x01\xe9V&lt;9\xa6I\xab\xeaqXA:\xab\xcb*\xae\xf6l\x01\x92\x06I\xec=\xeb\xe9\xef\x0f$^\t\xf0\x1cVzl\xdeTP\xa3\xa5\xcc\xb1\x0f\x9eEf\xc3l=\xf8Q\x8cz\x8a\xe3u?\x88r-\xb5\xd6\x97\xe1\xa1\xe5C\x03\x19$%\xb3\xb9\x97\x80W\xd4\xe3\x9a\xe4\xf4\x87:\xee\xabu\xe2?\x18\xeam\xf6\x0b\x08\x9d\xe4\x96F\xdc\xf2\xb9S\xe5\xc41\xdc68\xaeBk\xeb\xef\x12\xea\xedyt\x86$\xdcB\xc6\xab\xf7\x14}\xd2\x07\xf3\xad\xb8\xa2\x8a\xc7\x06$3:\x00Xg\x18\xfa\xfaV\xb9\xf1\xc2\x89\x99.-\x84\xee\xb1\x81\x1cP\xcb\x84_\xa9\x1di\xfa?\x85u\xef\x13C\r\xb4\xda\xd9C,\xbc\xaa\xa3\x107\x1e9\xef\x8a\xf4\x8f\x85?\x05m\x1bV\x92\xcf[\xd7$x\x9a"\x17\xc9\\\r\xd8\xeas^\xab}\xf0\xb7F\x82\xe1F\x86eh\x1c,1\xb3\xc4w,\x98\xe4\x0f\xf0\xae\xe7\xc0?\x06|C\xe2\'\xfe\xc6m\xf2\xc4\xa0\x06b\x98\xdf\x9fO\\W\xbe|%\xfd\x83\xedui\xbe\xd5\xaeM%\xad\xb7\x9av\xb4n\x1bp#\x9e+\xdc\xbc%\xfb\x1a|$\xd3]\x84\xabp\xe6\xde2\x14\x00C1\xc7\xa5uv?\xb1\xe5\xb6\xb5$\xb6\xfe\x1a\xd0m\xf4\xed;\x00H\xf3\xc5\xbaY\x0f\xe3\xc8\x07\xd6\xbb\xed\x07\xf6L\xf8Y\xe1[K{;]6;\x8b\x98\xd9Y\xe4h\xc1\xcbz}+\xbf\xf0\xf7\xec\xb5\xe1\x0b\xeb(\xee\xef\xf4\xfbeU\x04\xacq\xc2\x0b{\x0fj\xec4\x0f\x83~\x15\xd2m\x04\x96\xda\n"\xc4\xc1\x16Y\x10.Gr3\xd6\xba\x1d\x1bH\xb7\xd2\xe5\xf2c\xb0\r\x9c\x80\xa1\x07E;A\xfa`\x93\x9a\xe8e\x92;kO\xb1\xd9\xdb\x04y\x10\x9c\x05\xcex\xaeRe\x81\xed\xe5\x8ex_\xed\x11\x07+\x1a\x8e\xad\x8e\x07\xe2k/\xc4z/\x88\xf5\x0f\x0f\xdf,\xb2\xa8\x9e\x05\x12E\x14S\x0f\x9d@\xce\xd0{\x13\xd2\xb0\xb4(u\x8dSG\x8e\xf7\xc4\x11\x94\xbc\x8a1\x14\x96\xf3\x8c\x92\xbb\xb89\xf6\xaa\x1e0\xf0\xbd\xa8\xb2_\xb0\xa9\xc3\xc6\xce\x85\x0eK\x109\r\x8a\xe2\xf4\xff\x00\x0e\xff\x00hj\xedyu3\x99f\xb9\xc4\xc5\x06U\x10\x0es\xe8qWN\x81\xfd\x97t\xdeK\t 2&gt;\xdd\xe7\x18b\xbc\x13\xed\x9a\xf3\xef\x89\xfe\x14\xb1\xf0\x8e\x9f6\xaf\xe7\xbd\xc2o\xdf*G\x19\xf93\xc9\xc1\xef^\x0b\xfbCh\x9a&gt;\xad\xa2i\xfe\x00\xb7\x92-&gt;\xc3Z\x89\x8e\xa7x\xf8\xc6\xd2\xa5\x80\xc9\xe1A\xd8\xa3&gt;\xe2\xbeI\xf0\xa6\x9f\xa7x\xe3Y\xb7\xd1\xd8\xc8.o.n\x1b\xcb\x93\x8d\xd1\xecm\xaa=\xfe\\\x8a\xcb\xf8\x13\xae\xeb\xde\x0f\x8f\xc6\x1f\r\x96\xd8Mm\xaah\xf7\x02\xd5Cdy\xb1I\x1c\x8a\xd9\xec\x1bk`\xfa6j\x92\xf8\x1e\xcbG\xf8\x8d\xe2\x9bMM\xe0\x8a\xdc\xc6?\xb3\x04\x92\x02\xcc&amp;E%3\xf4`\xc3\xd8\x83\xd2\xbc\xe3J\xf1\x85\x96\x93\xe3S\xe1\xf9#"\xce\t\xae\xe2\xb5\x04r\xbb\xbf\xd5\xe3\xdbw#\xe9Y\xba\xd4\xf7\'P\xd6-\xe3\xb6\r\x06\xa9u%\xdcm\xd7\xcbUO\x94\x0fm\xc4g\xebL\xf0\x06\xb1qm\xabi\xde%3\x046\x1a\x84W2B\xf2\x1c)12H\xa5\x7f\x87\x80k\xb7\xd6\x1b\xc4\x12\xf8\x8f\\K\x9de\x155\x1f\r$\xcb\xe6\xb3.\xe8\xe1l\xa8\x19\x1c\xc8&lt;\xcc\x11\xd4\x049\xe9\\d^!\x9a\xff\x00\xc2v\x1e\x1d\xb3\xb2\x88^\xe9\xa8\xebo&gt;\xcc\xb3d\xe4\xee=\x8fq\x9a\xde\xf0\xe7\x8d\xbc\'\xa5\xf8[\xfe\x13\xb9\x83\xb5\xdd\xae\xbbg=\xe3\xb0\xcb\xa1Hv\xb8\xc7\\1 \xfb\xd3o|\x0bse\xe1\xbd.\xedt\xd8\xcd\x96\xb9h\xb7\xa2\xe6E;\xe11O,\x12\xa6\x0f\xddb\xdbx\xeb\x92=k\xb9\xbf\xf13x+X\xf0\xfd\xc5\x85\xe0\xf3WP\x16\xd7jHW\xf2\xdc+F\xde\xc0\x06a\x9fZ\xe2\xbc}\xa0\xdcZx\xfa\xdb\xc7q\xeaB8\xf5O\x12}\x92\xe0B\xcb\x8d\xd2 \xdc\xa0w\x1b\x8a\xb8&gt;\xb84\x9f\x1f\xb5\xbb\xbd{[\xd3\xae[M\x11&lt;VF)\xc2(\x1f\xbcW!\x87\xd0`~9\xaf\x8d\xdc\xa8!\x963\x93\xe8)\xbefN\xd2y\xf4\xc5\x04\x10v\x91\xcf\xa5\x03\x91\x91J\x01\x07$Tra\xa4\x03#\x96\xa1\xd81\xd8\xdd\x052S\x04\x92\x05\x1b\xb2W\x19\xae\xc3\xe1\x87\x85\xade\xd6m$\xd5\x06\xe8\x9a@\xac\xa8y&lt;\xf2=\xab\xdf\xfckh\x87@]3Lm\xa7\xc9\t\x1cDp\x99\x18\x04\x9fZ\xf1?\x11\xbc1\xdd\xaf\x86\xb4\xbcFFZ\xe6\xe7wF\xf4\xac\x8f\x11\xea\xf6:\xcd\xeai\xba.\xf1ik\x18\xf9z\x19\\uf\x14\x9a~\x94\xb6\xe3~\xa5(W?4{\x0f\xf3\xab\x17:\x9c\xedk5\xb5\xb6\x03I\xcb9_\xe1\x15&amp;\x89\xa3\xae\xc1s+gwS\x9cW\xab\xfc.\xd1\xaduk\x87\x1a\x842\xad\xbc\x08\x03\xf9n2\xa4\xf4\xce:W\xbc\xfc*\xf0\xcf\x87t9Z=+E\x9a\xee\xfa\xed\xd4\xc0\xce\x0b\x04Q\xf7\xab\xe8_\x86?\x035/\x1a\xb2\xc5\x07\x85&lt;\xf6x\xc4\xdf ?+\x9e1\xecE}/\xf0\x93\xf6V\x7f\x0ci\xf1C-\xb9fl2\xc30\x01\x95\xbf\xc2\xbd\xdb\xc0_\x0c%\xb5\xb0M4\xc4\xae\xaa\xa7w\xee\xb0#\xf7\xcdz\x1e\x83\xf0\xff\x00\xc2\xfe\x1b\xb3{\x9b\x8bq&gt;\xe9X\x9c\xa6X\x9d\xbd\x07\xb5\x10X\x8dFP\xf1\xd8\x15\x866\xdb\xfb\xb3\x82\xfe\x9f\\V\xef\x874M=f/4r*\xe7\x91!\x1c\xfbf\xbbo\x0c\xe8ii\'\xda\xacm\xb7\x00wa\x8f\xf2\xad\x18\xa1\x8a&amp;D\xba\xb6V\x0e\xe7+"\xe4\x8f\xa6;\xd4W^\x1f\xbb\x86f\xd44\xab\x94\xdf\x82p\xf8\x18\x15\x97u&amp;\xbe"\x8do\x19\xbc\xd1\x9c\x18\xf1\x8cVu\xbd\xed\xcc\xd3-\xaf\xd8\t\x96v\xc1\xf31\xcdGw\xa3\xa3\xc2\xf6\xf7p\x80\xb3\x13\xb5\xa2\x07*\xfd\xb3\xf8\xd6-\xcaA\x14~E\xb1@\xfd\x1d\xdc\xe0\x02=k\x8a\xf1F\xa9\xe6\x99\xe0L\xab\xb6W\x18\xe1G\x7f\xce\xb2lt\xab{\x13swe2:\\JH\xda\t\xd86\xf3\xf4\xcdW\xd66K\x13\xda+\xbe\xe9X*\x85\x19&gt;\xf8\x1d\xea\xad\xef\x87\xa1\xd4"\xbb\xd1\xf5v\x13\x83\x10f\x05r\x04x\xe7\xf4\xaf\x94\x7fl\xabI\xf4\xdbK\xeb\x0bKeif\xd3\xd5,Dc"5\x11\xb0=:\x11_\x19\xe9z\xe6\x9d\xa0\\\xe8\xb3\xd9YF\x97w6vk{\xbc\x1d\xd0JgrN:\x8f\xdd\xe4\x1f\xadq\xbe$\xd5\xaf|;q\xa8G\xa2\xdd\xc2.\xec\xaed\x84=\xbf(\xf0\xe4\xae\x1b\xd8\x80?:\xab\xa5\xf8\xcf\xc4\xbe0\x9a\xef^\xb6\x8e9$x\xe1w\x8e5!_b\xb2\x95\xc9\xff\x00e\x8f\xe0\x80\xd3&gt; \xf8o\xc1\x11x\xda\xcbX\xf0{\x1b\xeb8\xe4S-\xcc\x9c;\xb3[\xa0te\xfe\x1d\x85d#5\xbf\xe3\xd8t\xcf\t\xea\xf6\xf2X\xe8\x90$7\x9ax\xba\xb3\xbb\x9b\x00\xbd\x9c\x915\xbc\xc8\x14\xf5!\xc0l\x8e\x98\xae\'\xe1\xa7\x82t\xcf\xf8L.a\xbb\xb5\x94\\I\xacY\xad\x97\x96r%\x86d\x90\xb9&gt;\x84nQ\xf5a\xebL\xf8\x93\xe2}SJ\x92?\x06Geor\xb6:\xcb\xbd\xa5\xc2\x9c\xf9\xb0L\xb9\xf2\xd9~\xf1\xc1\x1d\xb8\xadO\x01\xe9z\x07\x82\xf5\xd9\xef\xf5\x9d-\xeeml\xeca\xb8\xb8IF\xe0\x12y\x1dX\x809\x04\t\x10\x0c\xf7\x02\xb0g\xb1\x83\\\xb5\x9bE\xb2\xd3\xe0X\xb5Y\x82\xc0\x11p\x19Y\x11A\xcf\xa8\xc8\xfck\xba\xd4\xfcg\xa7\xc1\xe0m\'\xc0~#\x8d\x01\x85b\xb7\x8fP\xce&lt;\xe4&amp;%\x9aob\xea\xa7#\xf8X\x93\\O\xc5\xdb=n\xf6\xf2h\xa6u\x97\xec\xb3\xa6\x91 \x89H\x1edp\x99\x12Un\xfb\x84}{\xee\x1e\xb5g\xc6\xba\x86\x9d\xfd\x95~4\xcdP^\xc7$6\x1a\x9d\xb9\xf2\x89\xf2\xe5@\x04\x84c\xa3&amp;\xe4\xe3\xbe\xda\xe8n\xfe"xwr\xb7\x8a#\x9aAs\x1a\xdd\xdb&lt;0\x80\x0f\x9a3&amp;3\xd5w\x86\xc1\xaf\x86\xd1$Y7n\x1dx$\xf1P\xb8W\x95\x82\x92\t\x1f1=?\n\x99\x925\xc7\x94NPrZ\x90\x80\xbf!8\x04g4\x06\xb9\x8f\xe5@\n\xff\x00\x16}*9\x1dy\xc2r\x06i\xb8\xdc\x01&lt;\x13\xd34\xc5\xc2&gt;\xd7\x19-\xc2\xe7\xbdz\'\xc1MN\xc5&lt;gcy{\x0byy| \xe7k\x01\xc3\x11\xe9\x9a\xf4\xdf\x88_\x10\x9d\xad\xa6\xd3t\x8d\x8a\xa2#\xe6K\x90^\\\x8f\xe1\x1e\x9e\xf5\xe1\xf7\xda\xbe\xa3\x1c\xd2[\x87Uw\x97qn\xa4\x8c\xf4\xa3\xc3\xf70\xc7\xa8\x96\x94\xfc\xbe[nb\xbc\x13\x8e\x99\xad1\xa7^=\xe0gb\xe1\xcf\xc8\xa3\xf9V\xc5\x97\x82\xaf\xee\x18]5\xb1\x8dB\xe4n\x1d\x7f\xc6\xbb\x1f\x03|/:\x8a\x90\xd9p~c+\x0c(\x15\xee\x9f\x04\xbe\x0b\x0b\xeb\xc8\xb4\xad:)d[\x94\xdcs\x19\xc9\x19\xc7\xcc{{\x1a\xfa\xb7\xe0\x7f\xec\xfdwq\xaf&amp;\x9b\xa4\xe8\xd2\x04\xb7\x97\x1b\xdds\xbc\x11\xce=E}\xd7\xf0\x87\xe1~\x99\xe1\x0b\x04\x82\x1bX\xa0\x0b\x12\xfc\xc8\x83\xcc/\xed^\x95\xe1\xef\x0c\xc5$\xf1J\xf2\x19\x99\tm\xf2\x90H\xc7n+\xab:ki\xd6\x12\xcbnXH\xcc\n\xa8\x03\x9f\xc3\xd2\xa4\xb7\xd2\xe0\x86\xc7\xed\xb7V\xe5$f\xf9\x89o\xbd\xed\x8e\xd5\x1f\x94c\x8e\x08\xec\xe2\n\x9b\xf76F\t\x19\xadk\x0b\x18\xe4\x06\x13m\x82\xcaH\xc9\xae\x83J\x8e\xea\x18H\x8f\x80\x89\xd9\xebR}6\xfaE\x12\xa4\xea\x14JO\'\x9c\x11\xc9\xa0-\xc4\x00F\xf2\xf0\xfcn=&gt;\xb5E\xeen\xad\xe5-&lt;\x8a\xdf\xc3\x1eG\x07\xd2\xb0"\xb8\xbc\x87\xc4\x0fp\xd1\xed\x86F\x06&amp;\xc7(s\xda\x86\x9a/\xb5I\x13HQ\xa4\'l\x99\xce\xe3\xf4\xedX~&amp;\xb5D\x99c\xd9\x84n\xa0u&amp;\xbc\xff\x00X\xd3Vk\xcb\xbb\x8b$dh\xd8\x072\x1e\x05Q\xd4n!\xb4\xd3\x1aw\x00o\x89\x82\xbep7c\xadW\xd3\xb4{\xb8l\x12\xed%\x12\\C\x02\x06,}\x1b,\xdfLw\xaa\x12\xc5xtY\xe67\x18{\x88\xf6\xb31\xc1\xce~\xed|\xa3\xfbIkz\x83\xcd\xabj~vV\xde\xda[4EM\xcc\x922\x10&gt;\x87\x90k\xe1\xcf\x14x;V\xbf\xbd7V\xf2l\x94jm\t\x96E-\xb9\x18\xeeV\xe3\xa0\x03#=\xb3PO\xa1\\\xf8;R\xd4\xfc7\xa8\xe9N\xd1\xeam$+y*\xf9\x81m\xce6\x11\x8eU\xf7\x10y\xed\x83Y\x97\x7f\x0e\xfcW\xe1_\t\xe9SY\xdb;\xfd\xa6K\x81\x0bE\x19\xf9\xc4ga\x07\x1dN\x1b\x91\xefW&lt;\x14&lt;).\x93\xaf\xc35\xc4V\xd6\xef=\xb0\x85\x99w9\x92KK\x80O\xb2\xef\x1bs\xebT~(\xc3\x17\xc4\xcf\x10\xf8F\xc7\xc1w\xe6[\x93\xa1&lt;E\x14\x12\x82\xe8\xae\xf6\x87=\x00\xc18\x1e\xb52&gt;\xa1\xe0\x1dr\xe6\xf3O\xb7o\xb7\xe96z}\xc5\x9b\xb1\r\x19\x94\xb7!\x8f\xb6W\xfe\xf9&gt;\x95\x93\xf1\xd3u\xaf\x89\xfc/\xaf\xe96E\x8d\xc25\xeb?\x95\xf2\x9d\xac\x17\xe9\x80["\xb5|`\xfa\xce\xad\xa3i\xde#hLV\xba\xb5\x90\x03 )h\x9ao-C\x0f\xf6Y7~\x15c\xc3&gt;\x03\xf0\xfe\x91\xa5X\xe9\xd7\xfa\x9f\xd9\xae,"\xba\xb8\x17H\xc1\xbc\xed\x97\nB\xaf\xa9\xda\xcb\xc0\xf4\xaa\x1f\x16&lt;9\xa7k?\x0e|/\xe2)#\xb8\x8b\xceI\xa2y\xd4\xf4.\xcc\xca\x1c\x7f\t\xf9\x19py\xcf\x1dk\x1f\xc1~\x1f\xd7&lt;A\xf1\x1bI\xd7|D#\xbcH\xef\x02\xea\xaa\x92\xfc\xb2\x84\x868\xc7\xcb\xee\x80\r\xdf\xefz\x1a\xd6\xf0\x1f\x87mt\xaf\x8bW^\x15\xd6\xacY\x8c\xf6W\x166q\xaae\xb7\x98\x1dQU{\xe5\x820?CO\xf1g\xc3;\xbf\x18|-\xf0\x17\x8a|9\xa3\xc9u|49t\xeddyl\xc4Ko3\x05l(\xe02\xc9\xf8\xe2\xbe\x1fpU&lt;\xbc\x13\x9e2;SZ%(\xab\xd3\xd4\x9a\x14\x17 \x91\xf7\xbe\xf7\xb6)\x93\x03*\xb4}884\x91\xa1\x8b\x82\xecr\x98\xa1\x19V\xeb\r\x8c\xe3\xee\xfa\xd0D\xd2H\\\xa0\n\xa3 S\x1d#\x8c\x96\x95\x81\xdb\xf7@\xeb\xcdixg\xc4W\xba\x05\xf2^i\x98/\x1a\x90\x8c\xdc\xe0\x9e\xf5\xea\xe9\xa3\xfd\xbf\xc1s\xeb\xb2\xca\xb2\xb11D\xcc[\x04;\x1e@\xf7\x19\xe9\\\x87\x88&lt;-\x05\xa5\xbf\xf6\xfc\xfa\x82\xc7\x1c\xff\x00*[\xae\x0b\xa9\x1e\xddFk#\xc3\xd7+\xa4k1\xdf\xc5m\x18d\x91[\xcb\x93\x91*\x83\x9c\x1fL\xf4\xafU\xf8a\xe0\xd7\xf1\xe7\x89\x97W\xb1\xd3\x90\xc1-\xce\x04$\xfc\xa5\x8e\x06\x07\xb6k\xe9+o\xd9{M\xfe\xcb\x8d\x8e\x99-\xd5\xeb2\x08-!C\xc3\x9e\x83\x8e\xbc\xd7\xa3\xfc6\xfd\x8c\xf5K\x08"\xbf\xd5l\xbc\x8b\x92H\x16\x9b\xc7\xcaz\xe1\x87o\xc6\xbe\x9b\xf8\x13\xfb&gt;\xc1c\xac\xc1i\xa7\xf8X\xfc\xa4A3\xc8\xbe\x9c\xe4{f\xbe\x98\xf8w\xf0{H\xf0%\xc4\x12\xc7e\xfb\xe9~wdL\xa8\x04\xfa\xf6\xafO\xfe\xce6\xed\x1c\x10\xa3\x06\x8c\xab;\x02\x0e\xdez\x1f\x7fj\xdd\xf0\xed\xb0Vi\x9d\xf7\x86\xe3\xee\xe3\x15\xa9|V+e\xba\x8c\x96\xe7\x18\x1c\xd3\xe2\x11\xdcNQY\x99If9\xe828\xfdiZ5\xfb|\x88c;%\n"R1\xb7\xd6\xba\x0b{;xnK\x14P"U*K\xfd\xef\\z\xd6\xd5\xa5\xc5\xacn\xb7\x86=\xb0\xb2\xe3\x07\x8c\x9a\xb7\xf6\xdf\xf4\xc5E^\x00\xc8\\t\x14\xf9e\x82c\x13\xc9&amp;AV\x00"\xe6\xb2u+\x1b\x89\t0\xcf\xb9\\\x10\xaaEc\x9f.\xdaSp\xcf"\x95\xe1\xa3h\xcf?Ja\xb1\xb4\xb9\xb5uTa*6\xe4lu\x15\x97\xa8G"N\x0c\xca\xa5Td\xe7\xa9\x15\xcbk\xda:\xc7r\xd2\x07_1\x94\xf4?+\xe7\xa7\xe5\\&gt;\xb5g-\xd4Kkm#:N\xc7(S\xee\x11\xdb\xdb5V]c\xfb*\x14\xb9\xb8\x98\x00\xcb\xe5\xba\x83\xd0t\xe6\xb1&lt;I\xac\xdb\xdc\x81\x1c\x17\xad\x1cc\xe7W\xc6\x17p\xe7\x19\xaf\x9d\xfe,xb}cW\xd5\x1d\x184z\x8c;&lt;\xb6O\x969\xd5S\x0e\xde\x80\xe3\x19\xf6\xaf\x98\xbe"\xfc2\xd6&lt;;oq\xae\xd8\xc8\xadiq#\x99\xe1B\x01F\'\xcbe\xc1\xe7\xe5\'$v\xaf&gt;\xf8w\xa4\x8f\x10\xf8\xd6d\xd5!\x9eG\x8a+\xcbx\xd1\xdf\x935\xbcO&amp;F{\xed\x8c\x1a\xbf\xe0\x8f\x10\xea\xfa\xff\x00\xc0\x1d6MV_\xb4\xc7\xe1\xcf\x1cj0E$\xf8\xf3646\xf3\x90q\xd7\x00\xb1\xfc\r\x1ag\xc3\r7]\xf8\xad\xe2\x1f\x08\xe8\x88/l\xfcQje\xd3e\x0b\xb4,\xb0J_\x1c}\xdd\x81\xc8"\xbc\x97\xc0\xfe-\x87\xe1\x8f\xc4o\xec\xdd~X\xd9\xec-P\xd9\x97 \x08\xe7Uu,\t\xeb\xca\x91\xf5\x04V\xb7\x8d|A\xa8[Y\xdb\xdb\xda\xb4I$Z\xb1I\xa2\x94\x8c]2FdL\xb1\xfe\x1d\xd8\x04{\xd7O\xf1SP\x98\xf8#\xc0\xde&amp;\xd54\x88a\xb8\xd3X\x86\x84&amp;VHf\x05\xca7\xb8\x04q\xfe\xcdbx\xfbH\xb1\xbc\xf8w\xa3X\xd9\xcb:\xc7*\xdf*\xc6\xd0\xb0?\xbb\x02P\x17\xdb/L\xbf\xd5nu\xbf\x84\xbaU\x84v\xf6\xe7T\xd2\xec\xee\x83J\x87\xfdbL\x8a\xca\xc0\xf79^=\xc5p\x16\x9e7\xd7m|\x13ei\xa8Z\xc9qcr\x16K\xb4 \x93\x11v\x12# \xf4\xc8\x90g\xd5\xb1^\xa9\xa2h\xcd{\xf0\xf6\xf3\xc5\xbe\x1d\xdb\n\xc3\xa8\xd9\xcd\xe7?\x01#\x9e\x02\x9c\x9e\xd8h\xff\x00\xf1\xf1\xeb\\\xb7\x8c\x93^O\x8bv&gt;87;\x12\xdf_\xb3\x8bSXO\xcd\x13F\x01r\x00\xe8\n\x82\ru\xbaW\xc4\xc3\xe1\xedgS\xd0\x05\xd0\xb4\x9a\xdepd\x91\x97\t2\x9c\x85*\x0fO\xbas\x8fZ\xfc\xfc\xf3I\xe3\x9ex\xa2^Pb\x85`\xa3\'\xb0\xe9Q\xfd\xe2d&lt;`g\x07\xbd)\x9d\x18\x05\x03\x198\xcf\xa50*\xc8\xfeoB\xa7\x19=\xc5:I\xf6\xb0\x03\x91\x9e\xd5\x1b\xcb\x04\xa0\x90G\xd7\xde\xae\xf8zhmn\x92\xeeuYc\x8e@\xcf\x13p\x1c\x03\x9d\xb9\xf7\xe9^\x8d\x0f\xc5\x9b]SL\x93H\xb4\xb3\x8a\xc6\xdeK\xd6\xba\x11+\x02y]\xa1~\xb9\xe6\xb2|q\xa7j\xf0\xe9\xdaw\x89^\xcd\xd6\xdfXY\r\xac\xa2P\xc8\xc26\xda\xf8\xed\x90x&gt;\x87\x8a\xc0\xd2\x10\xddM\x92\x01rv\xa85\xfaU\xff\x00\x04\xe1\xfd\x95m&amp;\xf0\x1ax\xa7^\xd0V+\x87u\xf2\xf7\x8c\xe4\x1e\xe0W\xdbzo\xc0}\x1a\x1dR=G\xc3\xbaDQ\x8b\x93\x86r\x9b\xb6\x909&gt;\xd5\xd2\xe9\x7f\x0bc\x1ev\xbbu\x04O$%cPx\xdd+\x9d\xa0\xe3\xbe:\x9a\xf4\xdf\x01\xf8wL\x8f\xc434\x0b\xe5\xa5\xb0\x0b\x0e\x13\x05\xf7.\x19\xbf\x0fZ\xefmZ\xcbO\xb7\x8c\x17\xf3\x1d]\x97c/%W\xe6\x1f\x815gL\xd4c\xd4\x19fd9\x04\x97+\xd1\x88\xe9\xf9V\xbd\x95\xb4\xb1\xb9\xf2e\x18\x90q\x83\xd0\xd6\xbe\x9d\xa7D\xb6\xf0\x19\xee7g$\x159\x04\x8e\xd4\xad\xaa[Cx`\x11\xb6LH\x10*u!\xaa\xed\xb4PO \xba\x95\x82\xabp\x18\xf65\xb1\x14\x114 y\xa5\x9c\x10\x02\xed\xad\x15\x9d-\xad\xe3\xb5\x91\x15\xd5P\xee\xc7;\x0f\xbf\xa5"j\x16&amp;\x01+\xe5\xe5f\xc7\xc8x\x1e\x80\xfaf\xaa\xb6\xa8\xf6b\'X\xdb\xca\x8eL\xb2\xaa\xe7p\xcf"\x9f\x1c\xef~\xa9oh\x9bN\xe2\xccKr\xa2\xa91\x9bt\x90Mo\xf2\x96\xdb\xbd\xc63\xf4\xa8\xae|\xbbGUKbT\x0eH5\x89\xae\xc3c\x93q$Nw\x0e\x145q\xfa\xcd\xc8\xb6\xb6k\xf8\x98\x82\t\xf2\xd4\x1d\xd8\xc7z\xe2\xe4\x9eE\xbfwI\x9d\xc8!\xf2W\x00\x02z\x8a\xce\xd4\xac\xe4\xb9\xdbi\x14\xa1\xf7\xaa\x9d\xa4um\xdd&gt;\xb5\x85\xaa[\x89\x85\xc6\x9f$\x1b\xb6\x01\xe5\x85\x1ds\xc5y\xff\x00\x8c,\xad"I%x\xd0H\xe72\x03\xca:\x0e\xa3&gt;\xb8\xaf\x19\xf1\x07\x83--\xf5\x98\xb4\xeb\x8b\xe4Kf\xbf\x0e\xfb0UU\xd7.\xc4\x1e\xd9\xc3\x1fa^3\x16\x93\x06\x9d\xe3\xeb\xbdv\xd3BKR\xfe#\x8eY\x1e&gt;~\xc8\xb3\xef\x85\xc6?\xdbV\xe7\xd35\xe5Z\xb4v\xff\x00\x0f\xfc)s\xf0\xff\x00J\x91\x9eA\xab\xb5\xd3\xaa\xb6\xe1\x1b\xca\x16\x16\xfa\xeeA\x8fl\xd5o\x0b|S\xd4\xb4\xcb\xab\x7f\x1b\xdb0[\xbd\x1f]\xbb\x8c,G\x83\x10P\xaf\x9c\x7fy\xbf:\xc6\xd7\xbe\x1a\xe9?\x11\xfc\x1d\xa8\xf8\x8a&amp;\x8f\xfb^\xceX.&amp;h\x98\x1c\xc12\xcd\x91\xc7p\xea\xdfB\xd8\xac\xed#G\xbc\xd7\xa0\xb7mN%7\x10j\x9eB\xa8l\x9d\xdeC1r&gt;\xab\x8f\xa8\xc5l\xd8\xe8\x1f\xf0\x9bx\x8fP\xf04:\xec\xe9h \xfbF\x94\xf7N\n\x89#\x88\x80\xad\x9f\xba\xacz\x1fJu\x8f\x8e\xb4}v\xcf\xc2:=\xa4qZC\xa5Z\\\xdb\xcf.\xdd\xed*\xbc\xf2\x82O\xa3|\xc4\x7f\xba\x82\xb8}\x1a\xe3\xc4\xba^\x9b\xaax2;\x03;\xea6\xff\x00\xe8O\x0be\x95\xed\xa5%Y\x08\xf5\xc1\xe3\xd8\xfaV\xa6\xa7\xe0\x1b\x1d3\xc2Z\'\x88t\xdf:\xe2\xcf]\xd2\xe4\x84\xa4\xdf7\x96B$\xb1\xb8\xc7nX\x03\xdc\xd7\xad|\x08\xb6\xd3\xbcW\xa4\xeb\xff\x00\x0b\xae,V\xdeo\x12\xfc&lt;\xb8\xbb\xd3\xbc\xde\x12;\xfb\x16\x8e\xe5\x80\x1d\xc1\xb7\x0e@\x1d@&amp;\xb8\xc8&lt;\x11c5\x9d\xd8\xbd\xd5\xa1\xfe\xd3\xb4&gt;U\xc4Q\xbe\x03\xc6\x07\xc9!\x07\x9d\xc4\xae\xdc\xf7\x11\xff\x00\xb5^\x7f\xe2_\x00x\x83U\xd6\xae\xac4\xcf\x13\xda\x8b\x9d6\xe9\xed\xee.d|-\xc4\\&lt;,\xa7\xf8\xb0\xaeA\xc7pE|\x88\x88\xa1z\x8f\xbfI\xd1\x08&lt;|\xd4\xd7#$\xe6\x90\x82T\x95\x19\xe2\x90\x87e\x0b\x85\x19\xa8\x9c4m\xc3g\x07\x90)c\xdd\xb5\xa5n\x81I\x02\x9b\x0cq\xee9a\x8cn\xa9&gt;\xd0\xc2\x0c$\xbc\x16\xe9\xb6\xa6\xd1\xec\xa5\xbc\x95b\x88\xb6\xe3 \xe0\xf1\xde\xbdsS\xd6|\x1b{\xf0WG\xf0\xd2\xd8M\xfd\xb7a&lt;\xaanI%&amp;Y.\x19\xdb\x03\xf8J\x8c\x1cw\xac?\x84\xde\x08\xbe\xf1g\x8d4\xfd\x1e\xd2\x03!\xb8\xbdH\xc1\nr70\x19\xc7\xd3\x9a\xfd\xc0\xfd\x98&gt;\x1e\xc7\xe1O\x05\xe9\x9aDr\x82\x05\xaay\x88\x83\x0c~A\xcd}\x15o\xa1\xa2\xda\xe9\xf7\x89d#\n\x02\xca\x92r\xdb{\x9e;\xe2\x93K\xf0\xe23\x8by\xa4\xe6K\xa5\x94)&lt;`6p}\xeb\xa7\x1aD\xcb\xa9\xc5%\xad\xb8\x8bb\x82\x19O\xde#\xb1\xae\x83JV\x10\xefX\xd2U8,z\xb7?\xd2\xaci\x9au\xad\x83\xcb%\xb1\'q\xe8G\x195\xb7\xa2\xc8d\x9ax\x9c."\x00\xaf=~\x95\xad\x05\xd46\x1b"\x93\x0b\xe5\x12F\xfe9\xeb\x8a\xce\x8e\xf9\xdai\xe1\xbb\x8c\xf9\x85\xbftBtS\xdf\xe9\xefV\x84wwWH\x80\xa2\x10\xb8\xdb\xbf\xb7\xf7\xabwL\x8ai\xe3\xc1\x90\x91\xb4\xeeu&gt;\x95~A\x1d\xacR$\xd1\x9c\xe5O\x07${\x91Ki#\xe7\xce\x8d?r\xe3\xe6\x05:\x11V\xa4\x0e\x89\xb2\xca\x10\xea\xbc\x86\x1e\xa7\xde\xa1[\xb8%\x86k\x98cT\xc3\x00D\x9f|\xb7\xb5T\xb9\x9fQ\xd9\x19\x8e7x\xcb\x86\xdcH#\x03\xadU\xbc\xb8\x96]\xcc0\xa1F[\xda\xb9\xaf\x10]&lt;\x97\x13E\x8d\xde^618\xcf\xf8\xd7\x19\xe2\x19\xe6\xd3\xad%7\x04\x14W\xc3c\xb05\xcbKu\x06\xa0\x8bp\xb7\x18\xc4AP/\xf1\x1c\xf45\x8a\xda\x97\x97u\x13Ch^B\xc4\xb6O\x1c{\xd5\rjv\xb8W\x9e\xc12\xca\xc6&amp;\x848V\x00\x0c\xe5I\xeb\xcfOz\xe0\xbco~\x17K[m*(\xe7@\x1cK\x160U\xb1\xcf\x95\xdf\xfd\xe0z\xf6\xaf\x9e&gt;1\xf8\xea\xc3F\xd2\xbf\xb3\xe3\xd6^\x18#\x95\x92\x1b\x82\x9f\xbd\x82C\x11\x19a\xd4\xed\'8\xf6\xaf\x9e~-\xfcD\xbf\xf8{\xe2\xa3\xa9^\xea\x11K\x7fua\x0b\xe9\xb3X\xe4Ax\xa7\x90\xca\x0fC\xeb\x9f|W\x9c\xf8g\xc6\xd0\xddx\xae\xe2\xfbY"\xe9/\xbc\xb7\xc1n&lt;\xd0\xe3\xe5\xcf\xd7\x8a\x97\xc4\xfe\x1e:_\x8a\xfco\xe1\xed\x10\x89m-\xe7Qh\xa8\xd9\x1fgy\x15\xbc\xc5#\xef09\xce;\n\xec\xbfe\xe5\xb5\xf0\x96\x9f\xe2M7\xc4",j\x96\xd1[X\xcb$\x81\xb7\xbe\xe7*\xbc\xf7\xcc\x95\x9f\xf1?\xc2\x16\xbe\x1cXu\x8d7\\-5\xed\xda\x1f/\x1b\x12&amp;U\xcb6}\x0e\xe23\xea1M\x8f\xc5\x1a\x16\x8d\xabG\xaa\xe9\xfag\x945\x0b?&amp;\xd8\xc9\xc3\x07w\x89\xe5&lt;\xf6V\x8d\xd4{1\xae?\xe2,\xdaF\x85a\xac\xd8i\xd0y(\xabo%\xab\x81\x86F29o\xd0\xe7\xf1\xaey\xf5\xbb][\xc2zv\xb5\xe1\x8b\xd6K\xebv\x9fv\x1b,\xa09f\xc8\xed\xc4\x99\xfcG\xadu\x9f\x0e\xbe*\xe8&gt; \xf8\x1b?\xc3\xfb\x89\x19\x1bM\xbf\xb2\x9a\xc2&amp;L:G#I\xe7\x00\xc7\xd1\xa5\x88\x01\xe8\xb5\xabc\xe2\xab\x9b\x8f\x1b\r\x17\xc27_g\xd4\x92\xc4\xdb\xe9R\x93\x92\x0b\xdbI\x0c\x80\x11\xfd\xe0\xce\xbe\xf8\x15\x89\xf0\xbbX\x9bI\xf8\x91&amp;\xad\xe2x\xe1\xb9\x17\x96\xf6\xb6\xf7\x06\xe1\x88P\xe4\xed\xdc\x0fN\xa1\x8e\x7f\xda\xae=\xfe \'\x84\xb5mC\xc2\xc3M\xba\xbb\x16W\xb2,N\xd0\xb7\x99\xe5\x16%7\xf1\x9c\x91\x9cg\xb6+\xe5\x14;\x86\xd5&lt;\xef\xa0\x8f."\xae9\xcdFH#\x929\xa7\x02c\x1b=E\x18`y\x04~\x14\xc9\\\xb0\xda\xb0\x90{\x9d\xb4&amp;\x16&amp;\xdc?\x84\xf1H\n\xb4\x81\x95\x08\x00s\xc58\xf9b\x1c\xaa\xf2\x1b"\x9di|-\xee\xb7\xa5\xc3g\x1f\xc2\xb5\xd5h\x1a\xe42A*\xdc\x02g\xf3Y\xe3\r\xd1P.M{\xbf\xec\x19\xa2\xcd\xe2/\x8ez\x1d\xb4V\xa8\xca\x8cn\x180\xe9\xb13\xcf\xe9\xf9\xd7\xed\x9f\xc0\x1f\x0e\xd8\xda\xe9\x96\xe1\x99$\xf3c@\\\x91\xf2\x9fA^\xb3y\xa6]\x19\xed\xda\x16F\x8e\xd62\xae\xa0\xfd\xfc\xd5\xfb\r&amp;(oe{\xb8\xc4j\xbbB\xe0ds\xefR\xea\xa2M&gt;a$rb=\x99\xc9=\x07\xadM\xa1\xea\xf1\xc9\n\xb4\xb22\xc8\x90 8_\x97\x859\x07\xd0\xd6\xba\xbb\xcdu\x14\x96\xe3\t\x80B\xff\x00x\xd6\x8d\xacwMv\xae\xa9\xb5O\xdf\xe3\xa8\xefV\xed\xf4\xc772=\xc3\xee\xdb\x11\x00\x96\xc8\xdc9-\xf4#\x8a\xb9b\x9a}\xcc\xb2K\x1c\xb1\xc8\xa8T0\x08I\xcf\xa7\xd2\xad\xb5\xb4Vq\xfd\xadB\x17\'\x82\x14\xf0*\xee\x8b&amp;\x0f\x96\xf3\x05\x05\x83`\x1a\xb7s\xa9\x00\xe2\x0f//!\xc9n\xd8\x15Z=U\xa0\x7f*v\n\x19\xb0\xb9\xe9V_Q\xbb\x8e\xdblsF\x03\x1e\xa1\rR\xb7\xbbx\xa62\xc8\xff\x00)lc\xd3\xde\x9fy\xacKj\x82\x15\xba\x03\xcaF!q\xc9\x18\xf4\xefY:\x9d\xf5\xf5\xd1\x92X$c\x929\xd9\x8f\xd2\xb1\xef\xc5\xf4\xab&lt;\xf0\x88\xd8\x05\xcb\xb4\x87n@\x1c\xe3\xd4\xd7/\xaeYI\x1d\xb2\xdc\xcf\x1eF\xed\xa5I\xfb\xcc~\xef\xd7\x9a\xe3\xb5\xcd=l%\xdfo\x12 \xea\x19$\xc8\x7fQ\x8e\xd5\x91)\xb9\xb6\x89l\xa3\x8b\x12\xe0\xbb\x803\x85&gt;\xbe\x95\x99v\x96\xb7\xf6R\\,\xe63\x1a\x97wS\xc6=k\x9d\xbdK\x0b\x99\xe5\xd2\xf5\x1b\x0c0\x98\xb9\x96&amp;\xc3r8)\xeb_\x1d~\xda&gt;\x1b\xbd\xf0\x85\xd4\xde \xb4\xbb\xb6y\xa43B\xd2y\x81K\xc6\x88X\x96\x07\x83\x91\xf2\xee\x1d\xeb\xe2\xef\x11\xfc_\xbd\xf1.\x99i\xa6]\xc3\xe6A\r\xac\x06\xde274N\x8a\xd9!\xbd\x8fj\xe1&lt;-\xe3\xdb\x9d\x1fXc}\n\xc9\xb6i\x1e1!\xe1\x0e\xf0A#\xae?\x9dz\xb7\xc1\xaf\x15Xx\xf7\xc4\xba\xaa^jB+\x85\xd2\xa6\xb8\xd3\xcb|\xcbs$hXE\x81\xc8$\x80\x00&gt;\xb5\x95\xae|Ny&lt;\x19\x06\xa7\xa4\xc3$W\xf6\x1a\xaa\xdc\xdc)m\xa3ia\x81\x8fa\xf3{\x0ekw\xe2?\xc4\x9dB\x0b\x8bH.\x18\x7fg\xdc\x94\xba\xb7\'\x93\xb4\x81\x95\x1e\xd9\xaeh\xf8\xcd\xe7\xbf\x86\xe0\xcc\xf2Ce+I\x0cO\xc6\xec\xca\xc4u\xe8\xa7\x8e}\rz\'\x8d\xa0\xf0\xe7\xc4?\x86I\xa9xd\xc8\xd2\xb6\x95#Mn0\xd2f\xde@d8\x1c\x9f\x93${W\x8bx3\xc40\xe9:d\x1ah\xd2\x9a\xe1\xed\xbcE\xb6y\x11\xf0\x1e\xdeHV,g\xa6K(#\xe9]\x1e\xa3y\x07\x82\xb5Y%\xb5\x95\x92\xdf\xfbNY$\xb7t\r\xb7z\xece\xc8\xec\x81A\x1e\xf8\xac\x03\xaf5\xbf\xc4\x0b\xddcI\xd7e\x0f\x0f\xfaF\x9b&amp;pwy\xa8\xea\x07\xae\t+\xf5\xe2\xbd\x9fJ\xf0G\xfc$\xba\\\xfa\xef\x87$\xf3\xf4\xeb\x9b&amp;\x92B\xd2\x8f29&lt;\xb4d\x00v\xc1G\x1f\xf0*\xe6&gt;"\xf8\x17\xc2\xff\x00\x13\xd2\xcbR\xfe\xd1\x97O\x92\x16\x9b\xceke\xc1\x95\x9d\x95\x88b:\xed\xe8=\xab\xe3\x05E\x8d\x0c\x8aA8\xedM\x0c\xd2\x8c\xe2\x96Y7\xc7\xe5y@\x10:\xfa\xd3f\x04\xba\x90:\n|\x84;\x82\x878\x1c\xe2\x9aYpF\xe1\xf9\xd3\x1f\xe4\x19q\x8f@{\xd4j\xee\\\x14\x18\xe7\xa1\xa9\x9c;\x15.\x83\x83\xfc=)\x1bdA\x9bj\x80F\t\xf4\xab\xfe\x16\x961\xae\xc5\x1c\xacH\x9aF\x8f\x9e\xc1\x863\xf4\xe6\xbe\xb8\xff\x00\x82e\xdaG\'\xc6+\x1b\xd9."\x12\xc0\x93\xda\xbc;\xc6\xf2\x15\x10\xef\xc7\\\x1c\x10\x0fs_\xb2_\x06b\x8e\x0b+l3\x04\xda\x18\x8fJ\xf6b\xcd\x040\xcd\x08\x00\x8c\x13\xbcu\xa85\x8b\xbb\xdd&amp;\xf2\xce\x01\x17\x9f\x1c\xf9\xf3\xcb\xf0w\x1e\x80Uy\xe6\xd4\xaf-\xd9g\x90?\xcf\x88\xd3\x1fs\xfckV\xcbOt\xbf7v\xd2\x12\x85\xfete\xe0\xf1]"\xcb\x02G\xe4:)eu\xd8\xe9\xc8\xc6zU\xf8\x10\\\xc4\x86\xdd\x98\x14F,@\xe9\xc5i\xa5\x8c\xd1\\\xa2&lt;\xe4\xa3\xc3\xf3\xfc\xbcc\x14\x8a-4\xe0\xd3\xc6\x9b\x03\xe4:\x9e\x08\xc7zk\xdf&lt;\xb6\xdb\x88\xc2\x86\xf9s\xfcG\xb0\xa6\xd8^\xdd\tv\x89\x1409\xeb\xc8\x1e\x98\xab\xfa\x84\xcb4\x88\xcd\xf3\t\x13\x19\xce)\x04q"\xa2)\'\'\xa1\xe7"\x9c\x93\xc0w\xac\xf17\xca\x0e\xcd\xa7\x8c\xf6\xa8\x01\x82 \xd6\xef&amp;Y\x81*I\xe3\xe9U&lt;\x97Ud\t\xbd[\x9d\xe5\xb9\xfa\n\x8a\xe6\xe5DrK\x02\x82\x14\x02J\xbezu\xac\x88uC\xf6\xa8\xe0h\xddA$\x82\xcaq\x9e\xd5CS\x96\xde\x19\xee\x15\xa3\xe6O\xba\xfdF\x7f\xa5q\x9a\xcd\xbajO"\xaa\xfc\xa4\xe5W8\xc0\x1d~\x99\xaeST\xb8\xbe\xb1\x8f\xccx^i\x0f\x96&lt;\xbd\xa4mP\xde\xbfJ\xab(\xb7\xb8\xdd;\xba\x1d\xa0\xc6dq\x80\x14\x0c\xe0\xafq\x9e3^y\xe3\xed\x1b\\\x8a\xc2O(\xba\xc3#\x97Q\xbfpR:2\xe3\x95\xf6\x06\xbeq\xfd\xa1&gt;\x10k_\x13\xbc/k\xaa^\x0b\x8b\x98!\x91\xd1\xe4L\x83\x1e:\xb7\xbe\x078\xf6\xae\x1b\xc1\x9f\xb1\xb7\xc1\x99\xbc2\xbaf\x89\xaa3\xea\x11\xc0\xdfh[\xc6U\xc4\x87\'i\xcfJ\xf0O\x8b\xbf\xb1w\x88\xad\xf5k\xbb\xbf\nA\x0c\xf1[;\x1b\x88\xd7\xefD\x14d\xb0\x03\xa8\x03\x9a\xf2o\x0cxpi\x1e$\x9a\xc2{\xf9\xac\xb58\x1f6\xae\x9f*\x15\x07\x91\x9a\xd2\xf1\x9c1Z\xeb\xda\x8f\x87\xe2\x84\xdb\xbc\xb7\tsj\xce\x98\x01_\x95\x07=\x87C\xfe\xe9\x1d\xab*\xce\xfbQ\xba\xd2\xd7\xc07\x8e\xcfwgy"\xday\xab\xd5q\x90I\xec3\xd0w\xaak\xabj6\xf7v\xa9\xa9\xe9\xc5\x88U%\x02\x90%UnF}+\xd1&gt;\x1bx\xb7N\xd1\xbcs6\x9c\x96\x8e\xd6\xa8f\x89\xad\x8c\x9bB\xc7p\xbf\xc2O\\\xab\x0cz\xed&gt;\x95\x85\x7f\xe1h&lt;!\xf1\x01\xe0\xd4/\x04\xd6K\x04R\xc2\xf3\x11\xf7\x1f \x86\xc7\xa18\x07\xd6\xb5\xfcOa\xa6x\x97\xc2\xb7V\x16\xebj\x9a\x8d\xb2\x16\xc2\xbeL\xc4\x8d\x8c\x07\xa9\xc9\x07\xf0\xaf;\xd3\xbc\x12\xe3U\x8a\x1b\xab\xe9!\x86I\x14;\xec,FF\xd2\xa0\x0eO\xcd\xf3\xe0v\x19\xaf^\xf8/\xabj_\x0e\xbcY\xa5x~\xf7T\x8a\xea\xd3y\xb5\x90\xc4\xd8\x8etx\xc8Rs\xeeq\xf5\xa3\xe2-\xae\x9f\xa6\xf8\x9ekxg\x8e\xfe\xc6Rn,^\t\xc0\xf2\xc4\x84\xb1\x8d\x80=W!~\xaaGj\xf8\x98\xe58\x03 \xfaP\xb3\x00&lt;\xb5\x8c\xf3\xc7J$\x04\xc8\x08\x1d\xa9\x0epp\xd88\xeb\xe9M\x1bX\x80FH#,N)$\x8dI\'&lt;{Sgi\x1b\x08P\xed\x0b\xc9a\x8a\x8e;x\xd9\x81\x8e&amp;8=\x8dXD\xed\xe5\xe3\xdc\xb7JG\n\xa8"q\x90\xcf\x82}\xaa9%h\xa7\xf3!r\xb8\x18\x05z\xfdk\xea\xbf\xf8%m\xe3\xcd\xfbQ\xe9\xd6\x93\xdcen\xb4\xeb\x85\x00\x9e3\xb0\xf3\xf5\xef_\xb6\x7f\x08_n\x83i\x1c\x9f1u*\n\xf2x\xf5\xaf[\xd3\x92\xee\xea\xda%\xb9W&gt;`\xda\x06\xd3\x91\xe9W\xb5\xf8\x88\xb9\x81\x17\x90\x92\x12\x8c}\x85g\xab[L\xe6\x19\xa7`\x15\xb76\x06\x01\xf6\xcdj\xda\xdc-\xb4H\x86]\xaad\x01@\xe7\xa9\xe35\xae\xb2+@\xa1\x08\xf33\xb8\x0e\xed\x8f\xe7Z\xdaQ\xbb\x11\xabD\x17\xf7\x87\x07\x9a\xbc\x92\xcc\xb1\x89f\xbatf\x8d\x83\xc6W\x8cc\xa6i.\xe3\x89\xe6\xdec?}\xba\xb7\x1fv\x9d\xe5\xc7$_f\xce\x0c\xaaI\x0cp\x14\xf6\xa8\xe2\x81\x84\xc9d\x97\r#\x96\x00\r\x98\xdb\xef\x9a\xd4\x11\x99bfd \xf4\x8c\x11\xf7q\xd6\x92\xdf\xed\x1eBL\xdbw&amp;x&amp;\x96;[\x9b\xa4\xf3\x1c\x01\xf3p\x01\xebM\x96\xc2\xda\x04w\x9aB\x8e\x14\x95Q\xceMg^^\xb5\x93(\x03\x84 \x8e:\x8f\xebTn\xae\x02*\x98\xa0\x89\xc1\xcf\x99\xc1\x18\'\xb1\xf4\xa8.\xa7\xba\x95\xc4B\x08\xe3\\`\x8f\xfe\xbfj\xcb\xd6-g\x92\xf5\x0bglc"\'Lc\x1d\xfd\xeb\x07Y\xd3m\xe2\x7f\xb6\xc2\x88\xa4\x9f\x9d\x9dJ\x8f\xc35\xc7j\xd3\xdc\xad\xea\xb4\xcaZ9\x15\x81m\x9c\x0fNj\x9c\x9aJL\x8f\x0cda\x90\x9e\xbe\xd5_Q\xf0\xf2\xcd\xa5\xcd\xa6\\\xdd\xc6&gt;]\xca\xe4dt\xe9\x9a\xe7\x13\xe1\xcd\x9e\x99\x05\xdd\x8b\x15h\'\x99\xb1\x13/\xdc\x0c\xb8\'\x9e\x99\xed^m\xf1\x07\xe0\x1e\x93u\x17\xfc$\xba4/\x14\xb2\xfc\xce\x81H%\x8f\x1d\xbb\xd7\x9b\xf8\xb3\xf6x\xf1"Z\xcb\xab\xdb$\xf1\x1b\xa4\xdd\xe6*\x96\xf9\x9b\xe5&lt;w v\xaf\x98\xbe4|\x04\x8c,7^)\xf0\xee\xcdN\xd2\xf0&lt;\x17\xf6\x8aTM\x18`p@\xeezb\xbc\x9b\xe2\xf7\x87\xdf]\xf1\x1c\xa7\xc9\x11\x97\xb0\x868&amp;\x03\xe5\x90\x12\x06\x01\xeer\xe4`w\x15_\xc3_\r\xae\xf5-&amp;\xd7^\xd0\xa1u\xbe\xb2\xb9h\xf5X\x1cmKs\x8c\'\xccz\x86\xe3\xe9\\\xff\x00\x8d\xfc3\x7fi\xac\x19\xae,\x9e\x02\xb6\xc0D\xa1N\x08\xdd\x86+\xeb\\\xfe\x93\xaa^\x0f\x13\xc8/\xae\xf6]\xdb\\@\xa8@\xc2\xc8PmU\'\xd7\x06\xbdk\xc3:\x02|M\xd4_\xc2\x12^\t\xef\xae\x92kFC\x1e\x19ca\xe7\xab/\xae\xd5S\xd2\xb8]\x07O\xb8\xb2:\x83\xeak*\xad\x91Sr\x06|\xc4B\xff\x003\x11\xd4c\x8f\xc4\x8af\xbbux\xb6\xf2\xdc\xe8\xec\x1d\xb4\xcb\xbf6\x0f\x97\xefm\xe1\x03\x7f\xbd\xdb\xd6\x9fyp\xf7\x1e)moK\xb8\x91\x92wK\xabx\xa39\x1c(;W\x1dy\x1d\xabwQ\xf1\xdc:\xad\x9c\x16\xa9\xa7E\x1bZ\xbc\xa0\xb8l\xef\x0eC\x81\x9fl\x91_"0%\x00\x14\xd2\xdbG\x03\x04u&gt;\xb4\x9ec\x0eQ\xb0Oq\xda\x98\xeeI\xf9\xd7\x7f8\xdd\xd3\x14\xa3\xad#\x00\xc9\xb4\x9e\xac(\x88&gt;X\x07\x04\x01\xfc]M3\xcd\x90nU\x90\x8c\x8cr\xb8\xa5F\x91F\xd7l\xe4RH\x1b\x00\xf9\x83\xf3\xa4\x0c\x12Q!&lt;\x05\xe4\xd7\xd0\xdf\xf0L\xedA\xf4\xcf\xda\xb3\xc2\xf3:n\xf3\x84\xc9\x9d\xd8\xd8\x1a"\x015\xfb\x7f\xf0[\xc4\xb0I\x1c1\x90G\xd9r\xac\x87\xa9\xf5\xafx\xd25\x88nV3\x10\xfe\x0e\x83\xb5i^Z\xdc\xdc\xfd\xf8\xf3\x1a/\\rA\xeb\x8a\xa4\x9aB\x8b\xe0\xeb\x08\x04\xe0\x10[\x8c\x1f\xebV\xadl\xee\x17YY\xa6\x01\xa0a\x82\x83\xf8H\xef]\x16\x9bb\x92\xb4s4g\x80@\xe3\xa5lB\x04F/*\x03\x85R\n\xe3\xb9\xe9\x9a\x92\xe1m\xe4\x8c\x8b\xa8\x8a\xf6,\x1b\x85\xa7\xce\xf1\xda\xdc*\xdc\r\xd1\t\t\x01y$c\xfa\xd3mnRk\x86\x8a\xddC\x16&lt;\x13\xfc#\xd0\xd5\xfb\x1d6\x0bw2\xc8N\xcc\xe5\xdb\xb8\xff\x00\xebV\x8d\xac6\xfe[\x18\x94\xb7~GQN[r\x8c\nD\xa7q\xc6:\xe2\x9c\xf6\x17\x13\xc2T&amp;\xcc7\x04\x0e*\x194\x19eF\x8e\\\xb9`G\x1d\xea\x86\xab\xe1\x87B\xd0\xa9\xf9\x9a\x12\x02\x01\x9eq\xfaV\x13h\x971O%\xbc\xc8\x14&gt;\tl\xf4\xc5%\xc6\x9f\xa8\xa4_+\x8c0;\xb7.1\x8f\xe5U\xda\xd6\xd6\xe6%\xf3\x0bp\xc3q\xee\x7f\xfa\xd5\x8b\xadZCz\xcffpbPv2\xf3\x83\xdb5\xc5k\x9a&lt;\xb6\xcc\xd1NX\xaf\xa6\xce\xde\xb5\x8f{n\xb1"\xcb\x04\xac\x8d\xb8.@\xce\xdf|S`\xd3\xc4\xfb\x99\xae\x8a\x9c|\xcf\x8c\xef\x1e\x98\xedM\xd54\x1b\x98\xec\xcc\xb6\xf2\x06)"\xf9O1\xdapO9\xcf\x7fAUt\xdd\x11\xd2\xd8\xad\xd8\xf3p\xac\xc5Y8\x14E\xe1[\'\xdfoq\n\xbc`\xe7\x07\xa2\xe7\xbf\xb5p\x9f\x17\xbe\x05\xf8g\xc6\xfe\x1e\xb9\xb6_\x0f\xc6\x1c\xc4\xa2\x06\x11\xf2\xa4\x1e\xfe\x95\xf2w\xc7?\xd9),\xe1\x9e\x08\xe0\x12Y\x18\x04V\xe1#\xc3\xc6\xeb\xc8\xc1\xfa\xf4\xaf\x99\xf5;mK\xc0\xda\xcd\xee\x81$W+g\xa8\x8d\x97\r\x03d\x8cq\xd7\xb3z{\xd6\x07\x8f\xed\xa3\xd4\xecR\xfa\xce\xecO-\x9d\xeb\xc5$\xac\xbb\x12h\x83\x02\ng\xee\x81\xfcY\xfb\xdc\xe2\xb8\xaf\x88^\x04\x17\x1a\x9d\x97\x8e&lt;1m\x9bMF\x10\xd7Q+s\x14\xc3\x82\x0f\xf7O\xd6\xac\x7fn\xea&gt;\x08\x9f\xc3~-\xd2nDz\x9c.\x90\\\x97\x07r\\C\x9c8=\xc3\x01\x8fC\x83[\x1a\xecS\xdcj\xd7\xfa\xee\x99k2Z^[\xcavg! s\xf3\x9c\xff\x00\x10%\x87=\xb6\xfbW\x1f\xe1\xf8u\x1f\tx\xa2\xd2\x1dB\xfaci\xa8\xc4\xed\x1a\xce&gt;Yc\xe4\x16\x04\xf5\xc6\x0e&gt;\x95\x07\x8c\x1e\x7f\x0b\xeb\x16\x91\xdb\xab\xb2En\x8d\x19\xe8\x06r1\xf9\xf1\\\xdd\xee\xadw\xa7I\xe5\xde]0\xdeK"\x93\x8cg\xaf\xd6\xbcuH\x03\x92)\x92\x02z\x0e\xf4\xd0\x187\x00\xe4P\xc4\tD`\xf59\xfcipw\x11\x8ei\xbd\x0e\xd3\xd7\xd2\x95&gt;\xf0\xf6&lt;\xd4S\r\xceT\x1e\xa0\x81\x8ao\x96\x8a\xf8\xf3\xf9\x0b\xd34?\n3N\x88\x02@\'\x03&lt;\x9fJ\xf5\x0f\xd9\x17Z\x9f\xc3\xbf\xb4\x17\x855\x98\xee|\xb6\xb7\xd5\xed\xd5\xdd\x9bj\xec,\x01\x07\xf9W\xee\xc7\xc3\xdcX&lt;7\x1b\xb6\xbd\xc2\xee\x18\xf7+\xcd{\xaf\x82u\xd8\xa5\xb5\x89\x04\x81\x9aE\xec:\xe2\xbb\x8bU\xbb\x9dQ\xd5X\x82:b\xaejp\xb2De\x8a\x00\x19YK1\x1f\xce\xa0\xb3\x0bg)\x9d\xbe\xfb}\xe0\xfd\x05ohWv\xb7\xf3\xfd\x8e\xcaUir\x04\x88\x1b8\x07\xda\xb7\xe4\xb56\xf7\x92\\F\xb9\x1b\x00E#\xabv\xfdj-Z\xdf\xed\xb1\xbc\x03\xcb\x0e@;I\xc0\'\xd0\xd6%\xa6\x9du\x17\x97u\xc7\x99.\xe1,x\'n:c\xd3\xda\xbaM#E\xb4S\x80\x8e\x1d\x93,@\xad\xa8\xf49$\x81cu%H\x1ftrA\xad=\'@KXZ7\x01\x9c\x8c\xaf\xb7\xb5\x13\xe8\x06\xc9\x9a\xe1\x1b,\xfdT\xf6\xa9\xf4\xf8]\xa0\xf2\xca\x86%\xb1\xc51\xb4\xa0\x933L\xf8\xe3\x80\xbd\xaa\x9d\xd6\x85y\x7f\xfb\xc0H\x03\x85\xc7_\xc6\xb9?\x19Z\xddhV\xf2Ko\x1aJ\xdb\x0f\x01\xf2s\x8a\xc0\x87\xc4\xb9d\xb9\xd5\x82\x18\xe4\x94\x841&gt;Fq\x8eqW/n\xb4\xab\xa8\xc4\xf6W\xe8\x08_\xbb\xb8u\xaaR]i\xadjR\xeaH\xd9W\xe6f\x8f\x07?\\W7\xe2[(\xae"i\x06\n\x03\xf2\xbas\x8fc\xfe\x15\xc6x\x8bLE\x9d\xe2C\xbddA\xb5\x94\xf4\xcf\xa5Af\x82\xde\xdcE\xe6\xa3\x11\xd0n\xf9\x8f\xe1P\xf8\x86\xf7r\xf9\xb7!\xb6K\x80c__Z}\x81\x9e\xe2\xd9R\x17\x11$x%[\xab\x0fO\xc6\xadZ\xd8\xc9wr\x1aH\xd9D\x80\x83\xc7\x19\x1d\xa9\xda\x8d\xaf\x98\xab\x022!bA\'\xda\xb8_\x89?\x0fm\xbcAi42\xdb\xaa\xee\x19\x8d\xcf\x07w\xf7\x87\xae+\xe4\xbf\x8d\xff\x00\xb2\xdd\xe5\xed\x9c\xba\x84V\x1bg\x98\xb9g\xc0\x01\x18\x03\xb5\x87\xa8\xce3_6x\xf7\xc1\x9a\x7f\x87\xf5\x87\xd1|C\xa70\x91\x94-\xe2*\xed\n\xc4|\x84g\xd7\xadp\xea\x8d\xe1K\xfb\xed\x04\x0f6\xc2\xf6R\xcc\xae\xc0\xec\xca\x8c\x15\xf6\xe4d\x8fZ\xe5\xfcW\xe1=B\xf2\xc6\xf8Ei\xba\xd02\xdd\xc2\xc3\x97B\x08\xde\x00\xff\x00\x81\x1f\xca\xb2|?\xe2-~KH&lt;!r\xa6eKI\xedA\x8cnw\x05\xb2\xa3\x1d\xc9\xec+\xde&gt;\'\x7f\xc15\x7fk\xff\x00\x0exgA\xd7&lt;}\xf0o[\xf0\xf5\x85\xc6\x90o\xb4\x8b\x8dM\x16%D\x8c\t\x1f;\x80(p\xc4\xe0\xd7\x9c\xeb_\x04\xfe$\xfcV\xd3l\xac\xbc\x1b\xe0k\xfdKS\xb0\xb6\x92\x1dCL\xd3\xec\xdaC:\xf9\x83\xf7\x85\xf0T\x8f\x98\xf7\xc7\x06\xbd\x9b\xc0_\xf0o\xef\xfc\x14\xe7\xe2v\x90n\xe0\xf8,\xba|v\xe4\x18\xa0\xd6\xb5\x18\xad\xe5\xd9 \x0c\xa7gP0;\xd7\xe63\x15\xf3\xc2\xab\x02\x19s\x9c\xf7\xa5\x041\xda\xad\xcf\xd6\x9a\xee\xb8(\xac\x03\x81\xeb\xd6\xa3\xe4)\x91\xd4\x9c\x0c\xe7\x14"\xac\x98p_\x07\xa9\xc7JrH\x0b\x94B&gt;^\xecq\x9a\\b&gt;\x1b\x96lTR\xdbH\x1c1\'\x00\xf3\x81P\xcd\xb8\xee/\xf2\xe0|\xbe\xa4\xd4\x901\xf2\xc3J\xa7\xf1\xa5U\x0e\xd9\xce\x14\xf5\xad\xef\x87w\x97\x1aO\x8c\xf4\xdd^\xdar&gt;\xcf\x7f\x0c\x84{+\x83\xfd+\xf7\x9f\xc0\x9a\xabj&gt;\x0e\xb0\x9e\xca\xef\x07\xec\x08\xfb\xd9\xb9\x05\x91p~\x95\xf4\x0f\xec\xf9iw&amp;\x96\x9a\x9e\xad)o(\x15\x8d]q\xbb=\xeb\xdb4\xabc=\xa1d\x88\x0f\x94\xe3\x8aY#\x8b\xcb\x96\'`I b\xab\xbe\x9bs5\xa7\x96\xb2\x82\xcerX.q\x8a\x9f\xc0\x9e\x08\xb4\xd2\xfcG7\x8b,\xcc\xa1\xef\xd7\r\x13\xb6q\xb7\xaf\x1d\xb3]\xd5\x9b\xdb\xdb\x17\xbc\x0b\xf2\xe0\x86F\x19\xe7\xda\xa9_\xac3\xc8u\x0bx\x88$\xed\x11\xe3\x9c\x9e\x9cVs\xc1u\xfd\xa0\x80\x00\xa8\xdc\xe7\xd4\xfaWW\xa5[\xa7\x99\x0c\x88G@\x19\x875\xa3;\xb3L|\xb5\xde\x164\x03\x07\x19!\xbaU\xfb)Dq\x86v\xf2\xcb\xf4_\xef}*\t\xef\x129\x0c\x85\xf7`\xe0z\x03\xdb5D\xebV\xf1\xbf\xef\xef\x91\x0e\xec\x85\xc8\x19\x15\x8fs\xf1/\xc3\xf0y\xc6\xe5\xd9\x99r\x01\x07\x83\xf8\xd7=\xe2\xcf\xdaK\xc2\xda-\x8b\xc5mw\xe6K\x1clL,B\x8e\x07\xafz\xf9\xd3\xe2\x87\xedo\xaf\\\xea/skj\xb1\xc4\xad\x80\xaa\xf9a\xfe\xd1\x03\xb5y=\xcf\xedm\xe2a\xaa\xae\x95\xa5[Br\xfc\xcd#\x1c\x12OaW&lt;=\xfbU\xda\xd8ZOu\xad\xdc\xdcn\xf3v\x95H\xd8\x95oP;\x8a\xce\xff\x00\x86\xe1\xd5\xdf\xce\xfe\xca\xb1q2JU\x11\xa3`e\x1e\x84\x1e\x9f^\xd5\xddx_\xf6\xc1\xb5\xd7e\x82\xd7P\xf0\xf4\x90\\O\'\xef\x16i@\\\xe3\x00\x80z\xf3]~\x9b\xf1\x0fL\xd5\xaf\xe3\x129\x87tK\xf7\xd7\xe4\xce\xee\x995\xb4m\xac5\x15Q\xf2\xc4\xfbO\xccN\x01\xcfNj\x1b\xfd\r&amp;\x8f\xec\xf3[\x90W\xa3\x93\xdf\xb5f\xc7\x15\xd5\xb4\xc2)#p\xac~o\x94\xf6\xae\x83M\x99\x12\xd5e\x8d\xd4\xa8w9\'\xfd\x9a\x8a\xf0\x19n\xf3o\x11f\x12\x93\x10\x03;\xb2?\x95J\xda\r\xb4J\xf0J|\xd4d\xc3\x96\xe4\xa1#\x9f\xa6+\xcd&lt;w\xe1t\xb5\xbaC\xe5\xf9\x91\x9c\xec\xf9w~\x9d\xeb\xe4\xdf\xdaO\xe1w\x87\xeeu7\xd3\xbcE\xa8\xda\xc2\xf1\xac\x93\xc3w+\x08\xf7\x84\xe0+\x1f\\g\x15\xe4&gt;\x0c\xfd\x90\xfe6~\xd1:\x1d\xdc\xdf\x02~\x08x\x83\xc5\x10Y\xde\xacv\x97\xf6\x1av\xe8\x07\xcd\xf3\x07\x94\x8e\x07+\xef\xf2\x9fJ\xfa\xd3\xf6.\xff\x00\x82\x04\xfe\xd0\xde*\xd7\xad\xb5\x1f\xda\xd7\xc2\xc3B\xf0\xd0\xb5\x9dd\xd2\xb4\xfdJ\x13wq\xbe"\x80;\x83\xf2\xae\xe2\x18\x8e\xb8\x15\xf4\xff\x00\xec\xff\x00\xff\x00\x06\xec|\x08\xf8K\xf1\x00\xf8\xfb]\xf1\xed\xcd\xde"\x89lm\xa0\xb2\x8c\xbd\xbe\xdc\x92|\xd7\xfe 8\x0c\x07\x07\x9a\xfb\x0f\xe3\xaf\x83\xff\x00f?\x0cx:\xdf\xc7?\xb5.\xa9\xe1\xf9\xb4\x8f\x0f\xd94k\xa9\xf8\xd6\xf2$\xb6\x84pX\xf9r\xb2\xc6_j\xe0\x11\x96\xcf@k\xf3\x9b\xf6\xd0\xff\x00\x83\x85\xff\x00\xe0\x9e\x9f\x074\x9dO\xe1\xdf\xec\xa1\xf0\xee?\x1ck\x9c%\xae\xa9\xa5iB\xd3HI\x03\x8d\xc4\xc8PI"0\xf9\n\xaeF\xdes_\x06|O\xff\x00\x83\x88?o\xbf\x1dk\x9f\xda\xbag\xc5\x8b\x1f\t\xdb)e\xb7\xb1\xd04\xc4\x08\xc9\xc673\x1c\xb9\x18\xc0\'\xde\xbf+\x9b\xcd!\x9bx\n</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfcJ\xf1\xcd\xf7\x89|U\xe3\xb9&lt;&lt;\x81\x9eV\xbc\xf2`\x8c\xaeF\xd2z\xd7\xd7?\xb3\x17\xec\x8d\xe0\r\x16\xce\xdb\xc4\xde*\x81\xafo\xe1PZ\xdev\xdc\x8aO\xfb\'\x8a\xfa\x7fB\xb1\xb2\xb4\xb1E\x1bR\x15\x1bcU\xfe\x11\xe9\xf4\xe9I\xe2khml\x05\xdcm\xb8\xaa\x9c\xbf\xf1m\xf4\xcf\xa5x\xe7\xc4\x0b\xa9o\xac\xeemf\x8c4N\xc1\x94H\xbb\xb6\xfe}+\xc1\xbe#\xb2?\x9bn\xaf\x96Q\xcf\x18\xcdy\x0e\xads4\xd7[^\x0c\xeep\x03c\x9e+\xa7\xf0\xed\xbd\xd4\xfab\xbcp1\x1b\x88\x06\xb5u\xcf\x87\xb7~\x15\xf8\xe7o\xa9\xdf\xe9M\x12\xad\xf8\x0c\xc7\x80Fz\xff\x00\x9fZ\xfa\xef\xe0\x95\xed\xa5\xcc\xd7\x17R\xcc\x88y\x01\x10\x8f\x98\x01\xc15\xe9\xf6H/\xb4\xed\xb2\xf9B \xa4\x8d\xf8\xc9&gt;\xd8\xac\xfdb\xf6$\xb2h\xa4\xb7\x0c\xde^#@N\x00\xef\x9f\xd2\xbcc\xc6\xf7\x97\x11\xcfq\x02\xc4\xff\x00?\n\xc1\xb8\xaf\x11\xf8\x84wK,\x91\xd9\x96f\x05\x18\xf6\xcdyW\x89.\xa3D\x8e8\xad|\xb7\x0f\x82W\xf5\xad\xaf\x0ejz\x89\xd3\x17\xec\xf7\x05\x17q\xf9U\xb1\xfdk\xea/\xdao\xe1\x16\xa9\xab\xdc\x9f\x15\xe9V\xa2EI7&lt;P6Ys\x8cs\xdf\xa1\xae\x0f\xe1\xd7\x8b\xf5\x1f\r\xeb--\xc8\x95U\x80\x8c\xc37c_D|2\xf1\xde\x97\x7fi\x0c\xb7l3\x13\x0f8+\xe11\xf4\xe8zU\x9f\x13\xf8\x86\x06\xd4%\xbcY\xbc\xcbg,6\xc6y\x03\xb0\xfau\xaf8\xd7\xe2\x92i\\y\x9b#bH8\xaf3\xf1\xfe\x83s}\x03Ai\n2\xa1g-\x1a\x00\xc7\xa7z\xf0\xaf\x1b\xe97q\xc8U h\xd4I\x96l`\xd5}\x1cH\xd6_\xb9\xbcu\x1b\x8f\x01\xc8\xaf\xd1-\x07\xc4\xbe\x12\xf1.\x93\x1d\x95\xe9\x13\xb9P|\xa5\x84~\xa4\xf4\xaes\xc4\xdf\xb3o\x86\xb5I\xdbV\xd3\xe1\x11Op\xc5\xccHs\xb4v\xfaw\xa8t\x8f\x85\xd2\xf8n!`9\xca\xb1\x00\xf4\x04z\xd5\xb9\xec&amp;\xb3\xb5h\xbeS"\xc7\xc0^\x86\xb9m^\xfc\xb5\xc0\xb2\xbf\xf2\xd08\n\xa8\x067g\xa9\xcfn\xdf\x9dZ\xd0|/a\xe2{7\x82\x1b\x08\xa2\x9a\x16(2rq\xd8\xfb\x83\xdf\xf0\xaf"\xf8\xfd\xf0+T\xd2\xfe\xd3}g\xa7\xca\x91\x95\x0c\x1d\xcf\xca\xe7\xf8\xb0;\x0e\x9f\x9d|\xfds\x0c\xda|\xedk\x0b\xb4!O(N9\xaf\xb0|\x0b\xae\xdc\xe9\xd7^L\x8f\xbfk\r\xe4\x80~\x9dk\xda\xbc\'\xe2\x03{\x14S=\xd3\xb7#\x08\x1f\x1cw\xe9[\xda\xa6\x95\xbe_8[+\xc6\xcb\xbbk\x1f\x99\xb3\xdb&gt;\xdf\xd6\xb9-oK\x84\xbc\x864\xf2\x98\x03\xe5\xa3\x8cc\xd7\x91\xd7\xf1\xaf\x11\xf8\x97s6\x93\xa8\x1b\x8b\x86\x92F\x0eq\x13\x9c+\x01\xe9]\x7f\xec\xf3\xaeK\xaaL\xd7\xd6\xd0+\x17FY-\x84\x9f&gt;\xdf\xf6\x0f\x7f\xa5zW\x89|\x17\xa5\xf8\xd7K{;\x98\xc3\xca\xd0\x1d\xec\x00\xe1\x07Ee\xe8\x18v#\xaf5\xf0\xf7\xc5\xcf\x85o\xa5x\xf2\xf6\xca\x0b\x1d\xd1\xab\xfe\xec\xb4\xad\x909\xeb\xef^\xc3\xe7\xc5mr7Z\xacX\x98\x87\xc1\xea;Wg\xe0\x1f\x17,w\xb1\xac\x13\x90U\x8e\xc8\xc0\xfb\xc3\xb8\xcfj\xf6\xed\x13\xc6-\xaaiq\xdb\xfd\x81w0\xc3\xa9}\x98\x03\xbe\xe1\xd7\x1f\xd6\xb3\xfcp\xf0\xdc|\xd6\xd6I\x1b\x14\x004)\xb5\\\x0e\xf8\x1d\xfd\xfb\xd7\xcc\x9f\x1f\x1ax\xef\x1aO)\x98\x06a\xe5\xa7O\xbaz\x8f\xc2\xb4\x7fe\xddR\xcdne\x82\xf6\'XB\xe6 \xed\xb5L\x84\x0c(#\x95\'\xb1\xafX\xd2\xbca&amp;\x8f\xe2\x89\xed/\x90\xa93c\xc9\x98\xf2\xbe\x99\xecH\xec\xddNj\xb7\xc4O\x84o\xe2\x7f\x12\xbe\xb3\xa1\xe9V\xfeL\xd1)&amp;F\x19-\xdc\x9a\xf3\xcf\x11hs\xcbrf\xb9\x94B\xaa\x0eP\xa6r~\xb5\x93\xa5_\xc1\xa7O\xe6+\xeeTn\x89\xde\xbdo\xe1\xdf\x8b|\xd8\x85\xba\xaci\x1b\xa6v;\x03\xd3\xf9W\xa1k\xb7\x17z\xe6\x8e\x97\x16\xb3+&lt;v\xf8\xf92\xd8\x1e\xe4\xf2\xbe\xd8\xaf\x9a&gt;9i\x17V\xf3Mu4\r$g\x9d\xcf\xd0u\xce\x0fS\xd7\xbds_\x00\xf5\xcb=;Z\x1az\xddl\xf3\xa4%\x96A\xf2\xed\xfe\xef\xe3\xfd+\xd1\xfe)\xcfyo\xabE}g\x07\x93\x19U*\xbb\xf7\x15#\xbe\xefC\x9e\x9e\xd5\xd2x;\xe2\xad\xbc\xba\x14gZ\xb0Y\'RT\xba\xc9\xc1\x03\xa5V\xf1u\x9d\xbe\xa3\xa1\xe2D\xf2\xca\x12s\x0f\xcb\x9e\x9d{W\x95\xda\xa0K\xf7\x80\x1f\x94\xb9&lt;\x00?\x95w\x1f\x0e\xc0\x13\tUT2\x10\x01\xda\t9=\xc9\xeb^\xed\xe1mb\xea\xd3\xc3\xd2D\x89\x1bbg\xda\xec\x9f2\x80\x07\x01\x86\x08\x1c\xf4\xce:W\x88|\x7f\xd3\xed\xae\xc4\xe2e;\x980gS\x82\xd8\xc1\x19\xc7\xd4\xd7\x84\xf8NI-\xb5\xb6\x8a\'`\x13\xe6S\xb8\xe7\x83\xd3\xe9\xed_I\xf8\xdf@\xd3\x1b\xe1\x9d\x86\xaf\x1c\x029M\x96J\xa0\x1b\t`2v\x90Gj\xf1]9\xe5\x102\xa5\xc4\xa8\x04\x84b9YG\xe4\x08\x15\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\xbe\x00\xbe\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc6.\x8c6+\r\xc3\xaf=i\xb3\x06 \x05\xf5\xa1HU!\x86O\xad \xea)r2~\x86\x98\xd1\xa39rq\x85\xe8O_jP\x8a\x88\x1aB0z\x02j9c\x11|\xca\xc0\x97\x1d\x01\xe9V&lt;9\xa6I\xab\xeaqXA:\xab\xcb*\xae\xf6l\x01\x92\x06I\xec=\xeb\xe9\xef\x0f$^\t\xf0\x1cVzl\xdeTP\xa3\xa5\xcc\xb1\x0f\x9eEf\xc3l=\xf8Q\x8cz\x8a\xe3u?\x88r-\xb5\xd6\x97\xe1\xa1\xe5C\x03\x19$%\xb3\xb9\x97\x80W\xd4\xe3\x9a\xe4\xf4\x87:\xee\xabu\xe2?\x18\xeam\xf6\x0b\x08\x9d\xe4\x96F\xdc\xf2\xb9S\xe5\xc41\xdc68\xaeBk\xeb\xef\x12\xea\xedyt\x86$\xdcB\xc6\xab\xf7\x14}\xd2\x07\xf3\xad\xb8\xa2\x8a\xc7\x06$3:\x00Xg\x18\xfa\xfaV\xb9\xf1\xc2\x89\x99.-\x84\xee\xb1\x81\x1cP\xcb\x84_\xa9\x1di\xfa?\x85u\xef\x13C\r\xb4\xda\xd9C,\xbc\xaa\xa3\x107\x1e9\xef\x8a\xf4\x8f\x85?\x05m\x1bV\x92\xcf[\xd7$x\x9a"\x17\xc9\\\r\xd8\xeas^\xab}\xf0\xb7F\x82\xe1F\x86eh\x1c,1\xb3\xc4w,\x98\xe4\x0f\xf0\xae\xe7\xc0?\x06|C\xe2\'\xfe\xc6m\xf2\xc4\xa0\x06b\x98\xdf\x9fO\\W\xbe|%\xfd\x83\xedui\xbe\xd5\xaeM%\xad\xb7\x9av\xb4n\x1bp#\x9e+\xdc\xbc%\xfb\x1a|$\xd3]\x84\xabp\xe6\xde2\x14\x00C1\xc7\xa5uv?\xb1\xe5\xb6\xb5$\xb6\xfe\x1a\xd0m\xf4\xed;\x00H\xf3\xc5\xbaY\x0f\xe3\xc8\x07\xd6\xbb\xed\x07\xf6L\xf8Y\xe1[K{;]6;\x8b\x98\xd9Y\xe4h\xc1\xcbz}+\xbd\xd0\xff\x00e\x7f\tjz|s^\xd8Z\xa0\xe7j, \x91\xf5\xaf\xe59\xca\x82\x19c9&gt;\x82\x9b\xe6d\xed\'\x9fLPA\x07i\x1c\xfaP9\x19\x14\xa0\x10rEG&amp;\x1a@29j\x1d\x83\x1d\x8d\xd0S%0I Q\xbb%q\x9a\xec&gt;\x18xZ\xd6]f\xd2MPn\x89\xa4\n\xca\x87\x93\xcf#\xda\xbd\xff\x00\xc6\xb6\x88t\x05\xd34\xc6\xda|\x90\x91\xc4G\t\x91\x80I\xf5\xaf\x13\xf1\x1b\xc3\x1d\xda\xf8kK\xc4de\xaenwtoJ\xc8\xf1\x1e\xafc\xac\xde\xa6\x9b\xa2\xef\x16\x96\xb1\x8f\x97\xa1\x95\xc7VaI\xa7\xe9Kn7\xeaR\x85s\xf3G\xb0\xff\x00:\xb1s\xa9\xce\xd6\xb3[[`4\x9c\xb3\x95\xfe\x11Rh\x9a:\xec\x172\xb6wu9\xc5z\xbf\xc2\xed\x1a\xd7V\xb8q\xa8C*\xdb\xc0\x80?\x96\xe3*OL\xe3\xa5{\xcf\xc2\xaf\x0c\xf8wC\x95\xa3\xd2\xb4Y\xae\xef\xae\xddL\x0c\xe0\xb0E\x1fz\xbe\x85\xf8c\xf03R\xf1\xab,PxS\xcfg\x8cM\xf2\x03\xf2\xb9\xe3\x1e\xc4W\xd2\xff\x00\t?eg\xf0\xc6\x9f\x142\xdb\x96f\xc3,3\x00\x19[\xfc+\xdd\xbc\x05\xf0\xc2[[\x04\xd3LJ\xea\xaaw~\xeb\x02?|\xd7\xa1\xe8?\x0f\xfc/\xe1\xbb7\xb9\xb8\xb7\x13\xee\x95\x89\xcae\x89\xdb\xd0{Q\x05\x88\xd4e\x0f\x1d\x81Xcm\xbf\xbb8/\xe9\xf5\xc5n\xf8sD\xd3\xd6b\xf3G"\xaey\x12\x11\xcf\xb6k\xb3\xd0|=\x1cj\xcfe\x06U\x87\xf1\x1e?\n\xfe6\xd1$Y7n\x1dx$\xf1P\xb8W\x95\x82\x92\t\x1f1=?\n\x99\x925\xc7\x94NPrZ\x90\x80\xbf!8\x04g4\x06\xb9\x8f\xe5@\n\xff\x00\x16}*9\x1dy\xc2r\x06i\xb8\xdc\x01&lt;\x13\xd34\xc5\xc2&gt;\xd7\x19-\xc2\xe7\xbdz\'\xc1MN\xc5&lt;gcy{\x0byy| \xe7k\x01\xc3\x11\xe9\x9a\xf4\xdf\x88_\x10\x9d\xad\xa6\xd3t\x8d\x8a\xa2#\xe6K\x90^\\\x8f\xe1\x1e\x9e\xf5\xe1\xf7\xda\xbe\xa3\x1c\xd2[\x87Uw\x97qn\xa4\x8c\xf4\xa3\xc3\xf70\xc7\xa8\x96\x94\xfc\xbe[nb\xbc\x13\x8e\x99\xad1\xa7^=\xe0gb\xe1\xcf\xc8\xa3\xf9V\xc5\x97\x82\xaf\xee\x18]5\xb1\x8dB\xe4n\x1d\x7f\xc6\xbb\x1f\x03|/:\x8a\x90\xd9p~c+\x0c(\x15\xee\x9f\x04\xbe\x0b\x0b\xeb\xc8\xb4\xad:)d[\x94\xdcs\x19\xc9\x19\xc7\xcc{{\x1a\xfa\xb7\xe0\x7f\xec\xfdwq\xaf&amp;\x9b\xa4\xe8\xd2\x04\xb7\x97\x1b\xdds\xbc\x11\xce=E}\xd7\xf0\x87\xe1~\x99\xe1\x0b\x04\x82\x1bX\xa0\x0b\x12\xfc\xc8\x83\xcc/\xed^\x95\xe1\xef\x0c\xc5$\xf1J\xf2\x19\x99\tm\xf2\x90H\xc7n+\xab:ki\xd6\x12\xcbnXH\xcc\n\xa8\x03\x9f\xc3\xd2\xa4\xb7\xd2\xe0\x86\xc7\xed\xb7V\xe5$f\xf9\x89o\xbd\xed\x8e\xd5\x1f\x94c\x8e\x08\xec\xe2\n\x9b\xf76F\t\x19\xadk\x0b\x18\xe4\x06\x13m\x82\xcaH\xc9\xae\x83J\x82\xe9"\xf2\xe2\xe0\x01\xfd\xfa\xfe5\xdc\x15O/\x04\xe7\x8c\x8e\xd4\xd6\x89J*\xf4\xf5&amp;\x85\x05\xc8$}\xef\xbd\xed\x8ad\xc0\xca\xad\x1fN\x0e\r$hb\xe0\xbb\x1c\xa6(FU\xba\xc3c8\xfb\xbe\xb4\x114\x92\x17(\x02\xa8\xc8\x14\xc7H\xe3%\xa5`v\xfd\xd0:\xf3Z^\x19\xf1\x15\xee\x81|\x97\x9af\x0b\xc6\xa4#78\'\xbdz\xbah\xff\x00o\xf0\\\xfa\xec\xb2\xac\xacLQ3\x16\xc1\x0e\xc7\x90=\xc6zW!\xe2\x0f\x0bAio\xfd\xbf&gt;\xa0\xb1\xc7?\xca\x96\xeb\x82\xeaG\xb7Q\x9a\xc8\xf0\xf5\xca\xe9\x1a\xccw\xf1[F\x19$V\xf2\xe4\xe4J\xa0\xe7\x07\xd3=+\xd5~\x18x5\xfcy\xe2e\xd5\xect\xe40Ks\x81\t?)c\x81\x81\xed\x9a\xfaJ\xdb\xf6^\xd3\x7f\xb2\xe3c\xa6Kuz\xcc\x82\x0bHP\xf0\xe7\xa0\xe3\xaf5\xe8\xff\x00\r\xbfc=R\xc2\x08\xaf\xf5[/"\xe4\x92\x05\xa6\xf1\xf2\x9e\xb8a\xdb\xf1\xaf\xa6\xfe\x04\xfe\xcf\xb0X\xeb0Zi\xfe\x16?)\x10L\xf2/\xa79\x1e\xd9\xaf\xa6&gt;\x1d\xfc\x1e\xd2&lt;\tq\x04\xb1\xd9~\xfa_\x9d\xd9\x13*\x01&gt;\xbd\xab\xd3\xff\x00\xb3\x8d\xbbG\x04(\xc1\xa3*\xce\xc0\x83\xb7\x9e\x87\xdf\xda\xb7|;l\x15\x9ag}\xe1\xb8\xfb\xb8\xc5j_\x15\x8a\xd9n\xa3%\xb9\xc6\x074\xf8\x84w\x13\x94VfRY\x8ez\x0c\x8e?ZV\x8d~\xdf"\x18\xce\xc9B\x88\x94\x8cm\xf5\xae\x82\xde\xce\xde\x1b\x92\xc5\x14\x08\x95J\x92\xff\x00{\xd7\x1e\xb5\xb1\x0c\xb0\x00.\x916\xc6\xcb\x81\x9e2k\xf8\xc8\xf3I\xe3\x9ex\xa2^Pb\x85`\xa3\'\xb0\xe9Q\xfd\xe2d&lt;`g\x07\xbd)\x9d\x18\x05\x03\x198\xcf\xa50*\xc8\xfeoB\xa7\x19=\xc5:I\xf6\xb0\x03\x91\x9e\xd5\x1b\xcb\x04\xa0\x90G\xd7\xde\xae\xf8zhmn\x92\xeeuYc\x8e@\xcf\x13p\x1c\x03\x9d\xb9\xf7\xe9^\x8d\x0f\xc5\x9b]SL\x93H\xb4\xb3\x8a\xc6\xdeK\xd6\xba\x11+\x02y]\xa1~\xb9\xe6\xb2|q\xa7j\xf0\xe9\xdaw\x89^\xcd\xd6\xdfXY\r\xac\xa2P\xc8\xc26\xda\xf8\xed\x90x&gt;\x87\x8a\xc0\xd2\x10\xddM\x92\x01rv\xa85\xfaU\xff\x00\x04\xe1\xfd\x95m&amp;\xf0\x1ax\xa7^\xd0V+\x87u\xf2\xf7\x8c\xe4\x1e\xe0W\xdbzo\xc0}\x1a\x1dR=G\xc3\xbaDQ\x8b\x93\x86r\x9b\xb6\x909&gt;\xd5\xd2\xe9\x7f\x0bc\x1ev\xbbu\x04O$%cPx\xdd+\x9d\xa0\xe3\xbe:\x9a\xf4\xdf\x01\xf8wL\x8f\xc434\x0b\xe5\xa5\xb0\x0b\x0e\x13\x05\xf7.\x19\xbf\x0fZ\xefmZ\xcbO\xb7\x8c\x17\xf3\x1d]\x97c/%W\xe6\x1f\x815gL\xd4c\xd4\x19fd9\x04\x97+\xd1\x88\xe9\xf9V\xbd\x95\xb4\xb1\xb9\xf2e\x18\x90q\x83\xd0\xd6\xbe\x9d\xa7D\xb6\xf0\x19\xee7g$\x159\x04\x8e\xd4\xad\xaa[Cx`\x11\xb6LH\x10*u!\xaa\xed\xb4PO \xba\x95\x82\xabp\x18\xf65\xb1\x14\x114 y\xa5\x9c\x10\x02\xed\xad\x0f\xb4\x1b[h\xad\xbc\x91.\xd1\xc8A\x9d\xa7\xde\xbf\x8c\x84E\x0b\xd4}\xfaN\x88A\xe3\xe6\xa6\xb9\x19\'4\x84\x12\xa4\xa8\xcf\x14\x84;(\\(\xcdD\xe1\xa3n\x1b8&lt;\x81K\x1e\xed\xad+t\nH\x14\xd8c\x8fq\xcb\x0ccuI\xf6\x86\x10a%\xe0\xb7M\xb56\x8fe-\xe4\xab\x14E\xb7\x19\x07\x07\x8e\xf5\xeb\x9a\x9e\xb3\xe0\xdb\xdf\x82\xba?\x86\x96\xc2o\xed\xbb\t\xe5SrI)2\xc9p\xce\xd8\x1f\xc2T`\xe3\xbda\xfc&amp;\xf0E\xf7\x8b&lt;i\xa7\xe8\xf6\x90\x19\r\xc5\xeaF\x08S\x91\xb9\x80\xce&gt;\x9c\xd7\xee\x07\xec\xc1\xf0\xf6?\nx/L\xd2#\x94\x10-S\xccD\x18c\xf2\x0ek\xe8\xab}\r\x16\xd7O\xbcK!\x18P\x16T\x93\x96\xdb\xdc\xf1\xdf\x14\x9a_\x87\x11\x9c[\xcd\'2],\xa1I\xe3\x01\xb3\x83\xef]8\xd2&amp;]N)-m\xc4[\x14\x10\xca~\xf1\x1d\x8dt\x1aR\xb0\x87z\xc6\x92\xa9\xc1c\xd5\xb9\xfe\x95cL\xd3\xadl\x1eY-\x89;\x8fB8\xc9\xad\xbd\x16C$\xd3\xc4\xe1q\x10\x05y\xeb\xf4\xadh.\xa1\xb0\xd9\x14\x98_(\x927\xf1\xcf\\Vtw\xce\xd3O\r\xdcg\xcc-\xfb\xa2\x13\xa2\x9e\xff\x00Oz\xb4#\xbb\xba\xbaD\x05\x10\x85\xc6\xdd\xfd\xbf\xbd[\xbadSO\x1e\x0c\x84\x8d\xa7s\xa9\xf4\xad(\x84V\xa5\xa3\x9e\x12NA\xc0nzw\xaf\xe39\x0e\xe1\xb5O;\xe8#\xcb\x88\xab\x8esQ\x92\x08\xe4\x8ei\xc0\x98\xc6\xcfQF\x18\x1eA\x1f\x852W,6\xac$\x1e\xe7m\t\x85\x89\xb7\x0f\xe1&lt;R\x02\xad eB\x00\x1c\xf1N&gt;X\x87*\xbc\x86\xc8\xa7Z_\x0b{\xad\xe9p\xd9\xc7\xf0\xaduZ\x06\xb9\x0c\x90J\xb7\x00\x99\xfc\xd6x\xc3tT\x0b\x93^\xef\xfb\x06h\xb3x\x8b\xe3\x9e\x87m\x15\xaa2\xa3\x1b\x86\x0c:lL\xf3\xfa~u\xfbg\xf0\x07\xc3\xb66\xbae\xb8fI&lt;\xd8\xd0\x17$|\xa7\xd0W\xac\xdei\x97F{v\x85\x91\xa3\xb5\x8c\xab\xa8?\x7f5~\xc3I\x8a\x1b\xd9^\xee1\x1a\xae\xd0\xb8\x19\x1c\xfb\xd4\xba\xa8\x93O\x98I\x1c\x98\x8ffrOA\xebShz\xbcrB\xad,\x8c\xb2$\x08\x0e\x17\xe5\xe1NA\xf45\xae\xae\xf3]E%\xb8\xc2`\x10\xbf\xde5\xa3k\x1d\xd3]\xab\xaamS\xf7\xf8\xea;\xd5\xbb}1\xcd\xcc\x8fp\xfb\xb6\xc4@%\xb27\x0eK}\x08\xe2\xaeX\xa6\x9fs,\x92\xc7,r*\x15\x0c\x02\x12s\xe9\xf4\xabmm\x15\x9c\x7fkP\x85\xc9\xe0\x85&lt;\n\xbb\xa2\xc9\x83\xe5\xbc\xc1A`\xd8\x06\xad\xddk\x02\xd8\x81\xe4\x96v\xe4\x90;W\xf1\xb4\xa8\xb1\xa1\x91H\'\x1d\xa9\xa1\x9aQ\x9cR\xcb&amp;\xf8\xfc\xaf(\x02\x07_Zl\xc0\x97R\x07AO\x90\x87pP\xe7\x03\x9cSK.\x08\xdc?:c\xfc\x83.1\xe8\x0fz\x8d]\xcb\x82\x83\x1c\xf453\x87b\xa5\xd0p\x7f\x87\xa5#l\x883mP\x08\xc1&gt;\x95\x7f\xc2\xd2\xc65\xd8\xa3\x95\x89\x13H\xd1\xf3\xd80\xc6~\x9c\xd7\xd7\x1f\xf0L\xbbH\xe4\xf8\xc5c{%\xc4BX\x12{W\x87x\xdeB\xa2\x1d\xf8\xeb\x83\x82\x01\xeek\xf6K\xe0\xccQ\xc1em\x86`\x9bC\x11\xe9^\xccY\xa0\x86\x19\xa1\x00\x11\x82w\x8e\xb5\x06\xb1w{\xa4\xdeY\xc0"\xf3\xe3\x9f&gt;y~\x0e\xe3\xd0\n\xaf&lt;\xda\x95\xe5\xbb,\xf2\x07\xf9\xf1\x1ac\xee\x7f\x8dj\xd9i\xee\x97\xe6\xee\xdaBP\xbf\xce\x8c\xbc\x1e+\xa4Y`H\xfc\x87E,\xae\xbb\x1d9\x18\xcfJ\xbf\x02\x0b\x98\x90\xdb\xb3\x02\x88\xc5\x88\x1d8\xad4\xb1\x9a+\x94G\x9c\x94x~\x7f\x97\x8cb\x91E\xa6\x9c\x1ax\xd3`|\x87S\xc1\x18\xefM{\xe7\x96\xdbq\x18P\xdf.\x7f\x88\xf6\x14\xdb\x0b\xdb\xa1.\xd1"\x86\x07=y\x03\xd3\x15{S\xb9Vt\x99\x88m\xc9\xc1-\x8c\xd7\xf1\xdcr\x9c\x01\x90}(Y\x80\x1eZ\xc6y\xe3\xa5\x12\x02d\x04\x0e\xd4\x8788l\x1cu\xf4\xa6\x8d\xac@#$\x11\x96\'\x14\x92F\xa4\x93\x9e=\xa9\xb3\xb4\x8d\x84(v\x85\xe4\xb0\xc5G\x1d\xbcl\xc0\xc7\x13\x1c\x1e\xc6\xac"v\xf2\xf1\xee[\xa5#\x85T\x118\xc8g\xc1&gt;\xd5\x1c\x92\xb4S\xf9\x90\xb9\\\x0c\x02\xbd~\xb5\xf5_\xfc\x12\xb6\xf1\xe6\xfd\xa8\xf4\xebI\xee2\xb7Zu\xc2\x80O\x19\xd8y\xfa\xf7\xaf\xdb?\x84/\xb7A\xb4\x8eO\x98\xba\x95\x05y&lt;z\xd7\xad\xe9\xc9wum\x12\xdc\xab\x9f0m\x03i\xc8\xf4\xab\xda\xfcD\\\xc0\x8b\xc8I\tF&gt;\xc2\xb3\xd5\xad\xa6s\x0c\xd3\xb0\n\xdb\x9b\x03\x00\xfbf\xb5mn\x16\xda$C.\xd52\x00\xa0s\xd4\xf1\x9a\xd7Y\x15\xa0P\x84y\x99\xdc\x07v\xc7\xf3\xadm(\xdd\x88\xd5\xa2\x0b\xfb\xc3\x83\xcd^IfX\xc4\xb3]:3F\xc1\xe3+\xc61\xd34\x97q\xc4\xf3o1\x9f\xbe\xdd[\x8f\xbbN\xf2\xe3\x92/\xb3g\x06U$\x868\n{Tq@\xc2d\xb2K\x86\x91\xcb\x00\x06\xccm\xf7\xcdj\xc4\x91\xc8\xa5\xee $g\x08\xbb~\xee+\xf8\xef`J\x00)\xa5\xb6\x8e\x06\x08\xea}i&lt;\xc6\x1c\xa3`\x9e\xe3\xb51\xdc\x93\xf3\xae\xfeq\xbb\xa6)GZF\x01\x93i=XQ\x10|\xb0\x0e\x08\x03\xf8\xba\x9ag\x9b \xdc\xab!\x19\x18\xe5qJ\x8d"\x8d\xae\xd9\xc8\xa4\x906\x01\xf3\x07\xe7H\x18$\xa2Bx\x0b\xc9\xaf\xa1\xbf\xe0\x99\xda\x83\xe9\x9f\xb5g\x85\xe6t\xdd\xe7\t\x93;\xb1\xb04D\x02k\xf6\xff\x00\xe0\xb7\x89`\x928c \x8f\xb2\xe5Y\x0fS\xeb^\xf1\xa4k\x10\xdc\xacf!\xfc\x1d\x07j\xd2\xbc\xb5\xb9\xb9\xfb\xf1\xe64^\xb8\xe4\x83\xd7\x15I4\x85\x17\xc1\xd6\x10\t\xc0 \xb7\x18?\xd6\xadZ\xd9\xdc.\xb2\xb3L\x03@\xc3\x05\x07\xf0\x91\xde\xba-6\xc5%h\xe6h\xcf\x00\x81\xc7J\xd8\x84\x08\x8c^T\x07\n\xa4\x15\xc7s\xd35%\xc2\xdb\xc9\x19\x17Q\x15\xecX7\x0bO\x9d\xe3\xb5\xb8U\xb8\x1b\xa2\x12\x12\x02\xf2H\xc7\xf5\xa6\xda\xdc\xa4\xd7\r\x15\xba\x86,x\'\xf8G\xa1\xab\xf6:l\x16\xeee\x90\x9d\x99\xcb\xb7q\xff\x00\xd6\xad\x1b(\xad\xb6\x9f+$\x1f\xefW\xf1\xbc\xa4\x01\xc9\x14\xc9\x01=\x07zh\x0c\x1b\x80r(b\x04\xa20z\x9c\xfe4\xb8;\x88\xc74\xde\x87i\xeb\xe9J\x9fx{\x1ej)\x86\xe7*\x0fP@\xc57\xcbE|y\xfc\x85\xe9\x9a\x1f\x85\x19\xa7D\x01 \x13\x81\x9eO\xa5z\x87\xec\x8b\xadO\xe1\xdf\xda\x0b\xc2\x9a\xccw&gt;[[\xea\xf6\xea\xee\xcd\xb5v\x16\x00\x83\xfc\xab\xf7c\xe1\xee,\x1e\x1b\x8d\xdb^\xe1w\x0c{\x95\xe6\xbd\xd7\xc1:\xecR\xda\xc4\x82@\xcd"\xf6\x1dq]\xc5\xaa\xdd\xce\xa8\xea\xacA\x1d1W58Y"2\xc5\x00\x0c\xac\xa5\x98\x8f\xe7PY\x85\xb3\x94\xce\xdf}\xbe\xf0~\x82\xb7\xb4+\xbb[\xf9\xfe\xc7e*\xb4\xb9\x02D\r\x9c\x03\xed[\xf2Z\x9b{\xc9.#\\\x8d\x80"\x91\xd5\xbb~\xb5\x16\xado\xf6\xd8\xde\x01\xe5\x87 \x1d\xa4\xe0\x13\xe8k\x12\xd3N\xba\x8b\xcb\xba\xe3\xcc\x97p\x96&lt;\x13\xb7\x1d1\xe9\xed]&amp;\x91\xa2\xda)\xc0G\x0e\xc9\x96 V\xd4z\x1c\x92@\xb1\xba\x92\xa4\x0f\xba9 \xd6\x9e\x91\xa0\xc3g\x19I\xc0by\x1e\xc3\xd2\xbf\x8b\xe6+\xe7\x85V\x042\xe79\xefJ\x08c\xb5[\x9f\xad5\xddpQX\x07\x03\xd7\xadG\xc8S#\xa98\x19\xce(EY0\xe0\xbe\x0fS\x8e\x94\xe4\x90\x17(\x84|\xbd\xd8\xe34\xb8\xc4|7,\xd8\xa8\xa5\xb6\x908bN\x01\xe7\x02\xa1\x9bq\xdc_\xe5\xc0\xf9}I\xa9 c\xe5\x86\x95O\xe3J\xaa\x1d\xb3\x9c)\xeb[\xdf\x0e\xef.4\x9f\x19\xe9\xba\xbd\xb4\xe4}\x9e\xfe\x19\x08\xf6W\x07\xfaW\xef?\x815V\xd4|\x1da=\x95\xde\x0f\xd8\x11\xf7\xb3r\x0b"\xe0\xfd+\xe8\x1f\xd9\xf2\xd2\xeeM-5=ZR\xdeP+\x1a\xba\xe3v{\xd7\xb6iV\xc6{B\xc9\x10\x1f)\xc7\x14\xb2G\x17\x97,N\xc0\x92@\xc5W}6\xe6kO-e\x05\x9c\xe4\xb0\\\xe3\x15?\x81&lt;\x11i\xa5\xf8\x8eo\x16Y\x99C\xdf\xae\x1a\'l\xe3o^;f\xbb\xab7\xb7\xb6/x\x17\xe5\xc1\x0c\x8c3\xcf\xb5R\xbfXg\x90\xea\x16\xf1\x10I\xda#\xc79=8\xac\xe7\x82\xeb\xfbA\x00\x01Q\xb9\xcf\xa9\xf4\xae\xafJ\xb7O2\x19\x10\x8e\x803\x0ekFwf\x98\xf9k\xbc,h\x06\x0e2Ct\xab\xd6\x93\xac0\x89%\x94E\xbb\xa6\xee\xf5\xfcY\xb7\x9aC6\xf0\x15~\xef\xcb\x8c\xe7\xd2\x90\xa2\xc4\x16A\xd7&lt;\x8ad\xc25V\x98G\x96 \xe0z\xd3v\x072\x15@6cn_\xf3\xa0`)\x0c\x0f\xfc\x07\xa5+\x08\xc1\x04/\xf0\xf5\xa8\x9d\x87\x96\x1dH\xe1\xfa\xe7\xde\xa3i&amp;e#\'\x19\xe7\x1e\x94\xf8B\x91\x86\xc1\x1e\xadRE\x0b\xcd \x11.v\x9c\x81RCiw(o5Q\x147$\xf1\xc5[\xd3\x12H\xf5\x08\xbc\x86\xe3p\xe5\x7f\x8b\x9e\xd5\xfb\xc5\xfb1[I\xa9x\x0bF\xb8b$2i\x96\xcaT\xf2G\xc8+\xec?\x86\xdaDv\x1aT(p\xc3\xcb\xc8U^\xfe\x95\xde\xda-\xf4\x81\r\xaa\x80\x00\xe5E_\x82\xd2$\xbbR\xe5\x0epN9\xc1\xa4\x9a8\x1fV\xf2b\x00\xacd3\xf3\x8d\xbfQV\xec\xa1x\xae"0\xc9\x88\xd1\xb9\xc1\xea3\xcdo\xack%\xaa\xa5\xa9\x05I\xdcI=j=@\xb46\xeec\x88gp \x81P\xb5\x9a\x9bEv\xc9ea\x8cu\xe6\xb5t\xd9~\xcd\xa5F\xf00b\t\xc8\'\x91N\x82\xf6\xd68\x1a\xf2\xf2\xe4(\'!\x8b`\x0f\xa9\xf4\xac\xfb\x9f\x8b:K\xdb\xf9Zq&gt;b\xca\xcb\xb0\xa6\xee\x17\x83\xfa\xd7\xf1\xbf\x90r\x1c\x8d\xb8\xe3\x14\xa8\xc1\x14\x94\xc1\xff\x00z\xa3\x92II\xc1\xdb\x86\xe0{S[\x04l\xc6\x0fs\xebL\xdc\xea\xdb\x02\x9e\xb8\xe9Dsb\\8\xe0\x1e\x01\xefC\xc2\x17#8Rs\x82zS\x02\x92\xc64\x19\xdd\xc6EJ#\x11&amp;\xc22{\xe2\x9d\x14\xefj\xc1\xe2\\\xf23\xedL\x96\xe2[\x81\x86\x93\x04\xb7@j\xe6\x88\xb2\xc9\xacAl\x1b J\x8a1\xdf$f\xbf\xa2_\xd9C\xe1\xf8\xb3\xf0&amp;\x80/\xad\x97?\xd96\xb2\xc4\xd1\x9c\x82\xbb\x14\x9a\xfa\x93\xc2\xd6)\xa7\xc7\x1a\x98\xcf*6\x8d\xbc\xd7g\xa7\xa7\xee\xd5\xa38\'\xb1Z|6kw8\x16\xc0\x87\x12\x02\xf9\xe8F{T\xb7\x1aZ}\xa2Ic\xfb\xd2\x91\xb8\x8fj\x9e\x0bK{+D,\xc7p\x07 \xf6\xad=:)\x1eveB#\x10\x91\x1a\xe3\xef\x12:\x8fZY\xc2\xf9b\xdeLn.\x06\t\xe6\x9a\xdb`G\xdeHX\xc1$\x81\xd2\xb0u\x7f\x1a[X\xab7\xda#\xf3c\xf9\x82\t\x008\x1d\xf1\xeb^a\x0f\xc5Y\xa1\xb9\xbf{\x9b\xcf\xf4\x8b\r=\xe7\x96\xdc\xc9\x94\xb8\x87\x93\x81\xeeG\x15\xe0)\xfbOO\xe1\xdb\x81\xa6Mr\x97+km\x0b"\xa3\x12\xd9\x9d\x04\xacI\x1dp\xd9_\xaa\x91\xda\xbf\x9c\x99\x193\x80\xbc\xfd*&gt;\xa3\xe5l\x1f_Jpl\x00\x19\xf3\xff\x00\x01\xa8\xe4\xe6E#\xb7Z\x1c\x12~^\xfd)\xa4\xc8\x8aK 8\x1dE&amp;\xe3(\x01\xb8\xc9\xefCb\x01\xb9ON\x94\xf8\xdc\x15\xf3\x1c\xe3=I\xa4\x90\xec`\x00\xce{z\xd3&lt;\xf4\xc1*\xab\xc7\\v\xad\xcf\x04\xe8\xb2\xea^ \xb1\x85J\x83%\xe4HC\xf4\x19p9\xaf\xe9\x7f\xe0\x8e\x8f\'\x87|\x01\xe1\xbd5l#\r\x16\x85j\x92\x14\x04`\xf9k\x90A\xe7\xf0\xaf[\xd2\xf5(\xd5VI$\x87\xe5Lm\x1dEu\x9a&gt;\xb3cs\x1a\xa4\xc5\x91q\x82\xfe\xd5\xa9\x06\xa0\xac\xe2e\x91~S\x85\xda8#\xde\x9f\r\xcd\xbc\xd7~Q\x9d0NI\xdc*\xfe\x9dj\xd2M h\xfe\xea\x12\x82A\x8d\xdc{\xd3\xe2\x9dl\'\x86\xca\x07\xdd\xb8\xe5\xdb\xfb\xa7\xd2\xa47*\xf28\n\xa7\xe5\xe4\xf7\x03\xd6\xb0\xbe#jph:,\xd7p\xce\xc0\x95\xc9#\x9cq\xe9_*\xfcW\xf8\xa7\xaeh\xbe.\x8dDJ"\x99K\xdb\xdfBK\x02G&lt;\x81\xc7\x15\xc6\xeb\xff\x00\x13?\xb1/ \xd7"\xb3\x92&amp;\x96\xd1\x8d\xec%\xb3\xe7\xc6\xdcq\xf4\xeb\x8a\xf1-z\xde\xfaMkQ\xbe\xd0\xef\xe3\xfb%\xec\xb1K\x07\x9aF\xe4Q\xe6\x80\xbfNs\xf8\xd7\xe1\xf4\xbc3g\xde\x98\x98\\\x97\x07\x18\xc9\x00v\xa4f\x91\x9c3\x0c&amp;~\\u\xfciprx\xa5 \x8021\xcd\x0c\xca\xbf{\xd3\xa7\xad \xd9\xe6\x9f1HV\\g\x1d)\xbb8eQ\x95\np[\xbd6`&lt;\xb5\x04\xed\x04\xf44\x97\x0e\x0c"Rz\x1cqD0\x88\x95\xb6.\xe5e%\xb3^\xd3\xfb\x07|5O\x8a\xdf\xb4\xb7\x85\xfc!uf\xd2B\xfa\xacS\xdc\x81\x93\x84Y\x14\x90\x7f\x0c\xd7\xf4\x1d\x1f\x8c\xf4m\x13O\x8eF\xd6c\x81\x160\x8b\x1a\xb8\xc8\x00*\xff\x00![\x16\xff\x00\x13\xb4m&gt;\xc5/n5R\xf1\x1ca\x94g\xf3\xa9\xbf\xe1\x7fE\xa4j0\xd9\xc9|\x1c\xdd\xc4M\x98\xc0\xdb \xf6\xf5?J\xec|\x1b\xf1\xa3H\xd4\xd7\xcf\x13(q\x81$L\xe3 \x13\x8c\xe2\xbaG\xf1e\xbd\xb3\x8b\xc5\x98\x80\xcc8#\x1c\x9e\x95\xd1\xe9^(\x92\xfe5D\x94\x06\\op~\xe8\xf4\xad\x15\x9aXc\x12\t\xf2Y\xbe]\xc3\x93\xf4\xa8\xe4\xbc\xff\x00D+tv\xb3B\x02\xed&lt;\xe7=\ry\x0f\xc6/\x1e\xcbk\x1d\xc2i\x9a\xe4kr\xa3o\x913\x8d\xac=9\xef_&gt;I\xe3\xc6\xb0\xd6m\xb4\xcf\x13i\x02\xe7I\x9eS\xf6\x84e\xfd\xe5\x84\x8cx\xc1\xee\x8d\xdc\xf4\x02\xafx\xfbN\xf0\xae\xab\xa6-\xa6\x85q\x19\x8dWu\xb9\xc8\'\xcb\xfe4c\xd8\x91\x90+\xe7\x8d[J\x97\xc1w\xd2\xa7\xcd;\xef1\xb4l\xd9\xda9 \x8fj\xfcG\xb8\x98)\xd9\xe5\x93\x9e\xe0Rp\\zm\xe4\xd2\x06\x0cvdq\xd2\x94\xa9\xce\x1b\x8fsQ\x94\x90?\xcf\xf7GN:\xd14\xc8\xcf\xb4\'\xf0\xe2\x87\n\xd8\x01G+\x8f\xbdJ\xec\xa8\xc1s\x91\x8e@\xa8\xee7 \x0c\x06W\xb0n\xb4\x9b&lt;\xf8\x01\x19\x008\xcd9V06\x02\xc7&lt;b\xbe\x8d\xff\x00\x82z\xf8\xd6O\x86\x9f\x12\x17\xc7\x91E\xbaH\x19\xe2A\xb3\'\x91\xd3=\xab\xef?\x1c\xfe\xd4\x8d\xa8\xf8r\xd2{\xcb\xa7Gp\x1c}\x9a|\x9c~\x15I\xff\x00k\x83\x0e\x94\xba\\\x1e,YZx\x1b\xfd\x15\x8e\xe9\x07\x1e\xc7\x83\xefW\xbc\t\xfbQ\xea\x1e)\xd1\x9bG\xbb\xd6\x02_\xe9\xcef\xd3\xdaIG*\xbc\x94\xfcq\x8a\xf5o\x0b\xfe\xd5\xd6\x9e!\xb1[\xdd\x13T\x8a+\x9d\x86)\xed\x1c\xec \x91\xb4c=H&lt;\xd7\xb0\xfc7\xfd\xa9\xed\xf58-\xe1\xd6\xa5\x0e\x8d\x84\x9d\x84\x80\xec#\xb9\xafx\xf8w\xf16\xd7Pq\xf6K\xc8\xdaD\\2\xe3\xefg\xa7\xe3^\xa9a\xaa\xb6\xa3o\x0c\xb1\xbe\x1dp_=*Mf\xe0\xcc\x8f\x03NPyg\xf7\x9bq\xce?\x9dx\x97\xc5\xaf\x86:\xca\xcf\xfd\xa1qt\xedm3\x8c\xc8\x10\xf1\x93\xeb\\\x86\xa9\xf0\xf3PM2}Ji-\xda8\xe2)::\x0f\xde!\x18\xc8&gt;\xb8\xaf\x9a\xbfi\x1f\xda\xff\x00\xe1o\xc0+\xb1\xa2[\\\xbd\xf6\xbc\xeb\xe5\xc5\xa3\xe9\xcb\xe6\xc8s\xc0\xca\xaeJ\xe4\xe0d\x8a\xf93\xc6\xfe/\xfd\xad&gt;=\xdd\rz\xdeh\xfc\x19\xa7\t\x19\xad\xe0\x99\xb7K9=\x0bzq\xda\xbf9\xa6\x8dB\x93\x91Q\xc4\x01\xf9I\xc6F)\x1c\xa4O\xb5Ss\x0fAB\xbb\xc8x\x1c\xfa\x1a\x1c\x80s\x11\xcb\x0f\xbc\x0fAQ\xca\xe5\x06\xff\x00\x91\x89\xf7\xa4)\xe6(iI\\\x11\x92;S\xca\xaa\x8cF:\x0c\x9c\xf5"\x8c\x07\xc6\xee\x7f\xd9\xefM\x99QJ\xc5\x1c\x8a\x01\xe4\xf3M\n\\\x98\xf0W\x03\x96=\xeb\xd2\xbe\x05\xf8\x93\xfb\x1e[kx\x8b\xae\xeb\xf0\xd3\xe0s\x8c\x8f\xe7^\xaf\xf13\xc6^&amp;\xba\xd2\xfc\xff\x00\xb6H\x96\xe6\x14\x07\xca&lt;\x02\x0f\x00\x1f\xe7\\\xaf\x84&gt;"\xc9e\xafC\xabx\x9e\xfe{\x94g_&gt;\xde\x17\xc1UR&gt;\xe9\xfaw\xae\xeb\\\xf8\xb1tn"\xd5|=\x7f%\xb4\x89\x11H\xe4r\t\x08G\xdd`?\x9dA\xe1/\x89\x1e \xd2\xb5#\xa8[\xdeI\xe6I .\xa1\xcf\xef\x0f\\{}k\xd8\xfe\x1c\xfe\xd6:\x96\x98\xe2\xd3_P\xc9\xd1\'Y\xb0\x7f\xdd#\xfa\xd7\xda?\xb1\xaf\xedYe\xe2]th\xaf\xa9\xac\x92K(6\xe8d\x04\x02\x07\x1c\xf7\xe6\xbe\xf6\xf8e\xaa\xff\x00hi\xc5\x85\xc3\x1c\x80\xd2n?u\xbd+\xd3\xedlm\xf5;B\xc9n\xac\x85\x02\x92G\x7fZ\xc0\xf1\x84\x1a\x17\x86t\x1b\xbb\xcf\x1aj\x96\xd6\xbadp\xbc\x97s\xdf`E\x12*\x92I\'\x18\xe0\x13_\x9c\xff\x00\x18?j/\x8e\xff\x00\xb6w\x89/\xfe\x11~\xc5q\xc9a\xe0\x9bi\xa4\x83Q\xf8\x8dq\x16\xd5|\x12\xae\x96\xd9\x18|\x0c\xe1\x81&lt;\xd7#\xe1\xef\xd9#\xe0\xc7\xc0X\xe4[\xc9\xc6\xb5\xe2i\xc1{\xddcUc5\xc4\x92\x1f\xbc\xc3=0y\x00TZ\xd7\x81\xd7Z\xdal!\x0b\x1a\x1f\xbc\x91\xf5\xfc;W\xe2\x8c\xa7l`\xe38l\xe3\xf1\xa6\x9b\x83\xd3\xc9\x03=8\xa6H\xa4K\xb9z\xb2\xe34+\x05\x18\xce\x08=\xfb\xd2c\x04\xb0\xee9\xa0D\x0b\x05f\xeb\xd6\x983"le#ss\x9fjW\xdc#\x0eT\xe4p\x06)X\xecp\xe0\xf3\x8ej\'\xc6L\x8e1\xdcf\x89d$\xe4\x1c\r\xbdMt&gt;\t\xd5_O\xb9wl\x8eT\xaex\xcf\xd2\xbe\xca\xf8)\xe0\xcf\tx\xff\x00\xe1\xdd\x9d\x94\xb6\x89,\x92g\xcc\xf3\x9cn\x12\x01\x9d\xa4~\xbfJ\xc3\xf1\xc7\xec\xcc\xd7\xde4\x87\xc3\xfe\x1a\xb4Y\xef\xefp\xc9\x12.\x12\x04\x07\x92q^\x99\xe1\x0f\xf8%\x0f\xc7\xef\x1e\x80\xf2\xeav\xd6P\x1d\xaa\xaa\xc3\x198\xe9]T?\xf0D\x1f\x8f\x17\xf1y\xfaO\x8c-\x8b\x89\x9b\x80\xa7\x04c\xb56\xd7\xfe\x08g\xfb_\xdc\xc3=\xd7\x87\xb5\xbb9\xc413\x08v\xb1w^\xe4\x0fL\xf1\x9a\xe2\xbf\xe1\x9d\xbfl\x8f\xd8\xdf\xe2e\xa7\x89u\xbf\x04M46\x17J\xd2\xbd\xb8s\x1c\xa9\xf7\xb6\x92\x06\x01e\x07\x15\xfb\x1f\xfb.|C\xd3&lt;g\xf0\xebB\xf1}\xbe\xa3\x1cq_XD\xeb\xe76\xdd\x84cz\x9f^r3L\xfd\xa4\x7f\xe0\xab\xff\x00\xb1w\xec\x95\xa4\\\xa7\xc4/\x8a\xb6W\xfa\xa4 \xacz\x16\x92\xe6y\xe5l}\xcd\xa9\x92\xb9&lt;d\x8c\x0c\xd7\xe4\x1f\xed\xa9\xff\x00\x05\x8b\xf8\xd1\xff\x00\x05\x02\xf8\x9f\xa3|\'\xb4\xf3\xbc%\xf0\xf6\xf3[\x8a9\xb4\xcb9\xca\\_FeU\rq \xfb\xc0\x83\xd0t\xef_C\x1f\xda\x0f\xe2?\xc3\x9f\x81\xb6\xfe\x13\xf8[\xe1\xabM\x03A\xd2\xa1kX\xae\xee\x10!m\xa0\xefn\xc7$\xe4d\xf7\xaf\x17\xf8a\xe2\xbf\xda\x0b\xe2\xd7\x8f\xe5\xf1`\xbc\x92\xfe\xde)Ls\xc8\xa5\x9d";\x80\xf9\x88\xe0s_Z\xe8?\x0b~-I\xe1\x8b}N}B\xd6\xddea\xb5D\'\'\x8a\xfc\x1a\x96(\xd9~F9\xa4tTU\x0f\xc9\'\x8ez\xd4n\xbbX\x13\x1e9\xf5\xa5hC|\xe7&lt;s\xd2\x90\xf2\xa7\x1e\x94\xa5X\x9c\x80O\xc9L\xe1\x80\x00\xe7\x1dq\xda\x9b)\x8c\xb2\xedc\xf7\x85\x0f\x86m\xb9\xebM\xe8|\xa9\x86=\t\xa7\xc7g,\xf2}\x99"r\xdd\x82\xaeO\xe5]\xd7\x84~\x00x\xbfX\x82+\xeb\xc5\xb4\xd3\xe2\x92\x16\x93\xed\x17\xd7"&lt;\xa8\x19\xe46+\xd8&gt;\x04\xfcB\xd4~\x18\xeb\x10\xe9\xd1E&amp;\xb7r\xc3)e`\x0e\xd2Le\t\x18\xeb^\xaf\xe0\xbf\x8b\x1f\x1c\xf4mr\xff\x00\xe2&amp;\x97\xe1]\x1bBK\xb2B]k\xd3\x03\xb7g;Sv3\x9cr\x05k\xea\xdf\xb7\x8f\xedqwp\xf7w\x9f\x1dt\xdd\x16\xc9\x90\x0f\xf8\x97\xd8\xfc\xa1\x8f\xcb\xc1 \x8c\xfbW\xb2|\x01\xf1\xd7\xc5\xcf\x8ami\xa5^\xff\x00\xc1D&lt;Mj\xb76\xc6h\xa1\xd3\xb4t\xcb\x03\xc6T\xf9_2\xe7\xb8\xe2\xbe\x8a\x9f\xf6h\xf8\xb5\xe2\r\x0e\x0b\x8f\x87?\xf0T\xaf\x14Iy\x1aI\x1a\xc7$0\xae\xdf\x98\x10H\x08\t\x1b\xbf&gt;\x95\xf0\xf7\xfc\x14\'\xe2o\xfc\x14\xc7\xf6o\xf1\x15\x87\x87&gt;6\xfcy\xb9\xf1\x06\x8b\xa8\xa9\x8bH\xd4\x92\x08\xde+\x81\x1cd`\xed\x1f{a\xdd\x8e\xb8\xe6\xbc/\xe0f\xaf\xfbp\xfe\xd4\xfe(\xb4\xf8\t\xf0\x93\xe2\x17\x89oZt(l\xac\xefLp\xc2\x85\xb9-\xb7\xa0\xe7\xa7z\xfb;\xc0\x1f\xf0l\xbf\xed\t\xe2\xdd\'\xfb\x7f\xe2W\xc6\xbb=2\xfe\xe0,\x92\x8f!\xa7\x90\xe7\xa8b\xc4\xe7\xf0\xe6\xbcs\xf6\xaf\xff\x00\x82\x1b\xfe\xd7\xdf\xb1\xfe\x9e\xff\x00\x13m\xa0\x8b\xc5z6\x950\x9a\xee\xebFbe\x89W\xe6\x0ec\x19!@\x19?J\xfa7\\\xf8s\xe1o\xda\x7f\xf6\x08\xd0\xfe\'h\xda\xcc\xc2\xe5\xb5\xcd.=R\xc6\x1c\x85\xb6\xcb4Z\x86\xfcv\xe6\'Pz\xed\x7fC]\xe5\x97\xc0\xcd\x7f\xf6C\xd3\xf4Ko\x84VZu\xd4z\x9d\xf2\xc9s-\xfba`\x88\xed\x89\xd5\x83}\xe52:\xe5\xbf\x875\xf4g\xc1O\x8a&gt;\x1a\xd7-\xef&lt;-\xe2\xe2\x9a.\xa9\xa7\x15k\xab(\xd0\x18\xc9?\xc4\x0bz\xd7\xf3P\x91F\xab\xbbq\xf6&amp;\xa2\x93\xf7\xce\x17\xd0\xfc\xb4Lp6\x9e[\x1cc\xb55ZA\xf7\x9b\xea(\x1f9\xf9F}G\xad\x00\r\xf9T\x03\x1dF\xeag\t&amp;W\x9d\xc7\x04\x8a\x18*HX\x9e\x9c\xd3$\x8d\x81\x07\x04\xf9\x9c*\x8e\xb5\xbf\xe0\xcf\x87^)\xf1\xbe\xa6\x9av\x83\xa1\\]\xcaQXE\x04l\xcd\xb4\xf4n\x07\x03\xdf\xa5z\x14_\x0e\xe5\xf8qn\xd7\xb7~U\xb32\xeep\x13/\x91\xd7$\xf0G\xae+\x17\xc4z\xe8:r&gt;\xd9\x18\x89J\xb4\xb23d\x1e\xbbq\xdb\x8aw\x81\xfcY\xafxK_\xb5\xd5\xa3\x99\xa3\x11:\x95\x91\x06X\x0c\xf4\x1e\xf5\xeb\x9e&gt;\xf1m\xd7\x88\xf4\xfb\x11-\xec\xf7\x16\x85\x89\x8d%\x97\x1b\x99\x863\xc7\xbdy~\xb16\xbd\x7f\xa9\xcf1\x92y\x8cN\x160\x84\xed\x00\x7f\x0f\xd7\xde\xbe\xfc\xfd\x82\xff\x00\xe0\xa0\xde0\x83Z\xf8!\xf0Z\xfb\xe1\xb7\x86\xa0\xb6\xf0\x04s\xf8r\xdbV\x8bO\xcd\xc6\xa1c\x7fx\x92\xb9\xb8\x05\xf6\xac\x89\x92\xab\xb3q+\xd6\xbft\xfcK\xfb\x15\xfc\x02\xf8\x8d\xa2E6\xa7\xe0\x1bX\x1e\xe2\xc7\xcb3\xda\xabD\xea\xcf\x83\xb8m\xee3\x9a\xfc\xe1\xff\x00\x82\xed\x7f\xc1;\xed\xfe\x1e~\xc6\x1a\xf7\x8a4?\x11\xdfj\xb6z\x0c\xf6\xf7\xf6\x90\xde\x9d\xd2Y\x15\x93k\xec=@(@\'\xa7\xca}+\xc3\xff\x00\xe0\xd8\r\x0fO\xd5\xae\xfe#x\x92\xefO\x89\xefm\xaf4\xf8\xe2\x9aDVdV\x88\xb3*\x9f\xc3\x9fJ\xfd\x98\xd3\xa1\xbckr\xa4n\xc3eJ.p=&gt;\xb5\x97\xe2\xdb\x1d+R\xd3\'\xd3/"\x8d\xa2\x9d\x18\\\x0b\x98|\xc5\x93#\x1c\xa9\xea\x07q_\x9d/\xf0\xcf\xc2\x7f\xb1\'\xed=\xa9\xf8/\xc4Z{\xc1\xf0w\xe2\xd2\xfd\x96\xe4\x90Z-\x13Tw\xda\x93)\xfb\xaa\x8e\xcc=+\xeao\xdb+\xe0\xee\x9d\xf1\x0b\xe15\xc5\xff\x00\x85\xad`\xd3u{M&gt;=\xb6\x96\xa443\xcf\xf6eY\xa1\xc8\xe9\x1c\xc0)\r\xeb\x929\x15\xf9\xe9\x17\xc3\xcf\xda\x96\xe7\xc5\xa7S\xf8\x82\x93G=\xa5\x89\xb3\xb7\x8a\x1d\xca\xac\x81\xd4\x868\xe4\x9d\xaa\xa0\x13\xea\xd5\xf8\xd8\xea\xce\xa1\x00\xc0\x1d\x8d6E\xd8\x03\x8f\xe19\xa4e\xce$\xeez\xd4r\xe7\x04\x8f^\xd4\xa5G\x95\xd4\xe5\xb88\xebL\x1b\x06\x03\x92@?)\x1e\xbe\xf4.v\xf09\xddI\xb49!\xce\xd2x\x1b\xb8\xadM:\xca\xda\x03\x14\xeer\x122e%wm\x18\xe7\x03\xb9\xf6\xaf\xd9o\xd9+\xe1G\xec\xe1\xfb&lt;~\xcf\x1e\x18\xf0\xf3xr\t|K\xe2\xbd-o5\x8dmbY63[\xa11)?uB\xb9\xfa\x11_\x1f\xfe\xd5\x9f\xb2\xef\xc5\xf8&lt;;\xa9\xfclO\x0ey&gt;\x0f\x8f[\x92\xde\xd6\xf9\x9c\xc7\x94feW\xce8R\xca\xca\x18wR\x07"\xa0\xfd\xaa?c\x0f\xd9\x8f\xe0?\xec\xdf\xf0o\xe2\x87\x81\x7fj\xfd\x1f\xc5\xba\xe7\x8dt\x89g\xf1^\x87c4&amp;m\x12\xecyx\x8c\xacld@K\x15"P7`\x8a\xf1\xf7\xf8}\xa3\xeb\x9a^\x9f\xaf\xf8K}\xdb]N-\\\xcb\x1e\xd8\xd2V\xe12z\x0fZp\xf0\xc7\x88&gt;\xc6\xf6Z\xb1[y\xa2\x93\xfd\x1e,\xf6^\xb8\xf6\xab\xda\x1f\x82\xb5=s@&gt;-\xf0\xf6\x8e\xd7%n\xa4\x86\xe6\x14R[v\xd3\xce\xd1\xf9\xd7\xd1\x1f\xf0Mo\xd9\xcf\xe2_\xc4?\xda#A\xd5\xa0\xf0t\x91Xh\xfa\x8c\x177\x92\xddB\xc8\xad\xb3\r\xc1#\x19\xe3\xf3\xaf\xe8\x02\xfb\xf6\xb7\xf0/\x82t\x884\x9f\x128[\xc5\xb6]\xb0\xc1(f\xdc0:\x03\x9e\xd5\xf1\xcf\xfc\x14k\xf6\xa1\x9b\xf6\x8b\xf8+\xe3/\x84\x1e\x1f\xf0\x90]\'S\xd2n`\x92\xfa\xe1\xfebB\x9c\x10\x0f\xe7^=\xff\x00\x06\xd7|\x1a\xbc\xf0O\xec\xb3\xe2/\x89\xda\xcd\xac\xd1I\xe2_\x13\xca\x96\xac\xcb\x8d\xd1\xdb\x85@G\xa8$\xb8\xc8\xfe\xe9\xf4\xaf\xd4-%\xa6tK[\x007\x1c\x1f\x9b\xd6\xb9\xdf\x16iz\x84:\x93[\xdc&lt;as\xd5\x1f\xd7\xady?\xc7/\x80\x1e\x10\xfd\xa0&gt;\x1b\xdf|&lt;\xf1\xd6\x9d\x14\x96\xf7\x90\x9d\xd3g\x0f\x0b\x8c\xed(z\x83\xdf"\xb8\x8f\xd8\xd3\xc6\x9a\xdd\x94z\x87\xeco\xfbI\xea\xedo\xe2\x8f\x0c\xdb\x08\xbc7\xab^\xc8\x04:\xe6\x9e\x1b1\xb2\xb3c2\xa0\xc0\xef\xd2\x8f\x1a\xf8+W\xd4\xfcWw\x0e\x88bi\xed\xdc\xa5\xd4\x8cT\xa1\xfe\xee\x0f\xd2\xbf\x986\x94\x97\x03\xde\x9d"\x92\x84\x11\xd4T|\xc4N\xf1\x90P\x81\xedL \xe3\xd3\xd0\xd3\n\xca\xa3p|\xe3\xb0\xefJ\xaa\x08\xdax\xe3?\x8d\t\xdcg\x14\x91\x10\xd2\x10\xe38\xe9\xeek\xa4\xd1\xed\x955\x18\xa1`\x1df@\xbc\x9e2{\x1a\xfd\xa3\xfd\x965o\n\xdd~\xc2\xbe\x0b\xf8\xa7\xa8\xda\x0b\x88,\xecaMV\xe0\xc7\xe64\x029&gt;\xcb.}1\xf2\x92&gt;\x95\xc0~\xdb\xde/\xf8\xa9\xf0_\xe1_\x8a\xbffMv\xda\xfa\x7f\n\xeb\xd2\xdb\xbd\x87\x90\x8aR\x15\x8ec0\x8d\xf22\xdf\xbeb\xc8\xeb\xc1\x04\x8a\xfc\xdb\xf1\xc7\x86u\x08|1\xf6\xbbH\xc1k,\x1d\xc7v\xe6Pp\xf8\xcf\x07\'\x9e=+K\xe1\x7f\x88M\xaf\x85g\xb2\xbd\xf1\n\xac\x11\\\x1b\x98-\xa3 \xbc\x9b8\x04\x0e\xbc\xfa\xd6\x17\x89|o\xa8\xc5\xaf-\xe6\x97,\xdec\xca\xaf\x00\x94\x9f\x93\x07\xa1\xcf\xad}\x8f\xfb\x1e\xeb?\x0f|-\xa4C\xabx\x82\x17H5\x9f"\xf1I\xda\xc0J\xa3k\xaf=9\xe0\xfdk\xe9\x9f\x86\x1f\xb6\xed\xbbOy\xa0\xf8W\xc1_\xd9\xedk\x94K\xb8\xe3X\xfc\xc5\xf5\xe9\xcdk\xc9\xf1o\xc5\x9a\xa6\xa0uMFY\xa4I&gt;ey$;\x87\xb0\xac\xab\xbf\x19j\x9a\x85\xea\xdb\\\xb1"\xe3(Q\x9f\xe5\xc3q\xcf\xe7_|\x7f\xc1;\xbc\x07\xa0\xfc?\xfd\x8d|\x17\xe1]\'MX#\xb4\x82\xe8\x05\x0b\x86\x92F\x96Wi\x0f\xb7&lt;\x1fq_D\xf8B\xf0\xdaHJ\x85A\xb7\xef\x11\x9cU\x1f\x13\x18\xafn\xdaiO\x98\x01\xfb\xdbp+\x94\xfe\xcf\x90\\4\xc9(\x0b\xbf \xe38\xae\x17\xe3\xef\xec\xe9\xe1\x0f\x8e\xde\x12]\'Q2i\x9a\xbd\xa1o\xec\xddv\xc9\x8a\xcflH\xfb\xb9\x1c\xba\x93\xf9W\xc2\xbf\x11\xbfe\x0f\xf8)\xd7\xc2\xbf\x10\xcbe\xf0\xe3\xe2\x8a\xf8\x87L\x95\xcf\xd9\xeeer\x8e\x17\xb09\xeb\x8fZ\xfc*\x8d\xe3W;\x93&amp;\x9b\xe6\x1f7\x9eA\xe8(\x91w|\xbe\xa3\x14\xd7Q\x12\x05&lt;\xd3\x17\xa8\xfa\xd3[\xef\xb7\xd2\x9bJ\xbc0&gt;\xf5\xb1\xa6\xddb\xc8]e\xb7#\x8cs_\xb2\x9f\xf0o?\x88\x87\xc7/\xd9\xf7\xe2?\xec\xd1\xe2\xdbU\xb8\xb7\xb4\xcd\xe5\x9c\xb3\xa8d\x8d.\xa0x%\x8f\xd7\xef\xa4r\x0fpk\xd2~+\xfc\x14_\xdaw\xf6a\xf1\x87\x87u[\xe4\xd3\xf5\xbf\n\xab}\x93R\x88\x96W\x10\x02\xa5I#8r\xa7&gt;\x99\xaf\xca\xcdoC\x17v\xcf\xa7]&gt;\xecH\xd9]\xdf(\x1b\xb6zz\xf3^Iqz\xda\x0f\x8c\x8d\xbd\xba\x0f"9\x08\xf2\xc7\xf7\x1b\x8d\xbf\x9d7[\x18\xbbK\xb2\x01/ *=9\xaf\xaa\xff\x00e\xeb\x8bO\x10\xfc\x14i\x1e\x02\'\xd2u_*7n\x85J\xf9\x87\xf5\x15\xf4\xb7\xc1\xcd\x03A\xfe\xcf\x91\xae,\xf7\x16\xda\xfb\x82\x8c\xe7\xfc+\xa4\xf1&amp;\xb5f\xb61\xc1mh\xc9\xb3r\xe6\xa3\xf0\xfe\x8d\x1b[\xbe\xb1;\x961!\x91\x17=\x08\xe4W\xea\'\xec\xbdc\x06\x99\xf0O\xc3\xd6P\xa0\xc4zj\xb8\xfa\xb7Z\xf5\x9f\x07\xe9\xe8\xd7-&amp;\xec\xee\xecz\n\xcf\xf1R\xfd\x92y\x16E\x0e\t8\xed\x8a\xe7~\xc4\xc6\xdeI\x84\x98\x0c\x0e\x05G\x01Pf\x8al\x9c\x01\xc8\xaa\x1a\xe4\x8f\x08\x8a(\'p\x14\x1e\xa0\x1e\xb5\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00\x1e\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfcJ\xf1\xcd\xf7\x89|U\xe3\xb9&lt;&lt;\x81\x9eV\xbc\xf2`\x8c\xaeF\xd2z\xd7\xd7?\xb3\x17\xec\x8d\xe0\r\x16\xce\xdb\xc4\xde*\x81\xafo\xe1PZ\xdev\xdc\x8aO\xfb\'\x8a\xfa\x7fB\xb1\xb2\xb4\xb1E\x1bR\x15\x1bcU\xfe\x11\xe9\xf4\xe9Rk:t^\\R@\xca\xccx\xdeFN;\x0c\xfaW\xe7\xe6\xb9\xf0\xf6\xef\xc2\xbf\x1c\xed\xf5;\xfd)\xa2U\xbf\x01\x98\xf0\x08\xcf_\xf3\xeb_]\xfc\x12\xbd\xb4\xb9\x9a\xe2\xeaY\x91\x0f "\x11\xf3\x008&amp;\xbd&gt;\xc9\x05\xf6\x9d\xb6_(D\x14\x91\xbf\x19\'\xdb\x15V\xea\xfe\xda\x10\xa9q\x01b\x00\x08\xa8\xc7\x81\xdf?\xa5x_\xed7\xf0\x8bT\xd5\xeeO\x8a\xf4\xabQ"\xa4\x9b\x9e(\x1b,\xb9\xc69\xef\xd0\xd7\x07\xf0\xeb\xc5\xfa\x8f\x86\xf5\x96\x96\xe4J\xaa\xc0Fa\x9b\xb1\xaf\xa2&gt;\x19x\xefK\xbf\xb4\x86[\xb6\x19\x89\x87\x9c\x15\xf0\x98\xfat=*\xdf\x89&lt;A\xe6jowkp\x1e\x17c\xb4+}\xde\x98\x1fN\xb5oI\xb9\xd25\xbd\x065\xd5\xac\xcc\x81\x97!DK\xfc\xcf"\xb8\xef\x15\xfe\xce\xbe\x14\xbd_\xf8H-Q`{\xa7f\n\t;q\x8f\xf1\xaa\xfa\'\xc3\xe84\x18\x05\x9cW\x01\x83+\x10\x08\xe0\x11\xedZpX4\x08#v\\\x85\x1ft`W\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\xbe\x00\xbf\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfd\x0e\xf0\xe7\xc0\x0f\x05\xe8\xb3\xb5\x95\x96\x82\xb2"rd0\x85Q\x8e\x9c\xf6\xae\x8fN\xf0\xcd\x86\x95*\xbd\xbd\x92\x04\xe0\xe1T\x11\xb9\xbeV\x19\xf6\x02\xba\x8b\x17\xb7\xb3\xb5\xfbQ\xb1\x11H\xdcd\x8e\x87\xe9\xda\xb0u`\x0e\xab4z\x94l\xa2_\xb8B\xe0\x9a\xceM?V\xbb\x9c\xda+,Vry\x8b\x0b\x17\xf9\x8e\t\xc3\x11\xe8k\x8f\xd0,|Fu\x0b\xaf\x0fk\xdb\xe2\x82\x0b\xad\xd6\xb3H\xc1\xd6F\x1dH\xf4\x06\xa4\xd5\xfc?g&gt;\x97%\xe7\x94\x16N\x04\xa1\x0f\xcc\xa0\xf4\xda:\xd7\x9e\xea\xde\x1f\x92]S\xec\xd7\x8e\xf8\xb4G\xf2#A\x96$\xb7\\zU\xdb\xdf\n\x1b0\xb3\xdaL^O\xb3\x81:\x11\x8es\xc8\x15\xcf\xf8\xf3\xc1v\x97\x8b/\x88R\xe4\x07\xf2\xc8[x\xd4\xb6Tt\xc9\x1d\rxO\xc4}N\xc7K\xf0\x06\xa5\xe2\xad\x1bM\xff\x00\x89\x80s\x04o*\xe4\xa1Q\x93\x91\xea01\xf8W\xc5\xff\x00\x124\xad\x07\xc2\xde7\xd5\xbc1\x16\xac\xd70\xdb\xc2\x9eE\xe4g\xe4y\xa5\xc4\xee\xd9\x1c`\x169\xf4\xacX[V\xf8\x11\xfbL\xe9\xfe$\xd2\xa1\r\x04w\x96\x8ft\xa1\xb3\xbe6d\xca\x81\xfe\xeeN=\x1c\x1e\xf5\x0f\xc4\x9f\x04\x99~"\xe8z\xbd\xecqAguyy\x1d\xfbK \xc2\x88\xe7%\x1c\x0e\xd8VL\xfan\x1e\xb5\xe6\xff\x00\x15\xf5\xdbO\tx\xbat\xd2\x94\x18\xaf\x95\'\x9d\x87(\xcd\xe6\x96\x07\xea\x14\xfe\x15W\xc7\x1a\xd8\x9f\xc4v\xfe\'\xd0mw\xc3\x1d\x8c\xb6\xf1\xc4\xc7\x8c\xca\xf9\\\x8fP\xa4\x01\\\xbcQ=\xe5\xed\xfe\x83\xbc\xc4\x85.!P\xceT\xbceC\x02G|\x10A&gt;\xa0\xd7\xa7\xea~ \xf1\x06\xaa\xfe\x15\xf1\x1c:\xacqGk\xa9\xc5\x033\x96\x08\x934~C\x168\xc0C\xbb$\xf4\xca\x9fJ\xe4_Z\x8fA\xd4\xbcE\xe1\x9dJ\x18\xeeV\xfe\xf0~\xf4\xae\xe6B\x84\x81\xb7\xbe3\xd6\xac\xf8\x0fR\xd2\xef\xaf\xaf4\xaf\x15\xa6\xfb\xeb]2\xf4[\xc4F\x17d\x91\xae\xcd\xa3\xd5[\x9fl\xd5\xeb\x0bS\xe3\xdd\x1a\xf3\xe2V\x83\xa5\x8b\xb5\xb3\x92\xcfL\xb9\x86ta\x91%\xb3\xc0\xae\x07\xf1\x01$=}ksI\x8e/\x0c\xfc/\x96hn\xd0\\$\r=\xa1n\x14\xc8\x92\x0f0/\xae\xe5s\x8cu\x02\xa9\xfcf\xb7\xbe\xf8\x9b\xa1[\xf8\xc6=@Gs\xa7\xf8o\xcf\xdd\x1c\x802\x81\xb5\x83g\xd5\\\x9c\x0e\xc0\x8a\x8f\xc6\x9e#\xb8\xd4&gt;\n\xd8i\xbfd\x1234\x17q\xce\x10\x0f\xdd\xc8\xa4\x9f\xc9\xf2\xa3\xd8W\xf4\xc54/\x13&lt;\xd7\x16\xc1v\xa2\xa9F\xe5H\x1cg\x8e\xd4\xdb\xed\x06-Cm\xc5\x93$L\xbc\x88\xc2\xe0f\xb3o?\xe1$\x84M\x1d\xf3\x86\x8c\x10\x10\xc5\x83\xcdd\xdc\xea\x17v\xd7\x0c\xf7v\xce\xec\xbfq\xdf\x18\xc9\xa2\xe3O\xb8\xdc.\xe7\xb4Nc\x1b\x90\x03\x9c\x11\xfc\xeb\x16\xea\xce\xc7M\x92H\xe1\x05\x8ew@\x1cs\xb4\xf4\xfd+\x97\xf1N\xa2-$\x10JA\xc0$yg!\xbd\x07\x1e\x95\xcaA\xa6Au\xa8.\xad\xe7\xabM\x1cry\xd1\x90r\xc4\xb7\x1cS\xef\xa5HA\x92i0~m\xc7\xb5g\xdb\xe9\x92\xc6-\xcd\xd4\xaca\xb8f\x0b\x13/;\x8f8\xc7\xa5x\xc7\xed7\xa1\xd9xo\xc3\xfed\x16\xb1\xfd\x99n%k\x88\x94r\xd2\xb2zzn\xaf\xcf\x7f\x14\xddZi\xba\xee\xad\xaak\xdaj\x1b\xd8|F\x1e\x18\xa6R\x04\x90y\x0e\xce9\xeb\xf7\x95~\xbcW-\xe3mM\xa6\xd4l\xef\xee\'\x84\xcd}\xa3\xc12\x18\xb2eY\x82\xed\xc1\x07\xbf\xc8?:\xe6l&gt;!x\x9f\xc5:\x85\xb6\x8d\x7fq\x13Mk,\xea\xd2\xaa\x12q*\x10\xcc\xde\x87\xe6\xc9\xff\x00tU\x8f\x88Z\x07\x86\xfcA\xe0Xe\xbcr\xde \xc5\xc2\xeaV\xcc1\xf6UW\x8d\x92U\xfe\xf6\xe5G\xc8\xed\x9a\xd6\xbc\xd24\x84\xf8ei\xe2\x18\xbc?\x1b\x07\xb8\x92\xc6\xf1\xa5m\xabmw"\xee\x85\xb2x\xe1\xa3\xe9\\6\xb7\xa3\xe9\xde\'\xf8\x8d\x17\x88\xb5\x8bR\xb6\xf7\xd0^\x9b\x87\xb5\xe0\xa5\xc2\xc4\xcc\x15Tv.\xd8\xc7\xb8\x15\xbf\xf1\x1bP\xbc\xf0&gt;\x90\xf6\xb6\xb6\xd1\xcf\x06\xb9\xe1\xf4\x12#0Y \x9c*\xca\xae\xb9\xe3\x04\x1e\x83\x9a\xe7\xbc!\xe1\xe4\xd6n4\x8dj\xfbO\x7f3U\xbdX\x1a(\xb2\x15\xb6\xc6\xe4\x1c\x1e[qd&lt;u\xad\x1f\x15k\xda\x16\xb5\xe2I\xbcC\xe1\xed\x1e\xde\x08\x8d\xbe\xc9|\xb8\xcf\xc91X\xb7\x0f\xf7I\xce=En\xfc6\xd6\xe2\xf8g\xe0\xcb\xfd3Y\xd3\xe3\xb8\xb1\xd4\xae&gt;\xd7!\x07h\x89\\\xc6\xe2\x1fa\x91\xbd[\xb1v\x15\x85\xe3\x07\xbe\x7f\x06\xd9\xc3\xa6^G:}\x82}o(\x84\xf9\x85\x14\t\xe28\xfb\xa7r1\xdb\xdbx\xf5\xaa\xde\x11m?J\xf0\xe6\x99\x0b\xea\xf8\x95n\xeflo,\x99\x0bm\x86U%\x0e;\xa9,\x80v\x18\xab\x9e\x08\xf1\xb5\xa6\x9b\xe0\xab(5\xc8_\xec\x96\xcc\xfa|\xd1G\x17\xfa\xa0\x8cd\x892z\x90K\x8f\xf7pk\xfaoK+\xdb\xcbf\xd9*\x8c\xc6\xcaw\x1e8n(Hn\xed\x94\xc8\xf2\x83\x8f\xbd\x83\xc05V\xf5\xee\x92P\xe6e1\xfd\xe6\x18\xe8}+\x07\xc4\x977\x93_\xc1um\x02\xb2!\xfd\xe8\xc7\x0c\xa7\xa1\xfa\xd2_\xdd\xa7\x9f\x14\xf2\xb1`#\x03~q\xb4c\xd3\xbdf\xf8\x8e\xdc}\x94\xcf\x19\xdcX\xff\x00\xac#\x9c{W\x03\xe2}:\xde\xebQ\x82\x08\xa1\x93\xcc(YO85\x8d\n\xfd\x9e\t\r\xc6\xd61\x1f\x9d\x97\xa0\xf6\xcdP\xd2t\xff\x00\xed[\xa9nd\x9c4ox^$\xce@P\x08\xd9\xf5\xcfjdQj\'Pw\xba\x90\t-\xb6\x8d\xa4\xe0)\x0b\x82\x7f:\xf0o\xdaJ\xefQ\x9ad\xd1R\xe8\x1cn\xba`y2 =@\xee9\x1f\x9d|\t\xf1\xb7K\xbf\xf1o\x8c\xb5mA\x15\xc8\x99%\xb8\xb7.8B\xb2\x13\xb4(\xf5B\x00\x1d\xf1\\\x7f\xfc"\xfa\xd7\x83\xdfL\xf1\x84\xb6\x0f|&gt;\xcb\xb9H\x07j\xdcy\x98P\xc8y\xda\x14\x8c\xfb\x9a\xae\x9f\x0f5;\x8bO\x10x\xc7F\x83u\xb4\x82)\x88H\x8a\x98\x8c\xaf\xb7\x1e\xa0g\x81U\xfc"\x96\xb1\xf8\xb6\xde=r%\x8a\xf1\xacu\x15\xbfk\x85?t[3\xc6\x00=X\xf3\x81\xdf\x07\x15k\xe2\x86\xaf\xe1[\xdf\x85\x1a\xb7\x86\xf4\x9dd\xc97\xfc$\x89:,HrmI\x0f\xe6\x95\x1d\x082\x1f\xa0\x06\xaa\xdb\xf8\x1fS\xf0\x9b\xe8\xf6\x1e%\x85\xdaK\xcdRq#\xc2\xd9\xdb\x1f\x93\xb9\x1f\x1d\x81\xca\x9f\xc2\x9b\xf1?S\xbe\xf1\x97\xc1\x19u\xfb\xfbM\xd7\xd6\xf2[\xd8\x01\x0c_\xea\xd3"8\xf3\x8e\x87hP~\xb4xV\xfb\xc4&gt;#\xf8n\x92X\xdb\xf9\'G\x9e\xde\x13 P\xbeT\x843+\x03\xfe\xea\x00j?\x05x/G\x9a\xd6\xebV\xd5\xe5X\xe3\xd6$\xb2h\xdf\xcc\x18\xb5-+!\xdc;cr~U\xb7\xaax{K\xd5\xfe\x1e\xf8\xafL\x84\xdc^\xae\x96\xd6\xc29\x90a\xd8D\xa5\xc9Q\xd4\xa9\x00\x80G\x1f)\xf45\xe5\xf2\xf8\x7f^\xd64T\xf0\xfd\x8d\xfa\\An\xb2I\xa6\xe6`\xac\x16Y"\xf3A=\xc1*\xa7\x1e\x85\xab\xad\xf8\x99\xe1\xe8&lt;=\xe2=+R6\x02+I \x86i\x83\x1d\xa1\xa4X\xd5\x19\xf2{\xefM\xc5{n\x15\xd5\xf8\x97\xc0Z\x7f\x8bt/\x88\xba6\x97\xa6J\xd7v~%\xb0\xd64(\x1a"7Z\xcf\x16\xc6P\xa0d\xf0\xe1\xbe\x9c\xd7\xf4\x85.\xa1\x13D\x8dl\x00Wn\x83\xb9\xa9f\xb8\x8e[gWp\xa1v\xeeP\xbc\xd5\x1dR\xd8\xcaK\xdaNT\x0f\xbc\xac\xb8\xac+\xbbS\x1c\xdb&amp;g\x8d\x81\xde\x18! \x8fJdic{93\xc6\xc4H\x9bs\xb7\xa1\x1f\xca\xb3u+I\xe0\x88B0@?\xc5\\\xef\x89t\xa8\xaeP\\3*\xe3\xe5FC\xca\x91\xd7\xf05\xc4\xf8\x86\'\x86I\xe4\x81\xc8t\x1c\xc4\xab\x90\xeaz\x1f|V&lt;+&gt;\x93n\xf1\xbc\x9bL/\xbdGB\xd9\xe78\xac\xfdk\xc4\xd6\xb7vm-\xbd\xc3n\x97\x89\n\x0c\xe3=\xcdx\xb7\xc6\xbd&gt;]GQ\xb3\xbe\xb5\xb92\x1b\x12w\x05\\\x99\xe1%\x01A\xeax\xce=\xab\xe5\xef\x8a_\x07uI\xb5[\xadKD\xb8\x86)\xa1\x1bv\x83\xb71;\x12\x8cs\xff\x00|\xe7\xd7\x8a\xf0}x\xcf/\x88\xd6\xdbR\x8et\x8a\x15\x17\xf2\xa3\xb1\n#\xdeU\xc1\xec&gt;e\x19\xae\xc7A\x97S\xd1~&amp;|P\xf8Qn\xec,\x1f\xc2~i\xb7\xb9\xc6\xd8\xbe\xcdwo\x82\x87\xb7\x0eO\xd2\xb1u\xed\'J\x8f\\\xf0\x87\x8emB\xbc\x9al\xc2\xd7Y\xb3\x11\xff\x00\xaa\r$\x90\x16?\xde\x04&gt;\xdc\xfa\x8a\xf3\xbf\x8d&gt;\x15\x97\xe0\x7f\xc4\xa1\xa3j\xf1\x88\xec\xa5\xbdV\x96\xd9\x8e\x7fr\xd0\x02\xa8I\xe9\xf7O\xfd\xf2}+w\xc5\xde&lt;\x93W\xb1\xd45\xbd2x\xe32\xe9r=\x8d\xd6C\xack\x16"\n=2\x063\xde\xafxn[\xdf\x10~\xcf\x1e$\xd15=6\x18\xad\xd8\xa0\xb4\xbb\x8b\x96\xdd\x00\x0e\xb2\x7f\xe3\xcb\x93\xecj\x86\x8f{e\xa9|8\xd7u\xb8Q\xad\xe6\x16\x96\x8f2\xa4\'\xca,\xae"\xcezg\xe75K\xe1\xe4\xb1\xe8\xfe\x19\xf1?\x81/c\x8aH\xeen\x95t\xe9$\x07zI\x14\xab&amp;\x0f\xf7r2@\xf4\xae:\xc7\xc5^/\xd05\xaf\x10\\Z\xc2^D\xbe1\xa5\xaa\x92c\x91\x00\xf3\n{\xe67p=k\xb5\xf8\x1b\xa6\xd8\xf8\xee\xdc[h\xd6$\\\x1d6\xfa\x12\x85y\x12\xacBe \x7f\xdb2\x07\xfb\xc3\xd6\xb3~(\xda\xf8\x8b\xc4\x9e\x16\xd3\xed\xd6\xee\x17\xb9\xb2\xb3\xba\xbb\x87\x0e\x0f\x9b\x17F_r\x08?\x91\xad\xdd#\xc7\xef\xe1\xb8\xfc;%\xdc\xf2y\xd7:$0\x8b\xc7\\l\x968\x82\xc8$\xcf_\xb8@\xcfJ\xfe\x90\x92\xfe\xc0\xcb \x95xL\x94\x8d:\xfb\xf1U\xa7\xbe\xda\xb25\xaa\x90\x1d\x01\xdc9\xe3\xb1\xa15e\xbbF\xd9\x01\xf3]\x150\xe7\x05\x98\x0eN*\xbd\xda]\xda\xdd\x08\xde/3\xe4\xf9\x8e2\x07\xe3PM\x14QC\xe7\xa4\x00\x96;\x8e\xd3\xebY\x9a\xca\xda\xddE\xe6\xcb\x1b.\xd1\xf3\x00k\x92\xd5\x8d\xbb\xbc\x9eJ\x94H\xc6p_$\xfe\x15\xc2\xeb\xd7\x92]_\xac\xad4\x84\x96\xd8\x13a\x18\xc7@k?P\xf3$A)\x9f\x0e]U\x95\x87@\x17\x15\x85yf\xf6-\x05\x9c\xb1\x02\xb3&amp;\tQ\xed\x91\xf9\x8a\xe2\xfcU\xa7Z\xc6\x0c\xb3\xc2\x17\xcbRb#\x92\t\xe8H\xec+\xc6&gt;#\xf8a\x1ai\xb5H."\x8d\xe7\xb6x\xa61\x1ce\x93\xa1\xe7\xfd\xbc\xb7\xe3^/\xf1{\xc1\xba]\xe7\x8c\xad\xad\xad\xb4\x18\xee\x89\xd0\x9e\xd4\x8c\x85k\x82\xc8\xd20 wF\xe3\xea+\xcf\xbcf,\xb4O\x1a_x\xfa\xea\xe1\xa6\xba\xf1?\x87\xa1\xb6\x9d\x01\xc1\x99^(\x99\xc1\x1f\xc3\x86\x8c\x1fz\xe0,&lt;_{\xaa}\xb3\xc3\xda\x83\r\xcd\xa2\x0b\xb4\x91F\x1d\xe5i\xf2\x87\x1dxl\xb7\xe3Z\xba\xa7\xd8\x7fh\x1f\x12M\x1f\x8b\x9e6\xb9\xbb\xb3\x92\xd2\xcc\xee\x05\xbc\xf8mY\x91\x8f\xd7c\x81\xeaMp\x9aW\x86\xb5\r.\x0b\xef\x08\xeaj\xad\x0c\x1673.[\x96\xc1\xdcPz\xe5\xb3\x81\xeck~\xfa\x0f\xec;\x9d3D\xb7\xbf\xba\x8e\x1b\x91$\x1a\xa4J\xdf(Y\x00U\xda;\x90\xa0\x13\xedS\xeaW\x9aw\xc3\xdd\x1f\xc5_\x08\x91\xad\xee.%\xd4\xec\x9d5,\xee!\x07\x9aS\x81\xdbknn\xc1\x94W?\xad\xebz\x8f\x86&gt;&amp;\x8f\x1a\xd8\xa4wv\x8c\xd6\xf2\xce\n\xe01\x96#\x1b\xa9_\xe1\xe8\xc4{\x0fj\x8fC\xf0\x04\xb2\xf8GZ\xf1I[\xb5\xbf\xf0\xfe\xa4\x8f5\xa4\xa7ptS\x16\x13\x1dI0\xc8\x0e:\xe0f\xbbO\x80\x1e"\xd0\xbe\x1b\xf8\xc7F\xf1&gt;\xb3\xa6m\xd3\xf4\xff\x00\x18[\xa6\xa2\xcb\xc2\xbd\x84\xd2*LI\xe9\xf2\x89G\xd1Ehx\xf3\xe1\x04~\n\xf8\xa5\xadx\x0f\xc4:\xa5\xb4Me\xaa]\x8d0\xc6\xd8c"J\xc3\xca\xe7\xa8!7\x10?\xe7\x9f\xfbU\xe6\xfe?\xf0=\xf1\xbf\x8fA\xb2\xd7\xe0\xddun\xd3\xe9\xec\xcd\x91o$R\x14\x91X\xf4\x1b\xa3`G\xaf8\xaf\xe9r\t^F\x0fd\x844g\x90\xc9\xdb\xd2\xaf(B\xb9\xb7\x8dY\x9f\x86Q\xdb\x15\x1cW\t-\xd2\xdb\xcd\x02\xa4\xa8\xa4\x96\x9b\xee\xed\xf6\xaa\xb3\\\xde4R=\xa0v\x00`\x80x\x03\xb7\xd2\xaa\xcbqp\xd1$\x0f\x18W\n\x01\x07\xaeGZ\xc3\xd7\xee\x9dLV\xe4\xef\x0f\xb8&gt;8\x03\x1e\xf5\xc7\xea\xff\x00jGi\x97\x01Y\x0e\x17=@\xae.}R\xdbQv\x8b\xce\t\x89\x83\xc8@\xe5x\xacMR\xed-\xcb\x83\x13H\xca\x17\xcb#\xb8=\xcdW\xd5/&gt;\xd3\x18\x88"\xc54qy\x8a\xac\xdc9\x1c\x01\x9e\xc7\x1d\xab\x8d\xf1%\xe8\xb5\xb4\xbbTX\xd6\xf1\x97\xe6\x86s\xba6O\xf6\xcfq\xfd\xdct\xe2\xbc3\xe2\x9f\x89\xe2\xd0\xac\xf5\x1d\xd2&lt;2O\x04\x86\xee\xdeq\x92\x17\x03\x05\x0fs\xf4\xaf\x9a\xfe.\xf8\xcb\xc8\xd1\xed&lt;my\xaf\xc7s\xa5&amp;\xab K\x98\x01\x12\xda7$E.&gt;\xf2\x81\x8c\x1fL\x13^7\xac\xfcS\xd4&lt;Q\xe2{\x1f\x10jS\x16[iDf\x02F|\x920\xac\xc0t\xc8\xad\x8f\x12\xd8i\xdf\xf0\x96x7Z\xf0\xdf\x97\x1cz\x9d\x83\xf9\xe9\xbc\x10e\x8aV\x11\xab\x9f\xe1VL7&gt;\xb5\x0f\xc0+\x0b\x8f\r|`\xd2\xfcU\xaa\xc0\x05\xad\xbc\xef-\xd2K&amp;&lt;\x93\xb1\xd0\xe4\x1fM\xe6\xbb\xbf\x8a\xbe\x14\xd0\xb5xo\xbcii\xab\x84D\x8eY \x82\xdd\x01\x13D\xe0l\x19\x1e\xa1\xc9\xfc\rq\xbaF\xaf\xa4Yh\x96\x1a\xa6\xa5d\'\x9fL\xbc\x89\xef\xa6f\xca:$\x8b,@\x1e\x84\x9c:\x1faQ\xf8\x92\xff\x00G\x97R\xd3\xfcI-\xa2\xb3\xdf\xab\x0b\xd2\xdd\x19DO\xb7\x1fL\x8a\xf3\x9f\x0bkz6\xb3\xa2j\xba-\xdd\xe3\x1b\xb8\xd6\x13\x1e\xf6\xe5\xb0\xcc\xa3\x19\xeb\x8f0\x0f\xc4WS\xfb&gt;\xfcY\x83\xc3~0\xd5\xbc)\xe2k\x96\x07[\xb6\x9a\xda\xf9\xe5\x8br\xbc\x8bj\xeb\x01\xe7\xa7\xcf$`\x9fD\xab7&gt;%\xd0,\xbc5\xa6\xe9\x97\nZ\x0b\xc3#]\x07`\xc3\xe6@\x14\x0cza\x8f\xfc\x05j\x0f\x1d\xdf\xf8\xd6\xe3\xe2\x8d\xb6\xb9\xe3+\xf1{q\x16\xb0\xf7\x9b\x98\x92\xb2G$bN\xde\xab\xbb\xfe\xfa\x1e\xb5\x9d\xf1g\xc7\x1a\x7f\x87\xbe \xc7\xaci\xd6-%\xb6\xb3\xa4\xdb\xcc\xb6\xd0\xa1dYB\x00Dg\xb8\xda\x01lt=k\xfaS}B[iC\xb1\xc2\xed\xe4\x8a\xb1o\xa9\xcb\xb0\xcdm,{J\xe7;\t\xaaR\xdd\\Is\xe7&lt;\xa3 d\x91\xdf\xda\xa6\x9bU0\xdb\x16K\x81\x18\x9b\x1dGB;Vu\xfe\xabwx\xc0$\xacYK\x0f\xb9\x8f\xd6\xb1.M\xfd\xc3"d4\x8b\x9e$\xe1W\xeak\x9e\xd5l/.V\x7f5UYI\xcb+\xfc\xa3\x1dp}+\x8d\xd7t\xe8$\x8b\xed\xf0[ \xdf\xce\xe0\xf8(\xbd\xb8\xefX\x124\xd6\xe1\xee$\x8f&amp;R#\x8b\x8c\x96a\xedT%\xd9yp\xd6W$\xf9\xbd\x01Q\xcek\x9c\xd5\x9a\xde\xce\x7f&amp;\xe2\xdd.c\x927\x89%v\xc0\xc8nA?\xca\xbc\x0f\xf6\xc2\xf0L\x07\xc3\xd3\xeb\xb6s#\xc5im\xf6\x8bx\xe7}\xb2+\x03\x8d\x80\xf7\xcfP=+\xf3\xef\xc7\x1f\x18u\x8d2\xfbV\xf0\xcc\xef\x1b\x8f\xed)\x05\xe2\x8c:\xcf\x98B\x82\x00\xe0d\xf7\xf5\xaf\'\xd5|]s\xa7x\x9c\xcc +o\xb2$XY\xb1\xc0c\xc7\xbe\x05v\xfe\x15\xf8\x9b\xa7\xeb\x9e\'\xd24\xadFq\x05\x9a\xce\x91;\xc4\x7f\xe3\xdc\x1e\x01#\xa9\xf7"\xba\xff\x00\x17\xf8\xa2\xcfF\xf1\x87\x89\xbc\x13#\x96x\x96Km6\xf20Q$Pr\xb2\xe7\xd0\xae\xd3\x9f\xf6\x85g\xe9\x9f\x14\xbcB\xdf\x08\xecu4\xf9v\xc6\xf67\xcb#ga\x07\t\x9fB\x00\xc5`\xdcx\xdb\xfbF\xd8X\xd9\xdc\xba\xc7&lt;q,\xc0\xae\x14\x95\xf3?^G\x1e\xf5\xe9?\x0e\xbcA\xe1\x1f\x16x*m&amp;\xe1\xda\x1b\xdb\x1b\x98\x0bou\xfd\xe4O\xfb\xae3\xd0\x9f\x94\x91\xdb5\xe2\x92[\xcb\xe0\xbf\x19k\xde\x1b\xbd\xb0\x91\xee\x9bL\xb9\x825 \x86\x8a\xe5]0O\xd0\xc6O\xd0\xe6\xba\x1dJ[{\xad&gt;\xdf\xc5\xb6q\xc9c=\xee\x8d\x89\x90\x10\xfd[qu\xc7 \x96P\xa3\xd8\xd6/\x8c\xbcKg\xe2\x1dWF\xbeM@\xc6\xb2\xc8\x89y\x02\r\xa9\x1b\x89\t8\xfa\x87 z\xed\xf6\xafM\xf8iau\xe3\xbd\x1a\xce\xefL\xd4\r\xde\xa7`|\x99\x92y\x07\xef!F\x8c\xa1\x1e\xbf\xb9R\xbf\x8d?\xc6\x9e\x10\xd0\xb5\x8d\x13Q\xf8{\xa91\xb7\x9e\xd6P\x89t\x83/\x1a,\xc5\xc1S\xef\xbfi\xc7`+\xfa+\x8a8R6\x97%rrrr\x014\xf5\x95#u\x8eH\x89R&gt;}\xa6\xa3\x91\xed\xa2\x9c\xceX\xec\'j\xa1&lt;\x81\xebUf\x8c\xad\xc3K\x10\x12\x0c\xe3\x05\xb8\x03\xd6\xa3i\x126\x11*\x8d\xeb\x9c\x8d\xfc\xd6-\xf6\xa8\xf0\xca\xe3\xc9\x939\x08\xc4\x03\xc6:\xd4:\xc4\xf0\t\xe1\xb9x\xf7\x8d\x84q\xd8c\xd3\xbdr\x1e!x\xae.\x0cq\xa8\xdb\xce@\x18\xdc\x0fN=\xab\x92\xd4\xad\xeet\xd9\x8a\xb1m\x91I\x95@\xb9\xde\xd8\xe4\xe7\xebY\x11\\\x1b\xdbx\xd6\xe2\xdc\x87H\xc4\x86\x13\xf2\x95q\xc6s\xdc\xfbW3\xe3=+Sf\x9e\xf3H|\xaa\xa1Fh\xcf\xca\xfe\xb9^\xb9\xf5"\xbc\x17\xe2\x97\x81|A\xe3\xbf\x0ej\xfe\x16\x86YeX\xa2\x0e`Rx_@{\x0e\xd5\xe1\x1e\x03\xfd\x90\xfe\x12\x7fh^7\x8a\xaf\xae \xd5\xeef\x01-\xae0\x15\x15x&lt;\x9e\xb8&lt;f\xb8?\xda\x0f\xf6%q\xaa\xb4\x1e\x12{f\x9c\xab4q\x96\x18\x95s\xeb\xeb_:\xf8\x83\xe1\x8d\xcf\xc3\xef\x15\xc7\xa1x\xd6\tmDnQ\xccJs\x1c\xa0\xe0\x02}\x8f\x15\xbd\xe2\x88\xce\x8d\x06\x95}~\xefq\xf6\x8bY-$\xbb#;\xd8\x16 \xe7\xd7iQ\xff\x00\x00&gt;\x95\xcd\xe9\xfa\xa5\xef\x85$\xbb\xb0\xbf\xb9y,\xf5[\x1d\xd1\xe127)\xc2\xa8\x1f\xde\xc7Z\x82\xfeMcC\x0fouj&lt;\x94\x9dZ9#\x19\x000\xe3\x9f\xa5o\xe8\x9a\xfd\xae\x9c\xfa[Ah\xf0Ks\x02\xa4\xcb\x9e%x\xa4\xc9$\xf68*\xc7\xd0\x0c\xd6\xe7\xc6\xad\x115\xcf\x11Z\xf8\xefOwH5{\xbf\xf4\xab]\xe1\xb6Jc\x07*G$1\xcf\x15oK\x9b\xc3z\xb5\x98\xd2nM\x9a\xad\xec;-\xee\x03\x8c!a\x8c\x9fA\xbc\x13\xf8\xd7\x98j\xfe\t\xbe\x8e\xfeg\xf3\xbc\xa63HC\x7f\x02\x86?+\xfb\x05\xeb\x9e\xc0\x8a\xed&lt;)a\xa9\xf8\x12\xdc\xea\xfa.\xbb\xe6Gx\x16t\n\xa5%\x85\xc0\\\xa1\x07\xd7\xb7\xafj\xf4\xbf\x8dW\x9an\xb5%\xaf\x8ct\xcb\x98\x1e=B\x18\xd7P\xb0IB\xba\xb6\xdf1d\xe0\xe7\r\xbd\x7f\xef\x83\xe9_\xd0\xb41\xceZX\x18\xae\x06\n\x92z\xd3\xc2]]\xcc\xc8T\x00\x067\nC\xa6D\xbbZ\xe5\x8a\x0c\x0f\x98\x1c\xe7\xde\xa8^\xc8\xb6\xdb\xfc\xa6\xca\x16#w\xd0\xf1T./&gt;\xd1\x0bN\xb1#\xc8@\x01\n\x10N:\xfdj\xbc\xd7w\r\x08\x10\xda\xc6\xbb\xd8\x9d\xc3\x9c\xd6~\xb3oq-\x9a\xa2\xb6\xcd\xed\x96`\xb9W\xfc{}+\x13W\xd2\xad\xe7\x8b-\x00\xf3"\x18\x03a\xc0\xc7\xa9\xae?\xc4\xd2\xdd\xa2\x96\x87\x0e#\xdb\xc4k\xb8{\xe3\x15\x99%\xa4W\x12}\xa1\x08\x05\xdb\x9cTqh\x86\xd5\xdc\xc9:\x08\xe5,\x08\xeb\x8c\xf7\xaefO\x876\xf6\xba\xb1\xd5\xa0\xb8V\xdf\x0b\xa4\xa0/\x12\xfc\xdc\x0fr=+\x8e\xf1\xf7\xc0\xef\x0fx\xb9\'\xba[\x7f.\xe6\x13\xc4\xa1x\xc3|\xc7\x18\xed\x9a\xf2\xbdc\xf6{\xd6\xf5x\xbe\xdb\x043\x1f\xb3\x93\x19\x7f\x9b\xe5S\xce}\x85x\x17\xc6\xdf\x80w\xb7\x91\xdfC\xe3m\x04\xdf\xd9O\x16\xe8n\x16"\xb3A!\xe4g\x8c\x91\xef\xde\xbc\'\xc6\xfe\x15K\x1f\x07h\xbe\x19Kfhm.\xca\xbc\xa4d\xa3m\x00\x16=\x81\x0cH\'\xa8\x15\xcax?\xe1\x9bk\xd1^h\x9b\x1c\xea-\x00\xb8\xd2\x965%n\xb2w7\xccx\x18\xed\x8e\xb5\'\x8f&lt;\x1f\xab\xc7gl\x9a\x8d\x9e\x14N\xbem\xc2r\x18c\n\x18\x8e\x01\xf6\xae\x1bP\xba\xbc\xb5\xbf\xb3\xd3u;\x86H\x1cJ\xf1\xb8\\\x18\xcb\r\x8c}\x87\x15\xe8\xde\x16\xd6\x92m&gt;\xc6\xdfW\xd4\xd7b\xdb\xc7=\x9a:\xe5Y\xa1l\x9c\x9e\xc5\x95\x80\xc5S\xf1w\xc3\x9dO\xc1\x1f\x14\x9f\xc22\xc2\xe9\xbd\xd6H\x91\xf22]D\xbb\x13\xd7\xe6l\x00*\x85\xdc\xb0^!\xd3t\xe7v76\x8c\xb2+\xaeYd\xce\xd7\x00z\x0c~U\x9fq}q\xach\xbat\x93]ys\xd9\t-\'\xf2\xdb\x86\x19\xfd\xdb\xb7\xa6W\x1f\x9dt\xb6^66Z,\x9e\x1d\xbb\xd3T\xc8\xd0F\x8b,\x87\xe6_-\xb88\xec\n\xb6\x07\xd2\xbf\xa6\xa6\xb7\xe4\xc8\xb1\x80T\xf2;\x9a\x91-f\x97 A\x80\xc9\x9f\x95j\x03\xa2\\\x1f\xbe\xfb\x87a\xe9Uo\xfc0c\xb7\x12}\xcd\xd2\x13\x8e\xa4\xf3\xe9X7\xfa\x15\xdd\x9d\xe7\x9d\xe4\xf0dm\xb9\xe3\x82MFt\xbb\xcbh\xcf\xd9\xdf\x84\x1f(+\xc7\xff\x00^\xab\x0b`C\xdb\xdd6\\\x12\x0f\xf7G\xff\x00^\xb3\xb5\x88!\x85\x16\xda\xdcn\x0e\xbf\xbc\x07\xef~U\xc6\xf8\x8bB{gg\xb7v\xf2\x898\xf93\xf8W=5\x94"&amp;\nHa\x93\x8f~\xf5Z\x0bf\xba*e\xb9$\x90\x08b1\xb3\xdb\x1d\xea\xc3h\r*\xb0I\xdaU*\xdeae\xdb\xc8\xee\xbf\xd6\xb2t\xfd\x1a\xf4\xca\xd2]H\xad\xb9Tm\x8cnS\xf8\x8e\xb5&lt;\x9e\x1b\xb6{\xc2D*\x16F*\xd1\xa8\xe0\xe2\xb1|Y\xf0\xc3\xc3\x1e \xb4k+\x8d\x06)\x15\xb3\xe6\xfc\x99\'+\xd0}+\xe5\x7f\x8b\x7f\xb2,z}\xa3O\xa4[ Q;\xcdsn\xd1gr\xf2\x07\xe3\x8a\xf9;\xe2\x07\x815\x1f\x84\x1e"\x8a\xff\x00E\xb6\x9bm\xab\xb6\xcd\xad\x96\x08\xc7\xb0\xfe\xee+\x9f\xd7&gt;\xc9\xac\xe9w\x16\t}#\xc95\xb9\xba\x88K\x19+\x04\xdea$&gt;&gt;\xf89\xca\xe3\xa0\xc5p\x1e&amp;\xf0J\xf8\xb3\xc1\ty\xa5\xdb\x85\xd5\xb4i\x82O\x19\x901\x92&amp;\xe4\x9e:\xe0\xf5&gt;\xb5J\xce\xcaK\x1f\x03\xdf\xc9\xa8&amp;\xdb\x9b\tV\xee\xd1%\x05\x95\xe1+\xb2D\xe3\xa1\xca\x93\x8fA]=\xee\xb7\xabx\xff\x00O\xd1\xf5\xd7\x13Kym\x046\xf3\xca\x8d\xfe\xb5\x90\x95\x84g\xb1\x0b\xb3\xdc\xed5\xc5x\xaa\xd3X\xd3\xf5+\x8f\x19\xc5{q\x0ckx\xa2\xed\x80\xf9b\x95\x89%O\xf7rs\xc7\xb1\xab\xbf\x10c\xdb\xa4\xb6\xb5j\xa4\xfd\xae\xe0y\xc9\x12\xf0\x1cG\xdb\x1e\xe1\xbf#\xe9\\\x8e\xa7\xad\xdf\xca\x7f\xb5\xa5\x9d\xa3\x89\xd4!\\\xf0q\xc09\xaf\xebf\xeb\xc3\x81\xdf\xedE\xb6\x95?*\xf64\xdd&gt;)\x12v\xde\x17\xa7J\x92\xebKgt\x96B\x15H\xce=j\xb5\xe6\x93=\xd9kx\x0f\xc8;\x9e\xb5\x81\xe2-\x0e}&gt;\xdc\xdc\x12\xac\xe0d+\xbf?\x95q\x7f\xf0\x91_I\xe7-\xd4(\xb1\xc2\x1fz\x07\xf9\x80\xdd\xc7\x15\xa1\xfd\xa7\xa1jV\x9b\xad\xee\xd66\' 1\x19\xaa\x89uh\x8e\xe94\xf1I\x9e8\xc1`+\x1b[\x82\xce\xea6K \x19\x00 \xaf\xf1q\xc18\xae\']\xd3#\x8e\x14\x96\'\xdf\x87ee\xe8k#O\xb5[B\xed\xe6\xaa\xab\x1c\x85\x91\xb1\x80}=j{\xfb\xb9V\xc8m;V\x1c\xe4\x8f\xe2\x15KE\x9b\xcdC\x15\x8a\x98\xfc\xcf\xe3z\xbd\xf6i\xa4\xda\xac\x0by]dA\xf7\xbdM[\xbc\xb4[Kw@\x14\x15\x19\x0c\xde\xf5\xcdx\xb7\xc2q\xeavF)\xe1I\x06\xd2\x1d\xc8\xc0\xc7\xa6k\xe6O\x8d\xbf\xb3S\xebows\x15\x88q\n\x7f\xa3t\xc6\x0fU\'\xdb\xa0\xaf\x94\xbe\'|)\x9b\xe1\xfa\x88\xb5k\x13\xfe\xb9\xfe\xc4B\x11\xba0r\xca\xc7\xb9Q^i\xab\xe9\xf0xWZ\x83\xc4\xde\x15V\x11\xc9\x03\xa9\x86G\x05X\x16\xe7w\xbf#\x1fQX\xfa\xde\x8b.\xb3\xa8\xa5\xde\x8df\xad\r\xd0xn\xa2\x90\xf1\x87\xe8\x7f6o\xc8\xfaW\x13\xa2\xea\xfa\xff\x00\x81\xda\xe3G\x80\xe69\'\x85\xf6I\xf7\x91\xa3b\x1b\x1f\x87?J\xf7o\x05~\xc2\x1f\xb5?\xc5\xef\x81W\x9f\x19\xfc!\xf0[^\xb8\xf0m\xde\xae\xc9s\xad\x0bp \x98\xef\xd9\xb8d|\xca\x19\xc8\xdc;\x83\\}\xd7\xc0\xbf\x1fh\xf6W\xff\x00\x055\r.f\xd6m\xafbK)m\xa27\x0e\xcc\xaeT\xc26\x03\xb4\xf2G\xe0k\xb6\xf8#\xff\x00\x04]\xff\x00\x82\x88\xfe\xd0ZtZ\x8f\x82&gt;\x02_i\xfan\xa4$\xf2\xe6\xd6\xa5\x8e\xd69$\x8d\xbel\x16\xc1c\xc1\xf7\xf5\xaf\xe8\xee\xf6\xe5L\x9f\xeb\t\xc0\xc9Q\xd4\x8fZ\xa1q\xacB\x92n{\x94\x8d\x08\xc2\x93\x81\xf4\xac\xcdG\xc7\xba-\x85\xda\xda\xdd\xdc\x19\x14 \xc3!\xcf8\xacM[\xe3\xe7\x84t+W\xdfzcf\'b\x920\xdfS\xda\xbc/\xe37\xedm\xa8K4\x96z5\xa4k\x1cl\xc0\xb9\x98|\xf8=\xbdk\xc3&lt;W\xfb]k\xf6wfH-VI\xa6\x01H\x90\x95\xf2\xf1\xd8\xfa\xd34\x8f\xda\x8bQ\xfe\xd8\x13\xf8\x86r\x8c \x0eD \xed+\x8c\xf1Q\xea_\xb6\xdcPj\x86\xd3J\x86c\x17\x95\xbe9\xa6\x89\x94\xa9\xf4\x1e\xa2\xb6\xfc%\xfbj\xde^Y\x15\xf1\'\x87f\x12\x80V9\xc3\xedY\x01n\xf9\xe8}\xab\xbe\xb7\xf8\xbd\xa6\xeb\xf1\xc3u\xe4\xb4K$\xca\xc0\xc67\x80\xa5z\x92?\x9dt\x10\xdci\xba\xa5\xb09WWU\xd9*\x1fj&amp;\xd1\x91"d\xf2\xfc\xd4\x90\x9d\xae\xad\x91\x8a\xc9\x9a\xc2\xe3M\x93\xfd\x1e&amp;\xda&gt;\xee\x06x5\xad\xa32\xf9r*6XC\xf3\x03\xd8\xe6\xac\xea\xf2Gq\xb8`\x10\xca\xca\xc5y\x19\xdd\xc5\x11\xe8\xc5\xd5n\xe6\x07{\x9c\x18\x1cq\xb4t8\xf5\xae?\xe2?\x85\xa0h\xa6\xbb\xb5_\x95\x88g\x8f\x1d\t\xed_6\xfe\xd2\xde\x01\xd3.\xf4\xc6\xb8\xd5\x9a%\xb3\xbaU\x8c\xf9\x91\x850\x16\xf9K\x02{`d\x9a\xf9\x9fB\xfd\x9f\xf5\xcf\x89^:\xb9\xf8a\xf0\x83\xc1Z\x9f\x8b\xae\x84/\xf6\x9bm\x06\xd3\xed,\xa4d)\x1c\x109*Oo\x94\xfaW\xb1~\xcd\xdf\xf0Co\xdb\xcf\xe2~\xa5\x0c\x9e/\xf8Z\xbe\x10\xd0\xa7\x91\x05\xcd\xde\xa9s\x12\xdc*d}\xc8\xc9\x05\x1b\x82s\xd3\x9a\xfb]\x7f\xe0\xdb_\xd9\xff\x00P\xf8\x89k\xe3H\xfca}e\xa5A~n\xa7\xd2\xee\xe1K\xa9\xa5r\x83v[\xee\x8c\xb6N\xde\x95\xf6\xf7\x83\xff\x00e\xcf\x84\x7f\x0b&gt;\x05\xc5\xf0g_\xbe\x92\xff\x00\xc2Zg\xef\xe4\xb4\xd5nV\x08\x11\x15\x8b\xb0m\x98_/w\xf01\xc0\x1cg\x8a\xf8\xef\xf6\xa3\xff\x00\x82\xca\xff\x00\xc1"\xbfb1/\x84\xfc\x11\xa7h&gt;2\xd7-\x0b\xc7&amp;\x87\xf0\xebI\x82H\xe3}\xc4\x18\xe4\xb8\x00\xc2\x83~[r\xb1#\x02\xbf5~0\x7f\xc1\xc7\x7f\xb5\xff\x00\x8b\xe0m\x13\xe1&lt;\xfaO\x80\xf4X\xe42[\xb5\x95\x98\x9a\xf7\x97\xc8g\x92La\x9cr\xd8\x1c\x92k\xf6\'\xc5_\x16\xadb\xd0\xa6\x96\xe2\xf6\x08\xe7Kt2JN0@\x19\xcf\xa6M|\xfd\xf1k\xf6\xaf\xd5&lt;3{\x1d\x8d\xa5\xccR4\xd2\x06\x8a\x08\xe5\n\xea\x98\xe1\x88=\xbd\xeb\xc3\xfci\xfbXjO\xab\xb6\x9b\xe2?\x1a\xcc\x91\xef\x12\x8bKi\x01\xd8\xb8\xfb\xc5\xc5yG\x8c?h;\x8f\x10x\x86+\xc9&lt;E\xaa\xbe\x9f\x0e#P\x93\x11\xbf\x1c\x03\xf8\xd4Z\xff\x00\xc5\xbd}|\xa9|2\xc2D|\x00\xba\x8c\x99\x91&gt;\x87\xb7\xe3]\xa7\xc2\xfd?Y\xf1\x02\xc1q\xabh\xc2\xfai\xe42;\x19\x01\x1c\xf3\x8c\x8e+\xd2 \xf0_\x87\xef\x99\x7f\xe1$\xf0\x1c\xf6\xe3q\x11\x84l/\x1f\xc5\x9e\xfe\xb8\xa7\xeb_\x0b\xbc\x01wk\x98\xf4Cr\x8b\x11\x1b\x85\xbb\x029\xf5\x03\xads\x1a\xdf\xc0I5k\x80&lt;#\xa8Ob\xa7\xee@\xf1\x12\xa4\xfdMP\xd3\xfe\x15\xfcg\xf06\xa0#\xb7\xd5\xa4\x91\x19\xc9\x92;ip\x0f=\xd4\xf2\x7f\n\xf5o\x87~&amp;\xf1\x06\x9b(\x87Z\x88+\xc6\xa1Ls\x83\x96\xf5*z/\xd0\xf4\xafZ\xd1\xbcAa\x06\x9e\x93D\n\xa6F\xd2\xc4?\'\xb6z\x13Vo\xad\xadd&amp;u\xc1\xc9\xf9\xb7p\x01=\xbd\xaa\xab\xd9\xe29ZH\x8f\x96\x1c\x0f\x95pwzS\'\xd4\xb4}*\xdd\xf5o\x10\xdd\xdb\xd8[E\x93#\xdeN\xab\x18A\xd1\xb2O\x1cW\x15\xae~\xd9\x7f\x08\xefu\x06\xf0\xc7\xc2\xbb\x1dg\xc7:\xb2\x10\x90i\x9e\x11\xd3d\xbc\x05\xc7\x04\x19T2 \xcf\xbe+SF\xfd\x9d\xff\x00\xe0\xa0\xbf\xb4f\xa2\xb7\xf0\xf8\x1fD\xf8S\xa0\xca\x9b~\xdf\xe2k\xb1w\xa82\xb7P\xb6\xf1p\x08\x1f\xde\xc1\xafF\xf8q\xff\x00\x04[\xfd\x9fF\xa9k\xad~\xd0\x9f\x11|Q\xf12\xea\xd1\xc3\xbd\x8e\xa71\xb6\xd3\x8b\x0e\x9bm\xa2\xe4\x8c\xfa\x9f\xad}}\xf0\xab\xe1o\xc3\xcf\x85\xfa\x14z\x07\xc2\xef\x86:G\x87lQB\x88t\xbb(\xe1V\xc0\xc7X\xc1,}\xd8\xf3\\_\xed3\xfb~\xfe\xc7?\xb1\xbe\x99&amp;\xb5\xfbG~\xd0~\x1c\xf0\xd4\xc8\x8c\xdf\xd9\x977\xcb5\xf4\xb8\xcf\xc8\x90FL\xb9?\xee\xed\xf45\xf9i\xfbf\x7f\xc1\xdc&gt;\x19\xd3%\xb9\xf0\x97\xec+\xf0ZMQ\xc2&lt;v\xfe.\xf1\xc6\xe8\xd1[$\x12\x96q\x90\xcc;\x82\xcd\x8f\xf6{W\xe5\xa7\xedK\xff\x00\x05G\xfd\xbe?m\x8b\x8b\x99\xfe9|\x7f\xd6\xf5\r)\xa4;|?a;Xi\xb0.r6\xdb\xc2QXc\x1c\xb0-\x8e\xa2\xbcJ\xc1.\xa3\xbaU\x94\xae\xd2v0\x8b!\x81\xed\x8d\xc0\x1c\x0f\xa0\xaf\xa9?b/\xf8\'\xf5\xff\x00\xc7\xcb\x89\xf5\xcdq\r\xcd\xbd\xb8+\x0e\xd6\xdcY\xb6\x9c\x96\x03\xb7\xa1\xaf\xd0\xff\x00\xda\x1f\xf6\xac\xd44o\x84\x9fc\xd5\xaf\xa1\xb7\xd4/"2\xc96\xed\xbeZ\x13\x98\xa3\x1f\xde8\xc0\xaf\x91|C\xfbI\xf8\x8a\xf3o\x885K\x95\xba\xd4/\xe1(\xc3y\xccC&lt;\x9cv\xcda_|o\xd3\xb4\xbb\xef\xb7\xcd\xa6}\xa5\xae!tuy\xbee\x19\xe3\x8e\xd5\xa3\xe1\xdf\x8a\x96\xfa\xe4\xe2Yc\x86\xc6\xde \xa0FX\x16\xfc\xab\xd4|\x1b\xe3\x7f\x07jz\xb4\x12\xdf\xc7\xf6\x84\xb7\xdaY@\xc6\xe3\xeaG\xa15\xf4?\x80~/\xe9j\x91i\xf6z&lt;ZXV#sG\xc8\x1d\xba\xd7\xa4i\x9e \xb4\xd4\xe3\x8a\xea\xe7\xc5A\xa2A\x85\x18Q\x92{\xd4\xe6!-\xe8\xb3\x85\x1d\xd3nr\x8e2\xf8\xeaq\xfeqBY\xc9\x13\x8f.\xd9\x94\x97&gt;Xc\xce*\xe5\xaaY\xd8\x07\x9bS!\xe4\x95\x89\x01\x8f#&gt;\x95\x15\xe5\x8cM [\x02\xf1\x82w+\x9c\x13\xbb\xae+\x9f\xf1o\xc6\x1d\x0b\xe0\xf6\x9d.\xb3\xe3o\x18i\xfau\xb3\xe1\x9ai\xae\x11\x17\xdc\xedb7\x1f\xa5s\x9aW\xed\xbb\xa5x\xebP\x7f\x0e\xfc\t\xf8q\xe2\xaf\x88\x1a\xa0;d}\x07Jt\x87\xe6b\xab\xbei\x07\x96\x17 \x803\xdb\x15\xd2i^\x03\xfd\xbc\xfe&amp;j\xfa/\x865\xff\x00\x19\xf8W\xe1\x88\xd7\x9b\xce\xd3l\xe0\x8f\xfbWUk@v\x17\xc2e#\x00\xfc\xbb\xbe\xe8n3^\xeb\xf0\xd7\xfe\t1\xf0\x16\xde\xfa\x0f\x11|x\xf1O\x89~&amp;\xea\x96\xec\x0f\x9b\xe2MU\xc5\xa27|[\xc4v\x1ezn8\xaf\xaa\xbc\x0f\xf0\xcb\xc0?\x0b|5\xfd\x8f\xe0\xbf\x08i\x1e\x1b\xd1\xedT\x17\x8a\xd6\x04\xb7TP8f`\n\xe3\x03\xbbW\x8c\xfe\xd1\x7f\xf0V\x7f\xf8\'g\xec\x9d&lt;\x96\x7f\x12\xbfiM"\xff\x00X\x89X\xb6\x83\xe1\x99M\xfd\xd3\xe3\xf8LP\x96U\xf4\xe7\x15\xf07\xed)\xff\x00\x07ZKj\'\xd1\xbfc\xef\xd9:F\x01\x8a\xda\xf8\x83\xc7\x13\x88Qy\xf9]-a\x0c\xc7#\x07\x0c\xcb\xee\x05|\'\xfbC\xff\x00\xc1_\xbf\xe0\xad\x7f\xb5\x9d\xfc\xfa\x0e\xbb\xfbC\xea^\x1d\xd3/#(\xdaO\x84-\xce\x9bo\xb7?p\xb4d\xc8\xfdq\x86r\x0f\xa5|\xc3u\xf0w\xc4\xde!\x7f\xf8K\xbc}\xe2;\xcb\xe9\xee\xe7c,\x97R\xb4\x92\xb1\'$\x96\xc9\x00\x93\xcf\x00}+\xac\xd5\xbe\x08\xe8~\x1e\xd0t\x8f\x14\xe96\t*9Xu\x11\xbf\xcce\x04\r\xa7\x8f\xe2\xeek\x1bU\xf0\xe6\x9f\xa5\x0b\xcd\x12\x1b\x18\x9cJI\x8eD\x19\xdd\xf2\x81\xc7\xadu?\x06&gt;\x07i\xde&gt;\xf1CY\xdf@^\xd7\t\xe6J\xa3\xe6F&lt;!\x03\xb8\xcfz\xfdZ\xff\x00\x82\x7f|\x03\xd3\xfc\x03\xe1\x1b{\xab\xadi\xa0\x9dc0\xf9\xb0\x91\xe5J\xa1p\x18\x9e\x99=k\xe3\x1f\x8az\xf5\xcf\x8f\xec\xe0\x84\x937\x91~nd\xf3\x01\xea8\x8d\x0f\xfb;1\x9fz\xf2/\x14\xea\x9a\x1e\x8d!\xb7\xd3\xa32\x14\x8f\x08\xec\xdc\x0cW!i}\xaf\xf8\xabV6\xda&amp;\x9c\xd2\xccv\x86\xfb:\x92T\xfa\x9a\xfa?\xe0\x17\xecY\xaak\xa9m\xe2\xef\x8a\xbe4\x8fL\xb3w\r\xe5\\\\*\xee^\xbd\t\x1d\xab\xe9\xef\t\xf8\x9f\xf6\x13\xf8\x19\x1a\rW\xe2^\x95st\x91\x95\x96;(\x16\xeaB\xd9\xe0mRNk\xb7\xbb\xfd\xb9~\x04_\xc5\x0e\x9d\xf0\xf3\xc1\xbe&amp;\xf1#\x04#u\x8f\x84XD\xac;&gt;\xf5\xc5q\x9e:\xf8\xfb\xf1\x0b\xc5ZD\xcf\xa3\xfe\xc7:\x8a\xdcL\xa0Gq3\xa5\x90\xc7f\x00t\xf5\xc5x\x87\x88\xbfl\xff\x00\xdaG\xf6t\xd7\xed\xb5\x1f\x89_\x05.\xc6\x89s7\xee \xbe\xbc%d;~TI\xba\x028 g\'\x15\xe8\x9f\x03\xff\x00\xe0\xa7\x1e\n\xf1/\xc3{\xdf\x18|R\x994\xa9t\x99v\xdd\xac\x93+3G\xfc,\x06r}\xeb\x15\x7f\xe0\xb2\x1f\xb3\xaf\x89~(Y|:\xf0\xae\x9b\xa9_Iu3(\xbfE\xf2\xa1-\xd7\x19o\xbd\xc7&lt;v\xafG\xf1/\xede\xaf\xeaV\xe6\xd3E\xd2\x12\xd6\t\x8e\x04\xec\xdf2\x8ccw\xb5{\xef\xec\xa1\xfb\r~\xc9~&lt;\xf0?\x87\xbe;\xf8\xbb\xc1\xaf\xe2}kX\xb43^O\xae^\xc9q\x1d\xbd\xe2JVu\x8e6;\x14n\xcb\x05=\x17\x1d\xab\xe8\x7f\x1c7\xc3\xaf\x00|5\xd54h\xbc{\xa2x\n\x1b\xcd.kQ\xac\x96\x82\xdb\xecJ\xe3k:\xf4\x04\x85\x1b\x86\t\xc15\xf1\xd7\x8f?\xe0\xa6?\xb1\x07\xc0)t\x18\xfc-\xf1\xfb\xc4&gt;;\xf1\x8f\x85|7?\x85\xed\xee|\x03\xa6,\xc7U\xd2\x9aH\xe4X.\xa6\x931\xac\x81\xd4\xb3J\x08\xe7&lt;\xd7\x9d\xfcU\xff\x00\x82\xea\xfe\xdb\x9f\x16\xe1{/\xd9\xdf\xe0\xa6\x89\xe0];\x04A\xabx\xa4\x1b\xbb\xe0\xa7\xa3yc\xe4C\x8e\xdd\x07A_4\xfcU\xf8\x93\xfb\\~\xd1\x0e\xf6\xbf\xb4\x0f\xed9\xe3\x0f\x15[\xc9\xcbh\xb0_\xbd\xa5\x86\xe3\xce\xd3\x04EF;|\xc1\xb8\xeek/\xe1\x9f\xfc\x13\xeb\xc4\x9e8\xd4":_\x85WI\xb7\x90\xe2a\x0c\x01\x8b(\xe8\x19\xf9#\xea1_I\xfc6\xff\x00\x82Yx\x1fB\xb03\xeb\xdaj\t\x1cd\xef\xf9\xf0\xbe\xa35\xcc|l\xfd\x94\xbc\x11\xe0;[\xadSA\xd1\xd1\xa5\xb2\x10\xcf\x1c\xc56\xe6 J\x1e;\x9f\x99X\xfd+\xe7/\x1a\xf8N\xc7E\xd1\xa7\xd2g\xb72\xc3\x06\xa3\xb5\xf1\x16\x1b\x05\xb0\x00\xfa\xf1\x8a\xe1am"-v\xf6\xde\xdeE\xfe\xceU\x92e\x81\xf2K b\xaa\xc0w\xc0\xc5y\xe6\xad\xe1\xc3\xab\xf8\xe1l4\x1b\xb8\xca\xac\xa1b|\x13\xb8\x13\x82k\xec?\xd8\xcf\xe0n\xb1\xe1\x7f\x11Du\xabUx\'v\x10\xb1\x88\xed\x93\x1f0$\xf6\xc9&lt;W\xe8?\xc2\xfd\x1a\xcb\xc1Z\x0cz6\x95n\xdbs\xb8\x83\xf3l\xc8\xe9_\x9a\xdf\x12|Y\xe0\x9f\n\xdd\xde\xea7z\xb5\x9e\x9a\xaf!%$p9\xc7NM|\xeb\xe2o\x89\x07\xc5sK\x17\x80&lt;+y\xaa\xed\xcf\x9bxb+\x1a\x9e\xe4\x1cc\x15\x7f\xe1\x7f\x81~&amp;\xebW\x16W7&gt;4\xd3|-o$\xec\xdex\x8ft\xcc\t\xc9\xcbt\x03\xd35\xed\x1a7\x87\xff\x00d\xcd\x1a\xf65\xf8\xdb\xf1k\xc4\x9e)\x91%\xfd\xed\xb1\xd4\x19`f\x07\xa0\\\x80\xdc\xf5\xdb\xc5}M\xfb&gt;\xfe\xdd\x1f\xf0M\x8f\xd9\xfbLe\xd2\xbfg;8\xae"Ef\xbd6$\xb6\xd6\xe1\x1b-\x9e\t\xe8k\xd9\xae?\xe0\xa6\xff\x00\xb3W\x89\xf4\xa8\xa1\xb2\xd0[J2\x8f1\x19\xf4\xdf,2\x9ewgh\xc8\xf7\xac\xbf\x12~\xd0\xdf\n|yf.t\x0f\x12[\xce\xd2p#I\x14d{s\xd6\xbc\xab\xe3n\x99\xa1|`\xf8W\xab|,ml\xb2\xde)\x93MY\x18\x97\x8a\xe1\x17#i\xc7\xca8\xc5~i\xdd\xe9sE\xadO\xa4\xea\xd0\x05\x9e\xdd\xa4\xb7\xb9\xb7\x90\xb1\xc4\x8a\xdb\x18\x1e\xd8V\xe0g\xda\xbc\x8b\xc4\xda.\xb9\xf0\xf7\xe2t7\xfaD\x13y\xf1],\x900\x07?0\x07w\x1d\xbbg\xd6\xbfP&gt;\x0cYx\x9f\xe2\x9f\x84\xf4\xbdK\xc3&gt;\x1a\xbd\xb8\x96\xee\xc9~\xd0\x0cL\xab\x1b\x90\x0e\t#\x03\x9a\xf7-\'\xc3?\xb7O\x84\xbc\x06~\x1fx/\xe2\xe6\x91\xe0\x8f\x0fZ\xddMz\xd3\xc5\x17\xda/\x8c\xae\xbc\x84q\xf2\xaa\x91\x9c\xfa\x1e+\xe5O\x8f\xff\x00\x0ft\x9f\x16\xf8\xeb\xcc\xf1\xaf\x8f\xfcO\xe3\x99\xa0r\xb2\xde\xf8\x83R%K\xe7\xe6a\x10`\xbc\x9c\x9cV\x8f\x80&gt;\x15\xe9\xd6\xd6Ie\xe1\xcd\x1e;{tp\x04il\xa0\x01\xd9\x83v\xff\x00w&lt;W\xb2x\x0f\xf6i\xf1\x0f\x89@\xfb\x05\x99\xb8i\x1b%\xb6\x1d\xa3\xeb\x8e\x05}\t\xf0w\xf6!\xd04{e\xd6|cf\xb3\xdc\xccU\x9a\x1f+\xe5N\xf8\xcf\xa7\xbd{\xa5\x87\xc3\xff\x00\x0fh6b\x1d\x17M\x825E\x0b\xb5!\x03\xa0\xc7^\xf4G\xa0\xdd\xff\x00\xc7\xd4Ql\\\x159a\x8f\xca\xbc{\xf6\x80\xf8k\xa7\xea&gt;\x1a\xbc3G\x96\xb9\x8aH\xb3\x8ewm\x04\x8f\xa6x\xaf\xce\xdf\x8a\xf1\xb6\x81\xe3\x8b\xf8\xf5\xeb!\xf6=J\xed\xa1\x9c\x13\x8f)\xd4\xa3\xc4\xe3\xd0\x11\xd0\xf7\xaf\x995\xddN\xdbC\xf8\x84Y\xe3%SSx\xde,\x1c\x18\x9f\'g\xe7^\x99\xfb\x13\xf82/\x1a\xfcu\xd3\xa7\xd5\xad\xc8\xb5\x9a\xf1\xe0\x8c\x90\x0cy\x00\x9c\xe4\xfb\x83\xf9W\xe9o\xc3\xdf\x85\xf6\xdau\xbd\xb4\xe6L\x102\xf1y\x7f\xc5\x8ey\xed\xcdzF\x95qq\xa6\xbe\x10.\xd5\xda\xb8\x07=\x17\x1d{\xd7\xe4\xdf\x87\x7fe\x9f\x06\xdc\xea+\xab\xf8\xf3P\xbb\xd7\xb5\x1d\xdb\xe4\x9a\xe6f\xf2Fy8^\xf5\xa5\xe3\xed\r\x11\xed\xfc\x0f\xe0!ie\x0b\xba\x86\x7f\xb3\x806/\x05F9\xe9\\\xe7\xc6\r[P\xb5\xb5\xb5\xf0W\x874;I\xae`\x8c-\xbbA\x0b\x16\x93\x1c\x01\xc7R}+\xe5O\x1dk~4\xd5\xf5\x13\xa8k7R\x12\x93\x18\xe2\xb6V!\x17\x9e\x83\x15\xf4g\xc2O\xf8(]\xe7\xc3\xdf\xd9\xa7\xc6\xff\x00\xb3}\xe7\xec\xf3\xe1MG\xfe\x13/\x0fiZD~"\xb9g\x17ZkY3\x94\xb9G#\x86s#\x17\xc7M\xa2\xbe\xe5\xfd\x89f\xf1_\xc6\xff\x00\x00\xf8#\xc4~ \xf0N\x9bq\x0e\x97\xa6M\xa7\xcb4\xd6|Khq\xc1\x18\xc9e8\x00\x9eH\xe6\xa3\xfd\xae?c\x1b\xa7\xd5\'\xf1\x97\x85|1&amp;\x9b\r\xea6N\x93+\xa8\x89\xd7&lt;\x80=k\xe7\x9b\r\x13\xf6\x81\xf0u\x87\xfc$\x10\xea\xd7\x92\xa5\x83\xc7\x1c\xc2br\x9d\n\xb1\xcf@GS^q\xfbfiQxg\xe2n\x9b\xf1\x0e\xc6\xce$\xb7\xf1\xae\x8b\x16\xaa\xca\x84\x05\x86\xedW\xcb\xbaE\xf5\xfd\xf2\x16\xfa0=\xea\xc7\xc0\x1f\x88\x9e\x05\xd4$\xd3\xf5\xcf\x17\xf8R\tn\xcby_j\x9e\x01!&lt;\xf1\x83\xd1~\x87\xa5~\x81\xfc$\xf8\x8b\xa2\xda\xe8\xc2\xebK\xb8\x8c\x03\x10UH\x82*\xb6\x07\\\x8e\t\xfaW\x97\xfc~\xf8\xcf\xe2\x17\xf1t\x1a^\x9d\xe2\xa9\x04O\x92\xd0\xc3&gt;\xec\x12z6\x0f\x15\x81\xe0\xaf\x01j\xfe3\xd4W\x16\x9e}\xc4\xd2\xeex\x82\xe799\xc9=\xab\xea\x8f\x80\x7f\xb2\x16\xb1qr\xb7\x1e1\xd2\x1e\x0bE\nc\x88\x9c\xa9\x1e\x83\xd6\xbe\xa0\xf0\xcf\x80\xbc\'\xe1{\x7f\xb0h\xb6Q\xc6\x12 \x01\x11q\xc0\xf5\xab\x8bb\xdeH\x82,\xfc\xd2dq\xc9?\xe1V\xa5\xd1n\x073\xf1\x8f\xbc\xabU%\xb5\x16\xf1\xb48;w\x16\x00\x8a\xe7&lt;a\xa2\xd8jv\x0c\x97l\xc5\x1bq\x8f$c%k\xf3\xf3\xf6\xae\xfd\x9b|e{\xe2k\xadn\xd7\xc3\xb2\xdcXC\x1cr\x89\x10|\xcc\xc0`\x05\x00r@\xaf\x90\xfe5~\xcd\x1e+\xf0\xf6\xab\x1e\xbf\xa9h\xb76\xb1\xac&amp;\xef\x0f\x03fbW\xe4\xceG\x04\x82\x0e+\xd3\xbf\xe0\x97\xbf\n&lt;_{\xe2=+Y\xbb\xd1%K[]I\xa7gx\xdb$\x9e[\xb7N\x18\x7f\xc0\xab\xf4\xe2}\x19`\x89.\xad\n\xaa\xc8\xb8\xc2\xaf_q\xedSxw\xc2\xf2\xea3\xc8\xbeR\xba\x8e\xae\x0f\x19\xaf\xcf\xeb\x8f\x0b\xc7\xa4j&amp;\xca;q$\x8c\xbfx\xf7\xf7\xc5e\xc3\xf0\xca\xce\xf3S\x93S\xd5\xa0("\x0cQ\xd4q\x93\xce3\\\x1f\xc2\xeb}\x18~\xd5z\x1d\xd3[-\xd5\xa5\xa6\xb0\x9b\xa2)\xf2\xb4JT6\xe2x\xe4\x92G\xads?\xb7\xe7\xfc\x13\xf7\xc5\x7f\x07\xfe&amp;j&gt;$\xf0\xde\x85sw\xe1\xedJ\xf1\xaf\xb4\xbb\xd8\x10\xb0\xb6\x12\x12\xe6\'\n0\xbbA\xdb\x93\xe9^=\xf0\'\xf6`\xf1\xaf\xc5\x9f\x1a\xd8\xf8cD\xf0\xed\xc5\xd4\xd2\xca\x15d01XT\x81\xb81\x03\x1e\xb8=\xeb\xfa\x02\xfd\x98\xbffo\x0c|%\xf8\x1f\xa0x\x16\x18\xa0\x8f\xec:r\xa4\xae\xa8\x06\xf7(\xa3,\xdd\xbdkW\xe2o\x84\x0f\x83\xado\xfc\x1d\xa8\xdb\xc5+\xdb\xc6\xa2\xe5X\xab"\x17\xfb\x87w`k\xe2O\xda+\xc2\x97^\x1a\xd4o\xec\xb5\xbd\x1e\x18\xa7\xb7\x9c\xc4\xd1[\xaec\x90\x0c\x8c\x928=85\xf1\x87\xed\x9d\xe1s\xad~\xca\x96\xfe&amp;X\xe4\xdf\xe0\xef\x1c,Q\xab0\x05m\xaf"\'\xaf\xf7D\xd1\x8e=K\x0e\xc6\xb9?\xd8S\xc1\xd6\x9f\x14&lt;1\xaeh\xb7Ld\x9fL\xd4\xa2g]\x9c\x98\xe4]\xd9\xf6\xc18&gt;\x86\xbd\n\xe2\xc7\xe2\'\x84\xfcG{\xe06\xd6n\xed\xecm\xc0\xf2b\x91\x8e|\xb2p9\xeb\xd2\xb5\xfc\r\xf0O\xc4\xde3\xf1*\xe8\xfap\xb8\x95\xdaPD\xae\xecUW&lt;0n\xe7\xda\xbfC?b\x7f\xd8\xca_\x87r\xa7\x89\xb5\xeb\xcb\x9b\xa9\x9c\x86+:~9\xc1\xed_X\xeakb-\xa2\x8e\x18\x04r*\x91\xb7\xcb\xda\x07\xd6\xb0c\xb4\xbb\xf3\x7fxW{\x0f\x93i\xe2\xb5-t\xe6K@$@$\xc8\x0eH\xe4\x1fj\x8d\xa5\x8cHR(K2\x8c\x16c\xd4\xd6&amp;\xba\xed\x05\xbb\\\xcd:\xc6\xaa\xdf1f\xc0\xfaV4\xf7\x96\xe6\xdd\xa7\x9a"W\x1f"0\xe8M`\xdcO\xa7\x16\xb9\x86;8\xe7~\x14\x89@d\x15\xca\xf8\xb3\xe1w\x83|g2\x7flxb\xcau\x82p%i\xe3\nzc\x00\x1e\xa0t\xa4\xf0_\xc2o\x08|6\xca\xf8sC\xb5\x84\x99\x8b\xba"\x05\x00\xb9\xc9\x1fNk\xb5\x97C2@\xb0$*&lt;\xbc\x05E\xe7\x8foZ\xe9|\x01\xe1Am,\xb2\xbd\xb6S\x00\x05\xdb\xd4\xfa\xd7\xe6\xd6\x85\xe1/\x1b^x\xfd\xa0\xd4/\x12t\xdcc\x03\xca\xc6\x088\xae\xbb\xf6\x8f\xf8\x1d\xa8x\x17\xe0\xfc\x1a\xc4:\xfcw\xd7\x1a\xace\xd6\x0bx\xce`l\xfd\xc2G|V\x17\xc2\xbf\x02\xfc\x16\xf8Q\xe0\xcb\x7f\x14\xdei\xb2\xdek\x8fn\x1aH\xcan\x0</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00\x1e\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf9s\xc6\xda\x9c\xe2\xe1\xd2 J\xedd\x91_\x90\xdc\x1e\xdd\xeb\xc1\xbe \x88-Q\xad\xc6\xd5\xdcN\xd5T\xc0_\xa7\xa5x\x8f\x8a\xee&amp;\x86\xe5\xe1\xf2w*\x13\x9e3\xd6\xac\xf8.)\xe6V\x8e(X\xe1\x015\xf6\xaf\xc4{\xd9a\xbf\xfbB[0^IX\xcfOz\xf1\x1f\x88\xce\xd2\xb12Z\xb3\xba\x92\xe3\xe9\xef^=\xe2i\xe2\x85n\x04\xd68f\xe47|f\xa0\xf0^\xa3z\x8a\xe9o)F\x087\x1d\xd8&amp;\xbe\xd2\xf1u\xc8\xbf\xb9{\xbb \xca\x8c0Ku\x07\xbek\xce\xbci\xa5&lt;\xd0\xc9\r\xa8\x8eG\x91v\x96(\t\x1c\xfa\xd7\x86|A\xd0ol\xe5\x9a\x11j\xfb\xc2\x95,\xc3\xf9W\'\xa0E,R&lt;"\xe9\xd5\xc2|\xc41\xcd}\xbf\xab_]\tM\xb8\x11\x80]\xb2\xdb2H\x00\x9c~\x95WA\xd3\xb4\xbd[P\x93I\x93NBZ!.\xf79\xfc3\xdb\xdb\xde\xb8\xcf\x8e_\x0b\xf4\xd8\xa1\x86A.&amp;\x946\x19N\x14.\t\x19\xf5&gt;\xf5\xf3&amp;\xb5`\xdaV\xa1,1I\x89C\x90\xee\x9cdW\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00_\x01}\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc@\xf2\xa2\x07p \x92y\x06\xa3e\x05\xb0\x07\xd2\x82v)\xcf\\pj\'fa\xf31?SL\x0cA\xc9\'\x03\xaf4\xa0\x15;\xa3l\x87\xe0\xee\xec)\xdeBy\x98\xdf\xfc&gt;\xb4\x92[\xae\x00\x0er}\xeaHn\x85\xb9\x19\xcf\x96\x0f\xcc\x83\xa1\xfc+\xef\xdf\xf8 \xaf\xedk\xa7\xfe\xce\x9f\xb6N\x89g\xe2\xcdg\xec\xda\x07\x89Yt\x8dv}\xd8\xfd\xdc\xd8U\x90\xfa\xe1\x8e\xec\x9e\xe35\xfb\xb9\xf1g\xe0\x0e\x9d\xf0{\xe3T\xbe1\xd3t\xf8\x7f\xe1\x12\xf1\xe5\xba\x8b\xa8!Q\xe5\xc1~&gt;fL\xaf\x01X\x90\xe1\xfb\xe4\x8a\xfc\xc1\xff\x00\x82\xa8\xff\x00\xc1;\x07\xec1\xf1"\xdf\xe2\x95\x8d\xb2j&gt;\x17\xf1]\xc5\xc3\xe9\xd6\xd1(\xfd\xc3+\x83$\x0e\xbd\x08`\xc5\x93\xb0\xea+\xf2\xff\x00\xe2\xe7\x84\xd2\xcb]\x93Z\xb2\x0c\x96\xd3\xc8O\x97\xb7\x98\xb9\xc8R}\x07\xa5`\xf97Z\xa5\x99x.\xa3k\x8be\xcb\xa9\\\xa9\xc7M\xbf\xd6\xbe\x91\xff\x00\x82l,\xde1\x8f\xc6\xfe\x153\xeeKkx.\xe3\x88\x8e\xa7\x1e[0\xfc\xfa\xd7\xd0\xfa\x05\xff\x00\x88&lt;&lt;\xc3O\x87\xcd\x08%\xc6B\x96\xefZw\x1a\xce\x9f\xa5n\xd6|_\xe2\x18\xec\xad\x91K7\xdaf\x00\x1098\x19\xe3\xf0\xaa6_\x1c\xfcq\xf1\x99\xe5\xf8g\xfb;x"{\x95\x9eE\x86\xfb\xc4\xb7!\xa3\xb4\xb6Bv\x93\x1b\x1f\x98\xb6\t&lt;q\x91_\xb3\x1f\x03m\x1e\xd3\xc0zU\xb42\xe0\xb5\x94#b((\x85b\x01\x87=\x01 \x9a\xf5\xcf\x86\xf6rM\xab\xc9\x06\xcc\xc6#%\x9d\xc6EK\xf1\x0f\xc22\xd8\xf9\xaf\x0c\xa9 _\x99\xd3\xd8\xd7\x9f\x03*\t-\x1d\x8a\x0c\x93\xcfa\\\xb6\xaf\xac\xdd\xe97\r&lt;\x12&lt;\xaa\xf2\x05l\xe0\xe3\x9a\xb3\x1d\xfc\x177&amp;[\xf9Ih\x902\x00{\xf6\xcdih\x1a\xbf\xd8\xafR\x16\x1eZ\x97\x0c\n\xf1\x8ez\xd7mkz\xb3\xc0\xc6+\xdc)u\xdcX\xf6\xcf5\x15\xca\xdc\xce\xea\xb0\x90K\x9c1\x1cl\xf4\xe3\xde\x99\xa65\xd4\xaf0\xd4\x0b\x10\x14\xec\x8c\x0e\x08\x15\xa5i\x1d\xacj^\xd66\xdb \xc8$}\xd2==*\x18t\xe8"\x12K1\\Hy,3L\x9fO\x95\n&lt;\x01dPA\x049\x18\xad\x18\x8c\xf1\xc4\x87,[\xa6\x19\xf3\x8a\xb5kc;\xc3\xe7\x9b\x81\x9c\xfc\xa3\x1d&gt;\x9e\x95\n\xdeN\x8cR)w2\xb7\xcd\xcf8\xaaWz\xbb\xc12\xff\x00\xa1\x87R\xdbF\xe3\x96R{\xe7\xd2\xb35\x9b\xe6\x19K\x900\xc3\x11\x84n\x84\xd75\xac\xddM\xa6[yp\x17\x1b\x10\x8e1\xde\xb9-OV\xbb\xbc\xd4\xa7s;\x03\x0c$p;\x91Y\x16w\xb7\xcb&lt;P\xea7jRg&gt;PQ\xf2\x8f\xfe\xbdlZ\xe9\xb2[\xdb\xf9i(*\xcf\xb8\x00j\x9e\xaf\xa2C4\x11$r\x04X\xdc\x10\xa3\x809\xf4\xf4\xaeK\xc663Z\xcd\xe7\xc0\x0bF\xa9\xe5\x15=L\x83\x9c\xd7\x19\x05\xdd\xf2\xeak\x1d\xecN\xec\xd9)\xcf~\xd9\xab7\xf3F\xb1\xec\x92\xe5\xd2N\xbb@\xc8\xfaU\xaf2%\x829\xc0\x0ed.#\x07\x81\xc2\xf4\xc7\xa7\xb5f\xebvOmk\xfd\xa3s:\x06\xea\x8a\x9d\xab(\xad\xed\xee\xa2\x1c\xdc)\xccGn[\x1d\xbbV\x0f\xc5MV\xf2\xd2\xea\xd2\xd9\xa3\xfb\xaa\xff\x00u\xff\x00\xdd\xaf\xe7\x04*\xeem\xb2\x1c\xe3\xd6\x85"5%\xc6x\xfci\x1d\x1at\x06&gt;3\xeb\xd6\xa1 \xa9\xd8\x7f\x87\xad**\xb7\xcc@\xc0\xebJ\xd0\x10K\xa0\xc84\x9e[\x03\x9c\x9f\xce\x9c\xdft\x1aj\x04\xde\x0b\x1c\r\xc0\x93\x8e\x9e\xf5\xd3|\'\xf1&lt;~\x1e\xf1M\x9d\xe5\xcd\xcc\xb1\xa2\xcc\xb1\xcb:u\x89\x0bcx\x1d\xca\x8c\x90=\xab\xfan\xff\x00\x82a\xff\x00\xc1M\xbfg\x9f\xdaO\xf6F\x83\xf6~\xfd\xa0~ YE\xe2\xfd\x0e\xd8i\x12\x0b\xd7\\\xdf\xdb\xaa\x7f\xa2\\FX\xe0\xbe\xdc\x7f\xdf5\x83\xfbj\xfc\x08\xf8\x95\xf1\xdf\xe1\x86\xab\xa1\xfcL\x90\xeawcFK\x9f\x0c\xc94\xbf.\xcc)\x86\xe9q\xc0s\x16c+\xd7\xe6\xf7\xaf\xc6\xdf\x8a\xbf\xb3\xb7\xc4\t\xf5+\xdf\n\x7f\xc2\xbf\xbf\xba\x1es\xc6\xeb\x05\x83\xb3+\x0c\x81\xb4\x81\xc9\xae\x0fO\xff\x00\x82|\xfe\xd5P\xdc\x1b\x8b/\x85\xda\x95\x94\x05\x0e\xc9\xf5\x18\xc4(\xb1\x91\xc9;\x8f\xa5z\x8f\xecs\xe1\x9f\x0f~\xc7\xdf\x105\xddK\xe2\xdf\x8b\xf4\xc3q\xabi\xa9gi\xa5\xe9\x17\x1fi\xb8\x95\xf7d\xa9A\x91\xc9\xed\xeb^\xc7m\xe3\xff\x00\x8bZ\xfc\xf3\xda|=\xf8\x19qm\x14\xacM\xbe\xad\xe2F\xf2\xd3kteA\xe9\xd7\x15w\xc0\xff\x00\xb0\xd4~4\xd5#\xf1w\xc7\x1f\x17\\\xeb\xb2\xbb\xef6hJZFs\x90\x9b:7\xa7"\xbe\xa6\xf8_\xe0?\x0fxGO\xb7\xd3\xbc?\xa0Z\xd9B\xbbR$\x86 \xb9\x03\xe8+\xee\x9f\x83\xf3\xf9\x9e\x1a\xb0\x81\x91\xdfm\xba\x96q\xec:W\xbe|.\xd2Vh\x19Y\x06\x02\x1d\xc0\x8eNEhx\xce\xc7N\xb6\xd2\xcd\xf6\xcc\xccb\n\xc9#g&lt;\xf55\xe1~:\xb8\x92\xc7RX"O\x96P\xc5\x98\x0c\xfe\x19\xae\x1b\xc4\xb2Gk:\x18P\x00\xc4\x17F\xe9\xf8\x0fZ\x80kv\xf1\xde\xccL\x807\x94:\x9e\xbcV\xbd\x96\xb3\x15\xd3$+ \xf36gq\xfe\x95\xd2i\xda\xf8t\x8da\x9f\x05Xn\xf9z\x9c\xf7\xf5\xae\xc3H\x8b\xced\x96fi]\xc8l\xe0\x0e\x95\xd1Y\xc3\x0c\xd6\x10\xe2\x10\xae\\\xa9\x93j\xe7\x1fZ\x91\xed\xec!\xb6\xf2\x04!\x86\xec\x12\xa7\xa5W\xbe\xb0\x85\x19&lt;\x95\xdc\xa7\xf8W\xb5Vh\xa7\x9aA\x00%T\x1f\x9b\'\x9cS5\xdb\xcb]\x12\xcd%\xd4dH\xcb\x10"e;w{g\xd7\xde\xa0\xf0\xf7\x8et\xadn\xc8\xc9b\xef)\\\x8d\x89\x8c\x02=H\xebE\xe4\x82Y.d\xd2!!\xf06\x16n\x1b\xd6\xb0\xafu\xcf&amp;\x7f\x9a\xdb\x127\xdfbz\x01\xd7\x15\xcf_]\xea\x172\xf9\xd0H\xa5Hc\x87Z\xc7t\xbd"i\xae\xa4\x0c\xab*\x9c1\xcbp{{Uy\xe2\xf3\x9a\xe0m\xda\xcc\x01\xc8\xe0\xb5P\x9fH\xb5Hm\xe51\x0c\xa3\x16T\r\x80O\xa5Y\xb9\xfe\xd31E\xf6(R0\xcc\x01-\xce\xd1\x9a\x97Q\xfb\x02\xb1\x8c#2\xe0\x06s\xc7\xce\x7f\xa5q\x9e6\xbck@\xd6\xf2\xba\xb3\xb1-\x11\x07\x07v;\x91\\d\x97\xb1Oq\xf6\x82\x9bd\x1c\x96\x88\xe4\x00:\xe7\xdb\xd6\xad\xce\xaa\x92\xbd\xb7\xca\xef\xe5\xe7v9\xc1\xfeuV\xf3I\xbc\x9a\xca\xdeD\x99\x81V%X\xa8\xf9=\xeb/\xc5\x91\xdd\xb5\xb6l\xdcL\xec\xea\xaa\x13\xe5\xe7\xfaV]\xc4\xd3G/\xdao\xec\x87\x9b\x1b2\x84\x03\x1bp\xbds\xdf\x15\xe6\xdf\x1b\xbcS5\xa6\xadg\x1a\xcd\xb70\xb1 \x9fq_\xcf\xa2\x00T\xb9Q\x91\xd2\x86\xe0nQ\xb9\xbd\r$\x13\x9f4,\x8a\x07&lt;qM\x93\xcbe|\xaf$\xe3 sQ/\x94\x83f\xf7\xe7\x8e\xb4\xf8\xe4o\'k\xb1\n\x1b\xb1\xa7\xc8P\xa8\xf2\xdb\x1e\xb9\xa8\xfa\xf0O\x14\x84\xb0\x07\x03\xa0\xf9O\xad6\x0b\xbf"_9\xe5!\xb3\x96\x19\xed]g\x83&gt;,\xf8\x93\xc0\xda\xbd\xae\xad\xa3\xea\xf2\xc5-\x91F\x85\xd6VR\xbb~\xe8\x04\x1c\x80\x07\x03\x1d\x05}s\xe0\xff\x00\xf8/\xb7\xed\xd7\xe1\xaf\rZxB\xe7\xc6Qj\x96VI\xe5\xda\x1d^\xdb\xed\x0e\x8b\x800\xac\xe7-\xc0\x03\x04\xe0\xe3\x14\xfb\xaf\xf8/\xe7\xed\xb7\r\xbc\xd6Z\x1c&gt;\x12\xb1\x17\x19/w\x1f\x86\xa1y}\xf8f ~F\xbc\x0f\xe3W\xfc\x14\'\xf6\xb7\xfd\xa0\xefd\xb8\xf8\x8b\xf1\xabU\x9e7?\xf1\xedk(\xb7\x88/\xa6\xc4 \x01\x8fJ\xb9\xff\x00\x04\xfa\x86O\x17~\xda^\x07\x83R\x91\xe7\xff\x00\x89\xc9\x92S9\xde\xcf\x80\xe7\x9c\xf5\x19\x03\xf2\xaf\xda\xcdS\xc1\xd6Z\xac\x90]\xa4Q\x80\xb0\x8e\x04@\x1c\x0e\xc2\x8d/@\x87N\x82G\xfb8M\xc7\x05v\xe0\x91\xeb[\x9e\x15x\xed\xadc\xbc\xbd\xb8]\xbb\xca$d\xf3\x8a\xfb\x07\xe0\xcbMg\xe0\xbb[\x88a\xfd\xe4\x91\x0f,0\xe3\xd8\xd7\xb6\xfc.\xd4\xef,4\x15\xbe\xd6\x9dL\xd2C\xbd\xf0\xf8*A\xe2\x99\xe3O\x11ZjVM\x0b\xc7\xf3\xe0\xe0\xe3\x92=+\xcb&lt;R\xe5m\x81E\x03\xca\x7f\x9c\x95\xe7\x07\xb5y\xb7\x8du(\xe3\x81\xd6HK\xb0\xc9W\xc7+\xf4\xae2\xff\x00Y\x9c8w\x12\r\xcb\x8d\xcd\x18\xe7\xebW&lt;5\xe2\xc0\xd2\xc79\xba]\xd0\xfc\xa83\xf7\xc7s\xf8WQg\xe3\x88mH\x89f\x05\xd9\x81\xc6k\x7f\xc1\xbe:\xba\xbb\xdae\xbf|\xf9\x84\x00d9\xc7\xa75\xe9~\x1d\xd41h"\xb9/\x99?\xd5\xb3\x90pMt\xd6\xd7\x96.\x1f\xfd\x1b`\x8ei\x01e\\\x06\xc1\x18\xa9\xe7\x12E2\xdd\xdb\xc5\xb9H\xce\x15\xf1\x8f\xadWy\xed!\x98E1S4\xac\x02\xa8\xc9\xc9=\xb3\xda\xa8x\xcf\xc1\xfa_\x8d\xb4\t4]J/9\x1b,\xab\x14\xa5\x19\x08\x1d\x8f\xadb\xf8/\xc0\xba7\x824\xc3\xa2i\xa8\xc0\x06-\xb4\xfd\xe4\x1d\xce{\xd5\x9dCP\x87M\x84\xcb\x0cE\x94d\x0cv\xcf\xa5q\x1a\xbc\xba\xad\xd6\xbb\x0ci\x1b\x04I\\\x97\x1ft\x0ct4\xf9n$\xb6\x8c\xdb\xce\x88\xc5\x81\xc1&lt;`VH\xb9\xb3\xba\x9d\xf6\xc8\x1c\x0e\x18\xee\xce\x0f\xa5R\xbdI\xcd\x9f\x9d\x1d\xc6%p\xca\xa3==\rC%\xbd\xe5\xe4\xb1\x06\xb7WR\xa0nE\xc6\xdfSS\xcfg|a\x11\xd9\xcf\xb4 \xcbs\xd6\xb3|G\xa9\xc7ij\xabw).9\xc0\x1dH\xaesVK;\xc5K\xa9\xe1\x0eX\x8c2\x9c\x95\xae\x02\xcbJ\x9b\xfe\x12+\xbb\x98\xaeL\xd1J\xc9\xe5D\xe3\x020\x14\xe7\x1f\xd7\xd6\xb5\xb5=\x0ex\xedR\xe8\\~\xf9\x082;\xb7%}3U\xec\xee\xd9-\xd2)\x8b\x13\x1c`\xe4\x1e\xa4\x9a\xab\xa9\xa8\xb7A\xb9\tRw6Nv\x8f\\V\x0f\x88o|\xe4\x91\xa6\xcbH\x18l\xdap\x02\xf78\xf5\xc5x\x8f\xc7Kk\xbdS^\xb3\x9e8\x98(\xb5\xc0\xcf~z\xd7\xe0\xdb\xc8\xbb\xbbu\xebHZA\x9d\x88\x01=\xe9\xbeT\xa5K\x17\x19\x03\x83M1\xca\x1f\x96\x18\xdb\xc8\xa5XC\r\xec\x06\x07\'"\x94"\xaa\x84\xdd\xf7:\x8f\xad4*\xb3\xfc\xca\x0e:dSe\x1f8Q\xde\x94\xbf\x94\xbf78\xe9\x9a\x84\x98\xc7\xf0\x02\xc4\xe4\xe4t\x150\x00?\x98\xc39^\t\xa2G\x1e`\x0b\xc6W\xa8\xe2\xa3*\xeb\x80\t \x1e3\xda\x9d\x1e\xcd\xdb\xe4@\xd8\xea\x0fq\xe9^\xff\x00\xff\x00\x04\xca\xba\x83K\xfd\xb5|\x17\xa8\xdf\x15\x06\x19\xae0\xce\xf9\x0c\xc6\x13\xb4}rx\xfa\xd7\xee\x17\x86\xef\x06\xade\x1f\x99\x1a\x9d\xcb\xf2\xedo\x98V\xd2xV}FC5\xad\xa4\x8f\x84\xc2\xc7\x8c\xee&gt;\x94\xed\x1b\xe0\xde\xb5e}o\xa8k\xd0\xb0\x83v|\x8c\xee\xc7=\xeb\xeb_\x87\xf6m\x06\x8dm\x14\x0f\x88\xa3\x01V0z\r\xbd+\xd2\xbc+\xa7Iv\xb9h\x19\xa2\x89\x7fz\xf2s\x9fa\x9a\xad\xe2\x99"\x8awh\xad\xb3\xe5\x8cJs\x91\xecW\xfa\xd7\x0f\xabL\x97;\xe3\x962~m\xccO\\\n\xf3\x9f\x18\xe92\xeaR\xb41*\x9f\x9b;\x98\xe4\xe3\xd2\xbc\xeb\xc5\x84\xc3nm\x96\xf8n\x84\xed`\x17\x91\x9fZ\xc6\xf0\xc7\x86u\xf4\x99\xe6S\xbe\x18T\xf92\xed\xc6\xed\xddi/\xf5\x1b\xbf\x0c\xcao5;\xf2&gt;n\x0bd\x91\xf4\xad\xdf\n\xfcI\xd3\x99-\xe7*\xb8f\xc2\xba\xf3\x96\xed\x91^\xbd\xe1/\x17M\x7f\x1cWR\xbf\x9d\x18\x00\x05\r\x8d\xbe\xf8\xafT\xd15\xf4\xbf\xb3"\xdaB\xab\x91\xb9\x19s\xc9\xea~\xbe\xf5\xd0\xda\xc7\x1bHU\x8f\xcd\x18\x1b\x80=s\xda\x88.`{\x94s\xf2\x11\x90\x0b.\xec\x1e\xd5\t\x173N\xc8\x1dY\x06H\xc0\xda+.\xf2q\x16\xa0c\x91\x8a\x92\xb8\x00s\xf8Vv\xa7\xe7Nb\x85\x02"\x00Kq\x8c\xfb\xd6^\xb7&amp;\x9bd\xablet.w;\x83\x8f\xa9\xfa\xd7\x0b\xe3!\xab\xba\xac\xf6!\xa4\x8d\xdb\x12\xb3\x12J\x0foJ\xe5&lt;+g\xe2(\xbe\xd34\xc1"F\x97\x08\xae:\xfb\xd7I%\xbc*\xa8\xd1\xceL\xa0e\xb2\xdc\n\x96\xda\xf2x\xec\xde\xddB\x19\x00;\x1c\x1c\xe2\xa7v1\xd8\xf9\x91H\xad9\x1dA\xc0\x07\xdf\xda\xb9\x0f\x17G\xa8]\xdc\x18\xc2,\x86(\xc9\x94v&lt;VQ\xb5\x86[e\x89\x99m\xa6*Y\xd5I\xf9H\xe8?\x1a\xcc\x9fF_\xb5%\xb5\xb8\xf3QN\xed\xe4\xe0\x83\xed\xedQx\x8e\x07\x8d\x1e+\x8b\x82\xc3\x80T\x0c\x91\xf8\xd6-\xc5\xb2B$ay\xb1F\xdcFG\xde\xf6\xaa\xfa\xa6\xd9-\x12\xe6\xdc\x9c\xe7k|\xff\x00tW\'\xe27\x86)\x8f\x9fu\xccc\xcc\x007\xde\xc78\xae\x7f\\\xd0\xec&lt;@\xf1Mt\xc0\x14R\x142g\x00\xd7\xf3\xb80Hg\xe3\x153\x82\xa9\xb8\x9e\x08\xa6\x15\x05@\xc7Z\x8d#\xcc\x87q\xe0\x0f^\x94\xe8\xe5\xce\xe8\xc0\x1bq\x8c\xd3[\xef\x03\xeay\xf7\xa6\xa1&gt;a\xe6\x9f\x80c\r\x81\x9d\xc3\x93Q\xc9\x14\xb21!\x97\x00S\x0cAN\xe7\x19lu\x02\x9c\xe4\xf9}{R7,\t\xfe\xed\nI!A&lt;\x9e\x94\xe7\xda\x9c\x1e\xf5\xdd\xfe\xcc\x9e+\x1e\x06\xf8\xe7\xe1_\x13\xac\xdbV\xd3]\x85\x99\xc9\xe1&gt;u\xc9\xfc\xb3\xf8W\xef\xef\xec\x9b\xe1\x8dC\xe2\x8c\x16\xba\xca\x17K$Ui\xa4*0\xca@&lt;{W\xd4\x9ag\x83\xfc/\xe1\xab%\xb3\xb0\x89%.9\x90\x80H?Z\xc8\xd7.cw\x8dV\xdc#&lt;\xc1$\xdazs\x81\xf9\xd7\xa9\xf8,y\x16\x90\xb4o\x8cG\xb9\xdb\x19\xc7\x1dq\xde\xbd\x93K\xb8{;k{h\xed\xd5\xc5\xc9-5\xb2/@\x17\x86\xcfo\xa5T\xf1/\x87\xe4\xbe\x82[\xa8`\xb6\x86(T\xae\xc0\xb8 \x9e\xf5\xe7\x1e)\xd3M\xac3H#\xc6H@\x98\xe4\xe7\x8f\xca\xbc\xe3]\xd3\xe6\x8aE\xbd\x800`\x1b\x1e\xc7\xb1\xae3U\xf8\x7f\xe2\x1dV\x1b\xeb\x9d\x1a\xca\xdeK\xd9T\xf9rL\x80G\xbb\x1cn\xfcq]6\x8b\xe0]N=\x12\xde\xce\xf6\x05\x12\x88\xf19\xb7\xc9UoQ\x9e\xd5\xc8\xfcR\xf8o\x14\x80\xf9\xf8a"\x1d\x9b\xd3\x81\x81\xd7\xda\xbc\x0bY\xd4\xf5o\x85\x9a\xd1\xb9\xb2v\x96\xd2)rSn\xef\x9b=\xf3\xda\xbe\x82\xf8\x1d\xe2c\xe2\x7f\x0f&amp;\xb5\xa7\\#\xbb\x80d\x8c\x1f\xba\x7f\xa5{\xc7\x825y\xad\xed\x83O\tP\xe9\x83\x86\xe3&gt;\xa4w\xae\xc2\xce\xee\xe1\x9b\xcfh\xc1\x05r_w\\\x7f:\xb7a\x87\x93u\xb3\x959\xe1\\pM3R\x95\x8c2\x83!\x8e\xe0\xa1\n\x99\xca\xf4\xebY,a\xcc\xb7\x84\x12\xc0\x0c\x90\xf8Q\x8e\xb8\x15J\xf5\xe2UI\'\x92&amp;,\xc0+\x02p\x01\xf6\xf5\xae\x17\xc5W\xb2j\xb7\xa2\xdf\xed\xec\xac7(P\xbd\xaa\x1b\xddU\xad,E\x93\xc7\xbf\xe4\xf9\x98\xf7\xfa\xfa\xd6\x19\x90]2\xbe\xa2\x81bY\x01M\xbc\x0e\xbd\xf1UE\xed\xa5\xf5\x94\x91\xd8K `X;\x01\x90G\xa6MA\xe1I\xae\xa4\xbe\xb8\x8e\xed\n\xa4$*\xb7\xaej\xf6\xa7w5\xb4\xedi&lt;K\x99#,\xf2\xa1\xe1\x00\x1c\x0f\xc6\xb0\xb5\xcb\xcb\xb2\xec\xb6\x0cFJ\x86\x7fo\x7fZg\x93u,\x8a\xd3\x80\x1d\x80\r!9\xdf\xeci\x97:4I4\x92\xef\x90I\x18\x1b\xd8\x1e\x005\x89\xa9\xdf;\xac\xf7v\xc9\x1f\x90T\xab\xb1Pr\x00\xe7\xebXr\xdb\xdf]2\xca\xd6X\x81\xd8~\xf0\x9d\xc0\x8f\xa7j\xe7\xef$KO\xdd\x99\x99T\xc8s\xf2\xf1\xf9W-\xad\xae\x9f\x15\xe4\x92^\xcb\xe7\x95`\x14\xed\xe1s\xd3#\xd2\xaa\xd9j\xd3\xdd[\x07\xb7\xb7D\x01\x88\xcc\x92r\xde\xfe\xc2\xbf\x9d\x80\x81\xdc\xae:\xf4\xa7\x926\xf9l2E4\xf4\xa6\x05\x0e\xdbX\xe07\x04\xfbS\n\xb2\x92Tt\xe3o\xb7\xad\n\xc00/\x92\x01\xe6\x8c$\x91\x97\x84\x15\xe7\xbfZ\t\xda\x81\t\xea{\xd3DlI\x00\xf5\xf7\xa3cF\xa4\x12zS9&lt;S\xd6"\xc3\xf0\xe2\x95S\x90\x07Pi&amp;\x05\x9b\x00d\x9e\x95%\x8c\x93\xc5:\xc7h0\xe5\xfa\x8e0Oz\xfd\xec\xff\x00\x82T~\xd26\xbe:\xfd\x9a\xb4\xd9\xf4\xeb\xe5k\xcb\x0cZ^\xa6\xec\xe0\xaa\xe0\x13_bh\x1e+]W\xc8\x8d\\\x83\xb4\xb30\x1c3zT\x9a\xbc\xb6\xeb\xaaEx\xfb\x9a(g3J\x89\xd5\xf6\r\xd8\xc7~\x9cW\xb1\xf8\x01\xbc\xf8\xd6`\x00\x8eHC.8(=\r{g\x80\xa4\x81tsu\x1c\x99i\x1c|\xc7\xa9\xc5Y\xf1$\x1f\xf1$\x9ei\xa5!\xe7\xca\x94\x03\xaf\x1dk\xc9\xbcg~R\xe8\x8b\xa6Vh\xe5 \x14\x1f\xc2\x07C\\\xad\x95\xb5\x9e\xad;$\x99\xda[\x18\xcfJ\xeat\xaf\x04\xe8\xb1[\xc8`@z\x1c\x13\xc0&gt;\xb5OU\x8a+\t\xa5\x88\x15\xc0\x03\x1f7J\xe1\xbckqg?\xef\xa4t+\x1a\x9cn\x00\xe2\xbe_\xf8\xe9i\xa7\x93|\xd7V\xc1\x86H\x12\xf6\x19\x1c\x1f\xc2\x8f\xd8S\xc5\x17W\xfe+\xd4|\x1f\x1d\xe11Gi\x1b\xb2\xf6V/\xc7\x1d\xb3_hxwO\x9e\xde\xd4)\x8fv;v\xae\x9fMv\x1b\x16E\xdd\x16\xe1\x8c\xfd\xe0\xdf_J\xd8\x8a[\x89\x81\x81!\xea0\x8c\xc78=\xaa+\x98\xd5e\x92\x06b\xc6H\x8ed\'!x\xed\xe9Y\xb7\xa2\xce\x14\xd8\x91\x96\xf2\xe7%\x8a\x8e\xc0V\x06\xba\xe1\xe1\x8c\xda\xc9\x92\xc4\x95\x0ez7c\xeck\x99\xd5\xad\xa5\x87Q\xf3]A}\xec7\x06\xe9\xc5s\x97\xfa\xbd\xbd\xdd\xef\xd9\x9em\xee\x8e3\x16r\xdd\x7f\x95U\x92;\xa3q\x15\x8d\x9c\xb2\x10\xb9i\x19\x87J\x9aE\xb6\x89\x9a\x06\x11\xae\xd6\x1b\x80\x00g\xd6\x99"\xda\x9b\'\x8a\xd42\xbb\xc8\x0b&gt;\xea\xc6\xd6u\xdbxd\xf2\x1aU\xdf1\n\x91\xca\x99%\xba\x03Q\xda[\xdf\x05\xdd\x8f5Y\x86\xe6S\x8cU\xb4\xd2\xaec\xff\x00I\xf3\x17\x1d\xf1\xd7\x1e\xfe\xb5GY\xba\xbc\x826\xb4\x89\x8c\xbe~VV\r\x82\x14\x0c\xa9\xfcO\x15\x81\xa8\xc6m\xec\xfe\xc3%\x91\t?\xdd1\x9f\xbb\xeaj\xb6\xa5$\x1ae\x9cv\xb1\xdc\x18\xf22H88\xae\x1f\xc4\x9a\xa0\xb5W\xb8y|\xc5\x95\xb0\xa8\x07*;\x9fo\xads7\n\xd7\xecf\x9cG\x1f\x98\xa4N\xc5\xf8\x03\xb1&gt;\xa6\xb9V\xb2\xf2\xae%\xb7\xb8\xd4\xa3\xca?\xcaH\xed_\xcf\xf6B\x9d\xc3\xb54\xe5\xdbp?Zu!M\xc3j\x81\x93\xc0\xa8\xe4i\x00#r\xe4\x0c\x12:\xd3c8\xf9\xbd\x06i\xe8\xe1\xc6\xcc\xf5\xa8\xe6b%\x0e\x9c\x80@\xe7\xd6\x9a\x0b0\xdd\xb8\xe7wU4\xf8\xd89*\xe7\xee\xf5&amp;\x9b \xc9\xccc\x8a|$\xe4sK\xd2l\x0fZb\x12N\xe2y\r\xc1\xa26u\x91\x99\x1c\xa9\xf5S\x83_s\xff\x00\xc1\x1e\xbfj\x98~\x13\xfcG_\x85\xbe"\x9dc\xd3\xb5\xf9\x89\x0c_\n\xb2\xf4\\\xf6\xeb\x8a\xfd\xa4\xf0\x0e\xb5\x05\xb5\xb0\xb7\'w\x96\xca\x11\xc3n\x04cv\x7f*\xea\xb4]F\xde\xe7[\x81\x8a)\x1b\xb7\x10G\x7fZ\xf5?\x0c\xde0\x8e=\xed\xe5\x90\xe1\\\x0e2\t\xeak\xd3&lt;\x17\xe2g\xb1\xd3\xe0\xb778HX\x9c\x86\xebO\xf1\xf7\xc5ci\xa6\xfc\x97\x19`\x0e\xd2[\xa1\xaf\x1d\xd7~"F%\x11\xcd0a1gf\x03\xab}k2\xd3\xe2]\x8e\x95\x13_^\xb2\xc5\x10o\xbc]@\xfcI\xaf\x1c\xf8\xdf\xff\x00\x05k\xfd\x9a\xff\x00g\xe8&amp;\xb3\xf1O\xc4\xeb\x18\xef\x11\x8f\xfa,\x12\xf9\xae\xc4\x7f\t\xdb\xd3=+\xc0t?\xf8/\xaf\xec\xfb\xe3\xef\x126\x99\r\xf5\xfd\xb1g(\x93]Zm\x89\xf2p\x08#\xaf\xe3^\xa9/\xed\x9b\xe1\xaf\x18\xe9Q\xdd\xe9:\xcd\xbb\xc5"\x07\x8db\x90\x12\xe8z\xb1#\xb8\x1d\xab\xcb~-|p\xd2u\x92\xc6[\xf4he9(\x1f\xd3\xd6\xbb\xaf\xf8&amp;_\x86umn\xff\x00X\xf1\xf4\xe90K\xeb\xd5\x86\xc1\x19H\xfd\xc4G\x05\xc9\xef\x965\xfa\x0f\xa0i\x9eE\x8a\xc3\x1b\xef,\x9f1\'&lt;\xfaT\xf7K\xfd\x9c\xe9pc\x05I\x02@\x07n\xf5z-E%+\xf68\xc7N\x00\x03?\x85Gq;\xbc\x89\x04\xff\x00\xb9\xcb`)\xe0\x9c\xf6\xe2\xb3\xaeR\xe4\xf9\x8fi\xbf\xe5\xca\x10T`\xb1\x18\x19\xaeaa\xbe?\xf1\xfe\x14\xedc\xc0\xfe\x95\x8d\xae\x08\xe1\x8aE@\xdec\x12r\xc7\x91\x91\xeb\\O\xfc#\r\x0f\x8b\xa7\xf192dE\xb7\xcb\x04\xf21R*\xfd\x8e\xf0\xdc\xc2\xaf\xb5\xf9vg&lt;W\x13\xe3\xdf\x17x\x8bF\xbfX.\xedFo\x1fn\xe8\x86\x04jN\x018\xef[\x16\x9a\xed\x9e\xad\xe1\xf6\x95%w1O\xb1\xd18\xc8\xc7J\xb04\xe1%\xea\xf9q0\x95\x10\x05;r\x14\x1f\xe5]\x05\xb5\x8cR\x96\xb5\x81\xc4E\xf6\xe7\xe4\xc7\xd7\x1e\x86\x9b&gt;\x9f&amp;\x9bn\xd6\xf3\xb1bU\x84r\xab\xe0\x90G,}qY\x17:5\xad\xff\x00\xee\xe1\xbbs)\x01L\x87\xa7\x1d?#Xz\xb4\xb7&amp;R\xb6\x90+&lt;*P\xae8j\xe3\xfcG&lt;\x97\x9a\x99\x97\xcf\xdd\xe5.\xd8\xd0\xae\x06Or{\xe2\xb9Mb\xe2\xd2\xe5\r\xac\xa0o1\xba\x93\xbc\xe3\x90k\x9b\xd64\xbd&lt;\xa1\x8a\x19\xd1A\x1b\xa5\x1b\x8eN;\xfb\x9a\xe25\xc6V\xd4e\x8b\xca\x93tr\x10\\\xc8F\xe1\xc6+\xf0P\x90\x17\xf7\x87\x07u\x0c|\x9c\x12xn\x05(u\'\x1c\xf3Q\xbb\xba\xb9\x11\xb7\xd0\xfaQ\xf6w\x90\t\x18+\x1c\xf5\x1cR#\x14\\4c\xefc8\xa0\xc4K\x06S\x80\x0fjk\x01\x9d\xb8\xe0\xb7"\xa3\x04\xa1*\x87\x03\xd0T\x91\xf0\t\x03\xf8y\xf7\xa4%\xdb2\xaa\xe1H\xdb\x81N\'*\xaa8\xc7R)\xea\x89\x8c\xef9\xf5\xcdF\xc7\xcbq\xb4dg\x9ax!\xd0\xc9\x18\x01\xfa`\x0e\xde\xb5\xad\xe0\xaf\x12\xea\xbe\x18\xf1\x15\xb6\xb9c\xa9\x18$\xb6\x95^9\x14\x91\xb1\x81\x07&lt;W\xef/\xfc\x13\xc3\xf6\x9a\x8f\xe3\x87\xc1\r3\xc5\xb7\x92Dn\x96\xdd!\xd4\x13\xcc\xc9Y@\x0b\x9cv\xe2\xbe\x8f\xf0\xfe\xbd\x04:\xc5\xbc\x8b9\xc4\x9cr~\xeeOZ\xf5o\xf8IV\x13\x15\xcd\xb5\xe0\x920\x10H\xb8\x1c\x8e\xf5\xd2h&gt;&gt;\xb3\x9dD01$\x91\xf2db\xb1~"k\xf7S\xc9\xf6\x0bW(\x19I\xde\xea\x08\x07\xeb\xda\xbck\xe2\xf7\xc5]\'\xe1\xc6\x975\xce\xa9\xabC\xbd\x10\x95\x1b\xfaq\x9f\xc2\xbf$\xbf\xe0\xa1?\xf0T\x9f\x8c\x9e7\xd6\xaf~\x1f\xfc0\xd7f\xd1\xf4\xa8fh\xa4\x9a\xd8\x9f:S\xd0\x85l\xe5s\xeb_&lt;\xfe\xcc\xbf\xb2\xb7\xc7\x1f\xda\xef\xc6\xfeV\x85\xa7\xde^\xcd;\xee\xbd\xd5n\x83\xb8PO%\x99\xbd\x05~\xad~\xcf?\xf0A\x8f\x83~\t\xd0\xedu/\x8b7rkW\xf3\xdb,\x8d\x14NDQ\xb63\xb6\xb4&lt;]\xfb\x15|;\xf8as.\x95\xf0\xea-J\x18\xd4\x9f&amp;\xce\'i#B=\x07A\xf8Uo\x84?\xf0O\x7f\x8a?\x175\xc9\x07\x89g6:0\x7f\xf5\x8d\xfe\xb1\xd3&lt;\xa8\xf4\xc8\xe2\xbfB\xbfg\x7f\x81Z\x17\xc2\xcf\x0cZx[I\xb2\xf2\xd2\xda\x10\xaaT\x01\x90\x0eI\xfc\xc6~\xb5\xeb\xd1\xe9\xf1\xe9\xf6\xaa\xd6\xeb\x9c\xfd\xe0\xa2\xb0ma\xf1#\xea\xda\x82\xeb\xac\x87O\x8eE\xfb&amp;\xdf\xbc\xd9\xeb\x9a\xb1\x0c+\x03\xf9\xcd!1\xef\x18\x0b\xd8U\xff\x00 5\xa8\x126\xd0\xcd\x949\xdcO\xb7\xb5T\xba{\x1b\x0b2$F\x03\xcc\x0cF\xef\x98\x91\xeb\xea+\x9a\xd6/ K\xc7h\x93`f\x1b00\x015\x89\xa8\xfd\x97\r{3y\xad\xd3\x07\x91\x9a\xe7\xe5\x94\xa3\x12\xccIuby\xed\x8a\xe7\xeeu\x08\xee\xee\x1e\x1bp\xa1T\x10T\xf75\x8f\xac\xe8rk3\xf9W\x8e\xa1\xc8\xfe&gt;F=j\xd6\x95\xa2\xdb\xe8:A\xb3ka\x13\xb4\xb24\xe59\xdev\xf0\x00\xecMnhqK:\x99\xed\x97\x04Jw\x83\xc2\x95\x03\xa1\xa6x\xe6\xfe\xe7G\xb4\xf3\xac\xa2\x93tq\x19K\xaeO g\x00\xd5o\n]\xdf\xf8\xa7B\x17\xba\xcd\xba\x19DN#\xda\xc4\x10\xa4\x1c\xfe4\xcdf\x06\xd3a\xb6\xfb\x1c\xee\x07\x96\xab"\xa9\'\x92\xd8\xc9\xaerH\xef\xee..%*\xa8\xa26\xd8\xd8\xc7\xcd\x8e\rsZ\xc6\x9d%\xd4d\x07\x00B\x0b;\x13\x8c\x0e\xa4\x8a\xe3\xafYYer\x83\xe6\xc8\x88\xe3\xa0\xf5\x1e\x95\xc9\xeb\xf2\x88&amp;}\xd0d\xec?8=x\xef\\U\xed\xf5\xc6\xafy%\xd1\x86\x103\x80Y\x06M~\n2\xf9\xc74\x97\x07r\x001\x95\xe7&amp;\x98\x92\xae0\xfc\x9e\xd8\xa3\x13\x13\xb9\x17\x1fJ\x18K\x9d\xe5rG \x91H\xdek\r\xea\xe0\xf3\xc8\xa7\xa3\xc8F\nS\xbc\xa8[\x92\xd5\x0e\xc8\xfc\xcf\xbdD\x7f\xeb0zzS\xde@\x06\xc5\x1czv\xa8\xc8\xdc\xa7\x9c\x1cqK h\xd7\x04\xaf\xdd\xedJ\x02\x97\xc3\x0e6\x9c\xfeT\xe71,\x99G\xdavu\x14\xab,\xa6@\xd2F\x17\x03\x84#\x86\x1e\xe3\xbd}\xa7\xff\x00\x04\x91\xfd\xac\x9b\xe1_\xc6(~\x1a\xf8\x96\xf3\xca\xd1&lt;BV\x18^Y\x0e!\xb8R6\xb3g\xfb\xc7\x03=\xc5~\xc0x{Z\xb6\x8aKcxKG,\xeb\x0b\xb0\xe7\xae\x08 \xfa\x10kw\xc6\x9a\xff\x00\x89&gt;\x1chF\xfdt\xdb\x9b\xdb\x19\x14\xed\xbd\x86=\xde^G\x01\x94s\x81\xeb^\x17\xe2\x8f\xdbG\xc7\xfe\x14\xd5\x0cZ\x17\x84\xaf\xe6]\xdc\xba\xc2\xeb\x9f\xa0j\xe2~3\xff\x00\xc1V~+x\x1b\xc2\x86_\x12|&lt;\x9e\xc9\xb67\x934\x89\xf7\xc6=\x07z\xf8_\xe3\xc7\xfc\x15c\xe2_\xc4k\x8b\x8b\x05\xb5\x99VF*\xe6f\'\nx8\xcdxo\xc0\xbf\x86\xbe.\xfd\xa9\xbe6Zxy-\x1eY\xf5\x1b\x90\xf7&gt;R\xfc\xb1\xc7\xb8g\xe9\xc5\x7fA\xdf\xb0\x7f\xec\xdd\xf0\xff\x00\xe0\xff\x00\xc3{/\x06\xe8\x9a\x041Cmm\x1f\xdanV%\x0c\xeeq\xbb\x909\xaf\xa6&lt;E\xa8\xd9izY]-s\x1d\xaca\x96&lt;pH\x19\xe9^u$\xba5\xd6\xa3\x1d\xda\xda"\xb9l\x86\x08\x01bO&lt;\xd7\xa0|?\x86\xcd\xa2c\x15\xb2D\xb2}\xdf\x94\x0eEw\x1a\\\xb6\xd1\x15\\6\xe5\xe0\x15\xfe_J\xdf\xf3\xa3\x8e-\xf0\x8d\xcc\x10\x90\x83\xd7\x15\x8b\xae\xdf\xd9\xd8\xcd-\x95\xd4\xc5\x08\xc3D\xca\xbc6z\x83U\xacn\xe3a\x82\x0e\xc6\xee\x16\xae+\x84\x9f\x10I\xe5\x82\xbc\x92q\x9f\xadck\xe4\x1b\xd0\x11\xd9\x92%;\xd8\x9f\x99\x8f\xa6}+\x03U\xbcB!\x13\xc6@f\xe0\x9e\xfe\x95\x81\xac\x99\xe5\x86/\xec\xf7\x08\xa1\xc9\x95O\xf1\x81Y\xd3\xdd@N\xd9"\xda@\xc1`y\x02\xb9\xedN\xc0\xc1pn\xed!%\xa6|\x84\x1e\x83\xad`A\xaek\x0b\xf1\x16m/X\xd2\x7f\xd0\xde\'1\xdc\x1eT\x00\xbd+\xab\x8bOYd\xfbLQm&amp;rI\xcf\x0c\xa0V\x9e\x91\xa7\xdc\xa4\xd2\xd9\xc0\xe0#\xb8,\xa7\xa1\xcfZ\xd1\xd6m\xd2XD\x11&amp;"\xd8Q\x97\x1c\xe4\xf1\x9a\xa4`\xb4\xd3l\xc2F\xa5UF_o\x1cw\xaa\xb1\xdb\xc1kb\x1fp&amp;@\xd8f\x19\'\xd0f\xb9O\x17\x15\xb2\x91&amp;h\xdd\x8e\xf0B\xafs\\\x96\xa9eq,O\x0c\xa6L\x0c\xbb\xb4\x87\'\x1e\x9fOj\xf3\xef\x13jQ\x1dYt\xb4R\x03\xc4\xd8t\\)\xe3\x91\xc7\xadp~1\xd5\x95u)m\xedn\x91\x02\xa8R\x87\'\x15\xc3\xdf\xeb\x06\xd8\xacP\x10\xe3\x92X/|\xd7\xe1\x92\x90\x0eI\xc7\xb0\xa4t\x127\xb1\xeb\xf4\xa7I\x14Q\x05\xf2\x80\xfc\xa9\x12]\xccrq\xec*\'v*CHp[\x07\x9e\xd4\x89\x1c~q]\xdbF\xde\xa3\xbd=dE\xf9\x0b\xff\x00\xba}i\xae\x06G\x14\xd6\x008 \x7f\x15\'I\x0e)i\x18n\x1c\xd3\xa3\nHWP\xdd\xb9\xa4(\xa1\xf3\x83\xff\x00}\xd2!g|\x88\xc6?\xda\x1c\xd2\xef,\xe4\xc8\xc5\xb0?\x88\xe7\x8a\xd1\xd05\xedCE\xd4\x93R\xb0\xba\x92\x19\xd2Ed\x9e6!\x95\x81\xc89\xf6&lt;\xd7\xed\xa7\xfc\x13\xeb\xf6\xa2\x93\xf6\x8d\xfd\x9f\xac5+\xfb\xa4:\xce\x94\x16\xd7[\x8f \x93p\xab\x85\x90\x0e\xca\xc3\x02\xbe\xda\xf8-\xae\xc9\xad\xe8v\xedw82\xa4@2\x03\xd7\x9e\xa6\xb2?i\xff\x00\tiz\x86\x894\xabo\x12\xc9\x04I"J#\x1b\x9b\x9ey\xaf\x89\xff\x00j\x9f\x01\xe9\xbe6\xf8C\xa9\xda]X#\xc9\x15\x93\xbcR6\x060\xa7\xf4\xf5\xaf\xcc\x18\xfe\x00\xf8\xab\xe2\x17\x89\xe3\xd2\xbc\x11\xa0\xdej7\x8f" \x82\x0bf+\x9eG\xde\xc7\xafz\xfd\x1a\xff\x00\x82_\xff\x00\xc1=\xbcm\xf0\'U\x8b\xc5\xbe&lt;\xd2$\x83U\xd5\x95NI\xff\x00\x8fh\xf22=\xb8\xed_\xab\x1f\n\xbc\x1b\x1e\x87\xa3\xad\x95\xa2\xbc\x82D\xdc]\xba\x82:\xe3\xde\xb4\xb5\xb6\xbb\x8b\xf7\xd1\xb80\xc8v&lt;2\xb6\x1c?E\x03\xeak\xcfu[\xfb\x9d\'W\x8cj\x91\x0bE\x8eP\x11I\xe3\x93\xd7\x8e+\xd3\xfc\'\xab9\xd3\xd5\xdeT_\xbab\xc7\xa5wv\xd7\xd6\xb6\xf6\x8dr\xd3\x0c\xaa\x06e^\xb5zMI\xa1\xbd\x115\xf2\xa82\x85\xdc\x83\x1f3\x0f\x94\x0fl\xe34\xeb\xc5\x13Y\x96\xb8\x8e7t\'\n\xc0c\xebXV\x9e%2\xc5%\xbcdmR|\xb5\x03\x05@\xeb\x93\xdf\xda\xa5\x8bXWbg\x93{\x1cn\xf9F\xd1\xe9\x8fA\xebU&amp;\xb9\xc5\xe4\x88\xf3\t\x1aD8\xe78\xac\xdd^\x0f\xb4F#\x90n\x00p\x0f8\xac\x8b\x88\xeda\xb6,r\xaa\x99\x01z\n\xc3\xbb\xd3ld\x91\\J&gt;S\xf3\xe1\xcfCUn\x0c\xb3\xdb$v|\x14\x0c\x03\xff\x00\x16=3T5\r&amp;\x19,\xde\xdc\xb7\x99\xf2\x91\x96\xe7;\x86\x18\xfdi\xf6\xcfz#D\xb2\xf9\x96%\xea\xe38\xe2\xb7\xf4)X\xde)\x95\xd2Gu\xf9\xbeL\x01\xefZ\x84\xaa\xea&gt;D\xf2+#\xae\x03\xec\xe8j\xad\xed\xac7\xe1\xad\x19c1\x83\x89\x01\xe8\xcb\xdc\x1a\xc1\xbd\xd3.\xa4\x8cE\x05\xc4\x91C\x1e\xe2\xa9\x19\xc88\xed\xcfJ\xc6\xf1\xc4\xd6\x03L\x94\x04&amp;X\xd4y)\xdd\xfd\x7f\x1a\xf3\xcdkQE\x8a}E3\xe6\x00\x18B\xc7 \x81\xce=\x89\xaf=\xd7\xee\xf5y\xa2\x9a\xf3\xec\x91Fc\x904Q+ch\xf5\x02\xbc\xdfT\xd5o\xae\xe6\xb8\xba\x9e\xccow\xc1\n\xa3\x95\x1dk\x90\x1a\xb3\xdb\xee\x8a\x08C\r\xe4\x9d\xc3=\xeb\xf0\xfaH\xdc\x9c\x06\xe6\x942\xc4\x84H2q\xda\x9a\xca\xa0\tRC\xcf\xf0\xe7\xa5+\x81\xb3v9\xf5\xa8_%H\xcfn\xf4\xa9\x0b4\x8e\xa6U=06\xd3\x8c :\xab\xf4\xcf_JVh\xda"\x91\x1c\xb0=i\x8b\xe6!\xcb&amp;y\xefC:\x96\xce\x00&gt;\x9e\xb48\xc1\x1bO\'\xa8\xf4\xa0\x1d\x9c\x1e\xbe\xf4\xe1n$B\xdea\x04\x0c\x81\x9ab[\xb2\xfc\xe3\xa8\xe75#\xa3\x94\xde~\xf0\xe9\xefL\x88*\x93\x19\xe40\xfb\xc7\xd7\xd2\xa42\x1byT\x83\x8c\x0c\x8cW\xd0_\xf0O_\xda\xd7T\xfd\x99&gt;5Y]\xea\x1a\x91:\x16\xaf"Y\xebP\xa6Bl.6K\xb7\xa1\xc1=}\xab\xf7\x83\xf6w\xf1.\x99\xa9\xc3\x04\xbaE\xeaI\x04\xe1\x1e\x1b\xa8e\xc8\x96&amp;]\xcb\x8ct\xe4\xe2\xbb/\x8d0\x7fiiO\x04\x81\x89\xfb+(*~R6\x9e\x0f\xbd|\xc17\xc3\x9b\xdf\x8b\xfa\xcf\xfc+\xe4\x84\xc7m)h\xefJ\x0c\x15C\xc1\x1f\x915\xf5W\xc0\x9f\xd8\xa7\xe0g\xc1\x7f\x0f\xc1\x0f\x84\xfc\x1b\xa6\xc5qon\xb1\xcd|\xb1\x833\xbfV\'#\x8e+\xa2\x93\xc1\xb6Sx\x8e\x1b\xbbU\xda\xb6\xfc2\xa0\xc0oBq\xd6\xbd\x1b\xc2\xa9wo\xa6E\x05\xccj\xac\xa1\x96,\xafBz\x13T\xb5\xbd:\xce\xfe\xe5\x1bkyw\x19\xfbN\xee\x00e\xe8q\\\x8e\xbb\xe0y\xaem\xa7\xddpn"rJ\xa4\x8f\x96\xc0\xec\t\xe8+C\xc3Qk6:jC{a\x86\x87\x80A\xdd\xf2{{\xfaWO\xa4\xf8\x8a\x1b\x96c\x97T\x89\xd4M\xe6\xb9V+\x9eq\x8e\xf8\xad\xf7\x9e9.\xa2\x8e\x0b\x86&gt;\\\xad,\x9b\xce\xec\xe0dc\xd3\xde\xa5\xfe\xd4\x9a\xefN\xbaI\xa6\x93\xe4\x803\x15c\xcb2\x1c\xa7\x1dG|V2;\xcd\xa7D BL\xb1\x87s\xe5\xbe\xe3\x83\xeb\x9e\xb4\xcb\xedN\xce\xcfZ\x86\x08Z8\x86\xf6s\n\xc48\x8d\x97\x07\xf0\xefN\xd2\xb7\x96,\xd7\x12\xf3\xb9\xc4\x8e\xbdTv\xcf\xa5O5\xd5\xa4\xd6\x8dp\xf7\x98\xda\xd8\xe1\xab\x1e\xe6e\x92\x0f\x98\xe7ct&lt;\xee\xcfz\xcc\xd4\xa2\xb8KGK|\xf9\xae~R;\xfa\n\xa3$\xf2Y\xdb\x82\xd6\xb9\n\xa7{ \xe8i\x97"\x10\x88m\xd3\x18\x95\x95\x81\xf4"\xa3\xd3\'62\x86\x96\xd9\xccn\xac\x15\xfbn\xed[*m"\x92\xda\xfd\xb2\x920\xe5S\x80G\xbf\xad.\x8bu3\xda\x1b\xbb\xec\x80S\xe4S\xc8&lt;\xf5\xa5\x8ak[\x18\xe4\xbb\x96f/9\xf9c#\x80=\xbd+;T\xd5\x8e\x9e\x80\xe5$#\xe7\x19\xe4*\xf5\xfc\xeb\x86\xf1U\xcc\xb7\r\x16\xac.\xa3\t\x1b\x1f+\xcc&lt;\x1c\xf5\xaf:\xd5u\x19g\xb6im~B\x923?\x96\xc4\xab\xe3\x9e\xf5\xcb\xf8\xd7^\xb6\x8e\xcfj\xc6\\\xc8\x84L\xddN;\x8a\xf2\x1dj\xfe-\x02\xd3\xc8\x8a#qvm\xca\x07V\xfb\x8d\x9c\xe4\xfa\x9cW/\xa7\xb5\xcb+\xc8#\x96R\xcf\x96&amp;0p}+\xf1;~I\x06\\\xf1\xd3m*\x0f5\x19[\x8c\x0e1\xde\x84@\x88T\xa8\xe9K\xb48T\'\xa9\x02\xa3\x08\x8b!Bzt\xa03,{\xd7\xae\xe1\xcf\xadH\xd1\xbc\xca\x19\x88\xfc\x05G\x1c;nw\xaf\nN0(\x92i\x15\xd86\x08^\xf8\xa6\r\xaf\xfb\xcd\xa3\x9e\x9ct4\xcd\xc67\x1d\xc9\xa9\x9dT q\xc94\xd5&lt;\x81\x9e3O2\xe6P\x9d\x00\x1d\xbb\xd1,\xe1\xf0\x80r;\xd3\x91\x17h\x01G\\\xf4\xefMw/&amp;6\x80G\xf1w\xa7\xd9\\\xfd\x96\xec\x05n\x02\xe38\xce\x07\xf9\xed_\xae?\xf0D\xaf\xda\xd3Z\xf8\x85\xe0\xef\xf8U\xfe!\x9eW\xd4&lt;4c\xf2nX\x12\xd2\xd9\xbb\x00\x80\xb7\xf7\x81\xfd+\xf4\xbb\xc5\x13\rGI\x96\r\xab\xfe\xa82\xe5{\xe2\x8f\xd9\xaf\xe0\xf7\x87 \xd5o\xfccyn\x92Op\xc4\x04+\x90\xa7\xd7\x15\xeb\xbe \x06\x0b),-\x98\xa9\xdd\xf7\x80\xc620\x7fJ\xa1o\x7f\xe1\xad\x19&gt;\xdbw!y\x162Y|\xa3\x82@\xcf\xa5Q\xb1\xf8\xf5\xe0\xd5akugp&amp;\x0eB\xb2\x83\xd2\xb64\xcf\x89_\x0f&lt;P\x8f\x04^k\xcc\xaap\xaf\x01\\\x1f\xa8\x15b=\x1a\x0b\xa2.\xd1F\xc209\xe7\x1e\x9e\xe3\xda\x96\x1d&lt;\x02m\xa2\x8c\x12\xee\x14\x0c\x00\t\xe8)\xf0h\xb1\xc0\x93\t`\x08\x84\x10@9%\xbbT\x92_\x1d1&gt;\xc8\xf8W\xc7\x96\x1dGE~\x0fOcT\xec5\xc9\xad\xa5\x16\x17S\x88\xf7\x93\x93\xf30\x94\x91\x81\x91\xeb\x8e3R\xc3\xabB\x93\xdd\xdc\xdb[\xacp[`\xdb\x8cr\x13\x1bW\xff\x00\x1f \x9fQY\xb6K\x16\xafv\xda\x93\\4\xaa\xd9\x85\x8bd3\x06\xe0\x8c\xfas\xd2\xack~$\xb5\xb0\xbf\x83L\x88\xca\x8d \x11\xa2\xa2\x82\x8a\x0f\x1d\rf0\xb8,\xb1K|6.\xe2\xea#\xfb\xff\x00Z\xd2\xfb\x14\xb6\xf1\xba\xcb8wp\x19F8\xdb\xe9\xf5\xae\x7f\xc5\x1e }\x03Q\xb3\xb7\x9e\x07o\xb5\xb8\x11\x95\x93\xee\x9c\xf5\xab\xf7Q\xe2\xc5V\x16\xff\x00Z2\xe0\xfe\xb5RI!x\xccl9\x1c\xee\xc7$\xd4\x7f\xdb0\xa6\x91\x1d\x9b)?9\xc0=3V\xad\'\x86\xfe8T\x89\x15\xd5\x08\xdd\xbf\x81V\xa3yf\xb5\x8dZE\\\x1e\x8a\xb8\xc6\xde@\x1fZ\xcd\x92\xfa\xe7U\xbaa\x19\xd8\x17\xe5\x04\xf3\x81\xdf\x15\x8d\xad\xde\xbd\xb4\xd3\xe9rB\x1dbh\x95d\x1cn\xde\xa79\xf5\xae\x17\xc4W\x81\xa0\x84M\t\x16\xd1DU\x15[\xa4\x84\xe05s\x1e!;4rL\xdc\x8b}\xc0c\xee\xf3\xf7\x87\xbdx\xe7\x88\xbcY3^\x9b\x0f9\xbc\xc9\t\xdf\x8c\x80\x00\xf4\xf45\xe7\x9a\xbe\xad\x1c\x9a\xb6\xc8A\r\x10g\x9b\x7f&amp;O\xc7\xd7\xde\x98u\x86\xd2?wg\x11\xc4\x9f1\xf9\xbb\xd7\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x0f\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8\xef\xe1\xe7\x8a\xe4\xb7\x9d\x12\xe9\xd8\x1c\xe0\r\xff\x00w\xf3\xcd{&gt;\x87\xad\x8dR8\x9ed\x88\xa0\xc2\xe5\xb2x\xf5\xebSj\xda%\xb1\xbb,U\x86\x01\xfd\xea\xa6UA\xc6?\x95r\xda\xce\x94\xead\x92\x172\xa2\xae\t\x1c\xee\xfc;W\x90\xf8\xe7Y\xb9\xd3\xf51u4\xa9\x04q\xbf\xdeC\x96_\xa8\xae\xc3\xe0\x86\xb9i\xa8\xdcIs4\xc5\xad\xa6S\x89J\x9d\x81\xfb3c\xa5u\x1f\x14&gt;\x19[x\xdfCq\x14Q\xab\xbc$\x08\xc2\x8c\xff\x00\xd7@\xd8\xf9\x94\xfe\x98\x1e\xb5\xf0\xcf\xc4\x7f\x00^x\x7f\xc6\x17\x9aW\x98\xc9\xe5&gt;&gt;H\x0e\x0f\xb8\xe6\xbe\x83\xb0\x9d-.\xc3\xda\xdd3\x19$*\xe4\xa61\x8fO\xce\xbd#\xc0&gt;-\xbcIR\'b\xf1F\xd8\x90\x9e\x80};\xd7\xb0\xc1\xac\xe8\x97\xbaLS\xbb\xb2\xb3\x80\x88\xec\x84\x8c\xfd\x06?\\\xd6\x07\x8dlt\xfb2\xd3\xe9\xf2I\xf7\x06\xf5\x93\x19\x07\xbf#\x00\x8fOJ\xf9\xab\xe3\xa5\xebE|Ld*\x86`[\x1c\x92F{}+w\xf6Z\xd4\xae\x8c\xb3[\xfd\xbb\xcb\x10\xc6]\xe4)\xb8`\x80N\xe5\xe8\xc3\x9f\xad{\x07\x87\xbcf\xc3\\\x9bN\xbb\x94\xec\x1f"as\xf2\x9fOE&gt;\x98\xc8\xc7Z\xf2\xbf\x8d?\x08\xb4\x0f\xf8O.&amp;m\xd2\x19cW\xc88\x039\xe0\n\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x7f\x01}\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc=e\xf3\x8ei.\x0e\xe4\x00c+\xceM1%\\a\xf9=\xb1F&amp;\'r.&gt;\x940\x97;\xca\xe4\x8eA"\x91\xbc\xd6\x1b\xd5\xc1\xe7\x91OG\x90\x8c\x14\xa7yP\xb7%\xaa\x1d\x91\xf9\x9fz\x88\xff\x00\xd6`\xf4\xf4\xa7\xbc\x80\r\x8a8\xf4\xedQ\x91\xb9O88\xe2\x96@\xd1\xae\t_\xbb\xda\x94\x05/\x86\x1cm9\xfc\xa9\xcebY2\x8f\xb4\xec\xea)VYL\x81\xa4\x8c.\x07\x08G\x0c=\xc7z\xfbO\xfe\t#\xfbY7\xc2\xbf\x8cP\xfc5\xf1-\xe7\x95\xa2x\x84\xac0\xbc\xb2\x1cCp\xa4mf\xcf\xf7\x8e\x06{\x8a\xfd\x80\xf0\xf6\xb5m\x14\x96\xc6\xf0\x96\x8eY\xd6\x17a\xcf\\\x10A\xf4 \xd6\xef\x8d5\xff\x00\x12|8\xd0\x8d\xfa\xe9\xb77\xb62)\xdb{\x0c{\xbc\xbc\x8e\x03(\xe7\x03\xd6\xbc/\xc5\x1f\xb6\x8f\x8f\xfc)\xaa\x18\xb4/\t_\xcc\xbb\xb9u\x85\xd7?@\xd5\xc4\xfcg\xff\x00\x82\xac\xfcV\xf07\x85\x0c\xbe$\xf8y=\x93lo&amp;i\x13\xef\x8cz\x0e\xf5\xf0\xbf\xc7\x8f\xf8*\xc7\xc4\xbf\x88\xd7\x17\x16\x0bk2\xac\x8cU\xcc\xccN\x14\xf0q\x9a\xf0\xdf\x81\x7f\r|]\xfbS|l\xb4\xf0\xf2Z&lt;\xb3\xea7!\xee|\xa5\xf9c\x8fp\xcf\xd3\x8a\xfe\x83\xbf`\xff\x00\xd9\xbb\xe1\xff\x00\xc1\xff\x00\x86\xf6^\r\xd14\x08b\x86\xda\xda?\xb4\xdc\xacJ\x19\xdc\xe3w s_Lx\x8bQ\xb2\xd2\xf4\xb2\xbaZ\xe6;X\xc3,x\xe0\x903\xd2\xbc\xeaItk\xadF;\xb5\xb4Er\xd9\x0c\x10\x02\xc4\x9ey\xaf@\xf8\x7f\r\x9bD\xc6+d\x89d\xfb\xbf(\x1c\x8a\xee4\xb9m\xa2*\xb8m\xcb\xc0+\xfc\xbe\x95\xbf\xe7G\x1c[\xe1\x1b\x98!!\x07\xae+\x17]\xbf\xb3\xb1\x9a[+\xa9\x8a\x11\x86\x89\x95xl\xf5\x06\xabX\xdd\xc6\xc3\x04\x1d\x8d\xdc-\\W\t&gt; \x93\xcb\x05y$\xe3?Z\xc6\xd7\xc87\xa0#\xb3$Jw\xb1?3\x1fL\xfaV\x06\xabx\x84B\'\x8c\x80\xcd\xc1=\xfd+\x03Y3\xcb\x0c_\xd9\xee\x11C\x93*\x9f\xe3\x02\xb3\xa7\xba\x80\x9d\xb2E\xb4\x81\x82\xc0\xf2\x05s\xda\x9d\x81\x82\xe0\xdd\xdaBKL\xf9\x08=\x07Z\xc0\x83\\\xd6\x17\xe2,\xda^\xb1\xa4\xff\x00\xa1\xbcNc\xb8&lt;\xa8\x01zWW\x16\x9e\xb2\xc9\xf6\x98\xa2\xdaL\xe4\x93\x9e\x19@\xad=#O\xb9I\xa5\xb3\x81\xc0GpYOC\x9e\xb5\xa3\xac\xdb\xa4\xb0\x88"LE\xb0\xa3.9\xc9\xe35H\xc1i\xa6\xd9\x84\x8dJ\xaa\x8c\xbe\xde8\xefUc\xb7\x82\xd6\xc4&gt;\xe0L\x81\xb0\xcc2O\xa0\xcdr\x9e.+e"L\xd1\xbb\x1d\xe0\x85^\xe6\xb9-R\xca\xe2X\x9e\x19L\x98\x19wi\x0eN=&gt;\x9e\xd5\xe7\xde&amp;\xd4\xa2:\xb2\xe9h\xa4\x07\x89\xb0\xe8\xb8S\xc7#\x8fZ\xe0\xfcc\xab*\xeaR\xdb\xda\xdd"\x05P\xa5\x0eN+\x87\xbf\xd6\r\xb1X\xa0!\xc7$\xb0^\xf9\xaf\xc3% \x1c\x93\x8faH\xe8$oc\xd7\xe9N\x92(\xa2\x0b\xe5\x01\xf9R$\xbb\x98\xe4\xe3\xd8TN\xecT\x86\x90\xe0\xb6\x0f=\xa9\x128\xfc\xe2\xbb\xb6\x8d\xbdGzz\xc8\x8b\xf2\x17\xff\x00t\xfa\xd3\\\x0c\x8e)\xac\x00p@\xfe*N\x92\x1cR\xd20\xdc9\xa7F\x14\x90\xae\xa1\xbbsHQC\xe7\x07\xfe\xfb\xa4B\xce\xf9\x11\x8c\x7f\xb49\xa5\xdeY\xc9\x91\x8b`\x7f\x11\xcf\x15\xa3\xa0k\xda\x86\x8b\xa9&amp;\xa5au$3\xa4\x8a\xc9&lt;lC+\x03\x90s\xecy\xaf\xdbO\xf8\'\xd7\xedE\'\xed\x1b\xfb?XjW\xf7Hu\x9d(-\xae\xb7\x1eA&amp;\xe1W\x0b \x1d\x95\x86\x05}\xb5\xf0[]\x93[\xd0\xed\xda\xeepeH\x80d\x07\xaf=Md~\xd3\xfe\x12\xd2\xf5\r\x12iV\xde%\x92\x08\x92D\x94F77&lt;\xf3_\x13\xfe\xd5&gt;\x03\xd3|m\xf0\x87S\xb4\xba\xb0G\x92+\'x\xa4l\x0caO\xe9\xeb_\x981\xfc\x01\xf1W\xc4/\x13\xc7\xa5x#A\xbc\xd4o\x1eDA\x04\x16\xccW&lt;\x8f\xbd\x8f^\xf5\xfa5\xff\x00\x04\xbf\xff\x00\x82{x\xdb\xe0N\xab\x17\x8b|y\xa4I\x06\xab\xab*\x9c\x93\xff\x00\x1e\xd1\xe4d{q\xda\xbfV&gt;\x15x6=\x0fG[+Ey\x04\x89\xb8\xbbu\x04u\xc7\xbdikmw\x17\xef\xa3pa\x90\xecxel8~\x8a\x07\xd4\xd7\x9e\xea\xb7\xf7:N\xaf\x18\xd5"\x16\x8b\x1c\xa0"\x93\xc7\'\xaf\x1cW\xa7\xf8OVs\xa7\xab\xbc\xa8\xbft\xc5\x8fJ\xee\xed\xaf\xadm\xed\x1a\xe5\xa6\x19T\x0c\xca\xbdj\xf4\x9a\x93Cz"k\xe5Pe\x0b\xb9\x06&gt;f\x1f(\x1e\xd9\xc6i\xd7\x8a&amp;\xb3-q\x1cn\xe8N\x15\x80\xc7\xd6\xb0\xad&lt;Je\x8aKx\xc8\xda\xa4\xf9j\x06\n\x81\xd7\'\xbf\xb5K\x16\xb0\xae\xc4\xcf&amp;\xf68\xdd\xf2\x8d\xa3\xd3\x1e\x83\xd6\xaaMs\x8b\xc9\x11\xe6\x124\x88q\xceqY\xba\xbc\x1fh\x8cG \xdc\x00\xe0\x1eqY\x17\x11\xda\xc3lX\xe5U2\x02\xf4\x15\x87w\xa6\xd8\xc9"\xb8\x94|\xa7\xe7\xc3\x9e\x86\xaa\xdc\x19g\xb6H\xec\xf8(\x18\x07\xfe,zf\xa8j\x1aL2Y\xbd\xb9o3\xe5#-\xcew\x0c1\xfa\xd3\xed\x9e\xf4F\x89e\xf3,K\xd5\xc6q\xc5o\xe8R\xb1\xbcS+\xa4\x8e\xeb\xf3|\x98\x03\xde\xb5\tU\xd4|\x89\xe4VG\\\x07\xd9\xd0\xd5[\xdbXo\xc3Z2\xc6c\x07\x12\x03\xd1\x97\xb85\x83{\xa6]I\x18\x8a\x0b\x89"\x86=\xc5R3\x90q\xdb\x9e\x95\x8d\xe3\x89\xac\x06\x99(\x08L\xb1\xa8\xf2S\xbb\xfa\xfe5\xe7\x9a\xd6\xa2\x8b\x14\xfa\x8ag\xcc\x000\x85\x8eA\x03\x9c{\x13^{\xaf\xdd\xea\xf3E5\xe7\xd9"\x8c\xc7 h\xa2V\xc6\xd1\xea\x05y\xbe\xa9\xaa\xdf]\xcdqu=\x98\xde\xef\x82\x15G*:\xd7 5g\xb7\xdd\x14\x10\x86\x1b\xc9;\x86{\xd7\xe1\xf4\x91\xb98\r\xcd(e\x89\x08\x90d\xe3\xb55\x95@\x12\xa4\x87\x9f\xe1\xcfJW\x03f\xecs\xebP\xbeJ\x91\x9e\xdd\xe9R\x16i\x1dL\xaaz`m\xa7\x18@uW\xe9\x9e\xbe\x94\xac\xd1\xb4E"9`z\xd3\x17\xccC\x96L\xf3\xde\x86u-\x9c\x00}=hq\x826\x9eOQ\xe9@;8=}\xe9\xc2\xdcH\x85\xbc\xc2\x08\x19\x034\xc4\xb7e\xf9\xc7Q\xcejGG)\xbc\xfd\xe1\xd3\xde\x99\x10U&amp;3\xc8a\xf7\x8f\xaf\xa5Hd6\xf2\xa9\x07\x18\x19\x18\xaf\xa0\xbf\xe0\x9e\xbf\xb5\xae\xa9\xfb2|j\xb2\xbb\xd45"t-^D\xb3\xd6\xa1L\x84\xd8\\l\x97oC\x82z\xfbW\xef\x07\xec\xef\xe2]3S\x86\tt\x8b\xd4\x92\t\xc2&lt;7P\xcb\x91,L\xbb\x97\x18\xe9\xc9\xc5v_\x1a`\xfe\xd2\xd2\x9e\t\x03\x13\xf6VPT\xfc\xa4m&lt;\x1fz\xf9\x82o\x877\xbf\x17\xf5\x9f\xf8W\xc9\t\x8e\xdaR\xd1\xde\x94\x18*\x87\x82?"k\xea\xaf\x81?\xb1O\xc0\xcf\x82\xfe\x1f\x82\x1f\t\xf87M\x8a\xe2\xde\xddc\x9a\xf9c\x06g~\xacNG\x1cWE\'\x83l\xa6\xf1\x1c7v\xab\xb5m\xf8eA\x80\xde\x84\xe3\xadz7\x85R\xee\xdfL\x8a\x0b\x98\xd5YC,Y^\x84\xf4&amp;\xa9kzu\x9d\xfd\xca6\xd6\xf2\xee3\xf6\x9d\xdc\x00\xcb\xd0\xe2\xb9\x1dw\xc0\xf3\\\xdbO\xba\xe0\xdcD\xe4\x95I\x1f-\x81\xd8\x13\xd0V\x87\x86\xa2\xd6lt\xd4\x86\xf6\xc3\r\x0f\x00\x83\xbb\xe4\xf6\xf7\xf4\xae\x9fI\xf1\x147,\xc7.\xa9\x13\xa8\x9b\xcdr\xacW&lt;\xe3\x1d\xf1[\xef&lt;r]E\x1c\x17\x0c|\xb9ZY7\x9d\xd9\xc0\xc8\xc7\xa7\xbdK\xfd\xa95\xde\x9dt\x93M\'\xc9\x00f*\xc7\x96d9N:\x8e\xf8\xacdw\x9bN\x88@\x84\x99c\x0e\xe7\xcb}\xc7\x07\xd7=i\x97\xda\x9d\x9d\x9e\xb5\x0c\x10\xb4q\r\xec\xe6\x15\x88q\x1b.\x0f\xe1\xde\x9d\xa5o,Y\xae%\xe7s\x89\x1dz\xa8\xed\x9fJ\x9ek\xabI\xad\x1a\xe1\xef1\xb5\xb1\xc3V=\xcc\xcb$\x1f1\xce\xc6\xe8y\xdd\x9e\xf5\x99\xa9Ep\x96\x8e\x96\xf9\xf3\\\xfc\xa4w\xf4\x15FI\xe4\xb3\xb7\x05\xadr\x15N\xf6A\xd0\xd3.D!\x10\xdb\xa61++\x03\xe8EG\xa6Nle\r-\xb3\x98\xddX+\xf6\xdd\xda\xb6T\xdaE%\xb5\xfbe$a\xca\xa7\x00\x8f\x7fZ]\x16\xeag\xb47w\xd9\x00\xa7\xc8\xa7\x90y\xebK\x14\xd6\xb61\xc9w,\xcc^s\xf2\xc6G\x00{zVv\xa9\xab\x1d=\x01\xcaHG\xce3\xc8U\xeb\xf9\xd7\r\xe2\xab\x99n\x1a-X]F\x126&gt;W\x98x9\xeb^u\xaa\xea2\xcfl\xd2\xda\xfc\x85$f\x7f-\x89W\xc7=\xeb\x97\xf1\xae\xbdm\x1d\x9e\xd5\x8c\xb9\x91\x08\x99\xba\x9cw\x15\xe4:\xd5\xfcZ\x05\xa7\x91\x14F\xe2\xec\xdb\x94\x0e\xad\xf7\x1b9\xc9\xf58\xae_Ok\x96W\x90G,\xa5\x9f,L`\xe0\xfaW\xe2v\xfc\x92\x0c\xb9\xe3\xa6\xdaU\x1eb\x15\x7f\x97\x8e=\xe8ETB\xa5GN(*\x18\x05\'\x00\x9cf\x99\xb5\x15\xca\xb1\xfa{\xd0\x19\x96=\xeb\xd7p\xe7\xd6\xa4di\x80,\xc3&gt;\xd5\x12B\x12\xe3\xcc\x18\nN\x0e)d\x9d\xd5\xd8\x92\xa5G9\xc50m\x7f\xdem\x1c\xf48\xa6nh\xdcw$\xd4\xce\xaa\x100\xe4\x9e\xbe\xd4\xd58&lt;\x9c\x0c\xf3Oi\x7fz\x14\x8c\x008\xc7z%\xb8W\xc2/Q\xde\x9c\x88\xb8\x00 \xeb\xe9\xde\x91\xd9\x9eLm\x00\x8f\xe2\xee)l\xae\xbe\xcdv\x02\xb7\x01q\x9cg\x03\xfc\xf6\xaf\xd6\xef\xf8"\x7f\xed\x81}\xe3\xbf\x0b\xa7\xc2?\x13\xeaG\xfb[\xc3\xdbM\xac\x92?\xef\'\xb3\'\n2y%z\x9fj\xfd0\xf1=\xccz\x8e\x93, \xa71\x06\\\x8e\xf8\xa6~\xcd\xdf\n\xfc!k\xab\xdfx\xb7P{v\xb9\xb8b\x166a\x81\xef\x83^\xbd\xaf\xddZ\xc3e-\x85\xad\xe2)\xdd\x9d\xc1\xc0\xc6F\x0fOj\xcd\xb7\xf1\x0f\x824`n\xee\xf5H\x9eTB]r9 U;O\xda\x1f\xc00\x95\xb7\xbe\x0e\x92\xef!\x1c?QZ\xba\x7f\xc6\x0f\x85\x1e$G\xb7\xfe\xd2C0\x07j\xca6\xf3\xdb\x91\xd6\xadA\x0e\x8f\xa80\xb9\x82\xfa\xdd\xd0\x8c\x00\xb3\x02p{{\x8fj\x9a\xde\xca6\xcd\xbd\xb8V\xde\xe0``\x0f\xc6\xa5\x83C\x10,\xcb%\xb6\xd4`~Q\xc9-\xda\x9f6\xa1\xfd\x93\x19\xb7\x95\x84l\x07\x95\xe6\x0e\x02\xab\xf0\x7fCT-&lt;H\xb6\x12\x8b\x1b\xfb\xe8\xe1\xdeI%\x9c\xb0\x97#\x00\x9c\xfbq\x9a\x9e-n\xd6;\x9b\xb9\xad\xa3H\xe2\xb6#\xec\xeaq\xb8 ]\xa0}w\x90[\xd4Ve\x93\xdbj\xf7\x87Q7\x9ehpa%\x8e\x19\x83pF}\x06zU\xbdW\xc40Au\x15\x95\x92\xccA\x020a@\xd1\xa0\xe8I\xf4\xac\xa7iw\xa42\xea+\xb1I\xdc\x81&gt;\xfdi\x0bI!\x8d\xd6K\x80\xee\xf8*1\xc0\x1e\x9fZ\xc2\xf16\xb7q\xa1\xea6\x96\xf2Y\xcb\'\xda\x9c\x04(\xe7\xe4\xe7\xad]\xbb@,\x968\x9f\x1e`\xcc\x80\xfaw\xaa\x92K\x03\xc6clg\xae\xee\xe4\xd4g[\xb7\x8fGKG\xcf\xde8\x0cx\x1e\xf5j\xd2\xe2\x1dB\x18s\xbdX!\x1ef\xfe*\xca\xc9,\xb6\xa8\xaf*\xae\xd3\xd0.6\xe0\xf0\x07\xd6\xb3\xe5\xbd\xba\xd4\xee\x19\x87\xee\xd4\x1d\xaa\xcd\xd3\x1d\xc0\xac]n\xf2Ki&amp;\xd3\xe4\x80:D\xd1*\xca8\xdc\x19NI\xf5\xae\x17\xc47\x8a\xd6\xf0\x99b\xc5\xb41\x15@\xad\xd1\xc9\xc0j\xe5|Eq\x04zQV\xbc@\xc2\xdfpRy\x1c\xfd\xe1\xef\xef^?\xe2?\x17Jn\xda\xcc\xce\xdb\xdd\x8f\x98z\x05\x1e\xde\x84\xd7\x9ej\xfa\xc42j\xc1!8h\xf74\xa5\xf92\x1f\xaf\xadG\xfd\xb5\xfd\x91\xfb\xbb4\xe2O\x98\xfc\xdd\xeb\xf1=\xbe\xe8\xf7\xebM\xc18\x03\x1e\xd9\xa6\x82\xa9\'#y=@\xedH\x9f:\xb1-\x80\x0fBh{h\xd5D\xb2?\x1f\xca\x9b\x1eW\xef\x0c\xa1\xe9\x9a~T\xf0\xab\xcfn)\x1e9\x19\n\x92\xb8#\xa5C\xe5m\x1bXg\xebA;W\x8e\x83\xb5\x12\xa8dW\x03\xa1\xebK#\x15\x8fp\xa5u\xf3\x08=&gt;^@\xefLf;\xc1\'\xa5:$\xf3\x1c\xb0\x15b\x12\xc8@\xe39\xe34HK3\t\n\x82A\x1f%B\xb1\x15m\x81Kn\xe0\xe3\xa9\xafV\xfd\x8c~:j\x9f\x01?h_\r\xfcF\xb4\xbexb\xb7\xbeS\xa8\xc6\x00U\x92\xdd\xc6\x1dN=Fk\xfa\x08\xf0\xcf\xc4[\x7f\x17x\x1fK\xf1\x06\x95+K\x06\xa1\x02&lt;\x13\x02\x184e\x03r~\xbcW\x86x\xdf\xf6\x95\xf1\'\xc3M~\xe7T\xb5\xd6$\xb7\xb6\x82s\x1b\xc0\xdd9=qL\xf0o\xfc\x14\x1a\xcb\xc4w;.\xfcA\xb2{\x93\xb2\x11\xbb$\x91\xc7\x00\xf45\xd9\xeb_\xb4\x1c\x1a\xad\xb5\xd5\xe6\x95s\x13\xb3\xc2\x03\xa1\x93\x0c\x9cr\xd8&lt;c\xbf\x15\xe0_\x12\xbfn+-\x0bW\x93I\xf3\xee\xb5+\x98\xd4\xa8\x8a\xd5p\xa9\xc7\xa8\xef\\\xe6\x93\xff\x00\x05\x00\xf8\xa3i\xa8A\xa5\xdbx6\xee\xee\xc8\x02[o\xca\xe0\x1fS\xde\xbd\x0f\xc1_\xf0P\xcb\xe4\xb8\x1a~\xa6\xfa\x8e\x97&lt;|\x88g\x0e7\x9e\xc0\x11\xd6\xbds\xc1_\xf0Q\x1b\x97\x10\xdd\rQ$@2\xf1Lv\x1e:\xf5\xeak\xdc~\x1f\xff\x00\xc1C\xbe\x1dk\xb1Em\xa9\xeb\x11\xc5vT\x007\x8d\xa7\xdb=\x8dw\x17\x9f\x1e|!\xe2[}\xf6\x9a\xc5\xb0V\x91\x1d\x80\x95Nq\\\x97\x8c\x7fh/\n[\x80n\xee\xa0\x00@\x17y\x90\x12\xfc\xe3\x07=s\xe8k\x13H\xfd\xa3\xfc?}}\xbe\xe7XHC\x16a4\x97_\xebX\xf68=\xfa\x1a\xeb\xbc?\xf1?F\xbd\xba\x82\x1d&amp;\xec\x94@]\x1a7\xdc\x17\xd41&gt;\xb5\xa9\xa9|B\xb2\xd3\xee\x9e\xda\xca\xed"B0\xeeS\x80\xcd\xdf\x1e\xbc\xd6\x9f\x85\xfc@u]T&gt;\xa0\xc1\xcf\x9aU\x06\xcd\xab\x8c}\xec{u\xae\x92\xe2I \x91c7J\xe8\xce\x0e"\\\x9cg\xd4\xf3U\xb55\x8ah\x85\xcbB\xad$\x00\xb219\xda\xa3\xb5ah\xde&amp;\x97X{\xa6\xb9\xb4x\x85\xb3\xec\x1egV\xcf\xa7\xb5S\xf1\x16\xbd\x0e\x8ds\x1c\xac~F#p\xf4\x15[O\xd5\xb4\xaf\x15\xdaM\x1c\x17&amp; I\xe4\x8e\x00\xef\x8a\xd9\xf0\xa5\xc5\xac\x9aiX\xef\xc3\xach\xbbr=\x0f?\x9d\\\xd2\xeenn\xef\x9a-J_-^\x00\xe7\x1d\x88&lt;U\'\xd6\xa5\xbd\xbc\x95m\x001Fq\x10\xdb\x81\xb8w\xc5s\xfe5\xd4#X\x1aO\xb4b&amp;8([\xe6`\xa3\x83\xf8\xf4\xaf5\xf1\xb6\xb94v\x0b\x1d\x84j\xd1\xcd+*27\xdc\xc0\xe38\xec\rp^*\xf1$6\x96\xc7R\x9ax&lt;\xcbr\xb0\xf9R\xa9;\xc3pN}\x07\xe9^C\xe2}Z\xeei\xe5K\xa0\x0c\x97\x12oa\x0b\xfc\x88\x07O\xa5q\x06\xee\xe3\xed-\xa8\xbc\x8a7*\x84\x8d\x9f \xfc\xd5I\xfcGm\x0c\xae\x97\x17\x81\xdf&lt;\x8f+;}\xab\xf1\xf7\x96\xf9sL\xc4\xcc\xc0\x95\xc1\xce6\xfbz\xd3\xc7\xee\x1b\xe4\x18\'\xd2\x91\x95_\xef\x8e\xbdI\xa5uWM\x8e\xa3h\xe9\x91\xd6\x80\x06\x02\x800:\x0e\xd4\xd7\x0c\xa7?/\xe5M2\x0cq\x8f\xca\x92DgP\xe0\xd38\xee?:[x\xce\xe1\x13\x93\x8c\xe7\x93\xda\x8f)\x97?\xc4\x0b`g\xb58\xc7\x1a\xc42\xf9b\xd8&lt;\xf4\xa8\xdc\xaae\\q\xd8\xd3\xa2&amp;,:\xf2\t\xa9\x1f\xe6\x1b\x81\xc6)\x1aEG\xf9\x10\x1f\x96\x91\xf7\xc9\x00ur\xad\xbb\xb1\xc52(\xd2\x1f\x91\xb8C\x80\xc0zW\xec\xaf\xfc\x12\x03\xf6\x99\x8f\xe2\xdf\xec\xad\x17\xc3\xdf\x13jq\x9d_\xc1\xce\xb0M\x18\x932KlO\xc8\xf9\xeb\xedZ?\xb46\x91\xa5i\xfe2\xb8\x83\xc4\xc8\x92[\\\x11 V}\x9ebw\xda}@\xee+\xe6/\x8c\xdf\x0e\xbf\xb1\xb5\xaf\xf8I\xfe\x1e\xebok\x19!\xa1\xb4\x8ep\xb2\x01\xd4\x80\x14\xe3\x07\xb9\xebP\xf8\x8f\xe2g\xc4[O\x0b\x1b}W^\xbf\xf3cE\x8e\x12\xb236\xe20\x06s\xc75\xda~\xcd\xbf\x075o\x89Z\x82\xde\\$\xb7&gt;e\xc6%\xf9Il\xfe\x1dk\xed\xbf\x04\x7f\xc1659\xfc1\'\x8a\xb5\xab8\xb4\xfbkKV\xbb\x9aK\xa2\x02\xac;\x87\xce\xc4\xf6\x03\'\x15\xeco\xff\x00\x04\xb1\xf0\xd6\xa5\xa2\xdb\\\xde\xde\xd8\x1d\xd1F\xf0\xcf&amp;\xcd\xa4\xb66\x94f8o\xe9_$~\xde?\xb3\xe7\xc1\xcf\xd9\xbf\xc3\xf3\xea\x1a\xb7\x8c4\xf9\'Eskei\xa8)\x95\xa4\x00\x90\xa1c&lt;d\xf1\x8a\xfc\xf9\x87\xf6\x82\xf8\x99\xe1\xc0\xc2\xf7\xc23F\xb2JU\x04\xe2h\xfb\xe7\x19\x0b\xd7m{\xf7\xec\xad\xe2\x8f\xda\xe7\xf6\x8c\xf1=\x86\x97\xf0\xafC\x9a\x08\xa7\xb8t\x9a\xfc\xdf\xff\x00\xa2\xc5\xe5\x8d\xc5\xf6\xf5*G\x18\xeek\xe8\x0f\x88\xdf\xb1\xef\xed\x81\xafi\xd0\xc3}\xf1_L\xdd;\x01\x1cP[\xc8\x06\x01\xf9\xb9\xce+s\xe1\xaf\xec\x17\xf1S\xc3\xb6\xd2\xcdu\xf1|jr\xc6\x81\x9e\x15\x88\xa4h?\x8b\xe6\xe9\x91^\xe5\xf0\x93\xc0Z\xf7\x82\xa61x\x97Z\x7f:l\x08\xda\x19\x96Ep:d\x1e\xf5\xeav6ZL\xb7v\xf2\xdfF\xb3\x1biRV\xf3\x0f\xdf \x822:7\xd0\xd6\xfd\xc7\x8bmnuo\xb4\xe9\x96r,\xab\xb90\xb8P\x83x\x1b\xb0=\x05t\x16:\xf47\xce^c\x97\x90\xaa#\x03\xd0\xd5\xc8f\xb3\xb9\xb6x\xcf\xf0\xb6\x1bk\xf1Y_n\xfe\xd0\xd4d\xb6\xb7\xb5\xf2\xa3\x85p\xe6V\xe5\xdb\xb5q\x1e&lt;\xf1)\x83\xc5\x10\xd9\xdd\xc0\xabl\xec#.~e\xc98\xa7xt\xad\x9e\x9f34\xcd\xe5\x1d\xc5\x91G\xcc\xa7\xb6=\x01\xae\x8bBG\x82\xd4\xae\x8f*\x18\xa7\x11\xe0\x14\xfb\x87i\'\xf5\xad\xcb}M\x05\xb9\x17 }\xa1\xb0\xb1\xb9\\d\x8e\x80\x1e\xdc\xd6t\xd7\x10\xc6\xcd\x05\x9a\x95\x07$\xf9\x8d\x93\xbf\xd8\xf6\xe6\xb8\xcf\x1cKs=\xe0\xb8\x8d\x1c\x88W\xcb\x8a-\xa1\x95\x81\xf5\'\xd3\xd7\xb5y/\x88\xb5y\xec\xef\x8d\x85\x92\xbc0\xc1"\x1b\xc1#\x93\xbbr\x9d\xd8\xfa\xd7\x03\xf1\x07\xc4\xf7\x97w\xff\x00g\x86X|\x88\xe2+\x869\xea8$w\xaf(\xf1M\xed\xb7\xd8\x82Ou\x99\xa4W,T\xed\xdd\x80q\\V\xb3\xaa\xc5\xa7\xd9y-\x8c:\x15\x8c\x06\xe8MU\xb6\x9a\xe6\xe52\xb3\xe0\x00?\x8a\xbf)P\xc2T\x96nE#O&amp;p\x13\'\xa6{\x8a\x8d\xe420A\x1bd\x1e\xb5#\x00\xab\x8e\xa5\x86&gt;\x94\xdd\xdbF\xd69\xf4\xcd*\x18\x99\x80g\xe7=3L]\xbb\xf2\xc0\x10\x18u\xa6\x07B\xe6}\xa3n\xecc\x1cR\xb3\xef!\x13\x80OAQ\xbf\xce\x9b\x17\x82\x1b\xb59\\\x93\xe7\x0e\xc3\x14\xf4\x902\xe1\x8e=\x052A\xfd\xd5\x19\xed\xc7zB\xc5\x86\xd9\x90{dT\xd0\x85\t\xca\x82\x00\xe8E f\x90\xb0t\xda\xa0v\xee*\x19%E8\x89\t\xcf\x02\xa5I\x10 \xf3\x00\xcf\xa5E \x07tR3`\xf3\x90y\xc5}1\xff\x00\x04\xaa\xf8\xff\x00g\xf0K\xf6\xab\xd1\xf4\xbf\x11^\x88t_\x15!\xd1uP~\xeco)\r\x13\xfa|\xad\x85\xcf`M~\xac~\xd0\x9f\x03\xf4\x7f\x8d\xbe\n\xb8\xf0\xfd\xea\x88\xef\xb4\xf0\xef\xa6_F\xdb&amp;\x84\xe4\x10\x15\x87;q\xce\xd0pk\xf3w\xc6\x9e\x16\xf1w\xc3\xcf\x11\xcf\xa3\xf8\x83]\x93e\xbd\xdb,\x92\xc9\x11\x1c\x03\xc7\xcb\xdc\xfb\xd1\xae\xfcY\xf0&amp;\x99\xe1\xd8\xf4\xc9\xbcL\'\xbbiU\x9d]\xb0N\x0fJ\xec\xbe\x0f\xff\x00\xc1J\xfcY\xfb-\x19\xaf&lt;\x01\xe1\x1d\'T\x82\xea\xd5M\xbb]\x13\x98f\xec\xfcu\xc1\xc6}i?i\x7f\xf887\xf6\xee\xf8\xdb\xf0kR\xf8\x0et\xef\r\xe8:n\xad\xa7\xfd\x8fS\xbc\xd0\xad\x9f\xcf\x92#\x90\xc8\x1c\xfd\xcc\xa99#\xeb\\\x87\xc0O\x8e\xff\x00\xf0S\x0f\x88\x1e\x1e\xf0\xcf\x85\xbcu\xf1\x7f\xe2w\xfc!\xb1\xda\x15\xf0\xdd\xf5\xcd\xe4\xf1\xc3\xe4( \xaaK\x80\xd2\x07\x19\xe5\x8f\xd2\xbfL~\x03\x7f\xc1(\xfc1\xf1\x0f\xc1\x16\x1e=\xd5\x9a\xeb_\xf1\x02\x88\xf5\x0b]_Q\x95\xa4\xdb"\x10\xfbp\xd9\xdcr+\xec\xbf\x86\xff\x00\xb0\x85\x96\xb3\xe1{g\xf1\xd5\xae\x99\xa8\xc5\x1a\x19\x0cZ\x86\x9b\x1c\x8a\xae\x07\',\x0e8\x1dG8\xaf\x15\xf0_\xec\xe1\xe0\x0f\x80\xd3x\xbao\x80\xda\x0c\xd2i\x91_H\xf7\xda\xa4Q\x85Ktb\\$`\x9e\x13 \x8e8\xa5\xf8K\xe2H|m\r\xce\x93z\xd2&lt;\x83Pv\xb0G\x8cb8\x98me\x07\xf83\xdb\x1fZ\xed&lt;K\xe3=\x1f\xc2vC\xc1\xba9\xb6YLd\x85nv9\x1c\x13\xeb\xcds\xbf\xda\x1a\x85\xde\x9e-WJF\xb9c\x96\xb9=0z\xe0v\xad+\x88g\xb4\xd3Q\x951t\xc0&gt;\xf8\x9b\x8c/8\xe2\xa9h1x\x82\xdd%\xd4\xb5%i.\xae\x83\x88V3\x82\x17\xd7\x1e\xbd\xeb\xa2\xd1\xe7\xf1=\x92\x1bk\xd1\x18\x92R\t\xdc\xd80\x8e\xc4\x01\xd0\xd6\x84\xbe,\x93C\x81\xe1\x8a\xc9\xd8:\x90gc\xf2\x86\xf5\xc7z\x93T\xd6\'\xb8\xd2\xd6\xf99\r\x1f\xef7\x0c3q\xda\xb9-J\x19\xbcC\xf6o\xb4\xc2\x8b\x1c2oU*2H9\x19\xad-\x1a\xf6Q|\xf6s\x90\x1aX\xcf\x98\xe8p\x17\x1d\x06Ev6\xd6\xef\xa64\x8f\x04%\xe2\\\x9d\x90\x0e\xb8_Z\xb5\xa8L\xb3\xd9\xda\xad\xc8HU\xdc3#\x01\x95\xc1\xe1s\xdb5\xcc\xcf\xa9\xc7\x16\xb8\xd68(I\xccE\xb9\\\xf6\xaeW\xe2\x16\xb1n\x8c\xb2\xc7\xb3\x97\xc1\x0b)\x00\x0e\xf8\x15\xe4\x1e$\xd6\x13W\x9a\xe2k\xe8\xc2\x99\xa3|\xc6\xbc\x11\xb4\x1d\xa6\xbc[\xe2&amp;\xa7k\xa2\xed6w\x12y\xd21%\x9c\x96\xc7\xd7\xe9\\\x0f\x8bu\xb9\xd9\xcc\xee r\x91\xe62[#8\xec\xa7\xa5y\xb7\x88\xfcMuqt\xd0E\xbb\x00\xed\x8c\xb2\x02K\x1e\xff\x00A^\xcf\xf0W\xe0\x8e\xb3\xe3/\x0b\xff\x00j\xdc\x92\x87*\x07\x980O\x07\x9a\xfco\x99T\xa6\x15@#\xa9\x02\x94\x95\x8c\xab,\x87\x81\x9cf\x91\x8b\x17\x12\x96a\x93\xd063H\xa1\xca\x96T\xc7\xcd\xc9f\xe6\x94\x85o\xbd\xf9\xd4i\x85\x97!A\xc1\xeai\xec\x9ec\x80\xa7\x00\x9eqQ2\x18\xa3(\x06F\xee\xf4&amp;\x0b\x02N9\xedR5\xb28,\xaf\x8f\\\x1ao\x96\xc8\xa0\x08\xbePs\x9d\xddj92\x99q\xdf\xa0\xa7\xc7\xce\xd2\x0eI&lt;\xfbS\xa5\x89\x89\xeb\xcf\xbd":G\x0e\x1c6\xe2\xd8\x04\x1a{\x02\xe8\x17q\xe7\x8e\xb4,)\x19\xcb6j\'P\xeeI\x1c\nq\x11&gt;&gt;S\x93\xc6j]:\xf6\xe3L\xbdK\xbby\x9a)!\x90I\x1c\x8apU\x81\xces_\xb8_\xb2?\xc78&gt;:~\xcd\x1e\x12\xf8\x97s\xaa\xed\xd4\xeet\xa8\xedum\x8d\xbb\xcb\xbb\x8b\xf7l\xa7\xd1\x98`\x93\xd6\x93\xe3\x9f\xec1\xff\x00\r\x05r|H\xf25\x95\xd5\xd6\xe5b\xb1\xa9\xca\x85\xe3\xe9^\x15\x07\xfc\x10gU\xf1\xcf\xc4\x0bX\xfcK\xe294\xcb59\xbe\xb9\x8d\xc4\x9e`\xcf\x01\x07l\x8a\xee&gt;.\x7f\xc1\x065\x9f\rx(]|5\xf1*^\xb4j6Ar\xc1\x0e\xd1\xcf\x03\xa0\xaf\x14\xfd\x98\x7f\xe0\x85\x1f\x1d\x7fi\xcf\x14x\x9fM\xf1&gt;\xa4|/\xa5x]\xc43j\x13Y\x19\xfe\xd5p\xc7\x94\x8c.\x008\xfe.\xd5\xfb\x83k\xff\x00\x04\xd2\xf8U\xe2\x7f\x83^\x16\xf0N\xab\x19\x82=\x1bM\xb6\x80\xa4\x10\x14\x10\xf9qF\xaa\xde\xe398\xe82}\xeb\xd6\xbff?\x01Z|&gt;\xf0\xd4\x1e\x01\x99\xc3\x0b\'kx\x1d\x8e\x0f\xcar\x0f\xe2:\xfa\xd7-\xfbe\xfch\xbb\xf8S\xe1\xc7\xf8=\xe0\x0bo3\xc4\x1e(Q\r\xa7\x94\xd86\xb6\xecv\xbb\x92:1\xc9\x00\xd7\xcb_\x18\xfc7s\xf0\x7f\xc2\xd0xd\xea\xd72^^[\xa7\xf6\x92\xac\xa4\xc4\xce&gt;`\x1c\x03\xce=\xeb\x8b\xf0\xa7\x89\xc7\xc2/\x04\xea\x1e)\xd7\x1e\xce\x18\xd9\xdc\xa4\xeb6\x1b\xef\x0c\x0c\x7fJ\xab\xf0vO\x13|j\xd5\xae&lt;b\xd0\xcc\xf6\xef?\xfa\x10\x92R@Py$\x1f\xd2\xbdQ\xb4}P]\xac0[\x84\xb7\x8dvL@\xc3\x13\xdcf\xacYE$\x13ox\xfc\xc3\x1f\xdc\x8c6\xd5A\xeb\xeei\xebuqu\xac\xdbySD\x84\xa1\xf3cd\x1f\'\xd3\xd35fC{\x1c\xe8\xc2\xe4BA&amp;W\xeb\xe6zg\xd6\xaf\\\xd9\xa9\xd3\x92\x1b\xab\x91pA\xdc\xb1\x8fS\xd3"\xa8jW7?\xe8\xd0\xcc\xed\'\x04\x08\x84\xa7#\xfc*\x9c\xb3Y\xad\xfb,bVDFR\x03\x91\xb4\x01\x90\xf9\xeesSxz\xd5 \xbaY-\xe2\x91\xdd\x95\x9eww\xe0\x11\xca\xf0{\xd7T\x9a\xbc\xb62M\x0c\xee\xf2N\n\x96\xc0\x18\xda{}qY~!\xf1&lt;7w\xe2\te*\xb2.\xd3\xbb\xe6\x04\xf4\x00g\xf8\xbd+\x1a=R6w/|6\xc5m\xb8L\xe7\x95\xc1\xf6\xef^}\xf17\xc4\x16-w\x00\x96\xf1]Q\xd4\x08\xa3\xf9H*w\x17-\xdf\x8e\xa3\xbdy\x17\x8b\xbcKu\xf6\xdb\xb9m\xfc\xb3\x19\x18VQ\xce+\xca\xbcq\xad \xbf1\x08\xd8I\x0e\x19\xc9\xe8G\xa5y\xa7\x8d|Kmm\xa7\x9b\xa1\x12\xbc\xca\x83x\xee\xf9=\t\xfd+\x9b\xfd\x9f\xbe\x1e\xeb?\x18~\'\xa5\x8e\xd7\xfb%\x8ed\x96Ur@\xe7;s_\xa4\x7f\x0e&gt;\x19A\xa5xy,`\xb7\xca\xc6\x15AD\x07\xa0\xf7\xaf\xe6\xe6O\xb3\xbc\xdf\xbb,r\xbc\xaex\xa41\x0e\xe2\x9c\xab\x1e\xdc\x97\xce:f\x98\xc8\xac\x0b\x05\x03\x1c\xd3Y\x1d\x13y\'\x9e\xc6\x91\x00$d\xed\xcf\xa5&lt;H\x0byq\xaeq\xe9M\x98\xc8\xaaB\xdb\xf1\x8e\xb9\xe9Q\xe0\x19\x00?\xdd\xa7\x14VR\x8b)\xe4`\x0c\xd0Q\xb6yD\x9c\x81Q\x85d$7\xcd\x8e\x80\xf3J\x19\xd7\xe6E\xe7\xb8\xa9\xfe\xfcyw\xc1\xc5"p\xbbTdP\t\xc9\xe7\xa7J\x8eBx\xe6\x96(\xd9N\xf6\'\rO\'h\xf5\x03\xa9=\xa9\x166\xb8\xcf\x92\xbc\xe3\x8d\xfd\xfe\x95\xf7o\xfc\x11\x8f\xf6\x85\xb7\xd2\xfci\xa8\xfe\xcd&gt;"\xd5\x95l\xf5\xd9M\xfe\x8a\xf3I\xb5c\xba\t\x82\xbc\xf1\x96\x1f7\xb9\x19\xaf\xd4O\x08x\xd6\xe2\xc8\xcfmy\x13\xf9\xb6\xe8\xc0\xb2\xb1"D\xc78\xf5\xe2\xbd[\xe15\xa1\xd4.&gt;\xdb:\x80\xd7\x00&lt;e\xd3\x18Q\xce+\xd3\xef\xec\xf5!\xa6\x06\xb6\x8a9eE\xf9U\xd4\x13\x8a\xec\x7ff\xbd{G\xf0\x8d\xde\xa1\xa7\xea\x90\xc4\x1bU\xb8\x12\x02\xe8\x08\xf3z\x1c\x9f~\x84\xfaW\xbei7:m\xc7\x87\x9cA\x14j\x83#\xe4 \xaa\xaf\xb7\xa7\xff\x00Z\xbcw\xe2\xcf\xc4\xad/\xe1\x9a\xdck\xd77\n$\x86m\xd1A\x1d\xc6$\x9d\xfb\x0e\xbd\xfa~5\xf3\xae\xa1a\xe3\x9f\x8a\xbe!\xbe\xf8\xe5\xaa\xeb\xf0j\x97\xd3\xcf\xe4%\x9d\xab\x9f2\xd6%\xe5\x14\x03\xc7\x07\x07\x8e\xfc\xd7\x94\xfcm\xd7\xb5\x08\xad\xd6MOR\x06\xea\xeeC\xe7\xc1,\x86I\x10\x8e9\xdd\xf7~\xa2\xbeg\xf8\xe3\xf1\x0c\xf8\xe3\xe2\x1e\x83\xfb&gt;i\xce\xeb\x1b\'\xda\xf5\xc9b\x94\xb1l\x10B\x1cz\xf4\xaf\xb5\xff\x00f/\x07\xda\xf8O\xc0\xf6\x9aLVq\xc6\xb1\xc0\x08}\xdf7N3]\xe5\xdc1\xa4/*\xdbG&gt;[\x0e\x11G#\xd3\xebX\xba\x8e\x8fg\xa8\xca\xbfd\xb3\x91\x10\x1c\x98I\xc1\x07\xd4z\xd3\xdb\xc2V\xb3\xc6c\xb1Y\x16\xe2e\xc1c\x18\'\x1e\x99\xf4\xab1iv\xb6Z\x1cf\xee\xd37 \x95]\xe7p\'\xb1\xc7j\xcd\xba\x83P\x93Ty$\xf2\x92U\xda\xb6\xf1\xa3\x95\x0f\x9e\xe7\x1dqX\x9a\xe6\x99\xa8I\x1cS\xbe"\xbbI\x0e\xe5\x81\xb8+\x9eI\xef\x8a\xb7eg\r\xcd\xacb\'G\xdaT;\x07&gt;\xbd&gt;\x99\xa8\xa0\x8a\xf6\xdai`mMHg\x0cS\xcb\xf4\xf7\xefP\\ko6\xaa\xcbi\xbc\xab(W\x99\x0e&gt;n\xc4\xfa\xe3\xde\xa9k\x97\x86=)m\xda%\x92I\x95^\x0f=\x8a\x94\xc3r\xc7\x1d\xfd\rs\xfa\xbf\x8bd\xb0\xf0\xf4\x90i\xd61\xc3\xe6Z\xef\x9eE \xaa\x95\xcf\xf3\xef^3\xe2\x9f\x15K*\xc8\x97\xd7\t,\x89#2\xa0\x90\xed\xc9\xfe,t\xcdy\xce\xab\xe3\t,\xe5\x9a9\x08a\xcb\xee\x07\xefc\xb1\xf6\xae\x0f\xc6~)\x9e\xec5\xdc\xb3$r2\x1f0\x11\x9cq\xf2\x8a\xf1\xef\x8b\x9e.\x86\xda\xdd4\xfbe\x06\xee\xf4\x84\x825|\xb37n;\x0c\xe2\xbe\xd2\xff\x00\x82{~\xce\xb1\xfc6\xf8}g\xaa\xebv\xf8\xbf\xd6G\x9f;0\xc9Ry\\\xd7\xd7:=\x8d\x94\x16\xc60\xce\xed\x9f\x98\xa1\xc75\xfc\xb8$jV&lt;\x0c\x16\x04\x16\x1dhud\xca?N\xc7\xd6\x9a\xca\xbb:c=M2"X\xb27Lp}iK\xaf\x98\x8c\x9b\x98d)\x04\xf0*#\xcb6OF\xfc\xa9\xd1\xa4k\x96\r\xcf~i\xdb\x94\x8d\xb8\xe0\xd2\x14N\xbd\xf1L#\xe6\x1bx\xe7\xb54\xbb$\x87$\xe4\xf7\xcd=\x06\xecg\xa9=i\xc9\x16$$\xf4\xefK"+\x9f\x95\xcf\xd34.S\xe4\x1dOJj\xf9\x8b.\xd6e9=(\x93\x01\x0bc\xa1\xa6\x07r\x84\x82H\x038\xcdI\x1a\xf9\xca7\x1c\x02y\x03\xbdH\xff\x00.!\xc1+\x9e9\xe9\xf4\xf4\xad?\x00\xf8\xcb\xc4?\x0f|e\xa6\xf8\xbf\xc3\x17\xbeE\xfe\x97}\x15\xcd\x9b\xef \x89\x10\x8d\xbc\x8e@ `\xfb\x12+\xf6\xff\x00\xf6R\xf8\xff\x00\xa0|~\xf0\x7f\x86\xfe*\xf8RH\xde\x1b\xc8"7\x96nra\x94\x80\x1a3\xe9\x89\x07\xe4k\xe8\x8f\x0b\xfcT\x90_\xc0\xb7l#{g\xd8a_\x95B\xe7\xefz\x1cW\xa6\xe9\xde:\x8e\xf1\x04\xf2j\xc4\x06L\x02% \xe2\xa3\xb0\xf8\x8f\xa7iZ\x89\xb7\x97\xf7\xfb\x8e\xd5\x869pN\x7f\x91\xf7\xae\xbfL\xfd\xa8|G\xe1\xef\x0f7\x87t\x19\xed`FGs5\xd8\xce\xc5\x03$d\xf5\xfaW\xcd\x1e&gt;\xf8\x97{\xf1w\xe2r\xe9\xb3x\x92iQ\xe6\x02y\x8b6\xd2\xdb\xba}+\xd1,\xf5\xdf\xf8F4d\xb5\xd25R\xb1\xc0\x87\xcd&gt;a\xceq\xc9\x15\xf2_\xed?\xf1\xbbK\xd0u\x0b\xddb\xefR7\x11\xd9C\xbaO2c\x86nz\xe6\xbc\xc7\xfe\t\xa1\xa0j\xff\x00\x1c\xbe&amp;x\x83\xe3\xae\xb7j\x1c\xde\xdd%\xbd\x88\x913\x85\x00\xf7=G\xb5~\xa3xWG\xd3&lt;?\xa4Ef\xa4J\xcb\x10\x05\xd8gw\x1c\x8f\xc2\xaf[XG\r\xbb\xc7\x15\xa2\x85w\xdcF\xd1\x8a\xa7\xaai\t\x1e\xa25\x1b\xc92\xa9\x1ep\x1b(\x00\xf4\x1d3R\xf8wM\xba\x91\'\xd4\xf4\xe8F\xd3\n\xacN[\x1bI8\xcdr\xda\xea\xdeAy4\x9as\xdc\x99.2`\xc9\xce\xd6\x1dFOL\xd6t\xfa\x8e\xa5\xaa\xddE}\x0cw6\xcd\r\xb0\xf9\xdeD\xcb9m\xc0p2F\x061\xe9\xc5P\x9e=B\xee\xf6mRC\xe6;\xe1w2\xfd\xc1\xdfo\xa5O\x16\x9dy\xa7H\xb6\xb6\x17\xe5\xadf\x19\x9c:\x81\xf5\x15\x16\xb5{\x15\x83\xbcWw\xbb\x13\x81\x19\x8f\x9d\xbe\xf5\xce\xea\x1e&amp;\xd3l\xec\x85\x86\x9c\xea\xf7\x0cY\x8cDd\xb7\xfb[\xbf\xa5r\xfe0\xf1\xd5\xe4w\x82E\xf9Y!1\xedy8d\x03 \xfe\'\x8a\xf3_\x17|B7\xd1\r\xccb\xb6Uo5\xfc\xde\x84z\x8e\xe0zW\x90\xf8\xcb\xe2&lt;kz\xf7\n\xfeiq\xe5\xa9N\x01\xec\t\xae+_\xf1\x97\x9cf\x86\xde\xcd\x99\x06\x16=\xcd\x92\xe4\xf0~\xa2\xb8?\x1e\xf8\xd2\xc7\xc3Zu\xd6\xa1\xab\xde\x11\xb3\r\x1cg\x1f\xbe\xc7;s\xfeqX_\xb1_\xc2\x8dK\xf6\x9f\xfd\xa0\xa3\xd7|GlM\x86\x9e\xe2Q\x1cq\xf1\x88\xce6\x93\xfe\xd1\xeb_\xad^\x12\xf0\x85\x86\x83\xa6\xc7\x0b[\x18D+\xe5\xc0\x11\xf8EU\xf6\xe9\x8a\xe8\xb4\xf4k\xdbU\xb8\xd1\xf7\x12x\x98\x1epE\x7f.a\x81\xca\x8e0\x0e=\xa9\x8cg\x93\xe5pp:\x13C\x12\x88\x01\x19&gt;\x86\x98~W\n\xad\xc7]\xde\x87\xd2\x9c\x0e\xd0J\xf1\xde\xa1\x16\x87y\x94JN\xee\xaaO\x14:H\xac\x02\xa7\x19\xec:R\x85*C18\x07\x9e)\xc7&gt;ir&gt;P\x84\xa8\xf5\xa7:\x81"\xb9\x00dp)\x8f\x92\xe71\x0f\xca\x81\xc5\xc8\x03\xa6:R4\xb9R3\xd5\xb1\xd6\x9d\x1b\xc6\xae\x11\x80\xe4\xf5\xf4\xa4\x0e\x9ey\xde\xdc/#\'\xad5\x94y\x82^\xc4\xfeTL\x1aa\xb5x\x1d\xb1\xde\x80[\xcb0\x88\xc08# R\xee\xdb\x16\xd1\xd4\n\\\xf9\xd1\x82\xccF:\xe0\xf5\xa4x\xa28*\xc4\x03\xf7\xbdH\xaf\xac\xff\x00\xe0\x97\x7f\xb5\x9e\xad\xf0{\xe2\xbd\x9f\xc2\xff\x00\x10\xea\x12G\xa0\xf8\x8a\xfcF\xbb\x80+ox\xcb\x8d\xea\x0f\n\xacq\xf55\xfb\x01\xfd\x896\xadh\xf1\xd8\xca\x16WFH\xeef@\x01\xe4\x1c\x8c{\x1a\xd1\xd44\xcf\x1f[YZ\xdbh\xd7Qy\xf1\x81\x80\xd1e[\xea;\xd5\xf7\xf0\x86\xb5\xe1\x99\xed5\xadSW\xc8\xbb\xb4\r\x14\xd1\x8d\xcc\xad\x9f\x9b#\xd7\xd2\xa9\xeb\xfa\xc5\xf6\xb1s\x05\x96\x91\xa7\xce\xf0\xa4L\x1d\xee!]\x8cq\xd4\x03\xd0\xfb\xf5\xaegF\xf0\xab\xf8f\xf4\xde\xebW_g\x94\x96`\xc5~R=+\x9f\xf8\x9d\xf1z\x7f\x0b\xd9\xcfq.\xad\'\x90T\xee\xf2\x10q\x81\xf7A=3_\x9e?\xb67\xc7\xb9\xfc]x\xfe\x0e\xd3\x9b2\xeaW!\xaf\x11@\x0c\x88\xa7\x85\xf9}k\xf4\x13\xfe\t\xbf\xe0m;\xe1\xf7\xc2\xdf\x0b\xf8wM\xb2\xe4\xdb}\xa2\xe3\xaf\xdea\xc6}k\xed\x8d\x12\xfa\xd6dku\x85\x03\x12\xa25*0\xbe\xb8\x1d\xabR9\xda\xf9&lt;\x98c\xc6\xd3\xb6E\xce\x15\x87\xa5%\xc5\x8c*\x8dj\xdax\xba1\xc6qn3\xc9\xc7\x1fZ\xa9$CO\xf0\x8d\xc3\\\x19\xa0\x94L\x0cV\xfd\x02\xe0\xe4\x03\x8e\xa3\xda\xb9\xab85\xcb\xe4\x82\xee\xc6%Fi\x7ft\xb8=\x8f%\x87\x7fjo\x8b,\xfcI\x04\x10[l\xc4\xa8C\xcd\x1a\xc0\xc1\x97\x1ft\x0ex\x15\xce\xebw\x97\xe9\xbe[x$\xda0\xc56\x81\xc8\xe4\x8f\xc6\xb1\xf5\x1djim&lt;\x98`\x1f+\x8d\xab\xbb\x96\xcf\\\xfa\xe2\xb2\xb5[\x8b\xb5\xd3\xa2\xbf\xb2\xe7$\x86\x8d\xe4\xe4\xb7o\xc2\xb8\xdb\x9dF}+{L\x9f;\xc9\xb8\xcc\x91(\xc7\xfb w\xfa\xd7\x9bx\xf3\xc4\xd3\xdd\xceZ\xfe\xe1\x81(\xc9\tv\xda1\xd8q\xef^[\xe3\x0f\x15YFe\xd3R\xe6 &amp;\x89\x80&amp;Ry\xc7A^u\xack\xac&amp;\x9a\xc6H\x8a\xc7\x02\xe7{\x1c\x9f\xaf\xd2\xb9o\x12x\xca\xd3N\xb4\x92\xee\xe6t\x8d\x14\x80\x1d\xce\x00\x1e\xd5\xf3\xbf\x8d\xbcc\xac|c\xf1u\xaf\x83\xfc9\x13\x98e\x94\xacD\xf2@\xce\x0b\x1f_j\xfdI\xff\x00\x82|~\xce6\x9f\x03\xbe\x15[\x89-]\xb5\x1b\xf8\xc4\xd7N&gt;\xf1\xce\x0e\xd1\xdcd\xd7\xd2\x96\x16\x17s\xad\xc5\x8a^\x17\x17#\x0b\tb\x0c9\xe0\x92k\xd0~\x1fxv{- \xdb\xe8\x16\xd1\xba\x06\x1ek\xc8\xe4\x96o\xad\x7f)&amp;D\x0c\x0e\xde\xfc\xe0S\xdex\xca\x10\x03\xf4\xe3\x9a\x8bv6\xb3\x1e\x84\x1aR\xb8;\x91r\xa4\xd3C\xbe\xf2\xa12&gt;\x94\xec\x01\xc7O\\SY\x9c)T$\xf1\xd6\x9b\x19 mc\x9c\xf1\xf3sN\x92W|FB\x80:\x90:\nFq\x91\xb1\xb7\x11\xf7s\xcf4\x894\xa5\x88\x94/\xe5N\xdc\x99\xce\xde}qH\x04g\x80\x83\x93\xe9L1\x13\'4:\xa2\xcd\xb1\x90}\xde\xe2\x96s\xb65U\xe4\x13\xcd*\x93\xe5\x03\xd7\r\xc599\x8b{pwRH\xcb\xe4\x16\x00g=qD\x18\x08\t\x1d\xf9\xa4\x90#,nTq\x92x\xab\xba&gt;\xa3&amp;\x9d{\x0e\xa7a&lt;\xb1Mn\xe8\xf14nA\x05NT\x0c{\xd7\xeeg\xfc\x13\x87\xf6\xb0\xf0\x87\xed\x1b\xf0?K\xbc\xd7o\x02\xea\x96h\x96\xfa\x92\xa9\x1f%\xcaad\xda\x9d\x95\xb8 \xfdk\xec+\x8d\x0b\xc3\x1a\x9e\x91c\xacA\xe29,\xe7k\x83\x13 @U\xd3\x1d\xb1\xf7O\xa1\xedX77z\x0c\x8f.\x9f\xf6\xc8&gt;Ee\xdf"\x0f\x94\xf6\xe7\xb6k\x86\xd5&lt;K\xa4x~\xcc^\x99\x15\xa5\xb7\x94\xf9\xb1\x97\xe1\xd3\xbe=\xf1\\\x97\xc7\x1f\xda\x13\xe1\xe9\xf0Z\xc1&gt;\xbf\xa7\xdbO\n\xee\x82H\xc2\x83!\xc7\xdca\xdc\xf6\xc9\xaf\xcd\xff\x00\xda\xbf\xf6\xd7{\x9b\xab\xcd\x06\xc7Yi\xa6.JZ\xc2\xff\x00\xbb\x00\x7f\x19#\xd3\xae+\xc7\xff\x00e\x8f\x07x\x8b\xe3\xb7\xc6\xfd:\xc3\xcai\x9a[\x94\x9fR\xba\x05\x88D\x0e\x0f\'\xe9_\xba\xbf\xb2\xef\xc2\xfb\xad3I\x88G\x1b,p@\xb1Fb\x8c`\x80\xbe\xa6\xbd\xafD\xf0o\xd9nV\xf2xn7\xa3`\xa0&lt;\x1c\xf75\xbbg\xa3\xa5\xa5\xb2\xa3\xc1\'\xce\xc4\xe7uI\xa8\xbc\x96\x16\x12\xdf\xc3;\\JbeKM\xc4n8\xe3\xe9\xf5\xae&gt;\x1dCR\xbe\xb5}?Z\xd3\x02L\xd3\x07DyKdg\xa6OCSj\xd7Z\xbe\x94\x06\x90\xa0\xe5\xca\x87RH\xc0&gt;\xac9\xc5s\xb7wa\xfcH\x9a\x9d\xfcR\xb3C\x11fd\x90\xbe\xed\xbc\x8c\xe7\xafJ\xe5/.\xb51\xa8I\x15\xe43,Q&gt;w\x85\x00\xff\x00w&gt;\xfc\x90~\xb5\xcf\xeb\x92Gley`[r[j;\xb6\t\x07\xae\x00\xe8k\x9f\xf1^\xa5\xa7\xfd\x8a{[{\xc2\x18@@\xdc\xde\xa3\xb5y\x97\x8b\xfcS \xb7\x92\xd0\xea*\xef\x1c\x0c|\xd6l\x9d\xb8\xfb\xa0\xfa\xd7\x89\xf8\xd3\xc7$\xe9\xed\n+J\xb1\xc9\xb8\xa3JFq\xdb\x15\xe5~%\xf1=\xce\xa0\xf0m\x9e%\x10\xb1&amp;\x11\x10\xc8\xfa\x9e\xf5\xcd\xf8\xb7\xc7\xb6:\x04Rj\x1a\xfe\xa1\x1e\xf9!*\x10&gt;\x0e1_&lt;|Y\xf8\xc5\xa9x\xb6\xe5\xf4\xe8ov\xdb\xa1&gt;TG%[\xd0\x91^\xfd\xff\x00\x04\xcf\xfd\x99o\xfcy\xe3\xdb_\x18\xf8\x82-\xd6\xc2A\xe5\x16\x8c\x92bR\t\'&gt;\xbd\x05~\xb7x7A:\x0e\x96|\x98\x969|\xa5\x8e\x10\xab\x81\xb4t\'\xd6\xb4,\xe5\x8fk\xaal7\x1d^E\xf9H\x1f\xe1^\xd1\xe0k\x08\xb4\x1d\x06+\x00\x1b~\xd0\xf24\x9c\x92O5\xfc\x8d\x18\xe3\xeb\x9f\xc6\xa3b\xc6\x12\x1b\x8c\x1e\x0f\xad5\xf3\xbc\x01\x8f\xbb\xd0\x8e*B\x8a#\x04\\\x8c\xf7@)\xb98 \x1e\xb4\xc6\x0c\x14\x92x\xc784\xe5\xc9\x8cyd\x0f\xad!G\x1c\x92\xbcS\x19w\\l\xf5Zh\x8cD\xe5O\x1fJW\xfb&lt;\x83j\xe7x\xe8i\xc9\x1b\x05\n\xcd\xd7\xb94\xf0\xb1\xa7\x05\xff\x00\x1a\x8f/\xb8\x88\xf9=\xa8\xf2\xbc\xd6\x19??zr\xc6DeX\xf7\xc74\xd6&gt;Q\x08\xbc\x8c\xd2\xf2\xc3ni\xc0*\x8d\x8c\xa0\xe7\xda\x94mA\x9c\x0c\x0e\xd8\xa8\xe4s$C\xcb8\xf9\xb0*Kr\x11q$e\xcf\xa2\x1cg\xda\xbd\x83\xf6G\xfd\xa4\xbc_\xfb6|L\xb3\xf1G\x87\xb5y"\xd3\xa5\xbaX\xf5h\x08\xc2\xcb\x18\xc0,\xaa&gt;\xee\xc5\xcd~\xbcxg\xf6\xcc\xd5\x13\xc36\xd72i\xd3\xdc\xda]\xda\xac\xf6W\xb6\x831\x94\xdb\xb8\xb1\xf4\'\xa1=k\xcd\xbc[\xff\x00\x05;\xf8ce}q\x05\xfd\xdf\x91vX\xc7wo  \x0cq\x9cz\xfb\xd7\x84\xfcj\xff\x00\x82\x9e\xd8j\x90\xcdk\xe0\xebK\xa9P+*\xba\xcc\xc3\x9cq\xcer\x05|\xad\xf1[\xf6\xa0\xf8\xa5\xf1"\xfa{e\xbakX\xa6\x1bS\xec\x80\x97\xdax#x\xe4g\xd4S~\x01~\xc8\x1f\x1f\xbfi\x0f\x15\xa6\x87\xe0_\x05^\xdd\x19\x984\xd73Z\xb2\xc3\x17=K0\xe7\xde\xbfa\x7f\xe0\x9e\xdf\xf0L=\x1b\xf6~\xf0\xb1}z\x07}V\xe2%k\xbb\xb2\x9f4\xbc|\xc1OU\x0b\xcf\x1d\xeb\xef\xef\x04\xf8N\xcbF\xd2\x92=6\xc7d[\x151"{`\x9f\xado\x9b\x08\xad\xa2/\x14a\x9c\x8e~Zl\xe1\xed/\xa0i,\xd9\xd3# \xb7\x03\xf0\xac\xcdZ\xf2\r:\xeay\xa0\xd3\x8c\xf3&lt;m\xb2(\xfa\x8e+1\xb4-C]X\xfe\xd7\xa4\xc9n\x0b\x86&gt;S\x858\xcf\xf1c\xb5ex\xebX\xfb\x1e\xa3g\xe5\xab\x16k\xa8\xe2\x11\xb3\x1c7\xc9\xeb\xdb\x9e\xf5\xc3k^$\x96\xc6\xd2\xe2\xfc/\x98\xec\x9b\x12S\xf3\x04bq\x8c\x1f\xe7^u\xe2O\x12\xf8\x8a}\xb7\xdez\xc8\xec\xc4\xc8d\x95\x8eps\xd0\xf5\xe4W-\xabx\xa6\xe6\xebV[\xa9\x95\x9a7]\x8c\x8e\xd8\x1b\x8f\x19\xc7\xa5p\xff\x00\x13\xbcTtM)\xa7\x95\x0c\x93\x06!6I\x9e{g\xd6\xbc7\xe2\x1f\xc5\x1bH\xe5\x92\x1b4(-\xd5T\xb4\xaeAi\x07\xccN\x07Z\xf2\xcf\x12x\xaaK\xd8\xcc\xea731\x0e\xce\xd8\x03=\xeb\xcb&gt;"|v\xf0\xe7\x84]\xed\xad\'\x8a\xfe\xfc\xa1\x028\xd8m\x8d\xb1\xc1&gt;\xf9\xaf\x03\xf1\xbf\xc5-c\xc7:\xa3\xdc\xdd]\xa3\xefn#e\xff\x00V;\xe0\xd6\x87\xc1_\x86\xba\xaf\xc5\x1f\x1a\xdb\xe96\xd6\xd3I\x02\xc8\xbflx\x94\xe7\x1b\x87\xca&gt;\xbd+\xf6o\xf6B\xf8-\x0f\xc1\xbf\x87\xf0\xda4)m!T&amp;YT\x12\xeb\x80U\x17\xfb\xb5\xec\xda\x97\x89\xe3\xb0\xd3\xe5\xbf\x8et0$E#d$\xb8b&gt;\xf0\xf5\xc7Z\xe8\xbe\x17\xf8v\xc7Z\xb8\xfbF\xa4\x86S"\x07\x96B8\xc7e#\xde\xbd\x9e8\xed#\xb7\x89n]\xa4a\x18\x01\x94\xf4Q\xd0W\xf2\r\x82x\x02\x95@\x92\x0f/w!\xb9\xf6\xa1b\x93\xc9\xf3\\\x8d\xc1\xb1\x81\xd7\x14\xd6H\xd8\x10\x03d\x8c\x03@&amp;\\y\\\x01\xc1\x07\xad ;\xd8\x90x\xc6(eF\x1bw\x9c\xaf|\xd1\x96\x08v\x8d\xdc\x1e\xb5\x16H!\xd5\x89n\xfc\xf4\xa1N\xe7\x1b\xd8\xf5\xe4\x93N\xdc\x82P\xa1\x063\xf7\x80\xebO\x92@\xa7\n2=qQ\tWn\xe2\x01\xf9\xbb\xd4\xa8T@d\xce\xd2N\x01\x1cSb\x88\x07\x0e\xd2\x9c\xe7\x93\x9a&lt;\xe6G0\x11\x9c\x9c\xa94\xa6\x037V+\xf4\xe2\x9b\x1cr\xc7&amp;\xd2I\x03\xb95#\r\xc3\x81\xcfj\x8eI\xb7)\x8f8lRG$g\x11\xb8\x1c\x1eJ\xd4\x91\x82\x88H\x1b\x818\xe6\xb4#(\xb1\x89\xe4\x04\x11\xc9+\xd4\xd7\xe8\xb7\xfc\x12\xef\xe2|\x9f\x1a&gt;\x1c^| \xd6/\xf7\xeb^\x1b`\xd6\xd9$\xb4\xb6n2\x08=p\xad\x85\xf6\xae\x8f\xf6\x9d\xff\x00\x82{\xea\xdf\x145)\xf5\xff\x00\x05\xe8\xd2\xd8k#\x1b\xd3\xec\x85b\x9f\xdc\x901\x9fz\xf3_\x84\xff\x00\xf0G/\xda\xab\xe2\x9e\xbc,\xb5/\x0f\xdb\xe96\x84\xe0\xea:\x8d\xc8H\x8a\x83\xc9\x18\x19&lt;W\xdf\x1f\xb2\x8f\xfc\x10\x93\xf6r\xf8Sim\xe2\xaf\x89[\xfc]\xa9\xa3\xa6\xf1p\x02\xc0\xa7#;c\xe9"\x8fR3_f\xe8\xbf\t\xbe\x1ax\x16\xda\xdbL\xf8\x7f\xe0;\x1d.\x15\x88$\xf6\xf6v&gt;T`\x0e\x84\xaa\xe0g\xea+V\xd2\xf9m\xf58mL,\xcf)\xc2(\\\x85\x03\xbe=\xab\xd0&lt;=\x15\xf4\xd6\xd7/y)x\x12\x19v\x01\x18\x04\x10x\xc7\xbd;N\x92\xd7\xc9\x8c\t\n\xb9b\x01\x94t=\x89&gt;\x95c\\\x16\xc4I4-\x1c\xcdo\x17\xef\x9d0B\x8cu\xe6\xb8\x0f\x11x\x96\xcbK\xd4\xa1\xbd\xd2\x929\xcc\x91\xb7\x9aL\xe5\x1aP:\x90\x7f\x83\x1e\x9d\rh/\x89-,\xad\x9e[\xbb\xa8\x0c\xc5\x06\xf5\x8a\x16f\x05\x87\xcb\x86\\\x0f\xafj\xf3\xaf\x88&gt;"\xbd}Iug\xb7H-#\x18Q#\xe0\xe7\x18\xdd\xb7\xb7\xd7\xady\xb7\x8a\xbcU\xb9\xe5K\xd9\x87\x98\xd8\x946\xc0\xad\x12/?(\xe9\x8e:\xf5\xae\x1fY\xf1\xc5\x81\x9aE\x92\xfd\xd8\xa3\x02\x8f"\x02\x80\x7f\x8dyo\x8d\xfe(\xc7\x1d\xc4\x8f\x15\xc2\x1d\xef\xf2\xb1~\xde\x83\xfb\xb5\xe3\x9f\x12~-\x19aM6y\xa4\xdb$[\x99\xe5\x03\x0cs\xd00\xe4\xfe5\xe5\x1e%\xf1\x8d\xa5\x9e\x9bu\xe2MoY\x8a\x1bH\\\xb0\x12"\xe0q\xc99\xe4\xf1\xd7\xd6\xben\xf8\xc3\xfbN\xdfx\x96K\x8d\x0f\xc1\xd2\x1b]=\x89\x0c\xea7&lt;\xb8\xee\x1b\xaa\x8fa^M\xf6\xb9n\xa7i\xa6\xcb3\xb6rO$\xd5\xaf\x0cxcU\xf16\xb7\x06\x8f\xa4[\xbc\xb3\xca\xf9\x89V=\xc0\</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x14\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8K\xcf\x8a\xda\xe4n\xb5X\xb11\x0f\x83\xd4v\xae\xcf\xc0&gt;.X\xefcX\' \xab\x1d\x91\x81\xf7\x87q\x9e\xd5\xed\xda\'\x8c[T\xd2\xe3\xb7\xfb\x02\xeea\x87R\xfb0\x07}\xc3\xae?\xadg\xf8\xe1\xe1\xb8\xf9\xad\xac\x926(\x00hSj\xb8\x1d\xf0;\xfb\xf7\xaf\x99&gt;&gt;4\xf1\xde4\x9eS0\x0c\xc3\xcbN\x9ft\xf5\x1f\x85h\xfe\xcb\xba\xa5\x9a\xdc\xcb\x05\xecN\xb0\x85\xccA\xdbj\x99\x08\x18PG*Oc^\xb1\xa5x\xc2M\x1f\xc5\x13\xda_!Rf\xc7\x931\xe5}3\xd8\x91\xd9\xba\x9c\xd5o\x88\x9f\x08\xdf\xc4\xfe%}gC\xd2\xad\xfc\x99\xa2RL\x8c2[\xb95\xe7\x9e"\xd0\xe7\x96\xe4\xcds(\x85T\x1c\xa1L\xe4\xfdk\'J\xbf\x83N\x9f\xccW\xdc\xa8\xdd\x13\xbdz\xdf\xc3\xbf\x16\xf9\xb1\x0buX\xd27L\xecv\x07\xa7\xf2\xafB\xd7n.\xf5\xcd\x1d.-fVx\xed\xf1\xf2e\xb0=\xc9\xe5}\xb1_4|r\xd2.\xad\xe6\x9a\xeah\x1aH\xcf;\x9f\xa0\xeb\x9c\x1e\xa7\xafz\xe6\xbe\x01\xeb\x96zv\xb44\xf5\xba\xd9\xe7HK,\x83\xe5\xdb\xfd\xdf\xc7\xfaW\xa3\xfcS\x9e\xf2\xdfV\x8a\xfa\xce\x0f&amp;2\xaaUw\xee*G}\xde\x87==\xab\xa4\xf0w\xc5[yt(\xce\xb5`\xb2N\xa4\xa9u\x93\x82\x07J\xad\xe2\xeb;}GC\xc4\x89\xe5\x94$\xe6\x1f\x97=:\xf6\xaf+\xb5@\x97\xef\x00?)rx\x00\x7f*\xee&gt;\x1d\x80&amp;\x12\xaa\xa8d \x03\xb4\x12r{\x93\xd6\xbd\xdb\xc2\xda\xc5\xd5\xa7\x87\xa4\x89\x126\xc4\xcf\xb5\xd9&gt;e\x00\x0e\x03\x0c\x109\xe9\x9ct\xaf\x10\xf8\xff\x00\xa7\xdb]\x89\xc4\xcaw0`\xce\xa7\x05\xb1\x823\x8f\xa9\xaf\t\xf0\x9c\x92[km\x14N\xc0\'\xcc\xa7q\xcf\x07\xa7\xd3\xda\xbe\x93\xf1\xbe\x81\xa67\xc3;\r^8\x04r\x9b,\x95@6\x12\xc0d\xed \x8e\xd5\xe2\xbas\xca eK\x89P\t\x08\xc4r\xb2\x8f\xc8\x10+\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfcJ\xf1\xcd\xf7\x89|U\xe3\xb9&lt;&lt;\x81\x9eV\xbc\xf2`\x8c\xaeF\xd2z\xd7\xd7?\xb3\x17\xec\x8d\xe0\r\x16\xce\xdb\xc4\xde*\x81\xafo\xe1PZ\xdev\xdc\x8aO\xfb\'\x8a\xfa\x7fB\xb1\xb2\xb4\xb1E\x1bR\x15\x1bcU\xfe\x11\xe9\xf4\xe9I\xe2khml\x05\xdcm\xb8\xaa\x9c\xbf\xf1m\xf4\xcf\xa5x\xe7\xc4\x0b\xa9o\xac\xeemf\x8c4N\xc1\x94H\xbb\xb6\xfe}+\xc1\xbe#\xb2?\x9bn\xaf\x96Q\xcf\x18\xcdy\x0e\xads4\xd7[^\x0c\xeep\x03c\x9e+\xa7\xf0\xed\xbd\xd4\xfab\xbcp1\x1b\x88\x06\xb5u\xcf\x87\xb7~\x15\xf8\xe7o\xa9\xdf\xe9M\x12\xad\xf8\x0c\xc7\x80Fz\xff\x00\x9fZ\xfa\xef\xe0\x95\xed\xa5\xcc\xd7\x17R\xcc\x88y\x01\x10\x8f\x98\x01\xc15\xe9\xf6H/\xb4\xed\xb2\xf9B \xa4\x8d\xf8\xc9&gt;\xd8\xac\xfdb\xf6$\xb2h\xa4\xb7\x0c\xde^#@N\x00\xef\x9f\xd2\xbcc\xc6\xf7\x97\x11\xcfq\x02\xc4\xff\x00?\n\xc1\xb8\xaf\x11\xf8\x84wK,\x91\xd9\x96f\x05\x18\xf6\xcdyW\x89.\xa3D\x8e8\xad|\xb7\x0f\x82W\xf5\xad\xaf\x0ejz\x89\xd3\x17\xec\xf7\x05\x17q\xf9U\xb1\xfdk\xea/\xdao\xe1\x16\xa9\xab\xdc\x9f\x15\xe9V\xa2EI7&lt;P6Ys\x8cs\xdf\xa1\xae\x0f\xe1\xd7\x8b\xf5\x1f\r\xeb--\xc8\x95U\x80\x8c\xc37c_D|2\xf1\xde\x97\x7fi\x0c\xb7l3\x13\x0f8+\xe11\xf4\xe8zU\x9f\x13\xf8\x86\x06\xd4%\xbcY\xbc\xcbg,6\xc6y\x03\xb0\xfau\xaf8\xd7\xe2\x92i\\y\x9b#bH8\xaf3\xf1\xfe\x83s}\x03Ai\n2\xa1g-\x1a\x00\xc7\xa7z\xf0\xaf\x1b\xe97q\xc8U h\xd4I\x96l`\xd5}\x1cH\xd6_\xb9\xbcu\x1b\x8f\x01\xc8\xaf\xd1-\x07\xc4\xbe\x12\xf1.\x93\x1d\x95\xe9\x13\xb9P|\xa5\x84~\xa4\xf4\xaes\xc4\xdf\xb3o\x86\xb5I\xdbV\xd3\xe1\x11Op\xc5\xccHs\xb4v\xfaw\xa8t\x8f\x85\xd2\xf8n!`9\xca\xb1\x00\xf4\x04z\xd5\xb9\xec&amp;\xb3\xb5h\xbeS"\xc7\xc0^\x86\xb9m^\xfc\xb5\xc0\xb2\xbf\xf2\xd08\n\xa8\x067g\xa9\xcfn\xdf\x9dZ\xd0|/a\xe2{7\x82\x1b\x08\xa2\x9a\x16(2rq\xd8\xfb\x83\xdf\xf0\xaf"\xf8\xfd\xf0+T\xd2\xfe\xd3}g\xa7\xca\x91\x95\x0c\x1d\xcf\xca\xe7\xf8\xb0;\x0e\x9f\x9d|\xfds\x0c\xda|\xedk\x0b\xb4!O(N9\xaf\xb0|\x0b\xae\xdc\xe9\xd7^L\x8f\xbfk\r\xe4\x80~\x9dk\xda\xbc\'\xe2\x03{\x14S=\xd3\xb7#\x08\x1f\x1cw\xe9[\xda\xa6\x95\xbe_8[+\xc6\xcb\xbbk\x1f\x99\xb3\xdb&gt;\xdf\xd6\xb9-oK\x84\xbc\x864\xf2\x98\x03\xe5\xa3\x8cc\xd7\x91\xd7\xf1\xaf\x11\xf8\x97s6\x93\xa8\x1b\x8b\x86\x92F\x0eq\x13\x9c+\x01\xe9]\x7f\xec\xf3\xaeK\xaaL\xd7\xd6\xd0+\x17FY-\x84\x9f&gt;\xdf\xf6\x0f\x7f\xa5zW\x89|\x17\xa5\xf8\xd7K{;\x98\xc3\xca\xd0\x1d\xec\x00\xe1\x07Ee\xe8\x18v#\xaf5\xf0\xf7\xc5\xcf\x85o\xa5x\xf2\xf6\xca\x0b\x1d\xd1\xab\xfe\xec\xb4\xad\x909\xeb\xef^\xc3\xe7\xc5mr7Z\xacX\x98\x87\xc1\xea;Wg\xe0\x1f\x17,w\xb1\xac\x13\x90U\x8e\xc8\xc0\xfb\xc3\xb8\xcfj\xf6\xed\x13\xc6-\xaaiq\xdb\xfd\x81w0\xc3\xa9}\x98\x03\xbe\xe1\xd7\x1f\xd6\xb3\xfcp\xf0\xdc|\xd6\xd6I\x1b\x14\x004)\xb5\\\x0e\xf8\x1d\xfd\xfb\xd7\xcc\x9f\x1f\x1ax\xef\x1aO)\x98\x06a\xe5\xa7O\xbaz\x8f\xc2\xb4\x7fe\xddR\xcdne\x82\xf6\'XB\xe6 \xed\xb5L\x84\x0c(#\x95\'\xb1\xafX\xd2\xbca&amp;\x8f\xe2\x89\xed/\x90\xa93c\xc9\x98\xf2\xbe\x99\xecH\xec\xddNj\xb7\xc4O\x84o\xe2\x7f\x12\xbe\xb3\xa1\xe9V\xfeL\xd1)&amp;F\x19-\xdc\x9a\xf3\xcf\x11hs\xcbrf\xb9\x94B\xaa\x0eP\xa6r~\xb5\x93\xa5_\xc1\xa7O\xe6+\xeeTn\x89\xde\xbdo\xe1\xdf\x8b|\xd8\x85\xba\xaci\x1b\xa6v;\x03\xd3\xf9W\xa1k\xb7\x17z\xe6\x8e\x97\x16\xb3+&lt;v\xf8\xf92\xd8\x1e\xe4\xf2\xbe\xd8\xaf\x9a&gt;9i\x17V\xf3Mu4\r$g\x9d\xcf\xd0u\xce\x0fS\xd7\xbds_\x00\xf5\xcb=;Z\x1az\xddl\xf3\xa4%\x96A\xf2\xed\xfe\xef\xe3\xfd+\xd1\xfe)\xcfyo\xabE}g\x07\x93\x19U*\xbb\xf7\x15#\xbe\xefC\x9e\x9e\xd5\xd2x;\xe2\xad\xbc\xba\x14gZ\xb0Y\'RT\xba\xc9\xc1\x03\xa5V\xf1u\x9d\xbe\xa3\xa1\xe2D\xf2\xca\x12s\x0f\xcb\x9e\x9d{W\x95\xda\xa0K\xf7\x80\x1f\x94\xb9&lt;\x00?\x95w\x1f\x0e\xc0\x13\tUT2\x10\x01\xda\t9=\xc9\xeb^\xed\xe1mb\xea\xd3\xc3\xd2D\x89\x1bbg\xda\xec\x9f2\x80\x07\x01\x86\x08\x1c\xf4\xce:W\x88|\x7f\xd3\xed\xae\xc4\xe2e;\x980gS\x82\xd8\xc1\x19\xc7\xd4\xd7\x84\xf8NI-\xb5\xb6\x8a\'`\x13\xe6S\xb8\xe7\x83\xd3\xe9\xed_I\xf8\xdf@\xd3\x1b\xe1\x9d\x86\xaf\x1c\x029M\x96J\xa0\x1b\t`2v\x90Gj\xf1]9\xe5\x102\xa5\xc4\xa8\x04\x84b9YG\xe4\x08\x15\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x01}\x01}\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc6.\x8c6+\r\xc3\xaf=i\xb3\x06 \x05\xf5\xa1HU!\x86O\xad \xea)r2~\x86\x98\xd1\xa39rq\x85\xe8O_jP\x8a\x88\x1aB0z\x02j9c\x11|\xca\xc0\x97\x1d\x01\xe9V&lt;9\xa6I\xab\xeaqXA:\xab\xcb*\xae\xf6l\x01\x92\x06I\xec=\xeb\xe9\xef\x0f$^\t\xf0\x1cVzl\xdeTP\xa3\xa5\xcc\xb1\x0f\x9eEf\xc3l=\xf8Q\x8cz\x8a\xe3u?\x88r-\xb5\xd6\x97\xe1\xa1\xe5C\x03\x19$%\xb3\xb9\x97\x80W\xd4\xe3\x9a\xe4\xf4\x87:\xee\xabu\xe2?\x18\xeam\xf6\x0b\x08\x9d\xe4\x96F\xdc\xf2\xb9S\xe5\xc41\xdc68\xaeBk\xeb\xef\x12\xea\xedyt\x86$\xdcB\xc6\xab\xf7\x14}\xd2\x07\xf3\xad\xb8\xa2\x8a\xc7\x06$3:\x00Xg\x18\xfa\xfaV\xb9\xf1\xc2\x89\x99.-\x84\xee\xb1\x81\x1cP\xcb\x84_\xa9\x1di\xfa?\x85u\xef\x13C\r\xb4\xda\xd9C,\xbc\xaa\xa3\x107\x1e9\xef\x8a\xf4\x8f\x85?\x05m\x1bV\x92\xcf[\xd7$x\x9a"\x17\xc9\\\r\xd8\xeas^\xab}\xf0\xb7F\x82\xe1F\x86eh\x1c,1\xb3\xc4w,\x98\xe4\x0f\xf0\xae\xe7\xc0?\x06|C\xe2\'\xfe\xc6m\xf2\xc4\xa0\x06b\x98\xdf\x9fO\\W\xbe|%\xfd\x83\xedui\xbe\xd5\xaeM%\xad\xb7\x9av\xb4n\x1bp#\x9e+\xdc\xbc%\xfb\x1a|$\xd3]\x84\xabp\xe6\xde2\x14\x00C1\xc7\xa5uv?\xb1\xe5\xb6\xb5$\xb6\xfe\x1a\xd0m\xf4\xed;\x00H\xf3\xc5\xbaY\x0f\xe3\xc8\x07\xd6\xbb\xed\x07\xf6L\xf8Y\xe1[K{;]6;\x8b\x98\xd9Y\xe4h\xc1\xcbz}+\xbf\xf0\xf7\xec\xb5\xe1\x0b\xeb(\xee\xef\xf4\xfbeU\x04\xacq\xc2\x0b{\x0fj\xec4\x0f\x83~\x15\xd2m\x04\x96\xda\n"\xc4\xc1\x16Y\x10.Gr3\xd6\xba\x1d\x1bH\xb7\xd2\xe5\xf2c\xb0\r\x9c\x80\xa1\x07E;A\xfa`\x93\x9a\xe8e\x92;kO\xb1\xd9\xdb\x04y\x10\x9c\x05\xcex\xaeRe\x81\xed\xe5\x8ex_\xed\x11\x07+\x1a\x8e\xad\x8e\x07\xe2k/\xc4z/\x88\xf5\x0f\x0f\xdf,\xb2\xa8\x9e\x05\x12E\x14S\x0f\x9d@\xce\xd0{\x13\xd2\xb0\xb4(u\x8dSG\x8e\xf7\xc4\x11\x94\xbc\x8a1\x14\x96\xf3\x8c\x92\xbb\xb89\xf6\xaa\x1e0\xf0\xbd\xa8\xb2_\xb0\xa9\xc3\xc6\xce\x85\x0eK\x109\r\x8a\xe2\xf4\xff\x00\x0e\xff\x00hj\xedyu3\x99f\xb9\xc4\xc5\x06U\x10\x0es\xe8qWN\x81\xfd\x97t\xdeK\t 2&gt;\xdd\xe7\x18b\xbc\x13\xed\x9a\xf3\xef\x89\xfe\x14\xb1\xf0\x8e\x9f6\xaf\xe7\xbd\xc2o\xdf*G\x19\xf93\xc9\xc1\xef^\x0b\xfbCh\x9a&gt;\xad\xa2i\xfe\x00\xb7\x92-&gt;\xc3Z\x89\x8e\xa7x\xf8\xc6\xd2\xa5\x80\xc9\xe1A\xd8\xa3&gt;\xe2\xbeI\xf0\xa6\x9f\xa7x\xe3Y\xb7\xd1\xd8\xc8.o.n\x1b\xcb\x93\x8d\xd1\xecm\xaa=\xfe\\\x8a\xcb\xf8\x13\xae\xeb\xde\x0f\x8f\xc6\x1f\r\x96\xd8Mm\xaah\xf7\x02\xd5Cdy\xb1I\x1c\x8a\xd9\xec\x1bk`\xfa6j\x92\xf8\x1e\xcbG\xf8\x8d\xe2\x9bMM\xe0\x8a\xdc\xc6?\xb3\x04\x92\x02\xcc&amp;E%3\xf4`\xc3\xd8\x83\xd2\xbc\xe3J\xf1\x85\x96\x93\xe3S\xe1\xf9#"\xce\t\xae\xe2\xb5\x04r\xbb\xbf\xd5\xe3\xdbw#\xe9Y\xba\xd4\xf7\'P\xd6-\xe3\xb6\r\x06\xa9u%\xdcm\xd7\xcbUO\x94\x0fm\xc4g\xebL\xf0\x06\xb1qm\xabi\xde%3\x046\x1a\x84W2B\xf2\x1c)12H\xa5\x7f\x87\x80k\xb7\xd6\x1b\xc4\x12\xf8\x8f\\K\x9de\x155\x1f\r$\xcb\xe6\xb3.\xe8\xe1l\xa8\x19\x1c\xc8&lt;\xcc\x11\xd4\x049\xe9\\d^!\x9a\xff\x00\xc2v\x1e\x1d\xb3\xb2\x88^\xe9\xa8\xebo&gt;\xcc\xb3d\xe4\xee=\x8fq\x9a\xde\xf0\xe7\x8d\xbc\'\xa5\xf8[\xfe\x13\xb9\x83\xb5\xdd\xae\xbbg=\xe3\xb0\xcb\xa1Hv\xb8\xc7\\1 \xfb\xd3o|\x0bse\xe1\xbd.\xedt\xd8\xcd\x96\xb9h\xb7\xa2\xe6E;\xe11O,\x12\xa6\x0f\xddb\xdbx\xeb\x92=k\xb9\xbf\xf13x+X\xf0\xfd\xc5\x85\xe0\xf3WP\x16\xd7jHW\xf2\xdc+F\xde\xc0\x06a\x9fZ\xe2\xbc}\xa0\xdcZx\xfa\xdb\xc7q\xeaB8\xf5O\x12}\x92\xe0B\xcb\x8d\xd2 \xdc\xa0w\x1b\x8a\xb8&gt;\xb84\x9f\x1f\xb5\xbb\xbd{[\xd3\xae[M\x11&lt;VF)\xc2(\x1f\xbcW!\x87\xd0`~9\xaf\x8d\xdc\xa8!\x963\x93\xe8)\xbefN\xd2y\xf4\xc5\x04\x10v\x91\xcf\xa5\x03\x91\x91J\x01\x07$Tra\xa4\x03#\x96\xa1\xd81\xd8\xdd\x052S\x04\x92\x05\x1b\xb2W\x19\xae\xc3\xe1\x87\x85\xade\xd6m$\xd5\x06\xe8\x9a@\xac\xa8y&lt;\xf2=\xab\xdf\xfckh\x87@]3Lm\xa7\xc9\t\x1cDp\x99\x18\x04\x9fZ\xf1?\x11\xbc1\xdd\xaf\x86\xb4\xbcFFZ\xe6\xe7wF\xf4\xac\x8f\x11\xea\xf6:\xcd\xeai\xba.\xf1ik\x18\xf9z\x19\\uf\x14\x9a~\x94\xb6\xe3~\xa5(W?4{\x0f\xf3\xab\x17:\x9c\xedk5\xb5\xb6\x03I\xcb9_\xe1\x15&amp;\x89\xa3\xae\xc1s+gwS\x9cW\xab\xfc.\xd1\xaduk\x87\x1a\x842\xad\xbc\x08\x03\xf9n2\xa4\xf4\xce:W\xbc\xfc*\xf0\xcf\x87t9Z=+E\x9a\xee\xfa\xed\xd4\xc0\xce\x0b\x04Q\xf7\xab\xe8_\x86?\x035/\x1a\xb2\xc5\x07\x85&lt;\xf6x\xc4\xdf ?+\x9e1\xecE}/\xf0\x93\xf6V\x7f\x0ci\xf1C-\xb9fl2\xc30\x01\x95\xbf\xc2\xbd\xdb\xc0_\x0c%\xb5\xb0M4\xc4\xae\xaa\xa7w\xee\xb0#\xf7\xcdz\x1e\x83\xf0\xff\x00\xc2\xfe\x1b\xb3{\x9b\x8bq&gt;\xe9X\x9c\xa6X\x9d\xbd\x07\xb5\x10X\x8dFP\xf1\xd8\x15\x866\xdb\xfb\xb3\x82\xfe\x9f\\V\xef\x874M=f/4r*\xe7\x91!\x1c\xfbf\xbbo\x0c\xe8ii\'\xda\xacm\xb7\x00wa\x8f\xf2\xad\x18\xa1\x8a&amp;D\xba\xb6V\x0e\xe7+"\xe4\x8f\xa6;\xd4W^\x1f\xbb\x86f\xd44\xab\x94\xdf\x82p\xf8\x18\x15\x97u&amp;\xbe"\x8do\x19\xbc\xd1\x9c\x18\xf1\x8cVu\xbd\xed\xcc\xd3-\xaf\xd8\t\x96v\xc1\xf31\xcdGw\xa3\xa3\xc2\xf6\xf7p\x80\xb3\x13\xb5\xa2\x07*\xfd\xb3\xf8\xd6-\xcaA\x14~E\xb1@\xfd\x1d\xdc\xe0\x02=k\x8a\xf1F\xa9\xe6\x99\xe0L\xab\xb6W\x18\xe1G\x7f\xce\xb2lt\xab{\x13swe2:\\JH\xda\t\xd86\xf3\xf4\xcdW\xd66K\x13\xda+\xbe\xe9X*\x85\x19&gt;\xf8\x1d\xea\xad\xef\x87\xa1\xd4"\xbb\xd1\xf5v\x13\x83\x10f\x05r\x04x\xe7\xf4\xaf\x94\x7fl\xabI\xf4\xdbK\xeb\x0bKeif\xd3\xd5,Dc"5\x11\xb0=:\x11_\x19\xe9z\xe6\x9d\xa0\\\xe8\xb3\xd9YF\x97w6vk{\xbc\x1d\xd0JgrN:\x8f\xdd\xe4\x1f\xadq\xbe$\xd5\xaf|;q\xa8G\xa2\xdd\xc2.\xec\xaed\x84=\xbf(\xf0\xe4\xae\x1b\xd8\x80?:\xab\xa5\xf8\xcf\xc4\xbe0\x9a\xef^\xb6\x8e9$x\xe1w\x8e5!_b\xb2\x95\xc9\xff\x00e\x8f\xe0\x80\xd3&gt; \xf8o\xc1\x11x\xda\xcbX\xf0{\x1b\xeb8\xe4S-\xcc\x9c;\xb3[\xa0te\xfe\x1d\x85d#5\xbf\xe3\xd8t\xcf\t\xea\xf6\xf2X\xe8\x90$7\x9ax\xba\xb3\xbb\x9b\x00\xbd\x9c\x915\xbc\xc8\x14\xf5!\xc0l\x8e\x98\xae\'\xe1\xa7\x82t\xcf\xf8L.a\xbb\xb5\x94\\I\xacY\xad\x97\x96r%\x86d\x90\xb9&gt;\x84nQ\xf5a\xebL\xf8\x93\xe2}SJ\x92?\x06Geor\xb6:\xcb\xbd\xa5\xc2\x9c\xf9\xb0L\xb9\xf2\xd9~\xf1\xc1\x1d\xb8\xadO\x01\xe9z\x07\x82\xf5\xd9\xef\xf5\x9d-\xeeml\xeca\xb8\xb8IF\xe0\x12y\x1dX\x809\x04\t\x10\x0c\xf7\x02\xb0g\xb1\x83\\\xb5\x9bE\xb2\xd3\xe0X\xb5Y\x82\xc0\x11p\x19Y\x11A\xcf\xa8\xc8\xfck\xba\xd4\xfcg\xa7\xc1\xe0m\'\xc0~#\x8d\x01\x85b\xb7\x8fP\xce&lt;\xe4&amp;%\x9aob\xea\xa7#\xf8X\x93\\O\xc5\xdb=n\xf6\xf2h\xa6u\x97\xec\xb3\xa6\x91 \x89H\x1edp\x99\x12Un\xfb\x84}{\xee\x1e\xb5g\xc6\xba\x86\x9d\xfd\x95~4\xcdP^\xc7$6\x1a\x9d\xb9\xf2\x89\xf2\xe5@\x04\x84c\xa3&amp;\xe4\xe3\xbe\xda\xe8n\xfe"xwr\xb7\x8a#\x9aAs\x1a\xdd\xdb&lt;0\x80\x0f\x9a3&amp;3\xd5w\x86\xc1\xaf\x86\xd1$Y7n\x1dx$\xf1P\xb8W\x95\x82\x92\t\x1f1=?\n\x99\x925\xc7\x94NPrZ\x90\x80\xbf!8\x04g4\x06\xb9\x8f\xe5@\n\xff\x00\x16}*9\x1dy\xc2r\x06i\xb8\xdc\x01&lt;\x13\xd34\xc5\xc2&gt;\xd7\x19-\xc2\xe7\xbdz\'\xc1MN\xc5&lt;gcy{\x0byy| \xe7k\x01\xc3\x11\xe9\x9a\xf4\xdf\x88_\x10\x9d\xad\xa6\xd3t\x8d\x8a\xa2#\xe6K\x90^\\\x8f\xe1\x1e\x9e\xf5\xe1\xf7\xda\xbe\xa3\x1c\xd2[\x87Uw\x97qn\xa4\x8c\xf4\xa3\xc3\xf70\xc7\xa8\x96\x94\xfc\xbe[nb\xbc\x13\x8e\x99\xad1\xa7^=\xe0gb\xe1\xcf\xc8\xa3\xf9V\xc5\x97\x82\xaf\xee\x18]5\xb1\x8dB\xe4n\x1d\x7f\xc6\xbb\x1f\x03|/:\x8a\x90\xd9p~c+\x0c(\x15\xee\x9f\x04\xbe\x0b\x0b\xeb\xc8\xb4\xad:)d[\x94\xdcs\x19\xc9\x19\xc7\xcc{{\x1a\xfa\xb7\xe0\x7f\xec\xfdwq\xaf&amp;\x9b\xa4\xe8\xd2\x04\xb7\x97\x1b\xdds\xbc\x11\xce=E}\xd7\xf0\x87\xe1~\x99\xe1\x0b\x04\x82\x1bX\xa0\x0b\x12\xfc\xc8\x83\xcc/\xed^\x95\xe1\xef\x0c\xc5$\xf1J\xf2\x19\x99\tm\xf2\x90H\xc7n+\xab:ki\xd6\x12\xcbnXH\xcc\n\xa8\x03\x9f\xc3\xd2\xa4\xb7\xd2\xe0\x86\xc7\xed\xb7V\xe5$f\xf9\x89o\xbd\xed\x8e\xd5\x1f\x94c\x8e\x08\xec\xe2\n\x9b\xf76F\t\x19\xadk\x0b\x18\xe4\x06\x13m\x82\xcaH\xc9\xae\x83J\x8e\xea\x18H\x8f\x80\x89\xd9\xebR}6\xfaE\x12\xa4\xea\x14JO\'\x9c\x11\xc9\xa0-\xc4\x00F\xf2\xf0\xfcn=&gt;\xb5E\xeen\xad\xe5-&lt;\x8a\xdf\xc3\x1eG\x07\xd2\xb0"\xb8\xbc\x87\xc4\x0fp\xd1\xed\x86F\x06&amp;\xc7(s\xda\x86\x9a/\xb5I\x13HQ\xa4\'l\x99\xce\xe3\xf4\xedX~&amp;\xb5D\x99c\xd9\x84n\xa0u&amp;\xbc\xff\x00X\xd3Vk\xcb\xbb\x8b$dh\xd8\x072\x1e\x05Q\xd4n!\xb4\xd3\x1aw\x00o\x89\x82\xbep7c\xadW\xd3\xb4{\xb8l\x12\xed%\x12\\C\x02\x06,}\x1b,\xdfLw\xaa\x12\xc5xtY\xe67\x18{\x88\xf6\xb31\xc1\xce~\xed|\xa3\xfbIkz\x83\xcd\xabj~vV\xde\xda[4EM\xcc\x922\x10&gt;\x87\x90k\xe1\xcf\x14x;V\xbf\xbd7V\xf2l\x94jm\t\x96E-\xb9\x18\xeeV\xe3\xa0\x03#=\xb3PO\xa1\\\xf8;R\xd4\xfc7\xa8\xe9N\xd1\xeam$+y*\xf9\x81m\xce6\x11\x8eU\xf7\x10y\xed\x83Y\x97\x7f\x0e\xfcW\xe1_\t\xe9SY\xdb;\xfd\xa6K\x81\x0bE\x19\xf9\xc4ga\x07\x1dN\x1b\x91\xefW&lt;\x14&lt;).\x93\xaf\xc35\xc4V\xd6\xef=\xb0\x85\x99w9\x92KK\x80O\xb2\xef\x1bs\xebT~(\xc3\x17\xc4\xcf\x10\xf8F\xc7\xc1w\xe6[\x93\xa1&lt;E\x14\x12\x82\xe8\xae\xf6\x87=\x00\xc18\x1e\xb52&gt;\xa1\xe0\x1dr\xe6\xf3O\xb7o\xb7\xe96z}\xc5\x9b\xb1\r\x19\x94\xb7!\x8f\xb6W\xfe\xf9&gt;\x95\x93\xf1\xd3u\xaf\x89\xfc/\xaf\xe96E\x8d\xc25\xeb?\x95\xf2\x9d\xac\x17\xe9\x80["\xb5|`\xfa\xce\xad\xa3i\xde#hLV\xba\xb5\x90\x03 )h\x9ao-C\x0f\xf6Y7~\x15c\xc3&gt;\x03\xf0\xfe\x91\xa5X\xe9\xd7\xfa\x9f\xd9\xae,"\xba\xb8\x17H\xc1\xbc\xed\x97\nB\xaf\xa9\xda\xcb\xc0\xf4\xaa\x1f\x16&lt;9\xa7k?\x0e|/\xe2)#\xb8\x8b\xceI\xa2y\xd4\xf4.\xcc\xca\x1c\x7f\t\xf9\x19py\xcf\x1dk\x1f\xc1~\x1f\xd7&lt;A\xf1\x1bI\xd7|D#\xbcH\xef\x02\xea\xaa\x92\xfc\xb2\x84\x868\xc7\xcb\xee\x80\r\xdf\xefz\x1a\xd6\xf0\x1f\x87mt\xaf\x8bW^\x15\xd6\xacY\x8c\xf6W\x166q\xaae\xb7\x98\x1dQU{\xe5\x820?CO\xf1g\xc3;\xbf\x18|-\xf0\x17\x8a|9\xa3\xc9u|49t\xeddyl\xc4Ko3\x05l(\xe02\xc9\xf8\xe2\xbe\x1fpU&lt;\xbc\x13\x9e2;SZ%(\xab\xd3\xd4\x9a\x14\x17 \x91\xf7\xbe\xf7\xb6)\x93\x03*\xb4}884\x91\xa1\x8b\x82\xecr\x98\xa1\x19V\xeb\r\x8c\xe3\xee\xfa\xd0D\xd2H\\\xa0\n\xa3 S\x1d#\x8c\x96\x95\x81\xdb\xf7@\xeb\xcdixg\xc4W\xba\x05\xf2^i\x98/\x1a\x90\x8c\xdc\xe0\x9e\xf5\xea\xe9\xa3\xfd\xbf\xc1s\xeb\xb2\xca\xb2\xb11D\xcc[\x04;\x1e@\xf7\x19\xe9\\\x87\x88&lt;-\x05\xa5\xbf\xf6\xfc\xfa\x82\xc7\x1c\xff\x00*[\xae\x0b\xa9\x1e\xddFk#\xc3\xd7+\xa4k1\xdf\xc5m\x18d\x91[\xcb\x93\x91*\x83\x9c\x1fL\xf4\xafU\xf8a\xe0\xd7\xf1\xe7\x89\x97W\xb1\xd3\x90\xc1-\xce\x04$\xfc\xa5\x8e\x06\x07\xb6k\xe9+o\xd9{M\xfe\xcb\x8d\x8e\x99-\xd5\xeb2\x08-!C\xc3\x9e\x83\x8e\xbc\xd7\xa3\xfc6\xfd\x8c\xf5K\x08"\xbf\xd5l\xbc\x8b\x92H\x16\x9b\xc7\xcaz\xe1\x87o\xc6\xbe\x9b\xf8\x13\xfb&gt;\xc1c\xac\xc1i\xa7\xf8X\xfc\xa4A3\xc8\xbe\x9c\xe4{f\xbe\x98\xf8w\xf0{H\xf0%\xc4\x12\xc7e\xfb\xe9~wdL\xa8\x04\xfa\xf6\xafO\xfe\xce6\xed\x1c\x10\xa3\x06\x8c\xab;\x02\x0e\xdez\x1f\x7fj\xdd\xf0\xed\xb0Vi\x9d\xf7\x86\xe3\xee\xe3\x15\xa9|V+e\xba\x8c\x96\xe7\x18\x1c\xd3\xe2\x11\xdcNQY\x99If9\xe828\xfdiZ5\xfb|\x88c;%\n"R1\xb7\xd6\xba\x0b{;xnK\x14P"U*K\xfd\xef\\z\xd6\xd5\xa5\xc5\xacn\xb7\x86=\xb0\xb2\xe3\x07\x8c\x9a\xb7\xf6\xdf\xf4\xc5E^\x00\xc8\\t\x14\xf9e\x82c\x13\xc9&amp;AV\x00"\xe6\xb2u+\x1b\x89\t0\xcf\xb9\\\x10\xaaEc\x9f.\xdaSp\xcf"\x95\xe1\xa3h\xcf?Ja\xb1\xb4\xb9\xb5uTa*6\xe4lu\x15\x97\xa8G"N\x0c\xca\xa5Td\xe7\xa9\x15\xcbk\xda:\xc7r\xd2\x07_1\x94\xf4?+\xe7\xa7\xe5\\&gt;\xb5g-\xd4Kkm#:N\xc7(S\xee\x11\xdb\xdb5V]c\xfb*\x14\xb9\xb8\x98\x00\xcb\xe5\xba\x83\xd0t\xe6\xb1&lt;I\xac\xdb\xdc\x81\x1c\x17\xad\x1cc\xe7W\xc6\x17p\xe7\x19\xaf\x9d\xfe,xb}cW\xd5\x1d\x184z\x8c;&lt;\xb6O\x969\xd5S\x0e\xde\x80\xe3\x19\xf6\xaf\x98\xbe"\xfc2\xd6&lt;;oq\xae\xd8\xc8\xadiq#\x99\xe1B\x01F\'\xcbe\xc1\xe7\xe5\'$v\xaf&gt;\xf8w\xa4\x8f\x10\xf8\xd6d\xd5!\x9eG\x8a+\xcbx\xd1\xdf\x935\xbcO&amp;F{\xed\x8c\x1a\xbf\xe0\x8f\x10\xea\xfa\xff\x00\xc0\x1d6MV_\xb4\xc7\xe1\xcf\x1cj0E$\xf8\xf3646\xf3\x90q\xd7\x00\xb1\xfc\r\x1ag\xc3\r7]\xf8\xad\xe2\x1f\x08\xe8\x88/l\xfcQje\xd3e\x0b\xb4,\xb0J_\x1c}\xdd\x81\xc8"\xbc\x97\xc0\xfe-\x87\xe1\x8f\xc4o\xec\xdd~X\xd9\xec-P\xd9\x97 \x08\xe7Uu,\t\xeb\xca\x91\xf5\x04V\xb7\x8d|A\xa8[Y\xdb\xdb\xda\xb4I$Z\xb1I\xa2\x94\x8c]2FdL\xb1\xfe\x1d\xd8\x04{\xd7O\xf1SP\x98\xf8#\xc0\xde&amp;\xd54\x88a\xb8\xd3X\x86\x84&amp;VHf\x05\xca7\xb8\x04q\xfe\xcdbx\xfbH\xb1\xbc\xf8w\xa3X\xd9\xcb:\xc7*\xdf*\xc6\xd0\xb0?\xbb\x02P\x17\xdb/L\xbf\xd5nu\xbf\x84\xbaU\x84v\xf6\xe7T\xd2\xec\xee\x83J\x87\xfdbL\x8a\xca\xc0\xf79^=\xc5p\x16\x9e7\xd7m|\x13ei\xa8Z\xc9qcr\x16K\xb4 \x93\x11v\x12# \xf4\xc8\x90g\xd5\xb1^\xa9\xa2h\xcd{\xf0\xf6\xf3\xc5\xbe\x1d\xdb\n\xc3\xa8\xd9\xcd\xe7?\x01#\x9e\x02\x9c\x9e\xd8h\xff\x00\xf1\xf1\xeb\\\xb7\x8c\x93^O\x8bv&gt;87;\x12\xdf_\xb3\x8bSXO\xcd\x13F\x01r\x00\xe8\n\x82\ru\xbaW\xc4\xc3\xe1\xedgS\xd0\x05\xd0\xb4\x9a\xdepd\x91\x97\t2\x9c\x85*\x0fO\xbas\x8fZ\xfc\xfc\xf3I\xe3\x9ex\xa2^Pb\x85`\xa3\'\xb0\xe9Q\xfd\xe2d&lt;`g\x07\xbd)\x9d\x18\x05\x03\x198\xcf\xa50*\xc8\xfeoB\xa7\x19=\xc5:I\xf6\xb0\x03\x91\x9e\xd5\x1b\xcb\x04\xa0\x90G\xd7\xde\xae\xf8zhmn\x92\xeeuYc\x8e@\xcf\x13p\x1c\x03\x9d\xb9\xf7\xe9^\x8d\x0f\xc5\x9b]SL\x93H\xb4\xb3\x8a\xc6\xdeK\xd6\xba\x11+\x02y]\xa1~\xb9\xe6\xb2|q\xa7j\xf0\xe9\xdaw\x89^\xcd\xd6\xdfXY\r\xac\xa2P\xc8\xc26\xda\xf8\xed\x90x&gt;\x87\x8a\xc0\xd2\x10\xddM\x92\x01rv\xa85\xfaU\xff\x00\x04\xe1\xfd\x95m&amp;\xf0\x1ax\xa7^\xd0V+\x87u\xf2\xf7\x8c\xe4\x1e\xe0W\xdbzo\xc0}\x1a\x1dR=G\xc3\xbaDQ\x8b\x93\x86r\x9b\xb6\x909&gt;\xd5\xd2\xe9\x7f\x0bc\x1ev\xbbu\x04O$%cPx\xdd+\x9d\xa0\xe3\xbe:\x9a\xf4\xdf\x01\xf8wL\x8f\xc434\x0b\xe5\xa5\xb0\x0b\x0e\x13\x05\xf7.\x19\xbf\x0fZ\xefmZ\xcbO\xb7\x8c\x17\xf3\x1d]\x97c/%W\xe6\x1f\x815gL\xd4c\xd4\x19fd9\x04\x97+\xd1\x88\xe9\xf9V\xbd\x95\xb4\xb1\xb9\xf2e\x18\x90q\x83\xd0\xd6\xbe\x9d\xa7D\xb6\xf0\x19\xee7g$\x159\x04\x8e\xd4\xad\xaa[Cx`\x11\xb6LH\x10*u!\xaa\xed\xb4PO \xba\x95\x82\xabp\x18\xf65\xb1\x14\x114 y\xa5\x9c\x10\x02\xed\xad\x15\x9d-\xad\xe3\xb5\x91\x15\xd5P\xee\xc7;\x0f\xbf\xa5"j\x16&amp;\x01+\xe5\xe5f\xc7\xc8x\x1e\x80\xfaf\xaa\xb6\xa8\xf6b\'X\xdb\xca\x8eL\xb2\xaa\xe7p\xcf"\x9f\x1c\xef~\xa9oh\x9bN\xe2\xccKr\xa2\xa91\x9bt\x90Mo\xf2\x96\xdb\xbd\xc63\xf4\xa8\xae|\xbbGUKbT\x0eH5\x89\xae\xc3c\x93q$Nw\x0e\x145q\xfa\xcd\xc8\xb6\xb6k\xf8\x98\x82\t\xf2\xd4\x1d\xd8\xc7z\xe2\xe4\x9eE\xbfwI\x9d\xc8!\xf2W\x00\x02z\x8a\xce\xd4\xac\xe4\xb9\xdbi\x14\xa1\xf7\xaa\x9d\xa4um\xdd&gt;\xb5\x85\xaa[\x89\x85\xc6\x9f$\x1b\xb6\x01\xe5\x85\x1ds\xc5y\xff\x00\x8c,\xad"I%x\xd0H\xe72\x03\xca:\x0e\xa3&gt;\xb8\xaf\x19\xf1\x07\x83--\xf5\x98\xb4\xeb\x8b\xe4Kf\xbf\x0e\xfb0UU\xd7.\xc4\x1e\xd9\xc3\x1fa^3\x16\x93\x06\x9d\xe3\xeb\xbdv\xd3BKR\xfe#\x8eY\x1e&gt;~\xc8\xb3\xef\x85\xc6?\xdbV\xe7\xd35\xe5Z\xb4v\xff\x00\x0f\xfc)s\xf0\xff\x00J\x91\x9eA\xab\xb5\xd3\xaa\xb6\xe1\x1b\xca\x16\x16\xfa\xeeA\x8fl\xd5o\x0b|S\xd4\xb4\xcb\xab\x7f\x1b\xdb0[\xbd\x1f]\xbb\x8c,G\x83\x10P\xaf\x9c\x7fy\xbf:\xc6\xd7\xbe\x1a\xe9?\x11\xfc\x1d\xa8\xf8\x8a&amp;\x8f\xfb^\xceX.&amp;h\x98\x1c\xc12\xcd\x91\xc7p\xea\xdfB\xd8\xac\xed#G\xbc\xd7\xa0\xb7mN%7\x10j\x9eB\xa8l\x9d\xdeC1r&gt;\xab\x8f\xa8\xc5l\xd8\xe8\x1f\xf0\x9bx\x8fP\xf04:\xec\xe9h \xfbF\x94\xf7N\n\x89#\x88\x80\xad\x9f\xba\xacz\x1fJu\x8f\x8e\xb4}v\xcf\xc2:=\xa4qZC\xa5Z\\\xdb\xcf.\xdd\xed*\xbc\xf2\x82O\xa3|\xc4\x7f\xba\x82\xb8}\x1a\xe3\xc4\xba^\x9b\xaax2;\x03;\xea6\xff\x00\xe8O\x0be\x95\xed\xa5%Y\x08\xf5\xc1\xe3\xd8\xfaV\xa6\xa7\xe0\x1b\x1d3\xc2Z\'\x88t\xdf:\xe2\xcf]\xd2\xe4\x84\xa4\xdf7\x96B$\xb1\xb8\xc7nX\x03\xdc\xd7\xad|\x08\xb6\xd3\xbcW\xa4\xeb\xff\x00\x0b\xae,V\xdeo\x12\xfc&lt;\xb8\xbb\xd3\xbc\xde\x12;\xfb\x16\x8e\xe5\x80\x1d\xc1\xb7\x0e@\x1d@&amp;\xb8\xc8&lt;\x11c5\x9d\xd8\xbd\xd5\xa1\xfe\xd3\xb4&gt;U\xc4Q\xbe\x03\xc6\x07\xc9!\x07\x9d\xc4\xae\xdc\xf7\x11\xff\x00\xb5^\x7f\xe2_\x00x\x83U\xd6\xae\xac4\xcf\x13\xda\x8b\x9d6\xe9\xed\xee.d|-\xc4\\&lt;,\xa7\xf8\xb0\xaeA\xc7pE|\x88\x88\xa1z\x8f\xbfI\xd1\x08&lt;|\xd4\xd7#$\xe6\x90\x82T\x95\x19\xe2\x90\x87e\x0b\x85\x19\xa8\x9c4m\xc3g\x07\x90)c\xdd\xb5\xa5n\x81I\x02\x9b\x0cq\xee9a\x8cn\xa9&gt;\xd0\xc2\x0c$\xbc\x16\xe9\xb6\xa6\xd1\xec\xa5\xbc\x95b\x88\xb6\xe3 \xe0\xf1\xde\xbdsS\xd6|\x1b{\xf0WG\xf0\xd2\xd8M\xfd\xb7a&lt;\xaanI%&amp;Y.\x19\xdb\x03\xf8J\x8c\x1cw\xac?\x84\xde\x08\xbe\xf1g\x8d4\xfd\x1e\xd2\x03!\xb8\xbdH\xc1\nr70\x19\xc7\xd3\x9a\xfd\xc0\xfd\x98&gt;\x1e\xc7\xe1O\x05\xe9\x9aDr\x82\x05\xaay\x88\x83\x0c~A\xcd}\x15o\xa1\xa2\xda\xe9\xf7\x89d#\n\x02\xca\x92r\xdb{\x9e;\xe2\x93K\xf0\xe23\x8by\xa4\xe6K\xa5\x94)&lt;`6p}\xeb\xa7\x1aD\xcb\xa9\xc5%\xad\xb8\x8bb\x82\x19O\xde#\xb1\xae\x83JV\x10\xefX\xd2U8,z\xb7?\xd2\xaci\x9au\xad\x83\xcb%\xb1\'q\xe8G\x195\xb7\xa2\xc8d\x9ax\x9c."\x00\xaf=~\x95\xad\x05\xd46\x1b"\x93\x0b\xe5\x12F\xfe9\xeb\x8a\xce\x8e\xf9\xdai\xe1\xbb\x8c\xf9\x85\xbftBtS\xdf\xe9\xefV\x84wwWH\x80\xa2\x10\xb8\xdb\xbf\xb7\xf7\xabwL\x8ai\xe3\xc1\x90\x91\xb4\xeeu&gt;\x95~A\x1d\xacR$\xd1\x9c\xe5O\x07${\x91Ki#\xe7\xce\x8d?r\xe3\xe6\x05:\x11V\xa4\x0e\x89\xb2\xca\x10\xea\xbc\x86\x1e\xa7\xde\xa1[\xb8%\x86k\x98cT\xc3\x00D\x9f|\xb7\xb5T\xb9\x9fQ\xd9\x19\x8e7x\xcb\x86\xdcH#\x03\xadU\xbc\xb8\x96]\xcc0\xa1F[\xda\xb9\xaf\x10]&lt;\x97\x13E\x8d\xde^618\xcf\xf8\xd7\x19\xe2\x19\xe6\xd3\xad%7\x04\x14W\xc3c\xb05\xcbKu\x06\xa0\x8bp\xb7\x18\xc4AP/\xf1\x1c\xf45\x8a\xda\x97\x97u\x13Ch^B\xc4\xb6O\x1c{\xd5\rjv\xb8W\x9e\xc12\xca\xc6&amp;\x848V\x00\x0c\xe5I\xeb\xcfOz\xe0\xbco~\x17K[m*(\xe7@\x1cK\x160U\xb1\xcf\x95\xdf\xfd\xe0z\xf6\xaf\x9e&gt;1\xf8\xea\xc3F\xd2\xbf\xb3\xe3\xd6^\x18#\x95\x92\x1b\x82\x9f\xbd\x82C\x11\x19a\xd4\xed\'8\xf6\xaf\x9e~-\xfcD\xbf\xf8{\xe2\xa3\xa9^\xea\x11K\x7fua\x0b\xe9\xb3X\xe4Ax\xa7\x90\xca\x0fC\xeb\x9f|W\x9c\xf8g\xc6\xd0\xddx\xae\xe2\xfbY"\xe9/\xbc\xb7\xc1n&lt;\xd0\xe3\xe5\xcf\xd7\x8a\x97\xc4\xfe\x1e:_\x8a\xfco\xe1\xed\x10\x89m-\xe7Qh\xa8\xd9\x1fgy\x15\xbc\xc5#\xef09\xce;\n\xec\xbfe\xe5\xb5\xf0\x96\x9f\xe2M7\xc4",j\x96\xd1[X\xcb$\x81\xb7\xbe\xe7*\xbc\xf7\xcc\x95\x9f\xf1?\xc2\x16\xbe\x1cXu\x8d7\\-5\xed\xda\x1f/\x1b\x12&amp;U\xcb6}\x0e\xe23\xea1M\x8f\xc5\x1a\x16\x8d\xabG\xaa\xe9\xfag\x945\x0b?&amp;\xd8\xc9\xc3\x07w\x89\xe5&lt;\xf6V\x8d\xd4{1\xae?\xe2,\xdaF\x85a\xac\xd8i\xd0y(\xabo%\xab\x81\x86F29o\xd0\xe7\xf1\xaey\xf5\xbb][\xc2zv\xb5\xe1\x8b\xd6K\xebv\x9fv\x1b,\xa09f\xc8\xed\xc4\x99\xfcG\xadu\x9f\x0e\xbe*\xe8&gt; \xf8\x1b?\xc3\xfb\x89\x19\x1bM\xbf\xb2\x9a\xc2&amp;L:G#I\xe7\x00\xc7\xd1\xa5\x88\x01\xe8\xb5\xabc\xe2\xab\x9b\x8f\x1b\r\x17\xc27_g\xd4\x92\xc4\xdb\xe9R\x93\x92\x0b\xdbI\x0c\x80\x11\xfd\xe0\xce\xbe\xf8\x15\x89\xf0\xbbX\x9bI\xf8\x91&amp;\xad\xe2x\xe1\xb9\x17\x96\xf6\xb6\xf7\x06\xe1\x88P\xe4\xed\xdc\x0fN\xa1\x8e\x7f\xda\xae=\xfe \'\x84\xb5mC\xc2\xc3M\xba\xbb\x16W\xb2,N\xd0\xb7\x99\xe5\x16%7\xf1\x9c\x91\x9cg\xb6+\xe5\x14;\x86\xd5&lt;\xef\xa0\x8f."\xae9\xcdFH#\x929\xa7\x02c\x1b=E\x18`y\x04~\x14\xc9\\\xb0\xda\xb0\x90{\x9d\xb4&amp;\x16&amp;\xdc?\x84\xf1H\n\xb4\x81\x95\x08\x00s\xc58\xf9b\x1c\xaa\xf2\x1b"\x9di|-\xee\xb7\xa5\xc3g\x1f\xc2\xb5\xd5h\x1a\xe42A*\xdc\x02g\xf3Y\xe3\r\xd1P.M{\xbf\xec\x19\xa2\xcd\xe2/\x8ez\x1d\xb4V\xa8\xca\x8cn\x180\xe9\xb13\xcf\xe9\xf9\xd7\xed\x9f\xc0\x1f\x0e\xd8\xda\xe9\x96\xe1\x99$\xf3c@\\\x91\xf2\x9fA^\xb3y\xa6]\x19\xed\xda\x16F\x8e\xd62\xae\xa0\xfd\xfc\xd5\xfb\r&amp;(oe{\xb8\xc4j\xbbB\xe0ds\xefR\xea\xa2M&gt;a$rb=\x99\xc9=\x07\xadM\xa1\xea\xf1\xc9\n\xb4\xb22\xc8\x90 8_\x97\x859\x07\xd0\xd6\xba\xbb\xcdu\x14\x96\xe3\t\x80B\xff\x00x\xd6\x8d\xacwMv\xae\xa9\xb5O\xdf\xe3\xa8\xefV\xed\xf4\xc772=\xc3\xee\xdb\x11\x00\x96\xc8\xdc9-\xf4#\x8a\xb9b\x9a}\xcc\xb2K\x1c\xb1\xc8\xa8T0\x08I\xcf\xa7\xd2\xad\xb5\xb4Vq\xfd\xadB\x17\'\x82\x14\xf0*\xee\x8b&amp;\x0f\x96\xf3\x05\x05\x83`\x1a\xb7s\xa9\x00\xe2\x0f//!\xc9n\xd8\x15Z=U\xa0\x7f*v\n\x19\xb0\xb9\xe9V_Q\xbb\x8e\xdblsF\x03\x1e\xa1\rR\xb7\xbbx\xa62\xc8\xff\x00)lc\xd3\xde\x9fy\xacKj\x82\x15\xba\x03\xcaF!q\xc9\x18\xf4\xefY:\x9d\xf5\xf5\xd1\x92X$c\x929\xd9\x8f\xd2\xb1\xef\xc5\xf4\xab&lt;\xf0\x88\xd8\x05\xcb\xb4\x87n@\x1c\xe3\xd4\xd7/\xaeYI\x1d\xb2\xdc\xcf\x1eF\xed\xa5I\xfb\xcc~\xef\xd7\x9a\xe3\xb5\xcd=l%\xdfo\x12 \xea\x19$\xc8\x7fQ\x8e\xd5\x91)\xb9\xb6\x89l\xa3\x8b\x12\xe0\xbb\x803\x85&gt;\xbe\x95\x99v\x96\xb7\xf6R\\,\xe63\x1a\x97wS\xc6=k\x9d\xbdK\x0b\x99\xe5\xd2\xf5\x1b\x0c0\x98\xb9\x96&amp;\xc3r8)\xeb_\x1d~\xda&gt;\x1b\xbd\xf0\x85\xd4\xde \xb4\xbb\xb6y\xa43B\xd2y\x81K\xc6\x88X\x96\x07\x83\x91\xf2\xee\x1d\xeb\xe2\xef\x11\xfc_\xbd\xf1.\x99i\xa6]\xc3\xe6A\r\xac\x06\xde274N\x8a\xd9!\xbd\x8fj\xe1&lt;-\xe3\xdb\x9d\x1fXc}\n\xc9\xb6i\x1e1!\xe1\x0e\xf0A#\xae?\x9dz\xb7\xc1\xaf\x15Xx\xf7\xc4\xba\xaa^jB+\x85\xd2\xa6\xb8\xd3\xcb|\xcbs$hXE\x81\xc8$\x80\x00&gt;\xb5\x95\xae|Ny&lt;\x19\x06\xa7\xa4\xc3$W\xf6\x1a\xaa\xdc\xdc)m\xa3ia\x81\x8fa\xf3{\x0ekw\xe2?\xc4\x9dB\x0b\x8bH.\x18\x7fg\xdc\x94\xba\xb7\'\x93\xb4\x81\x95\x1e\xd9\xaeh\xf8\xcd\xe7\xbf\x86\xe0\xcc\xf2Ce+I\x0cO\xc6\xec\xca\xc4u\xe8\xa7\x8e}\rz\'\x8d\xa0\xf0\xe7\xc4?\x86I\xa9xd\xc8\xd2\xb6\x95#Mn0\xd2f\xde@d8\x1c\x9f\x93${W\x8bx3\xc40\xe9:d\x1ah\xd2\x9a\xe1\xed\xbcE\xb6y\x11\xf0\x1e\xdeHV,g\xa6K(#\xe9]\x1e\xa3y\x07\x82\xb5Y%\xb5\x95\x92\xdf\xfbNY$\xb7t\r\xb7z\xece\xc8\xec\x81A\x1e\xf8\xac\x03\xaf5\xbf\xc4\x0b\xddcI\xd7e\x0f\x0f\xfaF\x9b&amp;pwy\xa8\xea\x07\xae\t+\xf5\xe2\xbd\x9fJ\xf0G\xfc$\xba\\\xfa\xef\x87$\xf3\xf4\xeb\x9b&amp;\x92B\xd2\x8f29&lt;\xb4d\x00v\xc1G\x1f\xf0*\xe6&gt;"\xf8\x17\xc2\xff\x00\x13\xd2\xcbR\xfe\xd1\x97O\x92\x16\x9b\xceke\xc1\x95\x9d\x95\x88b:\xed\xe8=\xab\xe3\x05E\x8d\x0c\x8aA8\xedM\x0c\xd2\x8c\xe2\x96Y7\xc7\xe5y@\x10:\xfa\xd3f\x04\xba\x90:\n|\x84;\x82\x878\x1c\xe2\x9aYpF\xe1\xf9\xd3\x1f\xe4\x19q\x8f@{\xd4j\xee\\\x14\x18\xe7\xa1\xa9\x9c;\x15.\x83\x83\xfc=)\x1bdA\x9bj\x80F\t\xf4\xab\xfe\x16\x961\xae\xc5\x1c\xacH\x9aF\x8f\x9e\xc1\x863\xf4\xe6\xbe\xb8\xff\x00\x82e\xdaG\'\xc6+\x1b\xd9."\x12\xc0\x93\xda\xbc;\xc6\xf2\x15\x10\xef\xc7\\\x1c\x10\x0fs_\xb2_\x06b\x8e\x0b+l3\x04\xda\x18\x8fJ\xf6b\xcd\x040\xcd\x08\x00\x8c\x13\xbcu\xa85\x8b\xbb\xdd&amp;\xf2\xce\x01\x17\x9f\x1c\xf9\xf3\xcb\xf0w\x1e\x80Uy\xe6\xd4\xaf-\xd9g\x90?\xcf\x88\xd3\x1fs\xfckV\xcbOt\xbf7v\xd2\x12\x85\xfete\xe0\xf1]"\xcb\x02G\xe4:)eu\xd8\xe9\xc8\xc6zU\xf8\x10\\\xc4\x86\xdd\x98\x14F,@\xe9\xc5i\xa5\x8c\xd1\\\xa2&lt;\xe4\xa3\xc3\xf3\xfc\xbcc\x14\x8a-4\xe0\xd3\xc6\x9b\x03\xe4:\x9e\x08\xc7zk\xdf&lt;\xb6\xdb\x88\xc2\x86\xf9s\xfcG\xb0\xa6\xd8^\xdd\tv\x89\x1409\xeb\xc8\x1e\x98\xab\xfa\x84\xcb4\x88\xcd\xf3\t\x13\x19\xce)\x04q"\xa2)\'\'\xa1\xe7"\x9c\x93\xc0w\xac\xf17\xca\x0e\xcd\xa7\x8c\xf6\xa8\x01\x82 \xd6\xef&amp;Y\x81*I\xe3\xe9U&lt;\x97Ud\t\xbd[\x9d\xe5\xb9\xfa\n\x8a\xe6\xe5DrK\x02\x82\x14\x02J\xbezu\xac\x88uC\xf6\xa8\xe0h\xddA$\x82\xcaq\x9e\xd5CS\x96\xde\x19\xee\x15\xa3\xe6O\xba\xfdF\x7f\xa5q\x9a\xcd\xbajO"\xaa\xfc\xa4\xe5W8\xc0\x1d~\x99\xaeST\xb8\xbe\xb1\x8f\xccx^i\x0f\x96&lt;\xbd\xa4mP\xde\xbfJ\xab(\xb7\xb8\xdd;\xba\x1d\xa0\xc6dq\x80\x14\x0c\xe0\xafq\x9e3^y\xe3\xed\x1b\\\x8a\xc2O(\xba\xc3#\x97Q\xbfpR:2\xe3\x95\xf6\x06\xbeq\xfd\xa1&gt;\x10k_\x13\xbc/k\xaa^\x0b\x8b\x98!\x91\xd1\xe4L\x83\x1e:\xb7\xbe\x078\xf6\xae\x1b\xc1\x9f\xb1\xb7\xc1\x99\xbc2\xbaf\x89\xaa3\xea\x11\xc0\xdfh[\xc6U\xc4\x87\'i\xcfJ\xf0O\x8b\xbf\xb1w\x88\xad\xf5k\xbb\xbf\nA\x0c\xf1[;\x1b\x88\xd7\xefD\x14d\xb0\x03\xa8\x03\x9a\xf2o\x0cxpi\x1e$\x9a\xc2{\xf9\xac\xb58\x1f6\xae\x9f*\x15\x07\x91\x9a\xd2\xf1\x9c1Z\xeb\xda\x8f\x87\xe2\x84\xdb\xbc\xb7\tsj\xce\x98\x01_\x95\x07=\x87C\xfe\xe9\x1d\xab*\xce\xfbQ\xba\xd2\xd7\xc07\x8e\xcfwgy"\xday\xab\xd5q\x90I\xec3\xd0w\xaak\xabj6\xf7v\xa9\xa9\xe9\xc5\x88U%\x02\x90%UnF}+\xd1&gt;\x1bx\xb7N\xd1\xbcs6\x9c\x96\x8e\xd6\xa8f\x89\xad\x8c\x9bB\xc7p\xbf\xc2O\\\xab\x0cz\xed&gt;\x95\x85\x7f\xe1h&lt;!\xf1\x01\xe0\xd4/\x04\xd6K\x04R\xc2\xf3\x11\xf7\x1f \x86\xc7\xa18\x07\xd6\xb5\xfcOa\xa6x\x97\xc2\xb7V\x16\xebj\x9a\x8d\xb2\x16\xc2\xbeL\xc4\x8d\x8c\x07\xa9\xc9\x07\xf0\xaf;\xd3\xbc\x12\xe3U\x8a\x1b\xab\xe9!\x86I\x14;\xec,FF\xd2\xa0\x0eO\xcd\xf3\xe0v\x19\xaf^\xf8/\xabj_\x0e\xbcY\xa5x~\xf7T\x8a\xea\xd3y\xb5\x90\xc4\xd8\x8etx\xc8Rs\xeeq\xf5\xa3\xe2-\xae\x9f\xa6\xf8\x9ekxg\x8e\xfe\xc6Rn,^\t\xc0\xf2\xc4\x84\xb1\x8d\x80=W!~\xaaGj\xf8\x98\xe58\x03 \xfaP\xb3\x00&lt;\xb5\x8c\xf3\xc7J$\x04\xc8\x08\x1d\xa9\x0epp\xd88\xeb\xe9M\x1bX\x80FH#,N)$\x8dI\'&lt;{Sgi\x1b\x08P\xed\x0b\xc9a\x8a\x8e;x\xd9\x81\x8e&amp;8=\x8dXD\xed\xe5\xe3\xdc\xb7JG\n\xa8"q\x90\xcf\x82}\xaa9%h\xa7\xf3!r\xb8\x18\x05z\xfdk\xea\xbf\xf8%m\xe3\xcd\xfbQ\xe9\xd6\x93\xdcen\xb4\xeb\x85\x00\x9e3\xb0\xf3\xf5\xef_\xb6\x7f\x08_n\x83i\x1c\x9f1u*\n\xf2x\xf5\xaf[\xd3\x92\xee\xea\xda%\xb9W&gt;`\xda\x06\xd3\x91\xe9W\xb5\xf8\x88\xb9\x81\x17\x90\x92\x12\x8c}\x85g\xab[L\xe6\x19\xa7`\x15\xb76\x06\x01\xf6\xcdj\xda\xdc-\xb4H\x86]\xaad\x01@\xe7\xa9\xe35\xae\xb2+@\xa1\x08\xf33\xb8\x0e\xed\x8f\xe7Z\xdaQ\xbb\x11\xabD\x17\xf7\x87\x07\x9a\xbc\x92\xcc\xb1\x89f\xbatf\x8d\x83\xc6W\x8cc\xa6i.\xe3\x89\xe6\xdec?}\xba\xb7\x1fv\x9d\xe5\xc7$_f\xce\x0c\xaaI\x0cp\x14\xf6\xa8\xe2\x81\x84\xc9d\x97\r#\x96\x00\r\x98\xdb\xef\x9a\xd4\x11\x99bfd \xf4\x8c\x11\xf7q\xd6\x92\xdf\xed\x1eBL\xdbw&amp;x&amp;\x96;[\x9b\xa4\xf3\x1c\x01\xf3p\x01\xebM\x96\xc2\xda\x04w\x9aB\x8e\x14\x95Q\xceMg^^\xb5\x93(\x03\x84 \x8e:\x8f\xebTn\xae\x02*\x98\xa0\x89\xc1\xcf\x99\xc1\x18\'\xb1\xf4\xa8.\xa7\xba\x95\xc4B\x08\xe3\\`\x8f\xfe\xbfj\xcb\xd6-g\x92\xf5\x0bglc"\'Lc\x1d\xfd\xeb\x07Y\xd3m\xe2\x7f\xb6\xc2\x88\xa4\x9f\x9d\x9dJ\x8f\xc35\xc7j\xd3\xdc\xad\xea\xb4\xcaZ9\x15\x81m\x9c\x0fNj\x9c\x9aJL\x8f\x0cda\x90\x9e\xbe\xd5_Q\xf0\xf2\xcd\xa5\xcd\xa6\\\xdd\xc6&gt;]\xca\xe4dt\xe9\x9a\xe7\x13\xe1\xcd\x9e\x99\x05\xdd\x8b\x15h\'\x99\xb1\x13/\xdc\x0c\xb8\'\x9e\x99\xed^m\xf1\x07\xe0\x1e\x93u\x17\xfc$\xba4/\x14\xb2\xfc\xce\x81H%\x8f\x1d\xbb\xd7\x9b\xf8\xb3\xf6x\xf1"Z\xcb\xab\xdb$\xf1\x1b\xa4\xdd\xe6*\x96\xf9\x9b\xe5&lt;w v\xaf\x98\xbe4|\x04\x8c,7^)\xf0\xee\xcdN\xd2\xf0&lt;\x17\xf6\x8aTM\x18`p@\xeezb\xbc\x9b\xe2\xf7\x87\xdf]\xf1\x1c\xa7\xc9\x11\x97\xb0\x868&amp;\x03\xe5\x90\x12\x06\x01\xeer\xe4`w\x15_\xc3_\r\xae\xf5-&amp;\xd7^\xd0\xa1u\xbe\xb2\xb9h\xf5X\x1cmKs\x8c\'\xccz\x86\xe3\xe9\\\xff\x00\x8d\xfc3\x7fi\xac\x19\xae,\x9e\x02\xb6\xc0D\xa1N\x08\xdd\x86+\xeb\\\xfe\x93\xaa^\x0f\x13\xc8/\xae\xf6]\xdb\\@\xa8@\xc2\xc8PmU\'\xd7\x06\xbdk\xc3:\x02|M\xd4_\xc2\x12^\t\xef\xae\x92kFC\x1e\x19ca\xe7\xab/\xae\xd5S\xd2\xb8]\x07O\xb8\xb2:\x83\xeak*\xad\x91Sr\x06|\xc4B\xff\x003\x11\xd4c\x8f\xc4\x8af\xbbux\xb6\xf2\xdc\xe8\xec\x1d\xb4\xcb\xbf6\x0f\x97\xefm\xe1\x03\x7f\xbd\xdb\xd6\x9fyp\xf7\x1e)moK\xb8\x91\x92wK\xabx\xa39\x1c(;W\x1dy\x1d\xabwQ\xf1\xdc:\xad\x9c\x16\xa9\xa7E\x1bZ\xbc\xa0\xb8l\xef\x0eC\x81\x9fl\x91_"0%\x00\x14\xd2\xdbG\x03\x04u&gt;\xb4\x9ec\x0eQ\xb0Oq\xda\x98\xeeI\xf9\xd7\x7f8\xdd\xd3\x14\xa3\xad#\x00\xc9\xb4\x9e\xac(\x88&gt;X\x07\x04\x01\xfc]M3\xcd\x90nU\x90\x8c\x8cr\xb8\xa5F\x91F\xd7l\xe4RH\x1b\x00\xf9\x83\xf3\xa4\x0c\x12Q!&lt;\x05\xe4\xd7\xd0\xdf\xf0L\xedA\xf4\xcf\xda\xb3\xc2\xf3:n\xf3\x84\xc9\x9d\xd8\xd8\x1a"\x015\xfb\x7f\xf0[\xc4\xb0I\x1c1\x90G\xd9r\xac\x87\xa9\xf5\xafx\xd25\x88nV3\x10\xfe\x0e\x83\xb5i^Z\xdc\xdc\xfd\xf8\xf3\x1a/\\rA\xeb\x8a\xa4\x9aB\x8b\xe0\xeb\x08\x04\xe0\x10[\x8c\x1f\xebV\xadl\xee\x17YY\xa6\x01\xa0a\x82\x83\xf8H\xef]\x16\x9bb\x92\xb4s4g\x80@\xe3\xa5lB\x04F/*\x03\x85R\n\xe3\xb9\xe9\x9a\x92\xe1m\xe4\x8c\x8b\xa8\x8a\xf6,\x1b\x85\xa7\xce\xf1\xda\xdc*\xdc\r\xd1\t\t\x01y$c\xfa\xd3mnRk\x86\x8a\xddC\x16&lt;\x13\xfc#\xd0\xd5\xfb\x1d6\x0bw2\xc8N\xcc\xe5\xdb\xb8\xff\x00\xebV\x8d\xac6\xfe[\x18\x94\xb7~GQN[r\x8c\nD\xa7q\xc6:\xe2\x9c\xf6\x17\x13\xc2T&amp;\xcc7\x04\x0e*\x194\x19eF\x8e\\\xb9`G\x1d\xea\x86\xab\xe1\x87B\xd0\xa9\xf9\x9a\x12\x02\x01\x9eq\xfaV\x13h\x971O%\xbc\xc8\x14&gt;\tl\xf4\xc5%\xc6\x9f\xa8\xa4_+\x8c0;\xb7.1\x8f\xe5U\xda\xd6\xd6\xe6%\xf3\x0bp\xc3q\xee\x7f\xfa\xd5\x8b\xadZCz\xcffpbPv2\xf3\x83\xdb5\xc5k\x9a&lt;\xb6\xcc\xd1NX\xaf\xa6\xce\xde\xb5\x8f{n\xb1"\xcb\x04\xac\x8d\xb8.@\xce\xdf|S`\xd3\xc4\xfb\x99\xae\x8a\x9c|\xcf\x8c\xef\x1e\x98\xedM\xd54\x1b\x98\xec\xcc\xb6\xf2\x06)"\xf9O1\xdapO9\xcf\x7fAUt\xdd\x11\xd2\xd8\xad\xd8\xf3p\xac\xc5Y8\x14E\xe1[\'\xdfoq\n\xbc`\xe7\x07\xa2\xe7\xbf\xb5p\x9f\x17\xbe\x05\xf8g\xc6\xfe\x1e\xb9\xb6_\x0f\xc6\x1c\xc4\xa2\x06\x11\xf2\xa4\x1e\xfe\x95\xf2w\xc7?\xd9),\xe1\x9e\x08\xe0\x12Y\x18\x04V\xe1#\xc3\xc6\xeb\xc8\xc1\xfa\xf4\xaf\x99\xf5;mK\xc0\xda\xcd\xee\x81$W+g\xa8\x8d\x97\r\x03d\x8cq\xd7\xb3z{\xd6\x07\x8f\xed\xa3\xd4\xecR\xfa\xce\xecO-\x9d\xeb\xc5$\xac\xbb\x12h\x83\x02\ng\xee\x81\xfcY\xfb\xdc\xe2\xb8\xaf\x88^\x04\x17\x1a\x9d\x97\x8e&lt;1m\x9bMF\x10\xd7Q+s\x14\xc3\x82\x0f\xf7O\xd6\xac\x7fn\xea&gt;\x08\x9f\xc3~-\xd2nDz\x9c.\x90\\\x97\x07r\\C\x9c8=\xc3\x01\x8fC\x83[\x1a\xecS\xdcj\xd7\xfa\xee\x99k2Z^[\xcavg! s\xf3\x9c\xff\x00\x10%\x87=\xb6\xfbW\x1f\xe1\xf8u\x1f\tx\xa2\xd2\x1dB\xfaci\xa8\xc4\xed\x1a\xce&gt;Yc\xe4\x16\x04\xf5\xc6\x0e&gt;\x95\x07\x8c\x1e\x7f\x0b\xeb\x16\x91\xdb\xab\xb2En\x8d\x19\xe8\x06r1\xf9\xf1\\\xdd\xee\xadw\xa7I\xe5\xde]0\xdeK"\x93\x8cg\xaf\xd6\xbcuH\x03\x92)\x92\x02z\x0e\xf4\xd0\x187\x00\xe4P\xc4\tD`\xf59\xfcipw\x11\x8ei\xbd\x0e\xd3\xd7\xd2\x95&gt;\xf0\xf6&lt;\xd4S\r\xceT\x1e\xa0\x81\x8ao\x96\x8a\xf8\xf3\xf9\x0b\xd34?\n3N\x88\x02@\'\x03&lt;\x9fJ\xf5\x0f\xd9\x17Z\x9f\xc3\xbf\xb4\x17\x855\x98\xee|\xb6\xb7\xd5\xed\xd5\xdd\x9bj\xec,\x01\x07\xf9W\xee\xc7\xc3\xdcX&lt;7\x1b\xb6\xbd\xc2\xee\x18\xf7+\xcd{\xaf\x82u\xd8\xa5\xb5\x89\x04\x81\x9aE\xec:\xe2\xbb\x8bU\xbb\x9dQ\xd5X\x82:b\xaejp\xb2De\x8a\x00\x19YK1\x1f\xce\xa0\xb3\x0bg)\x9d\xbe\xfb}\xe0\xfd\x05ohWv\xb7\xf3\xfd\x8e\xcaUir\x04\x88\x1b8\x07\xda\xb7\xe4\xb56\xf7\x92\\F\xb9\x1b\x00E#\xabv\xfdj-Z\xdf\xed\xb1\xbc\x03\xcb\x0e@;I\xc0\'\xd0\xd6%\xa6\x9du\x17\x97u\xc7\x99.\xe1,x\'n:c\xd3\xda\xbaM#E\xb4S\x80\x8e\x1d\x93,@\xad\xa8\xf49$\x81cu%H\x1ftrA\xad=\'@KXZ7\x01\x9c\x8c\xaf\xb7\xb5\x13\xe8\x06\xc9\x9a\xe1\x1b,\xfdT\xf6\xa9\xf4\xf8]\xa0\xf2\xca\x86%\xb1\xc51\xb4\xa0\x933L\xf8\xe3\x80\xbd\xaa\x9d\xd6\x85y\x7f\xfb\xc0H\x03\x85\xc7_\xc6\xb9?\x19Z\xddhV\xf2Ko\x1aJ\xdb\x0f\x01\xf2s\x8a\xc0\x87\xc4\xb9d\xb9\xd5\x82\x18\xe4\x94\x841&gt;Fq\x8eqW/n\xb4\xab\xa8\xc4\xf6W\xe8\x08_\xbb\xb8u\xaaR]i\xadjR\xeaH\xd9W\xe6f\x8f\x07?\\W7\xe2[(\xae"i\x06\n\x03\xf2\xbas\x8fc\xfe\x15\xc6x\x8bLE\x9d\xe2C\xbddA\xb5\x94\xf4\xcf\xa5Af\x82\xde\xdcE\xe6\xa3\x11\xd0n\xf9\x8f\xe1P\xf8\x86\xf7r\xf9\xb7!\xb6K\x80c__Z}\x81\x9e\xe2\xd9R\x17\x11$x%[\xab\x0fO\xc6\xadZ\xd8\xc9wr\x1aH\xd9D\x80\x83\xc7\x19\x1d\xa9\xda\x8d\xaf\x98\xab\x022!bA\'\xda\xb8_\x89?\x0fm\xbcAi42\xdb\xaa\xee\x19\x8d\xcf\x07w\xf7\x87\xae+\xe4\xbf\x8d\xff\x00\xb2\xdd\xe5\xed\x9c\xba\x84V\x1bg\x98\xb9g\xc0\x01\x18\x03\xb5\x87\xa8\xce3_6x\xf7\xc1\x9a\x7f\x87\xf5\x87\xd1|C\xa70\x91\x94-\xe2*\xed\n\xc4|\x84g\xd7\xadp\xea\x8d\xe1K\xfb\xed\x04\x0f6\xc2\xf6R\xcc\xae\xc0\xec\xca\x8c\x15\xf6\xe4d\x8fZ\xe5\xfcW\xe1=B\xf2\xc6\xf8Ei\xba\xd02\xdd\xc2\xc3\x97B\x08\xde\x00\xff\x00\x81\x1f\xca\xb2|?\xe2-~KH&lt;!r\xa6eKI\xedA\x8cnw\x05\xb2\xa3\x1d\xc9\xec+\xde&gt;\'\x7f\xc15\x7fk\xff\x00\x0exgA\xd7&lt;}\xf0o[\xf0\xf5\x85\xc6\x90o\xb4\x8b\x8dM\x16%D\x8c\t\x1f;\x80(p\xc4\xe0\xd7\x9c\xeb_\x04\xfe$\xfcV\xd3l\xac\xbc\x1b\xe0k\xfdKS\xb0\xb6\x92\x1dCL\xd3\xec\xdaC:\xf9\x83\xf7\x85\xf0T\x8f\x98\xf7\xc7\x06\xbd\x9b\xc0_\xf0o\xef\xfc\x14\xe7\xe2v\x90n\xe0\xf8,\xba|v\xe4\x18\xa0\xd6\xb5\x18\xad\xe5\xd9 \x0c\xa7gP0;\xd7\xe63\x15\xf3\xc2\xab\x02\x19s\x9c\xf7\xa5\x041\xda\xad\xcf\xd6\x9a\xee\xb8(\xac\x03\x81\xeb\xd6\xa3\xe4)\x91\xd4\x9c\x0c\xe7\x14"\xac\x98p_\x07\xa9\xc7JrH\x0b\x94B&gt;^\xecq\x9a\\b&gt;\x1b\x96lTR\xdbH\x1c1\'\x00\xf3\x81P\xcd\xb8\xee/\xf2\xe0|\xbe\xa4\xd4\x901\xf2\xc3J\xa7\xf1\xa5U\x0e\xd9\xce\x14\xf5\xad\xef\x87w\x97\x1aO\x8c\xf4\xdd^\xdar&gt;\xcf\x7f\x0c\x84{+\x83\xfd+\xf7\x9f\xc0\x9a\xabj&gt;\x0e\xb0\x9e\xca\xef\x07\xec\x08\xfb\xd9\xb9\x05\x91p~\x95\xf4\x0f\xec\xf9iw&amp;\x96\x9a\x9e\xad)o(\x15\x8d]q\xbb=\xeb\xdb4\xabc=\xa1d\x88\x0f\x94\xe3\x8aY#\x8b\xcb\x96\'`I b\xab\xbe\x9bs5\xa7\x96\xb2\x82\xcerX.q\x8a\x9f\xc0\x9e\x08\xb4\xd2\xfcG7\x8b,\xcc\xa1\xef\xd7\r\x13\xb6q\xb7\xaf\x1d\xb3]\xd5\x9b\xdb\xdb\x17\xbc\x0b\xf2\xe0\x86F\x19\xe7\xda\xa9_\xac3\xc8u\x0bx\x88$\xed\x11\xe3\x9c\x9e\x9cVs\xc1u\xfd\xa0\x80\x00\xa8\xdc\xe7\xd4\xfaWW\xa5[\xa7\x99\x0c\x88G@\x19\x875\xa3;\xb3L|\xb5\xde\x164\x03\x07\x19!\xbaU\xfb)Dq\x86v\xf2\xcb\xf4_\xef}*\t\xef\x129\x0c\x85\xf7`\xe0z\x03\xdb5D\xebV\xf1\xbf\xef\xef\x91\x0e\xec\x85\xc8\x19\x15\x8fs\xf1/\xc3\xf0y\xc6\xe5\xd9\x99r\x01\x07\x83\xf8\xd7=\xe2\xcf\xdaK\xc2\xda-\x8b\xc5mw\xe6K\x1clL,B\x8e\x07\xafz\xf9\xd3\xe2\x87\xedo\xaf\\\xea/skj\xb1\xc4\xad\x80\xaa\xf9a\xfe\xd1\x03\xb5y=\xcf\xedm\xe2a\xaa\xae\x95\xa5[Br\xfc\xcd#\x1c\x12OaW&lt;=\xfbU\xda\xd8ZOu\xad\xdc\xdcn\xf3v\x95H\xd8\x95oP;\x8a\xce\xff\x00\x86\xe1\xd5\xdf\xce\xfe\xca\xb1q2JU\x11\xa3`e\x1e\x84\x1e\x9f^\xd5\xddx_\xf6\xc1\xb5\xd7e\x82\xd7P\xf0\xf4\x90\\O\'\xef\x16i@\\\xe3\x00\x80z\xf3]~\x9b\xf1\x0fL\xd5\xaf\xe3\x129\x87tK\xf7\xd7\xe4\xce\xee\x995\xb4m\xac5\x15Q\xf2\xc4\xfbO\xccN\x01\xcfNj\x1b\xfd\r&amp;\x8f\xec\xf3[\x90W\xa3\x93\xdf\xb5f\xc7\x15\xd5\xb4\xc2)#p\xac~o\x94\xf6\xae\x83M\x99\x12\xd5e\x8d\xd4\xa8w9\'\xfd\x9a\x8a\xf0\x19n\xf3o\x11f\x12\x93\x10\x03;\xb2?\x95J\xda\r\xb4J\xf0J|\xd4d\xc3\x96\xe4\xa1#\x9f\xa6+\xcd&lt;w\xe1t\xb5\xbaC\xe5\xf9\x91\x9c\xec\xf9w~\x9d\xeb\xe4\xdf\xdaO\xe1w\x87\xeeu7\xd3\xbcE\xa8\xda\xc2\xf1\xac\x93\xc3w+\x08\xf7\x84\xe0+\x1f\\g\x15\xe4&gt;\x0c\xfd\x90\xfe6~\xd1:\x1d\xdc\xdf\x02~\x08x\x83\xc5\x10Y\xde\xacv\x97\xf6\x1av\xe8\x07\xcd\xf3\x07\x94\x8e\x07+\xef\xf2\x9fJ\xfa\xd3\xf6.\xff\x00\x82\x04\xfe\xd0\xde*\xd7\xad\xb5\x1f\xda\xd7\xc2\xc3B\xf0\xd0\xb5\x9dd\xd2\xb4\xfdJ\x13wq\xbe"\x80;\x83\xf2\xae\xe2\x18\x8e\xb8\x15\xf4\xff\x00\xec\xff\x00\xff\x00\x06\xec|\x08\xf8K\xf1\x00\xf8\xfb]\xf1\xed\xcd\xde"\x89lm\xa0\xb2\x8c\xbd\xbe\xdc\x92|\xd7\xfe 8\x0c\x07\x07\x9a\xfb\x0f\xe3\xaf\x83\xff\x00f?\x0cx:\xdf\xc7?\xb5.\xa9\xe1\xf9\xb4\x8f\x0f\xd94k\xa9\xf8\xd6\xf2$\xb6\x84pX\xf9r\xb2\xc6_j\xe0\x11\x96\xcf@k\xf3\x9b\xf6\xd0\xff\x00\x83\x85\xff\x00\xe0\x9e\x9f\x074\x9dO\xe1\xdf\xec\xa1\xf0\xee?\x1ck\x9c%\xae\xa9\xa5iB\xd3HI\x03\x8d\xc4\xc8PI"0\xf9\n\xaeF\xdes_\x06|O\xff\x00\x83\x88?o\xbf\x1dk\x9f\xda\xbag\xc5\x8b\x1f\t\xdb)e\xb7\xb1\xd04\xc4\x08\xc9\xc673\x1c\xb9\x18\xc0\'\xde\xbf+\x9b\xcd!\x9bx\n</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00\x1e\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfcJ\xf1\xcd\xf7\x89|U\xe3\xb9&lt;&lt;\x81\x9eV\xbc\xf2`\x8c\xaeF\xd2z\xd7\xd7?\xb3\x17\xec\x8d\xe0\r\x16\xce\xdb\xc4\xde*\x81\xafo\xe1PZ\xdev\xdc\x8aO\xfb\'\x8a\xfa\x7fB\xb1\xb2\xb4\xb1E\x1bR\x15\x1bcU\xfe\x11\xe9\xf4\xe9Rk:t^\\R@\xca\xccx\xdeFN;\x0c\xfaW\xe7\xe6\xb9\xf0\xf6\xef\xc2\xbf\x1c\xed\xf5;\xfd)\xa2U\xbf\x01\x98\xf0\x08\xcf_\xf3\xeb_]\xfc\x12\xbd\xb4\xb9\x9a\xe2\xeaY\x91\x0f "\x11\xf3\x008&amp;\xbd&gt;\xc9\x05\xf6\x9d\xb6_(D\x14\x91\xbf\x19\'\xdb\x15V\xea\xfe\xda\x10\xa9q\x01b\x00\x08\xa8\xc7\x81\xdf?\xa5x_\xed7\xf0\x8bT\xd5\xeeO\x8a\xf4\xabQ"\xa4\x9b\x9e(\x1b,\xb9\xc69\xef\xd0\xd7\x07\xf0\xeb\xc5\xfa\x8f\x86\xf5\x96\x96\xe4J\xaa\xc0Fa\x9b\xb1\xaf\xa2&gt;\x19x\xefK\xbf\xb4\x86[\xb6\x19\x89\x87\x9c\x15\xf0\x98\xfat=*\xdf\x89&lt;A\xe6jowkp\x1e\x17c\xb4+}\xde\x98\x1fN\xb5oI\xb9\xd25\xbd\x065\xd5\xac\xcc\x81\x97!DK\xfc\xcf"\xb8\xef\x15\xfe\xce\xbe\x14\xbd_\xf8H-Q`{\xa7f\n\t;q\x8f\xf1\xaa\xfa\'\xc3\xe84\x18\x05\x9cW\x01\x83+\x10\x08\xe0\x11\xedZpX4\x08#v\\\x85\x1ft`W\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\xbe\x00\xbe\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc6.\x8c6+\r\xc3\xaf=i\xb3\x06 \x05\xf5\xa1HU!\x86O\xad \xea)r2~\x86\x98\xd1\xa39rq\x85\xe8O_jP\x8a\x88\x1aB0z\x02j9c\x11|\xca\xc0\x97\x1d\x01\xe9V&lt;9\xa6I\xab\xeaqXA:\xab\xcb*\xae\xf6l\x01\x92\x06I\xec=\xeb\xe9\xef\x0f$^\t\xf0\x1cVzl\xdeTP\xa3\xa5\xcc\xb1\x0f\x9eEf\xc3l=\xf8Q\x8cz\x8a\xe3u?\x88r-\xb5\xd6\x97\xe1\xa1\xe5C\x03\x19$%\xb3\xb9\x97\x80W\xd4\xe3\x9a\xe4\xf4\x87:\xee\xabu\xe2?\x18\xeam\xf6\x0b\x08\x9d\xe4\x96F\xdc\xf2\xb9S\xe5\xc41\xdc68\xaeBk\xeb\xef\x12\xea\xedyt\x86$\xdcB\xc6\xab\xf7\x14}\xd2\x07\xf3\xad\xb8\xa2\x8a\xc7\x06$3:\x00Xg\x18\xfa\xfaV\xb9\xf1\xc2\x89\x99.-\x84\xee\xb1\x81\x1cP\xcb\x84_\xa9\x1di\xfa?\x85u\xef\x13C\r\xb4\xda\xd9C,\xbc\xaa\xa3\x107\x1e9\xef\x8a\xf4\x8f\x85?\x05m\x1bV\x92\xcf[\xd7$x\x9a"\x17\xc9\\\r\xd8\xeas^\xab}\xf0\xb7F\x82\xe1F\x86eh\x1c,1\xb3\xc4w,\x98\xe4\x0f\xf0\xae\xe7\xc0?\x06|C\xe2\'\xfe\xc6m\xf2\xc4\xa0\x06b\x98\xdf\x9fO\\W\xbe|%\xfd\x83\xedui\xbe\xd5\xaeM%\xad\xb7\x9av\xb4n\x1bp#\x9e+\xdc\xbc%\xfb\x1a|$\xd3]\x84\xabp\xe6\xde2\x14\x00C1\xc7\xa5uv?\xb1\xe5\xb6\xb5$\xb6\xfe\x1a\xd0m\xf4\xed;\x00H\xf3\xc5\xbaY\x0f\xe3\xc8\x07\xd6\xbb\xed\x07\xf6L\xf8Y\xe1[K{;]6;\x8b\x98\xd9Y\xe4h\xc1\xcbz}+\xbd\xd0\xff\x00e\x7f\tjz|s^\xd8Z\xa0\xe7j, \x91\xf5\xaf\xe59\xca\x82\x19c9&gt;\x82\x9b\xe6d\xed\'\x9fLPA\x07i\x1c\xfaP9\x19\x14\xa0\x10rEG&amp;\x1a@29j\x1d\x83\x1d\x8d\xd0S%0I Q\xbb%q\x9a\xec&gt;\x18xZ\xd6]f\xd2MPn\x89\xa4\n\xca\x87\x93\xcf#\xda\xbd\xff\x00\xc6\xb6\x88t\x05\xd34\xc6\xda|\x90\x91\xc4G\t\x91\x80I\xf5\xaf\x13\xf1\x1b\xc3\x1d\xda\xf8kK\xc4de\xaenwtoJ\xc8\xf1\x1e\xafc\xac\xde\xa6\x9b\xa2\xef\x16\x96\xb1\x8f\x97\xa1\x95\xc7VaI\xa7\xe9Kn7\xeaR\x85s\xf3G\xb0\xff\x00:\xb1s\xa9\xce\xd6\xb3[[`4\x9c\xb3\x95\xfe\x11Rh\x9a:\xec\x172\xb6wu9\xc5z\xbf\xc2\xed\x1a\xd7V\xb8q\xa8C*\xdb\xc0\x80?\x96\xe3*OL\xe3\xa5{\xcf\xc2\xaf\x0c\xf8wC\x95\xa3\xd2\xb4Y\xae\xef\xae\xddL\x0c\xe0\xb0E\x1fz\xbe\x85\xf8c\xf03R\xf1\xab,PxS\xcfg\x8cM\xf2\x03\xf2\xb9\xe3\x1e\xc4W\xd2\xff\x00\t?eg\xf0\xc6\x9f\x142\xdb\x96f\xc3,3\x00\x19[\xfc+\xdd\xbc\x05\xf0\xc2[[\x04\xd3LJ\xea\xaaw~\xeb\x02?|\xd7\xa1\xe8?\x0f\xfc/\xe1\xbb7\xb9\xb8\xb7\x13\xee\x95\x89\xcae\x89\xdb\xd0{Q\x05\x88\xd4e\x0f\x1d\x81Xcm\xbf\xbb8/\xe9\xf5\xc5n\xf8sD\xd3\xd6b\xf3G"\xaey\x12\x11\xcf\xb6k\xb3\xd0|=\x1cj\xcfe\x06U\x87\xf1\x1e?\n\xfe6\xd1$Y7n\x1dx$\xf1P\xb8W\x95\x82\x92\t\x1f1=?\n\x99\x925\xc7\x94NPrZ\x90\x80\xbf!8\x04g4\x06\xb9\x8f\xe5@\n\xff\x00\x16}*9\x1dy\xc2r\x06i\xb8\xdc\x01&lt;\x13\xd34\xc5\xc2&gt;\xd7\x19-\xc2\xe7\xbdz\'\xc1MN\xc5&lt;gcy{\x0byy| \xe7k\x01\xc3\x11\xe9\x9a\xf4\xdf\x88_\x10\x9d\xad\xa6\xd3t\x8d\x8a\xa2#\xe6K\x90^\\\x8f\xe1\x1e\x9e\xf5\xe1\xf7\xda\xbe\xa3\x1c\xd2[\x87Uw\x97qn\xa4\x8c\xf4\xa3\xc3\xf70\xc7\xa8\x96\x94\xfc\xbe[nb\xbc\x13\x8e\x99\xad1\xa7^=\xe0gb\xe1\xcf\xc8\xa3\xf9V\xc5\x97\x82\xaf\xee\x18]5\xb1\x8dB\xe4n\x1d\x7f\xc6\xbb\x1f\x03|/:\x8a\x90\xd9p~c+\x0c(\x15\xee\x9f\x04\xbe\x0b\x0b\xeb\xc8\xb4\xad:)d[\x94\xdcs\x19\xc9\x19\xc7\xcc{{\x1a\xfa\xb7\xe0\x7f\xec\xfdwq\xaf&amp;\x9b\xa4\xe8\xd2\x04\xb7\x97\x1b\xdds\xbc\x11\xce=E}\xd7\xf0\x87\xe1~\x99\xe1\x0b\x04\x82\x1bX\xa0\x0b\x12\xfc\xc8\x83\xcc/\xed^\x95\xe1\xef\x0c\xc5$\xf1J\xf2\x19\x99\tm\xf2\x90H\xc7n+\xab:ki\xd6\x12\xcbnXH\xcc\n\xa8\x03\x9f\xc3\xd2\xa4\xb7\xd2\xe0\x86\xc7\xed\xb7V\xe5$f\xf9\x89o\xbd\xed\x8e\xd5\x1f\x94c\x8e\x08\xec\xe2\n\x9b\xf76F\t\x19\xadk\x0b\x18\xe4\x06\x13m\x82\xcaH\xc9\xae\x83J\x82\xe9"\xf2\xe2\xe0\x01\xfd\xfa\xfe5\xdc\x15O/\x04\xe7\x8c\x8e\xd4\xd6\x89J*\xf4\xf5&amp;\x85\x05\xc8$}\xef\xbd\xed\x8ad\xc0\xca\xad\x1fN\x0e\r$hb\xe0\xbb\x1c\xa6(FU\xba\xc3c8\xfb\xbe\xb4\x114\x92\x17(\x02\xa8\xc8\x14\xc7H\xe3%\xa5`v\xfd\xd0:\xf3Z^\x19\xf1\x15\xee\x81|\x97\x9af\x0b\xc6\xa4#78\'\xbdz\xbah\xff\x00o\xf0\\\xfa\xec\xb2\xac\xacLQ3\x16\xc1\x0e\xc7\x90=\xc6zW!\xe2\x0f\x0bAio\xfd\xbf&gt;\xa0\xb1\xc7?\xca\x96\xeb\x82\xeaG\xb7Q\x9a\xc8\xf0\xf5\xca\xe9\x1a\xccw\xf1[F\x19$V\xf2\xe4\xe4J\xa0\xe7\x07\xd3=+\xd5~\x18x5\xfcy\xe2e\xd5\xect\xe40Ks\x81\t?)c\x81\x81\xed\x9a\xfaJ\xdb\xf6^\xd3\x7f\xb2\xe3c\xa6Kuz\xcc\x82\x0bHP\xf0\xe7\xa0\xe3\xaf5\xe8\xff\x00\r\xbfc=R\xc2\x08\xaf\xf5[/"\xe4\x92\x05\xa6\xf1\xf2\x9e\xb8a\xdb\xf1\xaf\xa6\xfe\x04\xfe\xcf\xb0X\xeb0Zi\xfe\x16?)\x10L\xf2/\xa79\x1e\xd9\xaf\xa6&gt;\x1d\xfc\x1e\xd2&lt;\tq\x04\xb1\xd9~\xfa_\x9d\xd9\x13*\x01&gt;\xbd\xab\xd3\xff\x00\xb3\x8d\xbbG\x04(\xc1\xa3*\xce\xc0\x83\xb7\x9e\x87\xdf\xda\xb7|;l\x15\x9ag}\xe1\xb8\xfb\xb8\xc5j_\x15\x8a\xd9n\xa3%\xb9\xc6\x074\xf8\x84w\x13\x94VfRY\x8ez\x0c\x8e?ZV\x8d~\xdf"\x18\xce\xc9B\x88\x94\x8cm\xf5\xae\x82\xde\xce\xde\x1b\x92\xc5\x14\x08\x95J\x92\xff\x00{\xd7\x1e\xb5\xb1\x0c\xb0\x00.\x916\xc6\xcb\x81\x9e2k\xf8\xc8\xf3I\xe3\x9ex\xa2^Pb\x85`\xa3\'\xb0\xe9Q\xfd\xe2d&lt;`g\x07\xbd)\x9d\x18\x05\x03\x198\xcf\xa50*\xc8\xfeoB\xa7\x19=\xc5:I\xf6\xb0\x03\x91\x9e\xd5\x1b\xcb\x04\xa0\x90G\xd7\xde\xae\xf8zhmn\x92\xeeuYc\x8e@\xcf\x13p\x1c\x03\x9d\xb9\xf7\xe9^\x8d\x0f\xc5\x9b]SL\x93H\xb4\xb3\x8a\xc6\xdeK\xd6\xba\x11+\x02y]\xa1~\xb9\xe6\xb2|q\xa7j\xf0\xe9\xdaw\x89^\xcd\xd6\xdfXY\r\xac\xa2P\xc8\xc26\xda\xf8\xed\x90x&gt;\x87\x8a\xc0\xd2\x10\xddM\x92\x01rv\xa85\xfaU\xff\x00\x04\xe1\xfd\x95m&amp;\xf0\x1ax\xa7^\xd0V+\x87u\xf2\xf7\x8c\xe4\x1e\xe0W\xdbzo\xc0}\x1a\x1dR=G\xc3\xbaDQ\x8b\x93\x86r\x9b\xb6\x909&gt;\xd5\xd2\xe9\x7f\x0bc\x1ev\xbbu\x04O$%cPx\xdd+\x9d\xa0\xe3\xbe:\x9a\xf4\xdf\x01\xf8wL\x8f\xc434\x0b\xe5\xa5\xb0\x0b\x0e\x13\x05\xf7.\x19\xbf\x0fZ\xefmZ\xcbO\xb7\x8c\x17\xf3\x1d]\x97c/%W\xe6\x1f\x815gL\xd4c\xd4\x19fd9\x04\x97+\xd1\x88\xe9\xf9V\xbd\x95\xb4\xb1\xb9\xf2e\x18\x90q\x83\xd0\xd6\xbe\x9d\xa7D\xb6\xf0\x19\xee7g$\x159\x04\x8e\xd4\xad\xaa[Cx`\x11\xb6LH\x10*u!\xaa\xed\xb4PO \xba\x95\x82\xabp\x18\xf65\xb1\x14\x114 y\xa5\x9c\x10\x02\xed\xad\x0f\xb4\x1b[h\xad\xbc\x91.\xd1\xc8A\x9d\xa7\xde\xbf\x8c\x84E\x0b\xd4}\xfaN\x88A\xe3\xe6\xa6\xb9\x19\'4\x84\x12\xa4\xa8\xcf\x14\x84;(\\(\xcdD\xe1\xa3n\x1b8&lt;\x81K\x1e\xed\xad+t\nH\x14\xd8c\x8fq\xcb\x0ccuI\xf6\x86\x10a%\xe0\xb7M\xb56\x8fe-\xe4\xab\x14E\xb7\x19\x07\x07\x8e\xf5\xeb\x9a\x9e\xb3\xe0\xdb\xdf\x82\xba?\x86\x96\xc2o\xed\xbb\t\xe5SrI)2\xc9p\xce\xd8\x1f\xc2T`\xe3\xbda\xfc&amp;\xf0E\xf7\x8b&lt;i\xa7\xe8\xf6\x90\x19\r\xc5\xeaF\x08S\x91\xb9\x80\xce&gt;\x9c\xd7\xee\x07\xec\xc1\xf0\xf6?\nx/L\xd2#\x94\x10-S\xccD\x18c\xf2\x0ek\xe8\xab}\r\x16\xd7O\xbcK!\x18P\x16T\x93\x96\xdb\xdc\xf1\xdf\x14\x9a_\x87\x11\x9c[\xcd\'2],\xa1I\xe3\x01\xb3\x83\xef]8\xd2&amp;]N)-m\xc4[\x14\x10\xca~\xf1\x1d\x8dt\x1aR\xb0\x87z\xc6\x92\xa9\xc1c\xd5\xb9\xfe\x95cL\xd3\xadl\x1eY-\x89;\x8fB8\xc9\xad\xbd\x16C$\xd3\xc4\xe1q\x10\x05y\xeb\xf4\xadh.\xa1\xb0\xd9\x14\x98_(\x927\xf1\xcf\\Vtw\xce\xd3O\r\xdcg\xcc-\xfb\xa2\x13\xa2\x9e\xff\x00Oz\xb4#\xbb\xba\xbaD\x05\x10\x85\xc6\xdd\xfd\xbf\xbd[\xbadSO\x1e\x0c\x84\x8d\xa7s\xa9\xf4\xad(\x84V\xa5\xa3\x9e\x12NA\xc0nzw\xaf\xe39\x0e\xe1\xb5O;\xe8#\xcb\x88\xab\x8esQ\x92\x08\xe4\x8ei\xc0\x98\xc6\xcfQF\x18\x1eA\x1f\x852W,6\xac$\x1e\xe7m\t\x85\x89\xb7\x0f\xe1&lt;R\x02\xad eB\x00\x1c\xf1N&gt;X\x87*\xbc\x86\xc8\xa7Z_\x0b{\xad\xe9p\xd9\xc7\xf0\xaduZ\x06\xb9\x0c\x90J\xb7\x00\x99\xfc\xd6x\xc3tT\x0b\x93^\xef\xfb\x06h\xb3x\x8b\xe3\x9e\x87m\x15\xaa2\xa3\x1b\x86\x0c:lL\xf3\xfa~u\xfbg\xf0\x07\xc3\xb66\xbae\xb8fI&lt;\xd8\xd0\x17$|\xa7\xd0W\xac\xdei\x97F{v\x85\x91\xa3\xb5\x8c\xab\xa8?\x7f5~\xc3I\x8a\x1b\xd9^\xee1\x1a\xae\xd0\xb8\x19\x1c\xfb\xd4\xba\xa8\x93O\x98I\x1c\x98\x8ffrOA\xebShz\xbcrB\xad,\x8c\xb2$\x08\x0e\x17\xe5\xe1NA\xf45\xae\xae\xf3]E%\xb8\xc2`\x10\xbf\xde5\xa3k\x1d\xd3]\xab\xaamS\xf7\xf8\xea;\xd5\xbb}1\xcd\xcc\x8fp\xfb\xb6\xc4@%\xb27\x0eK}\x08\xe2\xaeX\xa6\x9fs,\x92\xc7,r*\x15\x0c\x02\x12s\xe9\xf4\xabmm\x15\x9c\x7fkP\x85\xc9\xe0\x85&lt;\n\xbb\xa2\xc9\x83\xe5\xbc\xc1A`\xd8\x06\xad\xddk\x02\xd8\x81\xe4\x96v\xe4\x90;W\xf1\xb4\xa8\xb1\xa1\x91H\'\x1d\xa9\xa1\x9aQ\x9cR\xcb&amp;\xf8\xfc\xaf(\x02\x07_Zl\xc0\x97R\x07AO\x90\x87pP\xe7\x03\x9cSK.\x08\xdc?:c\xfc\x83.1\xe8\x0fz\x8d]\xcb\x82\x83\x1c\xf453\x87b\xa5\xd0p\x7f\x87\xa5#l\x883mP\x08\xc1&gt;\x95\x7f\xc2\xd2\xc65\xd8\xa3\x95\x89\x13H\xd1\xf3\xd80\xc6~\x9c\xd7\xd7\x1f\xf0L\xbbH\xe4\xf8\xc5c{%\xc4BX\x12{W\x87x\xdeB\xa2\x1d\xf8\xeb\x83\x82\x01\xeek\xf6K\xe0\xccQ\xc1em\x86`\x9bC\x11\xe9^\xccY\xa0\x86\x19\xa1\x00\x11\x82w\x8e\xb5\x06\xb1w{\xa4\xdeY\xc0"\xf3\xe3\x9f&gt;y~\x0e\xe3\xd0\n\xaf&lt;\xda\x95\xe5\xbb,\xf2\x07\xf9\xf1\x1ac\xee\x7f\x8dj\xd9i\xee\x97\xe6\xee\xdaBP\xbf\xce\x8c\xbc\x1e+\xa4Y`H\xfc\x87E,\xae\xbb\x1d9\x18\xcfJ\xbf\x02\x0b\x98\x90\xdb\xb3\x02\x88\xc5\x88\x1d8\xad4\xb1\x9a+\x94G\x9c\x94x~\x7f\x97\x8cb\x91E\xa6\x9c\x1ax\xd3`|\x87S\xc1\x18\xefM{\xe7\x96\xdbq\x18P\xdf.\x7f\x88\xf6\x14\xdb\x0b\xdb\xa1.\xd1"\x86\x07=y\x03\xd3\x15{S\xb9Vt\x99\x88m\xc9\xc1-\x8c\xd7\xf1\xdcr\x9c\x01\x90}(Y\x80\x1eZ\xc6y\xe3\xa5\x12\x02d\x04\x0e\xd4\x8788l\x1cu\xf4\xa6\x8d\xac@#$\x11\x96\'\x14\x92F\xa4\x93\x9e=\xa9\xb3\xb4\x8d\x84(v\x85\xe4\xb0\xc5G\x1d\xbcl\xc0\xc7\x13\x1c\x1e\xc6\xac"v\xf2\xf1\xee[\xa5#\x85T\x118\xc8g\xc1&gt;\xd5\x1c\x92\xb4S\xf9\x90\xb9\\\x0c\x02\xbd~\xb5\xf5_\xfc\x12\xb6\xf1\xe6\xfd\xa8\xf4\xebI\xee2\xb7Zu\xc2\x80O\x19\xd8y\xfa\xf7\xaf\xdb?\x84/\xb7A\xb4\x8eO\x98\xba\x95\x05y&lt;z\xd7\xad\xe9\xc9wum\x12\xdc\xab\x9f0m\x03i\xc8\xf4\xab\xda\xfcD\\\xc0\x8b\xc8I\tF&gt;\xc2\xb3\xd5\xad\xa6s\x0c\xd3\xb0\n\xdb\x9b\x03\x00\xfbf\xb5mn\x16\xda$C.\xd52\x00\xa0s\xd4\xf1\x9a\xd7Y\x15\xa0P\x84y\x99\xdc\x07v\xc7\xf3\xadm(\xdd\x88\xd5\xa2\x0b\xfb\xc3\x83\xcd^IfX\xc4\xb3]:3F\xc1\xe3+\xc61\xd34\x97q\xc4\xf3o1\x9f\xbe\xdd[\x8f\xbbN\xf2\xe3\x92/\xb3g\x06U$\x868\n{Tq@\xc2d\xb2K\x86\x91\xcb\x00\x06\xccm\xf7\xcdj\xc4\x91\xc8\xa5\xee $g\x08\xbb~\xee+\xf8\xef`J\x00)\xa5\xb6\x8e\x06\x08\xea}i&lt;\xc6\x1c\xa3`\x9e\xe3\xb51\xdc\x93\xf3\xae\xfeq\xbb\xa6)GZF\x01\x93i=XQ\x10|\xb0\x0e\x08\x03\xf8\xba\x9ag\x9b \xdc\xab!\x19\x18\xe5qJ\x8d"\x8d\xae\xd9\xc8\xa4\x906\x01\xf3\x07\xe7H\x18$\xa2Bx\x0b\xc9\xaf\xa1\xbf\xe0\x99\xda\x83\xe9\x9f\xb5g\x85\xe6t\xdd\xe7\t\x93;\xb1\xb04D\x02k\xf6\xff\x00\xe0\xb7\x89`\x928c \x8f\xb2\xe5Y\x0fS\xeb^\xf1\xa4k\x10\xdc\xacf!\xfc\x1d\x07j\xd2\xbc\xb5\xb9\xb9\xfb\xf1\xe64^\xb8\xe4\x83\xd7\x15I4\x85\x17\xc1\xd6\x10\t\xc0 \xb7\x18?\xd6\xadZ\xd9\xdc.\xb2\xb3L\x03@\xc3\x05\x07\xf0\x91\xde\xba-6\xc5%h\xe6h\xcf\x00\x81\xc7J\xd8\x84\x08\x8c^T\x07\n\xa4\x15\xc7s\xd35%\xc2\xdb\xc9\x19\x17Q\x15\xecX7\x0bO\x9d\xe3\xb5\xb8U\xb8\x1b\xa2\x12\x12\x02\xf2H\xc7\xf5\xa6\xda\xdc\xa4\xd7\r\x15\xba\x86,x\'\xf8G\xa1\xab\xf6:l\x16\xeee\x90\x9d\x99\xcb\xb7q\xff\x00\xd6\xad\x1b(\xad\xb6\x9f+$\x1f\xefW\xf1\xbc\xa4\x01\xc9\x14\xc9\x01=\x07zh\x0c\x1b\x80r(b\x04\xa20z\x9c\xfe4\xb8;\x88\xc74\xde\x87i\xeb\xe9J\x9fx{\x1ej)\x86\xe7*\x0fP@\xc57\xcbE|y\xfc\x85\xe9\x9a\x1f\x85\x19\xa7D\x01 \x13\x81\x9eO\xa5z\x87\xec\x8b\xadO\xe1\xdf\xda\x0b\xc2\x9a\xccw&gt;[[\xea\xf6\xea\xee\xcd\xb5v\x16\x00\x83\xfc\xab\xf7c\xe1\xee,\x1e\x1b\x8d\xdb^\xe1w\x0c{\x95\xe6\xbd\xd7\xc1:\xecR\xda\xc4\x82@\xcd"\xf6\x1dq]\xc5\xaa\xdd\xce\xa8\xea\xacA\x1d1W58Y"2\xc5\x00\x0c\xac\xa5\x98\x8f\xe7PY\x85\xb3\x94\xce\xdf}\xbe\xf0~\x82\xb7\xb4+\xbb[\xf9\xfe\xc7e*\xb4\xb9\x02D\r\x9c\x03\xed[\xf2Z\x9b{\xc9.#\\\x8d\x80"\x91\xd5\xbb~\xb5\x16\xado\xf6\xd8\xde\x01\xe5\x87 \x1d\xa4\xe0\x13\xe8k\x12\xd3N\xba\x8b\xcb\xba\xe3\xcc\x97p\x96&lt;\x13\xb7\x1d1\xe9\xed]&amp;\x91\xa2\xda)\xc0G\x0e\xc9\x96 V\xd4z\x1c\x92@\xb1\xba\x92\xa4\x0f\xba9 \xd6\x9e\x91\xa0\xc3g\x19I\xc0by\x1e\xc3\xd2\xbf\x8b\xe6+\xe7\x85V\x042\xe79\xefJ\x08c\xb5[\x9f\xad5\xddpQX\x07\x03\xd7\xadG\xc8S#\xa98\x19\xce(EY0\xe0\xbe\x0fS\x8e\x94\xe4\x90\x17(\x84|\xbd\xd8\xe34\xb8\xc4|7,\xd8\xa8\xa5\xb6\x908bN\x01\xe7\x02\xa1\x9bq\xdc_\xe5\xc0\xf9}I\xa9 c\xe5\x86\x95O\xe3J\xaa\x1d\xb3\x9c)\xeb[\xdf\x0e\xef.4\x9f\x19\xe9\xba\xbd\xb4\xe4}\x9e\xfe\x19\x08\xf6W\x07\xfaW\xef?\x815V\xd4|\x1da=\x95\xde\x0f\xd8\x11\xf7\xb3r\x0b"\xe0\xfd+\xe8\x1f\xd9\xf2\xd2\xeeM-5=ZR\xdeP+\x1a\xba\xe3v{\xd7\xb6iV\xc6{B\xc9\x10\x1f)\xc7\x14\xb2G\x17\x97,N\xc0\x92@\xc5W}6\xe6kO-e\x05\x9c\xe4\xb0\\\xe3\x15?\x81&lt;\x11i\xa5\xf8\x8eo\x16Y\x99C\xdf\xae\x1a\'l\xe3o^;f\xbb\xab7\xb7\xb6/x\x17\xe5\xc1\x0c\x8c3\xcf\xb5R\xbfXg\x90\xea\x16\xf1\x10I\xda#\xc79=8\xac\xe7\x82\xeb\xfbA\x00\x01Q\xb9\xcf\xa9\xf4\xae\xafJ\xb7O2\x19\x10\x8e\x803\x0ekFwf\x98\xf9k\xbc,h\x06\x0e2Ct\xab\xd6\x93\xac0\x89%\x94E\xbb\xa6\xee\xf5\xfcY\xb7\x9aC6\xf0\x15~\xef\xcb\x8c\xe7\xd2\x90\xa2\xc4\x16A\xd7&lt;\x8ad\xc25V\x98G\x96 \xe0z\xd3v\x072\x15@6cn_\xf3\xa0`)\x0c\x0f\xfc\x07\xa5+\x08\xc1\x04/\xf0\xf5\xa8\x9d\x87\x96\x1dH\xe1\xfa\xe7\xde\xa3i&amp;e#\'\x19\xe7\x1e\x94\xf8B\x91\x86\xc1\x1e\xadRE\x0b\xcd \x11.v\x9c\x81RCiw(o5Q\x147$\xf1\xc5[\xd3\x12H\xf5\x08\xbc\x86\xe3p\xe5\x7f\x8b\x9e\xd5\xfb\xc5\xfb1[I\xa9x\x0bF\xb8b$2i\x96\xcaT\xf2G\xc8+\xec?\x86\xdaDv\x1aT(p\xc3\xcb\xc8U^\xfe\x95\xde\xda-\xf4\x81\r\xaa\x80\x00\xe5E_\x82\xd2$\xbbR\xe5\x0epN9\xc1\xa4\x9a8\x1fV\xf2b\x00\xacd3\xf3\x8d\xbfQV\xec\xa1x\xae"0\xc9\x88\xd1\xb9\xc1\xea3\xcdo\xack%\xaa\xa5\xa9\x05I\xdcI=j=@\xb46\xeec\x88gp \x81P\xb5\x9a\x9bEv\xc9ea\x8cu\xe6\xb5t\xd9~\xcd\xa5F\xf00b\t\xc8\'\x91N\x82\xf6\xd68\x1a\xf2\xf2\xe4(\'!\x8b`\x0f\xa9\xf4\xac\xfb\x9f\x8b:K\xdb\xf9Zq&gt;b\xca\xcb\xb0\xa6\xee\x17\x83\xfa\xd7\xf1\xbf\x90r\x1c\x8d\xb8\xe3\x14\xa8\xc1\x14\x94\xc1\xff\x00z\xa3\x92II\xc1\xdb\x86\xe0{S[\x04l\xc6\x0fs\xebL\xdc\xea\xdb\x02\x9e\xb8\xe9Dsb\\8\xe0\x1e\x01\xefC\xc2\x17#8Rs\x82zS\x02\x92\xc64\x19\xdd\xc6EJ#\x11&amp;\xc22{\xe2\x9d\x14\xefj\xc1\xe2\\\xf23\xedL\x96\xe2[\x81\x86\x93\x04\xb7@j\xe6\x88\xb2\xc9\xacAl\x1b J\x8a1\xdf$f\xbf\xa2_\xd9C\xe1\xf8\xb3\xf0&amp;\x80/\xad\x97?\xd96\xb2\xc4\xd1\x9c\x82\xbb\x14\x9a\xfa\x93\xc2\xd6)\xa7\xc7\x1a\x98\xcf*6\x8d\xbc\xd7g\xa7\xa7\xee\xd5\xa38\'\xb1Z|6kw8\x16\xc0\x87\x12\x02\xf9\xe8F{T\xb7\x1aZ}\xa2Ic\xfb\xd2\x91\xb8\x8fj\x9e\x0bK{+D,\xc7p\x07 \xf6\xad=:)\x1eveB#\x10\x91\x1a\xe3\xef\x12:\x8fZY\xc2\xf9b\xdeLn.\x06\t\xe6\x9a\xdb`G\xdeHX\xc1$\x81\xd2\xb0u\x7f\x1a[X\xab7\xda#\xf3c\xf9\x82\t\x008\x1d\xf1\xeb^a\x0f\xc5Y\xa1\xb9\xbf{\x9b\xcf\xf4\x8b\r=\xe7\x96\xdc\xc9\x94\xb8\x87\x93\x81\xeeG\x15\xe0)\xfbOO\xe1\xdb\x81\xa6Mr\x97+km\x0b"\xa3\x12\xd9\x9d\x04\xacI\x1dp\xd9_\xaa\x91\xda\xbf\x9c\x99\x193\x80\xbc\xfd*&gt;\xa3\xe5l\x1f_Jpl\x00\x19\xf3\xff\x00\x01\xa8\xe4\xe6E#\xb7Z\x1c\x12~^\xfd)\xa4\xc8\x8aK 8\x1dE&amp;\xe3(\x01\xb8\xc9\xefCb\x01\xb9ON\x94\xf8\xdc\x15\xf3\x1c\xe3=I\xa4\x90\xec`\x00\xce{z\xd3&lt;\xf4\xc1*\xab\xc7\\v\xad\xcf\x04\xe8\xb2\xea^ \xb1\x85J\x83%\xe4HC\xf4\x19p9\xaf\xe9\x7f\xe0\x8e\x8f\'\x87|\x01\xe1\xbd5l#\r\x16\x85j\x92\x14\x04`\xf9k\x90A\xe7\xf0\xaf[\xd2\xf5(\xd5VI$\x87\xe5Lm\x1dEu\x9a&gt;\xb3cs\x1a\xa4\xc5\x91q\x82\xfe\xd5\xa9\x06\xa0\xac\xe2e\x91~S\x85\xda8#\xde\x9f\r\xcd\xbc\xd7~Q\x9d0NI\xdc*\xfe\x9dj\xd2M h\xfe\xea\x12\x82A\x8d\xdc{\xd3\xe2\x9dl\'\x86\xca\x07\xdd\xb8\xe5\xdb\xfb\xa7\xd2\xa47*\xf28\n\xa7\xe5\xe4\xf7\x03\xd6\xb0\xbe#jph:,\xd7p\xce\xc0\x95\xc9#\x9cq\xe9_*\xfcW\xf8\xa7\xaeh\xbe.\x8dDJ"\x99K\xdb\xdfBK\x02G&lt;\x81\xc7\x15\xc6\xeb\xff\x00\x13?\xb1/ \xd7"\xb3\x92&amp;\x96\xd1\x8d\xec%\xb3\xe7\xc6\xdcq\xf4\xeb\x8a\xf1-z\xde\xfaMkQ\xbe\xd0\xef\xe3\xfb%\xec\xb1K\x07\x9aF\xe4Q\xe6\x80\xbfNs\xf8\xd7\xe1\xf4\xbc3g\xde\x98\x98\\\x97\x07\x18\xc9\x00v\xa4f\x91\x9c3\x0c&amp;~\\u\xfciprx\xa5 \x8021\xcd\x0c\xca\xbf{\xd3\xa7\xad \xd9\xe6\x9f1HV\\g\x1d)\xbb8eQ\x95\np[\xbd6`&lt;\xb5\x04\xed\x04\xf44\x97\x0e\x0c"Rz\x1cqD0\x88\x95\xb6.\xe5e%\xb3^\xd3\xfb\x07|5O\x8a\xdf\xb4\xb7\x85\xfc!uf\xd2B\xfa\xacS\xdc\x81\x93\x84Y\x14\x90\x7f\x0c\xd7\xf4\x1d\x1f\x8c\xf4m\x13O\x8eF\xd6c\x81\x160\x8b\x1a\xb8\xc8\x00*\xff\x00![\x16\xff\x00\x13\xb4m&gt;\xc5/n5R\xf1\x1ca\x94g\xf3\xa9\xbf\xe1\x7fE\xa4j0\xd9\xc9|\x1c\xdd\xc4M\x98\xc0\xdb \xf6\xf5?J\xec|\x1b\xf1\xa3H\xd4\xd7\xcf\x13(q\x81$L\xe3 \x13\x8c\xe2\xbaG\xf1e\xbd\xb3\x8b\xc5\x98\x80\xcc8#\x1c\x9e\x95\xd1\xe9^(\x92\xfe5D\x94\x06\\op~\xe8\xf4\xad\x15\x9aXc\x12\t\xf2Y\xbe]\xc3\x93\xf4\xa8\xe4\xbc\xff\x00D+tv\xb3B\x02\xed&lt;\xe7=\ry\x0f\xc6/\x1e\xcbk\x1d\xc2i\x9a\xe4kr\xa3o\x913\x8d\xac=9\xef_&gt;I\xe3\xc6\xb0\xd6m\xb4\xcf\x13i\x02\xe7I\x9eS\xf6\x84e\xfd\xe5\x84\x8cx\xc1\xee\x8d\xdc\xf4\x02\xafx\xfbN\xf0\xae\xab\xa6-\xa6\x85q\x19\x8dWu\xb9\xc8\'\xcb\xfe4c\xd8\x91\x90+\xe7\x8d[J\x97\xc1w\xd2\xa7\xcd;\xef1\xb4l\xd9\xda9 \x8fj\xfcG\xb8\x98)\xd9\xe5\x93\x9e\xe0Rp\\zm\xe4\xd2\x06\x0cvdq\xd2\x94\xa9\xce\x1b\x8fsQ\x94\x90?\xcf\xf7GN:\xd14\xc8\xcf\xb4\'\xf0\xe2\x87\n\xd8\x01G+\x8f\xbdJ\xec\xa8\xc1s\x91\x8e@\xa8\xee7 \x0c\x06W\xb0n\xb4\x9b&lt;\xf8\x01\x19\x008\xcd9V06\x02\xc7&lt;b\xbe\x8d\xff\x00\x82z\xf8\xd6O\x86\x9f\x12\x17\xc7\x91E\xbaH\x19\xe2A\xb3\'\x91\xd3=\xab\xef?\x1c\xfe\xd4\x8d\xa8\xf8r\xd2{\xcb\xa7Gp\x1c}\x9a|\x9c~\x15I\xff\x00k\x83\x0e\x94\xba\\\x1e,YZx\x1b\xfd\x15\x8e\xe9\x07\x1e\xc7\x83\xefW\xbc\t\xfbQ\xea\x1e)\xd1\x9bG\xbb\xd6\x02_\xe9\xcef\xd3\xdaIG*\xbc\x94\xfcq\x8a\xf5o\x0b\xfe\xd5\xd6\x9e!\xb1[\xdd\x13T\x8a+\x9d\x86)\xed\x1c\xec \x91\xb4c=H&lt;\xd7\xb0\xfc7\xfd\xa9\xed\xf58-\xe1\xd6\xa5\x0e\x8d\x84\x9d\x84\x80\xec#\xb9\xafx\xf8w\xf16\xd7Pq\xf6K\xc8\xdaD\\2\xe3\xefg\xa7\xe3^\xa9a\xaa\xb6\xa3o\x0c\xb1\xbe\x1dp_=*Mf\xe0\xcc\x8f\x03NPyg\xf7\x9bq\xce?\x9dx\x97\xc5\xaf\x86:\xca\xcf\xfd\xa1qt\xedm3\x8c\xc8\x10\xf1\x93\xeb\\\x86\xa9\xf0\xf3PM2}Ji-\xda8\xe2)::\x0f\xde!\x18\xc8&gt;\xb8\xaf\x9a\xbfi\x1f\xda\xff\x00\xe1o\xc0+\xb1\xa2[\\\xbd\xf6\xbc\xeb\xe5\xc5\xa3\xe9\xcb\xe6\xc8s\xc0\xca\xaeJ\xe4\xe0d\x8a\xf93\xc6\xfe/\xfd\xad&gt;=\xdd\rz\xdeh\xfc\x19\xa7\t\x19\xad\xe0\x99\xb7K9=\x0bzq\xda\xbf9\xa6\x8dB\x93\x91Q\xc4\x01\xf9I\xc6F)\x1c\xa4O\xb5Ss\x0fAB\xbb\xc8x\x1c\xfa\x1a\x1c\x80s\x11\xcb\x0f\xbc\x0fAQ\xca\xe5\x06\xff\x00\x91\x89\xf7\xa4)\xe6(iI\\\x11\x92;S\xca\xaa\x8cF:\x0c\x9c\xf5"\x8c\x07\xc6\xee\x7f\xd9\xefM\x99QJ\xc5\x1c\x8a\x01\xe4\xf3M\n\\\x98\xf0W\x03\x96=\xeb\xd2\xbe\x05\xf8\x93\xfb\x1e[kx\x8b\xae\xeb\xf0\xd3\xe0s\x8c\x8f\xe7^\xaf\xf13\xc6^&amp;\xba\xd2\xfc\xff\x00\xb6H\x96\xe6\x14\x07\xca&lt;\x02\x0f\x00\x1f\xe7\\\xaf\x84&gt;"\xc9e\xafC\xabx\x9e\xfe{\x94g_&gt;\xde\x17\xc1UR&gt;\xe9\xfaw\xae\xeb\\\xf8\xb1tn"\xd5|=\x7f%\xb4\x89\x11H\xe4r\t\x08G\xdd`?\x9dA\xe1/\x89\x1e \xd2\xb5#\xa8[\xdeI\xe6I .\xa1\xcf\xef\x0f\\{}k\xd8\xfe\x1c\xfe\xd6:\x96\x98\xe2\xd3_P\xc9\xd1\'Y\xb0\x7f\xdd#\xfa\xd7\xda?\xb1\xaf\xedYe\xe2]th\xaf\xa9\xac\x92K(6\xe8d\x04\x02\x07\x1c\xf7\xe6\xbe\xf6\xf8e\xaa\xff\x00hi\xc5\x85\xc3\x1c\x80\xd2n?u\xbd+\xd3\xedlm\xf5;B\xc9n\xac\x85\x02\x92G\x7fZ\xc0\xf1\x84\x1a\x17\x86t\x1b\xbb\xcf\x1aj\x96\xd6\xbadp\xbc\x97s\xdf`E\x12*\x92I\'\x18\xe0\x13_\x9c\xff\x00\x18?j/\x8e\xff\x00\xb6w\x89/\xfe\x11~\xc5q\xc9a\xe0\x9bi\xa4\x83Q\xf8\x8dq\x16\xd5|\x12\xae\x96\xd9\x18|\x0c\xe1\x81&lt;\xd7#\xe1\xef\xd9#\xe0\xc7\xc0X\xe4[\xc9\xc6\xb5\xe2i\xc1{\xddcUc5\xc4\x92\x1f\xbc\xc3=0y\x00TZ\xd7\x81\xd7Z\xdal!\x0b\x1a\x1f\xbc\x91\xf5\xfc;W\xe2\x8c\xa7l`\xe38l\xe3\xf1\xa6\x9b\x83\xd3\xc9\x03=8\xa6H\xa4K\xb9z\xb2\xe34+\x05\x18\xce\x08=\xfb\xd2c\x04\xb0\xee9\xa0D\x0b\x05f\xeb\xd6\x983"le#ss\x9fjW\xdc#\x0eT\xe4p\x06)X\xecp\xe0\xf3\x8ej\'\xc6L\x8e1\xdcf\x89d$\xe4\x1c\r\xbdMt&gt;\t\xd5_O\xb9wl\x8eT\xaex\xcf\xd2\xbe\xca\xf8)\xe0\xcf\tx\xff\x00\xe1\xdd\x9d\x94\xb6\x89,\x92g\xcc\xf3\x9cn\x12\x01\x9d\xa4~\xbfJ\xc3\xf1\xc7\xec\xcc\xd7\xde4\x87\xc3\xfe\x1a\xb4Y\xef\xefp\xc9\x12.\x12\x04\x07\x92q^\x99\xe1\x0f\xf8%\x0f\xc7\xef\x1e\x80\xf2\xeav\xd6P\x1d\xaa\xaa\xc3\x198\xe9]T?\xf0D\x1f\x8f\x17\xf1y\xfaO\x8c-\x8b\x89\x9b\x80\xa7\x04c\xb56\xd7\xfe\x08g\xfb_\xdc\xc3=\xd7\x87\xb5\xbb9\xc413\x08v\xb1w^\xe4\x0fL\xf1\x9a\xe2\xbf\xe1\x9d\xbfl\x8f\xd8\xdf\xe2e\xa7\x89u\xbf\x04M46\x17J\xd2\xbd\xb8s\x1c\xa9\xf7\xb6\x92\x06\x01e\x07\x15\xfb\x1f\xfb.|C\xd3&lt;g\xf0\xebB\xf1}\xbe\xa3\x1cq_XD\xeb\xe76\xdd\x84cz\x9f^r3L\xfd\xa4\x7f\xe0\xab\xff\x00\xb1w\xec\x95\xa4\\\xa7\xc4/\x8a\xb6W\xfa\xa4 \xacz\x16\x92\xe6y\xe5l}\xcd\xa9\x92\xb9&lt;d\x8c\x0c\xd7\xe4\x1f\xed\xa9\xff\x00\x05\x8b\xf8\xd1\xff\x00\x05\x02\xf8\x9f\xa3|\'\xb4\xf3\xbc%\xf0\xf6\xf3[\x8a9\xb4\xcb9\xca\\_FeU\rq \xfb\xc0\x83\xd0t\xef_C\x1f\xda\x0f\xe2?\xc3\x9f\x81\xb6\xfe\x13\xf8[\xe1\xabM\x03A\xd2\xa1kX\xae\xee\x10!m\xa0\xefn\xc7$\xe4d\xf7\xaf\x17\xf8a\xe2\xbf\xda\x0b\xe2\xd7\x8f\xe5\xf1`\xbc\x92\xfe\xde)Ls\xc8\xa5\x9d";\x80\xf9\x88\xe0s_Z\xe8?\x0b~-I\xe1\x8b}N}B\xd6\xddea\xb5D\'\'\x8a\xfc\x1a\x96(\xd9~F9\xa4tTU\x0f\xc9\'\x8ez\xd4n\xbbX\x13\x1e9\xf5\xa5hC|\xe7&lt;s\xd2\x90\xf2\xa7\x1e\x94\xa5X\x9c\x80O\xc9L\xe1\x80\x00\xe7\x1dq\xda\x9b)\x8c\xb2\xedc\xf7\x85\x0f\x86m\xb9\xebM\xe8|\xa9\x86=\t\xa7\xc7g,\xf2}\x99"r\xdd\x82\xaeO\xe5]\xd7\x84~\x00x\xbfX\x82+\xeb\xc5\xb4\xd3\xe2\x92\x16\x93\xed\x17\xd7"&lt;\xa8\x19\xe46+\xd8&gt;\x04\xfcB\xd4~\x18\xeb\x10\xe9\xd1E&amp;\xb7r\xc3)e`\x0e\xd2Le\t\x18\xeb^\xaf\xe0\xbf\x8b\x1f\x1c\xf4mr\xff\x00\xe2&amp;\x97\xe1]\x1bBK\xb2B]k\xd3\x03\xb7g;Sv3\x9cr\x05k\xea\xdf\xb7\x8f\xedqwp\xf7w\x9f\x1dt\xdd\x16\xc9\x90\x0f\xf8\x97\xd8\xfc\xa1\x8f\xcb\xc1 \x8c\xfbW\xb2|\x01\xf1\xd7\xc5\xcf\x8ami\xa5^\xff\x00\xc1D&lt;Mj\xb76\xc6h\xa1\xd3\xb4t\xcb\x03\xc6T\xf9_2\xe7\xb8\xe2\xbe\x8a\x9f\xf6h\xf8\xb5\xe2\r\x0e\x0b\x8f\x87?\xf0T\xaf\x14Iy\x1aI\x1a\xc7$0\xae\xdf\x98\x10H\x08\t\x1b\xbf&gt;\x95\xf0\xf7\xfc\x14\'\xe2o\xfc\x14\xc7\xf6o\xf1\x15\x87\x87&gt;6\xfcy\xb9\xf1\x06\x8b\xa8\xa9\x8bH\xd4\x92\x08\xde+\x81\x1cd`\xed\x1f{a\xdd\x8e\xb8\xe6\xbc/\xe0f\xaf\xfbp\xfe\xd4\xfe(\xb4\xf8\t\xf0\x93\xe2\x17\x89oZt(l\xac\xefLp\xc2\x85\xb9-\xb7\xa0\xe7\xa7z\xfb;\xc0\x1f\xf0l\xbf\xed\t\xe2\xdd\'\xfb\x7f\xe2W\xc6\xbb=2\xfe\xe0,\x92\x8f!\xa7\x90\xe7\xa8b\xc4\xe7\xf0\xe6\xbcs\xf6\xaf\xff\x00\x82\x1b\xfe\xd7\xdf\xb1\xfe\x9e\xff\x00\x13m\xa0\x8b\xc5z6\x950\x9a\xee\xebFbe\x89W\xe6\x0ec\x19!@\x19?J\xfa7\\\xf8s\xe1o\xda\x7f\xf6\x08\xd0\xfe\'h\xda\xcc\xc2\xe5\xb5\xcd.=R\xc6\x1c\x85\xb6\xcb4Z\x86\xfcv\xe6\'Pz\xed\x7fC]\xe5\x97\xc0\xcd\x7f\xf6C\xd3\xf4Ko\x84VZu\xd4z\x9d\xf2\xc9s-\xfba`\x88\xed\x89\xd5\x83}\xe52:\xe5\xbf\x875\xf4g\xc1O\x8a&gt;\x1a\xd7-\xef&lt;-\xe2\xe2\x9a.\xa9\xa7\x15k\xab(\xd0\x18\xc9?\xc4\x0bz\xd7\xf3P\x91F\xab\xbbq\xf6&amp;\xa2\x93\xf7\xce\x17\xd0\xfc\xb4Lp6\x9e[\x1cc\xb55ZA\xf7\x9b\xea(\x1f9\xf9F}G\xad\x00\r\xf9T\x03\x1dF\xeag\t&amp;W\x9d\xc7\x04\x8a\x18*HX\x9e\x9c\xd3$\x8d\x81\x07\x04\xf9\x9c*\x8e\xb5\xbf\xe0\xcf\x87^)\xf1\xbe\xa6\x9av\x83\xa1\\]\xcaQXE\x04l\xcd\xb4\xf4n\x07\x03\xdf\xa5z\x14_\x0e\xe5\xf8qn\xd7\xb7~U\xb32\xeep\x13/\x91\xd7$\xf0G\xae+\x17\xc4z\xe8:r&gt;\xd9\x18\x89J\xb4\xb23d\x1e\xbbq\xdb\x8aw\x81\xfcY\xafxK_\xb5\xd5\xa3\x99\xa3\x11:\x95\x91\x06X\x0c\xf4\x1e\xf5\xeb\x9e&gt;\xf1m\xd7\x88\xf4\xfb\x11-\xec\xf7\x16\x85\x89\x8d%\x97\x1b\x99\x863\xc7\xbdy~\xb16\xbd\x7f\xa9\xcf1\x92y\x8cN\x160\x84\xed\x00\x7f\x0f\xd7\xde\xbe\xfc\xfd\x82\xff\x00\xe0\xa0\xde0\x83Z\xf8!\xf0Z\xfb\xe1\xb7\x86\xa0\xb6\xf0\x04s\xf8r\xdbV\x8bO\xcd\xc6\xa1c\x7fx\x92\xb9\xb8\x05\xf6\xac\x89\x92\xab\xb3q+\xd6\xbft\xfcK\xfb\x15\xfc\x02\xf8\x8d\xa2E6\xa7\xe0\x1bX\x1e\xe2\xc7\xcb3\xda\xabD\xea\xcf\x83\xb8m\xee3\x9a\xfc\xe1\xff\x00\x82\xed\x7f\xc1;\xed\xfe\x1e~\xc6\x1a\xf7\x8a4?\x11\xdfj\xb6z\x0c\xf6\xf7\xf6\x90\xde\x9d\xd2Y\x15\x93k\xec=@(@\'\xa7\xca}+\xc3\xff\x00\xe0\xd8\r\x0fO\xd5\xae\xfe#x\x92\xefO\x89\xefm\xaf4\xf8\xe2\x9aDVdV\x88\xb3*\x9f\xc3\x9fJ\xfd\x98\xd3\xa1\xbckr\xa4n\xc3eJ.p=&gt;\xb5\x97\xe2\xdb\x1d+R\xd3\'\xd3/"\x8d\xa2\x9d\x18\\\x0b\x98|\xc5\x93#\x1c\xa9\xea\x07q_\x9d/\xf0\xcf\xc2\x7f\xb1\'\xed=\xa9\xf8/\xc4Z{\xc1\xf0w\xe2\xd2\xfd\x96\xe4\x90Z-\x13Tw\xda\x93)\xfb\xaa\x8e\xcc=+\xeao\xdb+\xe0\xee\x9d\xf1\x0b\xe15\xc5\xff\x00\x85\xad`\xd3u{M&gt;=\xb6\x96\xa443\xcf\xf6eY\xa1\xc8\xe9\x1c\xc0)\r\xeb\x929\x15\xf9\xe9\x17\xc3\xcf\xda\x96\xe7\xc5\xa7S\xf8\x82\x93G=\xa5\x89\xb3\xb7\x8a\x1d\xca\xac\x81\xd4\x868\xe4\x9d\xaa\xa0\x13\xea\xd5\xf8\xd8\xea\xce\xa1\x00\xc0\x1d\x8d6E\xd8\x03\x8f\xe19\xa4e\xce$\xeez\xd4r\xe7\x04\x8f^\xd4\xa5G\x95\xd4\xe5\xb88\xebL\x1b\x06\x03\x92@?)\x1e\xbe\xf4.v\xf09\xddI\xb49!\xce\xd2x\x1b\xb8\xadM:\xca\xda\x03\x14\xeer\x122e%wm\x18\xe7\x03\xb9\xf6\xaf\xd9o\xd9+\xe1G\xec\xe1\xfb&lt;~\xcf\x1e\x18\xf0\xf3xr\t|K\xe2\xbd-o5\x8dmbY63[\xa11)?uB\xb9\xfa\x11_\x1f\xfe\xd5\x9f\xb2\xef\xc5\xf8&lt;;\xa9\xfclO\x0ey&gt;\x0f\x8f[\x92\xde\xd6\xf9\x9c\xc7\x94feW\xce8R\xca\xca\x18wR\x07"\xa0\xfd\xaa?c\x0f\xd9\x8f\xe0?\xec\xdf\xf0o\xe2\x87\x81\x7fj\xfd\x1f\xc5\xba\xe7\x8dt\x89g\xf1^\x87c4&amp;m\x12\xecyx\x8c\xacld@K\x15"P7`\x8a\xf1\xf7\xf8}\xa3\xeb\x9a^\x9f\xaf\xf8K}\xdb]N-\\\xcb\x1e\xd8\xd2V\xe12z\x0fZp\xf0\xc7\x88&gt;\xc6\xf6Z\xb1[y\xa2\x93\xfd\x1e,\xf6^\xb8\xf6\xab\xda\x1f\x82\xb5=s@&gt;-\xf0\xf6\x8e\xd7%n\xa4\x86\xe6\x14R[v\xd3\xce\xd1\xf9\xd7\xd1\x1f\xf0Mo\xd9\xcf\xe2_\xc4?\xda#A\xd5\xa0\xf0t\x91Xh\xfa\x8c\x177\x92\xddB\xc8\xad\xb3\r\xc1#\x19\xe3\xf3\xaf\xe8\x02\xfb\xf6\xb7\xf0/\x82t\x884\x9f\x128[\xc5\xb6]\xb0\xc1(f\xdc0:\x03\x9e\xd5\xf1\xcf\xfc\x14k\xf6\xa1\x9b\xf6\x8b\xf8+\xe3/\x84\x1e\x1f\xf0\x90]\'S\xd2n`\x92\xfa\xe1\xfebB\x9c\x10\x0f\xe7^=\xff\x00\x06\xd7|\x1a\xbc\xf0O\xec\xb3\xe2/\x89\xda\xcd\xac\xd1I\xe2_\x13\xca\x96\xac\xcb\x8d\xd1\xdb\x85@G\xa8$\xb8\xc8\xfe\xe9\xf4\xaf\xd4-%\xa6tK[\x007\x1c\x1f\x9b\xd6\xb9\xdf\x16iz\x84:\x93[\xdc&lt;as\xd5\x1f\xd7\xady?\xc7/\x80\x1e\x10\xfd\xa0&gt;\x1b\xdf|&lt;\xf1\xd6\x9d\x14\x96\xf7\x90\x9d\xd3g\x0f\x0b\x8c\xed(z\x83\xdf"\xb8\x8f\xd8\xd3\xc6\x9a\xdd\x94z\x87\xeco\xfbI\xea\xedo\xe2\x8f\x0c\xdb\x08\xbc7\xab^\xc8\x04:\xe6\x9e\x1b1\xb2\xb3c2\xa0\xc0\xef\xd2\x8f\x1a\xf8+W\xd4\xfcWw\x0e\x88bi\xed\xdc\xa5\xd4\x8cT\xa1\xfe\xee\x0f\xd2\xbf\x986\x94\x97\x03\xde\x9d"\x92\x84\x11\xd4T|\xc4N\xf1\x90P\x81\xedL \xe3\xd3\xd0\xd3\n\xca\xa3p|\xe3\xb0\xefJ\xaa\x08\xdax\xe3?\x8d\t\xdcg\x14\x91\x10\xd2\x10\xe38\xe9\xeek\xa4\xd1\xed\x955\x18\xa1`\x1df@\xbc\x9e2{\x1a\xfd\xa3\xfd\x965o\n\xdd~\xc2\xbe\x0b\xf8\xa7\xa8\xda\x0b\x88,\xecaMV\xe0\xc7\xe64\x029&gt;\xcb.}1\xf2\x92&gt;\x95\xc0~\xdb\xde/\xf8\xa9\xf0_\xe1_\x8a\xbffMv\xda\xfa\x7f\n\xeb\xd2\xdb\xbd\x87\x90\x8aR\x15\x8ec0\x8d\xf22\xdf\xbeb\xc8\xeb\xc1\x04\x8a\xfc\xdb\xf1\xc7\x86u\x08|1\xf6\xbbH\xc1k,\x1d\xc7v\xe6Pp\xf8\xcf\x07\'\x9e=+K\xe1\x7f\x88M\xaf\x85g\xb2\xbd\xf1\n\xac\x11\\\x1b\x98-\xa3 \xbc\x9b8\x04\x0e\xbc\xfa\xd6\x17\x89|o\xa8\xc5\xaf-\xe6\x97,\xdec\xca\xaf\x00\x94\x9f\x93\x07\xa1\xcf\xad}\x8f\xfb\x1e\xeb?\x0f|-\xa4C\xabx\x82\x17H5\x9f"\xf1I\xda\xc0J\xa3k\xaf=9\xe0\xfdk\xe9\x9f\x86\x1f\xb6\xed\xbbOy\xa0\xf8W\xc1_\xd9\xedk\x94K\xb8\xe3X\xfc\xc5\xf5\xe9\xcdk\xc9\xf1o\xc5\x9a\xa6\xa0uMFY\xa4I&gt;ey$;\x87\xb0\xac\xab\xbf\x19j\x9a\x85\xea\xdb\\\xb1"\xe3(Q\x9f\xe5\xc3q\xcf\xe7_|\x7f\xc1;\xbc\x07\xa0\xfc?\xfd\x8d|\x17\xe1]\'MX#\xb4\x82\xe8\x05\x0b\x86\x92F\x96Wi\x0f\xb7&lt;\x1fq_D\xf8B\xf0\xdaHJ\x85A\xb7\xef\x11\x9cU\x1f\x13\x18\xafn\xdaiO\x98\x01\xfb\xdbp+\x94\xfe\xcf\x90\\4\xc9(\x0b\xbf \xe38\xae\x17\xe3\xef\xec\xe9\xe1\x0f\x8e\xde\x12]\'Q2i\x9a\xbd\xa1o\xec\xddv\xc9\x8a\xcflH\xfb\xb9\x1c\xba\x93\xf9W\xc2\xbf\x11\xbfe\x0f\xf8)\xd7\xc2\xbf\x10\xcbe\xf0\xe3\xe2\x8a\xf8\x87L\x95\xcf\xd9\xeeer\x8e\x17\xb09\xeb\x8fZ\xfc*\x8d\xe3W;\x93&amp;\x9b\xe6\x1f7\x9eA\xe8(\x91w|\xbe\xa3\x14\xd7Q\x12\x05&lt;\xd3\x17\xa8\xfa\xd3[\xef\xb7\xd2\x9bJ\xbc0&gt;\xf5\xb1\xa6\xddb\xc8]e\xb7#\x8cs_\xb2\x9f\xf0o?\x88\x87\xc7/\xd9\xf7\xe2?\xec\xd1\xe2\xdbU\xb8\xb7\xb4\xcd\xe5\x9c\xb3\xa8d\x8d.\xa0x%\x8f\xd7\xef\xa4r\x0fpk\xd2~+\xfc\x14_\xdaw\xf6a\xf1\x87\x87u[\xe4\xd3\xf5\xbf\n\xab}\x93R\x88\x96W\x10\x02\xa5I#8r\xa7&gt;\x99\xaf\xca\xcdoC\x17v\xcf\xa7]&gt;\xecH\xd9]\xdf(\x1b\xb6zz\xf3^Iqz\xda\x0f\x8c\x8d\xbd\xba\x0f"9\x08\xf2\xc7\xf7\x1b\x8d\xbf\x9d7[\x18\xbbK\xb2\x01/ *=9\xaf\xaa\xff\x00e\xeb\x8bO\x10\xfc\x14i\x1e\x02\'\xd2u_*7n\x85J\xf9\x87\xf5\x15\xf4\xb7\xc1\xcd\x03A\xfe\xcf\x91\xae,\xf7\x16\xda\xfb\x82\x8c\xe7\xfc+\xa4\xf1&amp;\xb5f\xb61\xc1mh\xc9\xb3r\xe6\xa3\xf0\xfe\x8d\x1b[\xbe\xb1;\x961!\x91\x17=\x08\xe4W\xea\'\xec\xbdc\x06\x99\xf0O\xc3\xd6P\xa0\xc4zj\xb8\xfa\xb7Z\xf5\x9f\x07\xe9\xe8\xd7-&amp;\xec\xee\xecz\n\xcf\xf1R\xfd\x92y\x16E\x0e\t8\xed\x8a\xe7~\xc4\xc6\xdeI\x84\x98\x0c\x0e\x05G\x01Pf\x8al\x9c\x01\xc8\xaa\x1a\xe4\x8f\x08\x8a(\'p\x14\x1e\xa0\x1e\xb5\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00\x1e\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf9s\xc6\xda\x9c\xe2\xe1\xd2 J\xedd\x91_\x90\xdc\x1e\xdd\xeb\xc1\xbe \x88-Q\xad\xc6\xd5\xdcN\xd5T\xc0_\xa7\xa5x\x8f\x8a\xee&amp;\x86\xe5\xe1\xf2w*\x13\x9e3\xd6\xac\xf8.)\xe6V\x8e(X\xe1\x015\xf6\xaf\xc4{\xd9a\xbf\xfbB[0^IX\xcfOz\xf1\x1f\x88\xce\xd2\xb12Z\xb3\xba\x92\xe3\xe9\xef^=\xe2i\xe2\x85n\x04\xd68f\xe47|f\xa0\xf0^\xa3z\x8a\xe9o)F\x087\x1d\xd8&amp;\xbe\xd2\xf1u\xc8\xbf\xb9{\xbb \xca\x8c0Ku\x07\xbek\xce\xbci\xa5&lt;\xd0\xc9\r\xa8\x8eG\x91v\x96(\t\x1c\xfa\xd7\x86|A\xd0ol\xe5\x9a\x11j\xfb\xc2\x95,\xc3\xf9W\'\xa0E,R&lt;"\xe9\xd5\xc2|\xc41\xcd}\xbf\xab_]\tM\xb8\x11\x80]\xb2\xdb2H\x00\x9c~\x95WA\xd3\xb4\xbd[P\x93I\x93NBZ!.\xf79\xfc3\xdb\xdb\xde\xb8\xcf\x8e_\x0b\xf4\xd8\xa1\x86A.&amp;\x946\x19N\x14.\t\x19\xf5&gt;\xf5\xf3&amp;\xb5`\xdaV\xa1,1I\x89C\x90\xee\x9cdW\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\xbe\x00\xbf\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfd\x0e\xf0\xe7\xc0\x0f\x05\xe8\xb3\xb5\x95\x96\x82\xb2"rd0\x85Q\x8e\x9c\xf6\xae\x8fN\xf0\xcd\x86\x95*\xbd\xbd\x92\x04\xe0\xe1T\x11\xb9\xbeV\x19\xf6\x02\xba\x8b\x17\xb7\xb3\xb5\xfbQ\xb1\x11H\xdcd\x8e\x87\xe9\xda\xb0u`\x0e\xab4z\x94l\xa2_\xb8B\xe0\x9a\xceM?V\xbb\x9c\xda+,Vry\x8b\x0b\x17\xf9\x8e\t\xc3\x11\xe8k\x8f\xd0,|Fu\x0b\xaf\x0fk\xdb\xe2\x82\x0b\xad\xd6\xb3H\xc1\xd6F\x1dH\xf4\x06\xa4\xd5\xfc?g&gt;\x97%\xe7\x94\x16N\x04\xa1\x0f\xcc\xa0\xf4\xda:\xd7\x9e\xea\xde\x1f\x92]S\xec\xd7\x8e\xf8\xb4G\xf2#A\x96$\xb7\\zU\xdb\xdf\n\x1b0\xb3\xdaL^O\xb3\x81:\x11\x8es\xc8\x15\xcf\xf8\xf3\xc1v\x97\x8b/\x88R\xe4\x07\xf2\xc8[x\xd4\xb6Tt\xc9\x1d\rxO\xc4}N\xc7K\xf0\x06\xa5\xe2\xad\x1bM\xff\x00\x89\x80s\x04o*\xe4\xa1Q\x93\x91\xea01\xf8W\xc5\xff\x00\x124\xad\x07\xc2\xde7\xd5\xbc1\x16\xac\xd70\xdb\xc2\x9eE\xe4g\xe4y\xa5\xc4\xee\xd9\x1c`\x169\xf4\xacX[V\xf8\x11\xfbL\xe9\xfe$\xd2\xa1\r\x04w\x96\x8ft\xa1\xb3\xbe6d\xca\x81\xfe\xeeN=\x1c\x1e\xf5\x0f\xc4\x9f\x04\x99~"\xe8z\xbd\xecqAguyy\x1d\xfbK \xc2\x88\xe7%\x1c\x0e\xd8VL\xfan\x1e\xb5\xe6\xff\x00\x15\xf5\xdbO\tx\xbat\xd2\x94\x18\xaf\x95\'\x9d\x87(\xcd\xe6\x96\x07\xea\x14\xfe\x15W\xc7\x1a\xd8\x9f\xc4v\xfe\'\xd0mw\xc3\x1d\x8c\xb6\xf1\xc4\xc7\x8c\xca\xf9\\\x8fP\xa4\x01\\\xbcQ=\xe5\xed\xfe\x83\xbc\xc4\x85.!P\xceT\xbceC\x02G|\x10A&gt;\xa0\xd7\xa7\xea~ \xf1\x06\xaa\xfe\x15\xf1\x1c:\xacqGk\xa9\xc5\x033\x96\x08\x934~C\x168\xc0C\xbb$\xf4\xca\x9fJ\xe4_Z\x8fA\xd4\xbcE\xe1\x9dJ\x18\xeeV\xfe\xf0~\xf4\xae\xe6B\x84\x81\xb7\xbe3\xd6\xac\xf8\x0fR\xd2\xef\xaf\xaf4\xaf\x15\xa6\xfb\xeb]2\xf4[\xc4F\x17d\x91\xae\xcd\xa3\xd5[\x9fl\xd5\xeb\x0bS\xe3\xdd\x1a\xf3\xe2V\x83\xa5\x8b\xb5\xb3\x92\xcfL\xb9\x86ta\x91%\xb3\xc0\xae\x07\xf1\x01$=}ksI\x8e/\x0c\xfc/\x96hn\xd0\\$\r=\xa1n\x14\xc8\x92\x0f0/\xae\xe5s\x8cu\x02\xa9\xfcf\xb7\xbe\xf8\x9b\xa1[\xf8\xc6=@Gs\xa7\xf8o\xcf\xdd\x1c\x802\x81\xb5\x83g\xd5\\\x9c\x0e\xc0\x8a\x8f\xc6\x9e#\xb8\xd4&gt;\n\xd8i\xbfd\x1234\x17q\xce\x10\x0f\xdd\xc8\xa4\x9f\xc9\xf2\xa3\xd8W\xf4\xc54/\x13&lt;\xd7\x16\xc1v\xa2\xa9F\xe5H\x1cg\x8e\xd4\xdb\xed\x06-Cm\xc5\x93$L\xbc\x88\xc2\xe0f\xb3o?\xe1$\x84M\x1d\xf3\x86\x8c\x10\x10\xc5\x83\xcdd\xdc\xea\x17v\xd7\x0c\xf7v\xce\xec\xbfq\xdf\x18\xc9\xa2\xe3O\xb8\xdc.\xe7\xb4Nc\x1b\x90\x03\x9c\x11\xfc\xeb\x16\xea\xce\xc7M\x92H\xe1\x05\x8ew@\x1cs\xb4\xf4\xfd+\x97\xf1N\xa2-$\x10JA\xc0$yg!\xbd\x07\x1e\x95\xcaA\xa6Au\xa8.\xad\xe7\xabM\x1cry\xd1\x90r\xc4\xb7\x1cS\xef\xa5HA\x92i0~m\xc7\xb5g\xdb\xe9\x92\xc6-\xcd\xd4\xaca\xb8f\x0b\x13/;\x8f8\xc7\xa5x\xc7\xed7\xa1\xd9xo\xc3\xfed\x16\xb1\xfd\x99n%k\x88\x94r\xd2\xb2zzn\xaf\xcf\x7f\x14\xddZi\xba\xee\xad\xaak\xdaj\x1b\xd8|F\x1e\x18\xa6R\x04\x90y\x0e\xce9\xeb\xf7\x95~\xbcW-\xe3mM\xa6\xd4l\xef\xee\'\x84\xcd}\xa3\xc12\x18\xb2eY\x82\xed\xc1\x07\xbf\xc8?:\xe6l&gt;!x\x9f\xc5:\x85\xb6\x8d\x7fq\x13Mk,\xea\xd2\xaa\x12q*\x10\xcc\xde\x87\xe6\xc9\xff\x00tU\x8f\x88Z\x07\x86\xfcA\xe0Xe\xbcr\xde \xc5\xc2\xeaV\xcc1\xf6UW\x8d\x92U\xfe\xf6\xe5G\xc8\xed\x9a\xd6\xbc\xd24\x84\xf8ei\xe2\x18\xbc?\x1b\x07\xb8\x92\xc6\xf1\xa5m\xabmw"\xee\x85\xb2x\xe1\xa3\xe9\\6\xb7\xa3\xe9\xde\'\xf8\x8d\x17\x88\xb5\x8bR\xb6\xf7\xd0^\x9b\x87\xb5\xe0\xa5\xc2\xc4\xcc\x15Tv.\xd8\xc7\xb8\x15\xbf\xf1\x1bP\xbc\xf0&gt;\x90\xf6\xb6\xb6\xd1\xcf\x06\xb9\xe1\xf4\x12#0Y \x9c*\xca\xae\xb9\xe3\x04\x1e\x83\x9a\xe7\xbc!\xe1\xe4\xd6n4\x8dj\xfbO\x7f3U\xbdX\x1a(\xb2\x15\xb6\xc6\xe4\x1c\x1e[qd&lt;u\xad\x1f\x15k\xda\x16\xb5\xe2I\xbcC\xe1\xed\x1e\xde\x08\x8d\xbe\xc9|\xb8\xcf\xc91X\xb7\x0f\xf7I\xce=En\xfc6\xd6\xe2\xf8g\xe0\xcb\xfd3Y\xd3\xe3\xb8\xb1\xd4\xae&gt;\xd7!\x07h\x89\\\xc6\xe2\x1fa\x91\xbd[\xb1v\x15\x85\xe3\x07\xbe\x7f\x06\xd9\xc3\xa6^G:}\x82}o(\x84\xf9\x85\x14\t\xe28\xfb\xa7r1\xdb\xdbx\xf5\xaa\xde\x11m?J\xf0\xe6\x99\x0b\xea\xf8\x95n\xeflo,\x99\x0bm\x86U%\x0e;\xa9,\x80v\x18\xab\x9e\x08\xf1\xb5\xa6\x9b\xe0\xab(5\xc8_\xec\x96\xcc\xfa|\xd1G\x17\xfa\xa0\x8cd\x892z\x90K\x8f\xf7pk\xfaoK+\xdb\xcbf\xd9*\x8c\xc6\xcaw\x1e8n(Hn\xed\x94\xc8\xf2\x83\x8f\xbd\x83\xc05V\xf5\xee\x92P\xe6e1\xfd\xe6\x18\xe8}+\x07\xc4\x977\x93_\xc1um\x02\xb2!\xfd\xe8\xc7\x0c\xa7\xa1\xfa\xd2_\xdd\xa7\x9f\x14\xf2\xb1`#\x03~q\xb4c\xd3\xbdf\xf8\x8e\xdc}\x94\xcf\x19\xdcX\xff\x00\xac#\x9c{W\x03\xe2}:\xde\xebQ\x82\x08\xa1\x93\xcc(YO85\x8d\n\xfd\x9e\t\r\xc6\xd61\x1f\x9d\x97\xa0\xf6\xcdP\xd2t\xff\x00\xed[\xa9nd\x9c4ox^$\xce@P\x08\xd9\xf5\xcfjdQj\'Pw\xba\x90\t-\xb6\x8d\xa4\xe0)\x0b\x82\x7f:\xf0o\xdaJ\xefQ\x9ad\xd1R\xe8\x1cn\xba`y2 =@\xee9\x1f\x9d|\t\xf1\xb7K\xbf\xf1o\x8c\xb5mA\x15\xc8\x99%\xb8\xb7.8B\xb2\x13\xb4(\xf5B\x00\x1d\xf1\\\x7f\xfc"\xfa\xd7\x83\xdfL\xf1\x84\xb6\x0f|&gt;\xcb\xb9H\x07j\xdcy\x98P\xc8y\xda\x14\x8c\xfb\x9a\xae\x9f\x0f5;\x8bO\x10x\xc7F\x83u\xb4\x82)\x88H\x8a\x98\x8c\xaf\xb7\x1e\xa0g\x81U\xfc"\x96\xb1\xf8\xb6\xde=r%\x8a\xf1\xacu\x15\xbfk\x85?t[3\xc6\x00=X\xf3\x81\xdf\x07\x15k\xe2\x86\xaf\xe1[\xdf\x85\x1a\xb7\x86\xf4\x9dd\xc97\xfc$\x89:,HrmI\x0f\xe6\x95\x1d\x082\x1f\xa0\x06\xaa\xdb\xf8\x1fS\xf0\x9b\xe8\xf6\x1e%\x85\xdaK\xcdRq#\xc2\xd9\xdb\x1f\x93\xb9\x1f\x1d\x81\xca\x9f\xc2\x9b\xf1?S\xbe\xf1\x97\xc1\x19u\xfb\xfbM\xd7\xd6\xf2[\xd8\x01\x0c_\xea\xd3"8\xf3\x8e\x87hP~\xb4xV\xfb\xc4&gt;#\xf8n\x92X\xdb\xf9\'G\x9e\xde\x13 P\xbeT\x843+\x03\xfe\xea\x00j?\x05x/G\x9a\xd6\xebV\xd5\xe5X\xe3\xd6$\xb2h\xdf\xcc\x18\xb5-+!\xdc;cr~U\xb7\xaax{K\xd5\xfe\x1e\xf8\xafL\x84\xdc^\xae\x96\xd6\xc29\x90a\xd8D\xa5\xc9Q\xd4\xa9\x00\x80G\x1f)\xf45\xe5\xf2\xf8\x7f^\xd64T\xf0\xfd\x8d\xfa\\An\xb2I\xa6\xe6`\xac\x16Y"\xf3A=\xc1*\xa7\x1e\x85\xab\xad\xf8\x99\xe1\xe8&lt;=\xe2=+R6\x02+I \x86i\x83\x1d\xa1\xa4X\xd5\x19\xf2{\xefM\xc5{n\x15\xd5\xf8\x97\xc0Z\x7f\x8bt/\x88\xba6\x97\xa6J\xd7v~%\xb0\xd64(\x1a"7Z\xcf\x16\xc6P\xa0d\xf0\xe1\xbe\x9c\xd7\xf4\x85.\xa1\x13D\x8dl\x00Wn\x83\xb9\xa9f\xb8\x8e[gWp\xa1v\xeeP\xbc\xd5\x1dR\xd8\xcaK\xdaNT\x0f\xbc\xac\xb8\xac+\xbbS\x1c\xdb&amp;g\x8d\x81\xde\x18! \x8fJdic{93\xc6\xc4H\x9bs\xb7\xa1\x1f\xca\xb3u+I\xe0\x88B0@?\xc5\\\xef\x89t\xa8\xaeP\\3*\xe3\xe5FC\xca\x91\xd7\xf05\xc4\xf8\x86\'\x86I\xe4\x81\xc8t\x1c\xc4\xab\x90\xeaz\x1f|V&lt;+&gt;\x93n\xf1\xbc\x9bL/\xbdGB\xd9\xe78\xac\xfdk\xc4\xd6\xb7vm-\xbd\xc3n\x97\x89\n\x0c\xe3=\xcdx\xb7\xc6\xbd&gt;]GQ\xb3\xbe\xb5\xb92\x1b\x12w\x05\\\x99\xe1%\x01A\xeax\xce=\xab\xe5\xef\x8a_\x07uI\xb5[\xadKD\xb8\x86)\xa1\x1bv\x83\xb71;\x12\x8cs\xff\x00|\xe7\xd7\x8a\xf0}x\xcf/\x88\xd6\xdbR\x8et\x8a\x15\x17\xf2\xa3\xb1\n#\xdeU\xc1\xec&gt;e\x19\xae\xc7A\x97S\xd1~&amp;|P\xf8Qn\xec,\x1f\xc2~i\xb7\xb9\xc6\xd8\xbe\xcdwo\x82\x87\xb7\x0eO\xd2\xb1u\xed\'J\x8f\\\xf0\x87\x8emB\xbc\x9al\xc2\xd7Y\xb3\x11\xff\x00\xaa\r$\x90\x16?\xde\x04&gt;\xdc\xfa\x8a\xf3\xbf\x8d&gt;\x15\x97\xe0\x7f\xc4\xa1\xa3j\xf1\x88\xec\xa5\xbdV\x96\xd9\x8e\x7fr\xd0\x02\xa8I\xe9\xf7O\xfd\xf2}+w\xc5\xde&lt;\x93W\xb1\xd45\xbd2x\xe32\xe9r=\x8d\xd6C\xack\x16"\n=2\x063\xde\xafxn[\xdf\x10~\xcf\x1e$\xd15=6\x18\xad\xd8\xa0\xb4\xbb\x8b\x96\xdd\x00\x0e\xb2\x7f\xe3\xcb\x93\xecj\x86\x8f{e\xa9|8\xd7u\xb8Q\xad\xe6\x16\x96\x8f2\xa4\'\xca,\xae"\xcezg\xe75K\xe1\xe4\xb1\xe8\xfe\x19\xf1?\x81/c\x8aH\xeen\x95t\xe9$\x07zI\x14\xab&amp;\x0f\xf7r2@\xf4\xae:\xc7\xc5^/\xd05\xaf\x10\\Z\xc2^D\xbe1\xa5\xaa\x92c\x91\x00\xf3\n{\xe67p=k\xb5\xf8\x1b\xa6\xd8\xf8\xee\xdc[h\xd6$\\\x1d6\xfa\x12\x85y\x12\xacBe \x7f\xdb2\x07\xfb\xc3\xd6\xb3~(\xda\xf8\x8b\xc4\x9e\x16\xd3\xed\xd6\xee\x17\xb9\xb2\xb3\xba\xbb\x87\x0e\x0f\x9b\x17F_r\x08?\x91\xad\xdd#\xc7\xef\xe1\xb8\xfc;%\xdc\xf2y\xd7:$0\x8b\xc7\\l\x968\x82\xc8$\xcf_\xb8@\xcfJ\xfe\x90\x92\xfe\xc0\xcb \x95xL\x94\x8d:\xfb\xf1U\xa7\xbe\xda\xb25\xaa\x90\x1d\x01\xdc9\xe3\xb1\xa15e\xbbF\xd9\x01\xf3]\x150\xe7\x05\x98\x0eN*\xbd\xda]\xda\xdd\x08\xde/3\xe4\xf9\x8e2\x07\xe3PM\x14QC\xe7\xa4\x00\x96;\x8e\xd3\xebY\x9a\xca\xda\xddE\xe6\xcb\x1b.\xd1\xf3\x00k\x92\xd5\x8d\xbb\xbc\x9eJ\x94H\xc6p_$\xfe\x15\xc2\xeb\xd7\x92]_\xac\xad4\x84\x96\xd8\x13a\x18\xc7@k?P\xf3$A)\x9f\x0e]U\x95\x87@\x17\x15\x85yf\xf6-\x05\x9c\xb1\x02\xb3&amp;\tQ\xed\x91\xf9\x8a\xe2\xfcU\xa7Z\xc6\x0c\xb3\xc2\x17\xcbRb#\x92\t\xe8H\xec+\xc6&gt;#\xf8a\x1ai\xb5H."\x8d\xe7\xb6x\xa61\x1ce\x93\xa1\xe7\xfd\xbc\xb7\xe3^/\xf1{\xc1\xba]\xe7\x8c\xad\xad\xad\xb4\x18\xee\x89\xd0\x9e\xd4\x8c\x85k\x82\xc8\xd20 wF\xe3\xea+\xcf\xbcf,\xb4O\x1a_x\xfa\xea\xe1\xa6\xba\xf1?\x87\xa1\xb6\x9d\x01\xc1\x99^(\x99\xc1\x1f\xc3\x86\x8c\x1fz\xe0,&lt;_{\xaa}\xb3\xc3\xda\x83\r\xcd\xa2\x0b\xb4\x91F\x1d\xe5i\xf2\x87\x1dxl\xb7\xe3Z\xba\xa7\xd8\x7fh\x1f\x12M\x1f\x8b\x9e6\xb9\xbb\xb3\x92\xd2\xcc\xee\x05\xbc\xf8mY\x91\x8f\xd7c\x81\xeaMp\x9aW\x86\xb5\r.\x0b\xef\x08\xeaj\xad\x0c\x1673.[\x96\xc1\xdcPz\xe5\xb3\x81\xeck~\xfa\x0f\xec;\x9d3D\xb7\xbf\xba\x8e\x1b\x91$\x1a\xa4J\xdf(Y\x00U\xda;\x90\xa0\x13\xedS\xeaW\x9aw\xc3\xdd\x1f\xc5_\x08\x91\xad\xee.%\xd4\xec\x9d5,\xee!\x07\x9aS\x81\xdbknn\xc1\x94W?\xad\xebz\x8f\x86&gt;&amp;\x8f\x1a\xd8\xa4wv\x8c\xd6\xf2\xce\n\xe01\x96#\x1b\xa9_\xe1\xe8\xc4{\x0fj\x8fC\xf0\x04\xb2\xf8GZ\xf1I[\xb5\xbf\xf0\xfe\xa4\x8f5\xa4\xa7ptS\x16\x13\x1dI0\xc8\x0e:\xe0f\xbbO\x80\x1e"\xd0\xbe\x1b\xf8\xc7F\xf1&gt;\xb3\xa6m\xd3\xf4\xff\x00\x18[\xa6\xa2\xcb\xc2\xbd\x84\xd2*LI\xe9\xf2\x89G\xd1Ehx\xf3\xe1\x04~\n\xf8\xa5\xadx\x0f\xc4:\xa5\xb4Me\xaa]\x8d0\xc6\xd8c"J\xc3\xca\xe7\xa8!7\x10?\xe7\x9f\xfbU\xe6\xfe?\xf0=\xf1\xbf\x8fA\xb2\xd7\xe0\xddun\xd3\xe9\xec\xcd\x91o$R\x14\x91X\xf4\x1b\xa3`G\xaf8\xaf\xe9r\t^F\x0fd\x844g\x90\xc9\xdb\xd2\xaf(B\xb9\xb7\x8dY\x9f\x86Q\xdb\x15\x1cW\t-\xd2\xdb\xcd\x02\xa4\xa8\xa4\x96\x9b\xee\xed\xf6\xaa\xb3\\\xde4R=\xa0v\x00`\x80x\x03\xb7\xd2\xaa\xcbqp\xd1$\x0f\x18W\n\x01\x07\xaeGZ\xc3\xd7\xee\x9dLV\xe4\xef\x0f\xb8&gt;8\x03\x1e\xf5\xc7\xea\xff\x00jGi\x97\x01Y\x0e\x17=@\xae.}R\xdbQv\x8b\xce\t\x89\x83\xc8@\xe5x\xacMR\xed-\xcb\x83\x13H\xca\x17\xcb#\xb8=\xcdW\xd5/&gt;\xd3\x18\x88"\xc54qy\x8a\xac\xdc9\x1c\x01\x9e\xc7\x1d\xab\x8d\xf1%\xe8\xb5\xb4\xbbTX\xd6\xf1\x97\xe6\x86s\xba6O\xf6\xcfq\xfd\xdct\xe2\xbc3\xe2\x9f\x89\xe2\xd0\xac\xf5\x1d\xd2&lt;2O\x04\x86\xee\xdeq\x92\x17\x03\x05\x0fs\xf4\xaf\x9a\xfe.\xf8\xcb\xc8\xd1\xed&lt;my\xaf\xc7s\xa5&amp;\xab K\x98\x01\x12\xda7$E.&gt;\xf2\x81\x8c\x1fL\x13^7\xac\xfcS\xd4&lt;Q\xe2{\x1f\x10jS\x16[iDf\x02F|\x920\xac\xc0t\xc8\xad\x8f\x12\xd8i\xdf\xf0\x96x7Z\xf0\xdf\x97\x1cz\x9d\x83\xf9\xe9\xbc\x10e\x8aV\x11\xab\x9f\xe1VL7&gt;\xb5\x0f\xc0+\x0b\x8f\r|`\xd2\xfcU\xaa\xc0\x05\xad\xbc\xef-\xd2K&amp;&lt;\x93\xb1\xd0\xe4\x1fM\xe6\xbb\xbf\x8a\xbe\x14\xd0\xb5xo\xbcii\xab\x84D\x8eY \x82\xdd\x01\x13D\xe0l\x19\x1e\xa1\xc9\xfc\rq\xbaF\xaf\xa4Yh\x96\x1a\xa6\xa5d\'\x9fL\xbc\x89\xef\xa6f\xca:$\x8b,@\x1e\x84\x9c:\x1faQ\xf8\x92\xff\x00G\x97R\xd3\xfcI-\xa2\xb3\xdf\xab\x0b\xd2\xdd\x19DO\xb7\x1fL\x8a\xf3\x9f\x0bkz6\xb3\xa2j\xba-\xdd\xe3\x1b\xb8\xd6\x13\x1e\xf6\xe5\xb0\xcc\xa3\x19\xeb\x8f0\x0f\xc4WS\xfb&gt;\xfcY\x83\xc3~0\xd5\xbc)\xe2k\x96\x07[\xb6\x9a\xda\xf9\xe5\x8br\xbc\x8bj\xeb\x01\xe7\xa7\xcf$`\x9fD\xab7&gt;%\xd0,\xbc5\xa6\xe9\x97\nZ\x0b\xc3#]\x07`\xc3\xe6@\x14\x0cza\x8f\xfc\x05j\x0f\x1d\xdf\xf8\xd6\xe3\xe2\x8d\xb6\xb9\xe3+\xf1{q\x16\xb0\xf7\x9b\x98\x92\xb2G$bN\xde\xab\xbb\xfe\xfa\x1e\xb5\x9d\xf1g\xc7\x1a\x7f\x87\xbe \xc7\xaci\xd6-%\xb6\xb3\xa4\xdb\xcc\xb6\xd0\xa1dYB\x00Dg\xb8\xda\x01lt=k\xfaS}B[iC\xb1\xc2\xed\xe4\x8a\xb1o\xa9\xcb\xb0\xcdm,{J\xe7;\t\xaaR\xdd\\Is\xe7&lt;\xa3 d\x91\xdf\xda\xa6\x9bU0\xdb\x16K\x81\x18\x9b\x1dGB;Vu\xfe\xabwx\xc0$\xacYK\x0f\xb9\x8f\xd6\xb1.M\xfd\xc3"d4\x8b\x9e$\xe1W\xeak\x9e\xd5l/.V\x7f5UYI\xcb+\xfc\xa3\x1dp}+\x8d\xd7t\xe8$\x8b\xed\xf0[ \xdf\xce\xe0\xf8(\xbd\xb8\xefX\x124\xd6\xe1\xee$\x8f&amp;R#\x8b\x8c\x96a\xedT%\xd9yp\xd6W$\xf9\xbd\x01Q\xcek\x9c\xd5\x9a\xde\xce\x7f&amp;\xe2\xdd.c\x927\x89%v\xc0\xc8nA?\xca\xbc\x0f\xf6\xc2\xf0L\x07\xc3\xd3\xeb\xb6s#\xc5im\xf6\x8bx\xe7}\xb2+\x03\x8d\x80\xf7\xcfP=+\xf3\xef\xc7\x1f\x18u\x8d2\xfbV\xf0\xcc\xef\x1b\x8f\xed)\x05\xe2\x8c:\xcf\x98B\x82\x00\xe0d\xf7\xf5\xaf\'\xd5|]s\xa7x\x9c\xcc +o\xb2$XY\xb1\xc0c\xc7\xbe\x05v\xfe\x15\xf8\x9b\xa7\xeb\x9e\'\xd24\xadFq\x05\x9a\xce\x91;\xc4\x7f\xe3\xdc\x1e\x01#\xa9\xf7"\xba\xff\x00\x17\xf8\xa2\xcfF\xf1\x87\x89\xbc\x13#\x96x\x96Km6\xf20Q$Pr\xb2\xe7\xd0\xae\xd3\x9f\xf6\x85g\xe9\x9f\x14\xbcB\xdf\x08\xecu4\xf9v\xc6\xf67\xcb#ga\x07\t\x9fB\x00\xc5`\xdcx\xdb\xfbF\xd8X\xd9\xdc\xba\xc7&lt;q,\xc0\xae\x14\x95\xf3?^G\x1e\xf5\xe9?\x0e\xbcA\xe1\x1f\x16x*m&amp;\xe1\xda\x1b\xdb\x1b\x98\x0bou\xfd\xe4O\xfb\xae3\xd0\x9f\x94\x91\xdb5\xe2\x92[\xcb\xe0\xbf\x19k\xde\x1b\xbd\xb0\x91\xee\x9bL\xb9\x825 \x86\x8a\xe5]0O\xd0\xc6O\xd0\xe6\xba\x1dJ[{\xad&gt;\xdf\xc5\xb6q\xc9c=\xee\x8d\x89\x90\x10\xfd[qu\xc7 \x96P\xa3\xd8\xd6/\x8c\xbcKg\xe2\x1dWF\xbeM@\xc6\xb2\xc8\x89y\x02\r\xa9\x1b\x89\t8\xfa\x87 z\xed\xf6\xafM\xf8iau\xe3\xbd\x1a\xce\xefL\xd4\r\xde\xa7`|\x99\x92y\x07\xef!F\x8c\xa1\x1e\xbf\xb9R\xbf\x8d?\xc6\x9e\x10\xd0\xb5\x8d\x13Q\xf8{\xa91\xb7\x9e\xd6P\x89t\x83/\x1a,\xc5\xc1S\xef\xbfi\xc7`+\xfa+\x8a8R6\x97%rrrr\x014\xf5\x95#u\x8eH\x89R&gt;}\xa6\xa3\x91\xed\xa2\x9c\xceX\xec\'j\xa1&lt;\x81\xebUf\x8c\xad\xc3K\x10\x12\x0c\xe3\x05\xb8\x03\xd6\xa3i\x126\x11*\x8d\xeb\x9c\x8d\xfc\xd6-\xf6\xa8\xf0\xca\xe3\xc9\x939\x08\xc4\x03\xc6:\xd4:\xc4\xf0\t\xe1\xb9x\xf7\x8d\x84q\xd8c\xd3\xbdr\x1e!x\xae.\x0cq\xa8\xdb\xce@\x18\xdc\x0fN=\xab\x92\xd4\xad\xeet\xd9\x8a\xb1m\x91I\x95@\xb9\xde\xd8\xe4\xe7\xebY\x11\\\x1b\xdbx\xd6\xe2\xdc\x87H\xc4\x86\x13\xf2\x95q\xc6s\xdc\xfbW3\xe3=+Sf\x9e\xf3H|\xaa\xa1Fh\xcf\xca\xfe\xb9^\xb9\xf5"\xbc\x17\xe2\x97\x81|A\xe3\xbf\x0ej\xfe\x16\x86YeX\xa2\x0e`Rx_@{\x0e\xd5\xe1\x1e\x03\xfd\x90\xfe\x12\x7fh^7\x8a\xaf\xae \xd5\xeef\x01-\xae0\x15\x15x&lt;\x9e\xb8&lt;f\xb8?\xda\x0f\xf6%q\xaa\xb4\x1e\x12{f\x9c\xab4q\x96\x18\x95s\xeb\xeb_:\xf8\x83\xe1\x8d\xcf\xc3\xef\x15\xc7\xa1x\xd6\tmDnQ\xccJs\x1c\xa0\xe0\x02}\x8f\x15\xbd\xe2\x88\xce\x8d\x06\x95}~\xefq\xf6\x8bY-$\xbb#;\xd8\x16 \xe7\xd7iQ\xff\x00\x00&gt;\x95\xcd\xe9\xfa\xa5\xef\x85$\xbb\xb0\xbf\xb9y,\xf5[\x1d\xd1\xe127)\xc2\xa8\x1f\xde\xc7Z\x82\xfeMcC\x0fouj&lt;\x94\x9dZ9#\x19\x000\xe3\x9f\xa5o\xe8\x9a\xfd\xae\x9c\xfa[Ah\xf0Ks\x02\xa4\xcb\x9e%x\xa4\xc9$\xf68*\xc7\xd0\x0c\xd6\xe7\xc6\xad\x115\xcf\x11Z\xf8\xefOwH5{\xbf\xf4\xab]\xe1\xb6Jc\x07*G$1\xcf\x15oK\x9b\xc3z\xb5\x98\xd2nM\x9a\xad\xec;-\xee\x03\x8c!a\x8c\x9fA\xbc\x13\xf8\xd7\x98j\xfe\t\xbe\x8e\xfeg\xf3\xbc\xa63HC\x7f\x02\x86?+\xfb\x05\xeb\x9e\xc0\x8a\xed&lt;)a\xa9\xf8\x12\xdc\xea\xfa.\xbb\xe6Gx\x16t\n\xa5%\x85\xc0\\\xa1\x07\xd7\xb7\xafj\xf4\xbf\x8dW\x9an\xb5%\xaf\x8ct\xcb\x98\x1e=B\x18\xd7P\xb0IB\xba\xb6\xdf1d\xe0\xe7\r\xbd\x7f\xef\x83\xe9_\xd0\xb41\xceZX\x18\xae\x06\n\x92z\xd3\xc2]]\xcc\xc8T\x00\x067\nC\xa6D\xbbZ\xe5\x8a\x0c\x0f\x98\x1c\xe7\xde\xa8^\xc8\xb6\xdb\xfc\xa6\xca\x16#w\xd0\xf1T./&gt;\xd1\x0bN\xb1#\xc8@\x01\n\x10N:\xfdj\xbc\xd7w\r\x08\x10\xda\xc6\xbb\xd8\x9d\xc3\x9c\xd6~\xb3oq-\x9a\xa2\xb6\xcd\xed\x96`\xb9W\xfc{}+\x13W\xd2\xad\xe7\x8b-\x00\xf3"\x18\x03a\xc0\xc7\xa9\xae?\xc4\xd2\xdd\xa2\x96\x87\x0e#\xdb\xc4k\xb8{\xe3\x15\x99%\xa4W\x12}\xa1\x08\x05\xdb\x9cTqh\x86\xd5\xdc\xc9:\x08\xe5,\x08\xeb\x8c\xf7\xaefO\x876\xf6\xba\xb1\xd5\xa0\xb8V\xdf\x0b\xa4\xa0/\x12\xfc\xdc\x0fr=+\x8e\xf1\xf7\xc0\xef\x0fx\xb9\'\xba[\x7f.\xe6\x13\xc4\xa1x\xc3|\xc7\x18\xed\x9a\xf2\xbdc\xf6{\xd6\xf5x\xbe\xdb\x043\x1f\xb3\x93\x19\x7f\x9b\xe5S\xce}\x85x\x17\xc6\xdf\x80w\xb7\x91\xdfC\xe3m\x04\xdf\xd9O\x16\xe8n\x16"\xb3A!\xe4g\x8c\x91\xef\xde\xbc\'\xc6\xfe\x15K\x1f\x07h\xbe\x19Kfhm.\xca\xbc\xa4d\xa3m\x00\x16=\x81\x0cH\'\xa8\x15\xcax?\xe1\x9bk\xd1^h\x9b\x1c\xea-\x00\xb8\xd2\x965%n\xb2w7\xccx\x18\xed\x8e\xb5\'\x8f&lt;\x1f\xab\xc7gl\x9a\x8d\x9e\x14N\xbem\xc2r\x18c\n\x18\x8e\x01\xf6\xae\x1bP\xba\xbc\xb5\xbf\xb3\xd3u;\x86H\x1cJ\xf1\xb8\\\x18\xcb\r\x8c}\x87\x15\xe8\xde\x16\xd6\x92m&gt;\xc6\xdfW\xd4\xd7b\xdb\xc7=\x9a:\xe5Y\xa1l\x9c\x9e\xc5\x95\x80\xc5S\xf1w\xc3\x9dO\xc1\x1f\x14\x9f\xc22\xc2\xe9\xbd\xd6H\x91\xf22]D\xbb\x13\xd7\xe6l\x00*\x85\xdc\xb0^!\xd3t\xe7v76\x8c\xb2+\xaeYd\xce\xd7\x00z\x0c~U\x9fq}q\xach\xbat\x93]ys\xd9\t-\'\xf2\xdb\x86\x19\xfd\xdb\xb7\xa6W\x1f\x9dt\xb6^66Z,\x9e\x1d\xbb\xd3T\xc8\xd0F\x8b,\x87\xe6_-\xb88\xec\n\xb6\x07\xd2\xbf\xa6\xa6\xb7\xe4\xc8\xb1\x80T\xf2;\x9a\x91-f\x97 A\x80\xc9\x9f\x95j\x03\xa2\\\x1f\xbe\xfb\x87a\xe9Uo\xfc0c\xb7\x12}\xcd\xd2\x13\x8e\xa4\xf3\xe9X7\xfa\x15\xdd\x9d\xe7\x9d\xe4\xf0dm\xb9\xe3\x82MFt\xbb\xcbh\xcf\xd9\xdf\x84\x1f(+\xc7\xff\x00^\xab\x0b`C\xdb\xdd6\\\x12\x0f\xf7G\xff\x00^\xb3\xb5\x88!\x85\x16\xda\xdcn\x0e\xbf\xbc\x07\xef~U\xc6\xf8\x8bB{gg\xb7v\xf2\x898\xf93\xf8W=5\x94"&amp;\nHa\x93\x8f~\xf5Z\x0bf\xba*e\xb9$\x90\x08b1\xb3\xdb\x1d\xea\xc3h\r*\xb0I\xdaU*\xdeae\xdb\xc8\xee\xbf\xd6\xb2t\xfd\x1a\xf4\xca\xd2]H\xad\xb9Tm\x8cnS\xf8\x8e\xb5&lt;\x9e\x1b\xb6{\xc2D*\x16F*\xd1\xa8\xe0\xe2\xb1|Y\xf0\xc3\xc3\x1e \xb4k+\x8d\x06)\x15\xb3\xe6\xfc\x99\'+\xd0}+\xe5\x7f\x8b\x7f\xb2,z}\xa3O\xa4[ Q;\xcdsn\xd1gr\xf2\x07\xe3\x8a\xf9;\xe2\x07\x815\x1f\x84\x1e"\x8a\xff\x00E\xb6\x9bm\xab\xb6\xcd\xad\x96\x08\xc7\xb0\xfe\xee+\x9f\xd7&gt;\xc9\xac\xe9w\x16\t}#\xc95\xb9\xba\x88K\x19+\x04\xdea$&gt;&gt;\xf89\xca\xe3\xa0\xc5p\x1e&amp;\xf0J\xf8\xb3\xc1\ty\xa5\xdb\x85\xd5\xb4i\x82O\x19\x901\x92&amp;\xe4\x9e:\xe0\xf5&gt;\xb5J\xce\xcaK\x1f\x03\xdf\xc9\xa8&amp;\xdb\x9b\tV\xee\xd1%\x05\x95\xe1+\xb2D\xe3\xa1\xca\x93\x8fA]=\xee\xb7\xabx\xff\x00O\xd1\xf5\xd7\x13Kym\x046\xf3\xca\x8d\xfe\xb5\x90\x95\x84g\xb1\x0b\xb3\xdc\xed5\xc5x\xaa\xd3X\xd3\xf5+\x8f\x19\xc5{q\x0ckx\xa2\xed\x80\xf9b\x95\x89%O\xf7rs\xc7\xb1\xab\xbf\x10c\xdb\xa4\xb6\xb5j\xa4\xfd\xae\xe0y\xc9\x12\xf0\x1cG\xdb\x1e\xe1\xbf#\xe9\\\x8e\xa7\xad\xdf\xca\x7f\xb5\xa5\x9d\xa3\x89\xd4!\\\xf0q\xc09\xaf\xebf\xeb\xc3\x81\xdf\xedE\xb6\x95?*\xf64\xdd&gt;)\x12v\xde\x17\xa7J\x92\xebKgt\x96B\x15H\xce=j\xb5\xe6\x93=\xd9kx\x0f\xc8;\x9e\xb5\x81\xe2-\x0e}&gt;\xdc\xdc\x12\xac\xe0d+\xbf?\x95q\x7f\xf0\x91_I\xe7-\xd4(\xb1\xc2\x1fz\x07\xf9\x80\xdd\xc7\x15\xa1\xfd\xa7\xa1jV\x9b\xad\xee\xd66\' 1\x19\xaa\x89uh\x8e\xe94\xf1I\x9e8\xc1`+\x1b[\x82\xce\xea6K \x19\x00 \xaf\xf1q\xc18\xae\']\xd3#\x8e\x14\x96\'\xdf\x87ee\xe8k#O\xb5[B\xed\xe6\xaa\xab\x1c\x85\x91\xb1\x80}=j{\xfb\xb9V\xc8m;V\x1c\xe4\x8f\xe2\x15KE\x9b\xcdC\x15\x8a\x98\xfc\xcf\xe3z\xbd\xf6i\xa4\xda\xac\x0by]dA\xf7\xbdM[\xbc\xb4[Kw@\x14\x15\x19\x0c\xde\xf5\xcdx\xb7\xc2q\xeavF)\xe1I\x06\xd2\x1d\xc8\xc0\xc7\xa6k\xe6O\x8d\xbf\xb3S\xebows\x15\x88q\n\x7f\xa3t\xc6\x0fU\'\xdb\xa0\xaf\x94\xbe\'|)\x9b\xe1\xfa\x88\xb5k\x13\xfe\xb9\xfe\xc4B\x11\xba0r\xca\xc7\xb9Q^i\xab\xe9\xf0xWZ\x83\xc4\xde\x15V\x11\xc9\x03\xa9\x86G\x05X\x16\xe7w\xbf#\x1fQX\xfa\xde\x8b.\xb3\xa8\xa5\xde\x8df\xad\r\xd0xn\xa2\x90\xf1\x87\xe8\x7f6o\xc8\xfaW\x13\xa2\xea\xfa\xff\x00\x81\xda\xe3G\x80\xe69\'\x85\xf6I\xf7\x91\xa3b\x1b\x1f\x87?J\xf7o\x05~\xc2\x1f\xb5?\xc5\xef\x81W\x9f\x19\xfc!\xf0[^\xb8\xf0m\xde\xae\xc9s\xad\x0bp \x98\xef\xd9\xb8d|\xca\x19\xc8\xdc;\x83\\}\xd7\xc0\xbf\x1fh\xf6W\xff\x00\x055\r.f\xd6m\xafbK)m\xa27\x0e\xcc\xaeT\xc26\x03\xb4\xf2G\xe0k\xb6\xf8#\xff\x00\x04]\xff\x00\x82\x88\xfe\xd0ZtZ\x8f\x82&gt;\x02_i\xfan\xa4$\xf2\xe6\xd6\xa5\x8e\xd69$\x8d\xbel\x16\xc1c\xc1\xf7\xf5\xaf\xe8\xee\xf6\xe5L\x9f\xeb\t\xc0\xc9Q\xd4\x8fZ\xa1q\xacB\x92n{\x94\x8d\x08\xc2\x93\x81\xf4\xac\xcdG\xc7\xba-\x85\xda\xda\xdd\xdc\x19\x14 \xc3!\xcf8\xacM[\xe3\xe7\x84t+W\xdfzcf\'b\x920\xdfS\xda\xbc/\xe37\xedm\xa8K4\x96z5\xa4k\x1cl\xc0\xb9\x98|\xf8=\xbdk\xc3&lt;W\xfb]k\xf6wfH-VI\xa6\x01H\x90\x95\xf2\xf1\xd8\xfa\xd34\x8f\xda\x8bQ\xfe\xd8\x13\xf8\x86r\x8c \x0eD \xed+\x8c\xf1Q\xea_\xb6\xdcPj\x86\xd3J\x86c\x17\x95\xbe9\xa6\x89\x94\xa9\xf4\x1e\xa2\xb6\xfc%\xfbj\xde^Y\x15\xf1\'\x87f\x12\x80V9\xc3\xedY\x01n\xf9\xe8}\xab\xbe\xb7\xf8\xbd\xa6\xeb\xf1\xc3u\xe4\xb4K$\xca\xc0\xc67\x80\xa5z\x92?\x9dt\x10\xdci\xba\xa5\xb09WWU\xd9*\x1fj&amp;\xd1\x91"d\xf2\xfc\xd4\x90\x9d\xae\xad\x91\x8a\xc9\x9a\xc2\xe3M\x93\xfd\x1e&amp;\xda&gt;\xee\x06x5\xad\xa32\xf9r*6XC\xf3\x03\xd8\xe6\xac\xea\xf2Gq\xb8`\x10\xca\xca\xc5y\x19\xdd\xc5\x11\xe8\xc5\xd5n\xe6\x07{\x9c\x18\x1cq\xb4t8\xf5\xae?\xe2?\x85\xa0h\xa6\xbb\xb5_\x95\x88g\x8f\x1d\t\xed_6\xfe\xd2\xde\x01\xd3.\xf4\xc6\xb8\xd5\x9a%\xb3\xbaU\x8c\xf9\x91\x850\x16\xf9K\x02{`d\x9a\xf9\x9fB\xfd\x9f\xf5\xcf\x89^:\xb9\xf8a\xf0\x83\xc1Z\x9f\x8b\xae\x84/\xf6\x9bm\x06\xd3\xed,\xa4d)\x1c\x109*Oo\x94\xfaW\xb1~\xcd\xdf\xf0Co\xdb\xcf\xe2~\xa5\x0c\x9e/\xf8Z\xbe\x10\xd0\xa7\x91\x05\xcd\xde\xa9s\x12\xdc*d}\xc8\xc9\x05\x1b\x82s\xd3\x9a\xfb]\x7f\xe0\xdb_\xd9\xff\x00P\xf8\x89k\xe3H\xfca}e\xa5A~n\xa7\xd2\xee\xe1K\xa9\xa5r\x83v[\xee\x8c\xb6N\xde\x95\xf6\xf7\x83\xff\x00e\xcf\x84\x7f\x0b&gt;\x05\xc5\xf0g_\xbe\x92\xff\x00\xc2Zg\xef\xe4\xb4\xd5nV\x08\x11\x15\x8b\xb0m\x98_/w\xf01\xc0\x1cg\x8a\xf8\xef\xf6\xa3\xff\x00\x82\xca\xff\x00\xc1"\xbfb1/\x84\xfc\x11\xa7h&gt;2\xd7-\x0b\xc7&amp;\x87\xf0\xebI\x82H\xe3}\xc4\x18\xe4\xb8\x00\xc2\x83~[r\xb1#\x02\xbf5~0\x7f\xc1\xc7\x7f\xb5\xff\x00\x8b\xe0m\x13\xe1&lt;\xfaO\x80\xf4X\xe42[\xb5\x95\x98\x9a\xf7\x97\xc8g\x92La\x9cr\xd8\x1c\x92k\xf6\'\xc5_\x16\xadb\xd0\xa6\x96\xe2\xf6\x08\xe7Kt2JN0@\x19\xcf\xa6M|\xfd\xf1k\xf6\xaf\xd5&lt;3{\x1d\x8d\xa5\xccR4\xd2\x06\x8a\x08\xe5\n\xea\x98\xe1\x88=\xbd\xeb\xc3\xfci\xfbXjO\xab\xb6\x9b\xe2?\x1a\xcc\x91\xef\x12\x8bKi\x01\xd8\xb8\xfb\xc5\xc5yG\x8c?h;\x8f\x10x\x86+\xc9&lt;E\xaa\xbe\x9f\x0e#P\x93\x11\xbf\x1c\x03\xf8\xd4Z\xff\x00\xc5\xbd}|\xa9|2\xc2D|\x00\xba\x8c\x99\x91&gt;\x87\xb7\xe3]\xa7\xc2\xfd?Y\xf1\x02\xc1q\xabh\xc2\xfai\xe42;\x19\x01\x1c\xf3\x8c\x8e+\xd2 \xf0_\x87\xef\x99\x7f\xe1$\xf0\x1c\xf6\xe3q\x11\x84l/\x1f\xc5\x9e\xfe\xb8\xa7\xeb_\x0b\xbc\x01wk\x98\xf4Cr\x8b\x11\x1b\x85\xbb\x029\xf5\x03\xads\x1a\xdf\xc0I5k\x80&lt;#\xa8Ob\xa7\xee@\xf1\x12\xa4\xfdMP\xd3\xfe\x15\xfcg\xf06\xa0#\xb7\xd5\xa4\x91\x19\xc9\x92;ip\x0f=\xd4\xf2\x7f\n\xf5o\x87~&amp;\xf1\x06\x9b(\x87Z\x88+\xc6\xa1Ls\x83\x96\xf5*z/\xd0\xf4\xafZ\xd1\xbcAa\x06\x9e\x93D\n\xa6F\xd2\xc4?\'\xb6z\x13Vo\xad\xadd&amp;u\xc1\xc9\xf9\xb7p\x01=\xbd\xaa\xab\xd9\xe29ZH\x8f\x96\x1c\x0f\x95pwzS\'\xd4\xb4}*\xdd\xf5o\x10\xdd\xdb\xd8[E\x93#\xdeN\xab\x18A\xd1\xb2O\x1cW\x15\xae~\xd9\x7f\x08\xefu\x06\xf0\xc7\xc2\xbb\x1dg\xc7:\xb2\x10\x90i\x9e\x11\xd3d\xbc\x05\xc7\x04\x19T2 \xcf\xbe+SF\xfd\x9d\xff\x00\xe0\xa0\xbf\xb4f\xa2\xb7\xf0\xf8\x1fD\xf8S\xa0\xca\x9b~\xdf\xe2k\xb1w\xa82\xb7P\xb6\xf1p\x08\x1f\xde\xc1\xafF\xf8q\xff\x00\x04[\xfd\x9fF\xa9k\xad~\xd0\x9f\x11|Q\xf12\xea\xd1\xc3\xbd\x8e\xa71\xb6\xd3\x8b\x0e\x9bm\xa2\xe4\x8c\xfa\x9f\xad}}\xf0\xab\xe1o\xc3\xcf\x85\xfa\x14z\x07\xc2\xef\x86:G\x87lQB\x88t\xbb(\xe1V\xc0\xc7X\xc1,}\xd8\xf3\\_\xed3\xfb~\xfe\xc7?\xb1\xbe\x99&amp;\xb5\xfbG~\xd0~\x1c\xf0\xd4\xc8\x8c\xdf\xd9\x977\xcb5\xf4\xb8\xcf\xc8\x90FL\xb9?\xee\xed\xf45\xf9i\xfbf\x7f\xc1\xdc&gt;\x19\xd3%\xb9\xf0\x97\xec+\xf0ZMQ\xc2&lt;v\xfe.\xf1\xc6\xe8\xd1[$\x12\x96q\x90\xcc;\x82\xcd\x8f\xf6{W\xe5\xa7\xedK\xff\x00\x05G\xfd\xbe?m\x8b\x8b\x99\xfe9|\x7f\xd6\xf5\r)\xa4;|?a;Xi\xb0.r6\xdb\xc2QXc\x1c\xb0-\x8e\xa2\xbcJ\xc1.\xa3\xbaU\x94\xae\xd2v0\x8b!\x81\xed\x8d\xc0\x1c\x0f\xa0\xaf\xa9?b/\xf8\'\xf5\xff\x00\xc7\xcb\x89\xf5\xcdq\r\xcd\xbd\xb8+\x0e\xd6\xdcY\xb6\x9c\x96\x03\xb7\xa1\xaf\xd0\xff\x00\xda\x1f\xf6\xac\xd44o\x84\x9fc\xd5\xaf\xa1\xb7\xd4/"2\xc96\xed\xbeZ\x13\x98\xa3\x1f\xde8\xc0\xaf\x91|C\xfbI\xf8\x8a\xf3o\x885K\x95\xba\xd4/\xe1(\xc3y\xccC&lt;\x9cv\xcda_|o\xd3\xb4\xbb\xef\xb7\xcd\xa6}\xa5\xae!tuy\xbee\x19\xe3\x8e\xd5\xa3\xe1\xdf\x8a\x96\xfa\xe4\xe2Yc\x86\xc6\xde \xa0FX\x16\xfc\xab\xd4|\x1b\xe3\x7f\x07jz\xb4\x12\xdf\xc7\xf6\x84\xb7\xdaY@\xc6\xe3\xeaG\xa15\xf4?\x80~/\xe9j\x91i\xf6z&lt;ZXV#sG\xc8\x1d\xba\xd7\xa4i\x9e \xb4\xd4\xe3\x8a\xea\xe7\xc5A\xa2A\x85\x18Q\x92{\xd4\xe6!-\xe8\xb3\x85\x1d\xd3nr\x8e2\xf8\xeaq\xfeqBY\xc9\x13\x8f.\xd9\x94\x97&gt;Xc\xce*\xe5\xaaY\xd8\x07\x9bS!\xe4\x95\x89\x01\x8f#&gt;\x95\x15\xe5\x8cM [\x02\xf1\x82w+\x9c\x13\xbb\xae+\x9f\xf1o\xc6\x1d\x0b\xe0\xf6\x9d.\xb3\xe3o\x18i\xfau\xb3\xe1\x9ai\xae\x11\x17\xdc\xedb7\x1f\xa5s\x9aW\xed\xbb\xa5x\xebP\x7f\x0e\xfc\t\xf8q\xe2\xaf\x88\x1a\xa0;d}\x07Jt\x87\xe6b\xab\xbei\x07\x96\x17 \x803\xdb\x15\xd2i^\x03\xfd\xbc\xfe&amp;j\xfa/\x865\xff\x00\x19\xf8W\xe1\x88\xd7\x9b\xce\xd3l\xe0\x8f\xfbWUk@v\x17\xc2e#\x00\xfc\xbb\xbe\xe8n3^\xeb\xf0\xd7\xfe\t1\xf0\x16\xde\xfa\x0f\x11|x\xf1O\x89~&amp;\xea\x96\xec\x0f\x9b\xe2MU\xc5\xa27|[\xc4v\x1ezn8\xaf\xaa\xbc\x0f\xf0\xcb\xc0?\x0b|5\xfd\x8f\xe0\xbf\x08i\x1e\x1b\xd1\xedT\x17\x8a\xd6\x04\xb7TP8f`\n\xe3\x03\xbbW\x8c\xfe\xd1\x7f\xf0V\x7f\xf8\'g\xec\x9d&lt;\x96\x7f\x12\xbfiM"\xff\x00X\x89X\xb6\x83\xe1\x99M\xfd\xd3\xe3\xf8LP\x96U\xf4\xe7\x15\xf07\xed)\xff\x00\x07ZKj\'\xd1\xbfc\xef\xd9:F\x01\x8a\xda\xf8\x83\xc7\x13\x88Qy\xf9]-a\x0c\xc7#\x07\x0c\xcb\xee\x05|\'\xfbC\xff\x00\xc1_\xbf\xe0\xad\x7f\xb5\x9d\xfc\xfa\x0e\xbb\xfbC\xea^\x1d\xd3/#(\xdaO\x84-\xce\x9bo\xb7?p\xb4d\xc8\xfdq\x86r\x0f\xa5|\xc3u\xf0w\xc4\xde!\x7f\xf8K\xbc}\xe2;\xcb\xe9\xee\xe7c,\x97R\xb4\x92\xb1\'$\x96\xc9\x00\x93\xcf\x00}+\xac\xd5\xbe\x08\xe8~\x1e\xd0t\x8f\x14\xe96\t*9Xu\x11\xbf\xcce\x04\r\xa7\x8f\xe2\xeek\x1bU\xf0\xe6\x9f\xa5\x0b\xcd\x12\x1b\x18\x9cJI\x8eD\x19\xdd\xf2\x81\xc7\xadu?\x06&gt;\x07i\xde&gt;\xf1CY\xdf@^\xd7\t\xe6J\xa3\xe6F&lt;!\x03\xb8\xcfz\xfdZ\xff\x00\x82\x7f|\x03\xd3\xfc\x03\xe1\x1b{\xab\xadi\xa0\x9dc0\xf9\xb0\x91\xe5J\xa1p\x18\x9e\x99=k\xe3\x1f\x8az\xf5\xcf\x8f\xec\xe0\x84\x937\x91~nd\xf3\x01\xea8\x8d\x0f\xfb;1\x9fz\xf2/\x14\xea\x9a\x1e\x8d!\xb7\xd3\xa32\x14\x8f\x08\xec\xdc\x0cW!i}\xaf\xf8\xabV6\xda&amp;\x9c\xd2\xccv\x86\xfb:\x92T\xfa\x9a\xfa?\xe0\x17\xecY\xaak\xa9m\xe2\xef\x8a\xbe4\x8fL\xb3w\r\xe5\\\\*\xee^\xbd\t\x1d\xab\xe9\xef\t\xf8\x9f\xf6\x13\xf8\x19\x1a\rW\xe2^\x95st\x91\x95\x96;(\x16\xeaB\xd9\xe0mRNk\xb7\xbb\xfd\xb9~\x04_\xc5\x0e\x9d\xf0\xf3\xc1\xbe&amp;\xf1#\x04#u\x8f\x84XD\xac;&gt;\xf5\xc5q\x9e:\xf8\xfb\xf1\x0b\xc5ZD\xcf\xa3\xfe\xc7:\x8a\xdcL\xa0Gq3\xa5\x90\xc7f\x00t\xf5\xc5x\x87\x88\xbfl\xff\x00\xdaG\xf6t\xd7\xed\xb5\x1f\x89_\x05.\xc6\x89s7\xee \xbe\xbc%d;~TI\xba\x028 g\'\x15\xe8\x9f\x03\xff\x00\xe0\xa7\x1e\n\xf1/\xc3{\xdf\x18|R\x994\xa9t\x99v\xdd\xac\x93+3G\xfc,\x06r}\xeb\x15\x7f\xe0\xb2\x1f\xb3\xaf\x89~(Y|:\xf0\xae\x9b\xa9_Iu3(\xbfE\xf2\xa1-\xd7\x19o\xbd\xc7&lt;v\xafG\xf1/\xede\xaf\xeaV\xe6\xd3E\xd2\x12\xd6\t\x8e\x04\xec\xdf2\x8ccw\xb5{\xef\xec\xa1\xfb\r~\xc9~&lt;\xf0?\x87\xbe;\xf8\xbb\xc1\xaf\xe2}kX\xb43^O\xae^\xc9q\x1d\xbd\xe2JVu\x8e6;\x14n\xcb\x05=\x17\x1d\xab\xe8\x7f\x1c7\xc3\xaf\x00|5\xd54h\xbc{\xa2x\n\x1b\xcd.kQ\xac\x96\x82\xdb\xecJ\xe3k:\xf4\x04\x85\x1b\x86\t\xc15\xf1\xd7\x8f?\xe0\xa6?\xb1\x07\xc0)t\x18\xfc-\xf1\xfb\xc4&gt;;\xf1\x8f\x85|7?\x85\xed\xee|\x03\xa6,\xc7U\xd2\x9aH\xe4X.\xa6\x931\xac\x81\xd4\xb3J\x08\xe7&lt;\xd7\x9d\xfcU\xff\x00\x82\xea\xfe\xdb\x9f\x16\xe1{/\xd9\xdf\xe0\xa6\x89\xe0];\x04A\xabx\xa4\x1b\xbb\xe0\xa7\xa3yc\xe4C\x8e\xdd\x07A_4\xfcU\xf8\x93\xfb\\~\xd1\x0e\xf6\xbf\xb4\x0f\xed9\xe3\x0f\x15[\xc9\xcbh\xb0_\xbd\xa5\x86\xe3\xce\xd3\x04EF;|\xc1\xb8\xeek/\xe1\x9f\xfc\x13\xeb\xc4\x9e8\xd4":_\x85WI\xb7\x90\xe2a\x0c\x01\x8b(\xe8\x19\xf9#\xea1_I\xfc6\xff\x00\x82Yx\x1fB\xb03\xeb\xdaj\t\x1cd\xef\xf9\xf0\xbe\xa35\xcc|l\xfd\x94\xbc\x11\xe0;[\xadSA\xd1\xd1\xa5\xb2\x10\xcf\x1c\xc56\xe6 J\x1e;\x9f\x99X\xfd+\xe7/\x1a\xf8N\xc7E\xd1\xa7\xd2g\xb72\xc3\x06\xa3\xb5\xf1\x16\x1b\x05\xb0\x00\xfa\xf1\x8a\xe1am"-v\xf6\xde\xdeE\xfe\xceU\x92e\x81\xf2K b\xaa\xc0w\xc0\xc5y\xe6\xad\xe1\xc3\xab\xf8\xe1l4\x1b\xb8\xca\xac\xa1b|\x13\xb8\x13\x82k\xec?\xd8\xcf\xe0n\xb1\xe1\x7f\x11Du\xabUx\'v\x10\xb1\x88\xed\x93\x1f0$\xf6\xc9&lt;W\xe8?\xc2\xfd\x1a\xcb\xc1Z\x0cz6\x95n\xdbs\xb8\x83\xf3l\xc8\xe9_\x9a\xdf\x12|Y\xe0\x9f\n\xdd\xde\xea7z\xb5\x9e\x9a\xaf!%$p9\xc7NM|\xeb\xe2o\x89\x07\xc5sK\x17\x80&lt;+y\xaa\xed\xcf\x9bxb+\x1a\x9e\xe4\x1cc\x15\x7f\xe1\x7f\x81~&amp;\xebW\x16W7&gt;4\xd3|-o$\xec\xdex\x8ft\xcc\t\xc9\xcbt\x03\xd35\xed\x1a7\x87\xff\x00d\xcd\x1a\xf65\xf8\xdb\xf1k\xc4\x9e)\x91%\xfd\xed\xb1\xd4\x19`f\x07\xa0\\\x80\xdc\xf5\xdb\xc5}M\xfb&gt;\xfe\xdd\x1f\xf0M\x8f\xd9\xfbLe\xd2\xbfg;8\xae"Ef\xbd6$\xb6\xd6\xe1\x1b-\x9e\t\xe8k\xd9\xae?\xe0\xa6\xff\x00\xb3W\x89\xf4\xa8\xa1\xb2\xd0[J2\x8f1\x19\xf4\xdf,2\x9ewgh\xc8\xf7\xac\xbf\x12~\xd0\xdf\n|yf.t\x0f\x12[\xce\xd2p#I\x14d{s\xd6\xbc\xab\xe3n\x99\xa1|`\xf8W\xab|,ml\xb2\xde)\x93MY\x18\x97\x8a\xe1\x17#i\xc7\xca8\xc5~i\xdd\xe9sE\xadO\xa4\xea\xd0\x05\x9e\xdd\xa4\xb7\xb9\xb7\x90\xb1\xc4\x8a\xdb\x18\x1e\xd8V\xe0g\xda\xbc\x8b\xc4\xda.\xb9\xf0\xf7\xe2t7\xfaD\x13y\xf1],\x900\x07?0\x07w\x1d\xbbg\xd6\xbfP&gt;\x0cYx\x9f\xe2\x9f\x84\xf4\xbdK\xc3&gt;\x1a\xbd\xb8\x96\xee\xc9~\xd0\x0cL\xab\x1b\x90\x0e\t#\x03\x9a\xf7-\'\xc3?\xb7O\x84\xbc\x06~\x1fx/\xe2\xe6\x91\xe0\x8f\x0fZ\xddMz\xd3\xc5\x17\xda/\x8c\xae\xbc\x84q\xf2\xaa\x91\x9c\xfa\x1e+\xe5O\x8f\xff\x00\x0ft\x9f\x16\xf8\xeb\xcc\xf1\xaf\x8f\xfcO\xe3\x99\xa0r\xb2\xde\xf8\x83R%K\xe7\xe6a\x10`\xbc\x9c\x9cV\x8f\x80&gt;\x15\xe9\xd6\xd6Ie\xe1\xcd\x1e;{tp\x04il\xa0\x01\xd9\x83v\xff\x00w&lt;W\xb2x\x0f\xf6i\xf1\x0f\x89@\xfb\x05\x99\xb8i\x1b%\xb6\x1d\xa3\xeb\x8e\x05}\t\xf0w\xf6!\xd04{e\xd6|cf\xb3\xdc\xccU\x9a\x1f+\xe5N\xf8\xcf\xa7\xbd{\xa5\x87\xc3\xff\x00\x0fh6b\x1d\x17M\x825E\x0b\xb5!\x03\xa0\xc7^\xf4G\xa0\xdd\xff\x00\xc7\xd4Ql\\\x159a\x8f\xca\xbc{\xf6\x80\xf8k\xa7\xea&gt;\x1a\xbc3G\x96\xb9\x8aH\xb3\x8ewm\x04\x8f\xa6x\xaf\xce\xdf\x8a\xf1\xb6\x81\xe3\x8b\xf8\xf5\xeb!\xf6=J\xed\xa1\x9c\x13\x8f)\xd4\xa3\xc4\xe3\xd0\x11\xd0\xf7\xaf\x995\xddN\xdbC\xf8\x84Y\xe3%SSx\xde,\x1c\x18\x9f\'g\xe7^\x99\xfb\x13\xf82/\x1a\xfcu\xd3\xa7\xd5\xad\xc8\xb5\x9a\xf1\xe0\x8c\x90\x0cy\x00\x9c\xe4\xfb\x83\xf9W\xe9o\xc3\xdf\x85\xf6\xdau\xbd\xb4\xe6L\x102\xf1y\x7f\xc5\x8ey\xed\xcdzF\x95qq\xa6\xbe\x10.\xd5\xda\xb8\x07=\x17\x1d{\xd7\xe4\xdf\x87\x7fe\x9f\x06\xdc\xea+\xab\xf8\xf3P\xbb\xd7\xb5\x1d\xdb\xe4\x9a\xe6f\xf2Fy8^\xf5\xa5\xe3\xed\r\x11\xed\xfc\x0f\xe0!ie\x0b\xba\x86\x7f\xb3\x806/\x05F9\xe9\\\xe7\xc6\r[P\xb5\xb5\xb5\xf0W\x874;I\xae`\x8c-\xbbA\x0b\x16\x93\x1c\x01\xc7R}+\xe5O\x1dk~4\xd5\xf5\x13\xa8k7R\x12\x93\x18\xe2\xb6V!\x17\x9e\x83\x15\xf4g\xc2O\xf8(]\xe7\xc3\xdf\xd9\xa7\xc6\xff\x00\xb3}\xe7\xec\xf3\xe1MG\xfe\x13/\x0fiZD~"\xb9g\x17ZkY3\x94\xb9G#\x86s#\x17\xc7M\xa2\xbe\xe5\xfd\x89f\xf1_\xc6\xff\x00\x00\xf8#\xc4~ \xf0N\x9bq\x0e\x97\xa6M\xa7\xcb4\xd6|Khq\xc1\x18\xc9e8\x00\x9eH\xe6\xa3\xfd\xae?c\x1b\xa7\xd5\'\xf1\x97\x85|1&amp;\x9b\r\xea6N\x93+\xa8\x89\xd7&lt;\x80=k\xe7\x9b\r\x13\xf6\x81\xf0u\x87\xfc$\x10\xea\xd7\x92\xa5\x83\xc7\x1c\xc2br\x9d\n\xb1\xcf@GS^q\xfbfiQxg\xe2n\x9b\xf1\x0e\xc6\xce$\xb7\xf1\xae\x8b\x16\xaa\xca\x84\x05\x86\xedW\xcb\xbaE\xf5\xfd\xf2\x16\xfa0=\xea\xc7\xc0\x1f\x88\x9e\x05\xd4$\xd3\xf5\xcf\x17\xf8R\tn\xcby_j\x9e\x01!&lt;\xf1\x83\xd1~\x87\xa5~\x81\xfc$\xf8\x8b\xa2\xda\xe8\xc2\xebK\xb8\x8c\x03\x10UH\x82*\xb6\x07\\\x8e\t\xfaW\x97\xfc~\xf8\xcf\xe2\x17\xf1t\x1a^\x9d\xe2\xa9\x04O\x92\xd0\xc3&gt;\xec\x12z6\x0f\x15\x81\xe0\xaf\x01j\xfe3\xd4W\x16\x9e}\xc4\xd2\xeex\x82\xe799\xc9=\xab\xea\x8f\x80\x7f\xb2\x16\xb1qr\xb7\x1e1\xd2\x1e\x0bE\nc\x88\x9c\xa9\x1e\x83\xd6\xbe\xa0\xf0\xcf\x80\xbc\'\xe1{\x7f\xb0h\xb6Q\xc6\x12 \x01\x11q\xc0\xf5\xab\x8bb\xdeH\x82,\xfc\xd2dq\xc9?\xe1V\xa5\xd1n\x073\xf1\x8f\xbc\xabU%\xb5\x16\xf1\xb48;w\x16\x00\x8a\xe7&lt;a\xa2\xd8jv\x0c\x97l\xc5\x1bq\x8f$c%k\xf3\xf3\xf6\xae\xfd\x9b|e{\xe2k\xadn\xd7\xc3\xb2\xdcXC\x1cr\x89\x10|\xcc\xc0`\x05\x00r@\xaf\x90\xfe5~\xcd\x1e+\xf0\xf6\xab\x1e\xbf\xa9h\xb76\xb1\xac&amp;\xef\x0f\x03fbW\xe4\xceG\x04\x82\x0e+\xd3\xbf\xe0\x97\xbf\n&lt;_{\xe2=+Y\xbb\xd1%K[]I\xa7gx\xdb$\x9e[\xb7N\x18\x7f\xc0\xab\xf4\xe2}\x19`\x89.\xad\n\xaa\xc8\xb8\xc2\xaf_q\xedSxw\xc2\xf2\xea3\xc8\xbeR\xba\x8e\xae\x0f\x19\xaf\xcf\xeb\x8f\x0b\xc7\xa4j&amp;\xca;q$\x8c\xbfx\xf7\xf7\xc5e\xc3\xf0\xca\xce\xf3S\x93S\xd5\xa0("\x0cQ\xd4q\x93\xce3\\\x1f\xc2\xeb}\x18~\xd5z\x1d\xd3[-\xd5\xa5\xa6\xb0\x9b\xa2)\xf2\xb4JT6\xe2x\xe4\x92G\xads?\xb7\xe7\xfc\x13\xf7\xc5\x7f\x07\xfe&amp;j&gt;$\xf0\xde\x85sw\xe1\xedJ\xf1\xaf\xb4\xbb\xd8\x10\xb0\xb6\x12\x12\xe6\'\n0\xbbA\xdb\x93\xe9^=\xf0\'\xf6`\xf1\xaf\xc5\x9f\x1a\xd8\xf8cD\xf0\xed\xc5\xd4\xd2\xca\x15d01XT\x81\xb81\x03\x1e\xb8=\xeb\xfa\x02\xfd\x98\xbffo\x0c|%\xf8\x1f\xa0x\x16\x18\xa0\x8f\xec:r\xa4\xae\xa8\x06\xf7(\xa3,\xdd\xbdkW\xe2o\x84\x0f\x83\xado\xfc\x1d\xa8\xdb\xc5+\xdb\xc6\xa2\xe5X\xab"\x17\xfb\x87w`k\xe2O\xda+\xc2\x97^\x1a\xd4o\xec\xb5\xbd\x1e\x18\xa7\xb7\x9c\xc4\xd1[\xaec\x90\x0c\x8c\x928=85\xf1\x87\xed\x9d\xe1s\xad~\xca\x96\xfe&amp;X\xe4\xdf\xe0\xef\x1c,Q\xab0\x05m\xaf"\'\xaf\xf7D\xd1\x8e=K\x0e\xc6\xb9?\xd8S\xc1\xd6\x9f\x14&lt;1\xaeh\xb7Ld\x9fL\xd4\xa2g]\x9c\x98\xe4]\xd9\xf6\xc18&gt;\x86\xbd\n\xe2\xc7\xe2\'\x84\xfcG{\xe06\xd6n\xed\xecm\xc0\xf2b\x91\x8e|\xb2p9\xeb\xd2\xb5\xfc\r\xf0O\xc4\xde3\xf1*\xe8\xfap\xb8\x95\xdaPD\xae\xecUW&lt;0n\xe7\xda\xbfC?b\x7f\xd8\xca_\x87r\xa7\x89\xb5\xeb\xcb\x9b\xa9\x9c\x86+:~9\xc1\xed_X\xeakb-\xa2\x8e\x18\x04r*\x91\xb7\xcb\xda\x07\xd6\xb0c\xb4\xbb\xf3\x7fxW{\x0f\x93i\xe2\xb5-t\xe6K@$@$\xc8\x0eH\xe4\x1fj\x8d\xa5\x8cHR(K2\x8c\x16c\xd4\xd6&amp;\xba\xed\x05\xbb\\\xcd:\xc6\xaa\xdf1f\xc0\xfaV4\xf7\x96\xe6\xdd\xa7\x9a"W\x1f"0\xe8M`\xdcO\xa7\x16\xb9\x86;8\xe7~\x14\x89@d\x15\xca\xf8\xb3\xe1w\x83|g2\x7flxb\xcau\x82p%i\xe3\nzc\x00\x1e\xa0t\xa4\xf0_\xc2o\x08|6\xca\xf8sC\xb5\x84\x99\x8b\xba"\x05\x00\xb9\xc9\x1fNk\xb5\x97C2@\xb0$*&lt;\xbc\x05E\xe7\x8foZ\xe9|\x01\xe1Am,\xb2\xbd\xb6S\x00\x05\xdb\xd4\xfa\xd7\xe6\xd6\x85\xe1/\x1b^x\xfd\xa0\xd4/\x12t\xdcc\x03\xca\xc6\x088\xae\xbb\xf6\x8f\xf8\x1d\xa8x\x17\xe0\xfc\x1a\xc4:\xfcw\xd7\x1a\xace\xd6\x0bx\xce`l\xfd\xc2G|V\x17\xc2\xbf\x02\xfc\x16\xf8Q\xe0\xcb\x7f\x14\xdei\xb2\xdek\x8fn\x1aH\xcan\x0</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x0f\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8\xef\xe1\xe7\x8a\xe4\xb7\x9d\x12\xe9\xd8\x1c\xe0\r\xff\x00w\xf3\xcd{&gt;\x87\xad\x8dR8\x9ed\x88\xa0\xc2\xe5\xb2x\xf5\xebSj\xda%\xb1\xbb,U\x86\x01\xfd\xea\xa6UA\xc6?\x95r\xda\xce\x94\xead\x92\x172\xa2\xae\t\x1c\xee\xfc;W\x90\xf8\xe7Y\xb9\xd3\xf51u4\xa9\x04q\xbf\xdeC\x96_\xa8\xae\xc3\xe0\x86\xb9i\xa8\xdcIs4\xc5\xad\xa6S\x89J\x9d\x81\xfb3c\xa5u\x1f\x14&gt;\x19[x\xdfCq\x14Q\xab\xbc$\x08\xc2\x8c\xff\x00\xd7@\xd8\xf9\x94\xfe\x98\x1e\xb5\xf0\xcf\xc4\x7f\x00^x\x7f\xc6\x17\x9aW\x98\xc9\xe5&gt;&gt;H\x0e\x0f\xb8\xe6\xbe\x83\xb0\x9d-.\xc3\xda\xdd3\x19$*\xe4\xa61\x8fO\xce\xbd#\xc0&gt;-\xbcIR\'b\xf1F\xd8\x90\x9e\x80};\xd7\xb0\xc1\xac\xe8\x97\xbaLS\xbb\xb2\xb3\x80\x88\xec\x84\x8c\xfd\x06?\\\xd6\x07\x8dlt\xfb2\xd3\xe9\xf2I\xf7\x06\xf5\x93\x19\x07\xbf#\x00\x8fOJ\xf9\xab\xe3\xa5\xebE|Ld*\x86`[\x1c\x92F{}+w\xf6Z\xd4\xae\x8c\xb3[\xfd\xbb\xcb\x10\xc6]\xe4)\xb8`\x80N\xe5\xe8\xc3\x9f\xad{\x07\x87\xbcf\xc3\\\x9bN\xbb\x94\xec\x1f"as\xf2\x9fOE&gt;\x98\xc8\xc7Z\xf2\xbf\x8d?\x08\xb4\x0f\xf8O.&amp;m\xd2\x19cW\xc88\x039\xe0\n\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00_\x01}\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc@\xf2\xa2\x07p \x92y\x06\xa3e\x05\xb0\x07\xd2\x82v)\xcf\\pj\'fa\xf31?SL\x0cA\xc9\'\x03\xaf4\xa0\x15;\xa3l\x87\xe0\xee\xec)\xdeBy\x98\xdf\xfc&gt;\xb4\x92[\xae\x00\x0er}\xeaHn\x85\xb9\x19\xcf\x96\x0f\xcc\x83\xa1\xfc+\xef\xdf\xf8 \xaf\xedk\xa7\xfe\xce\x9f\xb6N\x89g\xe2\xcdg\xec\xda\x07\x89Yt\x8dv}\xd8\xfd\xdc\xd8U\x90\xfa\xe1\x8e\xec\x9e\xe35\xfb\xb9\xf1g\xe0\x0e\x9d\xf0{\xe3T\xbe1\xd3t\xf8\x7f\xe1\x12\xf1\xe5\xba\x8b\xa8!Q\xe5\xc1~&gt;fL\xaf\x01X\x90\xe1\xfb\xe4\x8a\xfc\xc1\xff\x00\x82\xa8\xff\x00\xc1;\x07\xec1\xf1"\xdf\xe2\x95\x8d\xb2j&gt;\x17\xf1]\xc5\xc3\xe9\xd6\xd1(\xfd\xc3+\x83$\x0e\xbd\x08`\xc5\x93\xb0\xea+\xf2\xff\x00\xe2\xe7\x84\xd2\xcb]\x93Z\xb2\x0c\x96\xd3\xc8O\x97\xb7\x98\xb9\xc8R}\x07\xa5`\xf97Z\xa5\x99x.\xa3k\x8be\xcb\xa9\\\xa9\xc7M\xbf\xd6\xbe\x91\xff\x00\x82l,\xde1\x8f\xc6\xfe\x153\xeeKkx.\xe3\x88\x8e\xa7\x1e[0\xfc\xfa\xd7\xd0\xfa\x05\xff\x00\x88&lt;&lt;\xc3O\x87\xcd\x08%\xc6B\x96\xefZw\x1a\xce\x9f\xa5n\xd6|_\xe2\x18\xec\xad\x91K7\xdaf\x00\x1098\x19\xe3\xf0\xaa6_\x1c\xfcq\xf1\x99\xe5\xf8g\xfb;x"{\x95\x9eE\x86\xfb\xc4\xb7!\xa3\xb4\xb6Bv\x93\x1b\x1f\x98\xb6\t&lt;q\x91_\xb3\x1f\x03m\x1e\xd3\xc0zU\xb42\xe0\xb5\x94#b((\x85b\x01\x87=\x01 \x9a\xf5\xcf\x86\xf6rM\xab\xc9\x06\xcc\xc6#%\x9d\xc6EK\xf1\x0f\xc22\xd8\xf9\xaf\x0c\xa9 _\x99\xd3\xd8\xd7\x9f\x03*\t-\x1d\x8a\x0c\x93\xcfa\\\xb6\xaf\xac\xdd\xe97\r&lt;\x12&lt;\xaa\xf2\x05l\xe0\xe3\x9a\xb3\x1d\xfc\x177&amp;[\xf9Ih\x902\x00{\xf6\xcdih\x1a\xbf\xd8\xafR\x16\x1eZ\x97\x0c\n\xf1\x8ez\xd7mkz\xb3\xc0\xc6+\xdc)u\xdcX\xf6\xcf5\x15\xca\xdc\xce\xea\xb0\x90K\x9c1\x1cl\xf4\xe3\xde\x99\xa65\xd4\xaf0\xd4\x0b\x10\x14\xec\x8c\x0e\x08\x15\xa5i\x1d\xacj^\xd66\xdb \xc8$}\xd2==*\x18t\xe8"\x12K1\\Hy,3L\x9fO\x95\n&lt;\x01dPA\x049\x18\xad\x18\x8c\xf1\xc4\x87,[\xa6\x19\xf3\x8a\xb5kc;\xc3\xe7\x9b\x81\x9c\xfc\xa3\x1d&gt;\x9e\x95\n\xdeN\x8cR)w2\xb7\xcd\xcf8\xaaWz\xbb\xc12\xff\x00\xa1\x87R\xdbF\xe3\x96R{\xe7\xd2\xb35\x9b\xe6\x19K\x900\xc3\x11\x84n\x84\xd75\xac\xddM\xa6[yp\x17\x1b\x10\x8e1\xde\xb9-OV\xbb\xbc\xd4\xa7s;\x03\x0c$p;\x91Y\x16w\xb7\xcb&lt;P\xea7jRg&gt;PQ\xf2\x8f\xfe\xbdlZ\xe9\xb2[\xdb\xf9i(*\xcf\xb8\x00j\x9e\xaf\xa2C4\x11$r\x04X\xdc\x10\xa3\x809\xf4\xf4\xaeK\xc663Z\xcd\xe7\xc0\x0bF\xa9\xe5\x15=L\x83\x9c\xd7\x19\x05\xdd\xf2\xeak\x1d\xecN\xec\xd9)\xcf~\xd9\xab7\xf3F\xb1\xec\x92\xe5\xd2N\xbb@\xc8\xfaU\xaf2%\x829\xc0\x0ed.#\x07\x81\xc2\xf4\xc7\xa7\xb5f\xebvOmk\xfd\xa3s:\x06\xea\x8a\x9d\xab(\xad\xed\xee\xa2\x1c\xdc)\xccGn[\x1d\xbbV\x0f\xc5MV\xf2\xd2\xea\xd2\xd9\xa3\xfb\xaa\xff\x00u\xff\x00\xdd\xaf\xe7\x04*\xeem\xb2\x1c\xe3\xd6\x85"5%\xc6x\xfci\x1d\x1at\x06&gt;3\xeb\xd6\xa1 \xa9\xd8\x7f\x87\xad**\xb7\xcc@\xc0\xebJ\xd0\x10K\xa0\xc84\x9e[\x03\x9c\x9f\xce\x9c\xdft\x1aj\x04\xde\x0b\x1c\r\xc0\x93\x8e\x9e\xf5\xd3|\'\xf1&lt;~\x1e\xf1M\x9d\xe5\xcd\xcc\xb1\xa2\xcc\xb1\xcb:u\x89\x0bcx\x1d\xca\x8c\x90=\xab\xfan\xff\x00\x82a\xff\x00\xc1M\xbfg\x9f\xdaO\xf6F\x83\xf6~\xfd\xa0~ YE\xe2\xfd\x0e\xd8i\x12\x0b\xd7\\\xdf\xdb\xaa\x7f\xa2\\FX\xe0\xbe\xdc\x7f\xdf5\x83\xfbj\xfc\x08\xf8\x95\xf1\xdf\xe1\x86\xab\xa1\xfcL\x90\xeawcFK\x9f\x0c\xc94\xbf.\xcc)\x86\xe9q\xc0s\x16c+\xd7\xe6\xf7\xaf\xc6\xdf\x8a\xbf\xb3\xb7\xc4\t\xf5+\xdf\n\x7f\xc2\xbf\xbf\xba\x1es\xc6\xeb\x05\x83\xb3+\x0c\x81\xb4\x81\xc9\xae\x0fO\xff\x00\x82|\xfe\xd5P\xdc\x1b\x8b/\x85\xda\x95\x94\x05\x0e\xc9\xf5\x18\xc4(\xb1\x91\xc9;\x8f\xa5z\x8f\xecs\xe1\x9f\x0f~\xc7\xdf\x105\xddK\xe2\xdf\x8b\xf4\xc3q\xabi\xa9gi\xa5\xe9\x17\x1fi\xb8\x95\xf7d\xa9A\x91\xc9\xed\xeb^\xc7m\xe3\xff\x00\x8bZ\xfc\xf3\xda|=\xf8\x19qm\x14\xacM\xbe\xad\xe2F\xf2\xd3kteA\xe9\xd7\x15w\xc0\xff\x00\xb0\xd4~4\xd5#\xf1w\xc7\x1f\x17\\\xeb\xb2\xbb\xef6hJZFs\x90\x9b:7\xa7"\xbe\xa6\xf8_\xe0?\x0fxGO\xb7\xd3\xbc?\xa0Z\xd9B\xbbR$\x86 \xb9\x03\xe8+\xee\x9f\x83\xf3\xf9\x9e\x1a\xb0\x81\x91\xdfm\xba\x96q\xec:W\xbe|.\xd2Vh\x19Y\x06\x02\x1d\xc0\x8eNEhx\xce\xc7N\xb6\xd2\xcd\xf6\xcc\xccb\n\xc9#g&lt;\xf55\xe1~:\xb8\x92\xc7RX"O\x96P\xc5\x98\x0c\xfe\x19\xae\x1b\xc4\xb2Gk:\x18P\x00\xc4\x17F\xe9\xf8\x0fZ\x80kv\xf1\xde\xccL\x807\x94:\x9e\xbcV\xbd\x96\xb3\x15\xd3$+ \xf36gq\xfe\x95\xd2i\xda\xf8t\x8da\x9f\x05Xn\xf9z\x9c\xf7\xf5\xae\xc3H\x8b\xced\x96fi]\xc8l\xe0\x0e\x95\xd1Y\xc3\x0c\xd6\x10\xe2\x10\xae\\\xa9\x93j\xe7\x1fZ\x91\xed\xec!\xb6\xf2\x04!\x86\xec\x12\xa7\xa5W\xbe\xb0\x85\x19&lt;\x95\xdc\xa7\xf8W\xb5Vh\xa7\x9aA\x00%T\x1f\x9b\'\x9cS5\xdb\xcb]\x12\xcd%\xd4dH\xcb\x10"e;w{g\xd7\xde\xa0\xf0\xf7\x8et\xadn\xc8\xc9b\xef)\\\x8d\x89\x8c\x02=H\xebE\xe4\x82Y.d\xd2!!\xf06\x16n\x1b\xd6\xb0\xafu\xcf&amp;\x7f\x9a\xdb\x127\xdfbz\x01\xd7\x15\xcf_]\xea\x172\xf9\xd0H\xa5Hc\x87Z\xc7t\xbd"i\xae\xa4\x0c\xab*\x9c1\xcbp{{Uy\xe2\xf3\x9a\xe0m\xda\xcc\x01\xc8\xe0\xb5P\x9fH\xb5Hm\xe51\x0c\xa3\x16T\r\x80O\xa5Y\xb9\xfe\xd31E\xf6(R0\xcc\x01-\xce\xd1\x9a\x97Q\xfb\x02\xb1\x8c#2\xe0\x06s\xc7\xce\x7f\xa5q\x9e6\xbck@\xd6\xf2\xba\xb3\xb1-\x11\x07\x07v;\x91\\d\x97\xb1Oq\xf6\x82\x9bd\x1c\x96\x88\xe4\x00:\xe7\xdb\xd6\xad\xce\xaa\x92\xbd\xb7\xca\xef\xe5\xe7v9\xc1\xfeuV\xf3I\xbc\x9a\xca\xdeD\x99\x81V%X\xa8\xf9=\xeb/\xc5\x91\xdd\xb5\xb6l\xdcL\xec\xea\xaa\x13\xe5\xe7\xfaV]\xc4\xd3G/\xdao\xec\x87\x9b\x1b2\x84\x03\x1bp\xbds\xdf\x15\xe6\xdf\x1b\xbcS5\xa6\xadg\x1a\xcd\xb70\xb1 \x9fq_\xcf\xa2\x00T\xb9Q\x91\xd2\x86\xe0nQ\xb9\xbd\r$\x13\x9f4,\x8a\x07&lt;qM\x93\xcbe|\xaf$\xe3 sQ/\x94\x83f\xf7\xe7\x8e\xb4\xf8\xe4o\'k\xb1\n\x1b\xb1\xa7\xc8P\xa8\xf2\xdb\x1e\xb9\xa8\xfa\xf0O\x14\x84\xb0\x07\x03\xa0\xf9O\xad6\x0b\xbf"_9\xe5!\xb3\x96\x19\xed]g\x83&gt;,\xf8\x93\xc0\xda\xbd\xae\xad\xa3\xea\xf2\xc5-\x91F\x85\xd6VR\xbb~\xe8\x04\x1c\x80\x07\x03\x1d\x05}s\xe0\xff\x00\xf8/\xb7\xed\xd7\xe1\xaf\rZxB\xe7\xc6Qj\x96VI\xe5\xda\x1d^\xdb\xed\x0e\x8b\x800\xac\xe7-\xc0\x03\x04\xe0\xe3\x14\xfb\xaf\xf8/\xe7\xed\xb7\r\xbc\xd6Z\x1c&gt;\x12\xb1\x17\x19/w\x1f\x86\xa1y}\xf8f ~F\xbc\x0f\xe3W\xfc\x14\'\xf6\xb7\xfd\xa0\xefd\xb8\xf8\x8b\xf1\xabU\x9e7?\xf1\xedk(\xb7\x88/\xa6\xc4 \x01\x8fJ\xb9\xff\x00\x04\xfa\x86O\x17~\xda^\x07\x83R\x91\xe7\xff\x00\x89\xc9\x92S9\xde\xcf\x80\xe7\x9c\xf5\x19\x03\xf2\xaf\xda\xcdS\xc1\xd6Z\xac\x90]\xa4Q\x80\xb0\x8e\x04@\x1c\x0e\xc2\x8d/@\x87N\x82G\xfb8M\xc7\x05v\xe0\x91\xeb[\x9e\x15x\xed\xadc\xbc\xbd\xb8]\xbb\xca$d\xf3\x8a\xfb\x07\xe0\xcbMg\xe0\xbb[\x88a\xfd\xe4\x91\x0f,0\xe3\xd8\xd7\xb6\xfc.\xd4\xef,4\x15\xbe\xd6\x9dL\xd2C\xbd\xf0\xf8*A\xe2\x99\xe3O\x11ZjVM\x0b\xc7\xf3\xe0\xe0\xe3\x92=+\xcb&lt;R\xe5m\x81E\x03\xca\x7f\x9c\x95\xe7\x07\xb5y\xb7\x8du(\xe3\x81\xd6HK\xb0\xc9W\xc7+\xf4\xae2\xff\x00Y\x9c8w\x12\r\xcb\x8d\xcd\x18\xe7\xebW&lt;5\xe2\xc0\xd2\xc79\xba]\xd0\xfc\xa83\xf7\xc7s\xf8WQg\xe3\x88mH\x89f\x05\xd9\x81\xc6k\x7f\xc1\xbe:\xba\xbb\xdae\xbf|\xf9\x84\x00d9\xc7\xa75\xe9~\x1d\xd41h"\xb9/\x99?\xd5\xb3\x90pMt\xd6\xd7\x96.\x1f\xfd\x1b`\x8ei\x01e\\\x06\xc1\x18\xa9\xe7\x12E2\xdd\xdb\xc5\xb9H\xce\x15\xf1\x8f\xadWy\xed!\x98E1S4\xac\x02\xa8\xc9\xc9=\xb3\xda\xa8x\xcf\xc1\xfa_\x8d\xb4\t4]J/9\x1b,\xab\x14\xa5\x19\x08\x1d\x8f\xadb\xf8/\xc0\xba7\x824\xc3\xa2i\xa8\xc0\x06-\xb4\xfd\xe4\x1d\xce{\xd5\x9dCP\x87M\x84\xcb\x0cE\x94d\x0cv\xcf\xa5q\x1a\xbc\xba\xad\xd6\xbb\x0ci\x1b\x04I\\\x97\x1ft\x0ct4\xf9n$\xb6\x8c\xdb\xce\x88\xc5\x81\xc1&lt;`VH\xb9\xb3\xba\x9d\xf6\xc8\x1c\x0e\x18\xee\xce\x0f\xa5R\xbdI\xcd\x9f\x9d\x1d\xc6%p\xca\xa3==\rC%\xbd\xe5\xe4\xb1\x06\xb7WR\xa0nE\xc6\xdfSS\xcfg|a\x11\xd9\xcf\xb4 \xcbs\xd6\xb3|G\xa9\xc7ij\xabw).9\xc0\x1dH\xaesVK;\xc5K\xa9\xe1\x0eX\x8c2\x9c\x95\xae\x02\xcbJ\x9b\xfe\x12+\xbb\x98\xaeL\xd1J\xc9\xe5D\xe3\x020\x14\xe7\x1f\xd7\xd6\xb5\xb5=\x0ex\xedR\xe8\\~\xf9\x082;\xb7%}3U\xec\xee\xd9-\xd2)\x8b\x13\x1c`\xe4\x1e\xa4\x9a\xab\xa9\xa8\xb7A\xb9\tRw6Nv\x8f\\V\x0f\x88o|\xe4\x91\xa6\xcbH\x18l\xdap\x02\xf78\xf5\xc5x\x8f\xc7Kk\xbdS^\xb3\x9e8\x98(\xb5\xc0\xcf~z\xd7\xe0\xdb\xc8\xbb\xbbu\xebHZA\x9d\x88\x01=\xe9\xbeT\xa5K\x17\x19\x03\x83M1\xca\x1f\x96\x18\xdb\xc8\xa5XC\r\xec\x06\x07\'"\x94"\xaa\x84\xdd\xf7:\x8f\xad4*\xb3\xfc\xca\x0e:dSe\x1f8Q\xde\x94\xbf\x94\xbf78\xe9\x9a\x84\x98\xc7\xf0\x02\xc4\xe4\xe4t\x150\x00?\x98\xc39^\t\xa2G\x1e`\x0b\xc6W\xa8\xe2\xa3*\xeb\x80\t \x1e3\xda\x9d\x1e\xcd\xdb\xe4@\xd8\xea\x0fq\xe9^\xff\x00\xff\x00\x04\xca\xba\x83K\xfd\xb5|\x17\xa8\xdf\x15\x06\x19\xae0\xce\xf9\x0c\xc6\x13\xb4}rx\xfa\xd7\xee\x17\x86\xef\x06\xade\x1f\x99\x1a\x9d\xcb\xf2\xedo\x98V\xd2xV}FC5\xad\xa4\x8f\x84\xc2\xc7\x8c\xee&gt;\x94\xed\x1b\xe0\xde\xb5e}o\xa8k\xd0\xb0\x83v|\x8c\xee\xc7=\xeb\xeb_\x87\xf6m\x06\x8dm\x14\x0f\x88\xa3\x01V0z\r\xbd+\xd2\xbc+\xa7Iv\xb9h\x19\xa2\x89\x7fz\xf2s\x9fa\x9a\xad\xe2\x99"\x8awh\xad\xb3\xe5\x8cJs\x91\xecW\xfa\xd7\x0f\xabL\x97;\xe3\x962~m\xccO\\\n\xf3\x9f\x18\xe92\xeaR\xb41*\x9f\x9b;\x98\xe4\xe3\xd2\xbc\xeb\xc5\x84\xc3nm\x96\xf8n\x84\xed`\x17\x91\x9fZ\xc6\xf0\xc7\x86u\xf4\x99\xe6S\xbe\x18T\xf92\xed\xc6\xed\xddi/\xf5\x1b\xbf\x0c\xcao5;\xf2&gt;n\x0bd\x91\xf4\xad\xdf\n\xfcI\xd3\x99-\xe7*\xb8f\xc2\xba\xf3\x96\xed\x91^\xbd\xe1/\x17M\x7f\x1cWR\xbf\x9d\x18\x00\x05\r\x8d\xbe\xf8\xafT\xd15\xf4\xbf\xb3"\xdaB\xab\x91\xb9\x19s\xc9\xea~\xbe\xf5\xd0\xda\xc7\x1bHU\x8f\xcd\x18\x1b\x80=s\xda\x88.`{\x94s\xf2\x11\x90\x0b.\xec\x1e\xd5\t\x173N\xc8\x1dY\x06H\xc0\xda+.\xf2q\x16\xa0c\x91\x8a\x92\xb8\x00s\xf8Vv\xa7\xe7Nb\x85\x02"\x00Kq\x8c\xfb\xd6^\xb7&amp;\x9bd\xablet.w;\x83\x8f\xa9\xfa\xd7\x0b\xe3!\xab\xba\xac\xf6!\xa4\x8d\xdb\x12\xb3\x12J\x0foJ\xe5&lt;+g\xe2(\xbe\xd34\xc1"F\x97\x08\xae:\xfb\xd7I%\xbc*\xa8\xd1\xceL\xa0e\xb2\xdc\n\x96\xda\xf2x\xec\xde\xddB\x19\x00;\x1c\x1c\xe2\xa7v1\xd8\xf9\x91H\xad9\x1dA\xc0\x07\xdf\xda\xb9\x0f\x17G\xa8]\xdc\x18\xc2,\x86(\xc9\x94v&lt;VQ\xb5\x86[e\x89\x99m\xa6*Y\xd5I\xf9H\xe8?\x1a\xcc\x9fF_\xb5%\xb5\xb8\xf3QN\xed\xe4\xe0\x83\xed\xedQx\x8e\x07\x8d\x1e+\x8b\x82\xc3\x80T\x0c\x91\xf8\xd6-\xc5\xb2B$ay\xb1F\xdcFG\xde\xf6\xaa\xfa\xa6\xd9-\x12\xe6\xdc\x9c\xe7k|\xff\x00tW\'\xe27\x86)\x8f\x9fu\xccc\xcc\x007\xde\xc78\xae\x7f\\\xd0\xec&lt;@\xf1Mt\xc0\x14R\x142g\x00\xd7\xf3\xb80Hg\xe3\x153\x82\xa9\xb8\x9e\x08\xa6\x15\x05@\xc7Z\x8d#\xcc\x87q\xe0\x0f^\x94\xe8\xe5\xce\xe8\xc0\x1bq\x8c\xd3[\xef\x03\xeay\xf7\xa6\xa1&gt;a\xe6\x9f\x80c\r\x81\x9d\xc3\x93Q\xc9\x14\xb21!\x97\x00S\x0cAN\xe7\x19lu\x02\x9c\xe4\xf9}{R7,\t\xfe\xed\nI!A&lt;\x9e\x94\xe7\xda\x9c\x1e\xf5\xdd\xfe\xcc\x9e+\x1e\x06\xf8\xe7\xe1_\x13\xac\xdbV\xd3]\x85\x99\xc9\xe1&gt;u\xc9\xfc\xb3\xf8W\xef\xef\xec\x9b\xe1\x8dC\xe2\x8c\x16\xba\xca\x17K$Ui\xa4*0\xca@&lt;{W\xd4\x9ag\x83\xfc/\xe1\xab%\xb3\xb0\x89%.9\x90\x80H?Z\xc8\xd7.cw\x8dV\xdc#&lt;\xc1$\xdazs\x81\xf9\xd7\xa9\xf8,y\x16\x90\xb4o\x8cG\xb9\xdb\x19\xc7\x1dq\xde\xbd\x93K\xb8{;k{h\xed\xd5\xc5\xc9-5\xb2/@\x17\x86\xcfo\xa5T\xf1/\x87\xe4\xbe\x82[\xa8`\xb6\x86(T\xae\xc0\xb8 \x9e\xf5\xe7\x1e)\xd3M\xac3H#\xc6H@\x98\xe4\xe7\x8f\xca\xbc\xe3]\xd3\xe6\x8aE\xbd\x800`\x1b\x1e\xc7\xb1\xae3U\xf8\x7f\xe2\x1dV\x1b\xeb\x9d\x1a\xca\xdeK\xd9T\xf9rL\x80G\xbb\x1cn\xfcq]6\x8b\xe0]N=\x12\xde\xce\xf6\x05\x12\x88\xf19\xb7\xc9UoQ\x9e\xd5\xc8\xfcR\xf8o\x14\x80\xf9\xf8a"\x1d\x9b\xd3\x81\x81\xd7\xda\xbc\x0bY\xd4\xf5o\x85\x9a\xd1\xb9\xb2v\x96\xd2)rSn\xef\x9b=\xf3\xda\xbe\x82\xf8\x1d\xe2c\xe2\x7f\x0f&amp;\xb5\xa7\\#\xbb\x80d\x8c\x1f\xba\x7f\xa5{\xc7\x825y\xad\xed\x83O\tP\xe9\x83\x86\xe3&gt;\xa4w\xae\xc2\xce\xee\xe1\x9b\xcfh\xc1\x05r_w\\\x7f:\xb7a\x87\x93u\xb3\x959\xe1\\pM3R\x95\x8c2\x83!\x8e\xe0\xa1\n\x99\xca\xf4\xebY,a\xcc\xb7\x84\x12\xc0\x0c\x90\xf8Q\x8e\xb8\x15J\xf5\xe2UI\'\x92&amp;,\xc0+\x02p\x01\xf6\xf5\xae\x17\xc5W\xb2j\xb7\xa2\xdf\xed\xec\xac7(P\xbd\xaa\x1b\xddU\xad,E\x93\xc7\xbf\xe4\xf9\x98\xf7\xfa\xfa\xd6\x19\x90]2\xbe\xa2\x81bY\x01M\xbc\x0e\xbd\xf1UE\xed\xa5\xf5\x94\x91\xd8K `X;\x01\x90G\xa6MA\xe1I\xae\xa4\xbe\xb8\x8e\xed\n\xa4$*\xb7\xaej\xf6\xa7w5\xb4\xedi&lt;K\x99#,\xf2\xa1\xe1\x00\x1c\x0f\xc6\xb0\xb5\xcb\xcb\xb2\xec\xb6\x0cFJ\x86\x7fo\x7fZg\x93u,\x8a\xd3\x80\x1d\x80\r!9\xdf\xeci\x97:4I4\x92\xef\x90I\x18\x1b\xd8\x1e\x005\x89\xa9\xdf;\xac\xf7v\xc9\x1f\x90T\xab\xb1Pr\x00\xe7\xebXr\xdb\xdf]2\xca\xd6X\x81\xd8~\xf0\x9d\xc0\x8f\xa7j\xe7\xef$KO\xdd\x99\x99T\xc8s\xf2\xf1\xf9W-\xad\xae\x9f\x15\xe4\x92^\xcb\xe7\x95`\x14\xed\xe1s\xd3#\xd2\xaa\xd9j\xd3\xdd[\x07\xb7\xb7D\x01\x88\xcc\x92r\xde\xfe\xc2\xbf\x9d\x80\x81\xdc\xae:\xf4\xa7\x926\xf9l2E4\xf4\xa6\x05\x0e\xdbX\xe07\x04\xfbS\n\xb2\x92Tt\xe3o\xb7\xad\n\xc00/\x92\x01\xe6\x8c$\x91\x97\x84\x15\xe7\xbfZ\t\xda\x81\t\xea{\xd3DlI\x00\xf5\xf7\xa3cF\xa4\x12zS9&lt;S\xd6"\xc3\xf0\xe2\x95S\x90\x07Pi&amp;\x05\x9b\x00d\x9e\x95%\x8c\x93\xc5:\xc7h0\xe5\xfa\x8e0Oz\xfd\xec\xff\x00\x82T~\xd26\xbe:\xfd\x9a\xb4\xd9\xf4\xeb\xe5k\xcb\x0cZ^\xa6\xec\xe0\xaa\xe0\x13_bh\x1e+]W\xc8\x8d\\\x83\xb4\xb30\x1c3zT\x9a\xbc\xb6\xeb\xaaEx\xfb\x9a(g3J\x89\xd5\xf6\r\xd8\xc7~\x9cW\xb1\xf8\x01\xbc\xf8\xd6`\x00\x8eHC.8(=\r{g\x80\xa4\x81tsu\x1c\x99i\x1c|\xc7\xa9\xc5Y\xf1$\x1f\xf1$\x9ei\xa5!\xe7\xca\x94\x03\xaf\x1dk\xc9\xbcg~R\xe8\x8b\xa6Vh\xe5 \x14\x1f\xc2\x07C\\\xad\x95\xb5\x9e\xad;$\x99\xda[\x18\xcfJ\xeat\xaf\x04\xe8\xb1[\xc8`@z\x1c\x13\xc0&gt;\xb5OU\x8a+\t\xa5\x88\x15\xc0\x03\x1f7J\xe1\xbckqg?\xef\xa4t+\x1a\x9cn\x00\xe2\xbe_\xf8\xe9i\xa7\x93|\xd7V\xc1\x86H\x12\xf6\x19\x1c\x1f\xc2\x8f\xd8S\xc5\x17W\xfe+\xd4|\x1f\x1d\xe11Gi\x1b\xb2\xf6V/\xc7\x1d\xb3_hxwO\x9e\xde\xd4)\x8fv;v\xae\x9fMv\x1b\x16E\xdd\x16\xe1\x8c\xfd\xe0\xdf_J\xd8\x8a[\x89\x81\x81!\xea0\x8c\xc78=\xaa+\x98\xd5e\x92\x06b\xc6H\x8ed\'!x\xed\xe9Y\xb7\xa2\xce\x14\xd8\x91\x96\xf2\xe7%\x8a\x8e\xc0V\x06\xba\xe1\xe1\x8c\xda\xc9\x92\xc4\x95\x0ez7c\xeck\x99\xd5\xad\xa5\x87Q\xf3]A}\xec7\x06\xe9\xc5s\x97\xfa\xbd\xbd\xdd\xef\xd9\x9em\xee\x8e3\x16r\xdd\x7f\x95U\x92;\xa3q\x15\x8d\x9c\xb2\x10\xb9i\x19\x87J\x9aE\xb6\x89\x9a\x06\x11\xae\xd6\x1b\x80\x00g\xd6\x99"\xda\x9b\'\x8a\xd42\xbb\xc8\x0b&gt;\xea\xc6\xd6u\xdbxd\xf2\x1aU\xdf1\n\x91\xca\x99%\xba\x03Q\xda[\xdf\x05\xdd\x8f5Y\x86\xe6S\x8cU\xb4\xd2\xaec\xff\x00I\xf3\x17\x1d\xf1\xd7\x1e\xfe\xb5GY\xba\xbc\x826\xb4\x89\x8c\xbe~VV\r\x82\x14\x0c\xa9\xfcO\x15\x81\xa8\xc6m\xec\xfe\xc3%\x91\t?\xdd1\x9f\xbb\xeaj\xb6\xa5$\x1ae\x9cv\xb1\xdc\x18\xf22H88\xae\x1f\xc4\x9a\xa0\xb5W\xb8y|\xc5\x95\xb0\xa8\x07*;\x9fo\xads7\n\xd7\xecf\x9cG\x1f\x98\xa4N\xc5\xf8\x03\xb1&gt;\xa6\xb9V\xb2\xf2\xae%\xb7\xb8\xd4\xa3\xca?\xcaH\xed_\xcf\xf6B\x9d\xc3\xb54\xe5\xdbp?Zu!M\xc3j\x81\x93\xc0\xa8\xe4i\x00#r\xe4\x0c\x12:\xd3c8\xf9\xbd\x06i\xe8\xe1\xc6\xcc\xf5\xa8\xe6b%\x0e\x9c\x80@\xe7\xd6\x9a\x0b0\xdd\xb8\xe7wU4\xf8\xd89*\xe7\xee\xf5&amp;\x9b \xc9\xccc\x8a|$\xe4sK\xd2l\x0fZb\x12N\xe2y\r\xc1\xa26u\x91\x99\x1c\xa9\xf5S\x83_s\xff\x00\xc1\x1e\xbfj\x98~\x13\xfcG_\x85\xbe"\x9dc\xd3\xb5\xf9\x89\x0c_\n\xb2\xf4\\\xf6\xeb\x8a\xfd\xa4\xf0\x0e\xb5\x05\xb5\xb0\xb7\'w\x96\xca\x11\xc3n\x04cv\x7f*\xea\xb4]F\xde\xe7[\x81\x8a)\x1b\xb7\x10G\x7fZ\xf5?\x0c\xde0\x8e=\xed\xe5\x90\xe1\\\x0e2\t\xeak\xd3&lt;\x17\xe2g\xb1\xd3\xe0\xb778HX\x9c\x86\xebO\xf1\xf7\xc5ci\xa6\xfc\x97\x19`\x0e\xd2[\xa1\xaf\x1d\xd7~"F%\x11\xcd0a1gf\x03\xab}k2\xd3\xe2]\x8e\x95\x13_^\xb2\xc5\x10o\xbc]@\xfcI\xaf\x1c\xf8\xdf\xff\x00\x05k\xfd\x9a\xff\x00g\xe8&amp;\xb3\xf1O\xc4\xeb\x18\xef\x11\x8f\xfa,\x12\xf9\xae\xc4\x7f\t\xdb\xd3=+\xc0t?\xf8/\xaf\xec\xfb\xe3\xef\x126\x99\r\xf5\xfd\xb1g(\x93]Zm\x89\xf2p\x08#\xaf\xe3^\xa9/\xed\x9b\xe1\xaf\x18\xe9Q\xdd\xe9:\xcd\xbb\xc5"\x07\x8db\x90\x12\xe8z\xb1#\xb8\x1d\xab\xcb~-|p\xd2u\x92\xc6[\xf4he9(\x1f\xd3\xd6\xbb\xaf\xf8&amp;_\x86umn\xff\x00X\xf1\xf4\xe90K\xeb\xd5\x86\xc1\x19H\xfd\xc4G\x05\xc9\xef\x965\xfa\x0f\xa0i\x9eE\x8a\xc3\x1b\xef,\x9f1\'&lt;\xfaT\xf7K\xfd\x9c\xe9pc\x05I\x02@\x07n\xf5z-E%+\xf68\xc7N\x00\x03?\x85Gq;\xbc\x89\x04\xff\x00\xb9\xcb`)\xe0\x9c\xf6\xe2\xb3\xaeR\xe4\xf9\x8fi\xbf\xe5\xca\x10T`\xb1\x18\x19\xaeaa\xbe?\xf1\xfe\x14\xedc\xc0\xfe\x95\x8d\xae\x08\xe1\x8aE@\xdec\x12r\xc7\x91\x91\xeb\\O\xfc#\r\x0f\x8b\xa7\xf192dE\xb7\xcb\x04\xf21R*\xfd\x8e\xf0\xdc\xc2\xaf\xb5\xf9vg&lt;W\x13\xe3\xdf\x17x\x8bF\xbfX.\xedFo\x1fn\xe8\x86\x04jN\x018\xef[\x16\x9a\xed\x9e\xad\xe1\xf6\x95%w1O\xb1\xd18\xc8\xc7J\xb04\xe1%\xea\xf9q0\x95\x10\x05;r\x14\x1f\xe5]\x05\xb5\x8cR\x96\xb5\x81\xc4E\xf6\xe7\xe4\xc7\xd7\x1e\x86\x9b&gt;\x9f&amp;\x9bn\xd6\xf3\xb1bU\x84r\xab\xe0\x90G,}qY\x17:5\xad\xff\x00\xee\xe1\xbbs)\x01L\x87\xa7\x1d?#Xz\xb4\xb7&amp;R\xb6\x90+&lt;*P\xae8j\xe3\xfcG&lt;\x97\x9a\x99\x97\xcf\xdd\xe5.\xd8\xd0\xae\x06Or{\xe2\xb9Mb\xe2\xd2\xe5\r\xac\xa0o1\xba\x93\xbc\xe3\x90k\x9b\xd64\xbd&lt;\xa1\x8a\x19\xd1A\x1b\xa5\x1b\x8eN;\xfb\x9a\xe25\xc6V\xd4e\x8b\xca\x93tr\x10\\\xc8F\xe1\xc6+\xf0P\x90\x17\xf7\x87\x07u\x0c|\x9c\x12xn\x05(u\'\x1c\xf3Q\xbb\xba\xb9\x11\xb7\xd0\xfaQ\xf6w\x90\t\x18+\x1c\xf5\x1cR#\x14\\4c\xefc8\xa0\xc4K\x06S\x80\x0fjk\x01\x9d\xb8\xe0\xb7"\xa3\x04\xa1*\x87\x03\xd0T\x91\xf0\t\x03\xf8y\xf7\xa4%\xdb2\xaa\xe1H\xdb\x81N\'*\xaa8\xc7R)\xea\x89\x8c\xef9\xf5\xcdF\xc7\xcbq\xb4dg\x9ax!\xd0\xc9\x18\x01\xfa`\x0e\xde\xb5\xad\xe0\xaf\x12\xea\xbe\x18\xf1\x15\xb6\xb9c\xa9\x18$\xb6\x95^9\x14\x91\xb1\x81\x07&lt;W\xef/\xfc\x13\xc3\xf6\x9a\x8f\xe3\x87\xc1\r3\xc5\xb7\x92Dn\x96\xdd!\xd4\x13\xcc\xc9Y@\x0b\x9cv\xe2\xbe\x8f\xf0\xfe\xbd\x04:\xc5\xbc\x8b9\xc4\x9cr~\xeeOZ\xf5o\xf8IV\x13\x15\xcd\xb5\xe0\x920\x10H\xb8\x1c\x8e\xf5\xd2h&gt;&gt;\xb3\x9dD01$\x91\xf2db\xb1~"k\xf7S\xc9\xf6\x0bW(\x19I\xde\xea\x08\x07\xeb\xda\xbck\xe2\xf7\xc5]\'\xe1\xc6\x975\xce\xa9\xabC\xbd\x10\x95\x1b\xfaq\x9f\xc2\xbf$\xbf\xe0\xa1?\xf0T\x9f\x8c\x9e7\xd6\xaf~\x1f\xfc0\xd7f\xd1\xf4\xa8fh\xa4\x9a\xd8\x9f:S\xd0\x85l\xe5s\xeb_&lt;\xfe\xcc\xbf\xb2\xb7\xc7\x1f\xda\xef\xc6\xfeV\x85\xa7\xde^\xcd;\xee\xbd\xd5n\x83\xb8PO%\x99\xbd\x05~\xad~\xcf?\xf0A\x8f\x83~\t\xd0\xedu/\x8b7rkW\xf3\xdb,\x8d\x14NDQ\xb63\xb6\xb4&lt;]\xfb\x15|;\xf8as.\x95\xf0\xea-J\x18\xd4\x9f&amp;\xce\'i#B=\x07A\xf8Uo\x84?\xf0O\x7f\x8a?\x175\xc9\x07\x89g6:0\x7f\xf5\x8d\xfe\xb1\xd3&lt;\xa8\xf4\xc8\xe2\xbfB\xbfg\x7f\x81Z\x17\xc2\xcf\x0cZx[I\xb2\xf2\xd2\xda\x10\xaaT\x01\x90\x0eI\xfc\xc6~\xb5\xeb\xd1\xe9\xf1\xe9\xf6\xaa\xd6\xeb\x9c\xfd\xe0\xa2\xb0ma\xf1#\xea\xda\x82\xeb\xac\x87O\x8eE\xfb&amp;\xdf\xbc\xd9\xeb\x9a\xb1\x0c+\x03\xf9\xcd!1\xef\x18\x0b\xd8U\xff\x00 5\xa8\x126\xd0\xcd\x949\xdcO\xb7\xb5T\xba{\x1b\x0b2$F\x03\xcc\x0cF\xef\x98\x91\xeb\xea+\x9a\xd6/ K\xc7h\x93`f\x1b00\x015\x89\xa8\xfd\x97\r{3y\xad\xd3\x07\x91\x9a\xe7\xe5\x94\xa3\x12\xccIuby\xed\x8a\xe7\xeeu\x08\xee\xee\x1e\x1bp\xa1T\x10T\xf75\x8f\xac\xe8rk3\xf9W\x8e\xa1\xc8\xfe&gt;F=j\xd6\x95\xa2\xdb\xe8:A\xb3ka\x13\xb4\xb24\xe59\xdev\xf0\x00\xecMnhqK:\x99\xed\x97\x04Jw\x83\xc2\x95\x03\xa1\xa6x\xe6\xfe\xe7G\xb4\xf3\xac\xa2\x93tq\x19K\xaeO g\x00\xd5o\n]\xdf\xf8\xa7B\x17\xba\xcd\xba\x19DN#\xda\xc4\x10\xa4\x1c\xfe4\xcdf\x06\xd3a\xb6\xfb\x1c\xee\x07\x96\xab"\xa9\'\x92\xd8\xc9\xaerH\xef\xee..%*\xa8\xa26\xd8\xd8\xc7\xcd\x8e\rsZ\xc6\x9d%\xd4d\x07\x00B\x0b;\x13\x8c\x0e\xa4\x8a\xe3\xafYYer\x83\xe6\xc8\x88\xe3\xa0\xf5\x1e\x95\xc9\xeb\xf2\x88&amp;}\xd0d\xec?8=x\xef\\U\xed\xf5\xc6\xafy%\xd1\x86\x103\x80Y\x06M~\n2\xf9\xc74\x97\x07r\x001\x95\xe7&amp;\x98\x92\xae0\xfc\x9e\xd8\xa3\x13\x13\xb9\x17\x1fJ\x18K\x9d\xe5rG \x91H\xdek\r\xea\xe0\xf3\xc8\xa7\xa3\xc8F\nS\xbc\xa8[\x92\xd5\x0e\xc8\xfc\xcf\xbdD\x7f\xeb0zzS\xde@\x06\xc5\x1czv\xa8\xc8\xdc\xa7\x9c\x1cqK h\xd7\x04\xaf\xdd\xedJ\x02\x97\xc3\x0e6\x9c\xfeT\xe71,\x99G\xdavu\x14\xab,\xa6@\xd2F\x17\x03\x84#\x86\x1e\xe3\xbd}\xa7\xff\x00\x04\x91\xfd\xac\x9b\xe1_\xc6(~\x1a\xf8\x96\xf3\xca\xd1&lt;BV\x18^Y\x0e!\xb8R6\xb3g\xfb\xc7\x03=\xc5~\xc0x{Z\xb6\x8aKcxKG,\xeb\x0b\xb0\xe7\xae\x08 \xfa\x10kw\xc6\x9a\xff\x00\x89&gt;\x1chF\xfdt\xdb\x9b\xdb\x19\x14\xed\xbd\x86=\xde^G\x01\x94s\x81\xeb^\x17\xe2\x8f\xdbG\xc7\xfe\x14\xd5\x0cZ\x17\x84\xaf\xe6]\xdc\xba\xc2\xeb\x9f\xa0j\xe2~3\xff\x00\xc1V~+x\x1b\xc2\x86_\x12|&lt;\x9e\xc9\xb67\x934\x89\xf7\xc6=\x07z\xf8_\xe3\xc7\xfc\x15c\xe2_\xc4k\x8b\x8b\x05\xb5\x99VF*\xe6f\'\nx8\xcdxo\xc0\xbf\x86\xbe.\xfd\xa9\xbe6Zxy-\x1eY\xf5\x1b\x90\xf7&gt;R\xfc\xb1\xc7\xb8g\xe9\xc5\x7fA\xdf\xb0\x7f\xec\xdd\xf0\xff\x00\xe0\xff\x00\xc3{/\x06\xe8\x9a\x041Cmm\x1f\xdanV%\x0c\xeeq\xbb\x909\xaf\xa6&lt;E\xa8\xd9izY]-s\x1d\xaca\x96&lt;pH\x19\xe9^u$\xba5\xd6\xa3\x1d\xda\xda"\xb9l\x86\x08\x01bO&lt;\xd7\xa0|?\x86\xcd\xa2c\x15\xb2D\xb2}\xdf\x94\x0eEw\x1a\\\xb6\xd1\x15\\6\xe5\xe0\x15\xfe_J\xdf\xf3\xa3\x8e-\xf0\x8d\xcc\x10\x90\x83\xd7\x15\x8b\xae\xdf\xd9\xd8\xcd-\x95\xd4\xc5\x08\xc3D\xca\xbc6z\x83U\xacn\xe3a\x82\x0e\xc6\xee\x16\xae+\x84\x9f\x10I\xe5\x82\xbc\x92q\x9f\xadck\xe4\x1b\xd0\x11\xd9\x92%;\xd8\x9f\x99\x8f\xa6}+\x03U\xbcB!\x13\xc6@f\xe0\x9e\xfe\x95\x81\xac\x99\xe5\x86/\xec\xf7\x08\xa1\xc9\x95O\xf1\x81Y\xd3\xdd@N\xd9"\xda@\xc1`y\x02\xb9\xedN\xc0\xc1pn\xed!%\xa6|\x84\x1e\x83\xad`A\xaek\x0b\xf1\x16m/X\xd2\x7f\xd0\xde\'1\xdc\x1eT\x00\xbd+\xab\x8bOYd\xfbLQm&amp;rI\xcf\x0c\xa0V\x9e\x91\xa7\xdc\xa4\xd2\xd9\xc0\xe0#\xb8,\xa7\xa1\xcfZ\xd1\xd6m\xd2XD\x11&amp;"\xd8Q\x97\x1c\xe4\xf1\x9a\xa4`\xb4\xd3l\xc2F\xa5UF_o\x1cw\xaa\xb1\xdb\xc1kb\x1fp&amp;@\xd8f\x19\'\xd0f\xb9O\x17\x15\xb2\x91&amp;h\xdd\x8e\xf0B\xafs\\\x96\xa9eq,O\x0c\xa6L\x0c\xbb\xb4\x87\'\x1e\x9fOj\xf3\xef\x13jQ\x1dYt\xb4R\x03\xc4\xd8t\\)\xe3\x91\xc7\xadp~1\xd5\x95u)m\xedn\x91\x02\xa8R\x87\'\x15\xc3\xdf\xeb\x06\xd8\xacP\x10\xe3\x92X/|\xd7\xe1\x92\x90\x0eI\xc7\xb0\xa4t\x127\xb1\xeb\xf4\xa7I\x14Q\x05\xf2\x80\xfc\xa9\x12]\xccrq\xec*\'v*CHp[\x07\x9e\xd4\x89\x1c~q]\xdbF\xde\xa3\xbd=dE\xf9\x0b\xff\x00\xba}i\xae\x06G\x14\xd6\x008 \x7f\x15\'I\x0e)i\x18n\x1c\xd3\xa3\nHWP\xdd\xb9\xa4(\xa1\xf3\x83\xff\x00}\xd2!g|\x88\xc6?\xda\x1c\xd2\xef,\xe4\xc8\xc5\xb0?\x88\xe7\x8a\xd1\xd05\xedCE\xd4\x93R\xb0\xba\x92\x19\xd2Ed\x9e6!\x95\x81\xc89\xf6&lt;\xd7\xed\xa7\xfc\x13\xeb\xf6\xa2\x93\xf6\x8d\xfd\x9f\xac5+\xfb\xa4:\xce\x94\x16\xd7[\x8f \x93p\xab\x85\x90\x0e\xca\xc3\x02\xbe\xda\xf8-\xae\xc9\xad\xe8v\xedw82\xa4@2\x03\xd7\x9e\xa6\xb2?i\xff\x00\tiz\x86\x894\xabo\x12\xc9\x04I"J#\x1b\x9b\x9ey\xaf\x89\xff\x00j\x9f\x01\xe9\xbe6\xf8C\xa9\xda]X#\xc9\x15\x93\xbcR6\x060\xa7\xf4\xf5\xaf\xcc\x18\xfe\x00\xf8\xab\xe2\x17\x89\xe3\xd2\xbc\x11\xa0\xdej7\x8f" \x82\x0bf+\x9eG\xde\xc7\xafz\xfd\x1a\xff\x00\x82_\xff\x00\xc1=\xbcm\xf0\'U\x8b\xc5\xbe&lt;\xd2$\x83U\xd5\x95NI\xff\x00\x8fh\xf22=\xb8\xed_\xab\x1f\n\xbc\x1b\x1e\x87\xa3\xad\x95\xa2\xbc\x82D\xdc]\xba\x82:\xe3\xde\xb4\xb5\xb6\xbb\x8b\xf7\xd1\xb80\xc8v&lt;2\xb6\x1c?E\x03\xeak\xcfu[\xfb\x9d\'W\x8cj\x91\x0bE\x8eP\x11I\xe3\x93\xd7\x8e+\xd3\xfc\'\xab9\xd3\xd5\xdeT_\xbab\xc7\xa5wv\xd7\xd6\xb6\xf6\x8dr\xd3\x0c\xaa\x06e^\xb5zMI\xa1\xbd\x115\xf2\xa82\x85\xdc\x83\x1f3\x0f\x94\x0fl\xe34\xeb\xc5\x13Y\x96\xb8\x8e7t\'\n\xc0c\xebXV\x9e%2\xc5%\xbcdmR|\xb5\x03\x05@\xeb\x93\xdf\xda\xa5\x8bXWbg\x93{\x1cn\xf9F\xd1\xe9\x8fA\xebU&amp;\xb9\xc5\xe4\x88\xf3\t\x1aD8\xe78\xac\xdd^\x0f\xb4F#\x90n\x00p\x0f8\xac\x8b\x88\xeda\xb6,r\xaa\x99\x01z\n\xc3\xbb\xd3ld\x91\\J&gt;S\xf3\xe1\xcfCUn\x0c\xb3\xdb$v|\x14\x0c\x03\xff\x00\x16=3T5\r&amp;\x19,\xde\xdc\xb7\x99\xf2\x91\x96\xe7;\x86\x18\xfdi\xf6\xcfz#D\xb2\xf9\x96%\xea\xe38\xe2\xb7\xf4)X\xde)\x95\xd2Gu\xf9\xbeL\x01\xefZ\x84\xaa\xea&gt;D\xf2+#\xae\x03\xec\xe8j\xad\xed\xac7\xe1\xad\x19c1\x83\x89\x01\xe8\xcb\xdc\x1a\xc1\xbd\xd3.\xa4\x8cE\x05\xc4\x91C\x1e\xe2\xa9\x19\xc88\xed\xcfJ\xc6\xf1\xc4\xd6\x03L\x94\x04&amp;X\xd4y)\xdd\xfd\x7f\x1a\xf3\xcdkQE\x8a}E3\xe6\x00\x18B\xc7 \x81\xce=\x89\xaf=\xd7\xee\xf5y\xa2\x9a\xf3\xec\x91Fc\x904Q+ch\xf5\x02\xbc\xdfT\xd5o\xae\xe6\xb8\xba\x9e\xccow\xc1\n\xa3\x95\x1dk\x90\x1a\xb3\xdb\xee\x8a\x08C\r\xe4\x9d\xc3=\xeb\xf0\xfaH\xdc\x9c\x06\xe6\x942\xc4\x84H2q\xda\x9a\xca\xa0\tRC\xcf\xf0\xe7\xa5+\x81\xb3v9\xf5\xa8_%H\xcfn\xf4\xa9\x0b4\x8e\xa6U=06\xd3\x8c :\xab\xf4\xcf_JVh\xda"\x91\x1c\xb0=i\x8b\xe6!\xcb&amp;y\xefC:\x96\xce\x00&gt;\x9e\xb48\xc1\x1bO\'\xa8\xf4\xa0\x1d\x9c\x1e\xbe\xf4\xe1n$B\xdea\x04\x0c\x81\x9ab[\xb2\xfc\xe3\xa8\xe75#\xa3\x94\xde~\xf0\xe9\xefL\x88*\x93\x19\xe40\xfb\xc7\xd7\xd2\xa42\x1byT\x83\x8c\x0c\x8cW\xd0_\xf0O_\xda\xd7T\xfd\x99&gt;5Y]\xea\x1a\x91:\x16\xaf"Y\xebP\xa6Bl.6K\xb7\xa1\xc1=}\xab\xf7\x83\xf6w\xf1.\x99\xa9\xc3\x04\xbaE\xeaI\x04\xe1\x1e\x1b\xa8e\xc8\x96&amp;]\xcb\x8ct\xe4\xe2\xbb/\x8d0\x7fiiO\x04\x81\x89\xfb+(*~R6\x9e\x0f\xbd|\xc17\xc3\x9b\xdf\x8b\xfa\xcf\xfc+\xe4\x84\xc7m)h\xefJ\x0c\x15C\xc1\x1f\x915\xf5W\xc0\x9f\xd8\xa7\xe0g\xc1\x7f\x0f\xc1\x0f\x84\xfc\x1b\xa6\xc5qon\xb1\xcd|\xb1\x833\xbfV\'#\x8e+\xa2\x93\xc1\xb6Sx\x8e\x1b\xbbU\xda\xb6\xfc2\xa0\xc0oBq\xd6\xbd\x1b\xc2\xa9wo\xa6E\x05\xccj\xac\xa1\x96,\xafBz\x13T\xb5\xbd:\xce\xfe\xe5\x1bkyw\x19\xfbN\xee\x00e\xe8q\\\x8e\xbb\xe0y\xaem\xa7\xddpn"rJ\xa4\x8f\x96\xc0\xec\t\xe8+C\xc3Qk6:jC{a\x86\x87\x80A\xdd\xf2{{\xfaWO\xa4\xf8\x8a\x1b\x96c\x97T\x89\xd4M\xe6\xb9V+\x9eq\x8e\xf8\xad\xf7\x9e9.\xa2\x8e\x0b\x86&gt;\\\xad,\x9b\xce\xec\xe0dc\xd3\xde\xa5\xfe\xd4\x9a\xefN\xbaI\xa6\x93\xe4\x803\x15c\xcb2\x1c\xa7\x1dG|V2;\xcd\xa7D BL\xb1\x87s\xe5\xbe\xe3\x83\xeb\x9e\xb4\xcb\xedN\xce\xcfZ\x86\x08Z8\x86\xf6s\n\xc48\x8d\x97\x07\xf0\xefN\xd2\xb7\x96,\xd7\x12\xf3\xb9\xc4\x8e\xbdTv\xcf\xa5O5\xd5\xa4\xd6\x8dp\xf7\x98\xda\xd8\xe1\xab\x1e\xe6e\x92\x0f\x98\xe7ct&lt;\xee\xcfz\xcc\xd4\xa2\xb8KGK|\xf9\xae~R;\xfa\n\xa3$\xf2Y\xdb\x82\xd6\xb9\n\xa7{ \xe8i\x97"\x10\x88m\xd3\x18\x95\x95\x81\xf4"\xa3\xd3\'62\x86\x96\xd9\xccn\xac\x15\xfbn\xed[*m"\x92\xda\xfd\xb2\x920\xe5S\x80G\xbf\xad.\x8bu3\xda\x1b\xbb\xec\x80S\xe4S\xc8&lt;\xf5\xa5\x8ak[\x18\xe4\xbb\x96f/9\xf9c#\x80=\xbd+;T\xd5\x8e\x9e\x80\xe5$#\xe7\x19\xe4*\xf5\xfc\xeb\x86\xf1U\xcc\xb7\r\x16\xac.\xa3\t\x1b\x1f+\xcc&lt;\x1c\xf5\xaf:\xd5u\x19g\xb6im~B\x923?\x96\xc4\xab\xe3\x9e\xf5\xcb\xf8\xd7^\xb6\x8e\xcfj\xc6\\\xc8\x84L\xddN;\x8a\xf2\x1dj\xfe-\x02\xd3\xc8\x8a#qvm\xca\x07V\xfb\x8d\x9c\xe4\xfa\x9cW/\xa7\xb5\xcb+\xc8#\x96R\xcf\x96&amp;0p}+\xf1;~I\x06\\\xf1\xd3m*\x0f5\x19[\x8c\x0e1\xde\x84@\x88T\xa8\xe9K\xb48T\'\xa9\x02\xa3\x08\x8b!Bzt\xa03,{\xd7\xae\xe1\xcf\xadH\xd1\xbc\xca\x19\x88\xfc\x05G\x1c;nw\xaf\nN0(\x92i\x15\xd86\x08^\xf8\xa6\r\xaf\xfb\xcd\xa3\x9e\x9ct4\xcd\xc67\x1d\xc9\xa9\x9dT q\xc94\xd5&lt;\x81\x9e3O2\xe6P\x9d\x00\x1d\xbb\xd1,\xe1\xf0\x80r;\xd3\x91\x17h\x01G\\\xf4\xefMw/&amp;6\x80G\xf1w\xa7\xd9\\\xfd\x96\xec\x05n\x02\xe38\xce\x07\xf9\xed_\xae?\xf0D\xaf\xda\xd3Z\xf8\x85\xe0\xef\xf8U\xfe!\x9eW\xd4&lt;4c\xf2nX\x12\xd2\xd9\xbb\x00\x80\xb7\xf7\x81\xfd+\xf4\xbb\xc5\x13\rGI\x96\r\xab\xfe\xa82\xe5{\xe2\x8f\xd9\xaf\xe0\xf7\x87 \xd5o\xfccyn\x92Op\xc4\x04+\x90\xa7\xd7\x15\xeb\xbe \x06\x0b),-\x98\xa9\xdd\xf7\x80\xc620\x7fJ\xa1o\x7f\xe1\xad\x19&gt;\xdbw!y\x162Y|\xa3\x82@\xcf\xa5Q\xb1\xf8\xf5\xe0\xd5akugp&amp;\x0eB\xb2\x83\xd2\xb64\xcf\x89_\x0f&lt;P\x8f\x04^k\xcc\xaap\xaf\x01\\\x1f\xa8\x15b=\x1a\x0b\xa2.\xd1F\xc209\xe7\x1e\x9e\xe3\xda\x96\x1d&lt;\x02m\xa2\x8c\x12\xee\x14\x0c\x00\t\xe8)\xf0h\xb1\xc0\x93\t`\x08\x84\x10@9%\xbbT\x92_\x1d1&gt;\xc8\xf8W\xc7\x96\x1dGE~\x0fOcT\xec5\xc9\xad\xa5\x16\x17S\x88\xf7\x93\x93\xf30\x94\x91\x81\x91\xeb\x8e3R\xc3\xabB\x93\xdd\xdc\xdb[\xacp[`\xdb\x8cr\x13\x1bW\xff\x00\x1f \x9fQY\xb6K\x16\xafv\xda\x93\\4\xaa\xd9\x85\x8bd3\x06\xe0\x8c\xfas\xd2\xack~$\xb5\xb0\xbf\x83L\x88\xca\x8d \x11\xa2\xa2\x82\x8a\x0f\x1d\rf0\xb8,\xb1K|6.\xe2\xea#\xfb\xff\x00Z\xd2\xfb\x14\xb6\xf1\xba\xcb8wp\x19F8\xdb\xe9\xf5\xae\x7f\xc5\x1e }\x03Q\xb3\xb7\x9e\x07o\xb5\xb8\x11\x95\x93\xee\x9c\xf5\xab\xf7Q\xe2\xc5V\x16\xff\x00Z2\xe0\xfe\xb5RI!x\xccl9\x1c\xee\xc7$\xd4\x7f\xdb0\xa6\x91\x1d\x9b)?9\xc0=3V\xad\'\x86\xfe8T\x89\x15\xd5\x08\xdd\xbf\x81V\xa3yf\xb5\x8dZE\\\x1e\x8a\xb8\xc6\xde@\x1fZ\xcd\x92\xfa\xe7U\xbaa\x19\xd8\x17\xe5\x04\xf3\x81\xdf\x15\x8d\xad\xde\xbd\xb4\xd3\xe9rB\x1dbh\x95d\x1cn\xde\xa79\xf5\xae\x17\xc4W\x81\xa0\x84M\t\x16\xd1DU\x15[\xa4\x84\xe05s\x1e!;4rL\xdc\x8b}\xc0c\xee\xf3\xf7\x87\xbdx\xe7\x88\xbcY3^\x9b\x0f9\xbc\xc9\t\xdf\x8c\x80\x00\xf4\xf45\xe7\x9a\xbe\xad\x1c\x9a\xb6\xc8A\r\x10g\x9b\x7f&amp;O\xc7\xd7\xde\x98u\x86\xd2?wg\x11\xc4\x9f1\xf9\xbb\xd7\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x14\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8K\xcf\x8a\xda\xe4n\xb5X\xb11\x0f\x83\xd4v\xae\xcf\xc0&gt;.X\xefcX\' \xab\x1d\x91\x81\xf7\x87q\x9e\xd5\xed\xda\'\x8c[T\xd2\xe3\xb7\xfb\x02\xeea\x87R\xfb0\x07}\xc3\xae?\xadg\xf8\xe1\xe1\xb8\xf9\xad\xac\x926(\x00hSj\xb8\x1d\xf0;\xfb\xf7\xaf\x99&gt;&gt;4\xf1\xde4\x9eS0\x0c\xc3\xcbN\x9ft\xf5\x1f\x85h\xfe\xcb\xba\xa5\x9a\xdc\xcb\x05\xecN\xb0\x85\xccA\xdbj\x99\x08\x18PG*Oc^\xb1\xa5x\xc2M\x1f\xc5\x13\xda_!Rf\xc7\x931\xe5}3\xd8\x91\xd9\xba\x9c\xd5o\x88\x9f\x08\xdf\xc4\xfe%}gC\xd2\xad\xfc\x99\xa2RL\x8c2[\xb95\xe7\x9e"\xd0\xe7\x96\xe4\xcds(\x85T\x1c\xa1L\xe4\xfdk\'J\xbf\x83N\x9f\xccW\xdc\xa8\xdd\x13\xbdz\xdf\xc3\xbf\x16\xf9\xb1\x0buX\xd27L\xecv\x07\xa7\xf2\xafB\xd7n.\xf5\xcd\x1d.-fVx\xed\xf1\xf2e\xb0=\xc9\xe5}\xb1_4|r\xd2.\xad\xe6\x9a\xeah\x1aH\xcf;\x9f\xa0\xeb\x9c\x1e\xa7\xafz\xe6\xbe\x01\xeb\x96zv\xb44\xf5\xba\xd9\xe7HK,\x83\xe5\xdb\xfd\xdf\xc7\xfaW\xa3\xfcS\x9e\xf2\xdfV\x8a\xfa\xce\x0f&amp;2\xaaUw\xee*G}\xde\x87==\xab\xa4\xf0w\xc5[yt(\xce\xb5`\xb2N\xa4\xa9u\x93\x82\x07J\xad\xe2\xeb;}GC\xc4\x89\xe5\x94$\xe6\x1f\x97=:\xf6\xaf+\xb5@\x97\xef\x00?)rx\x00\x7f*\xee&gt;\x1d\x80&amp;\x12\xaa\xa8d \x03\xb4\x12r{\x93\xd6\xbd\xdb\xc2\xda\xc5\xd5\xa7\x87\xa4\x89\x126\xc4\xcf\xb5\xd9&gt;e\x00\x0e\x03\x0c\x109\xe9\x9ct\xaf\x10\xf8\xff\x00\xa7\xdb]\x89\xc4\xcaw0`\xce\xa7\x05\xb1\x823\x8f\xa9\xaf\t\xf0\x9c\x92[km\x14N\xc0\'\xcc\xa7q\xcf\x07\xa7\xd3\xda\xbe\x93\xf1\xbe\x81\xa67\xc3;\r^8\x04r\x9b,\x95@6\x12\xc0d\xed \x8e\xd5\xe2\xbas\xca eK\x89P\t\x08\xc4r\xb2\x8f\xc8\x10+\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x7f\x01}\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc=e\xf3\x8ei.\x0e\xe4\x00c+\xceM1%\\a\xf9=\xb1F&amp;\'r.&gt;\x940\x97;\xca\xe4\x8eA"\x91\xbc\xd6\x1b\xd5\xc1\xe7\x91OG\x90\x8c\x14\xa7yP\xb7%\xaa\x1d\x91\xf9\x9fz\x88\xff\x00\xd6`\xf4\xf4\xa7\xbc\x80\r\x8a8\xf4\xedQ\x91\xb9O88\xe2\x96@\xd1\xae\t_\xbb\xda\x94\x05/\x86\x1cm9\xfc\xa9\xcebY2\x8f\xb4\xec\xea)VYL\x81\xa4\x8c.\x07\x08G\x0c=\xc7z\xfbO\xfe\t#\xfbY7\xc2\xbf\x8cP\xfc5\xf1-\xe7\x95\xa2x\x84\xac0\xbc\xb2\x1cCp\xa4mf\xcf\xf7\x8e\x06{\x8a\xfd\x80\xf0\xf6\xb5m\x14\x96\xc6\xf0\x96\x8eY\xd6\x17a\xcf\\\x10A\xf4 \xd6\xef\x8d5\xff\x00\x12|8\xd0\x8d\xfa\xe9\xb77\xb62)\xdb{\x0c{\xbc\xbc\x8e\x03(\xe7\x03\xd6\xbc/\xc5\x1f\xb6\x8f\x8f\xfc)\xaa\x18\xb4/\t_\xcc\xbb\xb9u\x85\xd7?@\xd5\xc4\xfcg\xff\x00\x82\xac\xfcV\xf07\x85\x0c\xbe$\xf8y=\x93lo&amp;i\x13\xef\x8cz\x0e\xf5\xf0\xbf\xc7\x8f\xf8*\xc7\xc4\xbf\x88\xd7\x17\x16\x0bk2\xac\x8cU\xcc\xccN\x14\xf0q\x9a\xf0\xdf\x81\x7f\r|]\xfbS|l\xb4\xf0\xf2Z&lt;\xb3\xea7!\xee|\xa5\xf9c\x8fp\xcf\xd3\x8a\xfe\x83\xbf`\xff\x00\xd9\xbb\xe1\xff\x00\xc1\xff\x00\x86\xf6^\r\xd14\x08b\x86\xda\xda?\xb4\xdc\xacJ\x19\xdc\xe3w s_Lx\x8bQ\xb2\xd2\xf4\xb2\xbaZ\xe6;X\xc3,x\xe0\x903\xd2\xbc\xeaItk\xadF;\xb5\xb4Er\xd9\x0c\x10\x02\xc4\x9ey\xaf@\xf8\x7f\r\x9bD\xc6+d\x89d\xfb\xbf(\x1c\x8a\xee4\xb9m\xa2*\xb8m\xcb\xc0+\xfc\xbe\x95\xbf\xe7G\x1c[\xe1\x1b\x98!!\x07\xae+\x17]\xbf\xb3\xb1\x9a[+\xa9\x8a\x11\x86\x89\x95xl\xf5\x06\xabX\xdd\xc6\xc3\x04\x1d\x8d\xdc-\\W\t&gt; \x93\xcb\x05y$\xe3?Z\xc6\xd7\xc87\xa0#\xb3$Jw\xb1?3\x1fL\xfaV\x06\xabx\x84B\'\x8c\x80\xcd\xc1=\xfd+\x03Y3\xcb\x0c_\xd9\xee\x11C\x93*\x9f\xe3\x02\xb3\xa7\xba\x80\x9d\xb2E\xb4\x81\x82\xc0\xf2\x05s\xda\x9d\x81\x82\xe0\xdd\xdaBKL\xf9\x08=\x07Z\xc0\x83\\\xd6\x17\xe2,\xda^\xb1\xa4\xff\x00\xa1\xbcNc\xb8&lt;\xa8\x01zWW\x16\x9e\xb2\xc9\xf6\x98\xa2\xdaL\xe4\x93\x9e\x19@\xad=#O\xb9I\xa5\xb3\x81\xc0GpYOC\x9e\xb5\xa3\xac\xdb\xa4\xb0\x88"LE\xb0\xa3.9\xc9\xe35H\xc1i\xa6\xd9\x84\x8dJ\xaa\x8c\xbe\xde8\xefUc\xb7\x82\xd6\xc4&gt;\xe0L\x81\xb0\xcc2O\xa0\xcdr\x9e.+e"L\xd1\xbb\x1d\xe0\x85^\xe6\xb9-R\xca\xe2X\x9e\x19L\x98\x19wi\x0eN=&gt;\x9e\xd5\xe7\xde&amp;\xd4\xa2:\xb2\xe9h\xa4\x07\x89\xb0\xe8\xb8S\xc7#\x8fZ\xe0\xfcc\xab*\xeaR\xdb\xda\xdd"\x05P\xa5\x0eN+\x87\xbf\xd6\r\xb1X\xa0!\xc7$\xb0^\xf9\xaf\xc3% \x1c\x93\x8faH\xe8$oc\xd7\xe9N\x92(\xa2\x0b\xe5\x01\xf9R$\xbb\x98\xe4\xe3\xd8TN\xecT\x86\x90\xe0\xb6\x0f=\xa9\x128\xfc\xe2\xbb\xb6\x8d\xbdGzz\xc8\x8b\xf2\x17\xff\x00t\xfa\xd3\\\x0c\x8e)\xac\x00p@\xfe*N\x92\x1cR\xd20\xdc9\xa7F\x14\x90\xae\xa1\xbbsHQC\xe7\x07\xfe\xfb\xa4B\xce\xf9\x11\x8c\x7f\xb49\xa5\xdeY\xc9\x91\x8b`\x7f\x11\xcf\x15\xa3\xa0k\xda\x86\x8b\xa9&amp;\xa5au$3\xa4\x8a\xc9&lt;lC+\x03\x90s\xecy\xaf\xdbO\xf8\'\xd7\xedE\'\xed\x1b\xfb?XjW\xf7Hu\x9d(-\xae\xb7\x1eA&amp;\xe1W\x0b \x1d\x95\x86\x05}\xb5\xf0[]\x93[\xd0\xed\xda\xeepeH\x80d\x07\xaf=Md~\xd3\xfe\x12\xd2\xf5\r\x12iV\xde%\x92\x08\x92D\x94F77&lt;\xf3_\x13\xfe\xd5&gt;\x03\xd3|m\xf0\x87S\xb4\xba\xb0G\x92+\'x\xa4l\x0caO\xe9\xeb_\x981\xfc\x01\xf1W\xc4/\x13\xc7\xa5x#A\xbc\xd4o\x1eDA\x04\x16\xccW&lt;\x8f\xbd\x8f^\xf5\xfa5\xff\x00\x04\xbf\xff\x00\x82{x\xdb\xe0N\xab\x17\x8b|y\xa4I\x06\xab\xab*\x9c\x93\xff\x00\x1e\xd1\xe4d{q\xda\xbfV&gt;\x15x6=\x0fG[+Ey\x04\x89\xb8\xbbu\x04u\xc7\xbdikmw\x17\xef\xa3pa\x90\xecxel8~\x8a\x07\xd4\xd7\x9e\xea\xb7\xf7:N\xaf\x18\xd5"\x16\x8b\x1c\xa0"\x93\xc7\'\xaf\x1cW\xa7\xf8OVs\xa7\xab\xbc\xa8\xbft\xc5\x8fJ\xee\xed\xaf\xadm\xed\x1a\xe5\xa6\x19T\x0c\xca\xbdj\xf4\x9a\x93Cz"k\xe5Pe\x0b\xb9\x06&gt;f\x1f(\x1e\xd9\xc6i\xd7\x8a&amp;\xb3-q\x1cn\xe8N\x15\x80\xc7\xd6\xb0\xad&lt;Je\x8aKx\xc8\xda\xa4\xf9j\x06\n\x81\xd7\'\xbf\xb5K\x16\xb0\xae\xc4\xcf&amp;\xf68\xdd\xf2\x8d\xa3\xd3\x1e\x83\xd6\xaaMs\x8b\xc9\x11\xe6\x124\x88q\xceqY\xba\xbc\x1fh\x8cG \xdc\x00\xe0\x1eqY\x17\x11\xda\xc3lX\xe5U2\x02\xf4\x15\x87w\xa6\xd8\xc9"\xb8\x94|\xa7\xe7\xc3\x9e\x86\xaa\xdc\x19g\xb6H\xec\xf8(\x18\x07\xfe,zf\xa8j\x1aL2Y\xbd\xb9o3\xe5#-\xcew\x0c1\xfa\xd3\xed\x9e\xf4F\x89e\xf3,K\xd5\xc6q\xc5o\xe8R\xb1\xbcS+\xa4\x8e\xeb\xf3|\x98\x03\xde\xb5\tU\xd4|\x89\xe4VG\\\x07\xd9\xd0\xd5[\xdbXo\xc3Z2\xc6c\x07\x12\x03\xd1\x97\xb85\x83{\xa6]I\x18\x8a\x0b\x89"\x86=\xc5R3\x90q\xdb\x9e\x95\x8d\xe3\x89\xac\x06\x99(\x08L\xb1\xa8\xf2S\xbb\xfa\xfe5\xe7\x9a\xd6\xa2\x8b\x14\xfa\x8ag\xcc\x000\x85\x8eA\x03\x9c{\x13^{\xaf\xdd\xea\xf3E5\xe7\xd9"\x8c\xc7 h\xa2V\xc6\xd1\xea\x05y\xbe\xa9\xaa\xdf]\xcdqu=\x98\xde\xef\x82\x15G*:\xd7 5g\xb7\xdd\x14\x10\x86\x1b\xc9;\x86{\xd7\xe1\xf4\x91\xb98\r\xcd(e\x89\x08\x90d\xe3\xb55\x95@\x12\xa4\x87\x9f\xe1\xcfJW\x03f\xecs\xebP\xbeJ\x91\x9e\xdd\xe9R\x16i\x1dL\xaaz`m\xa7\x18@uW\xe9\x9e\xbe\x94\xac\xd1\xb4E"9`z\xd3\x17\xccC\x96L\xf3\xde\x86u-\x9c\x00}=hq\x826\x9eOQ\xe9@;8=}\xe9\xc2\xdcH\x85\xbc\xc2\x08\x19\x034\xc4\xb7e\xf9\xc7Q\xcejGG)\xbc\xfd\xe1\xd3\xde\x99\x10U&amp;3\xc8a\xf7\x8f\xaf\xa5Hd6\xf2\xa9\x07\x18\x19\x18\xaf\xa0\xbf\xe0\x9e\xbf\xb5\xae\xa9\xfb2|j\xb2\xbb\xd45"t-^D\xb3\xd6\xa1L\x84\xd8\\l\x97oC\x82z\xfbW\xef\x07\xec\xef\xe2]3S\x86\tt\x8b\xd4\x92\t\xc2&lt;7P\xcb\x91,L\xbb\x97\x18\xe9\xc9\xc5v_\x1a`\xfe\xd2\xd2\x9e\t\x03\x13\xf6VPT\xfc\xa4m&lt;\x1fz\xf9\x82o\x877\xbf\x17\xf5\x9f\xf8W\xc9\t\x8e\xdaR\xd1\xde\x94\x18*\x87\x82?"k\xea\xaf\x81?\xb1O\xc0\xcf\x82\xfe\x1f\x82\x1f\t\xf87M\x8a\xe2\xde\xddc\x9a\xf9c\x06g~\xacNG\x1cWE\'\x83l\xa6\xf1\x1c7v\xab\xb5m\xf8eA\x80\xde\x84\xe3\xadz7\x85R\xee\xdfL\x8a\x0b\x98\xd5YC,Y^\x84\xf4&amp;\xa9kzu\x9d\xfd\xca6\xd6\xf2\xee3\xf6\x9d\xdc\x00\xcb\xd0\xe2\xb9\x1dw\xc0\xf3\\\xdbO\xba\xe0\xdcD\xe4\x95I\x1f-\x81\xd8\x13\xd0V\x87\x86\xa2\xd6lt\xd4\x86\xf6\xc3\r\x0f\x00\x83\xbb\xe4\xf6\xf7\xf4\xae\x9fI\xf1\x147,\xc7.\xa9\x13\xa8\x9b\xcdr\xacW&lt;\xe3\x1d\xf1[\xef&lt;r]E\x1c\x17\x0c|\xb9ZY7\x9d\xd9\xc0\xc8\xc7\xa7\xbdK\xfd\xa95\xde\x9dt\x93M\'\xc9\x00f*\xc7\x96d9N:\x8e\xf8\xacdw\x9bN\x88@\x84\x99c\x0e\xe7\xcb}\xc7\x07\xd7=i\x97\xda\x9d\x9d\x9e\xb5\x0c\x10\xb4q\r\xec\xe6\x15\x88q\x1b.\x0f\xe1\xde\x9d\xa5o,Y\xae%\xe7s\x89\x1dz\xa8\xed\x9fJ\x9ek\xabI\xad\x1a\xe1\xef1\xb5\xb1\xc3V=\xcc\xcb$\x1f1\xce\xc6\xe8y\xdd\x9e\xf5\x99\xa9Ep\x96\x8e\x96\xf9\xf3\\\xfc\xa4w\xf4\x15FI\xe4\xb3\xb7\x05\xadr\x15N\xf6A\xd0\xd3.D!\x10\xdb\xa61++\x03\xe8EG\xa6Nle\r-\xb3\x98\xddX+\xf6\xdd\xda\xb6T\xdaE%\xb5\xfbe$a\xca\xa7\x00\x8f\x7fZ]\x16\xeag\xb47w\xd9\x00\xa7\xc8\xa7\x90y\xebK\x14\xd6\xb61\xc9w,\xcc^s\xf2\xc6G\x00{zVv\xa9\xab\x1d=\x01\xcaHG\xce3\xc8U\xeb\xf9\xd7\r\xe2\xab\x99n\x1a-X]F\x126&gt;W\x98x9\xeb^u\xaa\xea2\xcfl\xd2\xda\xfc\x85$f\x7f-\x89W\xc7=\xeb\x97\xf1\xae\xbdm\x1d\x9e\xd5\x8c\xb9\x91\x08\x99\xba\x9cw\x15\xe4:\xd5\xfcZ\x05\xa7\x91\x14F\xe2\xec\xdb\x94\x0e\xad\xf7\x1b9\xc9\xf58\xae_Ok\x96W\x90G,\xa5\x9f,L`\xe0\xfaW\xe2v\xfc\x92\x0c\xb9\xe3\xa6\xdaU\x1eb\x15\x7f\x97\x8e=\xe8ETB\xa5GN(*\x18\x05\'\x00\x9cf\x99\xb5\x15\xca\xb1\xfa{\xd0\x19\x96=\xeb\xd7p\xe7\xd6\xa4di\x80,\xc3&gt;\xd5\x12B\x12\xe3\xcc\x18\nN\x0e)d\x9d\xd5\xd8\x92\xa5G9\xc50m\x7f\xdem\x1c\xf48\xa6nh\xdcw$\xd4\xce\xaa\x100\xe4\x9e\xbe\xd4\xd58&lt;\x9c\x0c\xf3Oi\x7fz\x14\x8c\x008\xc7z%\xb8W\xc2/Q\xde\x9c\x88\xb8\x00 \xeb\xe9\xde\x91\xd9\x9eLm\x00\x8f\xe2\xee)l\xae\xbe\xcdv\x02\xb7\x01q\x9cg\x03\xfc\xf6\xaf\xd6\xef\xf8"\x7f\xed\x81}\xe3\xbf\x0b\xa7\xc2?\x13\xeaG\xfb[\xc3\xdbM\xac\x92?\xef\'\xb3\'\n2y%z\x9fj\xfd0\xf1=\xccz\x8e\x93, \xa71\x06\\\x8e\xf8\xa6~\xcd\xdf\n\xfc!k\xab\xdfx\xb7P{v\xb9\xb8b\x166a\x81\xef\x83^\xbd\xaf\xddZ\xc3e-\x85\xad\xe2)\xdd\x9d\xc1\xc0\xc6F\x0fOj\xcd\xb7\xf1\x0f\x824`n\xee\xf5H\x9eTB]r9 U;O\xda\x1f\xc00\x95\xb7\xbe\x0e\x92\xef!\x1c?QZ\xba\x7f\xc6\x0f\x85\x1e$G\xb7\xfe\xd2C0\x07j\xca6\xf3\xdb\x91\xd6\xadA\x0e\x8f\xa80\xb9\x82\xfa\xdd\xd0\x8c\x00\xb3\x02p{{\x8fj\x9a\xde\xca6\xcd\xbd\xb8V\xde\xe0``\x0f\xc6\xa5\x83C\x10,\xcb%\xb6\xd4`~Q\xc9-\xda\x9f6\xa1\xfd\x93\x19\xb7\x95\x84l\x07\x95\xe6\x0e\x02\xab\xf0\x7fCT-&lt;H\xb6\x12\x8b\x1b\xfb\xe8\xe1\xdeI%\x9c\xb0\x97#\x00\x9c\xfbq\x9a\x9e-n\xd6;\x9b\xb9\xad\xa3H\xe2\xb6#\xec\xeaq\xb8 ]\xa0}w\x90[\xd4Ve\x93\xdbj\xf7\x87Q7\x9ehpa%\x8e\x19\x83pF}\x06zU\xbdW\xc40Au\x15\x95\x92\xccA\x020a@\xd1\xa0\xe8I\xf4\xac\xa7iw\xa42\xea+\xb1I\xdc\x81&gt;\xfdi\x0bI!\x8d\xd6K\x80\xee\xf8*1\xc0\x1e\x9fZ\xc2\xf16\xb7q\xa1\xea6\x96\xf2Y\xcb\'\xda\x9c\x04(\xe7\xe4\xe7\xad]\xbb@,\x968\x9f\x1e`\xcc\x80\xfaw\xaa\x92K\x03\xc6clg\xae\xee\xe4\xd4g[\xb7\x8fGKG\xcf\xde8\x0cx\x1e\xf5j\xd2\xe2\x1dB\x18s\xbdX!\x1ef\xfe*\xca\xc9,\xb6\xa8\xaf*\xae\xd3\xd0.6\xe0\xf0\x07\xd6\xb3\xe5\xbd\xba\xd4\xee\x19\x87\xee\xd4\x1d\xaa\xcd\xd3\x1d\xc0\xac]n\xf2Ki&amp;\xd3\xe4\x80:D\xd1*\xca8\xdc\x19NI\xf5\xae\x17\xc47\x8a\xd6\xf0\x99b\xc5\xb41\x15@\xad\xd1\xc9\xc0j\xe5|Eq\x04zQV\xbc@\xc2\xdfpRy\x1c\xfd\xe1\xef\xef^?\xe2?\x17Jn\xda\xcc\xce\xdb\xdd\x8f\x98z\x05\x1e\xde\x84\xd7\x9ej\xfa\xc42j\xc1!8h\xf74\xa5\xf92\x1f\xaf\xadG\xfd\xb5\xfd\x91\xfb\xbb4\xe2O\x98\xfc\xdd\xeb\xf1=\xbe\xe8\xf7\xebM\xc18\x03\x1e\xd9\xa6\x82\xa9\'#y=@\xedH\x9f:\xb1-\x80\x0fBh{h\xd5D\xb2?\x1f\xca\x9b\x1eW\xef\x0c\xa1\xe9\x9a~T\xf0\xab\xcfn)\x1e9\x19\n\x92\xb8#\xa5C\xe5m\x1bXg\xebA;W\x8e\x83\xb5\x12\xa8dW\x03\xa1\xebK#\x15\x8fp\xa5u\xf3\x08=&gt;^@\xefLf;\xc1\'\xa5:$\xf3\x1c\xb0\x15b\x12\xc8@\xe39\xe34HK3\t\n\x82A\x1f%B\xb1\x15m\x81Kn\xe0\xe3\xa9\xafV\xfd\x8c~:j\x9f\x01?h_\r\xfcF\xb4\xbexb\xb7\xbeS\xa8\xc6\x00U\x92\xdd\xc6\x1dN=Fk\xfa\x08\xf0\xcf\xc4[\x7f\x17x\x1fK\xf1\x06\x95+K\x06\xa1\x02&lt;\x13\x02\x184e\x03r~\xbcW\x86x\xdf\xf6\x95\xf1\'\xc3M~\xe7T\xb5\xd6$\xb7\xb6\x82s\x1b\xc0\xdd9=qL\xf0o\xfc\x14\x1a\xcb\xc4w;.\xfcA\xb2{\x93\xb2\x11\xbb$\x91\xc7\x00\xf45\xd9\xeb_\xb4\x1c\x1a\xad\xb5\xd5\xe6\x95s\x13\xb3\xc2\x03\xa1\x93\x0c\x9cr\xd8&lt;c\xbf\x15\xe0_\x12\xbfn+-\x0bW\x93I\xf3\xee\xb5+\x98\xd4\xa8\x8a\xd5p\xa9\xc7\xa8\xef\\\xe6\x93\xff\x00\x05\x00\xf8\xa3i\xa8A\xa5\xdbx6\xee\xee\xc8\x02[o\xca\xe0\x1fS\xde\xbd\x0f\xc1_\xf0P\xcb\xe4\xb8\x1a~\xa6\xfa\x8e\x97&lt;|\x88g\x0e7\x9e\xc0\x11\xd6\xbds\xc1_\xf0Q\x1b\x97\x10\xdd\rQ$@2\xf1Lv\x1e:\xf5\xeak\xdc~\x1f\xff\x00\xc1C\xbe\x1dk\xb1Em\xa9\xeb\x11\xc5vT\x007\x8d\xa7\xdb=\x8dw\x17\x9f\x1e|!\xe2[}\xf6\x9a\xc5\xb0V\x91\x1d\x80\x95Nq\\\x97\x8c\x7fh/\n[\x80n\xee\xa0\x00@\x17y\x90\x12\xfc\xe3\x07=s\xe8k\x13H\xfd\xa3\xfc?}}\xbe\xe7XHC\x16a4\x97_\xebX\xf68=\xfa\x1a\xeb\xbc?\xf1?F\xbd\xba\x82\x1d&amp;\xec\x94@]\x1a7\xdc\x17\xd41&gt;\xb5\xa9\xa9|B\xb2\xd3\xee\x9e\xda\xca\xed"B0\xeeS\x80\xcd\xdf\x1e\xbc\xd6\x9f\x85\xfc@u]T&gt;\xa0\xc1\xcf\x9aU\x06\xcd\xab\x8c}\xec{u\xae\x92\xe2I \x91c7J\xe8\xce\x0e"\\\x9cg\xd4\xf3U\xb55\x8ah\x85\xcbB\xad$\x00\xb219\xda\xa3\xb5ah\xde&amp;\x97X{\xa6\xb9\xb4x\x85\xb3\xec\x1egV\xcf\xa7\xb5S\xf1\x16\xbd\x0e\x8ds\x1c\xac~F#p\xf4\x15[O\xd5\xb4\xaf\x15\xdaM\x1c\x17&amp; I\xe4\x8e\x00\xef\x8a\xd9\xf0\xa5\xc5\xac\x9aiX\xef\xc3\xach\xbbr=\x0f?\x9d\\\xd2\xeenn\xef\x9a-J_-^\x00\xe7\x1d\x88&lt;U\'\xd6\xa5\xbd\xbc\x95m\x001Fq\x10\xdb\x81\xb8w\xc5s\xfe5\xd4#X\x1aO\xb4b&amp;8([\xe6`\xa3\x83\xf8\xf4\xaf5\xf1\xb6\xb94v\x0b\x1d\x84j\xd1\xcd+*27\xdc\xc0\xe38\xec\rp^*\xf1$6\x96\xc7R\x9ax&lt;\xcbr\xb0\xf9R\xa9;\xc3pN}\x07\xe9^C\xe2}Z\xeei\xe5K\xa0\x0c\x97\x12oa\x0b\xfc\x88\x07O\xa5q\x06\xee\xe3\xed-\xa8\xbc\x8a7*\x84\x8d\x9f \xfc\xd5I\xfcGm\x0c\xae\x97\x17\x81\xdf&lt;\x8f+;}\xab\xf1\xf7\x96\xf9sL\xc4\xcc\xc0\x95\xc1\xce6\xfbz\xd3\xc7\xee\x1b\xe4\x18\'\xd2\x91\x95_\xef\x8e\xbdI\xa5uWM\x8e\xa3h\xe9\x91\xd6\x80\x06\x02\x800:\x0e\xd4\xd7\x0c\xa7?/\xe5M2\x0cq\x8f\xca\x92DgP\xe0\xd38\xee?:[x\xce\xe1\x13\x93\x8c\xe7\x93\xda\x8f)\x97?\xc4\x0b`g\xb58\xc7\x1a\xc42\xf9b\xd8&lt;\xf4\xa8\xdc\xaae\\q\xd8\xd3\xa2&amp;,:\xf2\t\xa9\x1f\xe6\x1b\x81\xc6)\x1aEG\xf9\x10\x1f\x96\x91\xf7\xc9\x00ur\xad\xbb\xb1\xc52(\xd2\x1f\x91\xb8C\x80\xc0zW\xec\xaf\xfc\x12\x03\xf6\x99\x8f\xe2\xdf\xec\xad\x17\xc3\xdf\x13jq\x9d_\xc1\xce\xb0M\x18\x932KlO\xc8\xf9\xeb\xedZ?\xb46\x91\xa5i\xfe2\xb8\x83\xc4\xc8\x92[\\\x11 V}\x9ebw\xda}@\xee+\xe6/\x8c\xdf\x0e\xbf\xb1\xb5\xaf\xf8I\xfe\x1e\xebok\x19!\xa1\xb4\x8ep\xb2\x01\xd4\x80\x14\xe3\x07\xb9\xebP\xf8\x8f\xe2g\xc4[O\x0b\x1b}W^\xbf\xf3cE\x8e\x12\xb236\xe20\x06s\xc75\xda~\xcd\xbf\x075o\x89Z\x82\xde\\$\xb7&gt;e\xc6%\xf9Il\xfe\x1dk\xed\xbf\x04\x7f\xc1659\xfc1\'\x8a\xb5\xab8\xb4\xfbkKV\xbb\x9aK\xa2\x02\xac;\x87\xce\xc4\xf6\x03\'\x15\xeco\xff\x00\x04\xb1\xf0\xd6\xa5\xa2\xdb\\\xde\xde\xd8\x1d\xd1F\xf0\xcf&amp;\xcd\xa4\xb66\x94f8o\xe9_$~\xde?\xb3\xe7\xc1\xcf\xd9\xbf\xc3\xf3\xea\x1a\xb7\x8c4\xf9\'Eskei\xa8)\x95\xa4\x00\x90\xa1c&lt;d\xf1\x8a\xfc\xf9\x87\xf6\x82\xf8\x99\xe1\xc0\xc2\xf7\xc23F\xb2JU\x04\xe2h\xfb\xe7\x19\x0b\xd7m{\xf7\xec\xad\xe2\x8f\xda\xe7\xf6\x8c\xf1=\x86\x97\xf0\xafC\x9a\x08\xa7\xb8t\x9a\xfc\xdf\xff\x00\xa2\xc5\xe5\x8d\xc5\xf6\xf5*G\x18\xeek\xe8\x0f\x88\xdf\xb1\xef\xed\x81\xafi\xd0\xc3}\xf1_L\xdd;\x01\x1cP[\xc8\x06\x01\xf9\xb9\xce+s\xe1\xaf\xec\x17\xf1S\xc3\xb6\xd2\xcdu\xf1|jr\xc6\x81\x9e\x15\x88\xa4h?\x8b\xe6\xe9\x91^\xe5\xf0\x93\xc0Z\xf7\x82\xa61x\x97Z\x7f:l\x08\xda\x19\x96Ep:d\x1e\xf5\xeav6ZL\xb7v\xf2\xdfF\xb3\x1biRV\xf3\x0f\xdf \x822:7\xd0\xd6\xfd\xc7\x8bmnuo\xb4\xe9\x96r,\xab\xb90\xb8P\x83x\x1b\xb0=\x05t\x16:\xf47\xce^c\x97\x90\xaa#\x03\xd0\xd5\xc8f\xb3\xb9\xb6x\xcf\xf0\xb6\x1bk\xf1Y_n\xfe\xd0\xd4d\xb6\xb7\xb5\xf2\xa3\x85p\xe6V\xe5\xdb\xb5q\x1e&lt;\xf1)\x83\xc5\x10\xd9\xdd\xc0\xabl\xec#.~e\xc98\xa7xt\xad\x9e\x9f34\xcd\xe5\x1d\xc5\x91G\xcc\xa7\xb6=\x01\xae\x8bBG\x82\xd4\xae\x8f*\x18\xa7\x11\xe0\x14\xfb\x87i\'\xf5\xad\xcb}M\x05\xb9\x17 }\xa1\xb0\xb1\xb9\\d\x8e\x80\x1e\xdc\xd6t\xd7\x10\xc6\xcd\x05\x9a\x95\x07$\xf9\x8d\x93\xbf\xd8\xf6\xe6\xb8\xcf\x1cKs=\xe0\xb8\x8d\x1c\x88W\xcb\x8a-\xa1\x95\x81\xf5\'\xd3\xd7\xb5y/\x88\xb5y\xec\xef\x8d\x85\x92\xbc0\xc1"\x1b\xc1#\x93\xbbr\x9d\xd8\xfa\xd7\x03\xf1\x07\xc4\xf7\x97w\xff\x00g\x86X|\x88\xe2+\x869\xea8$w\xaf(\xf1M\xed\xb7\xd8\x82Ou\x99\xa4W,T\xed\xdd\x80q\\V\xb3\xaa\xc5\xa7\xd9y-\x8c:\x15\x8c\x06\xe8MU\xb6\x9a\xe6\xe52\xb3\xe0\x00?\x8a\xbf)P\xc2T\x96nE#O&amp;p\x13\'\xa6{\x8a\x8d\xe420A\x1bd\x1e\xb5#\x00\xab\x8e\xa5\x86&gt;\x94\xdd\xdbF\xd69\xf4\xcd*\x18\x99\x80g\xe7=3L]\xbb\xf2\xc0\x10\x18u\xa6\x07B\xe6}\xa3n\xecc\x1cR\xb3\xef!\x13\x80OAQ\xbf\xce\x9b\x17\x82\x1b\xb59\\\x93\xe7\x0e\xc3\x14\xf4\x902\xe1\x8e=\x052A\xfd\xd5\x19\xed\xc7zB\xc5\x86\xd9\x90{dT\xd0\x85\t\xca\x82\x00\xe8E f\x90\xb0t\xda\xa0v\xee*\x19%E8\x89\t\xcf\x02\xa5I\x10 \xf3\x00\xcf\xa5E \x07tR3`\xf3\x90y\xc5}1\xff\x00\x04\xaa\xf8\xff\x00g\xf0K\xf6\xab\xd1\xf4\xbf\x11^\x88t_\x15!\xd1uP~\xeco)\r\x13\xfa|\xad\x85\xcf`M~\xac~\xd0\x9f\x03\xf4\x7f\x8d\xbe\n\xb8\xf0\xfd\xea\x88\xef\xb4\xf0\xef\xa6_F\xdb&amp;\x84\xe4\x10\x15\x87;q\xce\xd0pk\xf3w\xc6\x9e\x16\xf1w\xc3\xcf\x11\xcf\xa3\xf8\x83]\x93e\xbd\xdb,\x92\xc9\x11\x1c\x03\xc7\xcb\xdc\xfb\xd1\xae\xfcY\xf0&amp;\x99\xe1\xd8\xf4\xc9\xbcL\'\xbbiU\x9d]\xb0N\x0fJ\xec\xbe\x0f\xff\x00\xc1J\xfcY\xfb-\x19\xaf&lt;\x01\xe1\x1d\'T\x82\xea\xd5M\xbb]\x13\x98f\xec\xfcu\xc1\xc6}i?i\x7f\xf887\xf6\xee\xf8\xdb\xf0kR\xf8\x0et\xef\r\xe8:n\xad\xa7\xfd\x8fS\xbc\xd0\xad\x9f\xcf\x92#\x90\xc8\x1c\xfd\xcc\xa99#\xeb\\\x87\xc0O\x8e\xff\x00\xf0S\x0f\x88\x1e\x1e\xf0\xcf\x85\xbcu\xf1\x7f\xe2w\xfc!\xb1\xda\x15\xf0\xdd\xf5\xcd\xe4\xf1\xc3\xe4( \xaaK\x80\xd2\x07\x19\xe5\x8f\xd2\xbfL~\x03\x7f\xc1(\xfc1\xf1\x0f\xc1\x16\x1e=\xd5\x9a\xeb_\xf1\x02\x88\xf5\x0b]_Q\x95\xa4\xdb"\x10\xfbp\xd9\xdcr+\xec\xbf\x86\xff\x00\xb0\x85\x96\xb3\xe1{g\xf1\xd5\xae\x99\xa8\xc5\x1a\x19\x0cZ\x86\x9b\x1c\x8a\xae\x07\',\x0e8\x1dG8\xaf\x15\xf0_\xec\xe1\xe0\x0f\x80\xd3x\xbao\x80\xda\x0c\xd2i\x91_H\xf7\xda\xa4Q\x85Ktb\\$`\x9e\x13 \x8e8\xa5\xf8K\xe2H|m\r\xce\x93z\xd2&lt;\x83Pv\xb0G\x8cb8\x98me\x07\xf83\xdb\x1fZ\xed&lt;K\xe3=\x1f\xc2vC\xc1\xba9\xb6YLd\x85nv9\x1c\x13\xeb\xcds\xbf\xda\x1a\x85\xde\x9e-WJF\xb9c\x96\xb9=0z\xe0v\xad+\x88g\xb4\xd3Q\x951t\xc0&gt;\xf8\x9b\x8c/8\xe2\xa9h1x\x82\xdd%\xd4\xb5%i.\xae\x83\x88V3\x82\x17\xd7\x1e\xbd\xeb\xa2\xd1\xe7\xf1=\x92\x1bk\xd1\x18\x92R\t\xdc\xd80\x8e\xc4\x01\xd0\xd6\x84\xbe,\x93C\x81\xe1\x8a\xc9\xd8:\x90gc\xf2\x86\xf5\xc7z\x93T\xd6\'\xb8\xd2\xd6\xf99\r\x1f\xef7\x0c3q\xda\xb9-J\x19\xbcC\xf6o\xb4\xc2\x8b\x1c2oU*2H9\x19\xad-\x1a\xf6Q|\xf6s\x90\x1aX\xcf\x98\xe8p\x17\x1d\x06Ev6\xd6\xef\xa64\x8f\x04%\xe2\\\x9d\x90\x0e\xb8_Z\xb5\xa8L\xb3\xd9\xda\xad\xc8HU\xdc3#\x01\x95\xc1\xe1s\xdb5\xcc\xcf\xa9\xc7\x16\xb8\xd68(I\xccE\xb9\\\xf6\xaeW\xe2\x16\xb1n\x8c\xb2\xc7\xb3\x97\xc1\x0b)\x00\x0e\xf8\x15\xe4\x1e$\xd6\x13W\x9a\xe2k\xe8\xc2\x99\xa3|\xc6\xbc\x11\xb4\x1d\xa6\xbc[\xe2&amp;\xa7k\xa2\xed6w\x12y\xd21%\x9c\x96\xc7\xd7\xe9\\\x0f\x8bu\xb9\xd9\xcc\xee r\x91\xe62[#8\xec\xa7\xa5y\xb7\x88\xfcMuqt\xd0E\xbb\x00\xed\x8c\xb2\x02K\x1e\xff\x00A^\xcf\xf0W\xe0\x8e\xb3\xe3/\x0b\xff\x00j\xdc\x92\x87*\x07\x980O\x07\x9a\xfco\x99T\xa6\x15@#\xa9\x02\x94\x95\x8c\xab,\x87\x81\x9cf\x91\x8b\x17\x12\x96a\x93\xd063H\xa1\xca\x96T\xc7\xcd\xc9f\xe6\x94\x85o\xbd\xf9\xd4i\x85\x97!A\xc1\xeai\xec\x9ec\x80\xa7\x00\x9eqQ2\x18\xa3(\x06F\xee\xf4&amp;\x0b\x02N9\xedR5\xb28,\xaf\x8f\\\x1ao\x96\xc8\xa0\x08\xbePs\x9d\xddj92\x99q\xdf\xa0\xa7\xc7\xce\xd2\x0eI&lt;\xfbS\xa5\x89\x89\xeb\xcf\xbd":G\x0e\x1c6\xe2\xd8\x04\x1a{\x02\xe8\x17q\xe7\x8e\xb4,)\x19\xcb6j\'P\xeeI\x1c\nq\x11&gt;&gt;S\x93\xc6j]:\xf6\xe3L\xbdK\xbby\x9a)!\x90I\x1c\x8apU\x81\xces_\xb8_\xb2?\xc78&gt;:~\xcd\x1e\x12\xf8\x97s\xaa\xed\xd4\xeet\xa8\xedum\x8d\xbb\xcb\xbb\x8b\xf7l\xa7\xd1\x98`\x93\xd6\x93\xe3\x9f\xec1\xff\x00\r\x05r|H\xf25\x95\xd5\xd6\xe5b\xb1\xa9\xca\x85\xe3\xe9^\x15\x07\xfc\x10gU\xf1\xcf\xc4\x0bX\xfcK\xe294\xcb59\xbe\xb9\x8d\xc4\x9e`\xcf\x01\x07l\x8a\xee&gt;.\x7f\xc1\x065\x9f\rx(]|5\xf1*^\xb4j6Ar\xc1\x0e\xd1\xcf\x03\xa0\xaf\x14\xfd\x98\x7f\xe0\x85\x1f\x1d\x7fi\xcf\x14x\x9fM\xf1&gt;\xa4|/\xa5x]\xc43j\x13Y\x19\xfe\xd5p\xc7\x94\x8c.\x008\xfe.\xd5\xfb\x83k\xff\x00\x04\xd2\xf8U\xe2\x7f\x83^\x16\xf0N\xab\x19\x82=\x1bM\xb6\x80\xa4\x10\x14\x10\xf9qF\xaa\xde\xe398\xe82}\xeb\xd6\xbff?\x01Z|&gt;\xf0\xd4\x1e\x01\x99\xc3\x0b\'kx\x1d\x8e\x0f\xcar\x0f\xe2:\xfa\xd7-\xfbe\xfch\xbb\xf8S\xe1\xc7\xf8=\xe0\x0bo3\xc4\x1e(Q\r\xa7\x94\xd86\xb6\xecv\xbb\x92:1\xc9\x00\xd7\xcb_\x18\xfc7s\xf0\x7f\xc2\xd0xd\xea\xd72^^[\xa7\xf6\x92\xac\xa4\xc4\xce&gt;`\x1c\x03\xce=\xeb\x8b\xf0\xa7\x89\xc7\xc2/\x04\xea\x1e)\xd7\x1e\xce\x18\xd9\xdc\xa4\xeb6\x1b\xef\x0c\x0c\x7fJ\xab\xf0vO\x13|j\xd5\xae&lt;b\xd0\xcc\xf6\xef?\xfa\x10\x92R@Py$\x1f\xd2\xbdQ\xb4}P]\xac0[\x84\xb7\x8dvL@\xc3\x13\xdcf\xacYE$\x13ox\xfc\xc3\x1f\xdc\x8c6\xd5A\xeb\xeei\xebuqu\xac\xdbySD\x84\xa1\xf3cd\x1f\'\xd3\xd35fC{\x1c\xe8\xc2\xe4BA&amp;W\xeb\xe6zg\xd6\xaf\\\xd9\xa9\xd3\x92\x1b\xab\x91pA\xdc\xb1\x8fS\xd3"\xa8jW7?\xe8\xd0\xcc\xed\'\x04\x08\x84\xa7#\xfc*\x9c\xb3Y\xad\xfb,bVDFR\x03\x91\xb4\x01\x90\xf9\xeesSxz\xd5 \xbaY-\xe2\x91\xdd\x95\x9eww\xe0\x11\xca\xf0{\xd7T\x9a\xbc\xb62M\x0c\xee\xf2N\n\x96\xc0\x18\xda{}qY~!\xf1&lt;7w\xe2\te*\xb2.\xd3\xbb\xe6\x04\xf4\x00g\xf8\xbd+\x1a=R6w/|6\xc5m\xb8L\xe7\x95\xc1\xf6\xef^}\xf17\xc4\x16-w\x00\x96\xf1]Q\xd4\x08\xa3\xf9H*w\x17-\xdf\x8e\xa3\xbdy\x17\x8b\xbcKu\xf6\xdb\xb9m\xfc\xb3\x19\x18VQ\xce+\xca\xbcq\xad \xbf1\x08\xd8I\x0e\x19\xc9\xe8G\xa5y\xa7\x8d|Kmm\xa7\x9b\xa1\x12\xbc\xca\x83x\xee\xf9=\t\xfd+\x9b\xfd\x9f\xbe\x1e\xeb?\x18~\'\xa5\x8e\xd7\xfb%\x8ed\x96Ur@\xe7;s_\xa4\x7f\x0e&gt;\x19A\xa5xy,`\xb7\xca\xc6\x15AD\x07\xa0\xf7\xaf\xe6\xe6O\xb3\xbc\xdf\xbb,r\xbc\xaex\xa41\x0e\xe2\x9c\xab\x1e\xdc\x97\xce:f\x98\xc8\xac\x0b\x05\x03\x1c\xd3Y\x1d\x13y\'\x9e\xc6\x91\x00$d\xed\xcf\xa5&lt;H\x0byq\xaeq\xe9M\x98\xc8\xaaB\xdb\xf1\x8e\xb9\xe9Q\xe0\x19\x00?\xdd\xa7\x14VR\x8b)\xe4`\x0c\xd0Q\xb6yD\x9c\x81Q\x85d$7\xcd\x8e\x80\xf3J\x19\xd7\xe6E\xe7\xb8\xa9\xfe\xfcyw\xc1\xc5"p\xbbTdP\t\xc9\xe7\xa7J\x8eBx\xe6\x96(\xd9N\xf6\'\rO\'h\xf5\x03\xa9=\xa9\x166\xb8\xcf\x92\xbc\xe3\x8d\xfd\xfe\x95\xf7o\xfc\x11\x8f\xf6\x85\xb7\xd2\xfci\xa8\xfe\xcd&gt;"\xd5\x95l\xf5\xd9M\xfe\x8a\xf3I\xb5c\xba\t\x82\xbc\xf1\x96\x1f7\xb9\x19\xaf\xd4O\x08x\xd6\xe2\xc8\xcfmy\x13\xf9\xb6\xe8\xc0\xb2\xb1"D\xc78\xf5\xe2\xbd[\xe15\xa1\xd4.&gt;\xdb:\x80\xd7\x00&lt;e\xd3\x18Q\xce+\xd3\xef\xec\xf5!\xa6\x06\xb6\x8a9eE\xf9U\xd4\x13\x8a\xec\x7ff\xbd{G\xf0\x8d\xde\xa1\xa7\xea\x90\xc4\x1bU\xb8\x12\x02\xe8\x08\xf3z\x1c\x9f~\x84\xfaW\xbei7:m\xc7\x87\x9cA\x14j\x83#\xe4 \xaa\xaf\xb7\xa7\xff\x00Z\xbcw\xe2\xcf\xc4\xad/\xe1\x9a\xdck\xd77\n$\x86m\xd1A\x1d\xc6$\x9d\xfb\x0e\xbd\xfa~5\xf3\xae\xa1a\xe3\x9f\x8a\xbe!\xbe\xf8\xe5\xaa\xeb\xf0j\x97\xd3\xcf\xe4%\x9d\xab\x9f2\xd6%\xe5\x14\x03\xc7\x07\x07\x8e\xfc\xd7\x94\xfcm\xd7\xb5\x08\xad\xd6MOR\x06\xea\xeeC\xe7\xc1,\x86I\x10\x8e9\xdd\xf7~\xa2\xbeg\xf8\xe3\xf1\x0c\xf8\xe3\xe2\x1e\x83\xfb&gt;i\xce\xeb\x1b\'\xda\xf5\xc9b\x94\xb1l\x10B\x1cz\xf4\xaf\xb5\xff\x00f/\x07\xda\xf8O\xc0\xf6\x9aLVq\xc6\xb1\xc0\x08}\xdf7N3]\xe5\xdc1\xa4/*\xdbG&gt;[\x0e\x11G#\xd3\xebX\xba\x8e\x8fg\xa8\xca\xbfd\xb3\x91\x10\x1c\x98I\xc1\x07\xd4z\xd3\xdb\xc2V\xb3\xc6c\xb1Y\x16\xe2e\xc1c\x18\'\x1e\x99\xf4\xab1iv\xb6Z\x1cf\xee\xd37 \x95]\xe7p\'\xb1\xc7j\xcd\xba\x83P\x93Ty$\xf2\x92U\xda\xb6\xf1\xa3\x95\x0f\x9e\xe7\x1dqX\x9a\xe6\x99\xa8I\x1cS\xbe"\xbbI\x0e\xe5\x81\xb8+\x9eI\xef\x8a\xb7eg\r\xcd\xacb\'G\xdaT;\x07&gt;\xbd&gt;\x99\xa8\xa0\x8a\xf6\xdai`mMHg\x0cS\xcb\xf4\xf7\xefP\\ko6\xaa\xcbi\xbc\xab(W\x99\x0e&gt;n\xc4\xfa\xe3\xde\xa9k\x97\x86=)m\xda%\x92I\x95^\x0f=\x8a\x94\xc3r\xc7\x1d\xfd\rs\xfa\xbf\x8bd\xb0\xf0\xf4\x90i\xd61\xc3\xe6Z\xef\x9eE \xaa\x95\xcf\xf3\xef^3\xe2\x9f\x15K*\xc8\x97\xd7\t,\x89#2\xa0\x90\xed\xc9\xfe,t\xcdy\xce\xab\xe3\t,\xe5\x9a9\x08a\xcb\xee\x07\xefc\xb1\xf6\xae\x0f\xc6~)\x9e\xec5\xdc\xb3$r2\x1f0\x11\x9cq\xf2\x8a\xf1\xef\x8b\x9e.\x86\xda\xdd4\xfbe\x06\xee\xf4\x84\x825|\xb37n;\x0c\xe2\xbe\xd2\xff\x00\x82{~\xce\xb1\xfc6\xf8}g\xaa\xebv\xf8\xbf\xd6G\x9f;0\xc9Ry\\\xd7\xd7:=\x8d\x94\x16\xc60\xce\xed\x9f\x98\xa1\xc75\xfc\xb8$jV&lt;\x0c\x16\x04\x16\x1dhud\xca?N\xc7\xd6\x9a\xca\xbb:c=M2"X\xb27Lp}iK\xaf\x98\x8c\x9b\x98d)\x04\xf0*#\xcb6OF\xfc\xa9\xd1\xa4k\x96\r\xcf~i\xdb\x94\x8d\xb8\xe0\xd2\x14N\xbd\xf1L#\xe6\x1bx\xe7\xb54\xbb$\x87$\xe4\xf7\xcd=\x06\xecg\xa9=i\xc9\x16$$\xf4\xefK"+\x9f\x95\xcf\xd34.S\xe4\x1dOJj\xf9\x8b.\xd6e9=(\x93\x01\x0bc\xa1\xa6\x07r\x84\x82H\x038\xcdI\x1a\xf9\xca7\x1c\x02y\x03\xbdH\xff\x00.!\xc1+\x9e9\xe9\xf4\xf4\xad?\x00\xf8\xcb\xc4?\x0f|e\xa6\xf8\xbf\xc3\x17\xbeE\xfe\x97}\x15\xcd\x9b\xef \x89\x10\x8d\xbc\x8e@ `\xfb\x12+\xf6\xff\x00\xf6R\xf8\xff\x00\xa0|~\xf0\x7f\x86\xfe*\xf8RH\xde\x1b\xc8"7\x96nra\x94\x80\x1a3\xe9\x89\x07\xe4k\xe8\x8f\x0b\xfcT\x90_\xc0\xb7l#{g\xd8a_\x95B\xe7\xefz\x1cW\xa6\xe9\xde:\x8e\xf1\x04\xf2j\xc4\x06L\x02% \xe2\xa3\xb0\xf8\x8f\xa7iZ\x89\xb7\x97\xf7\xfb\x8e\xd5\x869pN\x7f\x91\xf7\xae\xbfL\xfd\xa8|G\xe1\xef\x0f7\x87t\x19\xed`FGs5\xd8\xce\xc5\x03$d\xf5\xfaW\xcd\x1e&gt;\xf8\x97{\xf1w\xe2r\xe9\xb3x\x92iQ\xe6\x02y\x8b6\xd2\xdb\xba}+\xd1,\xf5\xdf\xf8F4d\xb5\xd25R\xb1\xc0\x87\xcd&gt;a\xceq\xc9\x15\xf2_\xed?\xf1\xbbK\xd0u\x0b\xddb\xefR7\x11\xd9C\xbaO2c\x86nz\xe6\xbc\xc7\xfe\t\xa1\xa0j\xff\x00\x1c\xbe&amp;x\x83\xe3\xae\xb7j\x1c\xde\xdd%\xbd\x88\x913\x85\x00\xf7=G\xb5~\xa3xWG\xd3&lt;?\xa4Ef\xa4J\xcb\x10\x05\xd8gw\x1c\x8f\xc2\xaf[XG\r\xbb\xc7\x15\xa2\x85w\xdcF\xd1\x8a\xa7\xaai\t\x1e\xa25\x1b\xc92\xa9\x1ep\x1b(\x00\xf4\x1d3R\xf8wM\xba\x91\'\xd4\xf4\xe8F\xd3\n\xacN[\x1bI8\xcdr\xda\xea\xdeAy4\x9as\xdc\x99.2`\xc9\xce\xd6\x1dFOL\xd6t\xfa\x8e\xa5\xaa\xddE}\x0cw6\xcd\r\xb0\xf9\xdeD\xcb9m\xc0p2F\x061\xe9\xc5P\x9e=B\xee\xf6mRC\xe6;\xe1w2\xfd\xc1\xdfo\xa5O\x16\x9dy\xa7H\xb6\xb6\x17\xe5\xadf\x19\x9c:\x81\xf5\x15\x16\xb5{\x15\x83\xbcWw\xbb\x13\x81\x19\x8f\x9d\xbe\xf5\xce\xea\x1e&amp;\xd3l\xec\x85\x86\x9c\xea\xf7\x0cY\x8cDd\xb7\xfb[\xbf\xa5r\xfe0\xf1\xd5\xe4w\x82E\xf9Y!1\xedy8d\x03 \xfe\'\x8a\xf3_\x17|B7\xd1\r\xccb\xb6Uo5\xfc\xde\x84z\x8e\xe0zW\x90\xf8\xcb\xe2&lt;kz\xf7\n\xfeiq\xe5\xa9N\x01\xec\t\xae+_\xf1\x97\x9cf\x86\xde\xcd\x99\x06\x16=\xcd\x92\xe4\xf0~\xa2\xb8?\x1e\xf8\xd2\xc7\xc3Zu\xd6\xa1\xab\xde\x11\xb3\r\x1cg\x1f\xbe\xc7;s\xfeqX_\xb1_\xc2\x8dK\xf6\x9f\xfd\xa0\xa3\xd7|GlM\x86\x9e\xe2Q\x1cq\xf1\x88\xce6\x93\xfe\xd1\xeb_\xad^\x12\xf0\x85\x86\x83\xa6\xc7\x0b[\x18D+\xe5\xc0\x11\xf8EU\xf6\xe9\x8a\xe8\xb4\xf4k\xdbU\xb8\xd1\xf7\x12x\x98\x1epE\x7f.a\x81\xca\x8e0\x0e=\xa9\x8cg\x93\xe5pp:\x13C\x12\x88\x01\x19&gt;\x86\x98~W\n\xad\xc7]\xde\x87\xd2\x9c\x0e\xd0J\xf1\xde\xa1\x16\x87y\x94JN\xee\xaaO\x14:H\xac\x02\xa7\x19\xec:R\x85*C18\x07\x9e)\xc7&gt;ir&gt;P\x84\xa8\xf5\xa7:\x81"\xb9\x00dp)\x8f\x92\xe71\x0f\xca\x81\xc5\xc8\x03\xa6:R4\xb9R3\xd5\xb1\xd6\x9d\x1b\xc6\xae\x11\x80\xe4\xf5\xf4\xa4\x0e\x9ey\xde\xdc/#\'\xad5\x94y\x82^\xc4\xfeTL\x1aa\xb5x\x1d\xb1\xde\x80[\xcb0\x88\xc08# R\xee\xdb\x16\xd1\xd4\n\\\xf9\xd1\x82\xccF:\xe0\xf5\xa4x\xa28*\xc4\x03\xf7\xbdH\xaf\xac\xff\x00\xe0\x97\x7f\xb5\x9e\xad\xf0{\xe2\xbd\x9f\xc2\xff\x00\x10\xea\x12G\xa0\xf8\x8a\xfcF\xbb\x80+ox\xcb\x8d\xea\x0f\n\xacq\xf55\xfb\x01\xfd\x896\xadh\xf1\xd8\xca\x16WFH\xeef@\x01\xe4\x1c\x8c{\x1a\xd1\xd44\xcf\x1f[YZ\xdbh\xd7Qy\xf1\x81\x80\xd1e[\xea;\xd5\xf7\xf0\x86\xb5\xe1\x99\xed5\xadSW\xc8\xbb\xb4\r\x14\xd1\x8d\xcc\xad\x9f\x9b#\xd7\xd2\xa9\xeb\xfa\xc5\xf6\xb1s\x05\x96\x91\xa7\xce\xf0\xa4L\x1d\xee!]\x8cq\xd4\x03\xd0\xfb\xf5\xaegF\xf0\xab\xf8f\xf4\xde\xebW_g\x94\x96`\xc5~R=+\x9f\xf8\x9d\xf1z\x7f\x0b\xd9\xcfq.\xad\'\x90T\xee\xf2\x10q\x81\xf7A=3_\x9e?\xb67\xc7\xb9\xfc]x\xfe\x0e\xd3\x9b2\xeaW!\xaf\x11@\x0c\x88\xa7\x85\xf9}k\xf4\x13\xfe\t\xbf\xe0m;\xe1\xf7\xc2\xdf\x0b\xf8wM\xb2\xe4\xdb}\xa2\xe3\xaf\xdea\xc6}k\xed\x8d\x12\xfa\xd6dku\x85\x03\x12\xa25*0\xbe\xb8\x1d\xabR9\xda\xf9&lt;\x98c\xc6\xd3\xb6E\xce\x15\x87\xa5%\xc5\x8c*\x8dj\xdax\xba1\xc6qn3\xc9\xc7\x1fZ\xa9$CO\xf0\x8d\xc3\\\x19\xa0\x94L\x0cV\xfd\x02\xe0\xe4\x03\x8e\xa3\xda\xb9\xab85\xcb\xe4\x82\xee\xc6%Fi\x7ft\xb8=\x8f%\x87\x7fjo\x8b,\xfcI\x04\x10[l\xc4\xa8C\xcd\x1a\xc0\xc1\x97\x1ft\x0ex\x15\xce\xebw\x97\xe9\xbe[x$\xda0\xc56\x81\xc8\xe4\x8f\xc6\xb1\xf5\x1djim&lt;\x98`\x1f+\x8d\xab\xbb\x96\xcf\\\xfa\xe2\xb2\xb5[\x8b\xb5\xd3\xa2\xbf\xb2\xe7$\x86\x8d\xe4\xe4\xb7o\xc2\xb8\xdb\x9dF}+{L\x9f;\xc9\xb8\xcc\x91(\xc7\xfb w\xfa\xd7\x9bx\xf3\xc4\xd3\xdd\xceZ\xfe\xe1\x81(\xc9\tv\xda1\xd8q\xef^[\xe3\x0f\x15YFe\xd3R\xe6 &amp;\x89\x80&amp;Ry\xc7A^u\xack\xac&amp;\x9a\xc6H\x8a\xc7\x02\xe7{\x1c\x9f\xaf\xd2\xb9o\x12x\xca\xd3N\xb4\x92\xee\xe6t\x8d\x14\x80\x1d\xce\x00\x1e\xd5\xf3\xbf\x8d\xbcc\xac|c\xf1u\xaf\x83\xfc9\x13\x98e\x94\xacD\xf2@\xce\x0b\x1f_j\xfdI\xff\x00\x82|~\xce6\x9f\x03\xbe\x15[\x89-]\xb5\x1b\xf8\xc4\xd7N&gt;\xf1\xce\x0e\xd1\xdcd\xd7\xd2\x96\x16\x17s\xad\xc5\x8a^\x17\x17#\x0b\tb\x0c9\xe0\x92k\xd0~\x1fxv{- \xdb\xe8\x16\xd1\xba\x06\x1ek\xc8\xe4\x96o\xad\x7f)&amp;D\x0c\x0e\xde\xfc\xe0S\xdex\xca\x10\x03\xf4\xe3\x9a\x8bv6\xb3\x1e\x84\x1aR\xb8;\x91r\xa4\xd3C\xbe\xf2\xa12&gt;\x94\xec\x01\xc7O\\SY\x9c)T$\xf1\xd6\x9b\x19 mc\x9c\xf1\xf3sN\x92W|FB\x80:\x90:\nFq\x91\xb1\xb7\x11\xf7s\xcf4\x894\xa5\x88\x94/\xe5N\xdc\x99\xce\xde}qH\x04g\x80\x83\x93\xe9L1\x13\'4:\xa2\xcd\xb1\x90}\xde\xe2\x96s\xb65U\xe4\x13\xcd*\x93\xe5\x03\xd7\r\xc599\x8b{pwRH\xcb\xe4\x16\x00g=qD\x18\x08\t\x1d\xf9\xa4\x90#,nTq\x92x\xab\xba&gt;\xa3&amp;\x9d{\x0e\xa7a&lt;\xb1Mn\xe8\xf14nA\x05NT\x0c{\xd7\xeeg\xfc\x13\x87\xf6\xb0\xf0\x87\xed\x1b\xf0?K\xbc\xd7o\x02\xea\x96h\x96\xfa\x92\xa9\x1f%\xcaad\xda\x9d\x95\xb8 \xfdk\xec+\x8d\x0b\xc3\x1a\x9e\x91c\xacA\xe29,\xe7k\x83\x13 @U\xd3\x1d\xb1\xf7O\xa1\xedX77z\x0c\x8f.\x9f\xf6\xc8&gt;Ee\xdf"\x0f\x94\xf6\xe7\xb6k\x86\xd5&lt;K\xa4x~\xcc^\x99\x15\xa5\xb7\x94\xf9\xb1\x97\xe1\xd3\xbe=\xf1\\\x97\xc7\x1f\xda\x13\xe1\xe9\xf0Z\xc1&gt;\xbf\xa7\xdbO\n\xee\x82H\xc2\x83!\xc7\xdca\xdc\xf6\xc9\xaf\xcd\xff\x00\xda\xbf\xf6\xd7{\x9b\xab\xcd\x06\xc7Yi\xa6.JZ\xc2\xff\x00\xbb\x00\x7f\x19#\xd3\xae+\xc7\xff\x00e\x8f\x07x\x8b\xe3\xb7\xc6\xfd:\xc3\xcai\x9a[\x94\x9fR\xba\x05\x88D\x0e\x0f\'\xe9_\xba\xbf\xb2\xef\xc2\xfb\xad3I\x88G\x1b,p@\xb1Fb\x8c`\x80\xbe\xa6\xbd\xafD\xf0o\xd9nV\xf2xn7\xa3`\xa0&lt;\x1c\xf75\xbbg\xa3\xa5\xa5\xb2\xa3\xc1\'\xce\xc4\xe7uI\xa8\xbc\x96\x16\x12\xdf\xc3;\\JbeKM\xc4n8\xe3\xe9\xf5\xae&gt;\x1dCR\xbe\xb5}?Z\xd3\x02L\xd3\x07DyKdg\xa6OCSj\xd7Z\xbe\x94\x06\x90\xa0\xe5\xca\x87RH\xc0&gt;\xac9\xc5s\xb7wa\xfcH\x9a\x9d\xfcR\xb3C\x11fd\x90\xbe\xed\xbc\x8c\xe7\xafJ\xe5/.\xb51\xa8I\x15\xe43,Q&gt;w\x85\x00\xff\x00w&gt;\xfc\x90~\xb5\xcf\xeb\x92Gley`[r[j;\xb6\t\x07\xae\x00\xe8k\x9f\xf1^\xa5\xa7\xfd\x8a{[{\xc2\x18@@\xdc\xde\xa3\xb5y\x97\x8b\xfcS \xb7\x92\xd0\xea*\xef\x1c\x0c|\xd6l\x9d\xb8\xfb\xa0\xfa\xd7\x89\xf8\xd3\xc7$\xe9\xed\n+J\xb1\xc9\xb8\xa3JFq\xdb\x15\xe5~%\xf1=\xce\xa0\xf0m\x9e%\x10\xb1&amp;\x11\x10\xc8\xfa\x9e\xf5\xcd\xf8\xb7\xc7\xb6:\x04Rj\x1a\xfe\xa1\x1e\xf9!*\x10&gt;\x0e1_&lt;|Y\xf8\xc5\xa9x\xb6\xe5\xf4\xe8ov\xdb\xa1&gt;TG%[\xd0\x91^\xfd\xff\x00\x04\xcf\xfd\x99o\xfcy\xe3\xdb_\x18\xf8\x82-\xd6\xc2A\xe5\x16\x8c\x92bR\t\'&gt;\xbd\x05~\xb7x7A:\x0e\x96|\x98\x969|\xa5\x8e\x10\xab\x81\xb4t\'\xd6\xb4,\xe5\x8fk\xaal7\x1d^E\xf9H\x1f\xe1^\xd1\xe0k\x08\xb4\x1d\x06+\x00\x1b~\xd0\xf24\x9c\x92O5\xfc\x8d\x18\xe3\xeb\x9f\xc6\xa3b\xc6\x12\x1b\x8c\x1e\x0f\xad5\xf3\xbc\x01\x8f\xbb\xd0\x8e*B\x8a#\x04\\\x8c\xf7@)\xb98 \x1e\xb4\xc6\x0c\x14\x92x\xc784\xe5\xc9\x8cyd\x0f\xad!G\x1c\x92\xbcS\x19w\\l\xf5Zh\x8cD\xe5O\x1fJW\xfb&lt;\x83j\xe7x\xe8i\xc9\x1b\x05\n\xcd\xd7\xb94\xf0\xb1\xa7\x05\xff\x00\x1a\x8f/\xb8\x88\xf9=\xa8\xf2\xbc\xd6\x19??zr\xc6DeX\xf7\xc74\xd6&gt;Q\x08\xbc\x8c\xd2\xf2\xc3ni\xc0*\x8d\x8c\xa0\xe7\xda\x94mA\x9c\x0c\x0e\xd8\xa8\xe4s$C\xcb8\xf9\xb0*Kr\x11q$e\xcf\xa2\x1cg\xda\xbd\x83\xf6G\xfd\xa4\xbc_\xfb6|L\xb3\xf1G\x87\xb5y"\xd3\xa5\xbaX\xf5h\x08\xc2\xcb\x18\xc0,\xaa&gt;\xee\xc5\xcd~\xbcxg\xf6\xcc\xd5\x13\xc36\xd72i\xd3\xdc\xda]\xda\xac\xf6W\xb6\x831\x94\xdb\xb8\xb1\xf4\'\xa1=k\xcd\xbc[\xff\x00\x05;\xf8ce}q\x05\xfd\xdf\x91vX\xc7wo  \x0cq\x9cz\xfb\xd7\x84\xfcj\xff\x00\x82\x9e\xd8j\x90\xcdk\xe0\xebK\xa9P+*\xba\xcc\xc3\x9cq\xcer\x05|\xad\xf1[\xf6\xa0\xf8\xa5\xf1"\xfa{e\xbakX\xa6\x1bS\xec\x80\x97\xdax#x\xe4g\xd4S~\x01~\xc8\x1f\x1f\xbfi\x0f\x15\xa6\x87\xe0_\x05^\xdd\x19\x984\xd73Z\xb2\xc3\x17=K0\xe7\xde\xbfa\x7f\xe0\x9e\xdf\xf0L=\x1b\xf6~\xf0\xb1}z\x07}V\xe2%k\xbb\xb2\x9f4\xbc|\xc1OU\x0b\xcf\x1d\xeb\xef\xef\x04\xf8N\xcbF\xd2\x92=6\xc7d[\x151"{`\x9f\xado\x9b\x08\xad\xa2/\x14a\x9c\x8e~Zl\xe1\xed/\xa0i,\xd9\xd3# \xb7\x03\xf0\xac\xcdZ\xf2\r:\xeay\xa0\xd3\x8c\xf3&lt;m\xb2(\xfa\x8e+1\xb4-C]X\xfe\xd7\xa4\xc9n\x0b\x86&gt;S\x858\xcf\xf1c\xb5ex\xebX\xfb\x1e\xa3g\xe5\xab\x16k\xa8\xe2\x11\xb3\x1c7\xc9\xeb\xdb\x9e\xf5\xc3k^$\x96\xc6\xd2\xe2\xfc/\x98\xec\x9b\x12S\xf3\x04bq\x8c\x1f\xe7^u\xe2O\x12\xf8\x8a}\xb7\xdez\xc8\xec\xc4\xc8d\x95\x8eps\xd0\xf5\xe4W-\xabx\xa6\xe6\xebV[\xa9\x95\x9a7]\x8c\x8e\xd8\x1b\x8f\x19\xc7\xa5p\xff\x00\x13\xbcTtM)\xa7\x95\x0c\x93\x06!6I\x9e{g\xd6\xbc7\xe2\x1f\xc5\x1bH\xe5\x92\x1b4(-\xd5T\xb4\xaeAi\x07\xccN\x07Z\xf2\xcf\x12x\xaaK\xd8\xcc\xea731\x0e\xce\xd8\x03=\xeb\xcb&gt;"|v\xf0\xe7\x84]\xed\xad\'\x8a\xfe\xfc\xa1\x028\xd8m\x8d\xb1\xc1&gt;\xf9\xaf\x03\xf1\xbf\xc5-c\xc7:\xa3\xdc\xdd]\xa3\xefn#e\xff\x00V;\xe0\xd6\x87\xc1_\x86\xba\xaf\xc5\x1f\x1a\xdb\xe96\xd6\xd3I\x02\xc8\xbflx\x94\xe7\x1b\x87\xca&gt;\xbd+\xf6o\xf6B\xf8-\x0f\xc1\xbf\x87\xf0\xda4)m!T&amp;YT\x12\xeb\x80U\x17\xfb\xb5\xec\xda\x97\x89\xe3\xb0\xd3\xe5\xbf\x8et0$E#d$\xb8b&gt;\xf0\xf5\xc7Z\xe8\xbe\x17\xf8v\xc7Z\xb8\xfbF\xa4\x86S"\x07\x96B8\xc7e#\xde\xbd\x9e8\xed#\xb7\x89n]\xa4a\x18\x01\x94\xf4Q\xd0W\xf2\r\x82x\x02\x95@\x92\x0f/w!\xb9\xf6\xa1b\x93\xc9\xf3\\\x8d\xc1\xb1\x81\xd7\x14\xd6H\xd8\x10\x03d\x8c\x03@&amp;\\y\\\x01\xc1\x07\xad ;\xd8\x90x\xc6(eF\x1bw\x9c\xaf|\xd1\x96\x08v\x8d\xdc\x1e\xb5\x16H!\xd5\x89n\xfc\xf4\xa1N\xe7\x1b\xd8\xf5\xe4\x93N\xdc\x82P\xa1\x063\xf7\x80\xebO\x92@\xa7\n2=qQ\tWn\xe2\x01\xf9\xbb\xd4\xa8T@d\xce\xd2N\x01\x1cSb\x88\x07\x0e\xd2\x9c\xe7\x93\x9a&lt;\xe6G0\x11\x9c\x9c\xa94\xa6\x037V+\xf4\xe2\x9b\x1cr\xc7&amp;\xd2I\x03\xb95#\r\xc3\x81\xcfj\x8eI\xb7)\x8f8lRG$g\x11\xb8\x1c\x1eJ\xd4\x91\x82\x88H\x1b\x818\xe6\xb4#(\xb1\x89\xe4\x04\x11\xc9+\xd4\xd7\xe8\xb7\xfc\x12\xef\xe2|\x9f\x1a&gt;\x1c^| \xd6/\xf7\xeb^\x1b`\xd6\xd9$\xb4\xb6n2\x08=p\xad\x85\xf6\xae\x8f\xf6\x9d\xff\x00\x82{\xea\xdf\x145)\xf5\xff\x00\x05\xe8\xd2\xd8k#\x1b\xd3\xec\x85b\x9f\xdc\x901\x9fz\xf3_\x84\xff\x00\xf0G/\xda\xab\xe2\x9e\xbc,\xb5/\x0f\xdb\xe96\x84\xe0\xea:\x8d\xc8H\x8a\x83\xc9\x18\x19&lt;W\xdf\x1f\xb2\x8f\xfc\x10\x93\xf6r\xf8Sim\xe2\xaf\x89[\xfc]\xa9\xa3\xa6\xf1p\x02\xc0\xa7#;c\xe9"\x8fR3_f\xe8\xbf\t\xbe\x1ax\x16\xda\xdbL\xf8\x7f\xe0;\x1d.\x15\x88$\xf6\xf6v&gt;T`\x0e\x84\xaa\xe0g\xea+V\xd2\xf9m\xf58mL,\xcf)\xc2(\\\x85\x03\xbe=\xab\xd0&lt;=\x15\xf4\xd6\xd7/y)x\x12\x19v\x01\x18\x04\x10x\xc7\xbd;N\x92\xd7\xc9\x8c\t\n\xb9b\x01\x94t=\x89&gt;\x95c\\\x16\xc4I4-\x1c\xcdo\x17\xef\x9d0B\x8cu\xe6\xb8\x0f\x11x\x96\xcbK\xd4\xa1\xbd\xd2\x929\xcc\x91\xb7\x9aL\xe5\x1aP:\x90\x7f\x83\x1e\x9d\rh/\x89-,\xad\x9e[\xbb\xa8\x0c\xc5\x06\xf5\x8a\x16f\x05\x87\xcb\x86\\\x0f\xafj\xf3\xaf\x88&gt;"\xbd}Iug\xb7H-#\x18Q#\xe0\xe7\x18\xdd\xb7\xb7\xd7\xady\xb7\x8a\xbcU\xb9\xe5K\xd9\x87\x98\xd8\x946\xc0\xad\x12/?(\xe9\x8e:\xf5\xae\x1fY\xf1\xc5\x81\x9aE\x92\xfd\xd8\xa3\x02\x8f"\x02\x80\x7f\x8dyo\x8d\xfe(\xc7\x1d\xc4\x8f\x15\xc2\x1d\xef\xf2\xb1~\xde\x83\xfb\xb5\xe3\x9f\x12~-\x19aM6y\xa4\xdb$[\x99\xe5\x03\x0cs\xd00\xe4\xfe5\xe5\x1e%\xf1\x8d\xa5\x9e\x9bu\xe2MoY\x8a\x1bH\\\xb0\x12"\xe0q\xc99\xe4\xf1\xd7\xd6\xben\xf8\xc3\xfbN\xdfx\x96K\x8d\x0f\xc1\xd2\x1b]=\x89\x0c\xea7&lt;\xb8\xee\x1b\xaa\x8fa^M\xf6\xb9n\xa7i\xa6\xcb3\xb6rO$\xd5\xaf\x0cxcU\xf16\xb7\x06\x8f\xa4[\xbc\xb3\xca\xf9\x89V=\xc0\</t>
         </is>
       </c>
     </row>
